--- a/Game simulations/Week 16/Bears at Seahawks.xlsx
+++ b/Game simulations/Week 16/Bears at Seahawks.xlsx
@@ -57,16 +57,16 @@
     <t>SeahawksAvg. FPTS</t>
   </si>
   <si>
-    <t>N(-1.1477, 12.21803931529114)</t>
-  </si>
-  <si>
-    <t>-6 -5 16 -3 -32 7 2 5 -3 -5 -13 -18 -7 -15 9 -1 -20 -6 -3 6 10 1 -3 -33 12 -12 13 7 -22 -13 -33 6 -7 15 -4 -11 6 6 2 -11 7 -6 -14 13 2 -8 -24 -11 24 -13 -11 20 15 14 -2 -12 -32 -7 -3 5 6 17 -10 4 8 -11 3 1 1 13 3 6 -12 2 -6 3 -5 2 -4 6 3 -11 -1 -1 -3 7 -24 11 -24 -7 -8 3 -13 21 -14 -3 -3 7 10 14 -3 -6 17 7 -20 3 -11 -16 -25 -18 5 -8 -3 4 -6 7 7 10 -24 3 -11 6 13 3 -17 27 -17 -15 20 -21 6 3 -16 -7 21 -3 -5 1 6 -6 -19 -19 3 5 -6 -3 6 -15 -37 -23 -13 -2 9 -6 -4 -6 7 -7 36 17 3 -2 11 11 -8 4 -19 3 -11 -23 -15 -24 4 -5 3 11 -17 22 -6 9 3 -14 -6 -11 -10 -15 -7 5 15 28 38 -3 10 -10 -16 -2 9 -2 10 -8 7 6 11 -6 -10 13 3 -11 6 -8 3 4 -12 23 7 28 -3 4 17 17 8 -2 -5 -11 -5 4 -7 -13 21 -19 -5 -3 -3 -17 9 -18 14 17 -1 4 11 6 34 -8 -3 13 3 14 -13 10 3 -27 3 3 13 15 -6 -4 3 -13 -6 22 3 -19 13 8 -14 -12 7 9 6 -30 -4 -3 13 -5 14 -19 -17 -8 7 -7 -13 4 18 3 -3 6 13 2 -1 -15 -7 8 -17 10 -22 -7 -24 10 13 -6 1 18 -12 -1 -12 10 4 12 7 -3 -1 5 6 7 3 24 -11 21 -17 -6 7 -9 27 -37 -10 -13 4 -5 -14 -19 4 -16 13 6 7 6 -13 2 7 4 2 -28 -6 -7 -4 -18 -2 11 7 -18 -3 24 -10 -5 -6 10 15 -6 -2 -18 -13 -17 1 9 13 -12 20 8 -11 -6 8 8 3 -6 10 -6 -28 -3 -7 -8 -12 -2 -7 -13 -8 27 -8 -6 -19 -1 -10 -3 8 -3 -27 3 6 8 7 -6 -1 -10 6 -5 5 11 3 -15 35 7 3 -18 -1 -3 -8 6 -10 14 2 -17 -4 9 -34 -10 -3 14 34 -2 6 12 7 -13 6 -4 -5 -10 -10 -1 8 -6 -3 -3 -14 -14 15 11 -28 10 28 7 -22 3 20 25 4 -8 -2 26 10 -20 20 -10 9 -20 -4 7 7 26 7 10 -13 5 18 20 -3 10 10 2 -17 8 13 17 3 -21 1 -1 -3 -23 7 -19 3 11 12 -6 7 -6 3 -19 22 -2 3 -15 -18 -6 -1 7 1 3 7 7 -13 -11 -19 1 -14 17 -4 5 9 -3 -10 6 -2 -10 -24 -19 -8 15 7 3 -3 -6 -38 3 -7 -4 -13 -6 3 3 4 -19 -5 -4 7 3 4 1 14 -16 13 8 -14 -17 23 -17 -26 -3 -10 3 5 -3 -10 3 17 -18 -3 -8 27 -14 3 14 -14 -3 -14 -9 -3 14 3 -7 10 -23 2 -6 -7 -6 14 -3 18 -26 22 7 -8 -17 4 3 0 -15 18 -3 8 18 6 3 1 -4 1 8 -17 -2 -19 -1 -14 -6 -26 -3 14 10 3 -3 -6 5 1 -14 -10 6 4 -3 -9 -4 11 9 1 1 0 -25 24 -5 -3 -11 -3 -3 -8 -17 -8 -6 -3 -34 -7 3 -6 -7 14 -6 -4 -13 -10 8 -2 18 7 28 3 10 -17 6 3 20 -3 -17 -3 7 10 3 -10 -2 -14 14 3 -3 -39 -1 5 -11 5 -3 3 7 3 6 0 -3 -1 -3 7 11 -9 -29 6 4 -7 3 -6 10 14 24 -7 -4 -7 8 -5 -10 15 7 -8 10 7 10 7 2 -15 -13 19 -3 -3 24 21 -3 -3 7 4 -3 7 -13 -19 27 -26 1 7 -10 -1 3 -27 0 -3 -2 -3 -3 -3 14 34 -3 -1 -1 -14 7 -11 5 -22 15 -3 -3 -9 -3 8 3 -23 -4 15 -4 9 7 29 11 -14 6 12 9 19 13 20 3 8 -11 1 -23 15 11 1 17 -3 1 -12 18 20 15 4 11 1 1 -6 2 -5 7 -38 -19 -9 -11 -1 -3 17 9 21 4 4 3 -3 -6 7 -3 15 14 10 28 -10 -14 -14 3 29 -15 -10 -5 3 17 -28 -3 -17 5 -3 -14 -2 14 1 11 25 -16 -3 -20 -6 -11 25 -8 -21 9 -11 6 17 4 -4 3 6 10 -16 -6 -17 -23 -7 14 11 -14 3 10 -4 -2 4 11 6 2 4 -13 3 3 14 18 -5 -3 -24 -1 22 -13 -17 19 -11 7 0 -3 -16 5 -14 16 -4 1 -3 -7 -14 -23 6 -8 -14 -20 -4 19 0 6 -22 -3 -7 14 -7 28 14 6 -7 -14 -14 -2 -8 -23 -4 -20 -4 -6 -3 3 -1 -7 3 -2 6 26 -5 2 31 3 4 -1 5 -3 -3 28 -7 -8 -6 3 4 -28 -29 0 21 -10 -24 -10 11 -1 -6 -2 -13 2 17 21 -9 3 4 14 -10 -3 -2 20 15 -12 10 -13 6 -7 4 -5 -24 4 -7 12 -2 -18 -3 11 7 -10 4 -3 7 18 4 -14 -10 -19 -6 -5 -18 -9 17 11 -6 -21 -9 -4 -22 -18 -11 16 13 -5 2 14 31 -21 26 -5 -13 -14 4 -14 -4 -18 -11 7 -16 -20 3 10 -5 -4 3 -5 -4 21 -17 11 7 -5 -2 17 20 -8 22 18 -15 -6 -6 -3 -19 6 -20 8 -15 10 -3 -3 -13 -10 -10 3 14 -2 15 -3 3 14 7 -16 3 -7 2 13 27 -8 14 17 -28 -1 -10 -14 7 -8 5 1 -11 3 10 -10 -3 12 -27 -14 7 1 -16 -4 0 3 -2 -7 -12 7 -9 9 -26 -20 12 -21 -6 -21 -3 -7 14 -4 6 -3 1 15 -29 -8 4 -3 -3 13 4 4 4 -24 7 6 27 -5 -8 -3 -10 17 -16 1 -20 -2 10 7 -14 8 -7 16 -16 -4 7 16 10 -5 2 -7 -6 -11 4 12 21 3 -6 10 -3 3 16 -5 -2 21 -8 6 -10 -3 21 12 -4 -3 3 10 -35 -4 -13 -22 11 -10 -10 -2 -14 -6 -10 -11 1 -10 7 4 22 -3 10 -22 1 14 -29 6 -6 -2 -2 -5 -15 -4 -17 -2 8 6 9 -7 10 -15 -3 -6 14 -23 11 -6 -2 5 13 -19 10 -2 -13 -21 2 3 3 -6 -14 -2 4 5 -20 -12 3 15 0 8 -17 -6 -3 -3 1 -14 -19 -18 6 -11 4 7 -3 -16 -8 4 -14 -8 3 -9 0 7 19 -4 -14 -5 -6 -23 -37 7 -6 15 6 5 -4 4 24 -6 -1 9 -17 15 -3 3 15 7 -6 -20 3 14 4 -15 3 -3 17 -20 3 1 10 7 -3 -26 4 4 -6 -4 3 -21 3 10 -3 -20 -2 -13 -2 11 0 -5 7 6 14 -6 -7 -17 7 -18 -1 -7 9 24 -6 6 17 -16 9 -10 1 -10 -18 6 9 -15 -14 6 -4 9 7 4 -3 -2 13 -9 20 -8 -23 -4 -18 3 3 -9 -15 -11 -21 -8 7 -16 3 13 10 4 -26 -4 -5 -1 -6 7 8 27 18 1 -5 1 3 8 3 -7 -1 -4 -17 19 -3 -3 17 10 3 6 -8 -11 -6 8 1 -26 6 6 6 16 -3 -13 -2 -9 -2 -5 3 -3 -8 11 -3 -10 3 8 22 5 -7 -13 4 -34 -3 -3 6 3 -3 -4 6 1 -17 -6 -5 -3 14 -3 2 -8 1 6 3 -2 1 -15 -10 -6 -22 -3 6 13 -10 -2 -4 -21 24 -2 -3 -6 -16 -3 10 6 -1 4 -1 10 -6 -10 21 1 3 15 15 17 -13 9 0 8 1 -6 13 -10 -8 -2 -12 9 -17 -2 4 -11 -5 -4 9 29 -3 -4 3 -20 -3 -8 -35 -1 -6 -12 -5 -7 25 -3 -4 10 -12 -3 8 -9 -6 17 10 1 -9 6 7 -21 13 -6 -11 -4 -14 -3 6 8 -21 -11 -5 -16 -10 -5 10 -20 16 3 -13 -23 3 3 3 4 20 -10 -3 3 -7 -6 4 10 11 23 -7 3 13 2 -3 -7 6 -3 6 5 -6 21 -24 -25 -3 -3 17 10 3 -13 -7 8 -23 -18 3 -6 -9 -10 -8 8 -7 -8 4 -7 8 -10 8 6 9 8 -15 13 -27 -7 -21 -14 20 -3 -4 4 -16 3 7 -7 3 11 3 -17 -9 -16 1 7 8 -7 0 -3 -20 6 -2 -6 -17 -3 -3 14 -3 6 -4 3 4 11 -4 11 -6 -8 17 4 -13 21 -16 7 -9 -10 4 -10 3 -24 -12 13 -10 3 -8 8 -17 5 -10 -14 6 -13 -14 -6 7 -3 11 4 2 -1 -3 -3 -12 9 14 -12 5 -19 -21 6 -7 3 -17 19 -9 1 1 7 3 -7 -7 7 -6 15 -1 4 6 3 17 -7 3 -18 5 -2 -3 18 -10 -23 -5 3 -7 13 1 10 4 -15 -7 6 -14 17 -12 10 5 3 0 14 4 -4 -42 10 -24 -6 -3 7 16 10 15 -20 6 7 -5 -2 18 -4 10 -13 19 3 -18 14 -6 2 -9 -8 -18 7 -9 14 5 20 6 12 -8 14 12 -8 -21 -2 3 -15 -4 16 7 -8 8 1 -6 -7 -21 9 -5 4 -2 -5 10 5 -7 9 -9 2 3 24 -6 -13 -8 -5 8 -6 2 3 10 7 -1 -22 -7 13 3 5 -5 -7 -2 3 -5 -18 14 -17 -3 0 -4 5 -14 -1 -6 -3 9 3 5 -5 4 -1 4 3 7 -11 -18 4 0 -10 21 -3 9 4 -14 -13 -4 -18 -4 -4 -12 24 -11 -33 8 -6 -6 24 -6 3 -6 14 -3 -21 2 -7 16 -26 -7 13 -15 3 -3 -21 4 -8 4 -16 20 13 -4 3 6 4 10 5 20 0 -10 -7 6 -2 -11 3 5 -17 -20 14 17 -31 1 1 1 -8 10 -11 -4 17 -3 -3 15 -10 3 -3 8 7 -8 -1 -7 -10 -6 -14 1 13 2 -14 7 10 -11 14 -5 -16 21 -8 -18 -50 -7 -15 -13 -13 -3 10 -5 11 -14 22 -7 3 -17 -17 -14 -9 -3 -18 17 3 -12 8 -5 -17 -26 -24 -22 1 13 -2 10 8 8 5 -7 -7 -7 -17 15 2 -16 28 -22 4 -11 -5 -11 -13 7 7 15 6 5 9 3 -6 15 -10 3 31 -18 -17 -4 -8 -16 3 4 2 2 -8 -9 8 4 -21 14 -2 11 7 8 3 6 6 -3 -27 12 14 5 -11 7 -5 10 9 35 9 -18 -7 3 -2 1 -5 3 -7 10 -12 7 -9 15 10 17 6 21 6 0 7 -17 7 13 27 4 -17 11 5 7 -6 5 -3 -27 13 -6 -23 1 -7 32 -3 6 -15 -11 12 3 17 3 -6 -6 7 -3 -6 -13 -3 4 3 -13 -7 5 5 -22 -18 -1 -2 -2 -14 -15 11 -10 1 0 10 -10 -3 23 -14 -10 4 16 6 -4 1 -7 -2 -7 -17 27 35 22 17 -3 32 -7 2 -25 -9 15 8 -14 -1 -7 -8 -12 10 -6 -6 -17 -15 3 10 -9 0 20 -37 15 -12 -3 -17 -25 -4 8 -3 3 5 17 2 -7 -3 6 5 -3 7 3 -20 4 -11 -14 -7 -8 16 -2 11 -11 -19 -11 0 0 14 -10 -17 19 -35 -13 -6 -2 9 -7 11 21 14 -6 3 -21 14 -15 -7 16 7 6 7 4 -14 -13 17 3 -6 20 -3 3 17 3 1 -20 14 7 -27 -11 -15 2 0 20 -11 3 -17 -2 9 -7 8 -4 -31 3 -13 7 8 -2 -3 -4 -17 -26 7 -4 -6 5 -11 32 10 14 -10 -21 -1 10 17 -14 -4 -4 -3 3 3 -11 6 38 0 7 9 6 -33 7 -11 -3 3 -3 -12 -12 -5 16 -12 1 5 -17 12 -28 3 12 11 20 11 -9 -5 -8 34 -17 3 -13 -11 -4 7 -14 3 -10 15 5 3 12 -21 9 -7 17 23 2 10 14 -19 -3 -6 7 -14 0 -3 9 25 14 18 -11 10 -3 -6 -3 8 6 7 -8 -25 10 6 -6 -7 -3 -14 -17 15 -3 6 -14 5 -19 -5 -6 19 11 -13 11 -11 -1 1 2 17 -15 23 7 -3 1 -5 8 6 -10 1 -3 -25 -8 10 3 4 10 10 -10 8 -15 -13 -18 -30 -7 -23 -5 -8 -10 -9 -16 3 5 14 3 8 4 -9 20 -5 24 6 18 2 12 7 6 17 6 -8 4 -3 -6 7 -18 -6 -13 -3 -3 -21 -1 3 5 20 -1 -3 -6 24 11 5 15 3 -10 -4 -22 15 -3 -10 14 -4 4 11 -3 1 6 3 -18 -7 -14 -9 -18 -30 18 21 -3 -10 -9 4 1 24 3 -28 -4 1 7 -9 16 10 -5 -14 8 -7 2 -12 -10 7 -14 -12 6 4 13 24 -5 -3 10 3 6 8 14 23 -3 17 -2 -6 4 -36 -3 -7 -2 -3 6 -1 3 10 -5 13 12 8 6 -8 -15 2 14 14 -6 -16 2 -11 2 -4 -4 -3 15 -7 -11 -4 34 -27 22 1 -19 -18 3 -11 -21 6 -12 7 -3 -18 7 9 7 -5 11 11 -20 -3 -8 -17 12 -3 -19 1 -3 -7 -8 3 15 11 7 -3 18 2 5 6 3 -11 -3 7 -6 4 8 24 -3 6 10 -14 13 -6 7 0 -28 3 -6 4 11 21 -6 10 9 19 -24 -4 3 6 -1 6 -16 -14 2 3 3 3 17 -3 12 -3 3 -3 -10 -6 8 1 11 -7 -3 10 -3 -10 -7 10 33 -17 21 -14 -15 3 -3 -12 -9 4 -6 7 -16 -10 -7 3 -13 -13 6 -7 11 5 -3 3 3 -10 -3 -6 11 -3 14 -11 -4 6 -15 -22 -22 -8 -29 8 22 -13 -6 -2 -20 -4 2 -15 4 -16 -14 2 16 -10 -9 -11 3 -4 3 6 -3 -20 2 -15 17 -14 1 11 -3 10 -6 -20 -10 16 -10 3 24 -8 7 18 -13 -25 6 16 -34 7 -3 36 4 6 18 6 -3 -6 -7 -17 7 -3 4 -6 -11 -5 29 3 -5 15 5 -7 -14 22 -12 1 3 4 -4 7 -11 6 -10 11 15 3 -31 -15 3 -4 -14 -15 3 -13 6 11 -10 -6 -20 2 6 4 -2 4 -11 -13 9 -14 -13 -28 -6 14 -11 1 6 -2 4 3 -17 -11 17 -4 3 3 -17 -10 10 5 -9 -10 -21 -8 -15 -3 -14 13 -10 -3 7 -6 4 7 6 -24 8 -9 -11 8 9 3 19 6 -2 6 7 -16 -23 -14 -14 -27 3 17 -10 3 -14 -7 7 -18 0 -16 7 23 6 -3 11 -6 -6 -6 6 -11 3 -23 6 -29 17 4 8 -4 3 -7 -6 16 8 -9 13 -7 -4 4 7 -3 10 4 -3 -7 -8 -6 4 7 7 -3 7 -15 -6 -17 -7 -11 17 -6 -5 -2 6 -10 -10 10 -3 7 21 -8 -3 -6 24 -12 -5 -15 20 -2 -9 6 -12 -31 -6 3 18 -1 -27 -10 -9 -7 -5 -7 3 11 -19 4 14 -7 5 1 3 4 6 -15 6 -7 3 1 18 -17 9 -5 3 1 -6 -18 18 14 12 3 -6 -18 7 -8 -38 12 18 -14 -33 2 -7 14 18 -3 -2 -6 -6 -2 23 3 6 9 3 3 -5 -3 13 -3 4 -15 -5 15 4 -11 -10 -28 7 -23 -17 2 -1 -2 -6 -10 2 -24 2 -7 3 0 15 -5 7 -3 23 -19 3 -8 3 3 -6 11 1 -13 -9 -3 -12 3 6 16 3 -2 -18 0 -6 2 1 3 -5 -20 7 2 19 15 -17 -6 21 -3 25 -3 4 20 -21 -19 3 -7 -15 7 -14 -24 31 -6 -11 12 -6 21 6 -11 -13 9 -28 23 7 -16 -12 -26 -7 28 -11 -2 16 -7 20 -30 10 -3 12 -5 -2 -13 7 3 5 -10 -10 24 5 26 -16 24 23 6 5 -4 -9 -3 -16 -14 4 -3 1 -2 7 -3 -15 -12 -12 24 -15 -3 -31 -12 -3 -1 4 22 -18 -1 19 3 -13 14 3 -6 -17 -6 -3 4 6 -3 -6 -18 10 4 2 -5 5 2 -21 -7 16 5 -7 -14 21 -3 -7 14 -13 -21 3 1 -6 -2 -14 8 -3 26 -5 -3 21 -17 4 -8 -14 3 -8 10 14 -15 8 -19 -17 -4 4 4 -3 -10 -13 -21 9 -7 -19 8 -22 -16 -21 10 3 6 -21 17 3 12 -16 -3 -13 -6 3 -22 1 -1 -24 -28 5 -14 -5 -8 3 5 -3 -4 -16 -3 -13 -4 -14 4 -3 -18 -4 -5 7 -1 -14 1 -20 10 3 -21 -33 10 -12 -9 -3 3 7 6 -1 -7 -3 -31 -16 11 -3 11 2 -8 10 -12 -3 -8 -11 -10 -16 8 -13 -20 1 21 -2 -11 14 17 3 2 -7 -7 -3 -25 13 4 -20 1 11 14 -14 21 10 -38 -3 -3 16 2 11 -17 -15 -8 7 -9 7 -8 20 4 10 -11 4 15 -15 -22 -19 -22 -10 13 6 -8 27 10 0 -27 6 -5 4 17 -10 -1 3 6 -4 13 -8 -3 4 -3 -6 5 21 -3 -6 -11 -20 -14 17 10 21 5 11 -18 -2 13 -3 -10 -6 6 1 3 4 5 -2 -6 -6 -22 2 7 -6 7 -7 -7 -3 4 3 -5 1 -22 3 3 7 -3 10 15 2 -16 9 3 -21 -3 -20 -15 -1 2 7 4 7 1 -12 -5 -11 15 -4 4 15 -13 -15 -3 1 14 7 -6 10 -13 -14 -6 -12 6 4 -2 21 6 3 -3 -3 9 -3 14 3 -14 7 18 -27 -21 1 1 -7 -3 -6 -17 6 16 -3 -13 7 14 22 9 -20 1 -31 -1 3 15 12 17 14 -10 9 4 4 -23 -11 -19 5 3 -6 7 -3 -7 -3 7 3 5 -9 -19 -9 -7 -6 -24 -7 -20 -22 -26 -15 -7 4 -18 0 -6 12 -3 -12 -7 11 15 25 6 -6 -7 -16 -4 -17 -3 -6 -12 -3 -1 -6 -4 -7 -22 6 3 8 -3 8 -6 14 -13 7 8 -7 -7 6 14 11 -10 -6 -8 -4 -2 -18 7 -11 4 8 1 -1 9 8 -8 7 3 3 21 -17 9 -2 -3 7 15 10 -7 -8 -17 -7 6 -11 10 18 0 -3 18 -4 2 -8 -3 24 3 -10 -4 9 -1 8 -17 4 -3 -1 15 -27 3 -3 -6 -2 14 -3 -17 -7 18 -12 17 -1 -16 1 1 -10 -19 11 -7 -4 -3 -8 19 6 6 -16 -15 3 1 -27 6 -11 -13 7 3 -6 -1 -7 34 -2 -21 -10 10 10 4 3 20 -2 -17 -4 5 -11 -9 -3 7 -20 -2 10 8 -10 -4 -3 -7 -10 5 5 -15 -14 -2 16 -6 1 -4 8 8 10 27 3 -18 -15 6 17 -7 -3 -17 3 -23 -8 -5 -3 14 5 1 -5 -3 -1 -12 16 9 -2 -1 1 1 -8 -14 4 6 7 8 -7 -7 12 21 34 3 -35 8 10 3 4 3 14 8 -24 -26 -5 -3 -3 21 1 -8 -10 -6 -10 4 -5 14 5 2 -10 -10 -6 -11 -9 -23 7 -3 6 -3 -14 3 -21 17 8 -8 -6 -29 24 -1 17 -7 -14 2 3 7 14 20 14 1 -15 8 -5 4 17 -4 4 -15 3 5 10 -15 -17 -14 13 -17 -23 -10 21 -11 10 32 12 -4 -12 7 -17 1 -5 -25 -3 -3 10 -13 1 31 -8 -38 17 -3 -2 -7 -3 -9 18 -7 -11 0 4 -3 -8 5 16 -14 16 -9 10 -5 -8 -6 3 -17 6 -27 1 -11 18 17 6 3 -20 -4 -8 2 -8 7 3 -6 -7 7 -11 -4 -8 7 -7 6 -14 7 -6 6 -14 25 -8 13 -3 -26 -3 -1 9 -8 24 7 5 8 -5 21 -3 17 -17 -9 -8 -19 6 -4 -8 -2 -15 14 -1 3 7 -18 8 6 -4 -4 7 3 5 -5 14 -11 -6 31 14 0 11 -11 -3 2 -5 4 15 6 11 7 -26 -14 19 6 -2 7 -23 -27 -8 9 -12 -10 -8 -35 -1 -6 -3 41 -13 6 -3 14 -17 36 18 -7 4 -8 -1 -4 -7 -28 -10 -1 -8 3 -8 -1 3 3 -2 10 14 14 -3 10 20 12 3 7 4 -7 24 -3 1 -3 7 -3 8 0 9 5 3 -11 -7 -17 -10 -15 3 16 -9 -10 10 14 20 -16 11 -23 25 -14 -19 3 -14 10 -6 7 -5 -20 -34 -3 3 6 -3 6 -3 11 6 6 -3 -24 -10 -3 -29 -9 4 9 2 -3 -16 23 -3 -10 -3 24 -3 8 3 10 10 4 13 6 -18 -5 -23 -6 21 -14 -16 -8 12 10 -2 -2 -4 -5 -20 -11 -6 4 -8 -20 -9 -4 -17 -19 -18 3 11 -15 14 -6 20 9 -21 27 -7 6 -5 2 5 -10 14 -6 -7 21 3 -14 -3 -3 17 3 7 -3 7 5 -13 6 -10 21 17 13 -2 4 1 11 -33 7 -9 -4 -30 5 2 -3 -2 12 4 9 -4 6 13 3 -3 2 -17 11 -26 8 -20 12 -11 6 10 8 -20 -9 -32 -8 -2 -7 11 -18 -14 8 17 11 -1 24 -4 -19 13 -2 7 -10 -3 -29 6 13 11 -3 5 17 -4 3 -10 -23 29 -24 -3 -19 11 -6 11 -16 -4 4 5 10 -6 -11 21 -3 5 2 13 7 3 -22 3 -11 3 -6 3 11 -10 -22 -4 3 -15 -20 1 -14 6 5 20 -3 5 7 -2 -15 -18 3 -26 3 -9 -15 -11 -7 11 17 -21 14 18 3 6 10 17 -31 9 11 3 3 -2 -7 -1 -35 -9 -21 2 13 -27 -4 1 -13 -17 15 -4 -8 -1 5 -9 -10 11 -8 -24 -30 1 -3 -9 2 16 18 7 -28 -6 11 14 6 -15 -5 -25 -12 -6 -6 12 -6 27 -12 15 -20 -23 32 -3 10 6 -18 -16 -13 -18 -3 18 7 3 10 7 11 -7 18 2 -25 6 -15 1 -6 -2 13 11 -17 6 24 12 5 -13 3 -3 6 15 19 3 2 8 4 1 -1 -8 -18 -10 -5 -14 -13 20 9 8 -15 3 16 11 10 13 -8 -13 -4 -17 -8 -20 5 -11 17 7 -17 -7 -4 -14 -6 -7 -13 -6 11 6 -28 4 1 0 14 -7 -27 1 -3 15 1 -3 6 19 3 -17 -20 3 -14 3 -5 3 -20 14 -7 -16 8 12 -6 -17 -3 -3 7 14 7 12 7 4 1 -3 2 11 3 -7 -3 13 7 -12 -2 4 -3 3 7 -2 -3 21 16 8 4 20 -7 -6 -17 -21 -15 10 -6 -6 2 -3 1 -40 16 -7 -14 6 3 -4 -1 7 -18 -8 17 -2 4 -4 -1 14 -3 -7 -22 -3 7 0 7 22 -6 15 -6 -10 6 -10 31 -10 10 -42 -4 -7 -3 5 18 -5 10 6 3 7 15 21 -3 6 14 7 -14 -15 -5 22 -2 -6 -23 17 1 -20 14 -11 -25 12 6 8 -8 4 -7 -6 -3 -19 -20 1 -10 1 17 -7 -4 9 -7 -1 -3 14 -5 21 12 -3 9 7 7 -21 -3 3 21 -6 -7 -3 -2 6 8 0 4 7 7 -9 -3 -5 2 -4 8 -12 3 20 22 10 -13 7 4 4 -1 -5 -3 11 -19 -2 -7 -10 -9 11 6 6 -5 -13 -6 -11 -10 1 3 6 -17 -2 7 -7 13 11 -18 -3 -9 8 30 -14 6 -3 -19 18 -26 -21 -6 -4 -20 -1 -4 -1 -24 7 -3 11 -15 7 8 -17 -3 -10 -17 -5 1 4 4 -3 24 21 19 -5 2 -7 25 10 3 6 12 -1 11 20 -6 -11 18 -14 -13 9 4 -6 4 -24 7 17 -7 -24 3 -6 7 15 4 -14 1 -15 -3 -6 -7 -4 5 1 3 -5 3 -6 4 7 -17 -7 -2 -12 -18 -10 7 6 -9 15 14 6 -3 14 -2 -6 8 3 -22 1 -16 -6 -2 7 -4 -18 3 -23 -4 -10 0 10 -3 -29 -6 -24 3 9 4 -14 -5 7 3 -3 53 -3 3 2 -20 -3 -14 -25 -9 -14 -3 8 7 27 7 17 7 12 -17 3 18 7 -5 -1 3 -3 7 -3 7 -6 8 -1 15 -13 -4 16 -20 10 8 13 -3 6 13 -3 13 -2 4 -19 -27 3 5 -5 17 -7 14 -13 3 7 2 11 2 5 2 17 -11 14 -8 -6 -3 -17 -3 17 1 -3 -11 7 -13 -4 26 10 8 12 6 11 -3 -17 2 -2 3 -10 -10 -4 6 7 -4 11 -24 -38 -10 4 -4 -6 -28 15 -1 -3 3 12 -10 7 -15 -5 13 -3 5 7 -5 -3 3 -28 -5 -14 8 3 -11 -3 -22 -7 -6 -7 -19 0 4 -3 31 -32 9 5 -3 -9 -3 10 2 6 6 -3 -6 7 -9 3 3 4 -10 -7 -8 4 -11 -1 -8 -7 3 -22 16 -20 -10 -7 -3 -3 11 -3 -28 -14 -2 24 6 -3 3 6 -6 19 -4 10 7 11 4 -11 -12 -13 14 24 12 16 -3 18 -11 -13 6 1 8 14 -4 -8 4 -9 8 17 12 -14 10 6 3 4 -6 -32 -3 -10 8 -9 -19 -9 4 -10 -11 -13 17 9 -14 15 10 10 -8 -7 -48 7 11 13 -3 15 15 11 3 10 -3 5 -11 -17 -1 -11 3 -4 31 4 -18 3 -1 5 -4 -4 -18 6 -3 -3 -3 6 4 -5 7 3 -30 -10 7 15 -1 3 15 18 -10 -7 4 3 21 -8 -23 5 4 10 8 -3 -13 7 -30 15 22 -7 11 21 7 -4 6 0 1 3 -3 -16 -14 8 -4 10 3 15 -17 5 12 7 -7 -4 3 2 -2 -5 -15 -14 -29 -14 8 -10 -10 -2 7 -9 3 9 7 -14 -3 -14 11 -32 -6 -3 -15 17 33 -2 2 -3 -14 -10 1 -13 22 -14 8 7 4 -26 -39 -3 -3 -15 -8 6 -8 15 7 -17 -13 3 -3 -7 -3 13 3 2 6 12 -11 -5 -9 -10 -14 -13 1 8 3 -8 14 13 -17 -7 -6 17 12 -12 -4 10 -19 7 19 -26 -25 4 9 -13 8 -5 21 -6 -9 0 5 -20 3 4 6 3 -6 7 -2 -17 -5 -24 5 -6 -5 -13 14 -9 -11 31 -3 16 4 7 1 10 6 -10 7 8 -10 4 -12 -7 26 -6 -17 5 -4 -7 13 11 23 -24 -31 -5 15 -16 -14 -3 8 11 23 7 -7 18 -16 3 -12 -13 -3 3 18 -11 -9 0 -3 -3 6 -9 16 4 12 -6 27 16 1 -3 3 -7 7 -10 -17 9 3 -19 -3 -27 41 -11 6 27 -32 13 3 18 1 -7 14 3 -14 4 -9 -9 -8 -5 17 -4 18 -4 -14 -3 -20 9 4 11 -3 -7 5 -4 -14 -5 -7 15 15 3 8 -14 1 4 1 -5 -27 -7 -17 -10 -7 14 11 -3 -6 -3 -17 3 -10 11 -6 3 14 -13 -14 -13 1 3 -8 13 13 8 8 6 -2 3 4 -23 -18 10 7 13 3 -20 -6 -3 3 -2 13 7 -8 -4 14 23 -3 -20 3 3 -5 -11 10 -1 28 -3 -5 14 1 -4 -17 -3 9 -7 14 -13 11 -8 18 6 -4 10 8 9 -23 9 13 2 8 5 -6 7 3 -9 -7 -3 -3 -26 -5 -3 -16 -16 -7 -5 -13 -5 3 -20 5 -5 4 -15 21 -27 10 -3 -13 10 -4 6 -2 -7 -3 8 13 7 6 -3 3 -13 -7 -3 8 6 -21 7 2 -17 8 -6 1 -17 7 6 -14 10 0 8 14 -1 -16 5 -17 -37 17 -1 -3 -7 -14 -1 10 13 7 10 -6 11 5 -6 15 12 3 -17 -15 -7 17 11 8 11 -10 1 -8 -6 11 -6 -8 -3 2 11 -10 -7 -10 13 -6 -11 -5 3 -3 7 4 -7 4 -7 -2 3 -6 2 7 31 3 -17 -23 -18 1 -20 -19 -6 2 3 6 -13 -8 12 -4 3 -16 4 -3 13 -13 14 -6 10 13 6 21 7 -1 -8 -15 14 17 1 -1 -8 3 -3 -5 3 -10 -6 -13 11 -18 -6 7 -20 4 -22 -20 -11 -3 -10 -9 -13 -5 3 -3 -3 -14 -14 6 -2 28 17 -17 -33 -3 -16 -3 17 3 -16 -16 14 3 5 -2 7 -3 -1 2 -3 18 3 -17 5 5 3 9 11 -6 -3 18 10 6 -8 -14 -6 7 7 -3 -3 -16 -14 -22 11 -5 10 11 8 -11 5 1 -6 17 -12 5 -1 -9 -16 -10 10 -3 4 -3 19 8 -6 7 -13 -20 23 3 22 -13 11 -5 -3 34 18 8 -8 13 -3 -3 -3 -3 16 4 -17 4 8 10 4 -21 11 -12 29 -3 7 -7 12 -11 -19 -17 -17 -8 -18 11 -12 -14 7 -3 10 18 -11 -10 0 5 20 11 -9 7 -19 -14 5 -11 -4 10 -20 -16 -3 -20 8 3 -18 -3 -7 23 -2 9 5 -6 7 23 5 25 16 8 -28 11 -3 -5 -7 7 1 -3 -4 -3 5 -3 -13 -8 5 15 14 -26 -6 -13 -9 -49 -7 -6 -28 -14 -6 2 -3 -3 10 10 -17 9 10 -12 -18 -11 -7 3 -14 11 -9 3 -10 7 -12 -11 14 -10 18 -17 5 11 18 8 3 -4 -7 1 7 3 -3 4 -15 16 20 -6 11 -16 6 -3 8 15 7 -14 -3 15 -4 -3 -14 -13 -7 2 11 -4 5 -4 -11 -8 22 -9 7 -3 -3 -3 -13 8 14 11 -17 -4 -7 10 -3 -14 -13 -6 14 3 -28 22 7 7 -4 -17 -13 24 17 -19 -9 0 8 -4 -8 2 -3 2 -10 -7 -6 -6 23 -1 -3 -3 18 -2 -7 7 11 -23 -5 -11 -1 5 -11 -8 -5 -6 -1 10 -21 -16 17 20 3 8 11 -7 17 -19 -21 10 -5 -2 -6 12 -7 -6 -2 -21 8 -14 -17 -5 -3 3 -14 -6 17 -5 2 -13 6 -6 -11 -3 -3 -4 -18 17 -13 3 -7 -26 -12 1 11 -11 -21 4 -2 8 -3 -3 7 4 -3 -3 10 -36 3 -6 -3 -11 -1 9 -11 1 -10 5 4 -26 -16 -6 7 2 -13 -2 -3 -3 6 3 4 5 -10 6 -15 1 -21 3 -7 16 -1 -1 -4 2 7 -5 7 6 -19 -18 -14 -16 -3 10 -31 2 5 3 25 6 1 -14 7 14 18 13 -7 18 17 -6 3 3 4 1 15 6 -2 -3 2 -7 -4 3 -8 -31 3 6 9 -4 4 -3 2 -15 5 11 -4 -3 -5 -10 9 -4 -6 7 -22 3 3 -3 -2 -11 -6 -9 -3 -14 -12 -4 -17 -6 3 3 9 -8 0 -5 14 6 -14 -6 3 -8 -10 13 -12 -4 28 10 3 -11 4 -10 10 5 -6 3 3 1 -3 -27 -3 -3 3 -6 1 -3 3 5 -16 -5 -2 3 -5 -6 -31 -10 10 7 -5 3 -6 -23 -17 -1 5 -27 6 -9 4 -10 -3 -13 -13 15 -4 11 5 -3 4 -13 4 19 -1 -3 3 -14 8 3 4 6 9 -3 -23 -19 7 -10 10 -11 7 3 -3 -5 -14 7 10 -5 -3 6 -20 -10 14 -14 -3 -7 -3 -17 -25 -22 -6 -12 -21 -16 -3 -16 -19 -9 4 8 4 19 -8 4 4 41 4 -21 -21 8 -8 -14 3 -30 -23 -24 -3 9 -5 2 -21 -12 -6 -7 -14 6 -17 4 -11 -11 6 3 -6 -3 -18 -3 8 -29 38 5 4 21 -5 2 -11 -7 -14 19 -21 -2 -14 -3 14 -21 7 -5 -6 13 11 -7 -3 5 -6 -38 -8 7 -15 4 25 -2 7 -7 7 3 3 7 -3 -17 1 -6 -24 -7 -12 11 -23 -28 -3 -17 -12 -7 4 -10 4 -17 -25 -7 -4 7 6 14 6 5 -4 -7 7 -4 15 -7 -3 8 6 -2 5 10 -16 -10 7 -18 23 -19 -12 15 -26 -15 -22 -28 -9 1 -13 0 4 2 -11 -4 -13 7 8 -3 -7 -1 5 13 2 -20 16 4 4 -9 -17 3 18 15 -23 26 6 16 4 20 -30 -15 18 -13 -3 -5 -3 3 -3 -34 14 14 5 3 -3 12 4 16 -8 3 -9 2 5 8 6 -5 1 9 8 -17 -16 -11 27 -10 -6 -4 12 4 -3 -8 -3 18 -3 -2 2 -7 24 -9 -3 11 11 -17 15 3 -4 -18 -19 -3 -3 6 4 -8 -3 -11 28 3 -6 10 -10 -38 8 6 3 28 -9 -5 -12 7 9 5 8 10 15 17 -3 3 5 3 -7 17 17 -4 -11 3 -4 1 3 -23 -2 7 8 -17 -5 -12 -6 -3 16 6 -10 4 -3 10 11 7 -12 -13 -2 -3 4 25 -27 -5 -13 -7 20 -13 -6 -2 -6 9 -9 -6 20 -7 4 3 14 -7 25 -10 -5 -4 -6 -33 -5 6 -2 -12 9 -11 -9 2 -6 -3 14 11 10 -21 13 7 6 -1 9 -14 4 -11 8 -12 1 11 -1 -3 3 -18 -3 -11 -17 12 15 -10 -6 -3 -11 10 4 -2 7 -25 -13 2 -9 -1 12 -3 -27 -7 -3 -3 -3 7 -14 -8 -11 -13 20 24 6 3 24 3 -12 25 -12 -4 -7 -6 -7 34 27 -4 14 -28 -11 3 -1 -12 -14 3 -17 -6 27 11 3 -1 3 -10 -23 27 2 5 -10 4 4 -14 21 1 7 -13 -29 8 -10 8 -5 -21 -8 14 -12 11 -15 -6 17 -13 -3 1 -38 -32 -5 -13 6 -15 -29 -3 -14 4 6 -15 3 7 3 -6 7 1 4 6 6 -3 -28 18 -15 4 29 -7 3 -10 -10 3 3 3 3 18 -7 -8 24 2 10 2 7 17 3 31 3 -6 23 -27 3 -9 -5 -18 -7 -7 21 -2 5 -3 -8 -14 -7 6 -20 10 6 -2 10 -18 25 28 2 -10 31 -1 6 -3 -6 12 -13 -4 -25 3 -9 -7 3 -20 -7 -2 -14 -6 10 -14 3 -17 3 10 -3 -10 -1 6 -3 -12 22 -2 3 8 -8 -5 -5 6 -3 -6 -21 14 11 1 10 -32 -7 -21 -3 -3 24 -3 1 -13 -14 -11 -3 -8 11 4 -3 -10 -8 -13 1 14 -17 3 3 1 -3 13 10 0 -3 -7 -7 6 27 -3 -14 -23 9 5 20 9 20 11 29 3 -6 10 2 7 6 9 -8 1 -6 6 15 1 -3 -7 -12 11 15 6 -21 -7 3 1 -12 -6 -20 14 6 -6 -6 -9 -14 -29 -25 1 8 -20 -6 -1 3 6 9 0 6 2 4 -5 4 3 -4 3 -4 11 -18 -12 -12 3 3 -2 -14 -13 -11 21 3 4 -16 -2 -3 -8 -10 -23 -3 -27 -24 20 -2 -6 -7 14 27 -7 -13 3 20 3 12 3 -11 14 -6 7 4 18 -16 2 -25 10 -7 13 -6 -3 6 6 -3 4 -9 5 -3 -21 -19 -22 10 -14 -5 3 -9 -12 11 -20 -5 24 8 -12 -2 -7 4 -20 -15 -2 -2 5 -3 -16 7 36 3 7 17 -3 19 -7 -2 -3 -11 -2 -9 25 -3 -3 -8 7 -20 14 -10 24 -13 -12 -8 8 -6 -13 7 7 14 3 12 -6 -9 21 15 -7 21 28 -3 13 -8 -4 -1 1 -6 -13 15 3 -6 -3 9 -10 -27 -9 -20 -5 -10 10 -3 3 -2 9 -8 17 24 -6 22 13 -6 14 -20 3 7 -2 -13 -20 -3 -5 -10 -13 5 -15 8 13 -13 -6 -17 24 -12 3 -14 -26 -3 5 -14 3 -6 -8 -15 -6 -10 -2 -4 -3 6 -7 -5 -3 -3 -19 10 -25 3 18 -4 6 10 -14 -7 -27 -3 -4 -45 -3 -5 -8 1 -1 -9 -15 11 6 6 6 6 -8 1 2 -3 -6 -11 -15 -19 -16 -1 -13 -3 -3 14 -6 -7 -5 -3 6 -10 -3 -6 -8 6 -20 13 10 -3 14 16 6 -13 -9 4 3 -5 -3 -3 -29 7 -7 3 9 9 -12 -11 14 -9 -7 -13 -23 -4 -26 -10 6 3 4 -3 14 -14 22 3 14 -4 -3 7 -10 10 -1 21 -7 -12 5 -16 5 9 -19 -17 -18 -4 -11 2 0 -3 13 -16 -3 1 1 6 -4 17 -3 -3 -3 -3 7 -6 1 3 -23 -9 2 -9 -19 41 14 22 0 -9 -12 -9 1 -2 10 10 1 -2 -7 -15 14 4 7 -30 5 9 -2 -11 3 -4 0 16 -24 0 18 16 7 26 -21 -11 -3 -7 3 2 29 -9 6 10 14 6 -12 -14 -33 3 6 3 17 7 -12 -11 -10 -2 12 10 23 30 -8 22 2 -3 -14 -5 -8 5 -30 -10 -12 1 1 -13 -4 21 6 6 5 11 -16 -9 -3 0 3 3 7 3 -21 1 -5 10 -2 -20 7 -5 -11 7 -20 5 11 -23 3 22 -7 19 -7 -21 3 -18 -7 -3 9 7 10 1 -2 3 6 22 -3 -6 2 -23 5 3 35 -3 2 -2 -3 30 -14 -5 2 7 -25 17 1 1 3 -17 36 -21 3 20 -1 -14 -9 -10 18 -1 13 -9 7 -23 -14 -10 10 3 -24 8 -4 -14 -15 -5 0 25 -14 -11 7 -7 3 24 -28 -24 3 -32 -25 7 -10 -13 -5 6 -4 11 9 -16 -16 -9 -1 18 9 -27 -14 -17 -2 -7 -16 -7 1 -24 8 9 1 -7 -16 14 -11 18 2 7 4 8 -7 -6 -7 20 -1 -7 -30 -10 6 16 5 3 11 31 25 -17 5 -15 3 1 10 -3 7 17 15 -10 -6 -20 6 -20 -10 -24 -17 -3 -6 13 -17 18 1 15 -6 -3 46 -14 -6 -10 -17 -8 -41 -21 2 -2 -6 -25 1 -6 -40 -14 13 -10 -10 12 -4 -3 -5 4 3 20 -12 2 7 -15 3 -39 -3 3 7 6 4 -10 19 -7 10 5 6 9 -7 19 -5 3 -10 -10 -19 -10 14 4 29 31 8 -6 -10 -27 -5 -8 2 -12 5 1 4 7 7 7 6 -16 -10 -24 -4 20 -10 -7 -25 -7 17 11 -30 -13 9 6 -12 3 11 -24 -3 -7 -5 16 -2 7 -26 6 8 -38 11 -14 -17 0 -10 -6 -2 -24 -18 -21 -21 7 -19 18 -20 7 -32 12 -2 -5 -19 -12 -6 -3 -14 6 -3 8 7 -9 1 -17 -4 -11 7 4 7 -3 3 13 -24 -6 -6 -2 -3 3 -1 -10 4 9 -5 -4 -13 -13 4 -7 -21 -3 -3 -6 -3 -3 3 8 -6 0 -8 -6 -24 -15 -7 -22 6 6 -3 4 -3 9 -3 -7 -1 -10 3 11 9 11 25 4 -10 -13 -3 3 18 0 21 -3 -12 -27 -18 5 -5 7 5 4 -7 -11 -1 -14 4 -7 -3 -17 4 5 -5 -9 -11 -2 -27 -4 -17 -16 9 -32 -11 -5 12 -3 24 -27 -3 12 12 6 -5 5 5 -20 3 -16 -3 3 12 -6 8 -9 1 -18 2 -5 4 -10 3 -4 -7 -9 -7 -13 -3 9 14 10 16 -14 6 -4 18 9 -3 6 -15 13 3 10 10 -29 -5 -7 4 -10 3 -8 4 12 -13 -15 -6 0 -17 -1 23 -15 -9 4 -3 13 0 -2 8 5 -9 13 -7 3 -5 -3 -3 21 3 4 25 -13 -5 7 -6 -7 14 3 -3 5 -6 -2 10 7 -3 -18 -10 -12 -4 -3 10 4 -2 7 -6 -6 -9 -8 -10 -32 22 32 8 1 -3 6 -6 10 3 -2 13 12 3 4 6 6 -13 -3 -6 11 35 3 -9 -3 -10 -7 -17 13 21 -19 -14 14 -10 14 -6 1 -13 2 -7 4 -4 7 -7 -8 3 6 -13 -29 -3 -3 4 29 11 3 -5 5 -7 11 -5 -21 -3 -31 -9 21 10 7 -35 7 0 -5 -12 -20 15 7 1 3 7 15 -3 -16 -14 29 1 14 7 7 -13 -14 -16 -8 12 -2 -7 2 -4 -40 -7 6 6 5 3 -17 4 -8 2 7 7 -14 14 3 -19 -3 -4 -4 1 -13 -11 11 -3 15 7 6 -16 3 -1 -4 6 3 8 -3 4 -28 10 18 -14 4 14 8 -1 4 2 -3 16 -6 14 -3 14 4 -23 13 -6 -3 -20 -3 -3 -21 1 4 10 -20 -11 -17 -14 -1 -11 -14 -27 14 -3 14 -5 24 -7 3 -14 -6 -8 12 3 -8 3 -6 -1 12 -2 -11 7 -14 -23 -2 -8 -3 15 -6 6 20 10 5 3 -6 10 8 -10 1 1 8 -4 17 3 11 -8 -11 21 -16 3 -20 -3 44 -23 -5 4 6 12 -10 -13 -2 -8 10 -14 12 7 -7 -4 -18 -3 7 10 -28 7 -25 -3 -11 23 9 -22 24 9 -6 -10 18 15 -14 -3 9 8 2 -7 -2 -11 -14 17 -6 1 6 -14 -2 -5 -6 8 -12 10 19 6 13 10 -12 5 13 1 -24 2 -6 27 -1 12 -3 1 -12 -3 -10 -3 -14 -12 -27 0 -13 -11 2 13 11 22 8 6 21 9 -6 -7 17 -1 -34 -7 -3 4 3 -11 5 6 7 -8 3 8 -17 6 6 27 -6 -12 -8 17 24 -3 -7 24 -7 -7 15 16 19 21 3 -10 -10 14 -26 2 22 14 -8 2 -14 7 -20 -3 13 -10 6 17 17 -8 -14 -4 3 -18 -20 -18 -9 -15 -19 0 -17 18 4 7 9 12 3 6 1 -25 24 3 14 8 1 6 -3 3 -1 -17 -3 24 -8 3 6 -17 22 -4 -3 6 -6 -13 -2 -16 -20 -3 -16 -33 -28 -3 9 11 10 4 21 5 -5 -27 -13 5 14 12 -17 24 -8 -3 14 -21 -5 5 22 -4 10 -3 20 -3 6 -3 -5 -23 -4 21 13 7 -8 -4 -18 -12 -4 12 22 -2 -6 20 15 -8 -16 -33 3 17 -17 -7 -12 24 -2 -22 10 -13 -17 3 -4 13 -7 -17 10 4 -5 2 6 -15 -4 17 -10 -18 -17 7 -19 3 -2 4 3 -3 10 7 -19 10 17 12 -4 11 11 7 -14 -16 3 -10 -32 22 -21 4 -10 -5 45 22 -14 4 -4 -20 22 2 -7 -17 -6 -3 -19 13 11 5 -21 -3 -9 -6 -33 -3 5 -2 9 -7 17 -6 6 10 11 3 11 12 -5 10 12 11 -13 -8 -22 -1 3 18 -7 22 -22 -10 3 -7 3 2 -1 9 -6 -12 -8 -13 4 3 -7 11 11 -23 1 3 -7 4 -8 -7 4 12 6 -3 -7 -14 22 -17 -5 -3 -7 -3 13 6 -12 21 35 -5 22 -13 -13 2 25 11 -3 8 -22 -3 -11 -13 21 13 40 0 9 7 8 -1 10 -19 -25 8 -3 -8 19 6 -5 12 6 16 -11 33 10 2 2 -10 14 -7 -4 -30 2 8 -13 11 -15 6 13 2 -11 -3 -10 13 15 0 -3 -14 10 -6 -8 -3 -24 3 -13 19 -24 6 16 -7 -1 -14 -4 -11 -22 -12 -3 1 -9 -5 13 -13 8 14 -14 10 -24 -14 5 3 -21 -29 -18 -22 -5 -10 30 -10 17 1 -5 8 8 4 -4 13 6 -37 3 -4 4 10 -11 8 21 -7 -15 3 11 -9 31 -20 -16 -15 7 14 -6 -3 3 4 4 -9 -13 -8 7 -14 17 -10 9 17 -17 -4 -10 12 -10 -6 -6 -3 4 0 7 0 1 -1 14 16 2 24 13 -3 11 17 7 -7 -16 20 2 20 -25 3 -2 -8 21 -4 -11 14 11 1 -13 10 1 -7 -10 -15 -8 3 8 -1 3 11 8 6 -5 -22 -19 -24 -7 -9 10 -6 -24 -4 1 -6 3 -15 10 7 -7 5 8 7 8 6 -13 5 -3 5 -9 -13 -17 24 7 3 2 -18 -19 3 -12 20 -7 21 7 -3 -4 -14 -9 3 17 -27 3 18 -8 21 7 -28 4 -18 -14 21 -17 -25 18 -21 3 12 3 17 -18 -21 -21 18 1 -10 -5 -6 -2 2 -29 8 11 -7 11 6 1 -5 -6 4 -16 19 -2 7 -4 -7 -14 -21 5 41 -6 -15 -6 -2 -3 -7 -4 5 18 13 -19 22 13 8 6 -14 -2 20 -21 7 28 -7 -12 3 -24 19 -7 1 -11 8 -20 -25 -3 1 16 -11 4 6 4 6 2 -19 -14 19 -25 -34 11 2 -24 10 3 4 9 12 3 7 7 -3 -14 -9 -13 6 -10 13 14 -10 -14 6 -16 2 7 -7 7 -6 -24 -17 -7 11 -7 10 -7 3 -14 13 -4 8 7 5 3 12 -6 14 -29 -24 -6 -6 3 6 2 -4 10 32 -27 6 2 3 13 1 -2 9 -6 10 -11 17 28 13 -13 -2 -1 7 15 1 -24 -13 2 5 -10 11 -24 -5 -13 9 11 1 -5 3 -23 -10 -10 -15 6 -19 2 2 4 -9 -3 15 -17 0 -3 -1 -20 5 -10 -13 1 1 -7 2 -3 -6 6 -14 -7 1 3 -2 -24 4 13 3 -17 11 -21 3 12 -30 7 24 -2 -2 -24 -6 1 19 5 3 -18 -3 -5 6 13 18 3 22 20 3 -3 -6 -7 5 -1 -6 11 17 -2 4 11 -23 -3 7 24 -26 10 -19 3 -5 1 -21 11 -12 14 8 3 -7 6 -3 7 2 -12 0 21 11 -4 -1 -3 14 4 -5 -6 -15 20 -16 -4 5 10 -3 -7 20 11 -14 -5 7 9 -20 -16 -6 -18 -21 -6 2 -10 3 -11 -3 -9 22 4 -7 10 -1 -5 12 -17 -2 -13 -3 13 4 11 1 -6 -8 8 -10 -6 -3 3 18 -3 -3 -11 -11 -3 15 22 -9 4 -3 2 11 16 -19 -1 18 3 17 18 3 28 5 17 -7 1 -28 -3 3 7 15 -4 3 -3 3 -20 -12 -3 -7 -3 2 3 7 4 -5 20 10 -2 11 -13 -7 7 -4 -6 -9 -7 -3 3 15 -7 2 -14 9 3 -10 7 -34 7 7 -13 -3 7 -7 16 5 12 -9 -6 -11 9 6 13 -6 -8 -25 -8 -13 7 -8 -3 14 -3 -3 6 -17 -33 -9 3 -11 -5 6 -3 4 19 7 14 -13 3 -14 -18 9 -23 -17 -3 12 -1 16 -10 -20 -17 -7 3 -4 -10 10 -8 11 -3 -3 -7 -13 8 13 -27 3 7 -24 14 20 17 -9 -6 -5 -6 -6 32 7 -1 -3 -11 -10 -6 3 10 -1 -16 4 8 -5 -3 -5 -7 21 14 14 -2 16 -17 4 21 14 11 -3 -7 7 -13 -15 12 -4 -19 3 -15 -19 26 18 4 12 10 -10 -14 2 -15 -17 -3 -1 -20 24 -5 6 -13 25 5 -7 -1 3 1 -10 2 -4 17 -13 -3 7 4 -3 20 -11 9 -13 -7 -26 -22 22 6 -3 3 -23 -2 11 -4 -2 38 13 -18 14 -17 -5 10 -8 1 -12 -10 10 18 -20 17 22 -2 7 -17 -1 -11 -21 -20 4 3 -5 7 -3 -18 7 15 8 -2 5 -8 11 -10 13 24 1 3 8 14 -3 -9 -13 -20 5 -11 1 6 -4 -17 12 -6 24 -28 -4 -9 11 3 -8 6 -16 16 -4 -17 -13 -9 -6 7 6 -10 -19 9 8 -3 11 -4 6 -7 -1 1 -4 22 9 -14 3 -12 -8 -5 5 -6 -43 -6 -13 11 -1 -13 -3 8 -13 9 -8 -7 2 9 6 9 19 -20 24 -4 -18 11 -5 -24 -4 -4 -18 10 -12 -2 -6 7 8 21 8 3 -24 -34 -3 -7 -3 -10 -21 -3 -3 -9 -34 -2 -28 -8 1 11 13 1 -6 -18 2 -14 -8 38 -21 16 6 -7 -6 -9 -15 6 -27 -6 -24 8 -9 6 -13 3 20 -22 -21 -14 -3 1 -6 -19 3 11 9 -16 -7 -4 4 -6 4 2 -15 -3 -9 -9 -4 -8 2 -5 3 7 2 -32 0 3 7 -1 19 3 19 16 -3 -5 -6 -3 -17 -1 27 10 -2 6 5 -18 -13 3 21 -13 10 4 -12 3 -3 2 -7 18 -3 -8 3 -3 -6 -3 -7 4 24 -7 -3 3 1 -4 -1 -4 -24 -3 4 11 -1 -8 -9 15 5 4 4 -17 -10 -38 13 -3 7 -3 -15 -1 -3 3 -2 -8 -10 -6 5 -3 -11 -7 1 3 7 -20 5 -1 -3 -8 14 14 14 3 -5 10 -4 16 -14 -6 6 -4 -18 -34 7 4 -3 -6 15 9 14 -6 -5 1 -13 -6 -7 -3 -5 2 -17 -8 -22 3 -6 -13 3 2 3 10 6 11 -6 -3 3 6 -8 14 3 8 -25 -3 -15 -2 -14 9 -14 -7 6 21 -12 11 3 4 -16 -6 5 -15 3 -10 4 -5 6 7 4 -6 22 -3 13 -3 -10 -2 -6 10 11 -13 -5 -17 -8 -21 -17 13 -8 0 3 5 3 -17 -11 14 13 -3 5 -7 -3 9 8 11 20 -9 -27 -7 7 10 -13 18 3 4 4 -11 4 3 4 11 -9 -6 -6 3 1 -16 11 5 -16 31 12 14 0 -2 -10 -20 -22 6 -31 -11 -7 20 3 -28 7 17 -11 -3 4 -3 -3 22 -12 -17 -3 6 -10 18 -13 20 26 -13 -2 -6 17 -18 11 -3 15 -6 -3 -11 -2 -5 -20 -3 7 9 -16 6 -10 -11 3 4 -24 -17 -11 3 10 0 8 -7 4 15 -12 -44 3 -15 14 -17 -2 -10 18 1 4 21 -3 6 -6 -13 1 4 -4 -17 20 7 -7 -9 -2 -9 10 -9 -27 18 -13 -13 -13 24 6 -3 -10 -7 22 -4 18 -2 -1 18 20 4 -18 -21 -12 -10 -3 1 -7 21 21 12 1 -6 -25 10 -21 -38 -17 -22 4 3 17 -3 7 7 -3 4 -22 -14 3 7 -3 16 2 -14 -12 -3 -12 -3 22 -4 -9 1 2 1 -2 -7 1 -8 -19 23 7 -8 -15 -11 3 -3 -6 19 7 -2 -23 -18 -17 -4 8 16 3 -24 -3 -27 3 7 29 -4 10 19 -3 1 -9 -7 -21 6 7 -33 3 -5 -2 -7 -3 -1 9 6 -22 -15 -13 -4 9 30 -7 -18 -10 7 -21 -4 -28 -6 -14 7 0 10 -23 2 -6 -33 9 7 6 8 11 6 7 -14 10 -12 -14 7 14 3 7 13 -17 5 17 -9 -9 -14 -10 11 -13 -19 -8 -27 17 11 20 -27 -15 -7 -3 -2 -6 -3 5 -26 -3 -3 -12 2 6 -5 18 -3 13 14 -11 3 -3 18 1 -23 -15 -8 -3 14 -5 9 20 -5 -15 -15 -6 8 -18 3 -15 -23 -7 -3 -10 7 -13 25 3 -1 4 -10 -1 -10 -3 3 -2 -3 -3 21 18 -11 4 -8 0 10 6 -3 -11 -13 10 4 -13 -10 1 11 26 -10 -4 8 14 -3 -17 -8 -4 6 4 -16 5 5 -11 -11 18 3 -3 33 -3 11 -18 -17 10 -17 15 -8 -9 41 -4 -1 8 27 -3 -2 -3 5 -17 -7 4 -17 -5 14 19 2 -11 -12 -31 6 14 -2 -3 -3 -26 -3 -7 7 16 -8 -20 20 -3 -3 3 -2 4 0 -20 12 5 -10 -16 -14 -3 -13 -16 -1 -9 -15 -17 -16 1 -6 -4 -7 12 9 8 -3 6 -16 -12 6 -12 25 -7 2 -12 11 18 7 7 -9 -7 8 -6 -7 9 -14 -26 -20 -14 -1 -14 -4 5 6 -3 -10 21 5 3 2 -8 -3 7 6 -13 8 -2 -9 10 3 7 -9 -20 -6 8 8 4 4 3 3 5 5 -11 -4 27 11 -11 10 -3 1 -4 10 3 -11 15 -6 -20 -20 -3 2 -11 -20 18 -9 7 -14 -3 -4 -18 6 -7 -8 -13 -4 -3 2 4 15 -5 -13 -1 3 14 -13 -25 9 18 -6 2 3 -2 6 -30 -7 -3 33 -10 4 -8 -13 -15 2 14 -3 -7 -4 -13 -3 -10 12 -17 -10 -14 -17 -2 -3 13 -3 -13 -3 -14 -3 3 5 14</t>
-  </si>
-  <si>
-    <t>JSB(2.0823189662597086, 4.539009993296903, -39.2751114857218, 197.49216070438354)</t>
-  </si>
-  <si>
-    <t>26 33 36 37 38 47 30 39 49 33 47 30 33 27 21 27 34 40 55 56 42 33 15 39 42 40 33 33 36 27 51 40 55 41 44 17 26 46 38 43 27 40 40 47 44 40 30 51 36 27 31 40 41 48 30 40 32 19 45 31 32 37 36 36 46 37 29 33 33 13 43 34 26 34 32 43 49 16 38 34 43 43 31 35 43 41 42 23 38 25 26 45 33 41 32 57 43 27 66 34 49 48 23 21 26 43 35 42 31 50 39 36 51 24 40 27 27 42 46 57 41 26 39 45 45 39 29 45 26 55 38 31 44 33 47 43 47 35 42 32 47 49 37 49 26 51 24 43 49 47 33 50 39 34 30 26 41 41 48 31 53 36 35 43 42 38 43 43 45 51 35 36 30 29 59 51 17 40 40 29 31 34 62 29 36 35 19 33 47 40 44 37 36 24 36 26 37 50 22 28 47 42 23 34 36 47 57 25 54 54 45 50 42 53 33 34 59 50 53 43 26 40 33 23 39 36 33 19 37 33 43 17 29 37 43 58 26 37 43 22 57 42 40 40 49 25 29 20 33 48 31 63 33 59 39 27 40 46 37 33 48 48 45 37 33 54 30 26 21 35 40 50 24 35 33 61 48 37 45 48 39 33 61 38 40 17 43 24 33 50 27 51 49 46 51 22 54 47 52 56 47 44 47 36 50 33 32 44 30 36 25 37 27 23 34 25 45 38 29 41 43 40 47 29 27 43 30 47 30 51 40 37 22 28 49 36 21 40 39 30 53 44 54 34 26 27 44 36 36 23 19 30 43 38 38 25 40 22 39 40 36 52 33 43 41 29 39 46 40 40 37 44 26 54 35 54 30 26 52 43 33 46 26 16 13 19 40 47 32 34 41 13 44 23 40 45 41 31 30 38 33 32 33 38 28 19 19 29 65 59 47 55 29 54 33 51 34 62 38 42 40 31 16 23 34 16 37 26 54 28 32 44 41 41 32 24 39 30 44 33 40 54 29 37 56 40 33 45 58 30 28 27 22 51 20 43 30 52 36 26 28 26 40 28 51 48 44 35 33 42 27 44 27 31 36 48 29 44 36 42 29 40 47 35 53 41 19 39 43 57 33 47 37 23 26 52 33 32 37 33 34 30 35 33 36 26 41 41 25 51 27 41 39 23 33 29 40 43 36 35 41 41 24 46 42 52 50 49 46 47 41 37 51 34 58 49 51 44 47 40 43 37 30 51 39 44 21 35 38 19 48 36 41 20 40 23 39 51 26 21 32 45 59 55 30 23 43 56 51 42 39 40 37 68 34 37 46 45 51 26 37 39 38 23 36 34 19 34 40 43 48 46 52 19 26 43 34 51 34 43 36 51 26 42 52 45 31 38 31 32 63 44 33 31 34 40 50 41 34 22 9 45 40 57 43 48 44 48 44 37 23 48 43 47 45 39 32 51 30 37 29 37 49 29 38 43 34 50 45 34 27 31 54 35 20 40 28 27 38 26 48 44 13 48 45 16 23 42 17 40 37 17 23 47 42 37 24 26 34 34 31 29 53 29 37 55 43 37 37 37 41 12 40 29 33 29 41 37 29 49 40 36 49 37 40 50 44 30 41 44 13 46 43 44 41 21 36 22 33 36 49 36 21 25 53 43 37 38 27 37 31 25 22 29 27 25 43 33 26 39 33 42 25 45 41 48 73 44 37 31 45 26 48 31 19 27 34 13 37 29 48 33 45 43 23 37 40 37 59 42 61 50 31 33 39 31 48 40 32 23 31 27 40 43 40 29 33 35 41 47 45 29 51 41 28 30 44 37 30 23 35 41 12 36 25 47 38 47 37 37 49 29 43 57 47 42 24 43 47 34 33 23 45 54 36 34 38 34 40 31 45 57 42 29 43 29 40 37 65 29 37 26 28 46 19 51 45 44 31 40 26 37 51 38 47 21 57 46 23 44 36 43 20 30 30 20 37 35 33 34 45 40 37 44 30 48 30 43 40 44 42 41 49 43 62 36 35 37 44 49 64 33 43 19 37 33 34 43 22 29 40 42 24 55 29 13 42 43 40 36 42 32 30 39 26 44 38 31 27 48 49 40 40 38 55 48 34 54 22 43 36 20 28 32 37 43 33 67 37 42 42 46 29 30 43 23 22 19 39 27 21 34 21 40 56 23 36 34 43 26 35 50 36 22 45 29 26 36 47 32 37 49 23 67 30 42 50 51 36 48 41 42 52 33 40 27 38 33 58 44 47 50 58 44 43 37 33 36 36 29 27 38 38 46 36 55 38 29 38 53 29 37 26 45 49 24 54 36 37 30 53 37 44 56 45 33 50 23 41 40 16 46 30 30 51 41 44 26 37 36 33 36 17 35 46 41 23 37 41 19 42 35 34 20 40 36 35 34 20 49 33 40 26 54 43 52 37 23 13 22 44 37 32 30 33 45 23 28 47 44 15 55 28 19 41 40 48 29 54 47 36 32 35 32 29 25 23 17 38 36 29 36 27 34 33 47 30 30 28 37 28 41 54 35 23 31 40 40 30 63 34 41 23 33 20 22 34 29 25 41 43 20 36 15 29 27 30 34 30 30 55 20 53 25 42 31 36 31 44 29 34 30 42 33 34 46 39 42 30 34 55 16 44 31 22 27 12 51 50 42 39 43 48 30 23 45 42 39 30 33 20 32 42 37 27 50 36 37 23 24 47 28 33 40 37 38 28 50 40 26 30 51 35 58 41 34 28 37 44 36 51 38 59 34 12 50 52 37 47 42 29 36 22 36 47 41 30 61 37 40 20 23 45 34 42 33 31 25 30 28 39 27 22 51 43 34 42 40 30 37 54 46 31 55 26 34 49 26 43 29 31 28 41 44 34 33 40 41 37 22 48 44 34 46 33 37 18 33 37 38 34 49 32 29 47 27 32 41 20 25 48 30 30 20 35 47 31 43 23 37 33 47 26 32 41 20 36 53 31 37 59 34 23 19 50 25 45 52 44 24 34 38 37 27 27 44 31 40 38 41 34 29 26 47 27 40 34 48 51 43 41 38 29 33 51 44 26 34 37 30 35 30 39 30 48 40 43 21 54 34 22 15 37 50 23 50 33 29 46 54 69 38 36 9 29 21 35 35 45 34 27 38 45 47 38 44 54 38 25 29 26 33 32 33 58 25 37 31 45 26 51 35 61 16 23 43 29 45 65 46 45 38 48 35 26 40 41 40 34 34 20 36 39 47 50 29 50 35 49 23 30 51 29 36 45 46 54 47 19 27 52 48 23 23 40 45 57 38 34 19 29 26 19 37 40 45 36 34 27 40 21 48 19 43 36 40 40 53 32 39 44 48 30 39 56 32 37 26 60 37 32 32 33 36 27 24 48 36 47 39 37 37 33 37 19 47 26 26 27 48 27 24 26 36 54 37 23 36 28 43 39 48 47 35 59 22 23 40 45 34 41 27 40 32 25 33 37 45 30 30 32 31 48 31 18 23 36 41 15 34 33 35 33 32 37 24 48 29 18 48 39 37 45 32 66 39 30 40 30 39 27 29 35 51 45 30 34 56 49 29 39 26 50 28 37 29 27 23 33 40 23 47 26 17 48 39 38 41 36 51 59 37 37 30 49 35 33 30 53 38 29 34 25 38 38 40 41 30 16 19 46 44 48 34 37 38 43 13 41 27 41 38 34 51 24 36 42 57 31 41 37 43 23 37 33 22 35 49 42 27 20 29 42 34 48 12 37 17 9 46 45 34 36 43 16 41 30 37 40 40 31 38 53 41 46 27 37 52 32 66 45 24 26 55 36 37 26 38 43 51 10 26 50 41 40 52 33 29 55 44 14 39 31 37 40 61 32 26 29 19 47 40 39 45 51 39 35 13 33 41 51 33 19 21 18 45 39 30 46 37 37 35 37 58 35 28 31 30 22 29 47 37 35 47 33 24 44 35 27 34 26 29 30 46 55 37 38 54 28 44 56 52 38 40 23 19 44 36 47 48 20 33 43 44 30 38 24 53 43 49 38 46 40 30 33 34 38 33 35 48 49 32 12 32 50 20 18 34 27 36 45 45 30 36 27 52 40 43 40 47 47 45 53 30 38 45 36 37 13 39 45 30 29 24 46 47 34 37 34 26 16 43 24 27 49 22 21 27 45 45 57 33 56 37 37 44 34 57 37 40 30 19 34 45 18 43 23 53 39 33 30 33 30 29 39 43 36 44 40 38 39 31 51 42 28 47 34 44 16 36 40 52 29 33 38 34 26 30 46 43 46 42 43 41 36 27 30 26 41 27 51 45 43 27 30 36 16 54 38 31 32 43 24 30 36 37 40 34 50 31 32 44 27 57 29 37 40 40 31 37 47 53 19 26 58 43 22 47 29 31 33 28 55 37 32 55 38 33 47 30 44 74 19 19 36 34 27 24 29 46 45 52 33 24 52 50 33 27 55 13 43 50 31 41 20 40 33 23 23 37 40 29 31 36 37 37 32 46 25 43 40 44 44 51 27 42 36 38 32 55 41 41 33 51 35 42 36 54 48 58 17 33 41 19 41 55 55 38 43 61 23 26 33 44 23 43 30 37 44 38 16 29 24 44 44 34 43 50 44 33 40 16 49 21 54 31 34 26 43 41 58 50 23 41 39 29 36 59 55 31 38 63 47 36 27 39 45 41 30 52 41 45 43 30 49 26 41 36 28 55 23 35 33 27 22 43 37 31 35 26 35 43 41 33 32 35 25 19 44 37 32 51 37 52 37 23 49 34 34 27 49 20 33 51 30 53 35 39 47 29 50 38 41 30 50 32 27 43 28 33 46 30 36 23 35 20 22 30 44 48 30 33 27 16 19 39 63 49 36 29 23 44 25 30 47 29 37 34 48 27 41 26 30 36 34 26 37 27 35 44 51 40 26 53 51 32 37 31 37 36 34 21 49 37 41 36 27 31 26 25 35 47 17 20 30 43 48 47 32 42 30 37 29 19 35 46 38 40 16 63 49 47 33 42 60 37 21 23 41 48 40 37 41 26 53 47 16 25 32 33 22 48 47 29 31 26 34 23 71 31 43 33 40 48 23 59 47 35 36 56 40 47 45 31 22 35 19 40 24 31 43 19 41 48 42 45 44 51 46 39 30 62 43 23 38 30 20 30 33 33 30 23 32 24 36 43 23 39 37 48 52 42 55 45 48 33 41 37 29 45 31 30 64 39 44 34 39 23 57 36 40 51 42 37 32 49 21 33 40 34 37 51 33 43 24 25 48 37 30 41 33 45 36 27 47 21 37 23 36 38 40 33 59 46 63 34 32 37 61 37 56 30 57 36 57 34 57 20 40 49 50 45 30 26 40 37 29 54 37 35 51 40 26 35 37 25 40 49 45 47 45 49 19 39 44 37 27 43 39 37 41 33 40 18 30 25 51 51 36 30 43 56 24 36 24 46 43 33 48 36 27 35 39 32 44 39 42 43 23 26 49 36 30 47 40 29 30 48 36 58 46 55 34 31 40 38 22 35 44 35 52 46 27 43 31 51 39 59 43 46 61 23 48 42 37 33 47 43 44 38 40 41 63 52 26 42 38 43 29 33 20 51 56 27 48 37 32 30 38 33 37 36 35 42 33 52 45 40 36 53 35 37 42 44 37 32 26 69 32 32 50 49 28 40 40 38 41 46 53 37 24 39 28 40 34 41 29 31 32 40 36 36 45 25 22 15 46 33 37 22 39 27 50 28 54 50 43 30 40 40 54 36 36 15 44 36 24 31 41 19 51 30 54 27 54 47 39 36 45 51 47 46 32 33 23 32 41 29 27 37 31 43 56 37 38 37 40 37 47 27 23 47 22 9 41 49 47 29 36 50 53 54 43 31 37 39 34 22 48 46 23 52 36 40 41 48 27 34 40 51 34 44 51 41 46 28 47 37 38 36 59 42 49 20 28 28 34 45 37 35 23 49 26 43 35 37 30 26 32 39 23 39 37 30 29 22 41 56 67 57 55 34 43 23 29 36 33 44 34 27 52 34 39 37 41 47 6 41 39 29 31 43 49 28 43 48 37 35 26 37 44 32 27 48 36 32 35 46 22 27 26 36 46 52 40 33 30 28 34 40 22 30 37 23 31 44 37 40 29 34 32 35 29 40 47 43 21 44 20 46 30 44 44 45 44 24 39 58 27 51 6 44 40 35 45 58 16 32 38 46 43 48 27 29 27 43 44 28 33 51 55 37 47 33 37 35 42 34 40 41 51 36 52 41 45 36 36 43 55 17 57 39 51 30 52 33 51 41 26 23 44 46 48 36 34 44 16 30 37 45 47 26 33 48 26 32 29 39 24 32 36 65 37 29 23 24 45 43 45 36 36 37 45 38 47 26 41 59 48 41 44 23 27 46 36 35 54 44 48 41 51 40 27 37 53 22 30 40 47 50 57 44 46 41 59 17 36 49 32 55 19 48 54 44 55 29 24 43 43 34 26 34 42 29 43 51 56 47 37 38 46 44 51 49 42 52 48 35 55 19 24 28 35 51 36 36 43 41 26 54 24 33 27 49 33 23 48 45 27 29 53 40 17 44 28 52 36 22 43 19 41 26 45 42 58 44 19 27 56 30 23 48 38 31 26 45 50 47 33 38 25 41 47 47 57 31 33 38 34 55 25 47 37 50 26 29 48 23 37 19 30 31 45 39 17 61 50 30 44 54 30 47 32 38 21 38 44 36 46 20 47 46 39 40 24 23 36 46 34 26 41 51 24 33 23 43 29 51 61 43 16 45 25 53 44 37 24 40 51 37 49 72 41 44 32 36 44 52 30 25 51 46 39 29 27 23 29 43 37 28 43 23 32 23 33 27 29 31 40 43 12 36 31 30 38 40 50 36 41 17 51 34 41 48 39 39 37 26 55 47 37 29 36 40 47 39 29 33 43 39 34 44 51 32 23 44 32 41 54 37 39 35 40 59 27 30 46 40 27 40 37 50 30 35 48 50 48 35 42 47 26 55 49 37 33 42 22 36 29 54 50 36 37 42 29 10 49 37 30 40 30 45 25 46 41 27 29 32 32 60 49 35 37 32 37 19 44 40 34 31 41 37 25 34 37 46 35 34 37 50 48 29 20 36 30 56 36 31 37 60 33 33 38 67 41 48 47 37 35 34 41 47 35 33 40 16 40 32 29 54 37 45 47 51 16 36 26 47 68 36 34 35 46 19 31 44 38 50 29 36 33 31 47 33 39 60 44 22 41 24 51 54 35 43 23 46 44 37 33 48 31 42 39 43 38 40 43 44 33 36 31 43 23 44 16 43 47 50 34 30 37 54 24 33 27 19 40 41 40 36 63 39 33 30 32 37 57 29 41 48 57 39 17 45 32 57 37 23 30 26 22 32 29 40 29 24 50 48 55 48 47 35 32 37 42 45 29 36 19 33 37 51 39 22 48 33 37 26 48 49 38 50 41 51 30 44 35 23 33 34 27 45 19 26 34 38 30 35 38 29 43 58 49 40 30 41 54 28 39 30 40 33 42 33 28 45 28 27 29 26 36 41 46 29 36 39 26 37 21 23 48 31 20 20 43 30 39 33 31 30 36 25 29 30 54 26 49 37 36 39 22 48 42 60 32 55 40 13 39 33 37 10 49 47 47 40 51 45 33 27 38 39 46 36 45 37 47 29 48 41 19 36 41 28 41 49 40 39 39 45 30 44 33 33 51 51 43 32 35 26 38 25 40 54 30 26 50 30 41 26 31 51 45 47 41 46 29 26 33 42 61 33 55 25 41 37 34 23 34 52 31 33 31 34 48 45 40 27 45 77 63 55 44 31 62 38 27 42 38 37 37 33 31 31 48 47 37 41 59 47 23 47 33 37 51 27 46 50 33 40 48 52 49 49 36 44 40 56 44 43 26 41 37 41 37 34 40 13 36 50 37 35 42 40 37 27 26 38 27 44 40 43 34 29 34 34 32 33 27 34 55 35 62 40 37 50 48 36 34 42 32 33 37 42 38 25 27 51 54 22 41 31 51 55 43 39 28 37 35 45 50 19 26 31 33 40 35 42 38 12 43 58 38 40 20 43 24 37 30 22 43 47 68 29 36 37 53 35 39 63 45 12 30 28 23 43 33 30 40 23 35 50 37 33 28 33 37 31 24 23 40 19 40 48 30 49 29 35 33 18 23 33 27 45 36 33 39 48 42 33 28 46 36 38 53 34 30 37 30 29 29 45 37 39 34 48 30 54 36 36 37 31 36 51 43 43 42 30 42 28 39 44 40 50 30 33 45 50 49 32 51 47 49 23 59 55 68 25 29 40 23 33 23 23 43 18 30 23 24 35 49 39 26 40 34 40 27 34 33 27 36 33 40 37 47 34 32 37 30 37 34 40 38 40 29 31 43 27 27 38 22 34 34 46 53 46 49 22 30 44 34 25 35 43 33 49 40 29 20 37 33 57 40 34 40 29 38 31 29 49 26 32 45 47 40 46 34 25 27 40 43 24 51 36 28 29 37 37 58 35 35 34 41 29 39 36 47 43 16 44 44 38 40 27 37 33 41 51 51 27 22 27 27 51 38 52 29 47 32 33 45 49 44 25 37 40 50 29 66 29 22 26 40 39 36 33 46 40 35 37 26 41 33 31 58 43 40 29 56 38 42 52 42 31 31 32 35 13 25 30 36 33 19 26 54 27 40 32 48 37 34 33 37 32 37 47 29 30 58 39 51 54 53 55 29 45 31 27 40 55 26 24 54 36 27 20 47 37 27 30 24 38 36 32 25 27 25 19 34 65 42 45 32 40 29 63 57 60 43 36 47 26 31 41 30 62 37 46 36 13 29 61 40 53 32 30 40 59 57 34 29 41 47 46 37 42 51 54 38 33 52 48 15 24 55 56 44 19 22 31 54 33 37 43 36 44 34 32 23 30 40 40 59 35 38 19 38 29 27 37 27 35 32 32 45 37 37 51 33 37 22 43 31 42 27 52 52 48 36 30 51 37 43 46 47 43 56 46 42 27 33 40 48 31 41 26 23 40 57 31 34 42 31 30 44 51 43 51 52 39 56 57 36 29 37 52 29 30 37 34 29 34 46 30 47 20 44 33 29 34 47 34 46 50 34 30 46 18 30 31 26 45 32 52 26 42 31 22 31 41 40 31 37 49 34 34 42 23 27 41 33 32 39 44 43 36 20 32 39 47 23 32 31 59 23 43 33 29 41 29 27 18 30 33 37 61 48 44 39 37 47 55 37 30 44 33 22 45 44 40 44 45 58 30 27 43 21 30 35 37 32 54 26 70 45 54 52 46 40 43 64 44 44 35 31 56 48 24 31 23 45 44 30 25 25 36 27 28 35 57 26 39 43 31 51 55 44 59 30 35 45 30 23 43 17 42 31 42 16 22 33 24 42 39 47 31 35 44 41 41 45 48 45 65 31 26 17 37 36 40 44 49 33 40 25 40 54 43 34 43 37 41 22 55 58 57 44 43 23 29 17 19 23 51 47 34 56 45 40 38 37 51 35 31 37 57 40 33 19 53 27 33 40 13 33 28 33 45 29 55 44 52 33 63 33 30 17 32 52 50 39 49 59 44 30 50 39 42 20 51 26 26 31 37 51 32 42 56 36 26 27 40 47 40 29 32 43 30 54 44 30 41 38 37 30 33 31 30 41 31 27 24 36 31 20 31 29 26 40 43 31 45 48 44 42 29 45 51 31 36 45 33 17 32 38 32 41 33 38 44 38 29 26 35 56 29 40 41 29 34 29 50 45 40 27 30 55 42 32 63 31 51 33 23 41 46 34 32 33 41 38 29 40 48 36 41 38 40 41 39 41 29 37 33 37 34 43 43 45 48 43 34 49 19 37 26 34 33 38 20 62 34 43 31 29 53 28 27 44 27 36 55 35 28 23 43 41 23 47 33 34 30 36 21 37 41 50 43 55 32 42 34 34 37 26 37 27 43 44 38 34 44 39 41 52 46 35 20 34 21 44 33 37 24 34 51 46 24 28 33 48 37 19 28 35 37 28 41 36 34 27 24 58 40 50 65 22 38 42 36 35 15 51 38 57 22 26 29 35 25 53 37 18 34 33 26 57 25 62 42 26 43 31 27 46 54 23 39 40 26 52 32 16 39 26 49 43 54 57 22 27 43 47 44 43 41 29 37 32 43 49 50 31 37 41 47 47 43 51 35 32 25 29 16 38 40 56 22 41 27 39 23 43 36 30 46 46 31 76 54 24 43 45 36 44 35 43 45 29 39 30 49 36 51 31 32 20 23 55 26 51 30 23 37 54 37 48 49 27 57 37 38 43 37 38 42 34 62 29 41 44 40 27 34 16 46 33 44 31 30 41 37 23 41 41 56 43 43 26 51 39 53 44 30 31 30 27 37 39 30 47 37 36 37 48 44 35 43 48 26 37 30 40 27 23 52 26 38 44 33 43 35 52 37 26 37 47 30 48 41 51 43 34 49 30 25 19 23 33 37 32 38 33 43 33 36 40 46 44 33 40 43 35 46 26 31 26 42 42 40 43 36 37 36 38 44 25 38 42 43 43 22 44 48 38 23 65 38 30 35 35 30 48 43 49 37 31 59 29 43 22 40 29 34 37 33 34 51 26 47 55 47 29 51 32 37 45 30 19 33 25 37 43 39 29 33 38 54 39 29 33 30 36 54 36 54 39 51 42 39 15 47 44 22 37 53 37 37 57 23 47 26 27 37 35 30 37 50 51 46 31 17 34 40 46 57 39 17 31 19 37 45 35 33 44 26 44 26 44 26 49 37 57 36 42 23 36 30 22 34 49 30 37 30 52 38 22 50 46 54 47 25 51 45 32 30 57 31 47 41 49 51 41 39 17 43 34 57 34 36 49 39 51 34 27 34 47 25 54 28 33 37 46 53 35 29 33 43 38 18 34 34 37 34 55 37 59 29 36 36 35 26 38 17 49 22 35 29 34 30 34 10 41 37 37 17 43 34 48 40 38 48 51 21 76 26 51 22 38 19 43 44 51 36 33 48 42 30 42 53 42 37 41 32 47 40 32 28 28 44 35 26 37 36 38 52 34 31 50 46 44 37 66 40 45 41 35 22 44 29 39 45 37 26 29 30 44 46 47 54 21 29 27 37 43 33 23 23 24 31 33 49 43 41 27 39 30 45 16 50 37 33 37 52 46 38 42 37 51 27 42 36 29 41 47 30 44 19 39 29 37 61 50 22 25 30 55 39 32 43 39 28 42 32 59 47 27 44 41 40 41 51 41 41 44 26 44 19 29 23 52 32 26 16 24 37 41 43 37 42 27 41 38 45 60 38 49 51 34 41 34 26 30 38 30 41 29 37 41 41 34 31 34 37 38 34 41 29 37 47 26 46 51 54 16 33 39 38 40 60 27 22 48 55 35 45 47 48 32 18 33 27 31 13 45 35 47 45 41 41 30 38 40 29 19 37 36 34 31 47 38 17 40 34 43 51 35 40 59 44 36 30 30 33 41 65 44 37 44 37 27 40 45 47 34 45 20 37 40 43 36 24 37 26 61 36 37 57 58 45 32 37 33 34 51 31 43 43 44 22 35 33 44 28 44 53 46 42 30 40 33 50 34 41 37 30 35 27 17 29 38 45 39 39 36 46 45 54 23 53 53 27 30 30 45 46 33 29 45 52 23 37 54 43 23 26 39 22 36 44 26 27 40 53 43 23 27 41 30 37 29 35 47 51 27 41 29 50 27 46 39 31 30 39 33 40 23 42 16 31 37 42 43 51 44 38 34 26 21 20 39 30 29 49 35 33 30 42 37 55 45 47 41 46 34 19 28 33 51 47 47 23 30 41 34 41 35 46 67 49 23 44 69 42 23 26 41 28 41 41 59 40 27 45 40 34 40 40 43 22 51 38 38 39 27 29 62 34 43 37 46 47 41 36 16 68 53 37 62 35 31 33 29 44 41 48 45 29 48 55 16 65 45 37 41 34 41 51 26 30 32 22 22 48 37 29 45 41 22 56 41 26 33 37 39 41 21 49 46 43 45 36 50 47 45 33 39 41 40 57 33 34 47 27 41 22 29 47 50 30 38 22 25 29 38 53 25 40 29 31 55 33 43 26 26 39 13 30 37 40 12 19 35 21 26 40 44 48 40 34 29 16 39 43 37 29 43 29 41 38 41 52 41 47 30 34 37 33 26 39 44 43 37 29 27 51 45 40 37 36 39 26 40 45 6 32 31 42 43 30 37 30 41 34 27 19 35 51 21 44 21 30 27 22 23 36 22 33 37 23 41 43 44 39 32 19 30 54 45 40 49 40 58 24 45 38 30 37 27 33 60 48 16 67 40 55 33 27 26 31 20 23 27 43 36 29 37 43 31 30 34 33 29 56 20 55 40 30 40 54 37 51 30 33 47 43 43 17 33 28 26 46 42 28 51 29 55 51 46 29 31 69 30 40 40 15 33 48 25 29 49 40 23 30 51 37 23 31 27 27 37 20 37 50 38 46 54 46 54 55 33 45 23 44 34 28 47 29 38 23 40 17 43 19 20 37 38 51 27 35 16 36 56 43 16 37 65 46 34 45 33 26 29 37 30 31 43 35 35 46 58 48 36 51 29 29 45 35 46 38 37 36 34 44 24 41 17 42 47 13 39 41 56 43 45 31 23 34 42 45 32 66 27 15 36 30 37 30 42 33 42 37 37 39 47 42 31 29 44 44 32 30 43 40 40 29 52 31 27 43 30 43 37 58 31 35 27 37 36 46 54 37 23 49 33 41 33 57 10 45 53 47 55 42 35 27 40 62 34 27 29 49 47 56 34 40 34 22 29 37 30 44 43 37 38 36 54 51 33 31 20 37 49 31 38 41 46 37 48 36 44 39 37 45 58 54 23 32 41 39 47 51 37 44 43 36 50 32 37 30 18 45 54 27 19 32 43 31 42 35 48 45 35 36 23 52 43 24 57 36 36 35 39 43 37 29 27 24 40 23 29 16 41 38 51 40 33 54 28 29 42 34 25 33 38 17 47 36 23 43 29 46 40 30 40 34 37 30 22 39 42 48 23 27 51 37 38 32 41 33 37 29 33 31 19 65 23 40 51 20 33 38 35 46 37 26 35 38 43 39 49 33 35 16 37 48 34 24 33 20 36 41 34 14 31 49 49 43 40 46 37 43 44 27 40 38 29 39 51 24 30 37 17 51 39 26 12 39 23 37 49 36 52 20 45 49 27 22 31 37 44 50 31 34 17 51 19 31 23 53 36 49 16 40 44 32 33 42 19 50 31 29 34 29 30 29 36 26 49 29 33 65 27 40 55 35 30 56 27 37 33 42 53 38 48 44 21 42 49 22 55 37 31 40 33 40 47 40 30 41 41 30 29 48 39 29 36 33 37 24 22 35 32 13 54 51 44 43 45 46 65 36 30 35 44 41 37 43 52 23 29 30 23 38 40 27 38 37 43 23 30 37 26 29 51 20 50 42 43 32 23 43 45 48 38 51 54 40 34 34 43 52 16 41 44 44 58 30 29 67 66 30 44 51 46 51 37 31 51 27 29 51 39 40 47 43 29 29 52 39 48 43 25 34 37 30 30 39 39 37 54 51 31 39 37 33 26 45 44 38 51 27 27 27 30 23 33 43 22 41 30 37 25 43 49 42 40 37 30 20 53 43 37 33 41 50 24 29 27 31 37 33 34 41 38 33 23 40 32 44 42 32 31 33 45 43 29 44 26 26 41 30 31 42 19 23 50 26 16 65 46 66 50 47 30 27 41 40 50 46 29 36 37 44 37 45 27 50 33 46 34 55 20 40 31 42 45 45 34 29 20 23 36 43 40 49 44 49 36 41 49 36 45 35 34 33 27 48 14 43 48 49 33 47 40 39 31 49 31 49 60 52 34 39 41 30 43 22 49 33 41 31 45 33 43 43 33 40 30 25 42 37 43 48 37 23 42 27 42 52 16 35 37 27 24 33 48 40 40 25 38 41 19 28 47 35 49 46 20 16 35 30 44 44 33 38 37 37 40 21 32 33 44 40 45 33 33 50 42 36 25 50 47 33 26 23 33 33 51 33 28 40 44 28 30 37 37 35 30 39 43 26 26 44 22 50 44 49 44 31 29 39 37 29 37 40 20 40 43 45 37 36 30 42 36 35 43 36 25 28 48 37 19 29 40 29 44 41 41 16 40 24 44 30 29 36 51 50 37 60 40 25 36 35 31 37 37 37 33 31 24 30 35 29 37 40 38 18 45 23 40 29 48 76 22 44 40 34 37 42 23 53 18 27 23 31 42 46 29 29 31 39 57 51 55 67 43 24 37 31 24 39 29 43 36 33 32 43 49 32 26 37 44 20 36 34 43 38 35 25 54 45 48 23 28 37 33 59 41 41 40 33 48 36 28 29 37 26 34 47 34 51 40 55 37 36 35 10 24 33 35 26 34 26 29 43 29 36 40 31 46 43 30 47 13 41 46 41 33 48 22 37 40 42 19 51 47 29 31 46 43 37 23 42 33 30 56 29 33 36 44 36 25 59 27 42 43 39 40 37 27 25 37 29 17 41 46 32 45 41 26 30 36 35 24 29 40 31 54 58 19 34 35 56 33 44 34 46 41 41 19 26 34 43 43 20 27 23 49 41 43 30 49 51 26 31 44 42 50 60 55 39 41 27 61 48 52 48 47 21 26 34 42 31 33 20 45 33 23 41 58 32 47 27 20 47 47 29 32 36 40 47 49 27 23 26 35 59 24 40 48 29 42 38 45 44 61 13 17 30 36 39 43 43 65 38 51 40 44 36 30 52 25 43 51 43 29 34 39 41 37 21 43 44 25 33 53 30 35 37 32 48 35 32 40 30 46 36 36 36 31 40 44 36 37 27 36 37 34 50 47 36 31 29 35 27 35 34 47 16 40 36 30 48 23 23 29 36 29 44 47 42 29 42 48 32 23 38 36 51 25 40 35 48 39 34 31 33 30 44 55 49 43 37 50 37 33 27 26 41 51 40 37 30 37 40 40 33 49 20 37 31 17 33 37 25 22 26 29 21 19 40 43 29 48 37 23 43 40 23 34 63 59 31 42 30 40 27 32 29 50 41 26 26 47 55 49 33 54 29 47 26 33 33 39 25 40 46 40 26 32 60 26 43 32 49 49 33 48 34 48 39 37 48 23 34 24 50 50 29 16 37 52 51 52 21 44 60 26 45 15 28 34 43 41 33 23 36 32 44 39 34 22 29 29 47 60 54 50 48 47 28 47 33 25 45 34 29 18 55 51 40 12 29 30 56 36 36 57 24 27 55 26 51 26 34 23 36 43 39 51 45 33 50 38 34 39 43 43 30 17 26 31 52 44 50 36 33 34 40 43 30 32 43 29 30 41 52 17 33 31 37 41 49 34 43 29 36 37 51 29 35 34 55 20 26 22 58 27 56 28 26 26 55 49 49 34 43 40 48 23 27 61 29 27 54 51 33 40 36 27 33 46 41 33 41 32 37 49 30 39 39 48 49 50 44 23 49 40 29 20 37 44 26 34 33 26 40 48 37 33 30 49 40 49 37 38 41 39 41 40 45 19 40 45 50 48 29 40 32 43 37 26 23 26 32 59 20 44 46 16 59 40 61 53 37 37 33 22 37 65 50 44 34 22 20 41 33 59 36 51 59 29 32 33 25 35 43 29 40 40 26 44 34 47 36 23 56 35 41 47 28 33 47 27 45 28 18 41 27 39 24 34 45 40 26 26 54 47 16 37 26 46 20 33 15 22 49 39 43 37 61 27 41 43 35 49 26 45 48 53 27 41 29 36 32 30 42 49 24 37 40 40 22 29 40 36 35 55 24 38 71 27 35 36 29 22 37 33 33 23 42 28 23 20 46 29 39 30 53 41 19 20 22 37 49 43 23 43 33 60 27 29 29 37 46 15 47 41 40 48 32 23 54 37 25 28 52 30 25 32 25 39 28 38 33 36 29 41 32 37 35 36 38 22 52 26 38 42 13 42 51 37 35 41 37 34 73 43 40 30 40 56 30 28 33 43 34 43 43 35 18 45 16 30 26 38 29 58 52 34 58 59 62 39 20 29 42 38 26 39 33 27 24 33 32 52 49 45 30 43 43 52 29 45 39 29 27 39 57 28 52 26 41 33 43 33 34 23 17 37 29 48 27 33 39 35 29 36 41 15 37 39 42 39 36 43 40 64 43 38 40 49 39 59 41 37 30 16 35 52 40 35 24 41 43 37 61 33 21 37 54 33 43 54 45 38 47 38 30 35 39 37 41 29 44 36 50 37 30 46 16 40 37 33 26 57 48 37 27 41 45 30 48 44 47 46 39 27 22 19 23 32 16 23 39 36 28 45 55 42 29 49 26 37 32 35 44 35 33 38 40 51 55 41 36 26 59 44 30 55 36 40 49 44 47 48 41 41 56 36 46 22 39 47 49 51 31 43 29 27 15 47 28 45 37 45 39 44 26 26 46 20 30 30 45 37 6 47 35 36 47 41 54 37 52 48 46 28 37 34 41 27 48 44 20 43 55 48 40 40 41 36 30 44 22 53 23 38 45 32 28 46 27 51 49 61 37 29 47 44 38 36 37 41 56 29 40 29 19 51 43 37 22 44 43 44 42 58 59 37 34 40 36 41 39 36 42 18 23 23 52 19 27 21 48 30 52 42 48 26 42 41 37 33 43 43 48 33 23 38 46 45 29 42 43 39 19 50 38 41 46 38 40 44 29 32 31 46 50 32 44 44 44 39 53 45 33 38 26 41 52 38 24 45 41 54 34 35 40 40 35 34 49 33 33 31 40 37 27 22 39 23 37 61 44 40 26 28 29 31 41 44 44 37 31 44 19 27 36 41 33 45 29 42 29 37 23 32 32 48 34 28 38 27 41 28 20 28 45 44 43 33 17 47 39 22 29 29 39 31 37 36 16 33 51 37 44 48 41 37 54 55 36 47 47 33 19 24 33 31 29 40 34 41 33 41 36 35 37 37 37 52 41 58 37 30 31 52 53 43 30 29 44 33 51 36 36 32 57 51 19 40 37 22 25 45 18 20 50 51 27 48 60 43 22 36 51 16 25 53 21 47 43 23 48 24 58 28 40 38 30 37 23 26 27 31 37 30 44 45 29 21 36 46 37 40 42 54 53 31 28 40 31 41 43 41 33 44 43 27 54 56 48 33 37 13 61 29 43 23 37 41 45 44 43 33 47 49 44 47 62 53 45 43 54 42 38 33 35 46 52 38 30 35 30 30 44 35 18 32 53 34 30 38 40 38 40 33 37 40 62 44 31 46 27 36 31 50 42 26 19 43 38 45 41 53 37 21 42 49 51 41 33 43 46 32 44 42 40 19 33 44 65 44 30 19 49 50 43 34 33 43 55 49 42 53 43 45 39 23 39 37 51 41 37 37 45 41 30 47 41 47 40 29 26 40 53 41 25 33 37 41 37 30 42 69 27 48 39 25 41 48 48 34 46 40 41 44 38 40 35 56 50 37 31 43 46 62 44 41 33 40 34 31 19 29 22 22 33 63 43 51 29 41 25 34 22 59 35 30 12 35 34 49 36 42 24 44 20 30 40 64 43 30 30 15 36 62 40 23 40 44 37 39 56 9 34 31 59 39 33 16 36 56 29 37 42 27 29 20 55 28 37 34 43 38 27 39 42 42 34 32 21 44 37 24 45 28 44 43 33 34 51 50 48 43 41 34 26 40 38 51 37 40 36 32 56 33 41 34 30 43 57 37 26 43 27 28 43 46 29 50 45 25 52 26 36 22 39 44 38 38 34 42 39 35 24 30 17 35 30 42 35 37 21 27 43 37 52 44 33 40 52 52 41 38 51 45 40 16 37 32 35 20 37 40 41 26 40 44 43 58 26 48 22 57 34 41 16 50 33 53 33 36 30 42 39 33 32 21 45 38 43 44 47 34 46 27 32 47 37 32 27 29 46 40 20 21 43 46 41 45 33 34 47 29 22 37 37 49 32 41 22 29 50 45 38 32 27 34 54 24 41 38 37 33 38 41 47 39 52 37 41 41 32 30 26 32 30 54 40 20 36 40 33 42 43 47 50 36 43 37 48 34 36 57 44 26 36 41 43 41 42 23 64 30 33 39 36 51 48 27 31 24 23 40 40 33 26 49 35 43 43 45 36 40 57 48 37 40 36 21 48 34 49 34 36 34 25 42 55 62 49 33 43 34 22 21 31 23 41 31 43 62 24 31 24 48 23 46 41 47 37 44 30 28 31 26 29 40 59 43 35 22 27 31 55 36 30 40 52 22 26 22 32 34 52 35 48 36 33 45 37 37 47 26 30 36 38 36 41 37 51 48 19 33 37 16 50 29 30 20 49 24 51 16 36 23 33 33 29 32 38 43 23 30 47 39 38 29 22 44 31 37 19 40 54 29 30 52 36 27 34 52 33 45 46 28 44 30 54 40 30 25 29 28 37 39 27 43 49 41 37 29 62 33 31 29 8 37 33 45 32 52 38 35 51 23 26 41 50 42 51 41 22 34 41 21 24 47 48 48 22 51 47 43 52 31 33 42 18 42 47 30 47 39 49 29 37 33 23 33 30 46 33 44 40 40 35 41 34 22 41 17 23 47 31 41 46 40 41 41 23 54 39 33 28 43 57 37 32 22 37 43 25 33 33 40 34 37 19 32 39 30 51 31 52 37 40 35 46 37 32 32 36 53 49 38 36 30 16 40 41 36 42 44 40 33 37 39 26 47 36 37 29 36 39 29 34 51 28 44 48 26 37 44 23 47 51 30 44 52 33 33 34 38 45 36 44 29 13 25 27 27 33 20 40 58 30 36 26 25 45 33 49 64 58 39 30 46 30 31 45 49 40 34 50 36 47 26 51 23 36 24 36 37 26 33 41 33 31 29 23 37 34 22 43 41 40 42 55 37 38 44 23 39 50 13 48 29 44 49 47 37 38 36 58 36 32 40 59 30 40 47 48 41 33 48 46 44 50 33 43 29 29 33 41 16 48 30 46 51 29 30 34 41 22 51 40 39 33 39 42 27 41 44 55 60 29 20 47 45 43 32 42 33 36 53 36 27 43 50 48 52 38 53 46 37 41 30 31 19 43 40 41 40 48 33 53 37 41 37 53 37 52 27 43 40 46 39 37 32 40 33 59 41 51 38 48 37 23 45 45 43 30 40 21 39 48 42 38 26 41 49 51 72 27 9 12 43 31 30 33 41 44 19 22 37 40 42 42 55 40 23 27 37 18 19 47 32 30 28 37 34 27 38 55 28 47 25 61 20 57 40 52 37 43 36 41 24 19 19 44 41 40 34 42 16 34 53 33 34 33 46 33 30 43 35 33 37 54 34 65 37 35 44 31 44 42 30 60 44 47 34 53 51 34 29 44 38 36 37 58 33 26 31 41 33 29 68 51 47 32 22 13 42 36 32 46 30 44 35 27 41 6 44 29 33 35 45 22 41 35 40 39 52 32 27 43 43 44 40 20 35 44 26 34 37 26 46 38 36 32 27 30 16 37 55 37 54 33 64 38 37 31 42 47 49 42 33 55 39 41 46 27 28 31 50 35 36 23 41 29 51 33 47 51 29 44 44 49 34 35 32 22 28 21 43 47 23 34 31 33 40 49 44 25 63 37 49 26 35 34 42 34 51 41 9 62 44 30 39 29 31 45 45 31 46 30 47 58 40 28 30 34 47 45 35 57 48 45 33 34 27 30 43 34 32 29 51 54 33 37 41 32 37 37 40 44 43 37 45 33 30 46 44 41 23 43 47 49 23 42 26 32 31 41 54 31 41 36 32 42 21 29 24 41 31 34 28 19 60 35 46 50 24 21 22 45 41 32 25 26 25 27 35 34 32 26 30 45 26 40 36 57 45 31 29 28 42 47 30 25 33 50 37 32 47 37 33 30 37 49 40 46 46 36 40 29 31 58 37 37 31 43 51 35 62 33 36 37 36 51 70 39 33 58 43 37 42 43 48 29 51 39 61 40 37 31 37 41 30 43 51 31 32 44 31 47 45 34 43 7 58 41 46 44 30 37 27 41 41 44 34 21 45 23 51 45 41 30 26 43 45 60 19 34 41 41 25 21 33 27 22 51 38 51 50 43 53 40 25 20 56 59 34 41 41 30 51 26 37 43 26 23 39 29 23 51 45 32 47 36 19 33 48 13 43 28 44 37 39 23 37 30 33 52 38 56 45 41 29 36 30 38 48 29 35 21 47 27 38 27 33 35 49 44 28 26 45 29 46 33 38 54 42 53 49 43 45 44 26 23 30 25 16 44 24 19 39 37 27 47 34 54 44 46 37 36 27 26 43 43 55 47 53 33 42 24 49 37 15 49 38 36 38 38 30 30 32 30 37 37 41 47 34 44 29 46 27 43 45 49 47 51 35 30 50 16 37 29 23 27 50 51 34 43 29 47 19 40 48 40 40 29 31 29 34 29 42 50 44 33 34 42 39 21 50 32 53 36 58 24 28 34 45 48 30 47 31 33 41 47 46 30 57 49 35 37 44 17 61 40 36 29 34 37 30 41 44 27 25 38 32 23 35 47 20 47 31 53 38 46 23 26 40 44 54 34 37 31 43 34 34 28 44 38 45 27 31 50 19 48 22 51 29 46 45 43 20 32 21 29 39 44 40 41 26 37 40 48 39 51 32 55 32 43 43 53 47 37 34 33 47 36 27 32 39 20 37 47 32 44 44 30 53 37 38 50 24 36 50 32 32 32 33 40 55 46 37 44 40 43 33 37 24 47 37 35 29 54 22 70 32 13 37 27 41 48 58 44 26 26 66 47 32 34 25 32 37 39 50 41 26 30 46 35 30 27 25 32 54 49 48 51 25 26 53 45 37 53 38 49 38 36 46 10 36 27 29 29 45 44 32 26 43 51 39 38 32 54 65 33 41 33 35 47 60 35 43 32 43 39 43 55 36 42 56 29 50 47 29 55 19 46 44 52 45 37 40 33 36 59 20 41 17 34 37 33 50 30 33 47 29 39 22 39 28 52 29 16 29 19 52 43 41 33 44 42 59 30 44 55 37 33 31 33 19 35 29 28 50 30 46 19 43 29 33 33 37 33 40 51 27 57 26 32 34 34 23 43 48 10 36 34 32 40 58 48 34 41 44 51 40 53 51 40 36 49 33 47 34 27 43 31 22 37 20 46 33 40 47 51 26 37 44 40 29 40 31 45 38 46 32 37 62 43 21 49 36 34 27 20 33 36 41 36 37 23 44 44 34 47 15 45 50 30 53 40 33 38 56 40 29 31 15 24 30 34 36 41 33 23 37 32 39 43 25 38 34 53 39 37 49 45 32 33 29 51 35 47 23 68 37 34 43 47 39 49 50 35 38 43 30 22 41 30 45 44 51 65 40 48 27 19 22 51 37 50 37 36 32 34 30 36 34 34 20 63 37 13 32 43 48 25 45 37 37 44 37 31 48 46 41 43 46 44 24 33 46 44 43 34 54 37 36 41 43 35 38 29 37 36 19 40 43 47 23 36 48 30 31 51 66 54 41 37 37 36 34 26 47 30 47 32 50 51 41 48 39 28 38 36 33 30 41 23 40 48 19 53 44 30 49 20 41 33 41 44 51 24 49 41 36 37 41 33 24 48 37 42 25 34 36 50 16 61 44 32 36 44 57 32 52 51 33 55 55 41 50 47 28 39 58 33 50 37 34 36 45 17 37 41 19 37 36 66 14 45 33 43 60 46 44 50 35 12 29 40 44 47 41 48 27 40 47 63 30 55 45 25 26 35 51 37 37 26 37 35 30 45 44 31 30 48 16 37 50 29 39 29 21 41 30 36 37 23 25 43 35 49 46 31 57 29 31 30 21 29 33 35 50 40 35 47 58 51 56 33 38 30 27 37 22 34 36 48 35 56 36 37 22 48 45 23 33 12 42 17 40 49 28 30 30 34 33 34 43 25 33 31 23 37 15 41 28 24 29 19 75 40 33 55 43 40 41 31 27 23 36 26 45 47 32 49 35 32 36 42 47 36 51 27 34 51 43 37 50 19 37 21 46 37 34 47 23 46 25 51 43 54 48 44 51 41 41 41 37 32 33 55 51 29 39 38 30 25 44 23 53 30 15 23 47 42 31 34 40 34 36 42 47 29 33 44 38 41 58 27 23 32 38 38 52 34 51 37 28 38 12 36 30 51 43 31 37 38 31 31 47 43 43 32 51 38 31 53 32 35 53 22 27 46 49 23 40 31 33 43 61 36 45 29 20 43 36 51 32 49 38 20 34 23 31 26 43 41 41 36 30 34 32 29 23 37 40 16 40 38 36 37 52 36 34 57 41 22 33 33 43 35 44 19 26 38 41 32 29 52 59 48 36 44 26 32 51 33 36 44 51 30 35 27 51 39 34 34 19 47 34 32 40 40 61 20 16 37 42 31 36 39 35 53 50 46 23 33 40 27 40 42 37 50 59 35 29 48 12 46 50 16 22 45 51 33 51 23 36 49 31 37 44 45 33 38 30 45 49 41 52 60 20 37 34 37 38 24 29 47 48 35 22 24 46 33 42 41 30 15 36 30 33 49 47 33 45 40 33 39 39 36 48 46 47 36 54 44 33 43 39 50 28 32 39 27 40 34 45 47 36 41 51 24 42 23 30 28 37 36 29 45 49 63 43 34 43 59 29 32</t>
+    <t>NIG(55.640933605641095, -5.40461269034564, 7.289093710342684, 89.6271995860917)</t>
+  </si>
+  <si>
+    <t>3 -6 -8 -23 1 -2 -3 -3 -7 -4 -1 -6 4 18 -4 -3 -8 -3 3 6 21 -14 -3 -4 -6 -3 -23 -11 2 -17 -30 -13 3 25 -33 17 -18 -9 -3 -4 11 7 3 -18 -13 3 -23 6 -3 -13 -14 -26 -11 -3 9 4 -2 17 -4 6 -2 18 6 -14 6 3 -11 -3 -18 6 -4 -3 -1 -4 -3 15 14 6 7 -16 3 -13 13 3 -9 20 -24 -11 4 25 -7 -29 -13 -9 12 -15 -17 -8 18 21 -20 -21 13 -17 14 -9 -14 -4 -4 -28 -4 -15 -18 27 17 -30 3 5 -3 14 -2 2 8 20 12 -4 -1 10 -6 -13 13 7 -6 -6 18 6 -18 -3 -2 3 9 -13 -2 15 3 -6 -12 3 -4 -3 14 11 11 10 4 -20 3 -10 1 -1 -8 4 -8 -17 3 -5 16 14 -4 -7 -4 2 -8 -3 -1 17 -3 -15 8 -5 24 -3 3 25 5 7 -5 28 -10 15 41 9 -8 -10 -7 1 -7 5 -5 17 -4 -2 -7 -3 -14 3 18 -3 -10 -3 -7 16 5 -23 -12 -3 18 -6 -6 3 2 -13 7 10 -9 9 6 -8 13 -2 -6 4 -19 1 16 5 11 -2 -18 7 -10 -5 -6 -1 -8 -2 -18 3 -17 -10 10 -17 7 -12 18 -9 10 -28 1 -3 9 7 -8 10 13 -6 -6 7 -3 -17 -17 -7 8 -7 25 14 -9 5 11 -8 -3 -13 -3 -3 6 3 -3 22 -1 -7 -20 -17 -20 -13 23 -17 -8 18 -16 -7 7 11 9 3 -5 6 7 9 10 -7 -27 -14 -7 5 -7 4 -5 4 -18 -1 -3 -8 8 15 11 13 4 4 -3 -23 -11 -6 -11 -3 -20 10 -15 -20 -4 20 -3 -3 7 -8 7 6 -7 -14 -4 -6 -39 19 7 -1 -2 -3 -21 -3 11 17 -10 3 3 1 -6 -4 -2 14 7 -7 -9 -7 -9 7 1 -11 10 15 -3 28 3 3 -22 3 -13 -3 17 2 9 -17 16 -14 -6 3 3 14 -14 9 3 9 -4 30 -20 6 -3 -15 -2 3 -7 -19 -1 -9 -3 -3 -8 -13 3 -30 3 3 -4 -1 -22 -7 8 -3 14 22 -10 0 17 -14 -17 -28 -8 -7 -17 13 25 -2 6 -16 3 -8 10 -11 -3 -3 17 10 -12 3 -7 -3 3 -2 7 -11 -5 -6 -26 -9 -12 10 -3 -11 14 -20 25 14 -13 -6 5 -12 21 13 -19 -4 1 -6 23 -2 16 -14 -26 -16 6 -13 7 6 -2 1 -18 -3 26 -13 -9 0 5 18 13 3 2 17 -7 43 -12 20 -14 8 21 30 -9 4 10 3 -3 22 14 -3 21 -7 10 -17 -13 -10 1 -15 7 3 6 5 -28 6 6 -3 4 -30 -11 11 -2 -4 1 3 -14 -3 3 1 -6 -14 6 31 -17 -25 5 0 3 1 -10 2 -19 -13 -10 15 13 3 6 -3 -3 -5 -13 4 -10 -4 -12 14 4 -5 3 10 -3 13 -13 10 9 -10 -7 -3 -18 5 -6 -17 0 14 -6 -7 11 -7 21 6 -7 8 -8 -6 -9 12 0 -7 -4 -3 3 3 9 6 -14 17 -3 -18 -8 4 -9 4 -8 23 -3 -22 -4 -5 -2 -14 4 11 -13 18 7 -2 -3 12 7 -24 2 -1 -14 -18 -6 20 3 7 15 -2 -17 5 19 13 7 -17 21 9 21 15 8 -6 4 18 7 2 -7 -15 14 -3 3 17 -3 5 -21 6 -13 -15 -19 -3 9 13 -9 9 3 5 5 2 -6 -20 8 -3 4 -3 11 -3 -3 -16 6 7 0 -27 -7 -7 3 3 -5 17 19 -7 -7 10 13 7 -4 16 -12 -1 3 25 7 3 6 -23 -7 -24 -4 -12 24 -4 23 3 5 -30 -4 21 3 -3 4 -3 -7 -3 -8 -2 -4 3 11 4 -3 -1 7 20 -20 -8 -20 22 -1 11 7 9 -6 3 10 -7 -10 14 -15 -6 7 -10 2 -3 -19 23 21 6 17 -6 7 9 8 -21 6 -30 3 38 5 -9 -16 -6 -13 17 -18 -17 4 -15 16 -18 -10 6 -2 -3 -3 15 -6 -24 10 -7 -6 -23 8 4 2 -4 -6 6 2 10 10 -6 -8 2 -4 -13 -2 -3 3 -9 11 -3 11 -12 4 -3 16 -1 19 -10 7 -13 -6 2 -3 34 -15 6 -24 -2 21 -16 -3 -4 -10 -19 -20 -19 -3 -21 1 3 -14 -8 31 10 6 -23 8 -12 -11 -24 -1 9 -3 17 -13 -6 -16 -18 5 3 7 -5 14 8 -1 1 -3 -9 -20 5 -7 14 -5 -13 -4 -4 12 4 1 10 -18 1 -4 18 1 -7 4 -7 -15 28 8 -13 25 17 -7 14 2 -14 -3 3 -13 13 16 4 -32 -6 -10 3 16 -20 27 -9 10 -16 -3 -3 -4 1 -8 -7 6 2 -6 1 -24 -19 14 7 7 6 -3 -8 6 -34 -5 7 -5 -13 -6 8 -4 14 -9 1 -24 -17 24 10 -7 -15 3 6 10 -3 7 17 -17 18 -3 4 -25 -3 11 8 18 -3 -17 -7 -10 -7 3 -20 -10 -1 8 -20 -12 -3 9 -6 -19 16 8 17 13 -10 5 6 -9 2 3 12 5 28 -6 -7 14 20 6 -16 15 -3 -23 -14 8 -25 -3 -1 -26 4 10 -13 3 -14 -13 -6 -28 6 -3 14 3 22 6 5 2 -2 -3 -22 -7 -3 -10 -4 11 5 4 -1 4 -6 -3 -4 0 -16 14 -14 -5 -11 1 5 -1 -9 -3 8 3 6 -3 -3 5 6 4 -3 -15 -6 7 8 -7 7 -18 14 -7 -16 3 -17 10 -5 0 24 -11 11 6 5 3 12 -5 3 -3 -3 14 3 5 -19 -15 5 -20 -20 4 -38 -18 3 4 1 -17 -9 17 1 -6 -6 2 -9 3 -7 3 -4 -23 5 -3 -5 -21 -8 16 -6 3 3 -4 18 -11 5 -3 14 -3 5 26 -23 -3 -3 -6 6 13 -23 -10 2 8 7 15 -23 -11 -19 21 -10 -3 -14 5 17 -11 1 -4 -7 -8 -4 -14 7 8 -17 -25 -10 5 -3 9 7 -1 1 22 7 14 3 -3 -8 -4 10 -15 6 4 -7 24 -7 -14 14 -4 -4 8 20 -12 14 4 -6 13 -15 -23 -3 -3 15 -20 7 -3 -2 11 14 -10 10 -3 3 6 1 3 10 6 8 22 9 -5 -15 3 -1 -6 11 -8 -10 -3 8 6 -7 -9 9 -6 4 -3 -18 -6 1 3 -6 11 -6 10 4 14 4 -10 1 7 5 -3 -18 12 -19 6 3 15 11 4 -13 -3 -6 -6 6 4 9 7 -16 -5 5 -27 -6 16 -15 -8 -3 3 4 7 14 14 21 -10 -25 4 -25 -14 6 -7 -14 -16 -7 -18 11 -24 -6 -3 -10 4 -15 -15 -1 22 7 -4 -2 17 14 13 3 -13 9 3 6 -12 -4 -3 1 -16 14 10 -1 11 -4 3 25 23 -11 2 -6 5 -33 -3 -4 24 -11 6 -3 4 -11 -21 -1 -3 7 -11 5 -27 -17 -30 25 1 3 -3 6 -7 27 -22 -21 -9 11 -3 -2 -7 18 1 -3 -13 -6 6 13 4 -27 3 15 -22 5 4 26 -15 -33 -3 3 -4 18 -14 3 12 -24 5 -18 -17 -3 -5 7 -3 -2 7 5 2 -6 -16 -7 -5 5 -11 4 7 -5 -2 -15 -6 24 7 2 -8 9 17 3 17 3 5 6 12 -31 -4 14 27 -10 -15 9 2 11 7 -3 19 -7 -4 -5 4 -31 7 -16 7 3 -8 8 -4 -7 -8 -4 5 -8 -7 2 -6 4 16 -5 6 -6 -2 -14 7 -3 -1 14 -17 -3 6 10 14 10 -2 0 15 3 -10 7 -8 -7 -19 -13 5 -7 -7 -11 24 -3 -7 -6 7 6 10 -3 -3 4 -1 -6 -13 -18 3 -3 -13 11 9 -23 -13 6 32 8 -16 14 -26 -14 -5 21 -3 -8 2 -9 10 -6 -14 7 8 -21 0 -2 7 3 -2 -3 -3 14 -12 0 -19 14 -12 10 -15 -5 -10 -7 -4 -16 -15 -8 -7 10 12 5 -31 3 11 -3 2 -12 -6 7 4 -13 -6 15 -21 6 7 -32 -8 -3 -14 -3 10 -14 -6 15 -21 -12 -5 -9 7 11 -5 15 -10 -4 -32 -26 4 -3 3 -3 -16 -6 22 12 -15 -13 3 3 -13 -5 -4 -10 2 10 1 9 11 -1 -18 11 -5 13 -2 13 10 -10 -18 6 -3 3 8 -15 -12 6 -7 8 11 3 -17 17 18 0 8 -2 4 24 28 6 40 5 11 3 -32 21 -11 -20 -10 3 -5 -17 6 12 -6 -3 -13 7 3 8 -3 3 1 1 -11 -16 4 6 -5 0 4 -16 -16 7 -11 20 -7 1 -3 3 18 -4 -10 -6 6 -6 -10 -11 -13 -7 6 -3 -21 -3 4 -13 -24 -14 -11 5 -8 -22 -10 8 -1 6 3 3 -5 -6 -17 3 1 -3 5 -8 -3 -27 -11 4 -7 30 13 -10 -7 -3 4 -20 -6 9 12 -6 3 -6 8 -3 -8 4 -17 1 -23 14 19 -7 -17 -15 -17 7 -19 -25 -21 -30 -9 -28 -3 -3 6 -14 15 4 14 -3 14 -5 21 14 -3 -7 16 -3 6 -7 -23 10 12 8 -9 1 -3 -30 3 -5 11 -21 -6 15 -11 3 -2 -17 -6 -9 -17 -12 -7 -16 -18 6 -6 -13 -10 10 -3 -16 -3 -2 7 -11 -12 6 7 8 25 -3 0 7 4 9 -13 -6 -3 10 -1 -25 -25 1 20 -14 3 17 -5 14 6 6 21 7 4 -16 -10 -5 9 3 -17 -6 6 14 -7 -17 -9 4 17 -5 -14 -4 -14 -6 -7 -2 19 2 12 -20 -22 18 -3 -1 -10 -7 2 -27 3 -19 7 -15 -8 -4 -13 25 3 -14 -3 -11 6 -17 2 17 -18 8 17 -1 -11 -3 -12 -3 3 4 11 18 -7 -11 -18 -10 13 -16 -8 -11 -20 -3 -1 -9 -5 5 28 7 -10 -11 -4 -3 -11 24 -10 -8 -4 22 -23 8 -28 -12 -19 3 3 3 -7 -6 -16 3 4 8 31 -10 -17 15 4 18 8 -16 -34 -2 25 -20 5 -12 8 23 -18 7 4 3 -9 -25 -17 -22 -3 -16 3 -3 -10 17 -11 -4 -17 -11 13 7 -3 -17 10 21 21 21 3 -17 2 -8 20 -14 -5 -14 -14 -11 -20 -3 -13 17 -3 3 7 -4 -10 3 -7 -21 -14 -4 1 5 -4 -21 -40 11 9 -17 -14 9 -26 -3 8 15 -21 -3 -11 -5 12 6 16 -5 11 3 -11 -19 -2 2 -14 -5 8 2 -10 -6 13 -15 6 7 -9 -11 -10 4 8 -3 18 13 -14 14 -7 1 -3 9 -7 -14 11 3 -8 8 21 -12 18 9 14 1 -4 -10 12 -9 -3 -10 -20 1 0 21 3 5 -28 -6 -3 8 -10 3 -20 3 -9 17 -7 -12 -3 -9 13 -17 17 3 3 -11 -10 -17 7 -18 -19 -6 -6 16 -1 -34 3 19 -10 -13 -3 -1 -1 -5 9 -25 -7 21 -7 3 -3 14 8 0 -9 11 21 -14 -11 -30 2 5 14 4 3 10 13 13 21 -3 -6 -3 8 -10 -20 -3 3 5 3 -9 -11 21 12 7 30 3 -15 -18 -6 15 -4 21 -14 -2 -20 -5 -6 -7 28 -7 17 -11 -28 -10 18 -19 -6 -3 -10 4 4 -14 4 -10 16 3 -7 10 -17 -18 -11 -7 18 13 4 8 -21 14 -16 -5 -2 -3 -7 -4 -15 6 -7 -7 12 -9 -6 -13 -3 -3 -3 11 23 14 -3 -8 -23 -4 13 4 13 -17 -3 5 7 -11 3 1 -2 -21 -15 -1 0 7 -14 15 -6 11 -1 -1 3 9 -7 2 -10 -7 26 -14 -3 -9 -4 2 5 -11 6 -7 -5 3 6 -6 -7 10 14 -4 4 42 -9 -8 10 -6 7 2 -10 9 12 -26 -24 -9 -8 -1 3 2 15 0 -17 -26 -3 -11 -7 4 1 29 -2 8 18 -8 -7 -7 -3 -12 -10 3 -3 2 -13 8 4 0 14 11 -13 -31 -14 -21 -2 2 -8 21 0 -7 -7 -22 10 -3 -12 8 -11 -6 -4 13 -3 -13 -25 8 -14 6 -3 -10 -16 2 -11 5 -11 41 -25 -3 10 -4 10 -7 7 -10 -24 -14 25 -11 -17 5 -3 -6 3 -13 -5 6 -3 21 -3 -7 -5 20 13 14 -22 -21 10 -3 -2 9 -3 6 6 -3 -3 5 8 13 -9 -8 -7 -9 -21 -9 -2 18 5 15 3 6 4 7 3 27 7 -7 7 10 14 -12 6 -7 -3 -1 -19 3 4 -12 -21 5 6 -6 -5 21 -10 3 4 15 1 -6 -17 6 -11 -7 18 4 9 -2 -11 1 -17 -9 -4 5 7 -20 12 1 -11 3 -7 17 13 2 -21 17 -20 -23 -7 2 -3 -19 -8 6 3 3 18 -2 3 -2 -27 -3 -9 21 -16 7 14 -4 7 8 -28 -4 4 -19 17 -3 -15 11 -2 -4 -13 3 3 -6 -10 -10 -5 6 -31 15 4 -9 14 -4 -7 -35 6 -3 -6 -18 -14 -11 35 14 -6 -3 -6 37 23 -8 -4 -6 -10 2 3 9 -6 -4 14 -2 -1 -10 -18 -14 -2 1 4 9 9 -21 7 -25 -24 -20 7 3 6 20 -15 -4 -22 3 -8 -17 -6 19 -11 -24 6 -3 -3 -3 7 -7 -15 1 12 7 -6 -9 -6 -2 -8 20 -6 3 -20 -3 20 -10 24 -6 14 6 -3 -4 -6 -16 -11 7 10 -16 -15 4 3 -6 -3 -18 -1 20 -10 3 5 -3 3 -14 -12 -3 -3 -12 -14 -10 -17 6 -5 -6 8 6 18 2 1 -3 -11 -28 -9 10 -17 -2 6 14 5 0 12 14 -26 -3 -17 -11 -4 -7 -3 3 -18 6 -1 8 18 -7 -6 -14 6 13 -14 18 -15 -2 -3 3 -6 -6 -11 8 5 6 -5 7 -2 24 1 3 15 24 6 -4 -18 -14 11 3 6 -10 22 -13 25 -33 -3 -2 -35 13 -15 -4 4 -3 -16 6 -15 -13 -14 -21 13 -3 -3 -12 -3 3 27 22 -17 -5 -6 14 11 -6 24 10 -8 -5 -9 14 8 14 10 -17 10 3 5 13 -12 -2 11 -20 -6 3 -14 -15 -12 -13 1 -7 -14 -7 12 -10 -8 7 10 10 -11 -12 1 3 14 -7 -15 1 12 -20 9 -23 -7 -2 13 -13 -6 -3 2 -8 -7 -1 17 3 16 19 25 3 -28 -12 -20 3 -3 4 -7 -14 -16 -17 7 -7 -3 -9 -2 -12 16 -2 -3 12 -13 11 30 -19 5 -28 7 5 -8 -4 -9 -1 4 -3 -6 -18 5 9 4 -11 5 -14 -5 10 26 3 -7 -10 21 -14 -10 -7 -2 2 -3 16 -14 0 -24 -16 -6 22 6 19 12 22 -3 -18 5 10 -3 7 13 -3 -8 2 9 3 0 -17 7 6 -5 -8 7 -21 -11 7 -3 -21 4 -11 3 4 -3 -3 -12 -17 -23 -4 -6 -6 -6 -13 -8 17 3 -3 17 -9 11 -11 7 -5 18 -9 -19 -7 7 -6 4 3 -21 21 3 -24 0 9 -5 -26 -21 15 -3 -6 3 -7 -13 -11 -6 -11 6 3 -16 11 6 6 -4 -3 5 4 -12 1 23 -3 14 -6 4 5 -11 4 20 5 9 -10 24 4 6 -2 12 17 -22 18 16 -3 8 -3 -17 -1 7 4 -2 -11 5 -13 17 -22 10 -6 4 5 -13 -2 -10 6 -13 3 -11 14 -3 7 -4 -5 -4 -9 -26 -2 2 -14 -7 -3 -6 11 7 -3 6 -7 7 -3 -11 6 -10 -11 -5 41 22 13 16 -7 -10 3 -22 -10 -18 6 11 -3 -19 -4 -16 -3 -1 -21 1 8 7 10 -2 -3 7 10 -21 -20 -9 6 3 -3 -14 -9 7 -7 7 6 -11 13 -7 -48 -24 -22 3 7 3 -10 7 5 -3 -3 -12 -18 16 -10 -3 11 3 11 -12 14 -6 -4 -10 -3 -15 -1 4 -3 -12 3 -7 10 7 3 -11 8 -5 8 16 -9 -12 -6 -14 -8 4 3 20 -6 3 -7 14 -7 24 11 8 1 0 11 16 6 -5 -16 17 14 14 -2 -10 2 -1 -17 -4 -1 -13 -12 -3 3 -3 28 8 -9 -23 6 -3 -12 1 20 -12 34 -3 -24 -4 10 3 10 -13 -10 6 -5 3 -3 18 6 3 10 -25 7 -32 -46 -19 -4 -2 30 6 -6 7 7 3 -11 30 -21 30 -7 -1 -3 2 -3 21 -34 4 -6 20 -3 -6 5 10 13 14 11 -4 6 -2 11 -15 -14 -24 3 -4 -18 -8 -9 -9 9 -7 4 2 -6 13 -26 -7 8 -24 5 -9 11 -28 3 -11 -13 1 -8 -3 14 -3 3 10 -8 14 -3 -7 -24 10 -10 -34 -23 -4 -1 16 -3 3 3 -3 6 6 -4 16 -11 -4 20 2 3 -3 11 4 -20 -3 5 -5 -8 5 -39 -4 -13 -6 15 -6 -4 3 7 -13 16 -12 -2 17 -14 -9 -10 -14 7 7 -3 -7 -11 -18 -14 -3 7 13 5 -4 10 4 -17 5 -18 -2 24 -4 -5 -17 -3 -23 6 3 -19 -17 6 2 7 -32 -19 0 -14 -4 -3 -24 -37 22 -11 -10 3 -22 21 10 17 11 -3 -16 6 -34 19 -16 21 2 5 -10 -7 -3 10 10 -31 3 3 11 -3 9 6 -13 -3 -5 4 18 -10 2 -7 5 3 4 -3 -12 -4 -3 4 10 -7 -1 -12 -12 7 -6 5 -13 17 -3 22 11 3 19 7 -4 -12 3 -5 3 -20 37 7 5 17 7 12 19 -7 -17 -16 -7 -3 3 7 -3 7 -10 -5 4 3 -30 -14 4 4 21 8 -3 14 11 -3 -7 -11 -5 13 -4 9 13 -3 -2 8 7 -2 -9 -6 13 -15 7 4 -6 -8 -4 -10 -21 -11 18 3 -14 14 -13 3 -6 -8 8 30 -25 -5 -6 7 -17 19 1 -15 5 3 -15 -9 5 1 -10 20 7 1 -24 20 21 -10 -17 4 -3 -3 -9 -3 -3 -3 -16 3 -28 1 6 7 8 -13 3 -20 -12 3 2 -7 6 3 6 -9 4 11 -24 1 -14 -6 10 6 7 28 3 -11 3 3 11 -28 -10 -17 -4 9 -8 -4 -29 -26 -3 -12 6 -4 -3 4 8 22 3 -6 5 -6 6 -10 -3 3 4 -23 18 1 -5 -6 -17 1 47 -10 -15 -5 -2 -3 -7 -3 -7 -5 -1 3 -3 8 -1 16 -4 7 23 1 -1 -3 7 -16 -19 -11 17 5 -11 10 10 3 -32 -7 3 7 -23 -2 14 -10 12 -14 -9 15 -9 -1 -7 6 -13 -24 -8 -7 -20 -7 2 -17 1 -4 -3 4 -6 -4 -22 -7 11 7 22 -9 11 -13 -7 14 14 -3 8 -17 15 11 4 4 8 -13 1 -3 7 -3 7 -5 -18 -28 -6 -4 -3 -12 -3 14 -4 6 -3 -7 7 -7 7 7 4 -6 18 9 -3 -8 -13 -13 9 -12 -6 -34 19 4 -3 -2 -22 2 -5 4 -36 -3 11 -7 4 -13 8 -7 -15 27 -21 2 -5 18 -7 -15 -6 -22 -1 -8 -9 4 -7 10 -9 -21 1 10 -6 1 -10 -27 15 -9 -5 -11 -14 -3 -10 -20 -6 3 -8 -7 -1 -15 16 4 -6 11 -14 4 -27 1 17 1 -3 24 -17 -3 3 -20 -3 4 -12 14 -13 -14 -6 4 6 -16 7 8 17 20 12 6 -7 17 11 4 1 -12 10 -12 3 17 -3 -12 4 6 -7 18 -1 8 11 1 -2 -17 -10 18 -15 22 22 -2 12 3 -3 -4 6 4 6 8 7 -10 -3 4 1 -7 -3 -12 -7 25 -3 -6 -8 9 -8 1 -14 -4 5 3 -26 8 -21 -4 6 -6 7 -6 6 5 9 -24 -5 4 -7 -9 2 -6 -18 -13 13 10 -15 -22 -17 7 -6 -3 6 -23 4 14 -6 -6 9 -2 3 7 19 -2 0 -13 -5 -2 4 3 -1 -18 16 -6 -3 -18 -5 -2 -26 -12 13 3 -2 -4 -10 8 7 8 -12 -7 -3 4 -16 14 3 -3 -14 -6 -19 -14 9 1 -5 -11 -29 3 9 -21 17 15 13 3 -3 11 6 -7 -3 6 7 8 5 -1 14 -10 3 3 1 -11 11 -6 -5 5 -17 15 21 7 17 5 -3 -13 -16 6 -5 -2 6 3 -7 7 0 25 24 27 -4 -6 -19 1 3 10 10 17 10 3 12 -14 6 -7 -16 -7 9 2 -10 -5 -12 3 -10 5 -8 5 6 -3 2 16 11 23 -6 -15 -18 11 -2 -2 -17 9 -27 4 -3 3 -9 -3 -2 3 21 -3 9 3 -31 -10 -15 8 2 3 -13 -6 10 42 10 -27 9 18 -4 -12 20 -8 10 -8 -7 22 10 -1 -17 24 6 -7 -3 7 5 -21 21 -10 3 -3 3 -3 -10 -7 -6 -4 -7 -1 24 -7 -10 -7 -18 -3 18 -7 7 -1 4 -34 4 -10 -13 23 -16 -4 21 11 -3 5 -6 -9 31 -12 -12 -3 16 -8 -8 7 3 -20 -13 16 -4 -24 -11 11 -16 -6 7 -17 -17 -25 -14 -16 -18 -9 24 7 -4 -3 -10 -12 -11 -13 5 17 12 2 3 -8 2 3 14 -10 -2 -35 -17 6 7 -13 2 8 -9 -2 3 4 17 -14 -8 0 7 -3 18 20 -5 -3 0 -3 -3 -13 12 -19 -6 6 -9 -8 2 20 -2 -13 13 -7 9 -1 2 -5 -4 -12 10 -3 -17 18 -4 4 -3 34 -13 17 -10 6 -9 2 7 -7 10 -16 -24 -3 -15 -9 8 -8 1 6 15 -11 35 3 14 -8 -3 2 14 -5 -6 -6 16 -21 18 -15 -10 -2 22 3 -3 10 4 1 3 -3 -2 -9 -14 -12 -16 20 7 -3 -15 -6 16 3 4 8 -25 7 8 -3 -2 -5 -3 -11 6 31 -24 4 -3 3 4 2 -3 -7 28 4 8 3 17 -8 -4 -5 -20 2 21 9 13 2 -7 3 10 4 19 17 9 0 -6 14 -8 -3 -7 3 10 3 16 18 13 3 14 -18 -16 -17 -9 -10 -3 -17 -20 -37 9 -10 3 -3 -2 15 10 -4 1 7 -3 4 -8 -14 2 14 10 -7 -3 -4 4 24 -3 4 12 -3 -5 -22 3 -14 7 36 2 -21 25 -6 -8 -21 6 -1 9 -3 20 -1 6 -6 -32 -10 -20 -20 5 -2 -24 9 21 15 9 -24 -7 -3 14 5 -5 -8 -9 -7 7 -13 8 -12 -16 10 -15 13 16 10 1 -8 16 8 -20 -17 8 -9 28 -10 3 -14 -4 -3 16 13 7 -1 -12 9 -3 -3 38 -17 14 -9 -8 -4 -10 7 -21 5 -3 7 -6 -10 -13 -17 -7 -10 -22 -8 -3 -5 -15 10 -2 -3 -14 14 -15 -16 27 -8 -3 -13 -3 17 20 3 3 2 -6 18 -5 3 12 1 10 -5 -3 -8 -23 -21 -10 -12 -6 21 -13 10 4 -24 -17 30 17 -7 13 4 2 29 -19 11 -9 11 15 8 -3 5 -11 11 -22 -14 11 18 -7 -4 -7 -5 -8 -6 -15 17 15 -2 -19 8 -11 9 -5 6 -22 -9 -3 -7 -2 15 8 10 12 -6 -18 3 -5 -5 14 -8 -7 -9 17 -2 -6 6 -2 -9 -13 3 8 7 -14 -3 -21 -19 7 14 -1 -17 7 6 12 -3 -4 15 -3 -5 6 23 -3 -5 12 -9 8 -7 1 8 3 5 11 -13 -30 3 -3 -1 -3 -11 11 14 -4 23 -21 18 -22 -2 14 -11 -10 -8 -3 -9 -6 3 -13 -7 -3 -16 12 -15 -21 -4 -21 4 -17 -9 14 12 -15 6 -3 -11 8 -12 6 -23 -24 -8 3 12 -4 4 -7 -8 12 -17 1 7 -3 10 -12 22 -12 6 7 7 -13 -11 12 11 4 2 3 7 18 14 23 10 2 1 -17 -21 31 11 -17 7 -2 24 -3 23 3 3 4 7 1 -11 -20 -10 -13 13 13 5 6 24 2 -22 11 -3 13 12 -4 -11 11 -16 -3 18 3 -6 -12 7 -6 0 -2 -6 8 3 14 3 6 7 -2 -1 4 6 3 -13 -13 -8 -3 12 3 13 -20 4 -2 -5 3 -27 1 3 -14 6 -3 -13 -21 7 -11 -12 -15 -19 3 -20 11 -3 -7 -17 4 -3 3 -11 -18 -3 -2 -14 -3 7 -7 -12 -6 5 14 8 1 4 -27 -20 -13 -17 3 -2 9 10 7 -6 22 -24 3 0 -6 -4 23 -3 10 -10 -3 21 -3 -4 19 4 -3 8 -7 10 5 -10 -4 3 13 -2 9 3 -13 6 -17 -6 3 -7 -18 11 3 28 -23 17 10 -11 -16 -15 6 28 7 -7 3 9 6 -11 -5 -7 -14 12 3 6 7 -3 -4 -3 12 0 8 -23 3 11 -38 -14 -9 0 -16 15 -1 13 -17 4 -19 -19 -3 -22 -9 8 -5 14 -24 3 19 3 -17 -1 -28 -7 14 -2 -8 -19 17 4 -14 28 -23 14 7 11 14 -3 -1 -10 -21 -13 -9 14 -6 21 -6 -8 -1 -9 3 -12 10 -17 8 14 4 -17 10 -2 -22 -3 -14 -16 3 -8 -7 -12 -7 3 -3 14 -10 24 17 1 -10 7 3 -22 -17 -24 -3 -13 -6 -7 3 -6 -14 -6 -7 13 -18 11 -2 16 3 24 -3 11 -6 5 3 -4 -2 11 -25 6 -3 14 2 8 6 7 -14 -22 10 11 11 -2 -4 3 -13 -14 -4 -11 -13 3 -31 10 3 -31 2 10 -11 23 10 -7 -14 -32 8 -3 3 -7 1 -29 -7 3 -3 22 -3 -12 -2 -21 6 -8 18 -3 7 7 9 20 -11 -4 -25 21 -10 19 6 -3 -5 21 -7 -13 -1 -18 -16 7 28 -21 -24 -11 0 -2 4 -21 -7 16 3 1 18 -6 -6 20 -31 -1 8 8 5 -14 -2 -2 -4 -1 1 21 10 -7 5 3 17 -3 4 17 48 -5 -2 -31 -7 27 30 -2 -6 3 -11 -8 -22 6 8 -29 17 15 6 -24 -2 -19 6 -21 -9 -13 1 15 5 -13 7 9 21 31 -5 -8 7 -9 14 -13 8 -2 10 6 2 13 -8 -12 3 -13 -2 15 4 -3 -8 5 24 10 1 3 -5 3 -6 -27 3 9 11 -3 -6 2 -6 3 -9 11 -21 4 -5 -3 -19 -13 -7 14 7 6 -9 7 -8 -3 -8 17 -10 -4 -12 3 -3 -7 20 24 -25 -8 -1 -9 -1 3 -5 7 -19 21 3 -14 17 3 -3 -1 14 -12 -15 -3 7 -5 -3 25 22 26 4 9 20 -17 -5 13 -3 -15 -11 -4 -3 -3 -5 28 18 21 -3 6 -7 -2 7 5 -2 -10 7 -23 -3 -6 -21 -8 3 -13 -24 5 9 16 -7 -9 -16 13 24 -4 -9 -8 -8 7 17 -2 7 -30 -11 8 -8 1 -13 -15 -10 -3 -28 -3 -20 -19 3 -8 5 7 -20 -37 -3 -10 17 14 -12 10 2 -10 -14 -3 -1 4 -7 0 -15 -11 15 -15 -31 -7 -6 9 -2 -4 8 -2 -5 6 -35 -7 -8 -3 5 -3 4 -9 6 1 -14 -30 4 2 -3 2 -13 3 4 -5 25 7 -4 -14 -17 -14 6 -11 -7 -8 2 -11 8 7 -6 -8 1 13 -6 -10 -6 -1 10 11 -1 6 11 -17 -13 16 -1 7 12 28 -6 -27 9 31 14 -13 -5 21 18 -6 -14 6 6 6 -12 21 -6 -18 3 17 -10 -28 -11 8 10 -7 -5 -7 2 4 10 -15 -21 26 -3 -1 -7 11 -13 -3 24 -20 -3 -4 -3 -9 3 -5 -3 -2 -3 -10 17 25 4 -24 5 -30 -9 -7 -17 20 -3 -1 10 -6 -3 -10 -32 -3 -9 -4 -21 25 -11 -25 3 7 -3 4 13 -8 -3 21 -16 -4 -1 7 -4 16 5 -27 16 -3 11 -17 -16 17 2 -10 -3 -18 7 3 -3 -6 -4 -22 -3 17 -4 6 -19 -7 4 -10 -9 -3 -4 2 -3 -9 1 -6 -4 10 -16 23 1 5 -3 10 15 -8 1 27 -7 -14 4 1 2 -9 15 -9 4 -27 3 5 -11 6 -6 -4 -3 -34 0 5 -8 -10 -13 1 3 -3 -20 3 3 3 13 7 -3 -10 -1 -11 20 13 2 -6 1 8 -6 14 -27 -9 4 -7 -18 3 -11 -8 20 8 -4 1 -6 -16 22 -19 14 13 9 17 -15 -3 3 -3 3 15 10 -17 -5 -6 -11 -20 -11 16 -2 1 2 -6 1 3 -3 -5 -3 3 -10 -13 -9 -6 5 -24 3 22 17 -3 21 -8 -9 4 4 -29 1 2 -4 14 11 -3 -7 -5 -15 -4 7 -4 1 -20 14 3 3 -5 -20 -1 -11 3 -17 -5 11 -3 6 -3 -16 -18 9 3 -4 -3 13 -19 6 4 -2 19 -4 -23 14 -14 -6 -6 4 31 -17 -18 -17 10 -7 -6 -7 20 -12 -9 -5 15 11 1 -7 3 -11 1 -10 -4 11 13 -11 1 -9 7 -10 4 7 8 -14 -21 -14 -4 14 -6 11 -3 11 -7 7 -3 -5 20 -1 3 -18 10 -9 12 -8 6 -10 -3 -8 -12 -4 3 -3 4 12 10 -3 14 6 -10 -4 3 -8 -2 10 -10 -6 -17 -18 -24 -6 -18 -9 5 15 -6 3 3 4 -16 -13 -15 -11 -14 -2 -6 -5 13 4 -8 -13 -25 6 -6 -19 -6 3 -10 9 -3 -3 -1 13 13 19 11 -3 -4 -4 10 1 -9 20 -3 -7 -8 -20 8 14 15 14 -14 -29 2 6 -22 -17 -28 11 31 -17 -2 1 -24 6 6 17 10 6 6 -10 -13 21 11 13 -2 2 -19 -1 4 11 1 -6 -3 -1 11 -1 5 -9 -14 -14 19 -13 5 1 6 -12 -27 9 10 -26 7 3 -1 5 -19 -17 -14 -10 3 3 -9 7 -4 -15 -3 -12 -4 -4 -2 -7 -10 -16 -3 6 -10 7 -24 -8 5 6 -35 -1 -7 -6 11 1 -13 -13 -4 -17 24 7 -11 29 -3 3 -12 18 -7 19 14 4 3 -4 6 -15 -6 -16 12 -4 17 -5 3 17 -6 4 16 20 22 23 -10 -13 -17 -22 18 14 -7 9 -5 -3 -9 6 -3 -5 -12 1 3 -15 -3 3 -10 7 3 -20 -1 11 -11 1 -20 6 -17 -2 2 -3 3 -16 11 5 3 -4 -19 -30 -26 -11 -6 6 3 -3 15 -24 3 -15 3 14 -14 -10 2 1 20 4 17 -3 -17 5 -8 3 -5 -12 14 -28 7 1 -11 9 -15 8 -17 20 10 7 14 0 8 -3 4 18 -15 -6 -4 -1 -23 -3 11 -11 7 -13 5 -3 -17 -20 -8 -5 -29 9 -7 -3 -3 4 -6 -9 19 3 17 3 -3 -7 14 -18 16 11 -2 -19 -15 -18 -10 -7 -16 -11 10 34 -14 7 17 8 -14 -10 -10 -6 -17 7 3 -3 -20 6 4 8 -13 -1 -2 -5 -8 3 -6 8 3 -7 -1 10 -14 -1 10 -6 -5 25 -18 -18 6 -20 4 -8 -2 -4 -10 -8 6 1 -10 5 -23 -5 2 3 -23 4 -4 -21 -7 4 4 -15 10 -3 7 -6 4 2 -3 14 3 1 13 11 -30 6 29 -8 -7 3 14 14 -1 14 14 -1 3 -3 -20 -17 2 0 4 -2 -7 10 -2 -11 -2 -14 4 -4 -20 14 -5 -6 14 0 -12 -9 16 8 -4 4 -17 -10 -17 2 -16 -34 -24 -12 -6 -16 10 -7 -25 -8 3 1 -11 6 -14 3 -3 5 -37 6 12 -24 -7 -3 -3 -7 11 18 -13 -7 -6 -6 -2 -9 17 14 4 7 3 -3 10 3 -3 21 -12 -8 8 -5 -7 3 4 10 3 19 -18 -13 -21 3 8 31 -4 -19 -3 22 -4 3 -6 -1 7 -7 1 -6 -2 -8 -3 28 22 11 13 7 3 -29 10 8 -16 -3 -1 7 3 -17 17 12 6 -3 3 -4 9 7 -6 17 1 8 -8 6 -7 -10 -14 15 -21 -16 4 -12 2 -1 3 16 -2 11 -4 3 6 -11 -6 -18 5 11 -10 6 -5 20 -24 -22 3 -10 -11 3 10 -21 9 -3 4 -18 7 -4 14 4 -9 20 -4 9 -17 -17 -10 -5 -13 -7 -14 3 -17 9 6 28 4 10 -11 -4 -3 8 -3 0 -3 6 -16 -3 -21 -5 -27 15 -36 3 -3 -6 7 3 -2 -2 -10 -3 -7 3 -2 -15 -11 -3 10 2 -32 -8 -3 -9 -24 -13 6 -3 11 -15 14 -11 9 -29 3 3 13 7 -10 -2 3 -1 -10 -14 6 -23 -8 -4 4 -6 18 7 13 -10 -24 4 -11 -22 -3 -21 4 6 -19 7 18 -9 -13 4 5 3 -3 0 10 -13 -3 -44 -14 -7 3 18 8 -9 -3 3 -17 -11 -7 -6 -7 -14 3 3 -23 -6 6 -3 -20 -5 4 4 20 -17 11 -19 7 -14 -24 -7 -10 4 6 -6 6 3 3 -7 -4 1 -25 -8 -11 8 2 -6 -20 -14 14 -4 -3 -24 6 -14 -5 -3 -13 -2 3 -6 6 -3 22 8 6 -3 -6 1 5 7 5 -10 -4 7 4 3 20 12 -8 -3 -2 3 25 1 -23 -21 6 -7 -10 -31 -16 6 13 -28 -15 -6 3 3 4 -9 5 -2 20 -15 -3 -10 -3 -4 18 -8 7 -19 -3 -13 14 4 8 10 3 -9 12 -6 -18 18 -7 8 -2 3 1 -14 2 -7 1 -3 -8 5 15 -3 2 -3 15 -19 4 6 24 2 -6 -17 -13 -20 20 14 7 7 -20 3 16 7 -28 6 -7 -18 -14 4 -9 -20 2 2 -10 -6 0 -4 6 13 -20 3 -2 -7 7 -14 10 -2 5 5 21 -14 -15 3 26 3 4 4 12 -32 -16 8 17 -5 -10 -18 1 -11 17 4 8 -7 2 -5 -10 1 -2 4 4 2 -6 -4 -4 -7 12 -15 6 6 -24 -13 -12 27 21 10 -13 21 28 -30 1 -15 8 -15 -7 3 -6 15 11 18 4 -17 -11 -3 3 6 14 8 -6 -3 -5 -28 -13 -13 -19 -18 -16 -17 -3 -3 7 -7 -10 1 -13 -17 1 -7 -13 10 3 10 2 -11 -17 -10 -10 21 4 -16 21 -6 15 35 -13 -15 7 -10 19 24 -7 -5 -11 5 5 -24 7 -2 -7 -7 -9 7 -6 -21 -17 15 7 -14 -7 9 -13 -16 -7 -12 17 7 -6 -4 1 -13 1 6 11 -14 34 -20 32 -15 -14 -3 -12 -24 9 -9 -7 -7 -19 -22 12 7 -14 5 -4 6 9 -10 6 -22 9 8 -19 10 -6 20 10 20 -3 -11 19 -4 -5 6 14 -9 -3 -1 -8 -12 -5 19 1 3 0 -10 8 -12 -3 3 -3 -14 -3 5 -1 -10 6 -6 -3 -7 14 28 -5 7 24 -7 0 -19 5 -2 -7 2 -3 -15 -7 3 -20 2 -14 7 7 -11 -20 -6 0 3 5 -16 -11 3 4 -11 -17 8 4 8 -3 4 -10 -2 12 -4 -13 9 -22 3 -34 -24 -3 15 -2 12 -3 -16 15 20 -10 -6 -6 0 -3 -3 -3 -8 6 1 -4 -4 -13 14 -8 -24 7 -14 -6 -27 3 6 14 -14 -3 1 -16 4 3 -10 3 -2 -3 -5 13 -12 0 -10 4 0 -5 -13 3 -21 -7 -12 -3 -18 -9 -11 -6 -27 -17 -13 10 -6 -7 11 -1 -9 -2 17 7 4 18 11 -8 -10 10 2 13 -6 8 -6 10 -2 -18 -16 -24 -4 7 20 4 -7 -18 3 8 -3 -11 3 -13 -3 -17 7 -6 -10 -7 -3 5 6 13 -13 -9 -5 0 -6 -14 17 -7 -17 9 -6 6 -12 -5 11 -13 -12 -18 -13 -4 -6 -6 3 13 17 7 10 -6 -5 17 9 4 3 3 3 5 14 -13 9 -8 7 -14 15 4 6 -4 -2 -10 6 -6 -21 -11 -6 -11 11 -3 -6 -9 -15 -4 12 11 1 -17 7 5 3 -3 -6 8 -3 -3 -12 -7 2 -4 -6 3 -2 3 -17 -5 -3 -24 -4 -5 -3 -2 -20 -14 3 1 -9 8 -11 2 18 -2 -18 -18 3 -6 5 -4 3 10 -9 -30 5 -19 -11 7 -10 25 -9 -14 6 -22 -17 -6 -1 -16 6 -8 -1 1 20 -20 3 -19 1 3 3 13 3 1 -13 3 2 6 9 7 4 -16 -3 16 -8 -35 3 -1 11 6 -6 0 -9 10 -27 -13 3 10 -4 19 -11 -9 12 -21 15 -6 -1 -6 5 28 -24 14 -3 -12 -27 -14 3 -10 -2 18 -7 -2 6 19 2 6 -3 10 -7 -3 -2 -8 -3 5 18 -12 -21 10 4 -7 -7 -8 10 -21 6 7 1 8 -21 -11 3 4 -14 -17 -3 -9 10 -7 -2 5 17 5 17 17 5 -31 4 18 4 -3 -3 -18 -3 -8 18 -10 -5 10 23 -9 -23 21 -30 -13 10 14 15 -14 -7 -7 6 14 21 -12 15 -10 -3 -22 -19 -8 -8 5 -6 0 7 -3 -7 -8 7 -3 1 -19 -5 -20 25 -17 18 -2 13 -7 -30 20 -3 -4 16 7 6 -10 -3 5 -7 -9 -13 4 -2 3 -8 -8 -25 19 -3 14 -2 -15 -6 -3 13 6 3 -5 -3 -9 -27 6 -12 -3 1 -13 -14 -22 -4 7 3 -17 8 17 -11 35 24 -9 -9 -23 -14 -21 -13 -6 1 -6 -20 -1 -3 1 27 -3 -30 -3 -3 7 8 -10 -5 -3 9 14 -3 -4 -14 2 -9 9 -3 3 3 5 -32 -3 8 -11 -33 -18 -11 -3 -7 -21 3 7 35 -16 -21 18 -28 3 3 16 -23 5 -7 -3 1 23 -1 -14 3 -9 17 -7 41 14 -16 12 24 -14 -1 -4 1 1 3 -6 4 -13 -3 -3 17 -21 21 15 -20 -4 -11 -7 0 3 -16 -31 -20 -6 9 7 10 4 4 5 -24 -4 11 10 -32 3 9 10 3 7 -14 -12 -3 -3 11 -4 2 -4 -10 26 -18 -9 -3 -8 -19 -14 13 3 6 -6 8 -16 12 -13 14 12 -5 18 7 -3 21 14 -6 10 -7 -3 5 -9 -27 10 -14 -17 13 -12 -29 7 -20 -5 -18 1 -11 -6 7 2 6 -7 10 -3 -15 -21 -9 -3 -17 -6 -3 -4 14 10 -11 -2 -24 -28 5 -27 -1 0 -3 -3 -17 -3 -4 -6 40 17 -3 16 18 21 0 8 7 9 -7 4 18 -2 2 11 -8 -6 9 17 6 5 -19 -14 -11 -9 -3 -25 0 -6 -19 8 5 -11 -3 5 2 -6 -23 5 10 -18 -4 0 -13 1 17 0 13 -3 -7 31 -8 20 -11 -5 4 -3 9 -9 3 17 -25 -29 5 -20 -2 3 -12 -11 1 10 9 -16 -3 3 -19 -7 12 -21 -12 20 -16 6 19 8 3 -3 1 15 -1 7 -8 -1 13 17 18 -4 8 11 -16 -24 7 -6 -3 -3 -10 -10 27 -10 16 5 -4 9 1 5 4 11 -16 -15 10 -18 5 -6 -2 -22 -6 17 -7 -6 -16 3 35 -13 13 -9 0 18 -13 23 -3 -16 -18 -2 -6 23 10 -18 -7 4 23 -14 -13 -6 3 3 16 -6 4 7 17 -10 7 -22 -10 -4 12 4 -6 6 -14 -18 14 8 3 -14 -28 -33 -3 -11 14 6 3 -25 -8 -6 10 -1 13 -23 -14 10 -3 5 -15 -1 3 -3 2 -4 7 8 -16 -12 3 -15 6 5 -3 2 7 28 -13 -1 10 6 -18 -13 11 -6 -11 3 -4 11 -35 -10 -2 17 10 3 -15 6 20 17 -14 -6 10 -9 14 15 23 4 -1 6 -20 -7 -3 -6 11 -23 10 14 4 3 -13 3 3 -21 -12 -13 -6 -21 -15 -3 -5 -2 -27 20 8 18 4 -3 6 29 -9 -4 16 -3 11 -3 -7 12 -11 -5 12 17 -15 -10 -6 -19 -1 11 -6 -10 -20 8 0 -12 3 -1 0 3 3 20 -3 17 -1 10 6 13 -9 -8 6 -6 -3 28 -19 28 -8 -12 1 8 -10 10 -2 4 13 -9 -17 -11 -6 5 9 -10 -3 14 -11 7 -15 -10 -13 -31 -6 -9 1 4 22 -6 -23 -17 -20 9 -6 11 -3 10 -10 -2 -6 -7 -9 5 7 -11 1 3 2 8 -3 -1 -11 7 5 -3 12 -3 -4 14 -6 -12 3 7 11 -20 -10 15 -9 3 17 -3 21 3 -3 1 -9 4 -15 -51 -13 12 -17 2 7 -1 -3 11 -25 4 -20 3 -8 15 3 3 -15 -23 -13 7 -15 17 1 -14 -6 -7 20 -20 21 -12 7 1 -37 4 -17 -3 38 11 7 -28 -38 12 -3 3 -27 12 -24 -2 -7 -16 -7 18 -7 -16 23 5 4 3 -10 3 -7 9 3 14 -31 -3 -13 -3 3 -9 -9 -27 -3 -27 -7 4 -14 2 -12 3 11 -21 -3 -17 13 1 -3 -16 -3 5 20 -10 17 -9 0 5 -17 -21 -23 18 -3 -11 -16 -3 -3 -24 -1 2 14 4 -29 4 -18 7 -15 -12 24 3 -7 -10 -15 -13 9 -3 29 38 10 -18 11 32 3 -16 5 18 13 -13 10 -10 -3 11 -19 -9 -6 2 9 -10 14 24 3 12 -3 -10 4 5 7 -9 -13 -12 16 10 -7 11 -14 6 15 17 17 -20 9 -11 10 10 14 6 -3 -21 -21 20 6 -10 6 17 -3 6 -16 -14 -13 -10 -25 7 6 -10 -11 3 7 -6 7 -6 -3 -3 16 -3 3 -7 -21 1 -15 5 -7 7 12 -7 4 3 -4 8 14 -5 -11 -1 10 -13 4 -3 3 -1 -13 -13 -13 5 35 13 4 -12 -7 -7 -16 7 -6 4 3 -1 18 14 -29 5 -13 8 3 -5 9 21 -9 -2 13 -9 -3 -6 7 4 11 0 17 -14 4 3 -13 9 -1 3 20 -7 3 -31 7 -21 -3 0 -7 14 -13 -13 -3 18 3 3 14 -19 -1 -6 16 -2 -12 -6 21 -4 26 9 -12 -14 -6 -3 4 -1 -3 29 3 7 -5 5 7 9 7 -7 -14 3 5 -5 11 -6 -3 28 -7 -14 -12 4 -3 -10 -10 3 -8 -7 -26 -24 15 -24 8 3 -7 -19 -23 9 4 -11 -9 -3 5 21 -1 4 -12 7 -7 -2 -4 -2 -4 14 -2 6 -4 3 -8 1 -20 16 4 -4 6 -6 -6 -18 10 -3 4 -5 10 -3 28 -2 1 -11 -15 4 -6 -13 -2 7 -3 -14 -7 21 7 -9 -9 -4 12 -11 -21 10 11 -3 -3 -11 -1 4 6 9 -13 7 6 -24 13 -5 -16 -13 5 -10 -3 -3 -3 -10 -8 -3 -15 -21 -17 9 9 15 3 2 -7 -1 -11 -9 -30 7 16 -11 -1 -12 -5 -8 7 -18 -8 -15 -7 18 10 2 0 10 -27 -8 -7 7 15 -20 -2 12 -13 -1 -16 -16 7 -10 -12 -23 2 -19 -7 -17 -4 4 24 -3 -3 -3 -1 -9 -3 4 -11 -4 -20 -10 -17 -5 18 12 -17 5 25 3 1 -3 -4 -16 -6 -22 3 28 -11 -4 -17 17 11 -14 -10 -29 4 6 -6 -17 -11 8 -16 10 -10 -21 3 2 -11 -11 -18 -2 3 20 -14 10 12 -5 32 3 -3 -3 -7 -8 10 7 7 17 -13 -7 2 -10 9 15 -2 18 -26 -3 -11 -6 -11 6 -11 -5 -3 -2 19 -5 -12 14 3 -17 -7 -3 1 -13 -17 -10 1 15 -18 -3 3 6 -2 7 14 0 -6 5 -3 -3 -10 -7 -3 -8 1 -5 -3 -6 4 -10 -10 10 10 -17 -7 8 -24 -15 -22 7 -5 -3 10 8 3 -3 10 4 -3 -10 -21 8 3 7 -12 6 9 -10 10 4 12 7 6 3 -4 4 16 -17 -1 17 11 -3 20 -42 14 1 -2 9 -11 -7 2 -10 -5 -3 -2 -14 -7 16 3 -11 -17 -9 6 20 -13 9 17 3 1 -9 6 -9 -3 9 -3 -6 11 -7 -5 4 -13 37 -5 -7 -27 14 3 0 -9 8 -3 -3 11 12 10 -3 1 -11 -6 14 -8 5 6 6 -7 -7 1 10 -2 -14 26 4 -3 -4 10 -2 -2 -3 5 13 7 0 9 -3 26 -25 10 -5 -23 -13 9 -6 4 -13 -7 6 8 23 -3 6 4 -10 -1 -17 -9 -6 -30 -15 -1 3 -22 9 -1 -4 -20 -2 -14 -4 -3 -2 4 -7 -14 3 26 -4 -8 -11 12 11 -4 -7 -3 -4 -20 -14 -17 3 -16 7 -19 -4 -5 -8 11 -12 2 20 -4 11 9 -20 -4 2 15 -3 4 3 1 -8 -2 17 7 4 -7 7 10 -14 4 6 10 -21 14 -8 -25 -22 11 8 10 -18 -34 -3 6 -4 7 14 10 -8 -9 6 -10 -10 -3 -4 6 -3 -7 14 2 -18 -3 14 -10 24 -13 6 -19 -20 -4 8 3 -3 -2 6 10 5 -9 7 4 2 -8 -30 1 -21 10 1 -3 6 16 -3 -1 8 -6 3 3 3 -15 10 13 10 -21 3 -3 -9 2 -19 12 11 -4 3 -9 -16 -12 -18 -2 -17 3 -7 7 6 -19 7 21 4 -12 -5 -26 6 7 -4 4 -3 6 1 -6 -13 -11 2 3 -7 9 11 6 -8 -11 -10 -3 -3 10 3 -5 -18 -8 11 27 -6 -15 8 13 -9 7 12 -6 -5 3 -13 -24 -6 8 28 -7 12 12 9 -20 -3 11 -13 -12 -2 -13 10 6 4 -3 -18 10 -10 7 8 2 8 6 7 -7 3 6 3 3 -7 -20 7 -17 3 17 4 21 -3 9 -10 4 -18 -6 4 24 -13 17 -6 22 -10 5 -10 -8 6 38 12 -19 -13 -11 -9 18 -3 18 -15 1 -11 -12 10 -7 5 0 10 3 -3 14 15 7 -4 17 -5 -12 8 -10 -14 3 3 -6 -21 -17 -10 7 14 -6 3 17 7 -21 7 -28 -25 11 13 8 27 -6 14 -10 -14 11 1 -12 10 -29 17 3 -3 4 1 7 3 19 -6 -7 -1 6 6 -7 30 -6 20 -17 -7 -12 -4 6 3 -15 -3 3 -23 -5 10 -12 -7 -8 -24 7 7 -11 -3 -3 24 -10 -13 -15 -8 -2 -18 -4 -5 -3 11 -4 5 4 7 -16 2 3 -21 -1 -2 -7 -5 -11 9 3 8 -7 -3 -7 -5 -2 -3 -2 -8 -9 -8 7 16 3 -27 -3 -16 -6 6 9 7 5 7 -7 8 -3 -18 -20 7 4 6 24 7 -11 1 3 21 18 14 -5 4 -7 -12 13 -8 -2 -3 -21 -9 -9 -1 3 1 -5 -22 0 11 8 21 20 10 -14 -11 -8 -6 3 7 -15 -24 11 -3 -3 -10 -6 -7 7 -3 -15 8 -45 5 11 10 -13 3 12 4 21 -14 -4 3 -28 -5 -21 -17 7 13 -6 3 1 14 3 -5 7 6 7 -16 -3 6 -35 3 -10 13 -4 -6 3 21 -12 3 24 6 7 11 3 7 -6 11 9 -6 -4 15 25 10 -29 5 -7 14 -9 -1 8 -9 3 -7 4 7 11 -17 -14 -13 12 -30 -3 -14 -3 -18 -16 11 14 -13 -1 -7 14 -17 -5 17 -7 3 11 -14 -3 5 -5 6 -7 -28 -3 -3 -6 -29 -13 13 -3 1 -6 -2 -7 5 12 -4 -6 8 -16 -3 1 4 6 7 -6 -23 12 15 -4 7 10 7 2 -11 -3 -3 -21 9 -14 -3 -18 3 27 7 -5 -3 2 4 17 6 -21 -3 1 10 2 -18 18 20 -5 -7 3 21 -31 13 -27 10 3 -9 -23 -6 -20 0 7 -11 -7 -2 3 -10 3 10 -10 -7 -3 4 -34 7 -13 -3 6 -3 6 3 -17 -6 -21 -8 -16 -16 -7 8 -8 -3 -10 1 -6 10 24 10 -6 -8 -8 -11 3 -3 14 -6 -3 21 28 -17 8 7 -2 -3 -8 -5 -7 -12 6 3 -6 -28 -3 3 -16 -12 -4 3 5 -3 10 -14 24 8 6 -23 10 1 -3 9 -26 3 -3 15 25 -6 -11 -14 -13 -8 -2 3 -3 -6 -11 17 3 -3 3 4 6 -8 -6 -3 -11 1 -11 -13 -12 -9 8 5 -2 -17 -21 -17 -6 -34 -24 13 -4 7 7 -4 -13 -7 -13 10 -6 6 -40 -5 -7 -10 -16 14 -1 14 3 3 -11 -3 5 -27 -3 -6 -14 11 -4 11 -9 -3 -3 -32 -14 -34 2 -21 12 23 0 -3 -7 7 6 -3 7 8 -7 -5 -3 7 10 4 12 -10 -5 -5 -11 17 -20 -13 -11 -3 -13 -2 -13 -8 -13 -10 -14 -2 7 -7 7 -8 15 12 6 -6 20 -4 -3 6 -28 -31 6 11 12 6 -14 -3 -10 -9 6 -4 10 3 -4 -3 -2 -7 3 -22 7 6 -9 -7 -14 3 -10 -17 15 -5 -6 13 -6 18 -6 -4 5 -16 1 5 13 -3 1 16 3 -3 -7 -6 13 12 -11 3 3 16 -3 -4 11 -12 14 -16 1 -18 19 -3 -18 -8 16 -7 11 -8 -18 3 -6 -19 -3 -12 -3 11 4 -6 -16 -12 10 13 -1 -15 8 9 -27 -14 37 -10 -30 6 1 14 22 -16 -7 3 22 21 3 -25 2 14 -25 -9 -7 -6 -7 -9 3 10 20 -7 -1 -25 15 -17 -3 2 -11 -2 4 10 -12 -13 11 3 14 7 -3 8 17 -9 3 -9 14 12 -3 12 -27 -8 -3 22 14 2 -17 -6 4 7 11 -6 2 -13 -13 -11 3 1 -15 3 8 4 -4 -17 -22 6 3 -8 1 8 -9 -9 3 -3 -4 -5 -3 -13 7 -6 -8 -24 4 -23 -10 -3 5 -13 -6 7 -14 18 -10 2 -9 4 -28 1 -3 7 -10 -17 -3 -7 4 -7 11 -10 8 14 -14 -7 -13 -13 -28 -13 -10 -8 -3 3 -2 -4 7 13 4 7 -14 18 -3 -15 5 -5 4 -11 -2 -20 1 24 -13 4 24 4 31 -4 -21 -7 -9 -17 -13 17 10 -10 -11 -7 6 11 -4 3 -4 -12 -19 6 -3 -4 -7 -13 -2 -9 -13 5 -7 -6 3 -11 1 6 3 11 2 -12 25 -8 -5 12 -2 11 -3 20 -5 0 -13 3 -2 -6 6 -2 4 3 3 -17 6 -16 5 -20 -10 17 -6 5 8 9 -6 4 14 4 -3 -24 -25 13 11 -3 -10 -17 -17 3 18 -3 6 -16 3 6 -1 -14 18 -19 -10 4 3 3 -14 4 11 -32 11 -3 3 -7 -3 -17 -10 1 6 4 7 16 -15 -1 -14 -4 3 -3 1 -22 17 -21 13 -4 -16 1 8 -3 -1 3 6 -23 3 14 9 -15 -3 6 11 -3 3 -10 6 21 15 3 6 -3 3 -2 -12 8 6 5 7 11 -11 -6 4 13 -7 -3 -4 -3 -20 -4 17 28 6 -6 3 11 -2 6 -1 -11 9 -37 -17 -21 8 1 15 3 0 -6 14 7 4 11 -23 -21 -18 7 3 1 -13 -3 -14 17 -18 16 -26 -8 4 8 1 11 -3 -10 0 -10 -35 17 11 16 -11 5 -23 -5 -10 -36 -26 3 2 10 -3 14 -14 -3 6 -2 1 14 1 -6 3 -4 -9 8 10 6 4 -8 -6 3 -7 21 11 -5 -3 3 2 7 15 -3 1 -11 10 6 -21 -21 -21 22 -1 3 1 -27 3 3 -4 19 -22 -3 -1 -15 7 -2 -1 -14 -3 -5 19 -3 5 -24 24 19 5 -15 -3 -5 -14 -14 12 -8 -6 14 -1 -3 -20 -10 -7 4 6 4 -6 -19 8 -3 -13 -5 -4 -7 -6 16 17 3 -6 -7 -14 -18 9 30 -21 15 -18 9 -6 -7 7 -13 11 4 -8 -16 -14 -24 -11 -13 -18 -2 -15 -16 -2 16 -7 3 -2 -22 -9 -8 20 -30 -13 -3 -8 4 3 -15 -13 4 -8 -8 17 -22 -4 8 4 3 11 3 5 -3 -10 -7 -7 13 12 14 18 7 19 1 -5 -21 1 3 4 -3 -3 7</t>
+  </si>
+  <si>
+    <t>JSB(1.8273226336605666, 4.464407849497511, -39.038613679473315, 191.11434843483755)</t>
+  </si>
+  <si>
+    <t>33 40 40 35 33 42 59 49 41 30 39 40 16 58 24 23 38 53 43 42 33 26 43 24 34 31 23 49 40 23 30 41 29 43 39 37 24 29 35 16 29 27 61 34 33 43 43 56 59 33 34 26 29 23 33 36 32 35 30 20 50 30 34 32 26 37 43 45 34 48 44 37 29 16 31 33 32 42 35 30 35 41 53 21 29 48 36 37 30 31 33 35 47 51 30 35 31 36 24 35 20 27 41 23 42 47 34 36 56 56 30 35 58 53 57 50 35 35 29 46 36 30 22 54 44 22 13 10 48 27 33 41 20 38 38 48 36 43 30 45 45 47 30 35 37 20 44 39 16 25 42 35 43 36 56 34 45 42 33 33 38 36 20 29 39 43 16 46 30 41 52 50 40 65 33 23 35 47 34 33 38 35 49 43 37 49 31 34 16 41 83 29 38 28 61 33 53 33 33 37 36 30 27 57 48 21 30 37 36 37 41 36 23 57 22 17 42 32 22 37 40 33 47 44 31 33 28 48 25 36 26 16 33 41 22 37 23 40 50 21 28 33 48 25 38 22 48 37 29 42 38 59 27 40 52 37 28 42 33 45 47 49 32 38 41 38 18 47 15 51 31 25 54 39 37 40 45 35 37 32 37 25 37 31 34 43 49 40 35 41 26 35 50 47 53 35 40 48 38 41 35 45 21 29 39 42 27 35 44 25 55 34 33 53 7 38 33 22 36 41 23 48 26 27 31 33 36 30 43 49 29 40 43 29 40 36 29 34 36 46 23 39 33 32 27 34 33 46 24 34 39 43 31 35 36 35 27 29 29 37 36 37 45 19 32 44 36 34 27 27 53 27 29 27 61 37 36 37 57 48 51 31 36 39 47 29 29 34 45 39 46 46 26 59 41 32 46 29 29 41 32 36 46 38 63 47 50 37 33 47 47 27 37 43 20 33 43 30 37 37 22 35 46 55 26 43 46 34 44 48 37 46 39 34 38 39 51 39 37 22 20 36 29 32 44 31 37 23 43 30 36 35 41 57 35 42 47 29 19 34 40 37 26 44 49 37 44 32 47 68 47 32 39 40 33 33 53 44 47 40 37 42 30 34 54 22 32 39 49 44 36 33 38 37 42 27 43 32 51 30 33 37 26 37 47 61 26 32 48 42 49 44 53 22 24 31 37 52 26 43 39 55 44 37 25 44 45 35 37 43 46 57 40 40 38 57 50 58 31 31 26 30 27 37 68 43 51 33 34 40 50 45 31 31 39 32 29 41 24 32 19 13 30 41 27 45 20 31 23 43 39 30 22 30 38 46 50 33 51 52 37 55 25 52 19 46 27 43 42 63 26 17 32 34 12 13 49 41 39 46 55 40 46 34 47 36 40 35 36 37 33 35 35 40 28 31 43 36 38 30 27 36 48 53 31 54 50 37 16 48 36 45 47 44 49 36 17 24 55 52 28 39 60 38 56 54 39 55 39 44 31 37 43 41 33 37 27 23 27 47 40 40 30 50 41 38 35 35 40 49 45 29 47 23 39 34 39 33 45 45 23 27 35 27 45 21 33 44 40 52 46 37 42 57 37 45 45 16 34 27 32 27 13 41 31 37 37 43 45 27 47 24 27 27 22 46 32 27 27 37 33 37 52 23 53 58 30 40 30 30 35 31 35 44 28 33 59 37 30 29 31 37 54 36 44 51 31 22 51 33 41 26 34 48 46 40 35 37 55 33 54 43 36 27 36 40 45 26 41 38 28 31 25 35 45 28 51 12 55 47 40 55 34 30 43 52 37 37 28 52 27 51 38 23 44 39 60 36 50 32 28 35 25 47 48 36 30 33 40 57 46 36 50 42 6 24 30 30 22 26 32 28 36 39 32 29 53 23 35 37 43 26 30 43 22 33 47 58 27 41 26 46 9 48 33 32 50 36 33 22 43 44 30 41 38 39 49 39 47 9 46 38 37 46 40 43 32 58 29 50 39 59 37 37 55 20 36 44 43 31 33 39 48 34 27 27 45 37 20 25 19 40 25 25 28 42 42 24 47 44 36 47 24 24 47 25 30 49 49 40 20 47 43 23 55 42 30 32 51 29 39 39 28 44 44 36 24 29 22 48 41 37 52 22 43 57 22 33 34 35 40 40 46 41 30 45 28 41 13 62 57 32 32 48 47 47 43 33 54 34 46 40 59 47 30 29 30 28 13 41 21 46 22 37 27 39 29 40 23 16 31 51 37 38 42 27 49 47 44 41 49 34 16 41 32 34 32 45 37 40 39 32 44 43 33 44 43 18 29 48 37 12 51 48 32 53 48 34 20 44 27 45 51 60 32 37 37 43 54 30 36 47 31 46 27 42 48 26 43 40 37 40 26 29 40 36 37 42 33 37 44 44 37 47 52 31 42 40 37 30 48 22 34 48 35 55 39 29 47 29 57 40 29 32 49 57 29 40 44 41 41 40 33 40 19 47 38 54 35 36 37 17 30 39 26 46 17 29 34 31 45 24 51 47 43 37 48 9 25 39 27 65 52 40 44 44 44 29 44 19 45 49 41 39 40 46 36 51 59 33 31 42 29 51 51 29 39 26 36 26 53 45 38 36 37 35 43 40 23 43 26 37 51 43 40 26 47 37 10 54 26 33 31 35 41 33 41 30 43 26 37 49 29 53 36 27 28 36 20 31 60 23 43 52 33 43 33 27 27 37 46 47 52 29 33 26 44 44 37 38 36 33 30 35 62 34 32 28 32 20 58 20 22 52 13 29 39 43 37 53 26 33 47 22 43 26 30 30 43 49 26 13 39 44 26 46 44 35 29 41 37 41 38 57 40 22 31 40 26 33 43 23 38 30 43 60 34 33 59 48 29 38 38 44 34 30 24 43 33 33 29 36 54 33 46 37 51 23 44 33 23 20 46 50 16 25 41 30 31 43 39 42 30 31 34 29 23 30 37 26 20 41 50 51 30 37 26 26 33 28 16 41 58 51 40 26 31 44 22 59 43 39 34 39 38 16 31 32 33 37 39 27 43 32 40 36 51 33 58 34 38 39 37 48 37 45 37 41 22 38 37 33 43 16 44 51 44 31 30 59 33 33 35 35 35 29 33 29 30 37 43 45 31 62 41 33 42 41 43 43 43 30 25 42 51 29 19 54 32 39 30 47 41 33 34 39 44 46 55 47 23 37 16 52 54 29 30 44 31 72 37 45 39 41 45 36 49 43 42 40 36 55 37 33 17 16 25 25 30 47 32 44 33 36 34 35 43 23 29 31 29 40 42 31 10 40 41 38 27 25 38 17 35 45 49 41 30 31 32 43 33 34 51 29 34 26 44 41 20 16 29 50 33 30 34 44 30 29 24 44 36 42 33 43 53 40 53 49 40 38 48 42 30 26 47 35 24 41 52 41 33 25 51 33 55 23 30 37 41 26 33 48 38 37 51 36 19 44 59 50 51 45 41 53 35 23 47 42 50 26 30 54 54 32 39 35 51 44 22 29 44 42 34 27 48 33 28 54 33 45 40 29 29 20 30 48 47 34 38 44 29 37 44 33 44 36 47 38 35 24 50 43 37 21 57 29 36 30 34 21 38 27 26 55 27 26 41 64 52 37 48 45 36 48 48 51 41 26 39 37 33 45 37 47 38 28 52 46 44 43 33 59 30 18 42 40 47 53 37 23 19 39 30 16 22 60 25 51 37 53 38 51 33 19 30 33 22 30 36 34 51 27 40 51 32 54 19 26 31 37 39 29 30 40 32 26 42 30 68 40 40 39 23 37 42 35 37 34 30 43 45 29 34 44 32 51 41 33 35 46 31 31 55 41 37 34 16 62 37 26 36 50 30 49 37 38 39 33 21 29 44 36 36 46 48 32 36 37 41 49 40 23 39 29 44 27 36 34 37 33 20 36 56 34 49 32 15 37 47 40 37 51 33 59 47 48 29 59 43 44 39 36 37 50 47 29 16 42 26 41 50 48 45 38 36 29 40 30 51 39 37 34 33 55 37 43 17 47 33 31 55 52 21 54 29 37 40 38 45 30 20 37 34 29 33 34 49 31 50 49 50 39 35 24 26 26 37 33 33 36 35 51 37 33 40 27 37 29 34 35 40 51 35 38 49 22 24 26 40 47 36 44 57 30 29 44 33 37 44 32 27 46 37 29 46 33 38 43 33 32 37 38 43 41 31 39 20 40 15 43 43 54 54 34 33 13 50 36 44 51 37 29 51 40 34 34 33 49 29 16 29 39 40 36 34 38 33 44 43 16 40 34 34 30 41 27 24 19 36 39 63 57 27 35 40 22 41 51 39 32 31 45 46 31 28 35 36 40 45 49 37 23 26 37 31 36 51 38 33 37 34 50 67 22 40 37 40 51 29 25 63 33 52 27 30 37 30 41 51 30 24 46 22 48 23 46 46 32 25 37 43 35 45 26 44 37 24 26 37 30 51 39 38 36 34 38 40 40 51 62 43 26 68 29 30 33 30 17 47 37 59 40 29 16 45 37 30 31 31 44 31 17 33 19 37 45 30 41 47 41 45 29 22 58 34 40 35 20 54 37 48 57 47 43 51 37 55 38 42 43 41 39 28 44 55 11 44 41 40 43 39 35 40 37 32 37 42 45 53 57 17 35 36 40 40 37 51 29 17 39 34 28 40 35 26 36 28 40 41 39 54 27 15 43 58 22 26 45 50 61 34 40 25 39 41 33 41 62 29 23 28 32 55 48 50 53 20 31 10 28 36 23 41 22 48 39 40 39 53 51 42 30 35 44 30 45 50 37 43 17 47 38 17 37 41 51 43 37 29 45 24 37 39 46 33 40 12 52 39 48 37 49 44 33 43 41 47 35 51 55 41 27 27 39 35 54 36 32 27 49 33 28 31 44 40 47 48 36 41 30 43 19 55 31 26 37 40 44 40 29 51 35 39 23 43 27 40 47 44 45 49 48 40 27 46 33 44 30 34 37 26 41 46 19 37 23 48 28 50 33 40 31 36 36 50 34 16 24 46 31 29 22 37 30 57 33 48 47 38 34 39 48 44 21 52 37 33 24 39 34 27 13 44 53 32 25 45 51 29 37 29 40 35 34 37 30 53 30 33 37 29 47 55 29 61 41 36 41 45 27 12 19 32 27 40 45 33 19 37 29 47 26 44 41 38 52 29 43 36 44 37 29 62 37 33 43 34 12 19 30 34 10 30 48 43 20 50 38 35 30 42 35 30 54 58 43 22 27 35 32 47 20 23 26 29 15 33 52 39 61 42 36 50 34 49 21 37 38 30 23 41 30 25 34 50 46 40 35 25 37 46 41 36 16 22 55 32 27 41 46 36 23 46 38 23 40 64 27 23 33 43 38 20 56 37 52 44 60 31 33 37 47 39 35 52 50 30 33 33 24 42 32 43 29 45 63 45 48 51 61 39 32 37 41 29 47 41 46 41 28 46 41 28 39 44 57 23 32 34 37 15 37 32 41 23 26 33 37 47 47 46 36 37 39 39 20 30 41 25 41 41 37 27 38 26 32 24 27 23 41 33 43 44 58 33 43 34 32 37 33 24 43 30 45 31 20 35 46 45 47 36 22 37 38 29 33 45 9 28 29 27 40 30 33 37 23 27 23 45 28 33 37 34 43 47 34 23 55 40 26 17 31 46 34 53 50 47 45 39 39 36 39 40 36 47 34 40 30 50 55 29 37 27 37 36 16 27 21 37 38 22 38 33 36 31 33 22 35 38 36 47 41 32 31 32 42 34 31 35 42 26 31 26 51 51 48 38 32 36 38 23 29 34 36 54 16 31 44 30 34 30 55 22 43 53 33 61 45 30 48 47 35 32 34 41 16 40 45 36 29 26 41 29 38 26 35 37 29 13 41 67 47 46 29 34 29 28 30 26 40 32 37 68 59 48 22 36 40 60 24 29 36 54 44 45 39 44 16 41 22 35 34 29 30 45 46 30 43 25 25 51 48 46 35 23 58 38 30 17 44 35 40 26 48 44 32 47 51 29 34 37 36 29 40 40 48 49 48 46 34 58 65 37 49 36 33 45 39 70 48 35 40 44 47 48 34 48 33 34 50 41 40 49 37 48 68 43 26 57 48 25 41 50 38 25 31 41 24 20 42 36 48 31 37 46 30 40 47 37 33 43 36 49 47 43 22 30 49 42 34 21 55 26 27 39 23 35 40 39 37 43 36 31 45 20 48 31 34 24 38 30 39 29 26 28 34 34 17 30 29 37 33 32 42 49 54 40 35 34 33 30 19 25 39 40 63 36 36 12 41 38 44 23 36 39 29 42 49 49 45 18 40 35 29 27 36 67 47 38 43 16 32 41 27 17 37 36 49 51 37 54 40 26 23 45 24 13 40 38 37 47 39 37 23 28 36 44 36 37 44 41 37 36 57 43 54 41 29 14 52 29 35 36 45 32 58 47 29 30 45 51 40 47 30 50 39 49 52 37 26 52 27 22 40 51 40 48 32 36 42 26 48 32 43 32 22 57 36 25 44 29 55 47 37 32 30 45 65 34 35 47 32 29 36 27 53 29 19 29 27 36 45 29 24 37 37 38 23 23 44 34 40 26 53 40 51 51 23 23 37 43 51 41 43 50 41 53 33 27 20 30 29 39 41 31 52 34 33 33 26 33 35 37 32 37 33 33 29 32 45 32 43 44 71 56 20 38 37 43 28 32 41 43 49 28 40 16 51 37 36 52 35 47 50 30 30 34 36 40 51 40 30 30 37 20 43 17 63 33 44 30 37 43 33 39 40 30 18 44 43 25 50 50 32 47 39 49 42 31 41 38 33 46 59 32 30 22 34 49 27 26 37 49 17 32 27 49 49 37 38 44 29 37 55 54 19 36 41 38 51 38 30 42 26 51 37 39 24 36 51 27 27 47 40 55 38 44 45 31 16 47 40 51 54 41 33 34 23 39 27 27 26 37 49 25 54 38 48 37 41 23 36 35 19 37 43 36 50 30 52 31 33 31 37 24 34 40 16 22 37 63 41 28 37 42 45 29 24 27 45 59 60 39 42 30 35 26 46 34 28 28 43 48 34 43 41 48 13 50 43 40 19 42 37 58 32 37 46 51 52 48 40 34 40 27 45 36 39 61 50 45 29 57 40 46 31 39 40 45 32 35 32 54 34 43 64 44 38 45 30 41 38 20 19 23 43 24 48 37 36 43 33 52 52 33 24 26 58 46 48 47 33 43 27 44 53 50 27 33 37 42 37 55 54 52 54 48 29 54 43 44 57 34 45 50 40 16 39 41 40 36 31 44 38 12 33 43 45 19 36 32 42 25 58 47 40 38 19 35 37 34 23 51 27 19 46 37 34 37 47 50 36 40 51 13 40 30 38 40 37 40 13 38 57 37 43 43 32 40 58 30 25 30 48 44 37 31 37 36 46 37 23 33 30 43 55 42 27 26 29 32 50 23 19 31 44 56 44 29 48 23 30 40 39 39 29 27 23 42 56 31 33 47 29 30 38 36 45 43 38 44 30 22 29 29 29 47 32 23 25 37 38 22 49 60 33 34 48 22 23 50 49 36 35 30 43 38 47 30 37 43 35 44 54 56 45 30 41 40 33 38 33 31 36 46 41 39 29 37 37 25 36 33 51 37 32 66 16 40 33 37 43 22 37 50 32 25 36 36 19 39 34 30 47 46 35 47 51 23 48 29 45 53 33 30 26 37 51 27 26 37 39 37 51 27 44 19 47 37 42 27 23 49 41 37 33 32 41 38 31 44 34 44 30 55 38 45 20 29 29 27 31 47 33 42 33 33 37 40 34 27 28 59 40 47 39 35 24 30 34 28 38 39 23 42 23 34 40 41 31 32 34 34 42 37 47 54 27 37 51 55 41 33 29 21 51 33 25 36 32 25 39 30 48 49 58 51 30 31 23 29 45 67 43 54 37 48 43 26 33 32 55 37 38 30 45 56 39 34 15 34 23 28 37 42 47 48 40 44 34 61 40 37 41 51 45 65 48 30 23 24 53 26 30 41 54 51 38 34 22 29 52 38 22 59 26 29 26 26 38 45 31 24 23 44 25 31 34 37 39 47 42 33 47 28 51 27 43 35 33 27 29 51 26 27 48 44 33 43 55 39 37 41 36 45 39 37 43 43 24 30 43 50 33 59 13 29 44 42 36 50 40 39 41 37 45 41 32 41 62 54 43 40 49 42 41 41 42 45 24 48 36 36 47 45 33 46 27 43 47 33 40 26 23 54 51 33 31 52 38 48 41 31 43 33 51 49 33 38 40 48 46 29 46 29 42 30 40 29 33 27 39 41 41 24 50 52 23 29 40 45 39 47 26 46 48 37 36 31 38 42 36 33 58 54 37 45 41 28 19 20 27 47 39 33 28 39 30 41 37 26 36 27 40 41 44 33 30 23 27 33 38 50 39 36 41 33 53 47 29 38 43 24 32 20 37 40 35 43 43 46 50 26 37 28 36 41 47 45 45 43 44 51 45 35 46 45 34 26 40 47 46 48 44 42 42 41 32 31 32 30 26 13 51 23 36 47 24 30 26 43 23 31 46 30 44 33 56 41 46 37 31 36 51 52 30 51 40 34 42 42 37 29 36 38 30 26 48 47 52 29 38 41 27 45 50 31 31 29 32 48 37 48 41 32 46 55 37 40 36 27 30 20 46 33 40 42 29 33 52 39 30 47 29 30 34 30 27 51 16 47 46 51 41 18 43 40 51 30 20 32 40 15 30 41 41 37 36 20 19 33 30 30 23 31 50 36 32 37 30 25 36 56 26 25 51 38 30 24 48 47 32 40 33 29 38 54 26 37 43 20 26 47 48 33 39 43 31 43 29 45 41 37 39 19 45 29 39 18 35 17 40 47 38 43 29 34 36 45 43 67 29 37 46 37 23 43 41 33 25 29 57 43 27 44 32 41 36 28 37 41 33 40 51 50 47 24 40 39 39 45 36 44 29 36 43 36 34 54 37 30 35 51 36 30 39 50 17 36 19 20 45 40 31 30 36 43 51 26 27 30 45 48 28 39 61 39 16 29 23 27 31 44 45 27 31 45 59 51 44 27 32 54 37 27 40 28 42 44 47 15 40 24 36 20 40 24 54 41 40 46 27 45 44 70 39 49 55 49 67 49 42 37 37 37 41 16 47 34 30 33 47 30 27 38 27 44 49 36 27 35 35 44 40 22 38 39 37 44 42 33 45 51 25 56 31 43 34 40 45 44 26 24 55 29 26 27 46 42 46 37 37 30 52 27 41 41 51 40 16 44 39 38 27 30 37 16 40 29 45 47 33 50 30 37 46 30 39 26 22 16 49 35 18 33 33 32 22 29 36 43 38 31 40 20 20 35 23 66 40 25 23 26 45 29 41 32 31 46 26 33 46 42 34 36 47 59 33 27 5 40 45 34 40 62 23 23 38 44 30 31 48 19 45 36 42 31 36 27 41 44 38 30 17 19 37 36 54 33 62 49 43 49 35 34 32 43 40 40 37 28 20 56 47 24 33 44 30 22 35 31 50 44 27 31 43 26 31 48 40 30 26 27 37 33 20 30 57 36 40 43 39 26 57 22 39 21 59 40 43 42 44 41 37 30 50 29 41 28 50 40 59 23 38 38 45 20 40 33 33 47 58 19 37 30 22 43 45 39 20 34 42 40 43 41 37 44 51 40 30 51 31 46 44 28 43 29 30 37 29 26 51 53 58 43 33 36 27 44 52 33 33 31 38 34 34 26 40 24 41 29 36 30 36 51 36 30 43 67 40 51 42 35 36 50 47 43 18 26 21 40 47 43 31 34 59 48 54 38 50 34 40 33 30 38 35 41 47 39 36 43 41 48 37 23 40 37 41 39 33 40 12 16 30 27 41 44 44 39 38 44 52 32 35 26 23 46 44 37 46 30 43 42 37 39 29 40 35 37 37 44 29 40 39 48 50 44 47 39 23 53 41 46 56 33 37 41 36 56 34 35 23 51 30 44 29 26 14 55 36 45 20 41 19 59 35 26 37 29 36 32 44 39 31 50 41 38 33 27 20 63 27 36 46 40 33 13 44 44 44 45 58 37 33 47 36 36 41 43 29 43 45 33 32 65 51 29 31 40 56 45 24 47 24 49 39 36 52 53 43 33 36 43 42 43 37 49 22 36 37 37 41 22 29 32 28 30 46 36 37 43 35 54 40 33 43 43 56 32 48 44 53 33 31 32 33 42 43 33 47 49 20 19 45 33 48 44 37 30 41 37 39 24 35 49 51 52 21 26 33 27 34 17 43 37 41 36 37 45 27 57 29 57 40 30 29 49 50 42 36 34 37 38 50 43 29 32 37 41 27 43 36 54 29 39 30 47 50 45 31 20 32 41 44 29 51 40 40 26 53 38 32 53 52 38 16 27 20 62 45 33 55 43 32 40 48 50 54 35 47 31 23 40 37 30 44 37 25 44 34 43 30 54 39 45 39 43 41 45 41 30 30 37 29 59 23 38 33 27 37 40 36 47 47 49 35 40 52 50 34 43 51 33 32 30 37 17 42 51 44 51 40 26 25 32 34 46 40 44 51 34 23 62 39 40 35 30 12 31 33 33 28 31 50 23 33 40 36 42 37 43 33 33 49 20 58 37 27 55 27 23 56 37 39 29 26 41 37 27 45 28 29 31 29 50 35 30 46 37 27 49 34 26 51 34 20 41 36 39 38 13 51 31 28 37 36 49 34 22 38 31 40 34 36 43 57 36 24 23 49 31 44 31 44 43 52 55 50 33 38 38 33 27 36 53 59 39 32 29 48 33 41 50 29 61 34 23 37 30 49 28 49 46 48 47 39 23 39 34 29 33 33 28 30 37 38 41 23 38 29 40 60 30 29 29 51 38 34 51 12 44 33 41 55 31 16 49 47 59 48 23 50 53 42 36 43 43 43 29 41 40 41 52 44 26 35 31 36 42 40 51 32 21 17 34 37 45 36 53 13 23 62 54 39 46 20 33 29 29 40 38 43 30 34 22 23 36 22 42 35 54 30 51 28 33 38 63 23 29 32 30 30 29 47 44 47 35 44 37 44 43 47 40 41 23 26 56 32 25 33 30 37 22 36 51 46 45 37 26 45 51 44 16 35 37 34 37 28 36 26 46 27 34 46 36 35 37 36 28 37 27 26 44 59 39 59 45 38 45 31 30 24 37 23 30 33 36 50 40 47 37 39 33 55 33 37 35 40 41 40 36 41 48 34 48 49 33 31 37 20 37 30 45 39 30 51 34 37 33 63 47 27 25 30 50 41 48 45 52 31 32 32 30 33 35 22 43 15 44 32 34 20 43 41 36 38 31 40 22 44 46 43 33 41 28 33 35 37 43 29 16 51 48 29 42 51 47 41 54 46 40 41 27 34 46 62 32 35 29 43 26 42 30 25 42 39 43 39 53 21 47 19 27 53 55 45 43 40 47 35 44 33 20 36 22 32 28 55 36 26 23 33 28 31 36 37 32 19 52 44 33 43 37 51 68 57 51 33 23 51 68 42 30 35 29 23 41 30 29 45 45 33 33 26 39 34 35 27 26 15 32 37 24 24 36 47 31 33 34 44 51 22 41 45 41 27 33 55 55 33 49 48 37 31 29 55 46 32 55 23 33 19 23 31 54 44 44 45 40 37 39 41 57 41 39 48 29 45 37 42 24 51 37 28 27 36 19 19 30 44 41 23 51 48 49 34 37 33 44 25 39 30 27 31 30 13 52 22 29 32 40 27 31 22 63 36 23 38 36 45 39 43 22 37 52 59 40 33 45 40 41 19 34 43 23 52 23 46 24 44 46 16 38 29 33 22 41 54 43 31 39 41 31 33 34 23 56 22 54 36 33 48 59 55 40 53 35 31 30 43 48 41 40 36 30 36 49 16 49 27 36 43 59 49 44 26 43 40 42 41 39 46 22 43 30 33 32 46 19 41 34 44 20 29 36 51 49 40 17 31 39 28 35 25 36 28 26 33 45 37 26 41 29 41 64 34 20 22 66 62 56 39 38 36 37 37 30 40 31 34 38 19 29 55 32 36 36 37 33 26 43 51 27 43 27 37 30 32 43 60 51 65 35 19 45 22 49 38 49 37 38 24 45 36 37 45 53 56 37 41 30 34 51 22 52 29 37 22 41 31 29 43 37 41 37 42 39 28 35 47 36 38 33 41 30 36 37 55 34 23 51 65 58 39 36 50 23 30 49 31 55 40 30 36 23 37 44 46 25 19 28 30 29 51 26 46 61 23 47 34 36 36 30 51 33 39 37 36 47 28 33 53 33 54 30 33 40 43 41 37 44 47 51 51 37 46 40 16 31 46 28 39 34 28 67 41 33 31 62 37 37 43 31 41 17 44 41 17 32 39 40 38 35 20 36 46 41 43 36 49 54 29 45 32 20 38 24 39 40 50 32 39 42 39 39 31 43 43 57 45 15 37 30 29 33 26 51 34 29 30 30 33 22 48 19 37 37 29 17 51 22 39 43 40 39 50 37 40 23 23 33 40 59 42 44 47 25 26 36 42 37 51 39 33 55 18 35 22 29 20 56 15 37 35 36 47 23 31 37 53 23 15 34 49 46 32 45 43 50 43 19 25 40 36 38 39 30 23 42 40 46 54 42 51 51 36 51 36 47 38 33 32 24 37 39 33 37 33 49 49 51 19 34 46 37 33 51 45 47 33 36 44 21 32 26 47 34 36 54 12 57 23 47 45 61 37 35 40 41 29 30 30 43 32 34 50 42 29 26 44 22 43 29 28 54 44 43 46 38 38 30 49 64 36 36 36 48 51 42 24 36 30 35 41 47 40 43 51 44 28 33 29 43 40 30 48 33 55 36 36 39 57 20 50 51 26 31 22 45 31 43 27 31 41 41 47 51 38 36 50 25 51 20 53 47 44 32 38 40 27 42 46 57 36 32 52 35 54 23 45 31 16 25 44 58 38 43 16 34 34 22 47 39 37 27 28 36 37 25 44 37 41 40 37 47 37 47 37 25 40 34 49 25 35 19 58 44 45 33 30 42 41 45 51 21 49 37 34 58 27 23 35 47 52 43 53 38 32 38 22 33 36 16 15 38 38 39 30 38 37 26 47 25 33 26 51 27 19 39 42 43 50 49 59 55 43 53 46 40 25 37 34 30 45 36 40 37 20 44 60 30 43 25 29 45 40 36 30 26 38 51 24 33 29 64 48 40 41 33 33 37 15 40 43 37 18 13 23 43 43 37 50 47 51 34 33 31 43 19 26 56 37 44 30 63 51 44 23 37 51 44 55 50 48 29 48 34 59 29 41 42 39 31 29 40 26 32 46 47 40 44 23 45 45 25 58 17 19 32 40 54 33 49 49 45 43 26 45 20 42 19 40 42 52 37 44 50 43 34 10 41 37 15 39 43 19 33 25 37 37 26 26 29 43 51 13 45 31 52 52 43 49 17 29 27 29 19 34 36 36 45 30 51 43 24 22 27 52 45 44 40 48 33 49 48 48 30 30 40 17 41 57 37 26 40 30 20 27 43 28 39 26 37 32 24 45 41 27 38 40 39 24 54 33 43 48 50 26 38 30 42 22 24 44 50 38 33 30 39 23 37 46 43 37 30 44 33 31 36 30 47 36 39 27 46 30 42 37 56 37 27 41 45 44 42 61 34 41 37 46 32 35 28 44 27 45 45 54 29 40 34 26 52 35 30 44 31 44 48 42 22 32 40 33 50 34 26 32 43 78 34 42 36 23 44 43 36 30 48 52 38 34 32 30 19 45 26 35 27 37 34 34 63 29 23 37 26 26 50 33 37 37 21 43 36 19 51 34 50 28 53 23 34 30 41 43 29 38 37 49 47 32 60 54 29 47 31 30 52 29 37 36 47 39 59 26 43 30 31 37 48 50 31 60 33 33 33 43 48 42 34 49 40 62 31 27 41 37 49 50 14 30 37 41 35 31 57 29 30 40 29 23 42 43 33 30 37 33 54 44 26 47 52 40 27 41 28 36 26 32 41 37 30 44 43 44 41 54 43 54 34 43 51 54 38 43 40 38 36 45 30 59 37 36 45 35 29 36 30 33 44 26 36 37 48 42 29 43 17 50 39 53 33 52 51 49 47 54 56 36 28 39 22 59 32 51 34 31 36 22 51 55 37 55 45 48 43 43 48 63 23 30 60 36 29 41 43 30 51 31 37 64 28 32 48 23 35 52 27 54 29 37 41 48 43 39 29 29 31 47 33 24 36 51 39 44 48 42 47 34 24 30 48 30 35 47 36 36 58 31 66 37 33 58 46 53 25 30 37 33 38 29 51 37 32 30 33 31 56 48 33 35 44 20 37 45 45 45 37 33 20 41 34 37 41 43 40 44 43 32 47 24 38 46 57 45 49 47 54 44 39 38 36 40 46 34 43 43 33 44 47 51 40 25 26 40 40 46 48 26 30 23 30 34 34 57 37 33 30 37 42 20 37 50 38 46 35 34 25 29 39 39 24 36 33 36 31 40 48 34 51 36 35 45 37 53 47 54 27 28 43 30 42 51 54 71 32 31 43 44 29 51 46 34 35 29 48 29 36 38 40 47 41 37 27 28 44 40 36 41 27 36 18 50 30 21 40 22 43 33 48 26 47 27 29 22 29 39 29 48 37 43 33 30 48 44 38 56 41 55 26 26 20 47 55 38 23 40 35 48 54 27 50 26 16 59 40 36 16 42 52 32 22 34 41 46 43 58 47 41 46 22 46 37 35 41 34 29 43 44 31 52 22 26 38 30 32 29 19 16 48 41 43 23 30 52 49 40 37 24 41 22 30 24 30 46 44 30 49 38 41 48 32 38 45 46 49 39 50 41 33 34 42 25 35 62 43 19 31 26 39 39 36 16 45 31 37 43 34 34 32 32 51 39 34 39 19 19 36 36 51 39 45 41 47 16 55 33 37 39 33 33 30 37 22 28 45 35 42 36 41 22 44 33 18 55 49 41 41 27 28 43 38 55 29 39 37 49 50 27 42 47 19 29 47 48 59 37 33 25 32 33 23 13 22 33 32 23 35 54 30 41 13 39 24 23 42 40 34 38 29 48 43 12 52 41 37 35 27 39 52 30 41 48 33 52 34 23 28 26 46 37 40 37 30 40 32 30 34 37 23 37 30 33 46 34 43 45 19 40 40 29 33 49 23 28 30 36 46 29 45 37 40 35 37 13 24 34 34 15 41 34 48 29 27 36 39 40 41 35 36 33 50 43 21 33 31 32 32 60 41 47 37 44 20 46 37 41 28 29 45 30 37 45 48 36 34 35 48 30 42 44 58 41 49 54 37 70 52 51 41 34 42 31 36 33 42 30 26 34 46 29 37 37 40 34 45 22 44 41 20 32 60 51 34 34 61 29 46 28 20 43 33 50 28 31 30 37 32 31 33 27 38 34 36 36 42 33 27 37 49 41 52 37 38 15 43 32 39 51 27 24 46 41 43 33 51 44 37 47 44 44 35 22 44 24 44 57 32 40 32 28 36 36 58 38 36 25 30 44 49 44 37 48 23 37 49 39 23 29 55 48 36 33 51 23 34 27 47 29 49 26 42 40 43 27 59 9 40 32 28 33 23 27 34 58 33 44 38 34 59 27 37 41 22 48 29 31 43 44 29 23 43 33 46 61 33 24 27 46 33 44 48 50 30 38 26 46 25 31 34 37 37 43 20 15 27 22 26 23 47 51 55 37 35 37 26 28 23 23 18 27 34 36 34 43 30 51 51 49 37 30 30 49 29 22 20 46 37 25 29 46 23 38 30 30 38 44 43 48 53 36 43 42 23 36 33 37 65 27 30 55 21 34 48 40 39 54 25 38 26 28 43 33 46 46 51 39 33 23 51 47 51 33 45 43 30 24 33 27 16 30 37 38 22 41 57 43 49 40 36 34 37 44 47 27 43 22 22 41 43 23 26 27 47 38 47 38 59 56 30 34 43 48 49 26 37 36 32 44 33 36 42 19 48 26 35 48 49 43 30 52 37 29 30 38 47 44 30 33 27 38 10 69 20 13 45 20 47 31 37 22 40 37 37 45 52 35 52 29 35 43 45 31 37 45 40 24 44 43 57 42 35 26 42 56 25 42 59 23 37 55 36 33 70 34 39 48 41 33 46 34 27 32 47 16 23 42 43 38 44 37 38 26 47 51 21 48 47 37 33 25 33 48 31 23 42 44 25 27 54 34 43 36 46 33 42 52 37 55 29 45 55 30 36 29 54 52 37 51 37 56 40 47 54 37 41 40 31 57 43 43 41 26 30 57 63 39 62 46 36 27 35 53 40 51 51 47 44 39 37 41 48 33 27 40 39 26 40 33 23 35 27 23 44 37 29 33 42 16 43 49 45 48 29 16 40 46 37 23 17 37 23 37 44 29 26 37 39 40 37 49 41 47 51 27 41 16 41 30 54 31 37 36 37 37 39 37 55 35 35 48 43 43 51 25 47 36 30 54 30 32 25 36 27 33 31 26 24 13 37 15 23 41 41 41 40 24 31 41 40 37 28 51 32 18 23 33 22 24 30 43 38 28 49 30 44 53 23 30 51 25 42 26 23 37 37 38 42 22 44 44 44 37 37 40 37 34 27 51 40 54 46 30 36 55 48 18 29 36 41 31 33 20 40 38 33 43 57 37 55 36 28 35 33 42 49 21 26 47 38 47 37 48 35 30 12 21 36 49 29 33 37 37 45 60 45 30 48 44 27 50 36 40 35 41 25 40 37 29 37 43 50 40 46 39 21 42 30 49 54 40 41 45 33 36 36 50 40 29 34 34 37 31 34 43 41 48 47 45 29 53 40 18 39 32 35 43 29 43 44 40 37 43 30 42 16 40 47 47 37 42 25 29 47 43 40 40 37 39 30 55 31 45 37 43 59 43 43 60 42 41 26 43 31 44 45 38 29 49 47 19 18 33 50 32 34 34 43 40 51 31 39 55 41 27 52 39 33 45 36 30 42 37 44 30 39 40 57 37 38 16 47 38 32 33 30 23 33 29 30 45 22 41 44 38 29 40 22 22 46 53 41 32 30 37 49 33 33 35 26 44 39 59 45 30 48 50 26 37 22 30 33 50 51 32 41 40 51 45 30 26 38 33 37 36 27 38 34 38 28 16 32 20 48 58 40 26 31 32 54 33 55 49 42 48 23 67 34 38 24 19 27 37 40 24 51 51 41 33 37 59 42 38 39 50 30 38 43 27 32 41 45 36 41 48 33 39 30 46 32 55 23 32 29 29 22 23 35 22 44 37 36 41 55 48 34 37 28 48 58 45 42 47 43 22 33 48 42 27 57 42 31 35 44 26 22 37 41 37 45 41 40 19 52 47 51 53 51 36 53 34 40 38 30 31 46 47 35 30 36 37 37 31 49 40 51 45 46 37 33 36 54 43 37 37 34 42 32 40 40 36 37 47 34 35 47 26 43 29 25 22 26 39 23 62 46 26 51 34 35 56 30 44 41 54 16 30 30 22 33 33 31 17 40 25 43 52 59 26 25 41 43 30 41 45 54 29 33 30 40 34 43 29 48 37 40 29 23 40 52 30 54 47 29 35 41 29 39 35 30 46 31 35 43 25 25 39 30 31 44 40 36 32 37 33 51 40 36 33 45 31 37 37 41 37 57 41 35 30 41 57 33 38 39 36 39 43 51 23 51 24 34 29 38 39 37 35 53 35 25 41 35 31 51 28 40 33 42 46 33 40 21 31 51 38 29 31 44 29 41 48 44 42 39 37 33 40 38 36 47 50 27 44 35 48 29 31 52 43 50 37 33 39 43 54 45 49 27 29 37 45 49 49 51 47 27 44 40 30 18 51 65 49 37 43 27 47 51 48 45 43 26 36 29 29 50 51 31 53 37 30 31 23 38 45 43 44 33 30 48 38 41 36 32 47 27 46 24 9 35 36 39 47 23 31 47 38 36 50 37 52 37 30 33 30 19 47 22 38 41 17 37 23 34 22 35 30 46 38 37 36 43 28 50 37 35 23 39 26 30 50 27 37 28 34 27 43 31 34 45 23 44 44 56 32 57 41 33 48 40 30 26 43 45 54 38 40 31 22 47 55 26 30 47 33 33 32 33 40 23 49 38 37 51 41 39 47 31 27 57 25 26 33 38 35 44 34 40 57 51 33 30 19 36 15 45 41 47 49 45 35 35 33 38 32 21 47 36 41 40 30 51 13 48 56 43 51 41 26 21 19 45 33 45 22 27 29 31 56 41 36 59 34 29 34 44 43 27 51 45 25 34 27 23 37 39 55 29 20 49 34 61 33 43 30 51 17 20 43 33 42 22 30 42 40 55 30 56 47 40 48 32 51 44 29 51 41 31 25 33 37 41 45 41 33 42 31 35 47 51 40 37 48 33 54 46 38 37 36 36 45 46 55 56 30 43 24 40 37 19 35 37 49 30 45 37 37 33 33 47 36 40 41 19 40 30 30 42 26 44 40 30 33 26 39 34 44 28 38 36 34 20 44 30 45 50 39 36 43 60 38 33 59 33 36 54 47 30 33 51 40 49 33 19 15 43 42 44 51 27 30 35 51 31 37 47 28 26 39 49 19 48 36 41 35 44 27 37 52 27 31 31 48 40 45 29 53 23 29 31 53 37 16 21 29 31 43 62 53 36 23 47 32 53 20 13 46 58 47 47 30 22 42 40 44 47 36 55 35 33 48 46 30 41 37 52 50 47 24 26 29 32 25 27 29 52 52 58 45 45 29 25 31 37 44 45 30 32 50 41 23 38 50 51 33 43 45 41 23 34 44 40 40 37 48 57 30 51 51 23 52 22 45 36 56 24 31 29 26 30 16 58 33 37 44 37 45 32 46 37 34 26 66 38 29 44 31 37 31 41 52 30 49 39 31 41 35 30 22 37 41 44 30 56 23 37 48 45 54 29 47 41 44 43 19 44 26 61 29 41 29 19 61 29 30 43 27 44 17 45 36 42 33 42 34 26 33 47 29 52 33 51 26 49 53 45 34 50 44 24 36 38 45 13 44 38 43 46 33 47 35 30 40 49 65 50 44 43 48 47 20 51 27 38 36 33 24 30 44 46 39 20 45 30 28 36 37 41 51 29 31 50 56 34 47 16 39 37 27 36 30 43 53 30 42 55 30 37 29 35 37 34 40 25 43 45 45 39 45 40 35 9 35 51 48 31 27 33 36 55 37 51 55 33 26 55 28 39 48 27 37 59 36 30 31 39 45 48 20 36 43 48 32 33 21 33 28 34 48 62 24 35 38 36 40 34 35 51 39 27 24 47 17 26 37 38 39 45 45 59 28 48 27 47 26 28 37 43 34 44 36 33 37 45 40 58 29 53 45 28 29 33 42 34 26 38 22 29 22 38 55 32 51 60 30 32 27 36 23 30 27 37 38 42 48 29 43 36 41 33 24 35 36 57 32 30 32 36 45 29 26 50 44 41 45 30 37 31 42 28 45 27 30 37 19 30 26 52 34 30 53 44 50 47 42 23 60 44 52 48 29 28 30 41 34 30 54 29 48 38 44 35 22 56 23 41 20 40 44 29 34 36 44 51 34 45 34 22 32 45 37 36 38 44 29 23 25 30 30 38 46 61 41 16 33 31 60 42 51 39 40 48 51 31 39 29 30 19 36 49 43 23 15 26 47 18 41 36 65 47 22 40 30 32 37 43 35 33 48 33 49 41 38 44 37 42 40 47 38 42 37 46 25 46 19 37 32 23 49 31 49 24 34 63 36 25 23 58 29 51 38 40 23 27 40 25 40 19 59 35 26 34 51 51 33 44 34 26 40 29 40 48 47 20 41 33 33 44 30 47 36 40 36 41 24 30 30 49 38 36 32 34 35 47 57 50 37 15 33 34 47 17 39 43 38 47 45 37 30 36 36 38 48 44 47 31 34 68 44 33 36 26 54 44 36 39 33 37 47 44 37 46 37 19 29 36 36 49 33 18 36 23 37 62 49 41 30 43 29 56 68 44 34 23 51 20 63 37 30 41 40 34 57 43 25 27 13 40 65 27 41 20 53 54 20 38 48 37 33 30 44 47 39 65 37 36 33 41 37 55 46 27 29 34 54 27 30 40 44 43 33 36 30 34 29 27 29 37 35 23 36 38 35 34 44 27 27 17 37 53 30 30 53 51 34 38 18 24 47 23 45 30 29 44 25 52 28 49 27 41 36 19 39 35 47 51 32 35 53 37 25 50 51 44 36 47 28 19 40 35 41 43 22 40 54 29 27 49 39 35 26 29 50 48 27 36 34 58 27 29 53 43 33 30 50 37 30 33 46 19 44 32 31 55 35 33 33 51 39 25 28 48 37 48 47 42 38 32 41 26 34 29 47 15 44 41 39 55 36 48 55 55 35 29 26 45 37 43 50 39 45 72 38 33 62 36 37 62 33 47 29 33 63 20 17 41 40 37 33 17 48 49 44 57 52 47 49 36 19 30 40 29 35 24 43 50 62 39 29 23 25 26 31 29 52 38 27 31 44 43 25 41 54 39 41 54 23 37 33 22 27 37 31 26 33 40 36 49 50 37 50 38 37 42 41 39 47 40 37 35 17 53 31 37 48 45 43 33 40 19 28 43 57 40 29 61 43 53 25 46 32 49 31 44 62 40 26 16 23 27 36 34 25 18 37 40 43 30 37 42 33 38 37 51 37 35 39 42 45 24 37 41 21 43 37 40 30 51 54 27 23 47 38 34 46 38 40 25 33 37 41 51 47 47 44 29 51 43 20 48 20 33 43 55 36 53 52 23 44 38 27 51 36 48 47 33 37 20 37 34 63 45 46 41 30 46 30 33 32 38 45 50 25 46 30 30 44 40 38 34 31 37 37 28 6 23 39 46 29 24 41 36 43 40 41 25 40 38 45 34 28 37 35 34 32 36 43 29 41 42 40 44 38 40 39 30 13 49 31 26 37 29 33 51 62 39 40 41 36 42 51 51 40 45 43 65 29 37 22 34 50 48 23 37 39 37 27 30 43 38 29 50 43 47 23 48 40 30 27 16 25 25 30 65 41 33 16 18 48 40 39 41 44 30 26 29 34 51 37 37 31 25 33 37 42 28 31 22 45 23 43 43 38 40 46 46 49 26 29 34 51 27 49 42 51 33 62 55 37 23 33 42 48 50 36 33 19 31 51 32 47 37 37 33 16 47 44 47 44 34 36 37 27 39 26 43 36 26 40 46 44 23 24 34 45 64 31 70 36 56 27 44 39 26 30 30 29 24 43 44 19 31 34 33 40 31 39 28 43 16 17 47 39 28 53 40 36 32 30 29 42 27 43 41 27 19 32 51 59 41 34 29 30 29 51 43 52 43 30 23 60 48 22 27 30 57 35 38 26 16 31 23 26 38 31 48 39 29 44 35 37 24 26 36 46 42 47 27 53 40 27 27 48 75 30 36 34 41 28 22 36 33 45 36 27 29 45 32 40 25 41 41 46 19 23 9 38 46 27 39 59 33 37 31 44 23 30 48 30 44 49 59 35 48 39 43 40 37 37 43 35 34 40 29 48 33 28 51 60 32 40 45 34 44 21 29 40 30 27 13 29 37 27 43 15 38 24 44 23 34 48 55 48 33 20 51 37 49 23 44 47 45 39 47 34 34 30 24 41 50 31 19 35 42 39 40 36 30 50 23 36 34 25 35 41 24 37 23 41 42 27 23 30 34 34 54 41 47 27 46 41 30 30 23 23 38 42 41 19 38 41 26 30 35 43 41 19 38 29 50 54 41 60 47 22 36 36 43 48 21 33 33 51 53 29 30 38 45 25 26 31 36 37 16 46 57 12 37 30 33 33 30 43 39 47 47 38 37 49 33 6 29 43 32 40 31 40 33 24 30 37 43 32 47 50 39 37 40 62 50 36 28 51 29 45 42 22 43 26 30 45 40 35 44 31 32 52 54 36 37 30 59 33 29 37 52 37 23 37 50 37 48 30 43 40 27 48 30 57 22 30 49 29 26 30 29 54 31 37 63 33 37 37 30 39 32 50 19 16 41 19 40 38 41 47 39 60 17 55 47 44 30 37 32 59 47 29 26 51 37 46 29 59 31 52 31 49 37 30 18 33 41 51 48 43 33 36 44 26 48 37 13 31 31 26 48 19 27 43 30 43 20 30 29 48 36 26 45 23 30 48 33 37 27 37 17 47 34 25 43 49 34 28 34 33 22 43 43 49 36 27 45 39 41 43 34 43 30 36 38 22 30 34 29 45 43 22 48 42 41 23 23 38 37 31 51 19 28 64 46 31 42 44 31 34 26 23 56 32 13 34 39 32 33 30 29 38 28 12 46 26 26 59 19 41 29 43 35 9 42 33 43 51 47 51 36 20 47 27 41 34 47 53 29 55 37 37 36 49 40 37 25 27 19 36 25 34 35 43 37 35 39 30 36 33 31 33 51 43 42 26 30 36 40 26 27 45 52 52 27 34 40 28 34 31 46 29 39 31 42 39 48 42 17 37 26 35 38 30 45 44 27 47 42 21 18 19 33 53 37 36 62 50 40 30 43 19 38 50 43 30 66 28 35 31 46 60 35 44 34 36 27 31 34 24 45 37 55 28 48 54 29 46 46 40 44 43 37 51 51 23 46 27 39 51 36 40 38 35 33 41 25 47 33 29 38 17 29 27</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>JSB(3.221591667769496, 3.546906272112812, -22.12799982912403, 138.5694174924213)</t>
-  </si>
-  <si>
-    <t>10 14 26 17 3 27 16 22 23 14 17 6 13 6 15 13 7 17 26 31 26 17 6 3 27 14 23 20 7 7 9 23 24 28 20 3 16 26 20 16 17 17 13 30 23 16 3 20 30 7 10 30 28 31 14 14 0 6 21 18 19 27 13 20 27 13 16 17 17 13 23 20 7 18 13 23 22 9 17 20 23 16 15 17 20 24 9 17 7 9 9 24 10 31 9 27 20 17 38 24 23 21 20 14 3 23 12 13 3 16 22 14 24 14 17 17 17 26 11 30 15 16 26 24 14 33 6 15 23 17 22 17 14 13 34 20 21 18 24 13 14 15 20 27 10 24 15 14 6 12 10 24 24 14 13 10 24 17 42 24 28 17 23 27 17 21 12 23 17 14 10 6 17 12 31 31 0 31 17 19 17 10 28 9 13 10 6 19 31 34 41 17 23 7 10 12 23 24 16 10 27 24 17 14 13 30 30 7 30 23 24 27 15 38 20 31 28 27 35 30 17 19 14 6 17 20 13 3 29 7 19 7 13 10 26 20 20 27 21 13 34 24 37 16 23 19 16 17 10 29 17 18 18 31 26 21 17 21 20 10 21 35 24 9 23 31 8 7 14 22 23 10 10 16 23 28 31 9 14 20 23 13 24 21 29 10 20 15 23 26 13 18 21 27 17 16 16 20 14 33 30 19 24 27 19 16 10 27 17 24 16 17 13 14 20 16 24 31 9 31 13 17 27 10 27 3 10 17 17 23 13 9 13 6 31 21 14 23 13 16 30 24 28 3 10 10 20 9 17 17 13 6 20 31 14 10 17 16 27 17 17 17 10 13 21 19 26 17 30 24 13 19 17 31 19 24 20 10 12 20 13 19 7 7 3 3 16 37 12 14 11 6 17 10 24 21 7 17 18 23 20 13 16 14 17 7 12 20 34 22 41 31 16 18 16 24 13 34 14 28 21 7 6 16 0 3 17 20 44 13 19 28 24 14 19 10 17 10 17 16 24 24 13 17 21 13 24 28 15 20 28 17 0 27 20 34 17 22 17 26 19 3 30 9 30 14 20 21 20 34 17 27 7 18 27 34 13 27 23 22 6 24 30 26 28 10 10 19 20 17 20 14 20 17 19 23 20 13 20 7 28 14 19 9 9 10 20 24 13 27 17 24 13 6 7 15 13 30 16 20 25 19 7 26 20 21 13 15 19 31 24 20 24 14 10 26 22 20 17 17 23 20 17 16 17 20 14 19 21 10 31 10 27 14 13 3 31 17 0 9 11 24 32 26 10 13 30 19 24 17 33 13 20 41 10 17 16 18 24 20 20 16 24 0 19 14 6 14 27 20 33 10 37 13 9 13 19 27 17 14 27 24 17 30 29 24 16 17 16 20 23 21 7 15 10 17 12 19 24 16 6 21 17 31 22 17 17 27 24 17 7 22 27 28 23 20 16 13 27 16 13 13 23 13 15 13 13 22 21 0 10 17 24 14 17 17 12 7 14 17 23 31 10 38 24 13 3 24 10 30 17 0 10 27 26 20 7 12 10 24 17 13 7 14 21 22 24 17 20 22 22 9 20 13 16 13 24 24 10 10 23 20 21 20 17 30 29 27 17 20 3 27 19 17 28 14 14 16 20 23 28 19 3 6 36 20 17 31 24 17 14 16 13 13 17 6 12 30 0 20 20 16 12 24 7 24 35 21 17 14 21 20 41 14 9 13 10 10 13 17 13 24 21 20 7 17 24 20 18 19 38 23 20 20 34 21 17 23 22 16 25 20 30 23 24 9 17 6 28 29 23 23 24 21 8 24 32 26 17 17 18 21 3 19 10 27 0 14 14 13 24 13 30 33 34 23 14 23 22 14 20 10 30 34 23 31 14 10 13 17 37 21 16 12 23 23 6 17 24 17 17 6 13 30 10 31 35 14 14 10 10 13 38 15 13 15 23 26 20 24 16 23 13 20 7 7 10 6 13 24 28 13 20 27 13 23 17 27 23 23 23 14 26 23 38 27 15 17 10 24 43 10 13 19 13 20 17 20 3 17 13 29 10 28 13 3 14 10 23 14 14 6 13 29 13 25 8 14 10 31 21 34 27 22 24 17 10 26 7 10 16 0 12 13 17 23 16 30 20 20 24 36 12 16 37 13 13 9 22 12 9 31 7 16 25 13 20 3 7 13 28 20 6 6 28 14 10 17 17 17 27 35 7 35 17 28 20 24 17 34 28 15 31 10 23 10 21 14 17 24 20 31 28 13 20 24 20 13 20 13 17 28 21 16 13 18 16 12 10 22 23 24 10 12 20 10 16 9 13 23 33 16 23 35 38 6 38 9 14 13 10 16 13 6 20 24 14 3 20 23 14 16 10 15 21 31 3 24 24 7 20 26 27 6 31 27 10 14 7 23 7 23 3 31 14 31 17 10 0 6 17 20 23 14 24 21 13 21 27 14 9 24 15 16 34 16 31 23 13 23 13 9 21 12 17 13 6 10 24 13 13 24 0 10 20 24 7 13 14 20 13 17 21 21 7 20 7 10 21 21 14 10 10 13 17 9 20 13 13 28 7 6 20 6 13 20 17 19 17 3 31 13 40 10 17 14 13 24 14 15 7 14 26 20 10 27 16 29 7 15 31 16 27 13 12 10 3 20 27 27 30 23 21 20 10 24 29 17 14 27 6 19 16 17 24 31 16 17 13 17 6 12 10 9 24 14 9 24 13 10 10 20 18 24 24 19 25 17 27 7 26 26 15 20 3 24 25 16 16 19 6 17 15 21 28 17 20 23 17 17 17 0 28 14 20 19 22 3 20 13 13 3 12 27 23 14 14 19 17 21 17 17 17 35 13 21 16 10 20 13 16 7 11 13 20 11 22 24 17 3 20 24 10 19 18 14 9 20 28 17 10 22 13 3 5 17 13 28 13 15 22 17 27 7 17 28 7 29 10 20 24 27 10 6 22 17 20 19 17 17 38 7 13 10 30 16 21 13 24 14 14 17 20 3 15 27 14 10 18 14 16 20 13 21 17 23 24 21 22 13 24 10 14 13 30 34 10 20 27 7 22 10 20 10 15 23 26 3 20 20 9 12 22 27 10 24 23 10 33 23 23 17 9 6 16 6 10 12 12 13 17 11 24 30 24 24 14 17 10 14 10 20 20 30 38 13 16 16 24 17 27 14 30 6 3 31 13 21 41 28 24 22 20 12 10 24 21 7 20 20 13 26 18 17 24 10 24 15 26 10 11 31 13 13 24 27 38 26 6 7 28 7 10 10 23 24 27 17 20 10 6 10 7 17 27 21 19 13 14 23 12 23 10 14 13 17 9 25 19 26 17 23 13 9 40 15 17 10 22 17 21 19 16 20 13 17 21 13 34 20 20 26 24 27 3 28 13 17 14 21 20 7 9 17 21 23 3 17 16 16 17 22 28 32 28 9 13 10 21 13 3 13 17 10 10 13 31 21 13 20 10 14 28 11 6 20 23 21 3 20 20 7 23 13 13 10 17 13 12 28 9 13 20 8 28 17 20 10 23 21 7 3 19 27 24 17 27 23 23 16 16 10 27 19 24 26 10 13 23 21 10 20 16 7 27 22 16 31 6 13 28 17 27 20 26 11 13 19 15 10 16 14 8 14 15 24 17 11 10 6 27 17 28 20 23 23 14 13 7 10 10 12 27 24 10 20 13 30 19 17 20 27 13 10 12 3 18 28 25 10 10 13 11 20 23 3 10 7 3 30 21 20 16 23 10 26 13 24 17 16 24 21 20 31 15 17 14 21 18 28 24 0 7 34 13 20 9 23 13 28 0 6 28 14 13 23 20 13 33 24 8 19 14 17 14 35 23 7 17 0 13 23 16 24 17 29 13 7 17 24 27 13 6 14 6 30 19 17 26 20 27 14 20 20 20 13 14 24 6 3 21 20 14 30 17 17 24 10 10 20 6 23 9 28 30 20 19 34 16 20 7 31 7 17 10 13 30 23 31 14 13 20 19 21 24 17 17 20 31 26 10 30 17 16 12 13 10 20 13 31 27 26 9 22 21 17 15 13 3 17 24 15 13 26 17 22 24 22 17 20 13 27 24 17 18 20 23 21 3 24 18 16 16 24 20 17 13 16 21 10 9 23 17 17 24 0 7 20 24 25 26 13 27 20 16 13 24 20 17 20 13 12 10 22 6 20 16 28 22 14 17 16 17 16 23 16 9 24 20 14 30 14 30 23 7 17 15 13 6 16 14 38 9 0 23 14 10 27 20 23 20 28 20 10 19 10 23 0 17 20 18 24 20 3 17 14 10 19 29 22 14 23 15 17 23 21 30 17 20 12 19 21 8 30 17 10 10 27 24 3 24 27 10 9 34 16 9 32 13 14 24 9 29 17 20 31 15 16 20 10 19 30 10 16 19 10 17 17 9 30 20 18 27 8 17 0 13 6 21 0 20 30 13 26 3 31 13 13 3 10 13 10 14 9 27 20 10 27 10 13 7 10 11 26 20 20 23 23 20 30 17 17 13 17 25 22 10 41 13 31 3 14 15 3 24 31 35 22 24 35 13 10 24 17 13 37 6 10 20 15 0 16 14 23 23 13 17 29 24 6 27 7 30 14 31 17 20 16 20 7 35 32 14 15 23 12 23 34 45 20 10 28 25 17 14 17 24 17 20 20 24 18 29 20 33 16 31 21 14 31 3 21 23 27 13 13 24 18 21 10 20 20 7 23 13 6 13 6 38 17 19 18 13 32 20 20 26 14 14 17 23 7 10 24 17 28 11 16 26 17 14 10 20 14 24 9 6 27 9 17 23 20 13 10 29 3 6 17 30 27 13 17 10 7 6 11 45 42 29 23 10 38 9 16 11 10 26 21 17 13 17 9 9 23 14 10 10 6 19 27 21 20 23 8 33 10 17 7 6 16 21 9 26 21 29 19 10 14 16 15 16 27 10 0 17 16 17 20 12 29 14 24 9 0 12 23 19 27 3 23 34 6 10 18 29 23 7 17 31 31 17 20 10 20 19 20 16 16 19 20 13 17 17 23 17 10 27 10 37 24 23 17 10 31 15 16 18 10 19 28 30 18 24 7 10 22 6 24 10 0 23 3 24 28 20 21 20 17 10 23 13 28 24 6 35 20 17 10 6 16 20 20 9 10 16 20 13 21 13 27 45 21 31 27 27 0 24 13 13 24 14 9 26 17 30 11 20 14 20 24 6 27 27 24 26 30 6 14 16 34 10 27 10 16 10 16 17 20 10 28 19 24 24 3 28 7 27 23 19 24 27 7 28 20 35 10 16 17 35 31 35 24 23 23 27 14 27 14 23 28 21 10 20 16 17 15 13 20 10 25 24 23 6 20 9 10 17 34 28 17 28 19 9 20 23 27 6 33 23 17 21 14 24 12 10 13 24 13 14 20 23 30 17 23 7 27 14 10 15 3 10 6 17 12 17 15 13 23 14 20 26 22 17 19 30 12 27 27 27 30 29 31 20 24 23 15 13 16 19 21 17 20 7 20 14 15 19 31 24 33 30 10 21 33 24 19 31 23 17 17 9 28 30 21 20 19 21 27 13 17 13 27 19 10 17 14 7 0 28 27 17 13 13 23 17 38 24 6 16 27 21 14 29 27 16 9 17 31 17 10 20 28 7 14 23 21 27 35 24 17 17 21 17 24 24 32 13 24 15 17 20 0 21 9 10 6 26 16 20 16 17 20 31 18 30 21 14 16 27 27 24 10 19 2 23 16 10 14 28 6 20 13 44 0 38 24 10 9 24 20 13 26 10 20 10 7 24 19 17 16 21 27 18 17 15 10 26 17 14 14 10 20 7 6 28 30 27 13 27 26 29 30 23 10 17 23 14 13 28 35 10 29 23 13 27 21 17 17 6 27 14 24 31 31 20 19 28 28 7 16 31 24 24 13 6 7 18 24 20 19 20 23 19 20 19 17 10 10 20 20 17 16 17 20 13 6 17 33 50 20 38 10 14 13 13 12 12 24 14 17 18 12 16 20 14 17 6 17 25 17 14 23 26 9 20 21 24 16 20 13 20 19 6 13 7 12 3 27 22 7 10 17 13 24 21 9 17 6 10 21 19 10 14 6 17 20 20 23 13 7 17 10 23 13 24 27 9 27 7 13 10 30 17 24 34 8 23 38 7 13 6 30 3 21 21 47 10 19 28 26 20 21 10 6 17 20 24 11 11 23 42 20 21 24 21 14 14 28 14 21 27 20 24 24 17 21 13 27 35 10 13 12 27 13 19 9 27 14 16 17 17 20 14 19 20 24 7 17 13 16 28 6 10 10 10 23 9 20 15 15 20 34 10 9 20 10 24 23 14 13 23 21 18 14 13 9 13 28 17 27 17 10 17 20 20 21 30 10 28 16 20 24 18 20 36 14 14 23 27 17 17 15 16 7 31 17 13 26 9 24 13 15 27 14 31 26 15 20 27 14 10 14 24 9 23 14 31 9 27 21 27 20 27 21 18 34 28 13 34 6 10 16 21 24 23 20 20 17 9 24 14 20 17 23 20 4 21 14 10 9 35 17 6 21 17 21 13 16 20 13 31 9 21 18 41 16 7 6 38 14 7 27 13 0 10 24 34 23 3 14 8 17 21 20 30 21 7 21 24 24 15 24 20 27 16 7 27 8 20 10 24 7 27 17 10 31 22 6 31 34 21 25 13 10 14 15 3 24 32 3 7 24 16 27 21 10 17 20 14 12 32 27 15 21 13 23 12 24 37 20 10 15 10 34 24 13 7 6 29 7 16 37 20 21 13 13 23 14 16 9 27 23 27 12 17 10 26 12 20 10 23 13 13 17 17 7 10 14 14 23 9 26 17 14 10 20 22 19 21 10 23 7 24 25 29 27 10 10 38 22 31 13 20 30 13 10 16 13 14 23 10 10 41 13 6 28 13 31 30 13 13 22 6 41 17 7 17 7 10 34 13 24 23 14 34 10 29 16 27 21 12 21 28 20 19 16 6 30 17 40 17 30 30 24 17 3 20 17 7 13 17 21 13 22 24 12 7 10 10 42 17 16 3 10 17 9 24 31 8 15 30 20 6 24 20 20 9 14 17 27 27 13 7 9 20 30 19 13 21 31 6 13 27 36 17 17 34 17 14 24 14 13 19 17 17 7 13 20 13 40 16 21 34 17 10 14 6 25 30 23 24 10 27 0 7 20 21 27 13 13 10 5 28 13 10 34 11 3 10 17 27 30 7 30 13 29 14 17 10 21 17 10 20 21 7 6 24 15 14 14 17 24 10 20 0 20 17 23 10 17 17 18 10 14 17 9 13 21 10 23 33 9 0 20 10 14 27 16 24 27 28 16 7 7 8 34 17 17 16 9 16 10 13 16 9 7 17 28 21 14 24 28 15 13 28 31 16 19 6 13 17 13 26 13 14 17 24 20 17 35 24 6 19 24 23 23 23 3 9 13 17 18 13 9 27 21 20 12 21 22 14 18 15 9 10 27 30 10 33 20 20 3 24 14 16 31 9 13 16 16 16 27 19 13 20 18 10 21 21 10 21 10 0 3 30 20 30 19 21 6 17 19 13 10 24 16 25 20 20 22 10 21 18 19 17 31 17 10 16 13 17 7 26 21 24 9 27 24 20 12 24 27 24 10 27 20 13 13 14 13 9 19 24 16 24 25 14 17 14 30 13 24 24 10 18 24 22 23 21 10 24 6 13 24 9 16 27 14 31 16 17 24 21 28 19 30 16 6 20 30 17 6 28 13 17 17 14 3 20 34 14 10 19 24 35 27 10 14 7 38 33 35 28 24 38 14 18 23 21 7 13 7 18 17 21 27 17 17 28 27 13 26 12 9 21 10 20 13 13 10 13 13 17 21 20 13 20 25 28 20 7 17 24 28 31 20 17 3 10 23 10 16 18 14 17 13 10 17 10 11 23 23 21 13 21 14 23 10 17 21 24 14 34 27 24 20 21 14 15 20 7 20 13 23 23 13 13 30 31 7 24 17 27 38 13 24 13 17 21 30 30 6 9 7 13 23 12 26 28 6 20 38 17 21 6 20 24 20 10 9 26 23 38 6 20 17 26 25 6 33 21 3 14 21 10 13 13 24 14 20 17 17 19 17 9 7 24 12 10 10 16 19 23 27 7 17 16 18 3 12 6 10 17 24 15 16 16 41 20 6 9 28 23 21 28 27 14 10 13 17 9 18 17 23 7 23 20 31 13 16 17 12 13 28 24 14 14 14 29 11 20 20 24 29 20 30 24 16 17 19 34 20 23 3 31 16 30 10 13 27 14 17 9 10 21 3 23 16 11 17 25 20 9 13 19 23 17 21 13 10 24 27 37 20 6 21 21 20 17 20 24 24 7 7 12 14 20 24 14 15 6 14 12 25 24 30 27 12 10 17 14 7 13 10 20 23 23 13 3 20 6 37 24 13 17 0 31 15 23 21 6 17 24 27 27 33 24 13 6 24 19 14 34 16 16 7 20 21 34 10 9 10 27 6 8 13 34 16 13 38 28 17 14 17 10 17 18 13 24 12 16 7 14 41 15 7 23 22 15 13 21 20 31 9 13 20 27 13 29 17 19 6 28 15 23 14 19 17 19 10 16 7 17 10 38 30 23 16 18 17 17 27 17 19 17 13 14 10 7 13 14 20 6 16 20 17 17 19 17 31 13 23 17 3 17 23 19 11 41 23 28 31 24 38 13 31 7 9 16 18 16 10 23 17 6 17 23 20 17 6 16 22 16 14 16 15 15 7 24 27 18 38 23 20 20 26 27 31 19 20 31 16 21 24 2 24 28 26 17 10 3 17 16 31 10 10 16 12 28 14 13 41 17 26 17 28 17 45 28 13 28 20 7 10 24 14 17 9 7 17 23 16 20 23 17 27 24 23 10 20 30 26 31 21 21 6 31 13 14 17 17 16 20 16 27 21 20 20 13 10 6 14 17 29 9 21 31 31 28 7 31 7 34 16 14 23 21 28 18 17 14 10 7 14 22 16 10 23 27 21 20 24 14 3 17 24 7 21 28 24 29 27 10 26 17 21 13 27 17 21 16 22 28 17 30 13 13 14 3 14 34 10 15 21 23 20 22 8 13 13 3 17 13 28 9 11 11 9 7 11 11 17 24 17 24 14 31 16 3 34 13 19 17 23 24 13 17 13 16 34 13 9 14 28 20 23 20 13 24 17 7 12 10 27 27 37 23 24 20 24 7 31 14 13 7 19 12 21 21 26 24 27 27 18 20 23 9 16 9 24 3 31 3 41 17 30 31 27 10 17 16 18 21 14 21 19 17 16 24 17 22 34 13 3 19 17 17 9 16 14 16 26 27 14 28 36 20 31 10 6 37 3 10 12 14 18 21 13 6 13 19 17 18 14 34 14 20 23 27 24 24 13 24 27 17 10 10 24 13 9 20 26 9 10 13 13 30 24 27 20 21 24 10 20 20 30 9 23 7 7 3 6 17 34 13 24 37 24 23 24 27 10 22 21 20 30 19 13 9 9 9 6 21 13 3 12 17 16 6 35 20 22 16 34 12 10 14 12 14 10 20 23 25 23 23 34 23 7 7 31 20 16 8 16 13 10 18 25 24 10 27 14 31 10 3 32 20 20 30 13 7 14 10 17 24 20 17 20 24 21 10 21 19 3 13 8 15 10 19 28 21 14 27 34 27 17 16 27 14 21 30 26 10 17 23 18 21 16 15 13 14 12 6 11 38 19 24 13 16 25 20 30 29 16 7 13 19 17 6 34 10 34 20 3 17 21 10 13 13 14 16 20 23 10 20 21 19 27 17 6 21 13 26 17 17 20 31 23 14 14 23 10 26 7 20 3 24 13 11 14 37 14 13 14 13 30 21 17 28 17 20 28 16 15 17 23 17 10 30 20 11 14 20 9 20 24 24 20 38 24 25 19 27 15 10 10 3 14 27 16 14 23 18 21 6 31 14 3 20 12 20 16 22 3 13 34 22 14 12 16 31 17 6 3 16 22 14 24 29 14 21 9 24 23 20 48 6 24 0 16 14 6 28 28 26 16 16 16 21 20 37 17 12 24 20 6 21 10 42 20 10 10 24 14 13 34 6 7 26 16 30 12 10 16 10 23 12 17 29 6 14 30 20 20 26 17 14 17 23 19 35 31 14 23 24 27 13 20 27 28 13 9 13 7 22 24 28 13 24 17 15 10 19 19 13 27 17 17 48 38 17 15 26 20 24 17 19 21 20 10 14 21 13 21 21 19 13 9 21 10 20 10 12 20 30 10 23 28 10 35 24 10 20 14 23 36 10 34 13 11 31 7 3 14 6 13 16 20 15 3 24 17 17 13 24 32 13 20 8 17 17 27 24 17 14 27 24 28 17 16 20 31 23 20 27 28 17 27 34 10 13 24 13 7 16 28 10 21 10 20 30 14 14 20 10 22 31 17 17 21 18 20 14 21 13 15 10 13 14 20 13 21 20 13 13 17 14 14 17 20 23 17 25 30 16 14 20 20 18 24 23 7 19 10 16 21 16 17 12 23 10 9 17 24 24 10 18 16 3 19 22 17 17 19 28 20 14 56 13 23 12 10 13 10 6 12 10 24 17 27 41 27 23 29 22 10 24 24 13 14 12 20 20 23 13 20 16 31 19 22 10 13 26 17 23 31 26 24 24 26 6 30 21 13 9 13 20 21 26 20 20 20 7 20 21 16 24 26 28 24 24 3 24 16 20 27 11 7 24 10 17 17 21 10 20 26 27 17 28 16 30 17 20 19 20 13 13 10 9 20 28 13 24 3 7 14 13 23 20 13 31 12 24 24 22 10 32 8 21 27 23 28 24 17 7 23 3 26 10 22 26 14 24 6 10 14 20 3 27 16 15 34 7 31 20 13 12 20 24 10 20 20 17 14 31 14 31 16 20 13 14 9 21 3 24 7 14 16 6 23 7 0 17 17 17 14 20 3 17 19 31 27 24 12 41 10 35 9 24 13 27 24 20 12 10 31 33 21 29 25 30 13 14 19 24 24 23 12 10 24 13 17 27 24 12 31 20 17 27 20 6 17 28 24 18 11 13 13 17 9 13 31 23 6 22 20 27 19 20 3 14 20 20 17 29 24 17 13 17 14 19 19 13 20 8 21 13 38 10 16 20 16 21 24 21 10 24 17 24 12 24 20 12 24 25 0 17 13 27 14 20 38 34 6 9 17 29 30 12 10 22 16 26 20 28 17 17 7 28 31 17 31 31 24 20 16 22 10 16 10 18 9 17 6 17 20 28 13 21 27 17 17 17 24 31 18 22 18 10 6 10 17 10 14 14 24 10 20 25 24 10 14 10 24 3 14 19 7 27 40 12 24 24 20 3 17 13 30 13 34 17 13 11 8 16 21 16 20 19 5 24 17 7 0 24 16 20 21 27 22 16 22 26 9 7 14 13 10 9 24 23 10 16 24 28 17 14 17 38 28 12 13 20 7 24 42 9 6 24 23 7 24 20 34 14 18 10 21 10 23 20 15 20 10 34 17 10 26 17 25 13 16 10 24 21 10 37 20 30 13 21 17 27 17 17 30 27 16 17 14 13 38 14 12 21 13 14 20 14 26 7 7 17 27 10 16 21 31 17 38 30 10 24 7 24 17 10 13 24 35 6 14 27 20 10 16 15 19 20 28 10 27 28 27 20 13 10 24 10 10 19 19 14 24 0 41 9 28 27 7 26 17 24 20 13 27 13 14 10 11 14 17 19 34 20 28 15 6 9 0 24 17 20 23 14 19 13 14 16 24 30 31 22 27 10 10 16 17 23 10 20 3 10 17 24 26 16 20 32 16 13 17 40 18 13 20 14 7 14 21 31 16 20 29 24 21 23 19 23 13 14 10 24 23 20 16 21 14 20 20 22 30 24 14 6 41 38 17 21 19 17 14 9 27 20 38 21 12 31 28 6 24 21 23 17 24 14 31 9 24 19 9 16 28 23 3 27 27 12 32 23 10 20 20 15 17 9 23 10 19 21 10 17 20 20 10 17 22 10 31 14 19 16 24 7 16 13 17 30 13 22 10 9 13 23 33 16 23 13 17 21 13 20 17 16 9 10 16 10 24 3 10 9 14 16 13 27 24 24 24 14 0 22 13 0 23 21 13 17 12 20 31 27 27 20 14 24 19 10 27 28 23 10 7 10 34 28 24 24 13 20 9 17 28 0 12 14 22 27 10 15 10 27 14 8 7 19 24 14 24 7 17 10 10 13 15 12 20 34 13 12 10 13 20 6 0 12 28 24 23 18 16 35 10 24 11 17 17 20 10 37 21 13 40 23 38 20 13 9 8 17 20 14 21 14 16 17 19 17 10 14 10 20 19 7 31 10 17 9 17 13 24 10 12 17 19 23 7 15 7 6 26 20 28 34 6 11 24 15 13 24 36 7 12 27 9 19 23 16 13 24 21 10 24 27 10 14 18 15 18 24 7 17 34 24 26 23 16 24 31 20 21 10 14 10 3 29 12 24 17 24 3 24 10 7 27 13 28 13 13 0 13 33 20 10 17 42 27 14 26 10 3 26 20 26 9 27 15 16 40 38 28 14 32 13 13 21 16 31 21 10 20 21 27 14 10 14 15 38 5 23 17 34 16 13 7 3 13 12 28 10 26 17 6 23 24 13 10 21 19 31 24 14 23 14 14 18 9 20 27 6 7 20 10 24 16 17 14 10 33 14 26 21 26 19 29 16 31 26 27 13 24 10 22 13 24 17 27 3 21 29 22 21 17 20 21 27 18 14 7 10 0 20 25 3 13 14 12 13 17 20 27 13 23 24 12 18 20 13 17 3 24 20 17 14 24 17 13 31 13 31 11 21 28 38 31 13 14 17 20 27 27 17 24 14 26 35 13 24 7 12 21 31 21 13 9 20 23 19 16 17 16 14 19 17 24 24 10 23 14 29 13 23 20 17 13 7 16 27 17 6 6 17 24 24 13 10 24 21 16 7 28 16 20 17 0 17 30 20 12 10 23 24 13 16 18 17 16 6 16 18 21 23 13 24 17 28 15 17 20 24 3 14 10 9 35 6 16 23 7 16 24 7 15 27 23 19 23 27 16 33 7 7 13 16 23 14 18 13 7 17 10 21 0 7 22 23 23 13 20 27 19 23 7 23 16 9 18 24 10 6 27 2 27 16 0 0 20 17 13 14 20 25 14 21 23 17 13 14 17 27 7 17 14 7 20 9 20 6 27 13 27 10 7 14 13 20 22 3 24 14 13 20 16 17 17 13 16 17 15 6 34 10 28 27 17 13 29 17 16 20 24 17 10 17 14 9 26 9 12 30 20 28 23 17 13 27 27 24 27 17 24 23 21 21 16 20 17 26 15 10 16 17 3 25 27 18 6 24 26 37 16 17 16 23 13 21 27 24 10 12 10 16 17 17 17 8 20 23 10 14 13 10 10 24 3 19 19 13 13 13 23 27 20 19 23 34 23 10 14 23 22 3 27 16 20 43 20 16 28 35 10 27 28 20 27 20 16 24 0 13 24 21 17 24 20 16 17 18 17 23 23 10 14 3 10 20 23 17 20 24 14 7 19 21 3 16 18 24 14 24 7 7 21 13 17 19 20 13 14 17 28 12 20 26 14 24 20 17 13 31 20 7 7 24 20 17 9 17 17 17 14 10 24 24 14 10 23 6 17 28 9 14 13 21 13 2 11 10 7 10 7 14 13 0 7 27 17 10 42 19 35 27 44 17 3 10 24 21 16 16 3 7 10 17 27 11 26 6 17 14 24 3 23 7 23 17 17 20 16 7 10 9 20 24 10 41 27 20 31 22 19 17 14 10 26 3 23 0 20 31 14 20 21 17 26 21 21 14 27 27 7 13 23 13 17 34 10 28 13 24 17 24 20 20 13 17 17 3 9 15 24 10 10 17 3 15 10 23 21 10 9 6 10 10 20 27 27 23 15 17 17 13 12 31 14 23 27 13 7 20 20 14 17 20 10 30 9 14 18 3 9 11 6 18 17 10 25 23 19 7 23 17 20 17 10 13 16 28 23 15 10 30 16 17 14 10 19 24 27 10 26 16 30 13 35 7 17 31 9 13 17 17 16 17 3 17 27 24 24 17 24 17 29 14 19 17 19 15 18 27 16 10 19 24 6 14 15 34 3 17 10 28 17 13 14 24 34 17 29 21 9 30 13 14 24 24 10 24 17 10 6 8 13 17 23 21 5 21 6 34 16 21 43 6 3 24 20 20 35 7 24 3 17 16 18 25 28 22 23 14 21 31 27 24 42 30 10 13 17 10 20 16 10 17 20 20 13 22 10 10 17 30 13 13 19 20 24 23 16 21 16 23 10 16 31 3 27 14 17 30 10 21 17 11 19 14 10 27 20 19 27 27 24 31 13 15 3 9 0 15 16 16 7 19 16 10 19 17 14 30 27 20 13 13 24 26 20 21 17 13 13 24 15 10 31 23 13 17 14 20 13 3 27 24 10 25 13 11 23 24 17 16 17 7 22 17 19 26 17 0 9 17 13 7 24 16 12 17 14 23 27 21 19 24 16 14 28 21 27 6 14 14 45 30 20 24 9 15 22 9 7 10 23 13 7 27 17 26 20 23 10 13 39 14 18 17 23 27 23 38 20 24 7 16 28 21 28 21 0 9 24 15 21 9 7 31 10 10 21 10 0 21 7 13 16 9 13 9 20 23 16 26 17 13 10 21 30 14 23 27 13 7 28 15 24 45 3 10 10 13 21 23 23 34 28 22 16 34 19 20 27 16 30 27 37 16 14 31 7 20 6 19 13 9 13 37 14 20 17 12 17 14 19 10 20 26 17 23 9 28 34 23 13 34 13 21 17 14 31 17 16 3 16 13 10 19 7 20 7 13 15 20 17 13 3 16 23 13 17 23 24 13 15 35 15 13 23 14 23 10 23 16 21 9 24 21 17 20 6 24 14 20 17 37 17 17 7 6 15 24 16 24 17 17 15 16 10 25 17 10 17 10 17 17 19 16 13 13 7 6 23 35 13 17 7 16 24 30 16 27 37 44 17 18 20 21 17 19 19 21 21 10 16 31 28 23 13 21 20 31 16 6 13 21 13 14 20 10 20 19 27 10 17 9 10 12 17 28 7 21 19 20 27 16 17 15 26 27 12 10 20 24 27 24 16 13 24 7 24 9 13 10 15 15 27 13 20 8 21 18 13 6 3 13 10 18 37 24 21 20 21 37 13 6 24 27 16 15 29 20 27 3 18 17 37 10 19 16 17 10 34 10 24 16 20 10 20 17 22 24 12 7 14 24 10 17 23 17 9 14 3 13 38 26 19 17 13 19 10 14 14 15 24 13 7 24 44 10 20 24 17 30 21 16 20 9 17 14 38 13 16 13 31 0 20 6 41 7 22 10 17 10 21 28 28 24 23 26 21 7 24 38 11 24 41 24 23 16 16 13 17 20 14 24 22 13 17 29 10 6 15 14 22 20 27 10 26 19 19 6 27 34 10 28 23 10 27 14 20 20 14 18 10 23 16 14 14 22 13 24 29 3 17 14 37 18 16 13 3 20 21 6 13 10 12 22 7 17 22 6 28 23 27 24 17 17 7 16 6 34 34 20 20 16 3 17 3 28 16 3 28 12 12 17 12 13 14 20 23 23 16 25 13 24 19 10 25 12 13 14 6 16 17 12 21 21 6 17 11 18 15 12 21 17 9 16 17 30 13 17 20 31 13 10 3 13 26 17 20 17 16 17 17 23 22 29 7 17 31 22 10 14 3 16 3 10 24 26 14 17 27 13 22 16 27 16 16 31 7 24 35 24 14 12 17 3 21 21 7 3 12 12 6 11 23 13 26 7 25 21 10 13 9 27 23 20 10 20 20 27 14 16 3 14 24 3 14 41 27 35 16 7 21 14 13 13 31 20 13 15 9 12 21 21 20 3 17 25 15 13 19 16 19 19 14 13 28 29 10 34 15 13 16 17 20 18 51 17 23 20 27 31 9 7 0 23 20 23 30 21 3 17 3 14 19 24 26 44 22 28 30 28 24 17 6 17 6 14 7 20 17 7 10 27 19 29 27 28 7 17 20 26 16 24 23 16 3 20 26 19 25 3 24 14 16 20 7 14 14 7 16 35 10 26 16 7 16 9 17 6 23 23 26 20 17 23 23 43 20 16 21 13 22 31 38 17 16 7 16 41 13 15 13 24 9 27 31 17 12 10 45 6 23 37 22 12 19 14 24 17 26 14 24 3 15 13 30 20 3 27 6 13 11 14 13 41 17 13 17 17 24 27 10 10 25 7 7 17 6 3 9 19 6 17 24 10 6 18 27 30 19 11 6 10 15 14 14 14 17 7 24 30 28 17 10 20 24 31 16 31 20 24 21 19 20 34 20 17 13 13 26 19 22 25 30 41 28 13 17 6 9 24 19 21 22 31 27 17 10 3 26 0 10 3 14 17 0 30 9 27 24 28 24 17 49 17 20 9 10 13 0 3 25 21 7 9 28 21 0 13 27 13 10 28 9 25 9 21 24 26 8 24 17 18 26 11 17 16 27 25 21 13 28 17 33 17 23 19 6 35 19 20 6 17 12 17 28 31 44 34 21 17 13 7 17 14 22 3 14 12 28 13 17 14 27 7 21 9 22 23 16 17 6 13 30 27 9 10 16 22 17 24 20 9 20 16 7 33 18 24 10 22 24 3 20 9 7 23 20 13 21 10 13 9 16 26 7 28 3 24 10 25 11 20 11 21 14 16 13 23 16 21 28 12 17 7 18 13 17 13 23 10 20 37 10 17 10 13 13 17 20 17 24 23 13 20 3 7 20 17 6 21 13 18 13 17 13 20 13 24 13 11 7 6 17 3 13 17 21 24 20 21 7 20 19 6 16 20 24 21 31 20 3 10 24 20 31 24 31 17 21 14 9 26 21 20 12 14 13 10 14 13 19 17 15 12 20 20 16 14 13 25 7 27 10 7 20 10 21 19 21 13 34 3 24 24 24 19 26 28 12 10 20 3 11 24 15 7 29 21 14 15 31 19 13 13 27 6 9 22 7 17 20 16 31 17 37 7 23 17 24 23 10 16 6 22 20 20 27 8 12 7 20 18 20 16 23 33 20 8 11 20 7 20 33 13 12 24 20 20 27 27 28 19 14 13 27 16 19 10 17 31 24 24 34 10 21 28 19 20 38 28 21 24 24 20 24 20 16 14 21 13 13 16 20 17 21 21 6 13 22 13 10 3 31 35 24 17 17 23 28 27 17 22 20 24 17 27 24 16 3 20 16 28 38 28 14 9 16 21 17 27 27 12 16 23 17 28 17 10 10 23 29 24 13 13 21 21 23 20 10 7 26 23 23 41 27 24 17 14 16 24 23 10 17 3 18 31 20 27 3 27 20 12 7 10 34 24 13 18 22 28 17 7 14 49 14 31 23 16 14 17 16 13 29 19 17 23 17 0 14 31 28 21 17 13 25 27 23 24 20 13 24 17 0 13 9 9 17 25 16 31 13 28 16 20 3 31 17 13 9 19 21 23 20 7 17 31 3 17 27 36 21 17 16 6 26 28 27 10 27 24 7 26 25 3 7 14 28 9 17 10 23 18 9 10 14 13 9 3 14 21 17 24 19 31 10 21 14 18 13 22 12 18 20 9 22 20 21 16 20 10 14 24 20 20 28 14 16 30 24 28 20 17 23 20 23 17 21 21 13 30 30 24 9 16 24 6 23 13 13 47 11 10 28 16 24 6 13 21 15 24 10 27 23 14 10 6 7 21 20 7 21 6 9 8 33 23 15 34 21 17 21 35 28 12 24 27 24 9 15 15 12 3 27 17 21 16 13 21 19 26 17 18 16 38 20 27 13 19 19 33 17 6 16 18 33 16 22 9 23 13 20 17 22 10 17 0 16 17 13 17 20 20 34 24 13 21 26 20 17 31 16 0 20 13 13 20 13 27 19 24 7 16 29 14 22 19 27 14 21 8 29 31 17 13 31 17 20 27 34 28 31 22 11 10 20 3 16 38 27 6 19 13 20 11 20 30 20 21 30 27 20 10 16 30 13 3 9 16 14 11 21 3 41 17 20 24 24 27 27 14 3 24 13 27 24 17 16 23 19 21 13 21 30 16 30 27 10 31 16 9 27 14 18 16 10 7 11 13 11 17 23 21 27 22 13 21 18 9 7 9 24 38 18 7 24 20 10 30 10 21 21 33 13 19 14 23 13 23 28 19 6 9 24 22 31 14 13 11 20 9 19 22 15 14 36 25 20 10 0 24 27 10 20 7 27 17 8 23 14 10 27 22 16 13 10 13 27 12 16 13 17 10 34 3 9 3 20 7 16 15 21 23 10 20 27 10 24 23 17 20 21 24 13 13 19 16 10 10 29 3 19 21 14 45 34 7 24 13 17 31 16 9 6 11 17 10 20 27 27 10 17 10 28 0 14 17 3 23 13 31 13 29 24 23 27 17 19 18 30 27 31 14 7 6 20 12 21 20 35 13 6 27 20 23 27 15 21 18 3 17 17 17 25 16 30 20 7 17 13 13 17 19 13 24 26 23 16 17 10 22 12 6 10 20 14 27 26 14 31 38 9 38 13 10 15 34 34 17 20 0 17 16 6 27 23 40 17 23 13 20 19 20 16 3 30 17 16 27 26 16 22 19 26 21 41 24 19 16 3 27 17 16 6 23 24 10 24 12 16 30 19 13 13 13 26 22 17 24 7 27 21 9 17 10 13 17 35 3 25 34 13 16 10 17 17 7 16 13 7 8 11 20 10 14 27 22 20 6 6 15 24 6 10 23 18 17 10 38 10 24 23 22 24 21 27 16 30 16 7 13 16 14 23 13 17 27 17 9 17 20 7 34 7 3 14 24 27 18 26 20 21 24 7 13 21 10 17 23 17 29 32 10 17 13 35 13 13 17 28 17 20 27 24 21 16 31 31 23 37 23 20 20 23 20 17 0 34 16 33 13 16 14 13 31 9 20 27 25 17 13 26 14 17 17 20 26 16 14 23 24 27 20 24 14 7 17 6 10 17 30 21 14 17 27 20 20 13 20 19 6 24 24 24 24 27 10 29 17 23 14 20 10 38 17 23 21 14 10 20 10 30 13 40 24 24 17 17 14 13 31 9 23 24 16 21 23 10 23 10 6 31 16 13 45 3 6 12 23 24 6 6 10 31 10 6 16 17 20 22 13 24 17 10 24 12 10 21 13 17 6 28 16 17 17 24 7 13 15 51 7 21 17 25 17 18 16 23 21 16 0 33 27 24 20 14 7 27 16 20 31 13 17 18 3 31 14 17 13 31 7 20 17 18 30 10 24 24 17 33 23 14 10 36 13 0 20 23 7 23 20 31 21 19 17 24 20 13 27 21 17 19 6 13 28 13 9 26 7 23 21 10 24 0 10 6 13 23 19 16 17 19 13 26 24 20 17 24 23 28 17 17 3 10 10 14 20 16 24 17 23 32 0 18 9 20 34 19 26 21 29 24 13 24 35 30 18 20 16 31 27 21 11 7 15 18 20 23 6 9 14 19 31 17 21 27 3 17 17 17 20 8 17 12 16 6 20 31 3 17 14 16 10 27 17 6 32 19 21 14 16 14 24 10 22 21 6 30 10 17 26 16 7 28 12 17 29 0 27 41 19 13 3 14 24 32 20 30 15 21 14 20 20 24 23 28 26 16 24 24 13 21 20 13 24 27 19 24 27 7 21 20 27 10 27 11 13 19 24 14 17 15 20 20 17 17 30 14 24 19 10 21 21 20 10 20 14 24 16 7 27 10 33 17 10 13 16 21 17 26 18 6 10 17 22 7 8 10 6 12 10 21 13 30 17 14 10 25 23 20 20 12 14 31 10 15 17 17 23 17 24 25 17 19 27 13 17 13 17 38 17 17 10 16 24 25 42 12 20 17 19 31 43 10 16 38 23 27 30 23 38 17 34 16 31 6 17 17 22 28 13 23 24 17 6 16 14 20 21 18 23 7 31 18 33 27 14 24 7 17 24 20 14 6 19 10 27 30 17 16 6 26 24 25 13 0 24 24 6 9 20 10 19 28 25 21 22 16 31 23 19 7 24 17 13 14 24 11 24 20 17 20 16 3 3 10 13 20 20 19 22 20 19 20 31 0 23 7 13 23 8 3 17 21 16 34 14 18 14 17 16 16 10 24 20 20 16 9 20 7 23 20 3 19 28 10 21 23 31 10 20 14 16 24 37 30 24 20 17 17 10 13 20 12 0 24 16 7 18 16 10 34 24 34 21 31 10 20 24 20 27 20 24 27 20 9 27 10 15 20 0 15 32 27 21 25 20 10 9 16 11 10 19 23 7 34 12 26 7 34 25 21 23 27 18 10 26 6 27 8 10 17 27 24 27 16 19 17 6 7 13 31 23 13 17 3 16 20 19 24 41 23 8 28 11 8 30 12 27 12 24 17 23 7 31 35 14 27 7 16 15 13 13 17 30 22 21 17 13 12 38 24 17 17 13 24 10 27 34 14 14 23 23 10 13 17 0 26 10 27 22 21 3 19 17 34 13 15 14 21 23 13 20 6 30 17 14 7 11 22 13 27 6 16 19 27 21 27 8 19 7 14 20 20 31 25 6 20 14 20 17 28 13 6 13 15 27 26 17 17 21 10 28 14 10 17 24 13 23 33 6 34 20 6 32 16 7 23 10 9 30 10 15 13 20 24 38 27 20 10 3 20 13 17 7 13 17 16 10 10 10 21 12 7 24 20 21 21 20 23 6 9 52 13 24 20 9 13 14 12 28 7 10 3 27 13 18 7 14 26 16 14 17 24 13 10 17 24 24 31 11 21 17 20 20 7 19 6 13 10 18 20 12 14 19 27 23 20 0 27 34 20 20 26 19 33 38 16 19 13 20 11 21 41 23 20 31 17 16 17 16 38 3 28 24 20 24 17 21 13 27 28 6 22 7 14 17 13 27 27 13 22 16 20 9 19 12 14 13 10 20 9 22 17 28 19 24 23 21 10 3 34 17 20 14 9 9 16 16 13 21 10 20 12 20 9 13 17 20 20 10 28 13 27 9 23 24 24 13 19 29 3 26 10 13 23 27 15 0 24 24 24 17 34 30 27 15 22 17 17 14 10 20 13 12 10 6 12 18 17 17 27 14 20 27 23 20 17 14 24 22 19 23 20 35 9 9 17 17 10 18 3 13 21 31 12 24 13 24 14 14 26 0 24 20 17 24 23 20 21 25 31 13 22 6 7 14 14 23 26 10 9 10 12 9 13 19 15 17 28 22 20 16 17 23 23 13 28 14 22 16 38 24 27 17 10 16 28 30 11 28 23 17 13 15 17 24 24 31 28 17 21 15 10 3 31 21 17 34 24 23 17 14 13 7 6 13 16 13 3 26 23 10 16 31 13 17 24 17 14 35 17 12 20 26 17 21 10 33 35 15 16 24 27 9 26 20 25 16 13 13 17 7 10 20 27 16 10 27 10 10 27 35 15 12 13 20 23 17 17 20 17 31 10 3 27 13 31 11 13 14 27 17 17 31 10 23 21 3 27 24 13 16 20 24 13 16 21 21 17 20 7 27 12 14 10 24 27 17 16 9 28 16 34 7 30 31 26 20 13 18 10 21 24 17 24 38 31 31 24 11 7 34 6 6 10 6 20 24 17 17 24 13 17 20 22 0 24 20 20 38 24 15 19 16 0 13 31 20 19 21 25 14 19 20 32 11 18 34 16 9 10 20 20 17 10 28 21 14 11 13 7 13 28 16 20 13 13 6 16 14 35 13 23 28 10 13 17 14 14 26 19 12 16 13 14 7 13 16 22 28 9 10 17 27 30 43 13 10 10 17 8 9 3 15 17 21 28 23 7 12 21 6 16 20 9 25 14 23 28 7 20 9 10 20 24 23 16 23 7 14 27 3 16 7 7 20 3 28 16 3 36 27 30 7 8 10 10 17 10 21 26 3 23 16 10 19 24 21 27 24 20 24 20 23 17 34 10 7 3 19 17 24 21 16 33 10 18 14 24 28 13 27 13 9 17 17 11 20 21 38 16 19 21 10 12 17 10 28 14 6 10 34 30 10 19 16 17 23 24 22 9 10 27 21 14 24 14 17 29 14 17 30 24 24 10 10 17 9 20 7 28 24 10 13 28 17 14 40 20 27 7 17 24 7 34 12 13 47 9 13 27 38 10 19 14 19 13 27 20 14 12 17 31 19 20 10 9 22 17 16 10 14 0 20 17 24 26 11 7 26 13 10 20 19 10 20 9 24 21 21 10 10 27 14 3 16 12 14 9 14 10 10 17 17 22 19 30 28 27 10 16 16 10 38 13 19 16 31 24 21 17 21 16 21 14 6 28 10 3 10 13 30 3 6 21 24 14 13 30 20 28 26 19 10 20 23 7 24 20 14 30 31 21 10 14 3 27 29 10 13 24 27 19 28 6 16 38 21 13 27 21 17 17 20 24 19 28 23 20 0 17 18 13 9 21 10 27 17 16 9 3 26 13 17 14 13 6 19 17 24 22 17 16 24 27 10 7 24 27 21 24 25 17 30 7 13 20 36 20 16 12 13 6 21 24 21 20 16 14 24 7 27 3 10 7 10 17 13 29 23 25 20 10 20 31 17 23</t>
-  </si>
-  <si>
-    <t>EXN(0.43115540098183713, 19.63085777729512, 3.912567592277868)</t>
-  </si>
-  <si>
-    <t>20 21 25 20 23 21 20 17 20 24 18 22 22 20 27 21 29 19 17 22 16 25 19 25 21 29 23 28 18 21 19 20 30 19 23 19 18 28 18 21 21 26 22 27 32 20 16 17 27 25 17 22 23 31 27 24 17 20 25 21 24 27 17 26 26 21 20 20 13 25 21 23 27 21 15 22 27 23 27 23 26 23 18 19 26 18 19 23 19 19 15 18 16 22 17 24 22 23 25 18 30 20 32 22 24 25 21 17 29 23 29 14 14 18 21 23 18 26 17 28 21 18 26 23 24 29 14 25 21 31 18 27 27 20 25 18 18 30 21 15 15 27 17 22 19 24 12 28 18 30 15 25 18 20 27 27 21 17 35 24 23 17 19 21 19 22 22 20 19 25 19 29 15 17 30 26 17 29 17 24 25 19 27 20 26 20 20 22 27 28 24 24 17 16 23 17 26 23 15 21 24 24 26 21 25 23 19 14 21 26 17 22 25 26 21 25 19 21 20 27 17 15 23 13 21 21 17 24 23 22 17 12 24 18 25 24 26 22 26 15 24 23 18 17 22 16 17 20 21 21 22 23 23 24 22 24 23 23 27 24 29 21 23 18 18 20 16 20 22 17 14 18 21 19 27 29 21 30 34 15 24 16 28 21 22 18 31 16 24 24 22 24 21 20 17 19 23 20 22 18 21 19 23 21 29 20 24 20 22 23 25 33 25 15 12 19 19 32 13 20 24 17 18 22 18 19 18 19 21 23 26 20 21 25 25 17 27 16 21 27 26 27 25 17 21 17 27 23 24 12 15 22 23 22 20 15 18 25 27 18 24 22 21 23 31 16 27 18 17 16 36 20 29 21 17 25 26 12 20 18 21 28 9 17 22 25 19 24 22 20 22 13 24 22 14 23 22 23 23 22 23 22 22 21 14 13 21 29 28 24 29 27 20 22 18 26 26 22 28 28 15 21 17 17 25 18 23 23 31 24 24 23 24 25 22 17 11 16 27 24 17 19 22 20 23 19 22 23 18 21 22 18 14 16 29 23 20 17 19 25 19 18 18 14 21 22 27 18 22 20 23 25 25 23 25 21 20 22 16 21 25 26 18 25 18 26 18 22 21 24 22 25 25 23 22 14 22 20 16 16 31 21 24 23 19 24 18 23 14 26 20 24 23 25 19 24 19 21 23 18 22 29 25 26 20 23 19 16 20 25 20 27 24 27 15 35 18 19 20 23 29 23 15 28 18 25 22 18 24 22 20 20 32 19 18 13 14 22 27 22 23 23 24 24 16 25 27 27 28 14 23 28 25 28 24 12 28 26 21 16 14 15 23 14 19 15 14 14 15 14 21 19 22 23 20 23 23 27 24 20 24 34 28 21 26 26 16 19 25 21 24 28 12 14 23 22 20 20 10 18 19 18 24 26 26 32 23 21 19 18 14 27 22 18 23 14 24 28 26 18 22 25 30 18 17 23 22 22 18 17 26 25 17 24 22 23 26 17 4 23 23 22 17 28 14 22 18 25 19 25 13 24 14 24 21 19 20 19 14 19 22 16 24 23 27 34 20 18 21 20 24 17 28 20 21 19 22 25 16 14 23 20 26 18 17 27 19 27 23 28 23 24 26 24 21 20 24 24 21 24 22 26 22 21 18 29 16 27 32 17 15 19 13 17 17 17 26 28 19 17 10 17 18 26 25 24 26 25 17 20 15 24 35 24 22 20 21 19 16 23 17 22 12 15 18 20 28 23 30 25 23 15 28 16 33 17 30 25 18 22 24 21 18 24 21 13 19 19 19 21 21 18 25 14 18 21 20 21 21 19 17 15 24 28 25 29 20 22 28 17 25 17 21 27 17 24 21 20 17 24 19 18 25 21 21 20 23 19 18 19 18 23 20 10 20 23 24 20 24 15 22 17 22 24 27 27 24 19 19 23 16 28 22 25 20 24 25 27 21 23 22 21 15 26 30 18 18 27 13 15 24 15 17 19 18 24 18 23 25 18 26 23 30 22 26 24 25 20 19 23 27 16 26 28 20 23 32 25 22 25 25 25 26 22 23 18 22 12 19 25 16 19 25 27 25 22 24 22 14 27 19 25 25 24 24 19 25 29 14 21 23 10 25 12 18 25 23 26 23 19 20 19 19 20 20 17 16 15 21 22 14 31 19 24 18 18 22 23 19 22 27 22 26 12 27 15 20 18 21 23 27 23 9 24 18 28 24 21 17 18 20 27 22 23 20 10 21 16 29 22 18 22 27 30 30 18 17 22 22 23 27 23 26 24 21 26 24 16 20 19 19 18 18 18 16 19 24 31 19 28 25 26 24 20 33 20 18 20 26 28 16 22 17 31 29 19 19 19 23 27 18 28 22 24 15 26 21 31 19 20 18 18 22 20 19 28 18 17 16 26 18 15 12 26 24 30 28 21 14 19 20 21 18 20 22 21 13 25 23 17 21 19 21 18 25 18 22 23 18 20 14 19 15 21 20 19 25 28 28 25 21 19 22 24 20 15 18 20 33 18 21 20 25 30 22 18 22 16 27 25 23 17 25 17 24 25 22 17 19 19 16 16 25 19 23 23 18 14 20 23 28 21 20 17 18 13 15 19 24 23 27 23 25 19 23 24 19 22 20 14 19 16 18 17 27 14 20 19 17 25 17 22 17 21 22 23 24 17 14 29 14 18 24 16 27 23 25 21 21 23 22 23 15 17 23 22 24 22 27 16 19 30 21 25 20 18 21 22 22 19 20 31 20 16 11 22 24 25 20 14 20 20 21 15 17 26 17 23 14 20 20 16 22 20 18 18 21 13 27 22 24 12 19 21 22 24 16 23 19 20 24 22 26 21 23 21 24 22 28 17 16 22 17 22 26 20 16 24 25 16 20 14 17 21 8 15 18 23 29 21 24 24 19 22 19 24 20 27 26 18 23 21 25 13 26 20 22 25 21 20 22 16 19 15 20 27 18 29 16 23 26 19 19 26 18 22 21 20 21 24 22 22 27 18 18 18 19 25 32 19 16 21 17 16 19 13 18 27 17 22 21 18 16 15 22 23 16 17 22 25 25 14 23 28 22 20 23 19 20 20 21 18 16 19 19 18 20 19 24 24 24 20 19 11 22 17 15 16 18 24 17 16 19 21 21 20 15 17 24 15 20 24 20 25 32 19 23 22 24 21 19 28 19 25 16 28 16 17 30 19 17 27 23 22 22 16 18 21 23 22 22 21 27 23 22 25 20 18 24 18 23 23 18 24 31 24 19 16 20 16 22 20 19 16 18 30 18 21 20 22 16 21 20 25 24 21 19 24 24 20 20 22 22 24 19 22 21 17 30 23 17 23 22 17 24 25 17 24 28 14 18 25 21 17 16 24 20 20 29 17 24 21 21 25 19 24 27 21 13 15 24 14 17 21 23 19 22 16 14 22 16 18 19 19 30 16 17 25 20 24 21 18 15 24 25 13 20 25 26 24 21 26 23 18 21 17 18 23 16 25 23 16 21 11 21 19 20 17 13 19 23 21 23 26 27 21 20 27 25 29 17 24 23 24 25 15 28 23 26 27 20 17 26 18 22 23 17 22 30 24 20 22 20 19 21 22 27 23 22 37 16 20 21 25 23 21 26 18 24 15 19 17 22 23 17 25 15 14 20 17 25 24 29 31 26 17 18 18 17 22 14 15 26 24 26 18 23 17 23 19 19 26 19 20 22 14 22 22 16 19 33 17 15 16 23 18 16 18 22 19 25 27 24 23 14 19 24 22 21 19 19 18 18 25 29 21 23 23 17 21 21 21 10 24 22 16 17 19 16 18 20 29 21 21 15 26 26 18 18 19 18 21 23 27 29 20 22 20 18 20 28 19 19 23 23 20 17 20 21 19 27 20 15 15 15 26 11 17 20 16 26 24 22 18 19 13 14 25 19 26 21 15 15 21 18 25 18 21 18 23 23 17 17 24 24 20 17 28 26 15 20 25 16 25 13 21 24 21 15 24 16 19 24 12 20 26 22 25 24 32 18 18 28 17 22 15 28 25 20 24 19 15 18 17 23 21 20 21 23 12 22 22 29 27 17 14 26 30 18 30 22 20 26 19 11 21 20 22 20 18 21 24 27 19 23 19 16 23 19 18 19 17 21 24 25 18 19 23 24 20 25 12 24 28 13 20 21 31 17 23 25 19 24 20 23 28 22 19 25 21 17 29 14 20 24 17 29 25 22 19 23 19 19 17 14 26 17 22 16 22 18 27 28 22 24 20 21 18 31 18 23 25 21 21 18 12 26 17 17 15 29 22 25 28 17 13 21 11 24 20 23 18 15 22 21 25 23 21 20 21 18 25 16 24 14 30 23 22 23 20 21 22 16 19 20 27 19 25 26 20 28 16 23 28 18 25 26 30 21 22 16 20 16 25 26 14 23 13 19 20 22 32 24 20 31 18 16 9 28 11 23 18 14 25 22 26 22 22 21 18 14 15 18 30 19 27 18 20 20 25 21 20 21 19 22 20 16 15 17 25 24 20 20 12 29 17 16 22 23 16 23 20 22 13 22 19 34 20 17 20 24 17 25 20 15 24 22 19 23 15 14 29 17 17 18 24 19 19 19 19 21 24 26 16 26 22 23 25 25 21 23 25 21 24 18 18 21 28 29 26 18 23 21 21 25 19 26 26 21 22 18 35 24 17 22 18 20 21 24 22 17 18 24 19 18 21 26 17 26 18 24 22 21 18 14 23 26 15 26 19 20 21 24 26 21 24 19 14 24 16 19 12 18 18 22 21 22 24 27 19 22 17 22 16 20 20 17 17 21 17 22 21 16 23 16 18 8 19 30 23 19 17 21 11 15 26 20 23 25 21 17 30 17 19 27 18 23 16 17 23 12 29 23 16 15 19 17 21 26 20 25 27 23 21 26 20 20 27 24 17 18 23 21 16 22 21 15 16 15 19 26 20 17 24 22 25 19 14 14 24 15 18 24 15 27 23 33 24 25 24 27 27 26 22 22 16 17 24 26 22 30 21 28 17 28 18 25 21 15 21 17 20 18 22 19 17 20 16 27 23 16 26 22 20 16 23 24 21 23 20 19 32 23 27 14 21 22 16 15 15 20 17 26 20 20 24 16 13 17 19 30 30 18 15 27 15 21 18 13 19 19 16 22 13 21 23 17 22 28 22 32 33 18 21 22 24 25 19 20 19 16 23 34 15 17 27 24 23 20 25 17 25 21 22 23 21 24 23 18 29 24 22 24 18 21 24 23 17 31 14 18 15 17 20 25 15 25 23 20 25 19 19 22 23 24 21 27 21 20 29 27 20 27 22 19 18 27 22 22 22 20 12 20 22 22 25 25 36 17 25 22 29 19 20 28 16 24 28 25 23 19 22 22 20 16 20 19 26 17 27 26 20 24 19 19 14 29 14 22 21 22 24 15 20 19 21 25 22 22 20 26 11 19 22 21 27 23 16 20 17 23 29 23 22 27 21 25 16 31 25 18 22 20 22 23 20 25 22 20 32 21 19 18 22 26 23 15 29 25 26 21 19 29 24 24 20 28 28 19 23 21 19 25 21 26 22 23 26 20 22 18 18 23 18 26 23 18 20 23 21 15 19 17 19 27 17 23 20 19 16 23 22 25 28 21 18 22 17 23 14 16 13 25 15 21 22 22 35 19 19 23 27 17 19 22 26 23 23 15 19 24 20 31 20 21 17 14 24 22 23 19 23 19 27 19 23 11 22 21 23 18 27 27 16 22 18 24 25 27 25 23 19 25 16 24 16 25 16 27 31 24 15 19 26 22 21 19 25 27 15 16 16 28 21 20 22 20 22 19 25 19 21 16 14 21 20 23 23 21 22 21 29 29 17 24 18 22 16 20 23 19 19 21 22 24 23 9 29 20 25 22 23 21 26 17 19 16 23 19 24 28 19 20 29 12 14 18 30 19 23 15 16 20 18 25 23 22 20 17 25 19 16 25 26 18 16 20 17 21 22 26 17 19 26 22 23 17 19 24 23 22 22 26 21 23 22 24 24 21 20 19 18 20 26 19 21 21 23 24 20 17 17 19 16 19 22 20 22 28 16 19 17 24 22 27 20 23 23 20 17 21 20 16 19 14 21 23 25 25 19 20 16 19 20 23 21 21 22 24 21 15 25 20 23 22 17 17 26 13 26 23 24 20 21 22 30 13 24 17 30 17 21 22 16 14 24 11 25 19 25 30 26 20 18 20 19 23 23 27 24 23 21 22 18 14 18 12 25 25 16 18 23 23 20 21 21 18 18 18 21 18 24 21 27 20 18 22 16 21 33 16 20 12 19 22 17 22 18 22 21 22 18 20 21 17 25 20 25 21 23 18 27 20 20 20 17 21 29 14 28 28 20 20 25 27 21 15 18 30 15 22 21 13 20 21 12 17 23 26 23 20 28 18 18 18 19 22 23 16 26 18 27 24 21 28 28 22 23 30 22 21 20 24 17 21 21 27 31 28 23 25 22 29 23 22 22 24 25 25 22 19 17 18 23 17 22 11 22 15 22 18 29 27 27 19 10 17 22 19 22 21 19 14 25 27 24 23 20 21 14 21 16 21 28 29 27 16 18 23 18 21 18 18 16 21 21 23 23 23 22 16 20 20 20 28 23 15 27 22 14 17 22 13 20 18 15 23 20 19 18 20 18 22 17 17 21 20 20 27 22 19 19 23 11 20 19 21 21 21 14 18 19 22 22 19 13 21 21 32 20 25 21 18 17 16 21 19 23 19 13 20 14 24 19 20 27 14 17 20 16 17 26 26 17 19 21 22 27 23 18 24 29 21 23 21 21 22 22 17 17 21 24 19 19 24 15 21 14 23 24 17 21 14 18 14 25 28 14 22 20 21 28 21 29 19 18 26 26 22 23 16 14 20 27 19 25 16 26 20 24 24 24 28 14 16 24 18 22 20 18 27 22 19 25 18 16 19 17 21 22 13 19 27 22 20 22 24 24 21 23 28 25 20 18 26 28 18 21 18 32 25 25 20 22 19 16 20 23 24 25 16 25 21 22 26 19 15 14 20 25 23 27 29 19 26 14 18 25 23 18 21 25 12 22 20 23 24 17 20 21 20 20 18 14 23 28 22 24 14 21 19 17 21 25 18 22 26 22 19 18 15 23 17 16 19 16 21 18 16 25 23 23 27 26 19 16 22 23 32 21 22 21 16 18 27 27 25 16 20 24 23 21 24 22 18 21 30 20 21 20 23 21 27 24 14 26 19 12 25 29 21 22 13 20 31 20 20 28 20 22 19 20 26 16 20 19 29 25 25 18 19 27 17 17 12 15 25 20 16 21 32 19 26 22 13 22 21 18 28 23 14 17 24 24 34 25 19 23 18 21 13 26 21 32 19 21 22 20 23 28 20 24 20 25 25 24 18 13 21 25 24 22 25 17 16 15 18 21 22 21 24 21 17 22 23 23 25 24 26 25 19 21 25 18 26 20 15 28 22 24 22 18 28 17 27 26 23 20 20 15 26 15 21 18 23 22 18 19 24 15 21 24 19 24 27 19 18 21 21 18 22 22 21 13 25 24 25 18 20 13 23 20 20 22 23 22 23 18 21 22 13 23 20 24 25 27 13 17 21 16 13 22 27 24 25 17 27 22 20 21 20 20 19 27 17 21 24 19 22 18 22 27 25 20 23 22 24 12 16 26 19 25 24 20 27 21 21 23 24 20 28 18 22 16 23 22 20 22 20 20 24 24 26 19 25 24 20 18 23 26 20 27 21 14 26 23 22 23 27 23 22 22 23 26 30 26 22 13 21 18 24 23 24 22 27 21 12 20 25 23 23 24 24 17 16 22 21 20 18 25 29 27 22 24 20 17 26 28 20 18 24 24 16 18 18 20 25 20 18 23 22 15 22 21 28 24 27 16 23 17 33 19 23 24 17 13 20 19 21 20 26 28 20 15 22 23 23 18 21 25 21 24 20 22 27 18 25 30 17 18 13 24 20 17 22 22 19 19 25 14 21 19 19 24 26 19 25 21 17 19 25 23 19 14 19 25 28 23 26 16 19 21 18 16 11 30 17 23 22 22 24 22 23 21 25 25 20 21 22 29 30 21 16 23 19 12 22 31 23 21 19 29 26 19 17 19 24 21 18 12 24 19 23 20 19 16 22 22 19 19 17 23 18 26 25 24 32 25 24 16 16 25 23 16 21 26 14 24 18 23 14 24 17 24 20 18 22 26 22 22 18 14 24 19 17 18 23 26 26 22 23 22 23 26 25 30 28 28 26 26 20 19 22 17 26 31 19 20 17 15 16 20 22 22 23 22 31 21 18 18 23 20 21 22 14 27 23 21 22 20 23 28 25 18 15 20 23 24 16 25 25 20 14 25 19 22 22 26 14 17 22 18 18 29 25 27 24 20 21 17 16 11 18 10 18 23 21 18 14 21 24 22 22 29 15 21 25 17 23 23 20 20 26 31 20 29 30 29 23 22 21 24 26 20 18 14 23 19 15 17 15 26 26 21 21 21 21 21 26 37 20 24 26 22 20 15 19 24 15 17 22 24 17 29 21 16 18 20 21 24 27 24 16 17 18 27 24 23 27 16 18 22 15 22 23 21 23 18 32 21 24 18 13 22 23 27 35 26 37 19 29 25 16 17 27 25 17 22 29 24 17 20 17 15 27 20 14 20 21 23 19 21 22 19 18 18 23 20 28 19 20 25 30 27 23 22 16 17 24 28 24 24 26 21 17 22 22 20 17 22 16 19 23 20 18 24 26 22 24 24 18 27 17 22 22 21 30 20 24 15 26 20 17 17 17 27 25 24 17 20 16 27 20 17 25 23 24 20 19 19 19 22 12 24 25 33 20 28 31 15 21 15 12 18 33 20 22 19 19 13 22 15 27 26 21 25 20 27 17 23 23 28 16 22 22 20 21 19 16 23 24 16 21 20 29 26 18 27 26 17 16 21 25 31 18 22 18 17 25 19 21 18 21 21 19 23 15 20 25 27 20 20 16 15 19 18 24 24 26 21 21 20 21 20 22 22 18 26 23 28 22 25 22 19 20 26 13 21 21 24 20 22 19 18 25 21 27 23 20 24 26 18 31 15 32 18 21 11 20 16 28 33 20 19 22 29 18 23 23 26 24 18 19 21 21 17 21 20 14 23 25 27 19 19 15 24 24 15 14 20 24 29 20 25 20 27 24 21 15 16 17 21 18 23 17 26 28 21 17 16 10 27 18 19 17 26 25 24 26 25 24 16 19 21 22 29 24 22 20 23 26 23 21 34 27 30 27 17 18 17 29 22 21 15 19 21 37 21 18 27 25 29 19 14 20 17 26 18 27 14 23 29 26 17 19 29 21 25 16 21 28 22 24 25 20 19 27 17 17 18 17 20 19 20 32 20 22 24 15 21 23 20 16 23 27 17 24 19 26 21 25 21 26 21 24 17 24 17 25 24 22 17 16 22 26 21 19 27 23 20 19 17 19 26 21 20 24 26 27 21 21 17 15 24 19 24 23 15 18 32 17 15 13 26 23 22 23 20 16 24 24 25 18 21 22 21 13 20 25 20 28 21 29 16 25 21 25 23 19 28 20 19 22 20 24 16 22 28 21 27 24 17 26 26 18 15 24 24 22 16 24 23 25 25 21 17 22 16 20 32 20 17 23 13 13 25 19 12 21 25 21 18 24 20 22 18 15 23 18 19 16 25 21 15 23 19 24 20 22 18 14 26 25 16 24 19 18 22 27 18 23 14 25 21 16 13 23 24 19 27 15 26 21 18 24 26 22 19 15 28 25 20 24 23 21 18 29 17 28 27 21 20 22 19 17 21 27 19 18 27 22 19 25 14 26 22 15 17 24 19 19 22 16 17 26 24 29 16 27 22 19 24 17 25 23 28 23 22 26 17 21 17 23 20 25 28 25 24 26 26 24 19 22 17 10 20 19 25 22 19 23 24 15 16 24 27 18 20 17 19 16 13 22 16 26 27 26 15 14 27 25 15 27 15 21 20 26 21 26 19 22 21 27 23 21 29 18 24 13 18 21 18 17 21 19 23 20 17 23 23 25 24 17 24 22 14 24 17 26 16 22 18 26 24 19 25 23 15 16 21 25 20 18 21 18 29 22 26 21 28 14 19 25 21 22 21 11 17 28 23 20 23 16 21 20 24 18 24 30 25 19 16 26 16 22 23 30 25 17 20 27 19 27 20 17 25 24 27 27 28 20 29 16 27 24 17 27 22 16 22 15 25 23 23 22 25 26 25 19 13 24 15 16 24 18 21 29 18 23 22 20 25 16 29 20 24 15 23 22 24 21 28 19 22 17 29 22 18 24 17 13 24 25 19 26 26 20 19 20 29 13 19 23 16 18 23 18 25 21 22 23 22 23 23 19 23 24 31 24 17 27 24 23 18 21 16 25 25 23 21 31 20 23 22 19 26 25 22 19 19 28 20 15 26 20 24 13 20 18 28 20 25 13 26 16 14 17 20 18 18 24 25 22 17 14 24 27 26 23 20 15 20 17 15 22 21 22 20 18 23 25 15 22 23 19 18 29 19 19 22 17 18 24 20 17 19 18 30 17 30 14 21 16 23 24 29 15 29 23 25 23 25 22 23 23 21 27 28 14 20 19 21 20 18 19 17 21 14 23 28 22 17 16 17 26 17 20 16 18 25 20 23 25 24 20 22 13 20 30 19 15 15 18 23 20 18 19 25 30 18 27 13 23 22 24 23 28 27 20 16 13 25 30 17 20 24 25 24 21 23 20 20 21 25 13 19 25 27 15 21 29 23 23 16 20 20 20 20 20 21 21 22 22 25 21 22 27 15 28 38 18 23 22 20 26 21 21 26 24 26 18 20 21 27 24 15 21 26 30 21 21 28 18 18 19 24 17 24 19 19 25 23 18 24 21 24 19 23 22 20 24 22 15 21 18 30 22 25 20 26 18 21 20 22 18 11 20 21 25 18 21 23 24 24 29 19 26 18 26 20 24 22 24 14 22 26 28 21 17 26 26 21 18 17 14 26 15 18 18 23 21 27 21 29 22 24 26 21 21 15 20 20 29 20 29 21 23 13 17 30 23 25 24 13 24 17 21 14 29 15 24 20 21 21 21 28 25 15 20 19 19 24 22 27 21 21 20 20 20 26 21 26 17 17 20 22 21 18 20 20 20 19 23 24 28 19 19 19 19 20 17 27 20 22 13 18 27 29 12 19 26 19 29 20 25 21 19 17 25 22 28 15 24 22 27 21 25 22 21 21 28 21 20 27 18 19 24 16 18 25 17 22 19 26 21 25 29 27 23 20 21 25 12 25 16 33 17 18 26 22 19 26 16 26 14 17 21 16 16 23 13 17 23 28 15 19 28 25 23 20 22 17 23 20 26 21 21 17 22 16 22 23 21 16 23 20 14 21 21 25 26 36 25 19 19 26 23 22 21 26 14 19 21 22 25 24 23 24 31 19 20 31 23 24 18 20 25 23 23 22 22 22 22 24 15 18 15 16 16 25 23 25 23 25 25 20 26 24 23 22 22 25 23 16 23 27 24 23 24 17 25 21 23 21 19 21 24 19 18 15 20 28 27 16 21 14 21 21 20 19 20 16 14 25 23 26 25 29 17 24 19 17 20 27 14 18 15 22 17 21 25 19 26 22 18 19 23 19 13 25 21 27 25 26 27 15 22 23 11 24 19 22 16 29 22 26 23 25 32 18 19 23 19 22 19 20 22 22 22 20 24 19 22 21 18 20 15 23 22 19 31 12 26 21 13 23 28 22 26 28 28 24 22 22 17 15 15 18 28 18 28 22 29 26 24 18 12 24 28 25 26 34 21 23 14 23 31 18 23 24 23 24 21 22 19 22 18 23 25 15 26 20 19 22 28 22 26 23 17 22 23 22 24 12 24 16 34 14 30 18 24 17 24 20 23 23 26 25 26 22 21 28 24 14 20 27 24 19 15 24 23 19 17 19 22 17 18 26 15 25 17 18 22 21 19 18 14 27 20 21 21 17 22 22 25 23 25 21 17 23 14 21 26 18 21 28 23 30 21 22 18 22 14 22 16 20 23 17 14 22 27 29 19 19 19 20 16 15 17 18 18 17 14 20 23 15 23 27 16 15 19 19 16 24 10 18 21 28 23 22 19 28 24 24 18 16 20 17 21 22 21 24 12 19 14 20 25 21 15 19 22 25 24 22 16 29 26 22 21 24 29 13 23 13 18 18 22 22 22 25 14 22 20 21 21 20 20 19 33 19 21 28 25 20 18 16 20 16 19 27 22 12 25 16 18 20 15 26 24 17 22 19 17 19 21 21 23 21 22 30 19 22 15 19 24 20 23 25 21 29 20 29 16 24 19 21 26 25 24 31 18 23 27 20 24 22 25 17 21 24 19 17 18 21 25 13 24 19 22 17 21 25 25 18 18 12 26 27 16 25 25 19 26 23 23 17 20 22 23 26 19 21 20 32 27 25 29 17 23 26 23 21 17 22 21 17 23 18 18 23 25 17 19 18 19 18 20 22 18 20 18 22 19 22 18 20 28 17 26 23 21 19 16 23 28 18 27 24 12 25 22 25 9 27 23 23 20 19 19 16 19 18 14 22 24 28 14 26 34 15 17 18 27 22 25 16 20 20 24 18 26 27 25 13 22 22 17 18 25 21 20 17 19 21 22 22 21 19 20 22 30 18 25 15 19 15 28 20 20 29 20 19 20 23 18 24 16 23 21 24 21 21 20 18 25 23 25 25 18 26 19 22 22 20 18 23 27 20 16 21 15 22 23 30 18 12 18 14 13 22 25 30 19 24 24 24 18 28 21 25 18 23 19 18 21 25 16 24 21 19 23 20 19 21 26 24 20 25 18 21 22 17 24 22 25 20 27 24 23 26 21 23 17 24 21 24 19 19 21 23 28 24 22 23 17 26 20 19 23 19 26 27 24 21 21 22 16 18 20 17 22 16 15 24 19 18 18 25 27 21 23 18 20 19 20 14 24 25 22 20 23 26 23 24 21 25 18 20 17 20 18 23 27 18 25 24 21 20 16 23 18 20 12 18 16 25 15 19 32 18 15 16 20 24 25 17 24 17 22 20 21 25 17 21 22 17 28 17 22 18 18 17 23 13 21 26 24 25 19 20 25 22 17 22 31 23 22 23 23 23 16 15 15 17 16 19 23 18 23 17 22 24 25 22 19 28 26 24 28 18 17 10 24 24 19 28 17 23 18 19 18 20 21 17 30 21 16 12 19 14 14 24 24 17 18 19 21 17 22 16 22 25 15 26 22 23 24 22 20 21 22 22 27 26 13 20 18 14 33 19 21 19 24 14 20 23 23 13 24 23 20 24 22 26 25 14 19 27 22 18 26 18 25 22 22 21 20 17 27 28 30 26 26 18 17 25 22 25 21 25 16 20 20 20 23 18 20 24 25 24 17 20 14 17 26 23 25 19 22 16 23 26 19 19 22 28 29 18 16 11 25 22 13 21 29 17 23 27 20 28 29 21 17 23 21 23 17 21 29 22 16 16 27 23 24 21 17 16 22 18 20 22 24 15 20 21 25 24 17 24 26 24 13 23 17 18 25 24 27 11 20 17 19 15 18 28 25 20 13 20 23 26 23 24 22 21 20 17 16 19 16 19 25 20 19 28 27 15 19 26 19 15 21 21 23 17 16 25 23 23 17 18 14 14 25 26 18 23 23 25 21 18 28 24 16 23 26 20 18 21 21 22 20 26 22 24 29 20 20 18 23 18 14 22 16 25 18 25 14 27 20 23 21 20 14 28 19 25 22 25 13 16 20 25 23 28 28 16 22 20 25 15 27 16 22 23 15 17 25 19 34 24 16 24 16 32 24 24 23 26 21 21 24 22 29 18 25 18 23 19 27 19 16 21 22 15 16 15 23 21 27 17 21 22 18 18 28 14 20 24 21 15 20 21 20 21 23 27 26 22 19 14 21 19 23 14 20 21 18 15 30 22 24 21 20 26 26 20 17 21 21 14 21 19 25 23 18 31 23 25 16 20 16 17 15 24 18 20 19 25 22 21 25 19 15 28 18 19 21 19 29 23 21 20 16 19 14 23 20 26 22 19 18 17 19 15 18 24 24 17 21 22 22 23 22 16 20 26 18 21 23 20 15 18 19 24 22 26 21 19 17 28 23 23 18 18 28 18 24 24 19 21 26 22 28 21 25 26 20 14 12 23 23 23 20 20 24 19 22 15 21 20 27 26 12 22 24 26 26 22 18 27 7 26 22 26 20 25 24 17 23 20 28 27 21 21 24 23 22 22 21 20 19 21 12 19 21 24 30 19 13 16 20 26 18 21 19 17 29 22 27 22 25 21 20 19 22 21 19 19 27 18 22 23 22 17 20 25 15 22 23 23 26 22 23 22 25 19 18 16 21 18 19 19 22 28 14 20 22 23 16 21 22 21 26 20 22 22 23 25 30 21 20 20 16 28 19 19 24 24 18 24 17 27 20 15 22 28 20 16 14 18 15 21 22 19 26 23 21 27 16 12 20 25 16 25 24 17 20 21 20 22 14 18 23 16 22 24 19 24 22 19 20 29 31 19 19 16 20 20 21 21 20 26 25 17 23 19 22 19 24 24 20 25 24 25 24 18 26 16 19 23 18 15 32 18 22 22 23 15 15 25 24 23 18 23 16 21 17 20 21 12 25 17 21 25 25 22 18 20 20 24 14 22 15 12 29 14 25 17 16 23 21 19 24 21 26 13 23 17 19 17 21 23 19 22 18 22 20 24 19 17 20 19 26 33 25 23 23 19 21 25 26 26 18 19 26 15 26 21 23 26 20 21 18 21 28 20 25 20 25 25 20 23 24 23 21 21 21 28 20 19 14 21 20 11 22 30 17 18 28 24 18 23 15 20 25 22 17 20 23 20 22 21 23 17 21 24 23 22 16 22 18 19 18 22 26 15 12 17 16 22 14 16 24 26 20 28 19 24 26 25 24 24 26 19 21 17 25 20 23 17 19 19 28 20 20 27 14 23 23 21 32 15 31 25 22 20 22 22 21 22 37 14 21 15 26 29 16 21 31 22 23 18 25 21 26 17 21 14 19 17 19 18 28 17 21 18 23 20 25 20 18 22 28 14 27 18 22 17 18 26 24 17 28 17 17 23 22 21 14 21 14 24 25 24 22 21 14 25 16 26 23 24 15 25 15 22 21 20 26 23 19 29 13 27 22 21 21 16 20 26 23 19 11 22 23 22 23 22 19 22 21 18 20 17 21 21 19 19 22 22 16 24 23 20 18 33 17 26 31 21 11 11 25 22 19 17 20 24 21 20 22 32 23 20 22 17 22 12 26 18 17 22 15 17 18 27 20 27 22 25 26 24 16 24 21 24 17 22 17 23 24 23 22 11 11 23 25 31 20 19 22 21 24 20 18 23 22 21 20 20 29 18 22 25 28 27 28 22 14 28 18 14 26 28 22 23 32 22 25 17 29 24 24 20 19 22 24 21 21 19 20 18 22 25 17 19 29 19 19 20 28 22 13 21 20 22 29 23 22 23 17 17 20 30 20 20 22 17 24 19 19 22 18 26 15 22 19 19 17 27 19 26 19 20 19 23 25 21 18 28 23 21 20 20 25 18 19 19 23 23 18 28 24 16 21 26 17 18 26 14 17 21 21 25 20 20 25 18 21 16 24 25 26 25 25 23 19 20 27 29 16 27 16 22 21 26 20 27 28 23 23 20 22 16 18 22 16 24 19 28 23 16 28 14 18 18 19 24 25 21 22 18 19 23 25 22 16 23 18 27 18 18 20 15 22 29 21 13 27 19 21 20 24 14 16 26 17 20 17 25 21 18 20 24 19 17 17 19 24 20 27 21 26 20 21 23 20 18 18 16 22 19 21 18 19 23 28 20 19 24 15 27 17 19 19 13 22 15 20 13 20 12 20 17 18 26 21 21 16 22 16 28 20 22 27 19 18 17 32 17 18 22 15 23 21 28 19 27 14 18 19 24 18 19 23 20 24 24 19 13 31 23 17 18 24 27 27 24 32 22 29 33 21 19 12 22 26 23 18 18 24 13 22 17 17 28 28 17 19 19 27 23 17 14 22 16 27 17 21 30 18 26 27 17 17 19 18 26 18 19 34 15 25 22 19 27 14 16 19 22 23 23 25 19 24 29 24 14 20 18 15 17 21 26 18 21 16 20 22 27 26 23 20 26 24 25 24 24 19 23 21 25 22 17 22 22 13 19 24 23 20 17 18 22 15 17 21 31 21 18 22 26 30 25 29 13 24 19 17 25 21 18 23 26 29 23 15 11 19 22 19 19 18 23 18 19 21 20 23 24 30 19 23 28 20 13 17 22 23 25 21 29 22 26 20 18 21 19 23 19 16 20 15 20 30 20 20 22 25 25 19 18 18 21 25 24 20 18 18 14 18 11 23 19 24 15 18 18 20 20 19 18 23 19 12 9 20 18 29 24 29 22 18 26 22 21 22 31 23 10 25 22 26 15 28 28 18 15 22 18 20 20 18 20 30 13 20 19 24 21 23 30 27 24 24 25 19 20 18 29 24 24 26 24 22 22 27 23 21 26 23 14 19 15 25 20 21 25 28 20 16 15 29 26 24 22 16 23 21 23 16 22 20 31 18 23 16 21 19 26 16 24 23 27 19 20 17 15 16 12 22 16 17 20 14 12 23 21 21 14 16 16 19 27 30 24 22 26 22 20 22 21 25 26 19 25 21 14 23 20 25 23 26 33 23 15 25 21 25 22 25 30 21 18 18 21 16 19 16 25 22 20 23 22 21 20 21 23 19 26 25 27 26 19 20 19 16 18 28 17 24 19 18 27 12 21 21 24 23 19 20 29 18 20 22 16 18 23 18 22 21 14 13 16 20 17 29 20 19 18 28 12 19 23 22 17 26 29 24 28 23 22 17 29 24 24 19 15 21 19 17 24 28 20 17 23 15 26 24 29 28 20 19 25 21 22 17 27 23 21 15 22 15 27 18 21 15 19 21 15 22 20 13 13 22 18 16 26 29 21 29 29 15 24 26 23 17 26 23 19 23 16 21 25 24 26 17 16 29 28 29 14 25 17 19 29 24 26 21 13 19 27 29 26 19 20 21 21 27 31 23 24 23 30 21 23 21 18 23 26 27 26 22 22 30 18 18 22 27 21 21 20 22 21 22 24 25 17 20 27 26 20 20 23 16 27 26 21 23 27 22 24 22 19 16 30 19 20 20 23 21 19 26 26 23 23 24 19 26 19 19 19 28 23 26 21 29 21 21 22 24 26 33 28 22 19 18 22 24 21 26 30 24 21 21 17 21 23 18 20 20 23 20 23 19 17 18 18 18 19 16 27 23 17 31 17 22 18 19 22 28 25 29 28 20 24 18 29 24 15 21 25 18 23 28 22 26 15 17 23 27 24 17 24 23 21 27 17 16 18 27 23 20 23 28 15 25 23 21 17 25 18 25 21 21 22 20 20 21 25 23 22 24 19 18 19 24 16 29 20 26 18 24 18 23 18 34 15 21 18 17 13 29 26 27 20 17 18 20 24 25 28 20 17 12 27 20 18 21 16 24 25 22 21 13 22 20 30 14 24 18 15 20 25 18 24 22 22 15 22 18 24 29 23 22 16 23 19 23 26 20 19 23 22 26 16 16 21 26 24 19 20 22 25 15 20 23 17 26 16 18 22 26 20 24 21 14 24 14 19 23 22 19 20 14 20 18 16 22 18 27 23 24 27 17 20 22 18 23 18 25 22 16 22 22 24 21 13 28 21 21 21 23 14 14 28 22 27 26 23 24 23 29 19 15 16 20 26 20 14 26 14 18 26 17 22 26 24 20 28 22 19 28 15 20 21 23 24 20 25 27 23 23 17 27 29 18 21 18 17 18 22 19 21 23 30 16 23 31 15 24 22 19 24 24 21 25 18 27 17 24 19 22 28 20 21 19 20 24 32 22 20 25 23 23 16 21 18 20 24 20 24 27 15 23 23 18 23 18 26 34 26 25 23 20 13 14 22 32 18 18 10 16 24 22 25 21 30 24 20 28 28 22 21 24 17 17 13 20 17 23 23 17 21 19 23 24 23 18 20 19 17 19 25 20 9 16 14 16 24 19 19 25 16 18 19 20 32 24 17 25 21 20 22 20 18 17 21 18 25 25 25 27 23 19 22 28 17 21 17 21 24 26 20 23 24 24 22 27 22 20 15 30 22 22 19 22 22 21 20 18 19 19 23 19 24 20 29 20 15 25 21 24 26 25 23 24 22 16 15 18 16 21 24 22 26 21 19 23 22 19 20 18 20 10 27 23 21 23 19 17 35 27 25 17 27 16 16 18 21 23 24 20 21 25 24 22 20 20 26 18 24 22 23 24 23 21 23 18 21 19 22 18 16 26 21 16 21 20 30 22 22 14 17 21 23 7 20 26 18 19 21 26 21 19 24 18 19 19 22 18 23 31 19 16 22 17 24 19 25 18 25 18 21 17 24 23 29 22 15 21 19 25 24 15 32 20 21 23 8 21 29 21 26 21 29 22 28 23 15 16 20 27 16 20 24 18 18 18 24 19 18 24 18 19 21 20 20 18 23 26 20 28 28 28 21 23 20 25 23 26 26 23 23 26 19 27 23 26 17 19 18 23 19 23 23 28 27 25 21 18 18 10 25 26 25 20 15 17 20 22 15 23 19 26 18 22 21 20 13 32 20 24 23 15 25 22 24 24 23 20 20 26 24 19 25 18 24 28 24 21 18 16 21 19 26 20 21 26 23 29 21 24 17 20 18 26 20 10 23 14 21 22 20 32 31 18 22 31 25 22 25 20 21 18 30 19 24 18 24 15 22 25 22 20 17 22 17 26 22 20 25 36 14 12 20 19 18 18 26 24 25 23 18 16 21 19 16 23 24 25 24 21 20 21 20 20 27 17 27 25 27 29 25 23 26 23 27 20 24 25 26 23 25 20 24 24 24 26 25 30 16 21 18 25 18 26 22 21 22 19 15 20 21 20 27 27 22 18 27 22 26 15 16 18 19 22 20 16 18 24 19 15 24 21 24 17 24 22 11 21 20 24 21 26 26 21 20 24 16 25 33 23 23 23 18 28 17 15 24 24 27 17 24 21 20 22 23 10 18 18 17 18 27 25 19 24 19 20 32 20 18 18 22 20 12 16 18 28 29 28 19 20 24 20 15 25 19 18 18 25 18 22 24 20 24 24 28 13 26 18 20 18 25 19 23 19 16 23 30 20 25 16 26 18 20 17 25 23 24 18 22 16 23 29 27 19 16 23 16 16 20 27 19 13 32 20 23 28 18 21 26 25 20 22 25 23 21 25 33 28 19 18 27 29 16 19 27 23 27 19 24 19 26 24 26 19 19 23 28 18 33 16 19 23 22 14 25 16 14 24 18 20 15 17 20 18 23 14 19 18 23 24 21 26 17 23 23 24 16 24 28 23 14 14 21 28 22 20 14 25 23 21 24 13 12 25 24 22 15 23 22 19 18 22 21 27 21 27 29 20 25 23 15 23 24 15 15 21 21 15 22 29 22 22 21 19 21 26 16 25 23 19 24 18 18 22 18 20 27 18 20 20 19 35 23 22 20 17 23 17 17 25 26 22 27 15 27 20 21 22 30 20 18 22 29 23 17 22 23 20 19 20 16 22 25 23 25 25 19 21 23 27 19 27 25 18 19 20 19 21 20 16 18 23 27 19 20 19 12 27 8 24 27 25 21 27 18 17 17 23 32 16 18 16 18 28 18 15 23 18 24 29 19 28 19 21 27 20 15 16 16 29 25 11 19 16 25 24 18 27 15 17 12 19 26 26 23 25 24 19 21 17 28 34 20 18 23 29 21 20 24 25 20 19 22 22 25 17 22 18 31 18 21 25 15 21 15 20 19 20 19 28 29 24 20 21 20 21 22 18 21 31 24 22 20 28 22 32 19 19 17 19 20 26 20 26 21 25 17 20 22 19 21 19 21 19 19 21 18 14 24 21 28 24 27 15 22 12 24 19 21 19 17 17 14 32 20 23 16 24 26 24 26 20 19 22 19 21 20 17 26 22 21 19 21 22 29 26 24 26 23 28 22 16 13 18 22 15 24 14 24 22 17 15 12 18 26 20 30 19 26 18 26 23 21 24 22 30 24 22 15 15 26 17 16 25 28 18 20 21 15 23 21 30 21 23 18 17 24 21 14 12 22 21 20 25 21 29 15 20 19 18 20 25 21 20 27 25 18 21 23 20 10 15 27 14 18 21 19 22 22 22 26 17 20 13 17 23 19 21 22 22 25 25 21 24 14 19 21 8 23 27 19 25 25 20 19 21 19 23 24 29 20 22 28 19 29 12 26 21 18 20 23 21 16 22 16 24 21 17 23 23 25 25 28 21 25 20 21 22 26 20 28 23 16 16 21 16 16 28 20 18 22 32 23 23 23 20 23 19 21 17 22 20 22 18 28 26 27 17 15 25 24 27 27 23 26 27 13 25 19 15 21 19 27 18 24 27 17 22 26 26 15 25 24 14 22 24 17 21 19 21 22 22 27 23 26 17 21 27 15 26 18 23 22 26 22 30 24 15 22 17 23 24 18 18 28 20 25 21 15 28 24 26 19 27 26 19 29 24 25 18 22 15 18 26 30 23 18 23 27 23 19 15 21 23 24 28 28 20 25 19 19 14 20 28 21 21 27 21 19 21 18 23 15 25 20 23 27 18 15 14 24 20 16 23 32 20 23 16 35 30 12 24 22 25 28 18 20 16 27 28 32 26 21 16 16 21 13 27 17 13 28 19 19 19 17 20 30 22 19 30 30 15 19 26 20 16 20 21 24 24 26 28 19 19 19 23 17 25 23 16 20 19 27 22 15 19 27 34 21 21 22 11 18 18 17 23 21 35 23 13 23 21 22 27 21 25 23 17 24 14 26 21 21 22 21 19 17 30 19 18 21 12 18 20 20 19 16 18 25 26 15 23 22 14 22 22 13 23 15 33 24 15 20 22 17 22 28 13 33 19 27 19 21 19 23 17 16 21 25 19 15 21 16 21 14 22 30 21 20 15 22 18 16 22 21 21 30 17 17 25 19 11 24 32 25 11 24 17 18 24 22 27 25 23 27 20 28 19 24 23 15 19 18 18 19 25 24 21 18 22 17 20 20 22 23 21 26 29 22 19 21 24 26 24 18 17 25 24 19 16 30 28 24 27 22 21 22 10 18 17 23 21 30 22 29 21 19 27 21 22 16 19 30 19 22 19 21 26 22 16 27 20 12 26 17 23 19 24 15 23 17 21 20 14 24 17 26 26 17 20 22 20 13 22 23 23 28 26 25 24 15 29 20 17 23 30 24 27 28 27 14 19 24 12 24 27 16 16 26 17 24 25 19 23 23 33 13 17 22 19 14 21 27 28 17 21 30 27 19 19 24 28 20 17 20 31 31 28 19 24 23 22 19 19 22 24 24 21 30 18 20 17 19 17 21 29 27 15 26 28 21 17 25 25 20 24 18 15 22 25 16 18 20 19 20 26 20 21 20 17 19 27 19 27 28 23 18 25 20 18 19 27 18 26 21 20 18 20 19 18 20 31 28 25 16 21 29 13 30 24 23 17 26 26 22 26 18 25 18 26 16 24 22 24 17 22 19 24 25 18 20 24 18 20 17 18 29 22 15 24 25 25 19 18 29 21 24 28 26 24 22 18 25 23 19 19 21 23 26 19 22 24 21 15 20 28 23 22 19 24 25 16 23 23 22 16 14 17 24 21 26 15 20 20 24 21 18 16 28 16 14 23 26 11 25 21 26 24 21 18 32 23 16 12 26 20 20 23 23 23 25 21 24 26 18 25 32 20 20 17 16 22 23 19 25 24 17 25 19 22 16 15 21 23 16 25 15 17 20 17 18 22 30 27 23 19 19 18 22 16 27 17 23 20 20 23 20 23 14 16 25 18 13 19 18 19 21 23 34 18 24 20 17 21 19 26 27 24 23 28 23 29 15 21 18 19 19 23 18 26 27 15 28 21 25 26 27 23 20 22 19 21 22 20 33 26 27 24 18 21 32 18 17 17 21 21 17 15 22 22 23 19 27 25 23 22 19 22 24 18 13 23 23 28 17 18 20 20 24 17 15 31 25 20 21 16 21 20 21 23 15 19 27 16 19 23 18 20 14 21 17 14 20 18 17 29 22 18 21 33 22 22 18 25 32 24 19 18 19 21 27 23 22 22 23 21 14 12 16 25 25 21 26 20 23 19 25 25 18 25 25 29 21 26 23 19 18 26 23 19 18 20 22 16 19 23 17 18 23 26 17 19 23 20 24 22 21 21 17 15 21 28 26 13 24 25 23 25 16 17 24 22 22 14 21 22 25 26 17 14 19 21 26 21 22 21 28 27 21 19 24 15 25 22 20 19 25 24 19 19 24 17 24 16 27 25 21 21 23 29 24 22 16 19 26 25 19 18 23 17 20 22 19 29 24 18 24 16 20 20 26 22 20 19 20 19 20 19 26 18 23 24 26 19 22 25 21 24 16 20 21 15 25 27 26 20 25 26 20 23 17 26 24 19 17 21 20 22 27 20 27 25 24 20 19 20 22 13 11 17 17 22 27 26 21 21 18 22 25 21 21 16 20 16 25</t>
-  </si>
-  <si>
-    <t>JSU(-4.117884246189613, 6.426601220307177, 11.582524449191602, 29.780707890201334)</t>
-  </si>
-  <si>
-    <t>34 36 35 35 34 30 27 26 33 36 29 34 33 34 44 30 48 26 25 37 21 33 30 39 35 43 37 44 30 35 31 25 40 27 28 31 26 36 27 35 35 41 35 38 43 31 23 24 35 36 32 28 33 39 42 35 31 31 34 34 39 40 24 34 36 27 31 31 22 36 35 35 39 33 27 33 38 37 38 32 41 37 29 34 33 30 38 34 32 34 26 26 24 28 37 37 30 31 38 30 39 29 37 34 40 35 35 28 45 40 36 28 21 31 27 30 28 33 31 35 28 29 36 28 33 37 21 35 29 45 23 42 41 34 32 29 29 41 28 24 29 44 27 32 30 35 21 44 31 50 25 37 27 30 42 38 34 28 45 33 35 26 28 32 28 31 33 30 30 37 30 35 27 32 41 31 28 37 30 33 40 33 39 30 36 29 30 36 38 35 27 38 22 27 40 30 30 33 28 37 33 29 34 37 31 35 35 24 33 43 26 30 36 41 27 37 28 28 27 40 29 26 34 24 30 27 27 36 33 34 27 25 35 24 40 34 34 27 32 27 29 33 26 29 31 22 31 32 36 30 33 29 34 38 31 28 30 34 38 41 48 28 38 34 32 30 25 32 34 25 28 35 38 31 43 44 29 50 41 29 32 28 46 27 37 32 44 24 32 34 32 38 32 35 29 26 38 30 31 27 31 32 35 31 39 34 36 27 27 32 33 36 32 19 19 26 24 40 25 26 42 29 26 35 30 38 31 33 33 34 41 37 35 45 29 25 36 27 31 37 35 36 32 33 35 27 35 39 34 24 24 36 41 30 28 26 28 31 36 30 31 37 37 36 44 24 42 28 26 23 54 29 43 27 31 34 38 22 28 35 35 43 20 29 34 39 27 34 33 32 36 22 34 40 22 33 34 32 33 32 32 33 30 25 25 21 35 36 33 40 39 38 31 36 33 30 43 26 41 32 21 31 28 23 44 33 30 38 42 33 35 36 30 40 34 33 19 29 40 35 26 27 38 36 30 33 32 30 38 33 29 31 29 24 40 38 32 22 34 38 34 27 28 24 32 36 34 28 28 27 35 39 41 32 35 30 28 31 25 31 34 31 24 33 24 41 27 32 34 42 31 42 40 36 27 24 31 37 32 29 41 27 37 37 31 36 32 36 26 38 29 37 35 39 25 35 25 32 36 31 29 43 38 42 31 33 38 26 29 30 29 40 34 35 24 47 27 23 32 34 38 29 21 46 30 41 29 26 33 26 32 37 42 27 31 23 17 35 37 39 34 30 28 28 27 34 34 40 45 27 28 42 35 37 33 25 41 42 34 20 23 27 29 21 28 26 29 27 20 30 31 38 32 36 38 39 32 35 34 36 32 40 34 32 40 37 25 29 33 26 40 42 28 25 39 37 38 28 17 26 33 32 33 35 38 52 31 29 29 29 24 45 30 29 33 22 32 38 35 28 32 40 38 36 26 34 33 32 27 33 32 38 21 32 32 36 36 29 13 33 29 32 23 34 27 33 28 31 31 32 28 40 26 38 29 29 33 35 29 29 36 32 41 29 39 48 24 33 31 30 35 26 40 25 30 33 31 30 27 36 32 30 33 37 32 42 26 34 32 37 31 35 37 34 30 25 33 36 34 34 27 36 36 33 26 41 25 33 45 28 23 26 19 26 26 27 46 39 27 28 21 38 29 35 37 33 40 34 24 37 31 34 41 36 32 32 29 26 32 33 22 30 21 23 28 28 35 38 42 32 33 22 34 29 45 26 41 32 30 33 36 28 31 29 33 29 30 33 36 31 33 25 35 28 29 28 34 35 24 27 25 23 38 41 29 35 28 34 42 27 38 32 34 38 23 36 31 31 29 31 27 25 33 33 32 30 40 33 36 32 28 33 30 22 32 35 30 29 41 26 31 34 28 34 35 38 32 30 31 39 32 44 28 31 30 45 34 36 34 28 32 33 20 39 49 27 30 39 21 24 32 31 27 23 33 35 27 33 35 29 33 32 34 33 31 30 31 31 29 32 34 28 41 34 34 34 47 35 32 30 35 36 39 32 37 27 35 22 27 35 23 36 37 45 39 31 33 35 27 42 34 30 39 31 32 28 38 44 26 33 34 18 31 24 28 40 35 36 30 23 29 27 32 33 29 30 26 18 34 38 25 42 30 33 24 32 25 38 37 34 38 33 45 22 39 24 29 31 33 27 37 26 17 30 25 33 40 28 29 27 28 38 29 32 26 21 33 22 39 34 30 37 41 44 43 23 27 34 35 35 38 33 33 42 29 39 39 30 37 26 30 28 32 36 29 29 39 48 34 37 31 38 36 25 38 32 26 32 37 48 30 40 34 42 45 27 35 37 31 38 33 40 28 34 31 40 28 39 24 29 31 26 38 25 31 37 25 25 28 41 34 23 24 38 40 42 43 32 27 36 31 36 30 32 32 30 20 40 34 31 37 32 33 28 31 29 27 33 30 30 28 38 28 33 32 28 33 40 34 45 31 28 36 40 27 25 24 36 41 32 24 25 36 39 31 26 37 32 37 44 32 27 34 24 37 40 31 30 29 32 32 30 33 27 31 33 30 23 28 35 36 30 27 34 31 26 30 27 37 32 37 33 30 26 29 33 27 33 30 21 29 25 27 27 38 26 25 27 32 34 30 33 32 32 35 34 32 26 25 41 20 29 37 23 39 32 33 30 33 32 41 39 23 27 27 31 36 36 42 26 36 50 32 34 28 31 31 45 26 31 28 40 38 29 25 27 33 34 30 24 34 36 34 23 20 33 29 36 26 32 30 27 26 30 29 30 30 29 38 30 37 30 29 31 27 37 29 33 30 28 36 35 38 28 33 29 41 33 39 32 22 36 31 38 34 35 25 31 30 27 30 23 28 32 17 27 33 31 39 27 33 32 32 36 36 35 30 34 35 30 35 28 37 26 34 24 37 43 37 27 30 24 25 25 35 33 28 45 24 33 34 39 31 42 30 26 28 32 25 34 36 34 38 30 24 25 27 44 40 35 21 29 26 24 27 23 31 35 25 39 32 29 30 21 33 34 27 31 32 36 35 20 30 38 38 30 35 32 32 28 31 23 25 29 34 30 31 26 33 38 34 36 32 20 32 27 28 31 35 37 22 26 28 36 31 29 27 30 37 23 28 36 27 33 45 31 35 31 33 32 31 38 26 36 26 39 25 28 40 26 28 43 38 32 34 20 21 26 44 33 34 28 45 33 28 40 30 34 36 31 36 29 26 39 39 33 28 26 31 29 32 32 29 28 29 40 23 32 31 29 26 34 36 32 33 35 26 33 36 25 27 29 39 34 31 34 31 31 46 29 27 36 39 30 35 39 26 35 45 20 25 37 29 22 23 31 34 32 44 20 33 34 35 39 28 34 43 25 21 19 35 26 29 24 37 29 35 27 22 34 25 30 26 28 39 26 24 40 29 31 33 26 29 35 31 25 35 39 44 39 34 37 36 33 33 26 26 27 25 36 30 28 34 26 32 29 30 23 22 25 37 29 29 44 41 30 26 46 37 37 31 42 36 38 33 21 33 35 35 36 33 34 32 26 31 30 23 29 36 31 34 30 30 31 29 31 38 26 34 51 28 33 30 36 31 43 32 30 38 28 37 24 36 37 28 39 26 29 25 28 36 37 36 41 34 25 35 23 37 37 31 30 34 41 37 26 36 24 25 29 28 42 29 35 39 27 40 29 26 34 45 26 26 33 34 33 32 25 33 31 36 33 35 35 20 27 37 30 33 30 25 24 31 31 44 28 35 29 27 29 33 36 21 34 41 31 27 30 31 22 35 45 26 41 23 37 39 27 25 34 25 31 38 43 42 22 32 27 27 31 41 30 35 28 32 30 32 32 35 29 37 35 28 23 20 40 21 27 29 24 36 37 30 32 31 25 21 31 32 41 32 23 26 28 29 35 23 37 28 28 41 26 25 37 33 31 25 33 36 25 37 35 31 33 30 34 40 34 26 38 28 29 31 25 24 39 36 42 29 38 32 30 40 34 38 32 39 39 36 31 28 27 30 26 36 32 32 29 36 17 31 30 41 36 25 26 34 37 28 42 32 28 37 29 25 30 25 30 34 23 36 36 35 36 38 32 31 32 29 26 32 26 29 33 39 35 28 34 33 26 39 25 34 40 25 36 29 42 23 34 34 29 32 30 33 40 33 26 32 29 28 38 21 33 34 26 44 33 34 32 31 32 24 25 29 33 26 40 28 30 28 40 38 34 31 31 36 28 44 28 42 32 34 30 28 26 36 42 24 21 41 28 40 44 29 23 31 32 36 41 34 30 21 36 29 30 33 37 29 34 30 40 28 38 24 47 39 30 33 39 33 34 25 26 32 37 32 35 40 34 36 31 30 36 26 30 37 41 33 38 30 35 30 45 36 24 32 28 26 29 34 49 33 32 42 38 25 21 37 24 34 24 23 30 35 34 36 33 36 32 30 31 30 47 36 37 27 28 33 44 30 33 37 31 29 31 28 25 26 33 32 29 32 30 37 30 24 30 40 23 32 30 38 19 32 30 44 38 32 26 37 29 34 25 29 30 30 33 33 20 24 39 23 30 30 34 30 28 30 38 29 36 33 23 39 33 29 32 36 33 31 31 27 40 26 26 33 41 37 37 29 27 35 36 35 34 37 37 37 31 25 46 35 26 31 25 32 32 39 37 27 34 34 26 22 32 30 29 32 32 30 34 34 28 23 43 34 26 35 30 31 39 35 37 29 31 36 25 35 29 28 21 26 28 31 32 45 37 37 30 31 34 35 26 30 33 32 25 29 29 33 30 27 37 24 29 18 30 38 33 33 23 29 19 27 40 30 34 37 31 28 43 27 34 42 26 37 22 30 36 20 39 36 21 27 28 30 30 39 32 34 43 36 34 34 31 30 41 35 29 25 38 34 29 29 30 24 24 24 31 40 27 30 42 32 32 26 23 26 33 22 26 41 31 46 39 47 29 39 33 34 47 39 30 37 19 25 35 31 37 39 30 41 32 44 31 35 28 25 34 28 30 29 36 27 35 29 26 38 38 23 37 38 26 26 32 35 32 35 34 28 46 31 38 24 33 33 25 28 26 27 36 34 26 27 30 20 29 29 28 47 35 27 27 35 26 37 29 30 32 35 23 34 24 29 31 27 31 45 33 44 48 25 34 28 42 35 30 32 33 24 33 53 24 28 45 30 32 35 31 31 32 30 34 32 30 30 31 35 38 32 36 36 33 29 34 32 29 46 20 26 24 30 31 30 26 33 31 33 37 29 32 32 32 34 29 41 32 33 38 34 25 38 27 29 25 32 30 34 30 31 28 31 28 30 30 37 58 27 31 30 33 27 26 37 29 35 33 31 34 29 30 33 31 28 30 32 45 24 35 40 27 32 26 32 28 36 32 34 29 29 36 27 26 32 28 38 32 38 30 34 20 27 38 33 40 36 23 26 25 35 39 34 37 41 29 38 26 35 31 30 31 27 31 30 33 35 34 27 41 32 25 31 36 33 46 19 42 33 37 31 34 41 36 36 27 35 40 28 29 33 25 42 32 34 28 33 38 29 31 27 27 33 28 45 33 30 34 29 27 25 30 28 30 40 21 37 31 23 28 32 36 32 38 34 36 32 26 32 30 23 20 34 33 32 33 33 42 32 29 35 36 31 29 34 35 34 34 29 36 33 30 42 30 32 30 20 33 28 35 23 32 24 39 29 42 24 34 28 35 27 38 35 31 34 25 41 43 32 33 35 37 38 36 31 27 46 29 38 41 43 23 29 37 32 31 32 40 38 29 33 22 40 36 30 41 28 36 35 38 25 26 25 22 28 30 34 39 29 32 34 38 43 25 30 33 38 27 26 30 27 30 32 37 31 33 18 43 31 32 30 35 32 34 30 32 23 31 35 36 36 28 28 39 25 22 30 38 33 43 24 30 29 25 36 36 33 29 29 33 33 23 36 35 32 30 37 26 26 27 35 30 34 31 33 38 30 26 32 30 37 37 38 26 34 28 31 37 29 30 26 28 30 32 29 32 29 32 33 38 21 29 29 28 30 32 37 33 35 27 33 28 41 34 43 32 26 38 29 22 26 37 31 30 26 29 33 32 38 34 33 27 33 29 37 33 32 36 40 33 25 35 31 29 33 27 22 33 26 39 28 33 39 31 38 36 19 35 21 39 27 34 29 31 27 43 18 41 26 35 37 38 26 22 28 32 35 32 51 30 33 30 30 29 28 25 20 35 39 29 35 33 36 26 27 36 26 26 28 33 32 39 32 35 25 27 29 22 34 44 29 28 27 29 38 26 31 29 34 32 37 30 33 35 27 41 33 36 33 38 32 34 27 36 32 29 34 37 29 42 42 33 29 40 34 31 24 30 41 26 35 26 23 31 29 23 31 35 36 33 37 45 33 30 26 27 30 35 36 35 29 39 37 30 38 40 29 35 43 37 33 33 31 25 29 32 30 45 35 31 32 30 36 35 31 32 32 35 37 36 29 25 26 31 30 31 20 30 23 31 25 35 39 41 23 18 28 38 29 32 28 24 25 35 36 35 33 33 34 26 28 28 33 43 39 36 27 30 27 30 31 28 37 30 34 28 31 35 36 40 28 26 32 31 37 28 28 33 32 23 28 30 22 31 31 24 32 38 25 33 29 37 34 30 27 28 39 31 41 27 27 25 36 24 28 26 40 26 27 27 36 29 38 29 29 18 30 31 49 30 31 35 30 27 32 34 31 28 30 17 29 19 35 28 24 41 27 32 28 38 29 39 37 25 32 30 35 38 29 31 30 43 26 33 36 31 32 40 25 32 33 35 27 32 34 35 39 24 33 36 25 31 29 30 27 37 42 19 32 28 31 36 27 36 26 28 36 36 30 34 29 28 27 44 33 41 26 42 31 38 44 41 36 19 29 29 31 31 29 25 37 32 35 32 25 28 28 32 35 30 25 25 36 31 29 35 34 38 33 31 41 41 31 28 41 43 34 29 26 42 37 36 31 31 31 34 31 27 38 39 27 36 29 34 41 30 34 28 34 36 37 36 40 28 39 27 27 32 36 29 36 33 18 31 29 41 39 26 29 30 24 32 27 23 36 35 28 35 29 29 34 31 33 31 33 34 43 35 34 34 29 34 30 24 27 35 36 30 26 37 34 37 37 33 28 25 33 35 39 34 28 30 25 29 39 38 30 28 28 36 30 40 33 34 30 29 43 32 38 23 36 32 39 33 24 36 38 28 37 47 27 33 19 24 49 35 29 44 32 32 28 29 36 29 34 28 47 34 37 28 28 46 27 28 27 30 38 36 31 32 45 29 45 31 21 34 31 23 38 31 17 28 35 41 56 34 32 39 31 33 23 41 33 45 30 35 34 28 36 41 29 38 27 36 32 31 27 25 29 38 30 38 36 25 27 26 24 31 34 29 32 37 25 31 39 33 28 41 41 35 27 34 35 32 35 27 23 37 34 33 37 32 41 36 37 33 33 26 28 22 38 34 30 27 29 29 27 35 37 23 34 34 30 32 37 27 29 30 31 31 34 27 34 28 35 36 36 27 28 34 39 39 25 36 31 34 32 26 27 30 24 32 28 36 37 39 18 26 32 28 24 28 36 33 35 25 40 34 34 33 31 30 35 37 33 32 31 37 34 28 39 43 36 34 28 29 40 21 22 37 33 34 33 33 38 33 29 34 32 39 39 30 39 27 35 28 31 31 29 29 30 37 34 26 40 33 36 27 32 38 33 41 32 21 38 36 28 36 39 37 31 33 31 30 37 29 44 23 35 24 35 30 31 26 34 32 20 32 33 31 32 36 37 28 28 34 30 26 24 37 41 34 36 42 32 24 37 44 28 29 38 38 24 21 27 38 40 33 25 34 31 23 33 31 42 40 35 21 33 29 44 27 36 39 26 18 38 29 29 43 36 37 26 30 35 37 32 31 31 30 36 33 27 30 33 24 36 43 28 33 27 28 32 29 28 30 32 33 33 26 28 34 29 33 35 29 33 36 26 28 37 32 32 17 35 33 48 31 35 26 25 32 27 24 20 41 22 36 43 41 38 35 34 40 33 36 31 31 34 41 35 35 27 32 36 26 39 38 33 33 30 40 40 29 32 31 32 29 30 19 43 33 39 34 29 27 36 33 39 27 35 35 30 38 33 37 46 37 33 33 29 30 38 23 31 34 23 36 27 36 21 43 28 30 31 29 31 34 31 27 26 22 32 28 26 29 35 41 36 28 35 32 32 36 40 40 31 39 39 35 29 28 38 29 38 53 25 32 29 22 23 30 32 31 41 39 49 29 25 27 30 37 38 34 21 40 31 35 27 35 35 38 39 25 28 31 33 35 24 37 30 22 26 44 28 33 35 29 20 27 36 29 31 40 39 38 29 34 34 21 26 24 25 28 28 38 31 29 21 33 35 36 32 45 31 39 30 28 34 30 30 28 28 37 28 35 37 44 38 27 31 35 31 28 34 24 36 36 25 27 33 38 36 32 32 35 28 35 40 48 25 29 39 34 30 24 27 47 22 27 34 41 26 34 31 38 28 39 34 30 37 32 27 29 28 36 34 30 40 28 28 37 23 37 42 33 37 29 42 34 38 36 18 38 34 32 45 37 50 33 44 36 19 30 40 39 22 26 43 40 32 28 29 23 36 31 26 35 37 26 27 28 33 30 30 24 34 31 33 31 32 32 48 30 29 30 35 29 28 44 37 37 40 34 35 30 25 30 28 40 29 28 35 31 34 31 35 28 30 40 29 34 29 39 32 28 42 31 31 19 38 32 20 27 31 37 31 38 33 33 28 43 29 25 40 39 37 38 25 31 37 35 24 32 40 43 36 41 39 28 32 25 19 29 45 40 28 33 33 19 33 23 38 38 35 31 31 40 30 29 34 40 21 38 30 32 33 34 22 30 32 31 33 34 40 35 25 49 32 30 32 31 34 38 31 39 26 23 37 33 34 33 35 31 39 34 21 26 35 39 31 40 31 26 28 24 38 31 40 28 28 24 30 30 37 35 38 34 28 41 33 35 41 27 29 43 24 28 27 37 30 32 26 27 34 30 43 34 32 35 33 23 51 28 39 32 29 26 34 25 41 47 33 28 30 39 36 32 28 42 36 24 25 35 33 27 29 30 28 38 35 41 28 28 16 35 29 25 31 30 33 42 28 27 34 39 27 31 20 23 32 31 29 38 32 34 40 29 27 29 24 39 25 28 34 38 37 31 32 37 33 28 29 33 30 40 41 28 38 32 37 33 38 45 41 45 32 28 25 27 44 31 29 21 28 40 62 34 24 41 35 39 41 27 33 33 33 35 34 36 33 42 34 26 25 37 29 32 29 33 44 32 37 35 26 32 35 31 30 25 26 27 34 36 44 30 31 36 29 25 28 34 29 35 33 28 37 25 41 39 37 26 37 36 36 30 35 24 37 31 29 30 26 35 52 27 30 32 35 33 37 28 27 33 36 25 34 35 35 28 28 35 29 36 30 35 27 27 25 47 25 28 21 40 42 36 32 26 31 32 35 33 35 30 37 30 22 30 40 39 35 33 45 23 33 26 34 38 32 38 31 30 41 31 39 32 30 39 35 36 34 19 34 46 35 24 40 33 27 28 33 35 44 35 27 27 30 23 25 44 23 26 37 23 30 42 35 23 31 31 30 32 33 29 33 23 24 29 30 26 24 39 30 21 36 28 34 32 28 31 30 35 39 29 33 28 28 35 40 28 37 20 35 30 30 21 34 30 32 35 20 33 31 30 33 30 39 34 27 48 33 29 33 36 29 21 47 26 44 33 27 28 31 28 33 36 35 31 32 43 31 32 41 25 36 37 20 25 37 27 34 32 27 24 44 32 36 25 32 30 31 35 25 44 31 34 44 30 33 26 33 26 32 36 37 38 37 41 34 37 31 23 31 34 22 26 32 39 26 29 40 30 29 22 50 45 31 35 31 27 25 29 34 31 34 38 39 30 24 44 37 26 39 24 38 30 37 32 36 30 30 37 41 32 39 37 27 36 22 34 37 30 22 37 25 33 34 30 30 34 27 34 24 31 31 23 35 28 33 25 33 34 29 36 28 33 43 25 26 32 30 34 29 36 28 39 36 38 35 41 19 29 36 31 33 39 24 28 36 41 27 32 33 26 27 36 29 34 43 32 33 25 36 21 30 34 41 37 26 24 45 35 43 29 29 30 42 35 36 35 34 44 21 35 37 24 43 29 27 38 22 37 34 32 33 35 37 40 34 25 40 25 27 38 37 35 38 29 35 27 32 36 27 41 29 34 32 34 28 40 29 45 29 33 29 42 31 26 39 37 19 32 41 37 36 34 32 27 31 38 22 27 37 22 31 31 26 35 28 34 38 30 33 30 23 36 30 39 32 31 33 36 37 35 35 25 36 34 42 27 46 28 33 34 32 38 33 34 35 32 46 33 27 35 33 35 21 30 25 34 32 40 28 35 29 30 29 32 29 23 41 35 34 28 26 29 40 43 31 29 33 33 26 31 36 31 32 32 31 30 41 24 32 39 39 26 47 25 36 35 21 27 39 29 29 30 21 38 34 46 28 36 26 30 30 42 27 40 42 32 32 37 28 28 33 37 33 39 21 30 33 34 28 24 25 24 35 18 36 35 34 31 24 33 36 28 29 24 25 32 31 34 37 32 38 33 21 32 40 29 25 22 34 29 28 26 28 35 39 28 31 24 37 32 34 30 45 34 28 22 23 37 43 38 32 33 36 34 28 39 28 30 29 36 23 30 41 39 23 35 41 34 28 23 38 34 26 35 30 34 28 34 31 39 31 32 38 28 37 46 32 35 28 32 33 32 32 40 40 33 29 29 28 38 42 32 31 38 39 29 33 34 33 25 29 40 35 40 29 23 40 31 24 40 26 38 28 35 34 46 38 32 28 35 21 38 29 34 33 31 30 35 29 28 28 20 29 38 37 27 28 37 31 37 45 34 37 28 38 28 39 32 37 26 40 38 39 25 34 34 34 40 31 23 25 34 26 26 30 30 36 38 26 33 38 30 32 26 30 26 35 32 38 25 49 35 36 22 24 49 35 36 35 21 35 26 28 24 36 35 36 27 32 38 30 39 39 23 28 26 36 39 37 36 32 28 31 31 38 42 34 36 23 23 29 35 26 25 31 37 24 29 42 30 39 25 33 31 33 25 27 34 27 34 23 31 37 38 20 29 37 24 37 34 37 27 26 23 33 30 40 22 32 32 42 33 38 35 35 40 42 29 28 39 29 32 39 26 30 30 23 33 24 39 27 36 39 37 35 37 38 28 28 34 25 46 31 26 30 30 31 37 36 34 32 31 34 24 25 30 25 23 31 53 34 24 39 37 33 30 30 23 39 31 38 35 36 29 32 26 35 34 28 21 29 24 23 28 33 37 37 42 41 30 27 37 34 35 33 30 23 27 31 30 30 36 35 35 39 27 33 49 35 38 23 24 34 37 33 37 33 31 33 43 23 39 34 29 31 31 32 37 33 39 36 29 41 32 45 27 36 44 40 22 37 46 30 30 32 25 32 30 29 33 30 27 34 27 24 27 26 42 39 31 30 25 41 29 36 29 34 29 21 33 34 38 35 38 27 36 26 28 30 37 27 24 28 38 30 29 38 33 40 35 31 31 34 30 21 29 32 33 34 42 32 26 31 31 23 36 27 33 27 42 42 34 33 36 43 29 26 33 24 36 24 33 30 40 31 34 38 29 33 28 29 28 24 35 35 39 36 20 40 29 19 37 44 36 38 36 34 30 34 32 30 25 21 28 31 24 35 35 38 36 32 34 19 35 34 40 38 50 32 33 27 33 49 33 34 33 28 39 34 27 32 30 29 37 36 22 34 39 25 25 39 29 36 34 29 34 32 32 29 25 35 23 42 27 44 33 36 28 38 30 31 38 40 42 36 26 38 44 32 27 34 35 36 31 29 33 39 26 26 28 32 35 30 38 28 42 28 32 32 32 35 30 28 37 30 34 31 31 35 34 37 43 40 36 29 35 25 28 36 25 39 34 35 45 27 33 28 29 22 34 21 33 33 26 22 30 40 41 33 26 30 32 25 27 30 22 31 30 35 24 37 31 33 38 25 24 27 34 28 42 25 28 33 42 42 36 32 40 36 32 25 26 34 25 26 29 30 40 26 30 23 28 35 29 25 33 31 37 32 30 26 41 42 30 29 36 40 28 27 22 30 28 40 36 35 33 24 33 30 34 32 27 30 23 48 29 37 44 34 29 28 28 42 22 25 43 33 21 31 25 23 31 22 36 33 31 38 27 33 25 31 28 38 35 29 40 29 34 27 25 36 28 39 37 34 41 33 43 24 38 27 32 45 37 42 46 26 31 39 38 42 32 37 26 34 41 32 25 28 33 33 25 40 28 44 26 31 44 33 26 27 17 33 39 25 37 32 33 39 30 37 31 32 27 34 35 25 31 33 49 36 31 46 29 34 33 31 38 24 37 33 32 30 31 28 34 39 28 30 30 26 28 33 32 27 33 29 36 27 37 33 30 35 27 37 40 38 35 34 32 39 27 35 35 26 35 32 33 14 31 33 29 26 35 28 19 37 27 24 30 35 47 21 33 37 30 28 29 35 33 44 31 33 31 39 31 38 45 33 24 33 29 34 31 35 36 35 25 30 30 36 34 27 27 24 40 45 37 38 28 27 29 38 31 34 43 26 26 28 33 25 34 21 26 45 36 34 29 31 21 44 32 36 34 30 36 29 33 33 29 23 32 35 31 24 28 27 36 33 41 42 27 25 30 25 35 36 33 31 33 35 37 36 36 33 32 34 29 28 31 27 34 29 40 31 34 29 34 32 30 43 32 29 42 31 31 34 31 34 35 36 31 35 36 34 44 31 29 24 30 26 45 34 29 31 32 43 39 33 36 25 37 31 33 36 29 36 40 36 30 36 34 25 23 27 22 30 31 26 38 39 33 28 41 39 34 40 31 34 27 29 27 39 34 29 25 36 40 32 38 36 35 29 28 32 33 31 36 35 28 39 41 31 26 30 32 27 37 28 29 29 30 26 25 47 29 28 28 30 38 36 25 32 28 31 30 35 45 28 29 29 26 45 30 28 24 28 28 26 21 35 41 34 35 28 29 35 33 35 32 44 31 39 34 31 45 25 28 27 30 21 35 34 32 31 30 32 37 35 28 27 41 37 33 43 32 22 26 34 33 34 41 30 34 28 30 24 25 31 28 42 32 26 20 35 19 19 30 34 27 30 25 30 27 34 25 43 36 30 31 32 35 35 27 28 32 31 29 37 40 27 35 41 22 48 29 28 31 33 24 29 36 35 18 37 34 36 42 29 28 37 23 31 34 29 27 36 33 31 36 36 30 31 36 35 44 38 38 33 29 29 41 29 32 32 38 29 31 35 29 40 26 34 36 37 35 26 35 21 32 37 37 48 25 36 24 39 39 26 29 33 46 37 32 29 26 29 31 19 26 43 31 31 33 29 38 36 35 22 32 33 34 26 32 42 34 29 24 32 32 37 31 33 25 33 30 34 34 34 27 38 29 40 30 27 32 35 41 26 35 30 34 38 39 35 21 33 21 35 24 28 40 36 27 24 33 27 34 33 33 28 29 29 26 20 29 23 34 36 36 26 46 39 33 33 34 27 27 33 30 36 30 31 32 40 34 28 34 26 24 33 35 44 37 31 38 34 28 36 43 26 44 39 32 25 28 28 34 29 38 36 38 49 30 36 32 34 36 32 38 25 40 27 35 32 40 26 38 35 27 25 36 29 41 36 37 20 25 32 35 33 42 36 28 27 32 35 28 40 26 35 31 28 25 43 27 39 41 27 30 28 44 31 30 33 39 30 44 31 25 42 27 30 26 33 28 38 31 26 27 36 28 22 20 32 39 43 35 34 32 34 36 45 29 30 37 28 26 35 31 33 29 27 40 40 39 29 22 30 31 33 24 31 33 29 24 41 40 37 41 33 40 33 38 31 28 30 34 32 32 37 31 26 40 32 42 26 32 22 23 24 40 32 29 24 36 25 32 29 27 26 33 38 32 31 29 45 39 32 27 23 25 23 35 28 39 34 30 30 29 28 37 29 39 34 24 26 28 30 41 37 24 31 31 25 34 34 38 23 27 35 35 30 40 31 32 26 39 30 28 40 28 38 27 39 38 24 31 38 33 39 29 35 42 25 25 23 31 32 29 30 28 43 30 39 31 32 38 43 34 28 36 35 37 46 30 29 38 18 37 31 36 35 30 33 24 37 25 36 34 29 27 36 31 31 37 37 28 27 36 19 33 29 42 39 32 24 24 26 38 37 32 34 31 37 33 39 35 38 36 30 24 36 31 29 27 37 37 29 34 37 29 36 33 25 34 35 29 34 36 28 33 34 34 31 29 31 29 29 28 28 42 28 28 31 29 30 28 28 39 33 33 31 32 31 36 39 38 25 34 26 37 31 29 35 37 23 35 34 37 31 28 32 43 27 24 23 27 24 34 33 23 41 34 27 37 30 30 33 36 31 30 35 30 33 31 33 32 24 27 32 25 31 30 37 40 29 30 30 35 39 28 35 32 29 28 27 36 37 36 40 31 36 28 30 27 42 37 37 38 36 42 35 31 32 30 27 33 30 26 47 24 31 32 27 27 31 34 38 33 34 28 23 33 26 27 36 27 35 30 29 41 40 26 35 32 29 38 24 32 26 28 40 26 31 27 21 34 34 29 30 29 37 26 29 36 32 26 34 28 29 33 24 32 30 39 28 27 26 27 37 46 35 35 31 33 23 38 32 38 37 31 32 25 34 29 30 37 35 39 29 33 41 29 31 33 34 34 27 34 31 36 29 25 30 36 39 32 29 34 32 18 35 46 28 26 39 34 29 37 27 34 35 33 26 33 31 28 36 39 32 29 30 36 37 32 32 29 26 27 32 26 33 28 18 36 23 32 24 22 32 44 33 40 35 39 43 32 36 35 39 36 35 30 32 33 40 30 36 29 36 29 36 37 28 33 35 34 40 25 45 45 28 32 35 30 30 28 51 20 37 31 29 38 23 31 41 29 39 28 32 25 34 27 33 22 26 30 33 32 35 25 34 29 35 27 38 32 29 30 44 27 42 24 29 30 28 37 35 23 37 26 27 33 26 29 23 31 25 33 38 35 29 30 25 33 24 35 39 42 26 34 26 30 33 29 37 31 27 50 29 50 39 31 27 28 30 33 32 30 23 33 33 29 34 30 39 30 34 29 28 22 32 34 36 30 29 35 28 33 30 33 29 44 28 33 41 31 25 28 33 39 28 27 33 36 37 39 31 38 33 33 35 23 35 31 43 25 24 33 26 30 29 38 29 40 37 38 39 33 32 33 36 36 32 29 29 32 45 32 30 18 22 31 42 37 26 26 39 33 28 30 23 32 28 31 36 28 38 26 38 34 41 36 40 31 21 41 24 25 37 44 39 36 44 38 36 37 42 41 30 30 23 34 37 38 27 26 32 34 33 32 26 32 46 28 26 28 44 34 29 31 30 34 39 33 34 28 30 30 31 38 32 32 34 28 37 25 30 34 28 37 26 34 32 32 25 35 28 36 30 30 26 33 33 31 27 40 30 34 30 33 38 34 33 30 44 28 26 37 30 26 37 33 26 27 34 22 36 31 29 35 32 27 38 24 35 32 32 34 34 38 34 34 25 35 38 42 22 34 22 37 30 41 26 37 39 35 33 31 35 28 30 35 22 37 27 39 33 34 40 15 24 28 25 33 37 35 36 29 26 38 37 38 25 32 28 32 37 24 30 24 30 45 34 28 33 32 36 34 35 24 30 32 23 30 29 45 35 35 33 28 33 24 26 35 38 28 43 33 31 32 27 35 28 22 26 25 33 30 37 26 27 42 37 29 29 35 26 39 23 25 32 19 34 25 29 25 29 27 27 23 37 28 32 33 25 35 26 39 42 37 43 33 29 24 43 30 33 40 30 38 30 40 30 40 20 28 28 41 33 33 31 29 34 32 27 25 51 34 26 30 36 36 36 37 46 33 37 46 31 32 23 39 42 37 27 30 39 16 35 27 23 41 33 37 33 29 46 29 22 19 29 30 32 24 33 43 27 38 43 29 22 39 28 37 29 26 43 19 36 31 29 39 28 26 33 32 30 35 30 30 35 38 38 30 29 28 30 24 33 37 31 30 25 34 30 50 39 33 30 40 30 38 34 39 34 31 38 37 25 34 35 29 22 35 35 36 30 28 27 31 29 27 31 50 29 26 35 42 40 41 37 25 36 27 31 36 33 37 43 30 46 44 26 26 29 35 27 30 28 33 34 27 31 34 34 34 46 32 42 38 28 20 25 30 37 32 32 40 31 36 35 34 33 28 34 29 25 34 26 33 37 23 25 41 36 38 27 32 26 39 31 30 29 29 32 18 29 21 35 31 33 24 26 30 32 31 34 28 35 30 22 27 31 33 39 28 37 34 28 35 34 35 42 46 31 22 41 29 35 29 42 37 33 37 30 28 30 37 31 32 40 25 26 24 34 38 27 40 47 36 40 37 30 31 31 36 34 29 37 34 29 36 43 34 33 37 29 28 28 34 42 27 29 31 39 29 21 26 42 30 30 34 27 36 31 28 30 28 31 39 27 30 28 29 29 36 28 40 31 36 26 34 26 22 24 24 32 25 33 35 30 21 29 36 31 30 26 22 34 39 59 36 31 42 29 22 40 35 37 50 25 45 25 26 31 28 33 39 34 40 33 28 31 34 30 36 36 38 32 28 27 34 30 30 23 31 32 34 33 38 34 30 34 33 31 41 36 40 37 28 30 32 26 25 46 29 31 29 28 37 20 32 27 44 34 36 35 48 22 29 33 17 24 32 29 35 32 25 25 24 31 23 36 28 27 28 41 23 30 37 32 25 36 35 31 47 36 34 29 36 33 31 30 24 34 29 29 29 42 30 33 28 31 32 38 45 40 40 27 36 27 36 31 41 32 25 23 30 32 39 28 32 22 30 32 24 39 27 20 26 31 35 28 36 41 30 44 38 27 32 36 34 35 40 31 34 40 27 27 36 34 33 25 23 44 36 35 24 43 28 25 38 37 37 33 24 36 35 46 36 29 28 25 29 49 43 37 39 29 35 39 37 33 26 34 37 41 36 32 31 40 29 29 32 38 30 27 34 29 27 31 41 32 29 29 36 34 31 24 33 32 35 37 24 34 45 43 30 31 29 23 45 28 30 28 34 26 32 43 32 37 35 36 35 33 31 27 33 37 32 39 29 45 26 32 41 33 34 38 36 30 33 30 31 34 36 38 41 39 41 31 24 29 30 29 35 26 33 31 32 29 22 33 25 28 38 25 35 33 24 40 28 27 26 28 31 33 37 41 39 36 34 26 39 31 42 27 45 29 29 44 32 32 22 30 32 35 33 26 34 23 34 32 30 30 28 47 41 31 30 37 28 33 39 32 35 35 26 37 28 36 28 29 33 33 34 38 31 37 39 30 22 31 26 40 35 37 24 32 26 35 40 41 25 29 30 27 19 41 36 42 34 24 37 25 35 30 36 28 24 23 43 32 33 33 24 31 34 33 28 23 41 28 45 28 33 24 29 38 35 27 38 33 28 25 41 28 30 38 35 36 26 29 35 34 37 32 35 30 31 41 25 28 31 44 39 29 28 39 39 24 26 40 30 34 25 25 31 39 26 38 33 23 36 22 32 31 30 29 33 20 28 35 23 34 26 37 40 37 42 28 30 36 29 32 29 31 34 25 33 31 40 34 25 43 29 39 29 33 24 25 36 31 50 33 32 36 31 36 29 24 27 33 34 30 21 34 23 31 35 27 41 37 37 32 38 33 24 50 22 27 32 39 36 31 36 37 35 43 26 36 37 30 27 30 29 30 29 33 32 33 43 26 34 45 19 33 35 32 34 32 34 35 32 38 25 31 30 34 43 35 29 25 32 40 44 31 28 39 34 30 19 31 31 35 36 35 38 36 27 41 28 31 33 23 40 46 33 38 35 34 22 28 27 49 21 34 22 32 36 35 40 29 42 31 31 41 44 33 30 33 32 23 22 30 33 36 37 27 30 27 29 36 34 27 26 27 35 28 37 30 17 28 21 29 36 28 28 33 26 31 29 26 53 30 29 37 24 34 37 26 31 33 30 29 42 37 41 35 34 31 28 35 31 34 29 36 31 40 26 38 34 30 29 36 34 29 24 39 35 31 28 33 38 31 26 36 31 34 27 27 31 30 39 31 25 38 29 33 45 36 33 38 32 30 22 26 29 32 39 29 34 35 30 34 31 29 27 32 34 16 40 35 31 35 27 32 58 40 31 35 38 25 34 26 30 31 32 26 30 35 34 38 26 29 38 28 35 31 36 32 35 34 36 39 33 29 33 29 26 37 27 26 29 34 43 32 32 20 34 30 43 16 28 39 30 33 35 36 29 33 34 24 30 35 34 23 35 42 27 25 35 30 32 32 33 22 34 29 31 30 32 39 37 30 22 36 32 40 40 22 46 27 26 34 19 34 46 30 45 32 37 30 46 32 26 28 32 36 30 27 32 27 28 25 38 23 30 33 29 33 26 32 27 34 33 36 34 34 44 45 32 30 30 28 33 41 37 35 41 42 31 32 32 36 36 24 28 36 27 35 30 34 37 41 32 29 33 18 36 40 34 30 21 30 31 30 21 39 38 34 28 38 32 33 26 48 25 37 34 31 39 32 31 31 40 32 31 37 30 26 35 28 29 43 37 35 31 27 36 28 34 28 34 34 35 45 27 26 32 28 35 47 29 24 35 19 33 43 37 41 48 28 32 40 37 28 29 35 26 26 41 33 34 24 38 26 28 39 30 33 27 27 31 44 31 26 41 49 25 27 35 28 30 32 35 31 41 31 35 29 30 26 27 33 32 31 37 31 31 31 26 30 38 27 36 31 40 38 36 31 34 34 37 30 39 33 35 31 38 34 32 30 32 38 33 46 21 32 30 33 33 40 32 30 37 32 29 26 30 26 38 39 34 24 34 30 34 27 25 31 36 33 30 24 34 29 27 29 33 25 31 30 37 27 23 22 27 32 31 35 36 34 30 30 22 45 47 28 33 32 25 33 24 21 36 39 39 26 34 33 28 34 34 22 31 24 34 25 32 39 34 31 36 27 40 33 29 26 36 25 25 24 32 38 39 43 39 35 37 37 34 39 35 31 32 49 28 30 36 27 38 38 49 30 36 35 27 30 36 28 34 32 33 31 38 32 43 22 35 31 32 35 32 34 34 33 31 25 31 39 40 33 30 44 25 25 32 39 31 24 38 30 34 47 20 30 45 41 31 30 36 30 35 38 41 42 33 26 34 36 25 33 37 37 41 30 30 32 36 38 40 24 33 40 39 29 40 30 27 34 30 29 35 33 21 35 28 29 27 37 36 33 32 25 26 29 30 40 30 37 26 29 29 36 22 32 40 34 27 22 37 36 32 30 23 35 34 36 28 21 21 29 37 32 23 33 37 26 35 34 29 36 34 39 36 29 33 32 25 33 33 29 27 35 32 31 34 36 34 30 27 29 31 35 34 37 38 29 42 27 28 29 28 32 39 29 32 45 27 46 35 35 30 25 33 27 25 30 43 32 36 21 37 30 29 31 46 31 31 34 35 35 29 30 35 28 33 37 31 26 38 31 38 38 24 25 32 35 26 37 36 29 28 35 29 29 31 26 29 34 33 25 30 27 25 42 19 37 38 37 36 45 29 24 26 31 47 22 30 24 34 37 34 25 36 33 31 38 27 38 30 38 35 30 23 30 24 38 38 25 29 28 39 33 25 39 31 27 21 30 41 38 41 41 34 28 29 25 35 47 28 30 41 43 30 29 36 32 27 30 34 34 38 27 30 29 45 24 41 32 26 33 25 32 23 32 29 41 42 33 31 28 27 26 30 30 32 42 35 32 27 33 35 43 34 28 29 29 22 38 36 34 33 40 23 35 38 31 31 32 34 35 26 35 25 26 33 32 37 34 34 22 32 26 36 26 31 27 32 20 30 41 32 33 27 34 35 30 31 24 34 31 32 33 32 24 41 33 35 29 32 37 44 36 28 39 34 40 28 30 27 28 34 28 32 20 33 35 27 30 23 31 35 27 45 33 34 30 35 33 31 33 45 41 28 39 26 23 34 27 25 37 39 33 30 33 23 36 29 36 27 34 30 26 34 28 21 27 34 26 27 36 38 34 33 32 34 26 27 33 22 30 39 37 33 32 37 29 20 27 31 26 32 40 32 38 27 28 37 27 23 32 27 37 26 35 41 32 38 39 31 30 26 29 27 21 35 35 32 34 39 30 35 38 37 39 40 45 34 37 36 32 42 25 33 29 31 32 32 34 31 32 33 34 38 25 35 31 42 35 32 30 38 27 35 31 37 27 39 37 31 23 31 21 21 33 27 28 38 51 30 38 34 29 41 29 28 30 35 30 32 34 37 47 36 32 29 40 33 44 40 30 44 39 22 38 29 32 32 30 32 28 35 31 29 29 36 35 27 37 33 30 32 38 28 27 28 35 34 28 36 36 41 33 27 34 21 37 28 28 31 39 32 48 31 22 26 27 38 39 25 29 36 34 39 38 21 37 34 35 28 40 34 33 41 36 30 35 40 32 32 30 44 41 24 31 42 32 38 33 36 31 31 39 35 35 30 23 37 20 28 45 31 36 38 27 32 34 32 27 22 32 26 30 44 42 23 25 34 28 29 33 50 35 40 30 44 39 25 31 30 35 44 28 29 25 40 34 46 35 29 29 28 33 21 34 33 25 50 29 35 32 36 34 44 38 26 49 37 29 34 35 28 26 31 29 35 35 36 38 32 28 32 29 29 39 28 26 27 32 39 29 24 32 36 40 32 33 33 23 25 30 27 35 33 47 40 23 28 31 33 36 31 37 40 28 31 22 30 31 37 31 29 29 31 42 31 26 34 25 28 29 36 27 31 28 39 36 22 40 34 21 40 34 22 34 24 46 40 27 28 33 30 37 44 26 40 27 36 32 30 29 37 30 28 35 37 29 28 29 27 29 25 38 39 33 29 30 32 31 22 25 29 35 38 21 28 33 36 26 33 40 40 19 27 28 30 36 30 39 38 30 35 27 46 25 38 37 25 25 25 26 26 35 38 37 26 30 30 26 28 41 36 32 34 44 31 31 26 36 44 42 27 32 39 30 27 29 39 37 35 39 34 31 30 20 22 33 29 30 40 35 43 33 31 35 26 29 24 28 38 30 34 27 32 39 39 24 35 36 29 34 35 38 23 37 26 34 28 29 31 28 30 33 37 36 30 27 31 30 35 27 35 29 43 37 41 31 24 39 33 32 29 38 35 38 38 40 24 34 36 17 36 39 23 24 42 28 31 37 38 33 34 43 22 29 32 31 28 39 42 38 30 26 42 36 34 39 39 35 29 21 29 41 41 46 28 36 35 40 34 33 34 36 35 38 41 32 40 26 26 28 37 42 38 27 40 34 37 26 34 35 29 40 30 22 31 33 29 34 31 28 27 33 32 33 25 26 28 36 34 39 42 37 31 35 39 34 33 33 36 42 31 31 24 30 31 33 33 43 44 44 22 28 40 22 35 38 28 25 37 30 32 36 30 44 27 34 27 29 30 36 26 25 28 37 43 25 36 45 32 29 27 22 41 30 24 34 39 38 32 32 34 33 33 34 35 37 38 33 39 29 31 28 30 31 40 28 30 31 31 31 27 42 35 38 27 35 38 27 36 30 34 26 29 28 37 28 35 29 26 33 37 30 34 30 39 32 19 31 35 20 35 27 43 36 25 39 41 32 27 23 34 29 29 31 38 37 36 25 34 37 31 46 44 26 29 29 26 38 40 32 30 31 27 43 32 39 31 18 32 33 27 38 20 27 31 26 29 34 41 43 32 33 34 28 30 29 44 29 40 29 28 38 30 37 21 22 33 31 26 34 36 30 32 36 43 24 35 35 22 32 25 41 33 31 38 39 39 36 28 30 28 28 31 38 27 33 39 26 33 35 35 37 44 28 36 31 33 45 35 30 42 33 37 34 28 32 40 29 29 24 31 24 24 31 30 29 35 33 38 37 35 29 34 35 40 29 19 38 34 45 23 27 33 37 39 25 21 48 37 34 33 25 28 34 34 29 22 34 33 33 31 35 27 26 27 36 23 30 30 33 30 37 35 27 27 39 33 32 28 36 42 38 27 26 32 30 38 29 34 35 34 25 25 21 27 36 38 32 41 29 30 30 46 38 28 32 38 49 30 38 39 30 25 45 32 32 32 34 30 26 36 37 32 25 29 41 26 26 37 33 33 30 35 41 27 25 38 36 41 26 34 33 32 34 28 30 35 33 32 25 28 34 38 42 24 25 34 41 38 32 30 34 38 38 25 31 30 24 36 28 32 30 34 37 26 29 30 25 36 32 38 37 30 35 37 37 36 27 31 29 33 29 28 31 38 26 37 31 28 41 30 27 41 29 29 37 37 36 26 34 33 31 30 29 37 25 37 36 35 33 39 35 30 42 25 27 37 25 39 40 38 29 32 36 24 35 28 34 31 33 27 32 27 31 46 30 41 31 35 36 25 34 38 26 18 25 33 42 44 38 31 33 26 36 45 33 35 25 31 30 37</t>
-  </si>
-  <si>
-    <t>JSB(10.495836919747866, 9.866001667416434, -419.4183179245366, 2524.321550155124)</t>
-  </si>
-  <si>
-    <t>205 196 260 265 244 225 188 222 219 245 198 205 213 186 281 221 329 200 176 206 173 273 201 253 278 342 249 296 172 179 201 202 355 236 244 186 166 310 178 250 235 301 225 302 302 228 174 192 292 255 186 249 246 315 271 247 186 201 257 225 248 293 195 244 285 205 228 215 120 257 228 232 275 230 169 280 266 265 255 223 277 293 190 206 282 198 214 268 203 202 198 194 170 317 155 267 241 244 278 164 313 249 336 209 239 263 209 183 270 287 298 145 157 162 205 255 205 287 187 266 241 217 309 229 225 379 149 255 227 354 205 271 273 224 277 199 197 301 206 159 183 291 179 209 220 245 111 269 194 299 171 267 222 173 260 292 211 190 365 281 266 251 194 237 209 237 247 214 193 314 209 318 160 190 317 310 173 275 172 247 257 200 315 188 280 209 206 184 270 350 265 300 158 150 277 178 268 243 142 217 270 239 294 213 272 239 224 151 205 277 153 239 300 286 218 265 237 220 228 318 166 135 221 149 209 208 175 233 232 213 193 109 233 174 279 258 270 252 259 147 256 271 225 209 222 166 202 191 215 231 226 246 248 275 203 215 265 205 292 267 317 240 269 184 168 213 160 180 262 181 164 183 201 199 330 286 260 327 358 158 287 164 294 227 245 173 334 161 243 240 192 237 253 249 152 179 261 268 244 232 223 181 257 231 312 219 217 228 237 233 255 296 270 149 124 184 201 317 159 212 292 199 223 228 219 195 183 185 248 233 258 207 239 296 260 167 295 203 204 296 307 294 281 183 205 170 276 185 241 130 181 254 236 221 210 142 194 226 268 195 270 256 218 208 316 177 304 186 173 145 368 215 333 258 187 268 283 113 208 177 222 317 76 172 207 246 204 272 209 210 242 129 256 255 137 288 247 220 263 237 266 235 228 200 125 147 215 296 320 251 332 292 211 243 174 294 296 256 299 299 176 202 169 216 259 177 248 250 314 247 293 305 282 236 244 196 131 165 273 216 204 164 227 214 237 195 269 255 181 201 235 187 142 180 265 231 208 179 187 247 214 164 207 153 254 260 278 223 241 233 246 296 282 274 277 216 203 232 197 245 255 306 207 273 170 280 194 308 211 264 227 246 231 245 211 174 255 214 181 180 303 235 259 239 197 268 212 283 172 290 221 260 308 283 232 260 186 227 239 206 209 316 274 278 198 218 229 171 207 329 267 285 298 257 155 350 221 192 179 273 305 240 161 266 203 286 209 192 235 245 256 251 295 231 171 145 140 226 256 239 217 216 290 252 151 260 272 287 266 189 249 269 245 311 206 153 299 271 227 180 156 157 249 134 191 200 179 161 166 160 251 196 278 249 199 234 232 277 305 256 252 389 298 232 282 289 156 201 258 199 225 263 126 151 222 221 189 244 102 197 211 205 284 268 271 299 233 212 203 234 120 349 240 226 322 142 286 304 271 169 236 265 346 204 165 234 258 215 193 178 270 259 184 199 238 219 221 199 40 268 263 231 222 267 203 283 169 268 183 259 124 267 127 264 223 169 237 232 124 187 266 155 234 235 286 340 273 212 213 273 236 168 272 218 232 177 198 297 196 136 262 222 252 199 206 351 226 282 238 313 223 264 236 238 235 203 220 256 231 236 217 305 241 184 217 311 179 273 293 239 173 186 142 194 185 186 276 319 185 217 98 205 172 291 292 234 308 264 158 203 149 243 353 341 224 198 225 207 175 255 177 228 103 184 183 202 309 283 302 309 258 151 283 172 337 224 342 246 173 236 217 234 200 260 254 136 200 206 269 219 224 183 269 188 217 182 239 204 207 158 174 138 250 271 238 302 224 228 268 191 257 170 206 337 189 248 219 179 227 282 182 170 297 224 204 197 248 207 184 247 215 223 197 126 215 248 237 197 280 150 235 182 203 250 278 301 264 173 195 267 121 295 299 268 208 264 273 265 219 216 247 185 149 255 289 185 177 275 116 161 281 174 216 197 223 271 176 251 279 176 295 253 287 238 251 291 241 183 179 224 316 151 246 284 208 320 312 238 251 205 263 267 242 230 255 195 278 114 204 223 173 174 261 266 278 215 277 220 152 294 229 274 311 264 259 187 242 318 173 226 193 136 251 136 190 285 248 244 237 198 238 203 228 217 248 175 182 150 222 226 153 332 189 261 192 204 232 222 230 237 323 271 280 134 299 139 229 204 223 284 282 250 89 295 155 300 268 202 165 207 198 288 253 231 207 96 205 172 331 248 215 243 340 292 312 196 184 210 223 249 279 244 263 259 246 256 247 195 198 198 203 189 195 184 148 215 285 299 197 352 332 256 232 232 352 220 201 216 248 310 162 256 128 291 322 200 205 175 192 312 223 292 243 224 167 278 205 269 183 174 228 198 228 202 188 336 216 238 168 280 201 161 121 256 261 372 291 225 150 201 266 245 210 190 281 232 138 283 289 200 250 188 232 186 240 187 238 240 253 257 134 189 176 215 213 208 257 280 315 247 222 200 245 253 202 197 173 227 327 192 183 214 261 303 204 193 236 169 277 247 251 146 251 172 280 243 247 181 211 195 191 171 270 193 239 261 248 129 230 236 263 233 202 179 214 165 152 243 267 244 260 243 270 210 279 251 188 235 198 150 231 182 216 160 268 144 216 202 156 249 185 271 167 190 224 278 251 196 125 311 140 183 250 194 314 297 244 233 214 241 233 219 166 184 210 213 277 220 289 176 203 298 217 282 216 184 211 251 247 184 246 337 202 202 118 243 268 225 178 177 225 223 209 141 193 252 191 247 150 187 187 153 278 220 222 202 228 126 318 235 312 152 176 210 272 261 148 261 244 213 259 227 307 234 255 268 286 198 309 188 155 248 172 225 271 213 131 251 264 187 235 162 146 257 93 200 206 256 287 256 234 282 202 212 207 243 223 277 282 192 237 234 297 147 227 179 219 300 238 186 280 153 205 179 216 285 173 311 208 228 277 178 212 257 214 210 240 198 221 276 264 247 290 148 176 210 188 241 296 194 189 218 222 183 188 152 201 296 176 196 257 176 174 133 217 277 189 152 231 220 280 166 242 292 229 203 254 158 252 195 210 211 168 186 192 168 246 241 280 257 243 278 243 105 248 192 146 209 213 248 189 140 179 223 232 190 151 177 240 148 237 240 221 231 338 183 271 265 269 203 212 295 204 361 148 326 174 203 377 190 186 267 229 234 226 167 179 181 269 237 220 226 234 256 213 279 184 173 244 186 239 267 179 242 338 287 228 180 189 128 290 180 168 180 200 307 181 220 205 262 147 200 199 270 239 211 212 228 245 243 225 235 246 235 236 243 240 169 354 262 174 237 263 167 280 315 189 253 331 107 224 242 197 177 212 255 246 212 335 200 242 239 237 265 194 230 289 202 166 133 242 155 206 243 254 208 223 168 153 237 154 173 226 211 323 153 204 276 204 293 194 194 179 251 279 151 266 276 296 247 225 255 262 215 232 176 180 259 166 352 292 160 247 108 181 200 214 205 137 197 259 242 296 267 321 231 213 305 305 307 192 239 271 296 252 166 283 312 271 266 191 184 290 236 228 242 191 218 316 277 204 235 219 211 208 292 313 245 230 379 163 216 212 321 279 219 226 204 261 142 174 193 237 226 166 275 162 147 181 173 263 288 297 314 303 195 199 212 172 243 148 153 311 258 249 180 270 188 254 229 208 287 208 270 227 164 226 253 169 192 320 169 171 153 280 164 171 187 231 234 283 252 258 255 127 190 276 225 187 199 194 176 204 316 312 240 213 246 165 233 211 234 89 286 270 177 179 219 139 171 198 286 227 223 162 266 278 202 214 246 175 195 252 299 301 256 210 206 149 215 284 186 192 250 279 243 180 193 205 225 240 236 166 193 128 323 101 194 209 192 249 215 232 205 221 139 127 257 226 258 258 168 164 256 226 295 250 229 195 209 233 177 191 266 266 219 198 306 255 186 207 238 218 260 130 211 267 226 185 261 223 189 240 167 192 287 243 285 273 317 179 184 338 177 254 192 294 263 220 248 236 164 226 177 254 218 212 199 251 161 231 225 320 278 165 185 273 307 182 292 179 237 273 223 127 234 200 215 186 176 210 223 263 212 282 180 175 245 148 190 183 185 237 236 267 190 189 243 227 192 277 121 283 303 154 211 206 332 166 297 256 209 266 209 225 320 293 191 263 214 202 308 123 186 232 186 295 234 241 194 255 204 205 192 144 267 187 204 154 258 188 305 283 218 259 231 227 194 302 221 250 300 224 184 191 120 286 141 193 153 273 277 260 273 182 192 226 121 237 177 247 185 163 216 233 253 251 239 208 178 214 279 188 309 139 315 224 228 268 188 299 236 157 214 263 330 222 291 269 215 353 170 249 277 214 247 293 309 212 203 148 224 159 253 290 133 239 150 232 214 242 328 274 212 288 165 184 96 293 125 270 205 125 287 245 248 257 223 204 214 201 150 193 312 219 320 204 223 227 264 195 202 221 229 203 220 188 127 176 267 259 202 210 113 295 182 167 205 272 186 229 192 209 125 215 197 323 195 192 206 226 185 259 217 160 282 247 195 263 182 133 316 189 192 192 253 183 177 245 200 272 248 247 184 262 228 288 251 273 237 237 281 204 271 240 199 240 308 347 275 210 257 236 230 321 200 253 243 229 195 140 348 293 190 213 185 233 241 254 250 165 202 253 206 219 235 305 178 274 168 269 220 242 174 143 246 282 199 269 191 213 192 253 297 228 270 216 138 257 157 239 113 189 205 278 226 235 268 289 198 245 179 232 167 246 193 178 167 208 198 216 261 201 229 226 177 95 168 281 213 230 190 254 111 162 271 194 277 256 217 210 328 129 226 272 187 318 186 188 283 152 280 249 204 153 228 184 221 246 240 257 354 244 200 348 224 226 263 272 165 189 234 231 173 205 192 157 162 171 202 262 195 158 254 231 287 197 144 147 260 162 217 267 162 297 233 380 218 277 273 282 265 310 223 195 179 161 279 295 259 304 234 255 201 282 208 261 209 167 219 164 224 171 218 204 173 206 176 282 262 178 321 286 213 157 275 248 208 223 231 205 324 311 270 149 224 201 227 175 188 204 177 308 214 212 223 188 168 206 213 319 296 218 170 275 154 239 184 170 234 206 173 229 126 208 252 194 233 292 243 363 377 203 244 232 258 261 208 211 227 187 248 368 206 162 297 245 238 196 300 192 255 218 289 244 201 236 254 214 298 266 234 254 188 237 241 279 199 342 140 228 162 205 236 260 128 272 222 242 251 201 215 199 255 303 177 273 288 235 283 305 198 281 264 265 200 282 225 271 244 241 119 226 227 201 259 234 394 178 245 227 339 177 205 280 168 252 265 216 235 275 209 245 243 158 222 241 270 198 303 279 228 259 206 207 146 302 145 234 231 231 255 176 206 188 202 273 244 251 228 306 138 209 215 240 278 222 157 184 168 237 288 283 224 292 249 269 188 295 221 200 229 228 198 242 258 278 221 221 381 182 213 153 233 320 257 136 304 251 277 238 250 292 282 249 264 289 309 213 231 228 200 279 225 283 264 243 269 225 220 200 200 262 166 249 264 189 208 261 183 173 227 197 211 259 259 229 222 191 161 230 217 260 300 228 171 245 207 253 178 242 163 266 154 241 212 236 388 233 203 221 275 191 203 231 253 256 240 181 200 267 178 306 219 232 149 138 253 232 236 193 251 243 289 212 270 103 253 224 266 214 261 296 179 230 172 240 249 306 323 247 173 282 162 300 211 245 153 268 326 290 190 205 266 210 232 226 250 307 160 156 174 271 256 238 229 237 264 192 309 201 197 175 137 270 175 274 239 210 227 248 282 322 164 271 207 228 179 220 230 196 271 228 271 254 266 125 302 221 344 238 250 222 252 161 227 194 200 202 250 304 209 235 282 162 156 179 369 228 256 168 156 198 219 225 219 229 196 163 266 193 182 262 280 194 190 252 184 214 235 308 173 195 254 226 245 178 224 238 221 223 225 278 229 232 260 283 305 217 204 193 206 237 297 222 212 206 258 279 215 240 172 178 205 219 236 206 250 296 147 169 196 266 247 269 228 239 235 199 166 201 221 198 168 150 207 248 229 233 196 213 167 210 195 219 232 216 243 242 214 148 302 267 229 260 180 197 283 114 282 191 261 202 225 208 301 162 232 185 296 176 218 222 171 157 258 144 266 186 242 303 279 239 226 235 177 223 286 326 243 251 246 223 178 165 198 132 314 313 170 261 268 314 237 254 226 213 177 211 205 224 272 232 306 235 238 234 162 240 329 180 203 139 184 204 176 246 172 274 236 236 219 217 182 195 260 223 244 218 240 191 282 202 236 203 173 239 311 157 291 285 227 217 248 296 252 204 183 328 174 284 218 120 211 226 156 190 231 269 217 201 304 226 185 211 189 235 285 203 233 168 269 233 241 311 326 212 274 308 261 182 222 269 171 213 253 288 280 285 257 268 224 267 224 240 198 278 263 271 252 196 201 263 238 185 237 93 265 182 214 214 291 288 261 187 88 204 224 189 256 243 176 138 248 287 276 254 216 222 154 229 171 216 313 308 287 164 204 232 203 205 179 214 146 204 224 268 293 236 225 156 247 214 179 306 229 146 253 248 145 160 239 154 225 203 148 218 184 192 160 210 207 241 186 133 226 210 218 264 242 200 202 249 103 221 208 234 227 229 168 209 167 209 216 218 110 209 204 263 192 292 249 173 169 184 240 168 260 237 128 209 152 226 252 196 295 125 184 270 153 183 242 263 176 187 217 228 287 298 187 268 301 242 212 220 223 220 250 189 168 264 218 193 212 251 160 246 186 236 248 183 212 146 227 193 245 316 181 252 196 210 297 229 325 203 189 295 266 250 236 172 193 214 321 175 301 167 289 240 263 269 255 324 191 196 223 180 215 262 186 296 275 236 296 165 160 239 190 257 206 159 221 300 212 252 241 259 242 204 271 317 254 247 210 265 309 171 209 201 312 243 251 187 240 193 147 207 241 229 259 170 294 195 249 266 196 181 170 241 275 244 274 333 192 254 134 192 257 211 181 246 269 124 288 224 248 270 173 197 235 227 233 162 166 257 319 242 263 169 269 202 197 248 338 215 248 254 218 212 182 139 236 175 168 196 147 210 168 139 272 237 214 267 264 218 187 224 268 406 231 265 203 168 198 290 281 243 209 238 236 221 197 241 226 196 276 308 179 232 223 240 294 261 260 155 268 184 200 206 326 200 273 112 202 330 209 225 306 194 236 177 223 257 193 220 221 333 298 273 166 216 307 197 172 103 178 261 207 170 235 359 236 271 210 156 243 219 204 275 245 154 198 276 243 372 275 247 231 193 243 163 279 209 312 199 190 283 243 282 297 174 214 206 281 321 313 189 143 243 268 236 253 268 190 184 156 228 226 253 190 274 217 193 228 251 236 255 192 273 299 190 203 258 201 283 213 184 295 198 273 209 187 275 193 301 273 258 244 269 204 306 149 251 210 249 257 175 189 248 161 214 233 237 249 281 188 185 197 221 269 232 246 231 131 362 249 255 227 175 151 203 232 215 247 249 203 225 211 220 250 154 270 235 297 288 287 137 203 209 167 140 211 305 290 281 201 303 234 241 207 193 244 206 286 172 222 250 212 222 234 242 327 301 235 278 223 314 120 174 281 177 291 290 223 261 212 271 227 254 264 286 165 232 167 224 240 213 217 209 210 260 302 294 204 246 282 218 183 236 290 226 273 204 135 269 264 237 227 283 246 252 278 242 291 291 300 236 145 231 226 242 236 273 200 259 233 119 243 266 224 264 293 269 177 192 222 228 203 190 285 299 263 212 246 246 184 294 262 204 201 296 262 177 180 221 220 252 217 197 278 258 143 241 222 293 300 287 169 220 260 341 221 253 316 191 141 197 205 215 206 278 296 259 179 257 273 267 185 236 262 242 232 233 273 272 197 291 333 164 160 156 244 209 170 249 275 191 204 272 127 211 202 222 279 255 207 258 243 166 271 312 214 209 181 179 266 296 263 257 162 209 244 241 191 133 332 189 208 256 208 299 277 243 210 248 273 226 219 232 273 330 234 172 268 209 153 214 344 224 232 186 392 285 165 196 196 245 207 186 155 308 226 270 249 224 225 208 235 216 184 209 257 184 317 288 250 331 271 254 143 196 288 263 170 205 281 156 225 182 229 128 255 174 228 222 206 222 294 211 229 212 158 242 234 171 164 241 249 316 212 272 253 235 264 283 308 321 286 296 239 221 224 236 182 280 275 195 243 190 161 163 196 237 247 231 262 355 207 169 217 235 223 250 206 127 303 276 199 201 214 200 296 271 199 161 188 239 264 184 252 266 261 183 253 188 233 262 254 124 219 224 194 203 299 291 279 254 253 235 175 176 93 177 108 184 247 258 183 169 206 230 250 219 333 194 216 258 201 216 260 209 190 261 325 205 287 312 343 243 279 240 248 277 210 165 134 297 201 179 175 157 271 260 235 200 205 251 250 272 392 210 261 250 250 231 147 183 247 140 187 243 290 233 282 242 182 199 206 218 220 331 255 158 158 203 318 260 202 292 191 161 260 177 202 293 234 230 189 320 211 295 211 139 188 227 301 394 260 366 203 285 285 152 205 304 264 170 234 314 246 212 191 178 143 268 213 155 215 264 272 202 266 258 221 211 173 227 207 303 187 238 264 296 296 243 297 154 168 267 289 279 247 284 216 190 223 243 217 240 230 155 193 236 234 179 243 289 195 263 287 200 299 195 200 228 255 294 247 239 228 272 209 162 174 181 284 277 261 181 230 180 259 172 185 264 246 268 230 186 165 191 232 116 295 234 354 233 316 319 174 216 167 97 201 362 195 199 207 211 146 272 163 287 254 222 281 200 277 154 227 242 295 219 259 234 249 207 270 144 243 238 178 232 209 274 260 192 284 311 174 163 206 222 344 191 265 258 259 255 190 255 184 258 216 207 222 147 203 260 322 197 223 198 147 224 210 239 258 296 263 230 265 223 192 268 240 188 308 240 317 292 254 197 200 209 271 136 254 217 283 177 238 226 185 276 213 278 240 201 284 334 196 316 189 385 187 252 107 204 173 303 306 197 185 240 292 213 225 221 269 256 181 180 260 218 153 206 205 139 269 240 328 228 204 158 238 238 167 156 244 214 288 205 236 228 285 252 238 138 192 171 217 206 263 208 327 286 208 226 137 84 297 171 194 206 265 322 288 244 235 259 236 255 216 251 374 280 249 202 248 264 281 241 414 248 320 291 186 167 191 295 223 274 177 217 292 390 235 204 289 241 312 224 197 227 188 271 209 301 153 220 287 279 185 204 328 236 254 176 181 324 252 245 251 200 204 279 180 171 229 206 184 220 202 329 198 218 263 149 213 228 198 182 232 277 198 295 200 312 234 252 217 253 225 277 200 256 235 267 248 226 186 156 218 277 224 179 262 196 211 193 212 210 252 233 186 256 277 292 254 230 150 151 252 187 241 233 150 176 306 190 180 140 268 238 253 262 183 153 273 279 278 156 262 220 203 140 231 356 228 288 266 264 185 254 230 282 218 173 340 197 221 259 209 278 157 254 297 225 289 254 171 305 249 201 149 275 268 232 177 233 263 257 262 236 180 231 196 224 358 187 194 230 150 123 228 192 135 238 289 226 190 234 241 266 189 138 235 154 203 233 251 221 168 211 196 269 179 212 190 157 248 294 157 284 208 178 234 289 182 235 136 283 194 190 143 287 248 192 310 130 286 201 170 284 283 226 211 152 270 232 232 252 274 261 190 302 167 261 290 226 188 267 213 161 244 311 219 184 311 251 171 264 131 284 239 177 199 268 202 218 224 194 183 259 276 293 208 266 233 247 259 167 245 213 309 277 236 325 187 244 182 210 250 244 321 279 274 293 242 276 195 249 149 120 212 204 246 271 186 220 276 156 223 214 295 188 195 164 245 214 205 237 161 295 281 288 131 145 329 306 134 326 135 203 229 332 215 285 167 223 221 296 272 292 394 194 257 130 208 207 196 201 230 214 219 198 177 277 284 290 250 168 276 192 127 268 199 316 170 224 215 284 243 210 284 246 170 179 253 280 163 180 204 190 311 226 268 220 295 143 201 259 217 245 222 129 210 341 229 262 246 165 226 209 256 160 233 330 267 223 193 254 211 222 235 266 306 188 229 312 193 324 180 220 266 264 315 353 291 238 327 164 239 255 185 259 262 174 193 175 236 205 258 283 278 243 271 225 147 210 174 185 246 223 223 293 212 223 262 213 339 195 322 251 287 173 258 229 257 235 283 180 228 193 272 243 219 275 176 145 244 250 214 259 281 211 218 192 282 126 226 292 187 182 286 175 254 202 212 275 240 244 228 231 229 228 346 246 205 255 279 276 185 217 189 285 251 219 242 322 219 271 254 161 259 277 241 192 193 312 201 170 278 218 225 194 233 176 288 216 254 208 243 204 224 198 223 208 199 240 253 242 173 188 232 262 268 271 211 168 216 180 117 269 220 231 184 187 280 290 190 206 231 214 210 306 205 190 235 212 206 319 219 171 169 197 300 184 336 134 207 155 219 242 276 155 301 241 255 255 273 264 259 244 240 279 298 145 219 180 215 215 183 224 214 214 168 260 301 247 179 162 146 271 194 273 219 223 243 228 261 228 257 191 213 175 208 342 210 157 162 190 244 227 189 189 275 255 235 304 128 217 227 258 326 286 263 233 152 119 398 300 176 221 244 249 236 210 268 240 193 274 231 155 210 229 275 127 199 299 237 236 135 213 209 202 194 213 212 239 257 264 256 296 226 301 175 328 401 177 260 205 226 326 234 228 293 246 277 217 219 298 289 243 187 230 284 276 221 211 274 187 192 196 251 211 258 213 228 253 279 170 211 238 258 243 264 225 213 240 224 154 221 181 297 229 248 195 258 177 216 205 214 187 138 251 220 240 196 217 316 229 285 340 190 271 181 271 240 263 244 329 212 242 316 270 218 199 315 282 229 192 195 160 317 205 200 180 248 224 261 224 297 229 250 270 270 249 150 236 232 289 246 306 204 233 146 222 323 224 278 213 141 226 220 264 207 296 146 239 227 246 251 244 326 241 161 182 206 191 251 263 241 206 246 204 206 215 334 187 313 177 199 260 204 258 197 283 211 208 213 218 287 286 193 201 193 225 226 204 285 237 212 151 209 284 304 114 192 274 198 284 226 280 221 193 188 294 244 279 186 238 215 289 227 245 227 233 224 285 233 170 266 234 189 311 184 174 319 179 222 209 267 251 256 350 305 267 201 219 307 100 227 166 389 188 165 291 253 223 276 204 237 156 212 249 182 184 259 140 183 228 359 166 174 246 310 228 273 267 156 204 190 233 191 222 233 253 165 234 267 210 158 217 198 151 221 237 248 262 401 263 187 187 304 240 227 200 292 162 235 219 217 257 271 250 229 295 198 214 363 279 288 201 201 297 220 278 206 239 234 217 321 129 236 187 184 166 252 239 247 219 280 272 189 262 266 251 231 221 249 232 191 259 320 257 258 229 202 263 217 254 314 188 265 272 203 196 160 227 343 275 161 232 152 207 200 194 177 202 178 176 258 253 321 289 247 228 257 270 162 212 260 148 183 152 215 200 268 266 191 294 201 192 186 264 213 119 263 237 288 256 288 308 194 281 239 105 211 197 241 166 272 236 253 235 271 343 201 197 255 192 232 203 204 257 255 221 197 217 207 223 240 237 193 187 227 283 216 344 121 304 224 137 235 292 242 239 250 277 254 227 248 205 161 169 175 325 164 288 217 276 248 244 195 137 235 280 265 256 365 220 225 148 235 296 178 242 268 225 254 196 235 212 238 192 302 263 165 238 200 213 245 268 227 316 231 192 221 239 253 268 132 209 201 429 172 322 196 253 175 247 239 256 257 263 280 251 246 203 280 268 146 244 287 236 230 187 254 264 209 180 276 260 185 198 278 194 251 190 206 253 248 238 212 144 284 200 220 241 203 267 197 245 217 276 223 162 235 149 226 281 207 240 251 250 324 266 228 206 183 141 219 192 239 259 227 136 242 300 306 218 209 184 198 141 155 177 241 173 169 173 194 301 206 261 290 164 152 199 223 200 239 113 201 220 275 240 261 222 267 268 265 222 173 194 205 217 235 264 289 135 193 125 208 297 184 160 197 236 250 248 244 139 313 248 278 244 280 301 130 293 174 185 214 247 203 185 253 181 248 228 252 206 187 188 193 371 187 206 321 250 198 199 154 201 172 234 299 260 147 241 169 186 232 178 275 221 193 212 189 194 242 244 218 300 216 214 306 211 251 154 220 275 244 262 250 234 299 226 285 187 271 177 237 272 246 253 292 215 249 278 223 271 236 265 218 205 252 203 186 195 227 266 137 248 223 217 161 222 363 245 184 186 128 279 303 185 250 314 209 267 272 235 172 210 205 220 309 193 215 201 372 314 302 270 171 260 274 252 226 172 277 221 189 260 192 191 216 248 183 226 182 210 173 231 237 190 214 193 224 304 253 175 216 321 202 266 279 226 198 256 280 304 208 268 248 164 296 223 263 114 272 232 224 209 164 240 143 171 194 124 265 257 249 147 272 353 141 208 186 301 225 274 193 206 238 229 170 309 289 277 120 249 229 167 165 312 227 194 202 209 220 240 230 208 229 200 248 335 186 248 110 265 151 308 205 251 339 219 258 231 260 184 261 168 227 226 226 216 229 235 230 235 253 242 288 204 259 226 228 274 202 194 246 308 199 152 212 160 233 281 304 176 115 197 172 141 210 261 306 255 225 292 264 205 281 260 201 163 265 212 201 242 251 158 269 198 194 283 243 192 240 302 278 237 284 182 184 266 173 244 252 272 196 300 287 263 279 197 243 197 249 171 272 246 232 240 249 288 238 249 253 223 292 209 189 226 172 282 277 278 239 236 196 175 156 265 172 237 149 142 263 197 196 214 281 305 226 224 191 202 178 197 152 268 288 253 201 249 247 256 248 254 273 238 229 174 210 213 288 315 172 311 276 202 210 162 249 184 238 124 187 170 286 151 203 311 190 190 173 194 250 270 202 240 181 255 217 204 235 166 245 208 182 280 173 219 185 210 164 239 121 229 280 278 217 207 195 247 207 217 236 337 246 222 230 254 315 161 165 153 210 151 176 199 224 299 178 233 259 280 236 209 298 254 222 302 190 192 102 266 231 206 336 152 325 189 178 182 202 216 176 297 207 193 125 210 141 181 260 288 157 220 198 260 181 272 164 254 332 219 266 241 253 302 271 172 261 240 254 265 314 127 201 206 166 321 208 211 163 259 150 211 230 251 189 261 229 216 273 245 293 272 148 209 324 317 181 260 213 322 203 227 270 196 198 333 325 290 295 268 220 192 277 237 328 215 252 147 228 229 211 208 188 232 239 278 241 134 203 147 172 265 224 287 191 223 157 265 309 216 176 251 262 271 197 173 120 287 237 127 209 309 201 250 290 219 311 300 192 181 233 200 267 215 227 292 256 208 211 278 249 234 241 174 158 227 182 203 231 253 185 214 237 257 263 196 277 311 271 137 237 201 192 254 231 277 130 231 186 192 185 182 280 269 218 205 247 218 272 227 242 217 239 213 157 154 199 166 206 246 161 187 296 276 156 211 277 194 166 208 208 248 169 155 277 253 258 216 203 150 168 278 248 192 275 222 283 249 205 272 235 157 217 269 256 194 207 264 276 227 281 239 243 317 210 198 197 223 164 126 237 142 274 162 266 130 273 183 268 209 228 157 331 242 231 208 247 134 181 210 246 240 292 296 161 249 210 256 142 289 163 229 224 160 161 276 214 305 272 173 253 159 389 273 244 252 297 213 217 246 225 298 200 231 212 265 200 311 212 203 214 236 179 162 148 241 231 268 183 195 239 179 196 313 155 234 253 224 147 192 263 190 225 224 270 322 255 200 152 215 188 268 145 185 192 201 125 317 218 239 222 219 306 275 228 187 231 235 138 211 179 243 221 188 323 262 261 182 218 142 161 149 231 192 171 198 249 233 207 298 187 147 288 196 197 198 197 282 272 226 203 183 208 153 260 246 281 209 186 191 190 211 151 198 267 252 194 236 212 209 296 224 167 172 277 215 203 256 225 147 217 202 303 237 271 225 216 180 247 210 241 179 212 324 187 252 247 200 217 285 220 271 192 315 308 224 151 105 240 241 274 218 198 268 209 263 131 237 203 290 326 125 232 284 286 258 252 196 262 57 323 249 280 220 275 253 198 238 203 311 328 224 212 252 246 246 213 204 222 199 193 148 197 219 257 308 196 132 182 188 278 205 229 245 184 291 235 286 247 276 230 233 189 236 239 197 193 283 168 223 241 221 184 204 232 156 254 255 235 279 268 244 212 237 222 240 166 225 222 213 186 239 315 128 238 217 234 181 203 211 222 257 204 231 239 275 310 311 225 241 233 146 320 189 191 236 245 203 267 196 301 248 155 217 358 245 160 136 185 180 195 211 190 281 233 217 258 197 141 215 252 163 286 258 194 208 227 194 240 152 251 260 214 259 235 159 248 237 206 191 275 337 204 216 167 188 216 242 215 208 287 250 139 249 191 263 200 273 251 217 313 259 350 314 227 339 155 219 234 217 168 353 217 255 198 213 134 194 289 232 222 181 224 197 216 176 211 220 106 261 165 225 275 315 198 167 223 183 251 144 267 146 107 314 234 294 167 194 255 194 210 278 215 315 122 221 148 193 208 205 241 297 210 213 244 237 243 194 263 198 209 341 342 289 243 226 213 271 229 244 239 213 189 302 195 302 216 222 289 225 244 192 248 277 199 283 219 291 240 198 214 289 255 204 222 238 334 256 203 140 230 203 167 212 307 196 210 272 252 180 231 180 190 255 237 204 222 251 197 194 248 224 198 221 267 262 225 152 222 278 211 188 227 249 152 137 161 180 207 147 175 270 271 181 274 210 257 278 257 270 222 266 201 223 192 270 208 243 194 225 244 284 205 202 261 147 274 230 210 357 131 281 268 217 243 235 199 208 298 397 163 250 148 289 254 199 203 340 217 257 168 285 237 271 195 227 167 265 179 203 195 290 169 184 172 229 267 285 253 174 238 308 151 270 202 246 198 196 284 212 161 277 176 159 241 278 301 137 231 145 240 275 262 221 229 160 285 196 294 246 274 191 246 161 206 254 224 280 208 205 299 156 325 239 229 213 199 223 272 301 176 142 234 266 229 240 237 190 250 217 178 200 212 204 213 244 203 223 241 172 260 238 251 129 327 182 245 350 201 158 124 290 247 193 212 221 270 191 199 274 388 201 224 210 206 241 159 295 190 188 264 180 209 196 280 195 334 219 255 259 234 244 230 226 283 172 270 174 228 258 247 275 123 138 254 286 328 234 189 242 220 249 239 210 253 251 273 200 234 297 206 222 277 265 264 262 282 137 295 202 199 256 299 224 260 309 254 245 161 286 266 232 224 233 242 242 235 227 208 238 230 249 306 177 222 351 223 165 201 299 250 148 185 213 276 336 243 239 242 161 194 223 357 216 207 239 189 261 208 215 227 186 308 160 231 237 228 185 262 189 341 266 276 185 253 260 243 236 281 251 222 208 199 273 193 195 211 239 239 218 316 267 185 221 251 210 226 275 155 187 237 224 266 205 250 246 208 206 151 239 244 312 267 319 213 187 216 302 282 179 284 194 191 222 317 228 280 270 233 227 213 262 190 191 199 191 271 172 330 191 232 318 176 240 199 203 260 295 234 291 192 218 324 228 242 175 227 179 276 193 273 217 170 214 305 278 147 287 227 224 226 237 146 161 263 163 204 205 243 244 211 232 290 202 217 195 234 252 178 266 214 257 231 221 220 213 206 233 153 213 184 191 186 214 253 296 207 205 224 143 312 186 213 190 143 210 177 222 108 181 132 201 186 168 279 262 196 201 257 142 279 234 262 302 215 202 190 326 195 259 256 193 254 248 299 172 268 179 216 193 253 196 195 261 213 253 348 193 165 408 241 192 173 250 294 281 275 358 243 316 332 226 224 169 239 303 217 204 178 262 122 202 160 163 305 317 170 181 179 298 234 188 162 223 155 301 193 245 311 184 252 323 181 163 206 188 275 165 211 352 167 288 259 194 261 163 185 163 213 244 259 259 230 249 322 322 195 165 244 186 204 264 233 171 221 184 228 238 308 250 220 193 271 250 298 251 242 204 308 240 274 257 189 211 236 177 230 233 263 218 188 189 246 147 189 244 334 240 159 260 265 323 298 342 140 240 241 204 303 224 235 232 245 311 266 180 135 192 240 219 192 210 254 202 179 255 221 249 242 289 224 261 263 239 157 191 240 211 273 208 346 239 280 215 204 257 186 285 189 189 222 157 227 365 226 200 273 265 247 207 205 263 227 234 240 173 202 173 162 200 103 256 252 272 146 192 206 210 227 187 212 240 200 129 133 200 157 292 257 305 265 216 278 249 240 219 288 225 106 316 261 255 161 264 299 206 162 243 196 215 232 193 176 301 184 200 228 200 199 286 347 301 240 237 254 219 242 201 317 246 230 275 277 239 246 285 207 204 271 234 150 205 165 292 205 305 266 270 215 203 165 296 314 239 307 148 243 210 229 145 253 272 299 176 283 191 215 186 293 201 302 204 283 208 215 166 148 155 115 232 176 210 222 149 119 287 231 248 224 150 193 192 315 313 250 264 287 238 231 224 219 256 274 213 261 195 145 248 217 239 212 296 317 252 188 264 224 255 246 250 315 242 195 235 254 169 185 186 277 241 232 237 250 201 204 210 253 198 278 245 293 276 230 227 234 185 191 348 191 253 190 206 278 126 240 215 246 255 186 196 315 197 196 223 222 193 261 195 228 202 152 139 180 209 198 304 192 185 214 242 114 189 237 245 177 301 317 237 280 277 242 149 324 248 247 175 155 266 215 198 261 309 197 176 232 175 243 222 294 320 203 215 250 198 243 180 276 243 201 180 258 158 270 179 296 136 226 230 167 232 223 138 142 216 176 212 277 292 226 310 340 136 250 293 283 200 251 229 200 260 166 219 278 288 255 217 169 299 308 285 141 279 187 178 305 237 295 242 132 191 308 283 223 171 184 245 231 254 262 236 235 238 298 203 247 237 185 249 278 289 264 264 207 302 212 190 252 282 264 235 213 226 250 194 279 249 190 229 265 286 238 191 261 174 327 272 225 264 302 229 231 250 210 160 305 218 257 192 227 256 198 243 309 247 254 232 224 308 204 225 216 252 232 278 206 329 243 205 255 241 294 403 334 229 220 209 222 225 258 284 283 230 249 234 190 205 237 177 188 209 251 196 234 200 197 231 181 224 218 165 280 257 165 342 178 238 192 197 208 299 187 314 303 208 291 199 272 273 168 232 245 170 221 268 243 296 161 175 217 230 265 182 283 266 237 294 145 169 210 265 293 224 230 280 169 303 208 236 188 288 210 276 265 225 271 263 236 227 292 237 260 269 209 162 208 286 163 338 232 291 181 257 192 284 184 331 165 245 184 195 186 293 257 293 213 233 194 237 285 297 264 220 165 90 340 225 223 195 167 249 276 238 224 109 263 162 329 163 268 177 178 215 220 215 264 268 204 136 220 189 252 324 227 194 190 222 238 265 255 198 177 241 242 262 154 185 224 305 265 190 206 197 256 155 209 246 193 243 183 185 249 290 224 282 269 138 274 165 207 249 258 196 227 168 232 206 216 232 239 354 258 245 263 188 245 231 206 227 219 306 260 181 252 213 285 215 135 290 256 253 230 262 131 154 315 276 273 280 264 216 232 333 237 146 183 192 312 248 141 268 152 178 287 175 218 267 249 214 307 225 209 328 152 216 225 240 274 217 265 306 234 252 193 298 306 230 243 170 181 176 209 233 221 214 324 167 240 337 133 263 218 193 250 264 247 293 211 301 197 246 215 228 278 191 222 208 209 281 334 236 200 239 270 291 167 223 197 221 279 214 277 324 132 218 248 176 247 208 283 349 271 284 245 196 132 116 221 300 206 183 113 172 256 241 279 215 281 253 207 249 323 207 225 280 208 186 119 192 200 213 241 167 217 191 305 247 231 178 191 181 195 195 286 214 81 266 154 183 253 269 184 284 179 219 176 217 306 252 165 251 238 190 258 208 174 149 214 220 275 306 292 276 232 195 214 279 198 229 179 229 248 278 229 252 263 265 231 304 218 242 160 337 247 240 190 227 225 199 273 226 192 210 273 208 267 209 292 204 150 268 202 244 267 271 258 263 274 172 143 239 179 239 329 221 256 226 203 222 260 229 199 189 228 135 278 248 252 292 174 177 369 290 322 199 281 192 147 201 224 239 256 216 254 239 251 249 221 204 262 208 262 248 219 290 247 255 261 250 211 196 251 206 139 250 199 219 217 198 310 284 275 120 143 199 229 81 198 300 209 173 238 244 236 180 227 194 262 211 239 192 233 317 188 182 285 172 243 180 248 227 266 200 247 196 255 250 333 206 216 245 208 260 268 142 360 202 253 265 64 215 293 204 280 213 339 243 258 259 159 166 240 289 177 21</t>
-  </si>
-  <si>
-    <t>GAM(0.2754709282661113, -1.9778169149355225e-22, 1.0380314411854692)</t>
-  </si>
-  <si>
-    <t>1 2 1 2 0 3 0 1 2 1 0 0 1 1 2 1 1 1 1 4 1 2 0 0 3 2 1 1 0 1 1 2 3 3 0 0 0 2 3 1 0 1 0 3 0 2 0 2 1 1 1 2 3 2 1 0 0 0 2 1 2 3 0 1 2 1 0 1 0 1 1 2 0 1 1 1 2 0 2 1 1 1 1 0 2 0 1 1 1 0 0 1 1 0 0 3 1 0 1 1 3 1 1 1 0 2 0 0 0 1 2 1 2 1 2 2 2 0 1 2 1 1 1 2 1 4 0 2 2 2 2 2 1 0 1 0 3 2 2 1 0 1 1 3 1 2 0 1 0 1 0 3 1 2 1 1 2 1 5 2 1 2 1 1 1 3 1 0 1 2 1 0 2 0 4 3 0 2 1 0 0 0 3 0 0 1 0 0 4 2 1 1 1 1 1 1 2 2 0 0 1 2 1 1 2 2 3 1 1 3 2 2 2 3 1 1 2 2 4 2 1 1 2 0 1 2 1 0 1 1 1 0 0 1 1 1 2 1 1 0 2 1 2 1 0 2 0 1 1 2 1 1 0 3 2 2 2 3 2 1 3 3 1 1 1 1 1 1 2 1 0 0 1 2 1 4 4 1 2 2 1 0 3 0 1 1 0 1 1 1 2 2 0 2 1 0 1 1 1 3 0 2 0 1 2 1 1 1 1 1 1 2 0 1 1 1 0 3 0 2 1 1 3 0 2 0 1 2 2 0 1 0 1 0 3 2 2 2 1 1 0 3 3 0 0 1 2 0 2 0 0 0 1 1 1 0 0 1 3 0 2 1 1 2 1 0 0 0 3 1 1 2 1 2 1 2 1 1 1 1 0 1 1 1 0 0 2 3 1 1 1 0 1 0 2 2 1 2 0 0 2 0 1 1 1 1 0 2 2 2 1 2 1 2 2 1 1 2 1 2 0 0 0 2 0 0 2 2 3 2 1 3 1 1 1 1 1 1 2 1 1 2 0 1 3 1 2 3 1 1 0 1 0 1 2 1 1 2 1 1 0 0 3 1 0 2 0 2 1 4 2 1 1 2 2 1 1 2 1 2 0 3 1 1 2 0 1 1 2 1 2 1 2 2 0 1 2 0 0 0 3 1 1 0 0 0 1 1 1 2 0 2 1 1 1 0 1 3 1 2 2 0 0 1 2 2 1 2 1 3 1 1 3 2 1 1 1 1 1 0 1 1 0 2 1 1 2 1 1 0 4 1 3 1 0 0 3 2 0 0 1 3 1 1 0 0 3 3 3 1 1 1 1 2 1 1 1 2 3 2 1 1 2 0 0 0 0 0 2 1 2 1 1 1 0 1 1 3 2 2 2 2 2 0 2 2 0 1 1 1 2 1 0 1 0 2 1 0 1 1 0 3 2 4 0 2 1 2 1 2 0 2 0 3 2 2 1 0 2 1 1 1 2 1 1 1 1 2 2 0 1 1 1 1 2 0 0 0 0 1 2 2 1 4 1 0 0 3 1 2 1 0 0 3 2 2 0 0 1 2 1 0 1 1 2 3 1 1 1 1 1 0 2 0 0 1 2 2 1 0 1 0 2 1 2 2 2 1 2 1 0 4 2 1 3 0 1 1 1 1 1 1 0 0 3 1 0 2 3 0 1 1 0 1 1 1 0 1 0 1 0 1 0 3 1 1 3 2 1 1 2 1 3 1 0 0 1 0 1 1 0 1 1 2 0 1 2 1 2 1 3 2 2 2 3 3 1 2 1 1 1 1 1 1 3 0 0 0 2 2 1 1 2 2 1 1 3 1 2 1 1 2 0 1 1 2 0 2 0 0 1 0 1 3 2 2 0 2 3 2 1 1 3 2 2 3 2 1 1 0 3 3 1 0 3 0 0 1 3 0 2 0 0 3 1 3 4 1 2 0 1 1 3 1 0 0 1 3 1 3 1 2 0 2 1 0 1 0 1 2 4 1 2 1 0 1 2 3 1 2 1 1 2 1 5 2 0 2 0 1 4 1 1 0 1 1 1 2 0 2 0 1 0 2 1 0 1 1 1 0 2 0 1 1 1 0 1 1 1 1 0 4 2 3 2 2 0 2 1 1 1 0 1 0 2 2 0 2 2 0 1 4 1 1 3 1 0 1 3 0 0 3 0 1 2 0 1 0 1 0 4 2 1 0 2 1 1 1 2 1 1 1 1 4 0 2 2 2 2 2 2 1 2 0 2 1 2 1 2 3 3 2 2 1 1 2 1 2 1 1 2 2 2 1 1 2 2 0 1 2 1 1 1 0 1 1 2 1 0 0 1 1 1 1 2 0 2 1 2 0 0 0 0 0 1 1 1 0 2 2 1 1 1 2 1 3 0 2 3 1 2 0 1 0 2 2 1 1 1 2 0 2 0 3 1 3 0 0 0 0 1 2 1 1 3 2 0 2 3 1 0 1 0 0 3 1 4 1 2 1 0 0 1 1 1 0 1 1 0 1 1 2 0 1 1 3 0 1 1 1 0 2 2 3 1 0 1 0 2 1 1 1 1 1 1 0 1 1 1 3 0 0 1 0 1 2 0 1 1 0 3 1 2 0 2 1 1 1 1 1 1 1 1 1 1 1 2 2 0 1 3 0 2 1 1 1 0 2 2 2 0 2 1 2 1 3 2 2 1 1 0 1 2 1 2 1 0 2 0 0 0 0 1 1 3 1 1 3 1 0 0 3 2 3 1 1 2 2 2 1 3 1 2 2 0 2 0 1 2 1 1 0 1 2 2 2 0 0 2 2 1 0 2 1 1 1 1 0 2 1 1 0 0 1 2 0 2 0 2 3 2 0 2 3 1 2 1 0 1 0 0 1 1 1 2 1 1 1 1 0 2 2 0 1 1 1 0 1 2 1 1 1 1 0 0 2 1 3 1 0 2 0 3 1 1 4 1 0 1 0 2 3 1 0 1 1 3 1 0 1 4 1 1 0 2 1 1 2 3 2 1 2 1 0 1 2 1 1 2 2 1 0 0 1 1 2 0 2 3 1 1 0 0 1 1 4 1 1 0 1 1 1 1 1 2 1 1 0 3 2 0 0 1 2 0 1 2 1 3 3 1 2 0 0 1 0 0 0 1 2 2 0 1 3 2 3 2 2 1 0 1 1 2 3 3 1 1 2 2 2 3 1 2 0 0 2 1 2 3 2 1 2 1 0 0 2 3 1 1 2 0 0 2 1 2 0 1 1 1 1 1 1 0 1 1 2 1 3 0 0 2 1 1 0 2 3 2 0 2 1 0 1 0 1 3 1 1 0 1 1 0 2 1 1 0 2 1 2 2 2 1 2 1 0 2 0 1 1 1 1 3 1 1 0 1 1 2 1 1 2 1 0 0 2 0 2 0 2 2 3 1 1 0 1 0 3 0 2 0 1 0 0 1 2 2 0 0 1 1 1 0 0 0 1 1 0 3 2 1 1 0 1 2 1 0 1 1 0 0 1 1 1 0 0 0 1 1 1 0 2 1 0 1 0 2 1 1 1 1 2 1 0 1 3 2 0 2 2 1 1 1 1 2 1 1 1 1 1 1 1 1 1 1 1 2 1 1 2 0 1 1 1 1 0 1 0 1 1 2 1 1 1 1 2 2 2 2 1 0 0 2 2 3 3 1 1 1 0 0 1 0 0 1 1 1 1 1 2 1 0 1 2 1 1 1 0 1 1 1 1 1 1 1 0 1 0 0 0 0 2 2 1 1 2 1 1 0 2 1 1 3 1 1 1 2 2 2 2 0 2 3 0 1 1 1 1 0 2 1 3 0 0 3 1 0 1 0 1 1 2 0 0 1 1 2 2 2 1 1 0 1 1 0 2 0 0 0 0 1 0 2 1 0 2 0 1 1 1 1 1 3 2 1 1 0 1 0 2 0 0 2 0 1 1 1 1 1 1 0 2 0 1 0 4 1 2 0 3 1 2 1 2 0 2 1 1 1 0 3 1 1 1 1 2 2 1 2 2 1 3 1 1 2 0 0 1 1 1 0 1 2 2 0 1 3 1 0 0 0 1 0 2 1 1 1 2 3 2 1 2 1 1 2 2 0 0 2 2 0 1 1 1 1 2 0 1 1 1 3 0 0 1 2 2 2 0 1 2 0 2 2 1 2 1 1 0 2 2 1 2 1 0 1 1 0 1 1 2 1 2 1 1 1 1 1 0 1 3 1 2 2 1 1 1 1 1 0 1 0 0 1 2 1 0 1 2 0 1 2 1 2 3 1 0 1 0 1 0 1 1 2 0 1 0 1 1 1 1 2 1 2 2 1 1 2 3 2 1 3 1 1 2 1 2 0 1 0 2 2 0 2 1 0 1 1 2 0 3 0 1 2 0 1 2 0 3 1 0 1 1 2 3 1 1 1 1 1 0 0 1 1 2 2 1 2 0 0 0 2 0 1 0 0 1 0 4 1 1 0 1 1 0 2 1 2 2 0 1 0 1 1 1 1 2 2 1 0 1 1 3 2 1 0 0 2 2 0 4 1 2 0 2 2 0 2 3 3 0 2 2 0 0 1 2 1 3 0 0 1 0 0 2 1 2 0 1 0 2 2 0 1 1 3 2 2 2 1 1 3 1 4 1 1 2 1 1 1 1 2 2 0 2 1 1 1 1 3 1 3 2 1 2 1 2 3 0 2 2 2 3 0 2 1 2 0 1 1 1 1 1 1 1 1 1 0 1 0 0 2 1 1 2 1 2 2 0 1 1 2 1 1 1 1 2 0 2 1 1 2 1 1 0 1 1 3 1 0 2 0 1 0 1 0 0 0 0 0 2 3 0 1 1 1 0 0 1 3 2 0 1 1 3 0 1 1 0 0 1 1 0 0 0 1 2 1 1 1 0 0 1 2 1 2 1 2 1 1 1 0 1 1 0 2 1 2 0 1 1 0 0 2 1 1 0 1 2 0 0 0 2 0 0 1 0 1 2 1 1 0 2 3 0 1 1 3 2 0 0 3 1 1 1 1 1 2 2 0 1 0 2 0 2 0 0 2 0 0 1 1 0 2 2 0 2 1 1 1 0 2 2 3 2 1 1 1 2 0 1 1 0 1 0 0 3 1 3 2 2 1 1 1 3 2 0 3 0 0 0 0 1 1 1 1 0 1 0 0 2 1 2 5 2 1 3 0 0 3 0 1 0 1 1 3 2 0 0 1 1 2 2 0 0 4 1 1 1 1 2 2 1 1 1 1 0 1 1 0 0 1 1 1 3 0 0 4 1 3 1 0 2 2 0 4 2 2 1 0 1 3 0 2 3 2 1 2 2 3 2 2 4 1 1 1 0 1 1 1 3 0 1 3 2 0 1 1 0 2 4 3 2 2 1 0 2 0 2 1 0 2 1 1 0 3 0 0 0 3 2 1 1 0 0 0 2 1 2 1 1 2 0 1 1 0 1 1 2 0 1 1 0 1 2 2 2 3 0 1 0 3 3 0 1 1 2 1 2 0 1 1 3 1 1 0 1 1 1 1 1 2 2 1 1 3 3 0 0 3 2 0 1 1 2 1 3 2 2 1 2 0 1 0 2 2 1 2 2 1 0 1 3 0 0 2 0 1 3 1 0 0 1 2 0 3 3 1 0 2 2 0 1 1 0 0 1 1 2 2 1 2 1 1 0 0 1 2 3 0 0 1 2 0 0 3 1 1 0 1 1 2 1 2 0 3 1 2 2 2 1 2 1 1 1 1 0 1 1 1 0 4 0 2 1 2 0 2 3 1 0 2 1 1 1 1 0 0 1 2 1 2 2 2 3 2 1 1 1 3 1 1 1 0 1 1 0 2 0 1 0 2 1 2 3 2 1 1 1 1 1 4 3 1 2 2 1 1 3 0 2 0 3 1 1 2 3 1 0 2 3 1 0 2 1 2 0 0 0 0 2 2 1 0 3 1 1 0 0 1 1 0 2 2 2 1 2 1 0 2 1 3 2 3 0 0 1 1 1 1 3 1 2 2 1 0 0 2 1 0 2 1 0 1 1 2 0 0 2 2 2 0 1 1 2 0 0 1 1 0 2 2 1 0 1 0 1 3 0 1 0 0 1 0 0 1 0 1 2 1 2 1 0 0 1 0 1 1 1 0 2 1 1 0 3 2 2 1 0 2 3 0 1 0 3 0 1 3 6 1 1 1 3 1 3 0 0 1 0 1 1 1 2 3 1 1 2 1 1 2 2 2 2 1 2 0 3 0 2 1 2 3 1 1 1 1 0 2 0 2 0 0 1 1 2 2 1 2 2 1 1 0 2 2 0 1 1 1 1 0 2 0 1 3 3 1 1 0 0 2 3 1 1 1 3 2 2 1 1 1 3 1 2 2 1 1 1 1 1 1 1 1 1 0 2 1 2 0 0 1 2 3 1 2 0 1 0 1 0 1 2 0 3 1 2 2 0 1 1 1 1 2 2 1 1 2 0 1 2 2 1 3 1 2 2 2 2 2 3 3 1 3 0 0 1 2 3 2 1 2 0 1 3 1 1 2 3 1 0 0 1 0 0 3 1 1 1 2 1 1 0 2 0 2 1 2 2 2 0 1 0 4 2 1 3 1 0 1 1 3 2 0 0 1 1 2 1 2 2 0 1 3 1 1 0 1 2 1 1 2 1 1 1 1 0 2 0 0 2 3 0 1 4 2 2 0 0 0 1 0 2 2 0 1 2 1 2 1 1 1 1 2 0 0 1 0 1 1 2 0 2 2 1 1 0 1 3 1 1 1 0 3 0 1 2 1 2 1 1 1 1 0 1 1 0 2 1 0 1 1 1 1 1 2 1 1 0 2 1 1 0 2 1 1 2 1 1 0 2 2 2 0 1 1 0 3 3 2 1 0 1 3 1 2 0 0 2 0 1 0 0 1 1 1 0 3 0 0 2 1 1 3 1 1 1 0 2 2 1 0 1 0 2 1 2 2 1 4 1 2 2 2 2 0 2 2 1 1 0 0 0 0 2 2 2 1 2 1 0 2 1 1 1 2 1 1 3 2 1 1 0 0 3 2 0 0 1 2 1 1 2 1 1 2 1 1 3 1 1 0 1 1 0 3 1 1 0 2 2 1 0 2 3 0 0 2 3 1 1 2 2 2 1 2 1 1 2 2 1 1 1 0 2 1 2 3 2 0 2 0 1 4 1 2 1 2 0 1 1 2 2 1 0 1 0 3 1 0 1 1 0 1 2 2 4 0 1 1 0 1 2 1 3 0 1 1 0 0 0 0 1 2 1 2 2 1 2 0 0 2 0 1 2 0 2 0 2 0 0 1 3 0 1 2 0 0 1 0 1 2 1 2 1 2 1 0 1 1 3 1 0 0 0 0 1 1 1 0 1 2 2 2 1 0 2 1 0 3 2 0 1 0 1 1 2 2 1 2 1 2 2 1 2 2 0 0 2 0 2 2 0 0 0 2 2 1 1 2 2 1 1 3 1 1 1 2 0 1 2 3 1 1 0 0 0 1 1 1 2 0 1 0 2 1 2 2 0 0 1 1 1 3 1 2 1 0 0 3 2 1 1 1 0 2 1 1 1 3 0 2 1 2 1 1 3 2 0 1 2 1 0 1 1 1 1 2 3 2 0 2 1 1 0 1 2 1 1 1 2 2 0 1 1 0 0 0 0 2 1 1 2 1 0 1 3 2 1 2 1 0 2 1 0 1 0 0 1 0 1 1 1 3 1 2 1 2 0 0 3 0 0 2 2 2 0 2 1 2 1 1 0 1 1 1 1 2 3 4 2 1 1 1 4 0 0 3 2 3 2 1 2 1 1 1 1 1 2 1 1 2 0 3 2 0 1 0 1 1 1 2 2 1 1 1 1 1 0 1 0 1 3 3 1 1 1 3 2 3 2 1 0 1 2 0 1 2 2 1 0 1 0 1 1 1 1 3 0 1 2 1 1 0 2 1 2 2 2 3 1 2 2 0 1 0 1 1 2 2 1 0 1 2 1 1 0 3 4 1 2 0 1 2 1 3 0 1 1 1 2 1 2 2 0 1 2 2 1 0 2 2 2 1 0 1 3 3 0 1 1 3 1 0 3 3 0 0 1 0 0 1 3 1 0 1 1 0 2 0 1 0 1 0 1 0 0 1 2 1 1 1 0 0 0 0 1 0 2 0 2 2 3 1 0 0 0 2 1 2 2 0 1 1 1 0 2 1 2 1 1 1 2 1 1 2 0 1 2 1 0 0 1 1 1 3 0 2 3 2 2 2 1 1 2 1 1 2 0 4 2 2 1 1 1 2 2 1 0 2 0 2 1 1 2 1 1 0 0 1 2 2 1 1 0 2 1 3 2 0 2 2 0 0 2 2 1 0 1 0 1 1 0 2 0 0 1 1 2 2 1 1 1 1 1 1 1 2 1 1 2 2 1 0 2 0 4 2 1 2 0 1 0 1 0 0 2 2 2 1 1 1 0 0 2 1 2 1 0 1 1 1 1 1 0 0 1 1 0 1 1 2 0 1 2 2 1 1 0 0 1 1 1 2 0 1 1 1 4 2 0 0 2 2 0 2 1 2 0 1 0 2 1 2 2 1 0 1 1 1 2 2 0 0 0 1 1 0 0 4 0 2 0 2 0 2 1 0 1 1 0 2 1 0 0 0 2 0 1 1 2 1 2 2 3 1 1 1 0 1 1 1 1 4 1 2 1 3 2 1 3 1 0 2 1 0 0 2 0 0 1 1 1 0 0 1 1 1 1 1 0 0 1 2 2 2 3 1 2 1 1 3 1 1 1 3 1 1 0 0 1 1 0 0 1 0 2 1 1 1 1 1 0 1 2 0 3 1 2 1 0 1 5 1 0 2 0 0 1 3 0 2 0 1 1 1 0 1 1 2 1 2 2 0 2 2 3 3 1 3 0 2 1 0 0 1 0 2 0 2 3 1 1 1 0 0 2 1 2 0 2 1 3 3 1 1 1 2 0 2 1 0 3 1 2 2 1 1 1 0 1 0 2 2 1 1 0 2 0 1 2 0 3 3 3 3 2 1 0 1 2 0 1 2 1 0 1 0 1 3 1 1 1 0 2 2 1 2 1 1 1 1 0 2 0 0 2 0 1 1 1 1 0 1 1 1 1 3 1 1 1 0 0 0 0 0 2 1 0 2 1 1 1 1 2 1 1 1 4 2 1 1 1 2 0 0 0 1 2 2 3 3 1 2 3 0 3 1 1 0 1 0 2 2 2 3 2 3 1 1 1 0 1 0 1 0 1 0 5 0 3 3 0 1 1 2 2 1 1 3 1 1 0 2 0 2 2 1 0 0 0 2 0 1 1 1 2 3 0 0 3 1 1 0 0 3 0 1 2 2 1 2 1 0 1 1 2 1 2 4 0 1 1 1 1 2 1 1 1 1 0 0 1 1 0 2 1 1 1 0 0 4 2 3 1 2 1 1 1 1 2 1 1 0 0 0 0 1 1 1 3 2 2 3 0 2 1 2 2 1 1 1 1 0 0 0 0 0 0 0 0 1 2 0 3 2 1 1 3 0 1 1 1 2 1 2 1 2 0 2 2 2 1 0 4 1 0 1 0 2 0 2 2 1 0 2 2 2 1 0 1 2 0 3 0 1 2 1 0 3 0 1 1 1 2 0 1 1 0 1 1 1 0 1 3 2 1 2 2 1 1 2 1 2 2 3 1 1 2 2 1 1 2 1 0 2 1 1 0 1 0 2 0 1 2 2 0 0 2 0 1 2 0 0 3 1 2 1 0 1 2 1 1 0 2 0 1 2 1 1 0 0 2 2 0 2 1 1 1 1 0 4 1 2 2 2 1 1 1 2 0 1 0 1 0 1 1 0 2 1 1 2 2 2 2 2 2 2 0 1 2 1 0 2 0 1 1 1 0 0 3 3 1 2 2 1 0 0 2 0 0 0 2 1 0 1 0 0 2 1 1 1 0 0 0 2 0 3 0 1 4 2 1 0 2 2 1 0 0 1 2 2 3 2 2 2 0 3 1 1 4 0 3 0 0 1 0 3 3 1 1 1 0 2 0 2 1 0 1 2 0 2 0 3 1 1 1 0 2 1 1 0 1 2 2 2 0 0 1 1 2 1 2 0 0 1 1 1 1 2 1 2 1 1 2 4 4 1 0 2 2 0 2 2 2 1 1 1 1 1 2 3 0 1 1 2 1 2 0 1 3 2 2 4 2 1 1 1 1 0 2 2 1 1 1 2 3 1 1 1 1 2 0 2 1 1 1 0 1 2 1 2 1 0 2 2 0 1 1 1 2 1 1 1 1 2 1 0 2 1 1 0 1 1 0 1 2 2 1 3 4 0 0 1 1 1 2 2 0 1 0 1 3 1 0 2 2 1 1 3 3 2 2 1 0 0 3 0 1 0 1 0 2 0 2 2 0 2 1 1 2 3 2 2 3 2 2 0 2 1 0 0 1 1 1 1 2 1 1 0 1 0 2 0 2 1 1 0 0 1 2 1 2 2 1 1 1 0 0 2 1 0 1 1 1 1 0 1 1 3 0 2 0 0 0 0 2 2 2 1 1 2 5 0 1 1 0 0 0 1 1 0 2 1 2 3 1 1 2 2 1 2 2 0 2 0 1 0 2 0 1 0 1 2 0 1 1 1 2 2 2 1 1 1 3 0 3 3 1 1 2 1 1 2 1 1 1 1 2 0 0 1 0 3 1 2 0 1 1 2 3 1 1 3 0 1 1 3 1 1 0 2 2 2 0 3 2 1 1 1 1 1 1 1 1 2 1 3 0 1 2 1 1 2 1 2 0 3 2 1 1 1 1 2 1 2 2 2 2 1 1 0 3 1 1 0 2 3 0 1 0 1 0 3 0 0 4 1 3 2 1 1 0 1 0 2 0 1 2 4 0 2 1 0 1 1 0 2 0 2 1 1 1 0 0 1 0 0 2 1 1 1 0 1 1 2 2 2 0 3 1 2 0 2 0 2 2 2 1 0 1 0 1 2 1 4 0 1 0 0 3 2 0 1 3 0 1 1 2 0 3 1 1 2 2 0 2 3 3 1 1 0 0 1 1 0 2 1 0 2 2 2 1 2 0 2 2 2 1 1 2 1 0 2 1 1 1 1 1 1 1 0 3 1 2 1 2 2 2 3 1 2 0 2 1 2 0 1 3 1 0 2 1 1 2 1 3 3 0 0 1 3 4 1 1 1 1 0 1 4 1 1 1 3 2 2 0 3 2 1 1 1 1 0 1 2 0 2 0 0 2 2 1 1 2 1 1 1 3 4 3 2 1 1 0 0 2 1 1 1 1 1 2 2 0 0 1 1 3 0 1 1 1 2 1 0 2 3 3 0 2 2 1 1 4 1 1 1 1 0 1 2 1 1 0 1 1 0 0 3 0 1 1 2 0 0 3 3 1 1 2 1 1 0 3 2 1 1 3 4 1 2 1 4 2 1 1 1 1 2 2 1 1 0 1 0 2 3 2 2 1 1 1 1 2 1 1 2 1 1 1 1 1 1 1 1 1 1 1 1 1 3 1 1 0 2 1 3 1 2 3 2 1 2 1 1 3 1 1 1 1 1 2 2 1 0 1 1 2 0 1 2 3 0 2 3 1 1 0 2 0 1 1 1 1 0 2 3 1 0 2 1 0 0 2 1 3 3 2 1 1 0 3 0 0 0 1 1 2 0 4 0 2 4 1 2 1 2 0 1 3 1 1 1 0 2 2 2 1 2 3 1 1 0 0 0 2 1 0 1 1 0 1 1 2 3 4 1 2 1 1 0 0 2 1 2 0 0 1 2 2 0 2 2 2 1 2 3 2 0 0 2 1 2 3 3 1 1 1 0 2 2 1 2 0 2 0 2 1 2 0 2 1 1 2 1 0 2 1 0 2 3 1 2 1 1 1 0 1 1 1 1 1 3 3 0 2 2 1 2 2 2 2 0 2 1 0 1 2 1 0 1 2 0 2 0 1 2 0 1 2 0 1 1 1 1 0 1 1 1 1 2 2 0 3 1 0 1 1 0 1 1 2 2 0 2 1 0 0 1 1 0 1 0 1 3 1 2 1 1 0 0 0 1 3 0 0 0 2 0 1 2 2 2 2 1 0 0 0 0 1 3 0 2 1 2 3 2 2 1 0 3 2 1 1 2 2 1 0 1 1 3 2 3 1 2 0 1 3 0 1 2 2 1 1 2 1 2 2 1 0 2 2 1 3 1 2 0 1 1 1 0 1 1 0 0 1 0 1 0 0 0 3 3 2 1 0 3 1 1 1 1 2 2 1 1 0 0 3 0 0 2 1 1 1 1 2 0 1 2 2 1 1 1 0 2 1 0 1 1 1 1 2 1 2 1 0 1 0 2 2 1 0 2 1 0 2 1 1 1 0 1 1 1 1 2 3 1 1 2 0 0 1 0 1 2 2 0 2 2 1 2 1 1 1 1 1 1 3 1 2 2 2 3 2 2 1 1 1 1 0 2 0 1 0 2 0 2 1 1 0 0 2 0 1 0 0 3 1 1 0 3 1 2 1 1 0 1 1 1 1 1 1 0 2 4 1 1 1 0 0 2 1 4 2 1 2 0 1 0 1 1 0 4 0 1 0 3 1 0 1 0 1 0 2 1 2 1 0 1 0 1 1 2 1 3 2 1 2 2 0 0 1 2 2 0 1 1 1 2 0 2 2 0 2 1 1 2 1 2 2 1 0 0 2 1 1 0 2 1 2 2 3 0 2 1 2 1 1 2 2 2 2 1 1 0 0 2 3 0 0 1 0 0 1 1 3 1 2 1 0 2 1 1 1 0 3 1 2 1 2 1 1 1 1 1 1 2 1 3 3 1 1 1 2 2 2 1 1 2 2 3 1 0 0 1 2 3 2 1 0 2 2 3 0 2 1 1 0 1 2 1 0 2 1 2 1 1 1 2 1 1 1 2 0 0 0 2 1 2 1 1 2 3 0 0 2 1 1 2 0 1 1 1 0 0 2 2 0 1 0 0 1 0 1 1 2 0 0 2 2 1 1 1 0 0 0 1 1 0 3 0 0 2 1 1 2 0 2 2 2 0 0 1 1 3 1 1 1 2 2 1 0 1 1 0 1 1 0 0 1 2 1 1 2 2 1 1 1 1 1 1 0 1 0 0 1 0 2 0 0 0 1 2 0 1 1 3 1 3 3 2 1 2 2 1 1 0 2 0 2 0 2 0 1 0 2 1 0 2 0 1 1 0 2 2 1 1 1 1 0 2 1 1 0 0 1 0 3 2 2 0 1 1 1 2 1 2 0 0 1 0 1 1 0 2 2 2 0 1 1 2 2 1 3 1 2 1 3 2 1 2 1 1 1 0 1 1 0 2 1 1 1 1 1 2 0 2 0 0 2 1 1 2 1 1 1 0 2 2 2 1 1 2 0 2 1 0 1 2 0 2 0 1 1 0 1 1 2 1 2 5 2 0 2 1 2 0 3 1 1 2 2 1 4 2 1 2 1 1 1 2 0 2 0 1 1 3 1 3 1 1 1 1 2 2 1 1 2 0 0 1 1 1 2 1 1 1 1 3 0 1 2 3 0 2 1 0 1 1 1 2 2 0 1 1 1 0 2 2 1 1 1 1 0 2 2 0 1 3 1 1 1 2 1 1 2 0 0 1 1 0 2 0 2 2 0 1 0 1 1 0 1 0 1 1 0 2 0 0 1 2 1 0 4 1 1 2 2 2 0 1 2 2 0 1 0 0 1 1 1 1 1 0 2 1 3 0 1 0 2 1 2 2 1 0 0 1 2 2 1 2 2 1 3 2 0 1 1 1 1 0 0 0 2 2 2 1 2 1 2 2 2 1 2 3 0 1 1 1 2 1 1 2 0 3 1 2 1 1 0 1 1 0 0 1 3 1 1 0 0 1 1 1 2 0 1 1 1 1 2 3 3 1 0 1 1 1 0 2 1 1 2 1 1 2 1 1 2 1 1 3 0 1 1 0 1 1 0 2 2 0 2 3 2 1 2 1 1 1 1 1 1 3 3 1 1 1 1 0 2 1 1 2 1 1 2 1 3 1 3 1 1 3 0 1 1 2 1 1 0 0 2 3 1 2 2 1 0 2 2 1 1 0 1 2 2 0 0 1 1 1 1 0 0 1 1 4 1 1 0 3 3 2 1 1 0 1 2 2 2 3 1 1 1 0 0 1 1 2 1 3 0 1 0 3 1 2 1 0 0 2 0 2 3 0 2 0 0 0 1 1 3 1 1 1 2 2 2 1 4 2 1 1 2 0 1 2 0 2 1 1 1 2 1 1 0 0 1 0 0 2 2 2 1 0 2 1 1 1 1 0 1 2 1 2 0 2 1 1 1 1 0 0 0 1 2 0 2 1 1 2 0 0 0 1 0 1 1 2 2 0 1 1 0 1 1 1 1 0 2 1 1 3 1 0 1 1 1 0 3 1 0 2 0 1 0 0 1 1 0 3 0 1 2 2 1 1 2 1 1 2 1 1 1 0 0 1 1 0 2 1 1 2 1 0 0 0 2 3 1 0 3 1 2 0 2 0 6 0 0 0 1 1 1 0 0 1 3 2 1 1 2 2 1 0 0 1 2 0 1 2 2 2 1 4 1 2 1 1 1 1 1 1 0 0 2 2 1 0 0 0 0 1 2 0 0 2 1 1 1 1 1 1 1 1 0 2 1 0 1 0 2 0 2 2 1 1 3 2 3 5 0 1 0 0 0 1 1 4 2 1 1 1 0 1 1 1 1 2 3 0 2 3 1 2 0 2 0 0 1 3 1 0 1 2 1 2 2 0 1 2 1 1 0 1 3 2 1 1 1 1 1 2 2 1 1 0 0 2 0 1 1 1 1 1 1 1 1 1 0 1 2 1 1 2 1 1 0 5 0 0 1 1 1 0 1 1 2 1 2 1 1 1 0 2 2 2 0 1 2 1 1 0 2 2 2 1 2 1 1 0 1 2 0 0 1 0 0 2 1 1 1 0 0 0 2 3 1 2 0 1 1 2 0 2 3 2 1 1 0 1 1 1 0 1 1 0 2 1 2 2 0 3 0 3 0 0 0 2 0 2 1 0 1 1 2 0 2 1 1 1 1 1 1 2 1 0 1 1 2 1 1 2 1 1 3 1 2 3 0 0 1 0 2 0 0 1 0 2 2 1 1 1 2 1 0 0 0 0 1 2 2 2 0 2 1 1 0 0 2 1 0 2 1 1 2 0 0 2 0 0 0 0 1 0 2 1 2 1 2 1 1 2 0 2 1 1 0 3 1 1 1 1 1 1 0 1 3 1 2 0 1 2 0 2 2 1 2 0 0 1 3 0 2 2 1 1 1 2 2 0 0 0 3 0 0 0 2 0 2 1 1 1 2 0 1 1 2 3 4 1 1 0 2 1 3 2 1 0 4 3 1 2 1 1 2 1 0 1 0 1 2 2 1 1 0 2 2 2 1 1 1 2 1 0 2 2 0 4 2 1 1 1 0 1 1 2 1 1 1 1 1 2 2 1 1 0 2 1 3 2 1 0 0 2 0 0 1 1 1 2 1 0 2 0 2 1 2 3 1 2 1 1 0 2 2 1 2 1 0 1 0 3 0 0 4 1 1 1 0 1 2 1 0 2 1 1 1 2 1 1 2 0 1 1 0 0 2 1 2 1 0 1 0 2 1 0 2 0 1 0 1 1 0 2 2 2 1 1 0 1 1 0 2 2 2 1 1 0 0 2 1 2 0 1 1 1 0 0 0 0 3 0 1 1 3 1 1 1 1 1 1 4 1 2 4 2 1 0 2 0 1 2 0 0 0 1 0 0 1 0 2 1 3 1 1 0 0 2 3 2 1 0 0 1 0 1 0 1 0 0 1 2 2 3 1 1 3 1 1 1 1 1 0 0 0 0 1 2 1 0 1 3 0 1 1 1 1 0 1 1 1 1 1 3 2 0 1 1 2 1 5 2 1 1 1 2 0 1 0 2 2 2 1 0 0 2 0 1 1 2 2 2 3 4 2 2 2 1 0 2 0 2 1 1 2 1 1 0 0 1 2 2 0 1 1 1 1 1 0 1 0 1 2 0 1 0 2 1 1 1 1 1 2 1 1 3 0 0 1 1 1 0 1 0 2 1 1 0 1 2 2 4 2 1 2 0 1 1 1 2 0 0 0 2 1 1 1 3 1 2 3 2 0 1 3 0 0 4 0 1 1 0 3 2 0 2 0 0 1 1 3 0 0 1 0 0 1 2 1 4 1 0 2 2 1 3 0 1 1 1 0 2 0 0 0 0 0 1 2 1 0 2 2 2 1 1 0 0 0 0 2 1 1 0 1 1 2 0 1 2 3 2 1 2 0 1 1 0 0 4 1 1 2 1 2 0 0 2 1 2 1 1 1 0 0 1 0 2 1 2 1 0 1 0 2 0 0 0 1 1 0 2 0 3 0 4 2 2 4 2 1 1 1 2 0 0 1 3 1 0 3 2 0 1 1 2 1 1 1 3 0 1 3 2 1 2 1 2 2 1 2 1 1 3 1 0 3 2 1 0 1 1 0 3 2 2 0 0 0 1 4 3 2 4 1 1 0 1 1 2 2 0 1 0 3 1 2 0 2 1 1 0 1 2 1 1 1 0 2 0 1 1 1 2 1 0 0 1 1 0 1 3 2 3 1 1 3 0 0 0 1 1 1 1 2 1 1 1 2 1 1 2 0 3 1 2 1 2 1 2 0 0 0 2 0 0 4 1 1 0 0 1 2 0 2 0 1 1 1 2 1 1 2 2 1 2 0 2 1 0 0 0 1 2 0 3 1 0 1 0 1 2 1 1 0 1 1 0 2 0 0 0 2 1 2 3 0 1 1 0 0 1 2 1 1 2 0 0 2 0 2 0 3 1 2 1 0 1 1 0 0 2 0 0 1 1 0 2 0 0 1 0 1 2 0 2 1 2 1 0 0 1 1 1 3 0 3 0 2 1 2 2 1 1 0 0 1 0 0 2 0 1 1 2 1 2 3 1 1 2 2 0 0 2 1 2 1 1 1 2 3 0 1 2 2 1 0 1 0 2 1 0 2 1 1 1 0 1 1 0 1 3 2 1 1 0 1 2 3 1 0 1 1 1 1 3 2 1 1 1 0 0 1 1 1 3 3 2 2 1 1 2 1 2 2 4 1 3 1 1 3 1 1 1 2 1 1 0 1 2 3 0 0 1 2 1 0 0 4 2 2 2 0 2 0 2 1 2 2 1 1 3 1 1 0 3 2 1 3 1 0 0 2 2 1 2 3 0 2 1 1 2 1 1 1 1 3 1 1 0 1 2 1 1 1 0 2 1 1 4 2 2 2 2 0 0 2 1 2 0 2 1 1 4 0 2 0 0 0 1 2 1 0 0 1 4 2 0 2 3 1 2 2 1 2 2 2 1 3 2 1 1 1 0 1 4 0 2 0 1 0 2 1 0 1 0 0 2 0 1 0 1 1 2 1 1 2 2 0 1 0 3 2 1 0 0 3 1 3 1 2 2 0 2 3 4 2 0 1 0 0 3 2 1 2 2 1 1 2 0 0 1 3 0 1 1 1 2 1 1 0 0 1 0 1 0 2 2 1 2 1 3 2 2 1 1 1 2 1 0 2 0 2 0 0 1 2 1 1 1 2 1 0 3 1 1 0 2 1 1 0 1 3 2 1 2 2 0 1 1 3 0 1 2 1 4 1 1 2 0 2 0 1 2 2 1 0 2 2 1 1 0 0 2 1 1 1 0 0 0 2 0 1 2 2 1 1 3 2 0 1 3 2 0 1 0 0 0 3 2 2 2 0 2 2 1 2 0 1 1 1 0 1 1 2 3 0 0 1 1 2 2 2 0 1 1 2 2 1 1 2 0 1 2 1 2 1 1 1 1 1 1 0 2 0 1 1 0 1 1 1 1 0 1 0 2 1 0 1 1 2 0 1 1 2 0 3 3 1 0 1 1 2 2 4 2 2 1 1 1 1 0 1 4 2 0 0 1 1 1 1 1 2 2 2 2 1 1 2 2 1 0 0 1 1 1 2 0 1 2 2 2 2 1 1 2 0 1 1 1 1 1 1 0 2 1 2 1 0 2 1 2 1 1 1 0 2 2 1 1 0 0 1 1 1 1 1 2 2 0 0 2 1 0 1 1 1 3 2 1 1 0 0 0 1 3 1 3 0 2 1 1 1 1 0 0 0 0 3 2 1 1 0 1 0 0 2 1 2 1 1 2 1 0 0 2 2 1 2 0 2 2 1 3 1 1 3 1 0 1 1 1 2 1 1 1 2 1 4 0 0 0 1 1 1 1 0 2 0 1 3 1 2 0 1 2 2 3 1 1 0 0 1 0 1 0 1 2 0 3 0 0 3 2 2 2 1 1 0 1 1 1 0 2 1 1 1 1 2 0 1 1 0 0 0 1 0 2 1 0 2 1 2 1 2 1 2 1 0 0 2 0 2 0 0 0 0 1 0 0 1 1 2 1 0 2 2 2 1 1 2 2 1 0 0 1 2 0 0 3 2 1 0 0 1 2 1 0 0 1 1 1 1 1 3 4 1 4 1 1 0 3 1 2 2 0 1 0 0 1 1 2 0 0 0 0 1 2 1 0 1 1 2 2 0 2 1 1 1 3 3 1 1 0 0 2 0 1 0 0 2 1 3 0 0 2 1 1 1 1 3 2 1 3 1 0 1 1 2 0 0 0 1 0 2 4 0 1 1 1 0 1 2 0 0 1 1 1 1 2 2 3 2 0 0 0 2 0 1 3 2 2 1 3 1 1 1 1 2 1 2 1 2 1 1 0 0 1 2 1 1 2 1 0 2 1 0 1 0 0 2 2 2 0 1 1 1 2 1 1 1 0 0 2 2 1 0 1 1 1 3 0 1 0 2 2 2 1 1 2 0 3 2 2 2 1 1 1 2 2 1 0 1 1 1 2 0 2 2 2 0 1 1 2 1 0 1 0 2 1 1 2 0 1 1 0 2 1 1 2 1 1 1 1 1 0 3 1 0 2 1 2 1 1 0 0 1 3 2 2 1 1 1 0 3 1 3 1 2 1 1 2 1 0 0 1 3 0 4 0 2 1 0 1 1 0 0 0 2 0 1 1 1 1 1 0 0 2 1 6 0 0 0 2 1 0 1 1 2 0 1 0 1 2 1 2 0 0 1 2 1 0 3 0 0 0 1 1 2 1 2 0 0 2 4 0 2 1 3 1 0 1 1 3 0 0 2 1 2 1 2 0 2 2 2 1 0 2 1 0 2 0 2 1 0 0 2 2 1 3 1 2 1 1 2 0 1 0 1 1 0 1 2 1 0 1 4 1 2 1 1 1 1 2 0 2 1 0 0 4 1 0 3 1 0 2 1 1 0 1 0 0 1 0 0 1 2 1 2 2 1 2 2 2 2 2 0 0 0 0 2 2 1 3 2 1 2 0 0 0 0 2 2 3 2 3 1 1 1 4 2 2 1 1 2 1 1 1 1 1 1 1 2 0 0 0 0 3 2 3 1 0 1 0 2 2 1 2 0 1 0 2 3 0 2 1 1 1 2 1 1 0 0 2 1 0 1 3 1 3 2 0 3 1 2 2 1 0 2 1 2 1 0 2 4 2 0 0 2 3 3 3 3 2 1 1 1 1 3 1 1 2 2 1 1 1 2 1 0 2 2 2 1 2 1 2 1 3 1 3 1 1 2 1 1 1 2 1 0 2 0 0 1 0 1 1 3 2 2 1 2 1 2 0 1 1 0 3 1 1 1 1 1 1 2 0 0 1 1 2 1 0 1 0 1 1 1 0 2 2 1 0 0 2 1 2 0 1 0 1 0 2 2 2 2 1 2 2 1 0 1 1 1 1 1 2 2 1 1 2 0 1 0 1 0 0 3 4 1 1 2 2 2 3 1 3 0 2 2 2 0 2 2 1 1 1 1 1 0 0 1 1 1 3 0 1 0 4 2 1 1 1 3 1 0 1 1 2 0 0 0 3 2 1 1 0 0 2 3 1 0 2 1 0 0 2 1 1 2 1 3 2 1 1 0 1 0 2 1 1 1 1 0 1 1 1 2 1 0 0 0 0 1 1 2 1 1 2 1 4 0 3 1 2 0 0 0 1 1 1 2 2 2 1 1 0 0 1 2 1 2 2 0 2 1 2 1 0 1 2 1 1 1 2 0 3 2 0 2 4 3 2 1 1 1 1 0 1 0 0 1 1 1 1 1 0 3 1 2 0 0 0 1 2 1 1 2 1 2 1 0 1 0 2 0 0 2 2 1 1 1 2 0 0 0 1 1 0 1 0 4 0 3 0 2 1 1 2 2 1 0 1 0 1 1 0 1 3 3 3 1 0 2 0 1 0 3 1 0 1 0 1 2 0 1 2 1 0 0 1 0 2 1 2 0 1 2 0 1 2 3 0 3 1 1 0 1 1 0 2 2 1 1 1 0 3 1 2 1 1 1 1 2 2 1 1 2 1 1 0 1 0 1 0 1 0 2 0 1 1 1 2 1 1 1 1 1 1 0 2 2 1 1 1 3 1 2 0 2 1 2 1 3 0 2 1 0 1 1 4 2 1 2 2 2 2 2 1 0 1 1 1 1 1 1 2 1 2 1 1 1 2 1 0 2 1 2 1 0 0 1 1 1 0 1 2 1 2 0 2 3 3 2 1 1 0 1 1 1 1 1 0 1 0 1 1 2 1 1 2 2 2 2 1 0 0 1 4 2 2 1 0 0 1 0 1 0 0 0 1 0 0 1 1 2 2 2 2 2 0 1 2 2 2 3 1 2 1 1 1 1 2 0 1 1 2 2 0 0 1 1 1 1 0 3 2 1 1 2 0 2 1 1 2 0 1 0 1 2 2 2 3 1 2 2 2 3 0 1 3 1 1 1 3 0 0 3 0 1 1 2 1 0 2 1 1 0 0 1 0 0 0 1 0 0 1 0 2 2 1 1 3 1 2 0 0 3 2 1 1 0 0 1 0 0 2 1 1 1 2 0 1 0 1 0 0 3 0 0 1 2 2 2 0 1 2 0 2 1 0 2 2 2 0 1 1 1 2 4 1 2 1 2 1 2 2 1 0 0 0 1 0 1 2 2 1 1 2 2 2 0 1 2 1 2 1 1 1 1 3 0 0 0 2 1 0 0 0 3 3 0 2 1 1 1 1 1 0 2 1 2 1 1 1 1 2 2 1 0 0 0 1 1 2 2 1 0 1 1 1 1 1 1 0 2 1 0 1 1 1 1 1 1 0 1 0 3 1 1 0 1 0 1 3 1 3 2 2 1 2 1 3 1 3 1 2 2 0 1 0 2 2 2 3 2 0 2 0 1 1 0 0 1 2 0 2 1 1 0 1 1 0 1 0 2 3 2 1 2 2 1 1 1 2 2 2 1 3 3 1 2 1 1 1 1 0 2 1 1 1 1 1 1 2 1 0 2 2 1 1 2 0 0 0 0 0 2 2 0 0 2 1 2 1 1 1 2 1 2 1 1 2 3 0 2 2 0 1 1 1 0 1 2 0 2 1 1 1 2 2 1 2 0 0 1 0 3 2 2 1 1 4 1 1 1 1 1 2 3 1 1 4 2 2 2 0 1 1 0 0 0 1 2 1 0 2 1 0 0 1 3 0 3 1 1 4 2 0 1 1 0 0 1 2 2 1 1 1 2 1 3 1 2 1 1 0 0 1 2 2 1 3 1 1 1 1 1 1 3 0 1 2 1 1 0 1 3 1 0 2 1 0 1 1 2 1 1 0 1 1 2 0 1 1 1 2 0 1 1 1 2 2 1 1 1 2 1 0 0 0 2 3 2 2 1 0 1 0 1 1 0 0 2 1 3 1 2 1 1 1 1 2 1 2 1 2 3 0 2 0 1 1 0 1 1 0 0 0 1 1 0 1 1 1 1 1 1 0 1 0 0 1 3 3 2 2 0 2 2 0 2 3 1 1 0 1 0 1 3 0 1 1 2 0 1 2 1 2 0 1 1 1 1 1 1 2 1 2 2 1 0 0 1 2 1 0 0 3 1 1 1 1 2 2 0 1 1 0 0 3 1 3 0 2 1 1 0 2 2 3 1 1 2 0 1 0 3 1 0 1 2 0 2 1 1 1 0 1 1 1 1 1 0 2 0 0 2 4 0 1 1 0 1 3 2 2 0 2 2 2 1 1 1 1 1 1 1 2 0 1 2 1 2 1 1 2 0 1 1 1 0 1 1 2 3 2 1 0 2 0 0 1 0 2 0 2 1 1 1 1 0 1 2 3 2 1 2 2 1 4 1 0 1 3 1 2 0 1 2 1 1 0 3 0 0 1 0 2 0 0 0 3 1 0 2 1 1 2 1 1 1 2 1 0 2 1 2 2 2 0 1 0 2 3 0 1 2 1 2 1 0 0 2 2 1 0 2 1 2 0 2 0 1 1 1 0 2 0 0 1 1 1 3 2 1 0 0 1 1 2 1 0 0 2 1 2 2 2 1 2 0 1 1 2 1 3 2 0 0 3 0 1 2 2 2 1 1 1 0 3 1 1 2 1 1 1 0 3 0 1 1 0 0 0 1 1 1 2 1 2 2 0 1</t>
-  </si>
-  <si>
-    <t>GAM(0.48587126638430955, -4.9789669992500654e-27, 0.6701538171307273)</t>
-  </si>
-  <si>
-    <t>0 1 0 1 0 0 0 1 2 1 0 1 0 0 1 0 2 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 2 3 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 2 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 1 1 1 0 1 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 2 0 0 1 1 0 0 0 1 1 1 1 2 0 1 0 0 1 2 1 0 1 0 0 1 0 2 0 1 1 0 0 0 1 1 0 0 0 0 2 0 2 0 2 0 0 0 1 1 0 0 0 2 0 1 2 2 1 0 0 0 1 0 0 0 2 1 0 0 2 0 2 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 1 0 1 2 0 1 0 0 0 0 0 0 1 2 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 1 1 0 2 0 1 0 0 2 0 0 2 0 0 1 0 1 1 0 1 2 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 2 0 1 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 1 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 2 0 3 1 0 0 0 0 0 0 2 0 0 1 3 0 0 0 1 1 0 0 1 1 1 0 0 2 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 2 1 0 1 0 1 0 1 0 2 0 1 2 1 0 0 1 1 0 3 0 0 0 0 1 0 1 0 0 0 1 1 1 0 1 1 0 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 3 0 0 0 0 0 1 0 1 0 2 0 0 0 1 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 3 0 0 2 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 2 1 1 0 0 0 1 0 2 1 2 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 2 0 0 0 0 0 0 1 0 0 1 0 3 1 1 1 2 1 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 1 0 0 1 1 0 0 1 0 0 1 1 0 0 0 1 0 1 2 0 0 0 0 1 0 1 1 2 1 0 0 1 0 0 0 0 1 1 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 1 0 0 0 0 1 0 0 2 0 2 0 1 2 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 3 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 2 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 1 1 0 0 1 1 0 1 2 3 1 0 0 0 1 0 0 0 0 3 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 1 1 1 0 2 1 0 1 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 2 1 0 0 2 1 0 0 3 1 2 1 0 1 2 0 0 1 0 1 2 0 0 1 0 0 3 0 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 3 0 1 1 1 0 0 0 0 0 1 0 0 2 2 0 2 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 1 1 0 0 0 1 1 0 1 2 1 2 0 0 0 1 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 2 0 1 1 0 0 1 1 1 2 2 2 1 0 0 0 0 3 1 0 2 0 1 0 3 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 1 1 1 1 1 1 0 1 1 1 0 2 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 2 0 1 1 0 2 2 0 0 1 0 1 1 0 0 1 1 0 1 1 2 1 0 0 0 1 0 0 0 1 1 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 0 1 1 2 0 0 0 1 0 0 0 2 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 1 0 0 1 2 0 2 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 1 3 1 0 1 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 1 3 0 0 0 1 0 1 0 0 0 1 0 2 1 0 1 1 0 0 0 0 0 0 2 0 0 0 1 0 2 1 0 0 2 1 2 1 1 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 1 0 2 0 1 0 3 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 1 0 2 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 2 0 0 2 0 0 0 0 0 0 1 1 0 0 2 0 0 2 0 0 0 0 0 1 1 1 1 2 0 1 1 0 1 1 1 0 1 0 0 0 0 2 1 1 0 0 3 0 1 0 1 2 1 0 1 0 1 0 0 0 1 0 2 0 1 0 1 2 0 1 0 2 0 2 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 2 3 1 0 2 0 1 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 1 1 1 1 2 0 0 2 1 1 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 1 2 0 2 2 1 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 2 0 0 0 1 0 2 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 1 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 1 0 0 0 1 1 0 0 2 1 2 0 3 3 1 0 0 1 0 0 0 0 1 0 1 2 0 1 2 2 0 1 1 2 1 0 0 1 1 1 1 1 1 0 0 1 0 0 0 1 0 0 1 0 3 1 1 0 1 1 0 1 0 0 0 0 1 2 1 0 1 1 1 0 0 1 1 0 1 0 2 1 0 0 0 1 1 2 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 2 1 0 2 0 0 1 0 0 0 0 0 1 1 1 2 1 0 0 0 1 2 0 0 1 1 0 1 1 0 0 0 0 1 2 2 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 1 0 3 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 0 1 1 0 2 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 1 2 0 1 0 0 1 1 0 2 0 0 0 0 1 1 1 0 0 0 0 1 2 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 2 2 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 3 0 1 0 0 0 0 1 0 1 1 1 1 2 0 0 1 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 2 1 0 2 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 2 0 0 0 2 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 2 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 1 0 2 0 0 1 1 0 1 0 0 0 2 0 1 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 1 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 0 0 0 0 1 1 2 0 0 0 0 0 1 1 1 0 3 0 1 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 3 2 0 0 0 0 1 0 2 0 2 1 1 1 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 1 0 2 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 2 0 2 1 0 1 2 0 0 1 1 0 0 1 0 1 1 0 1 0 0 0 2 1 0 1 0 0 0 1 1 2 1 0 0 0 0 1 0 0 0 1 0 1 2 0 1 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 1 0 0 1 1 0 5 0 0 1 1 1 1 1 0 0 1 0 1 0 1 0 1 0 1 2 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 1 3 0 1 0 1 0 0 1 1 1 1 0 1 0 0 0 1 2 0 2 0 2 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 1 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 2 0 1 2 1 0 0 0 1 0 0 1 0 0 3 0 0 1 0 1 1 0 0 2 0 0 0 1 0 2 0 0 1 0 0 1 0 3 0 1 0 2 1 0 0 0 1 0 1 0 2 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 1 1 0 2 0 0 0 1 0 0 1 1 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 3 0 0 1 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 2 1 0 0 1 0 0 0 1 0 2 1 3 0 1 1 1 2 0 1 2 2 2 1 1 1 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1 3 1 0 0 0 3 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 2 1 2 0 0 0 0 0 3 0 1 1 1 0 0 2 0 0 0 1 1 0 2 0 0 1 0 0 3 0 1 1 0 2 0 1 0 0 0 2 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 2 1 2 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 2 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 2 1 3 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 2 0 1 1 0 0 0 2 0 0 0 0 1 0 0 1 0 0 1 1 0 2 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 1 1 1 1 0 0 1 0 0 0 1 3 0 0 1 0 1 1 0 0 1 1 1 0 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 1 2 1 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 2 0 0 1 0 1 0 1 0 1 0 1 0 0 1 0 0 1 0 1 1 0 1 0 1 2 1 0 0 0 0 0 0 0 2 0 0 0 1 1 1 3 0 1 0 0 1 1 0 0 0 0 0 2 1 0 1 1 0 0 0 2 0 0 0 1 0 1 0 0 2 1 0 0 2 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 2 1 0 1 1 0 0 0 2 1 0 0 0 1 1 0 1 2 0 0 1 2 1 0 1 1 0 0 1 0 0 2 1 1 1 0 1 1 1 1 0 2 0 0 0 0 0 0 3 0 0 0 0 1 0 1 0 0 0 0 1 3 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 2 0 0 1 1 1 1 1 0 0 1 1 1 1 0 2 0 0 0 2 0 0 0 1 1 2 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 1 1 0 0 1 0 0 0 2 3 1 0 2 0 1 0 0 1 0 0 2 1 1 1 0 1 1 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 2 0 1 0 0 0 0 0 1 2 0 0 0 0 0 1 0 1 0 0 0 0 3 0 0 0 1 2 0 0 1 0 0 0 0 1 0 0 1 2 0 1 2 0 0 1 0 1 0 0 0 0 0 0 1 2 1 1 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 2 0 1 0 0 0 1 0 0 2 2 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 2 0 0 1 0 0 0 1 2 0 0 1 0 0 0 1 0 1 3 1 1 0 2 3 0 0 0 0 1 0 0 0 0 1 2 0 1 0 1 0 0 0 0 1 1 0 0 0 1 3 0 2 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 3 0 1 1 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 2 0 0 0 1 1 2 0 0 0 0 1 1 1 1 0 0 1 1 0 1 0 0 0 0 0 1 0 2 0 1 1 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 0 0 0 3 0 0 0 0 1 0 2 1 0 1 1 0 1 0 0 1 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 1 0 2 1 2 0 0 2 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 3 0 1 0 3 0 0 0 1 1 1 2 0 2 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 1 1 0 0 1 1 0 3 3 0 1 0 1 0 0 0 0 0 3 1 0 2 0 0 0 3 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 3 0 0 0 0 2 0 1 0 0 0 1 1 0 2 2 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 2 2 0 1 1 2 2 1 2 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 3 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 1 1 1 2 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 2 0 1 0 2 0 1 0 2 0 1 0 0 0 0 0 1 0 1 1 2 1 1 0 0 0 0 0 1 0 0 0 2 0 0 1 1 0 0 0 0 0 0 1 0 2 1 3 0 1 0 1 1 1 0 2 0 0 1 0 0 0 1 0 1 0 0 0 0 2 0 0 0 2 0 1 0 1 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 2 1 0 0 1 1 0 0 1 0 3 0 1 1 0 0 0 1 0 3 0 2 1 1 0 0 0 0 1 1 0 2 1 1 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 1 2 0 0 0 2 1 2 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 0 3 0 0 1 1 1 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 2 0 0 2 0 0 1 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 1 3 1 0 0 0 0 0 0 0 2 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 1 2 0 1 1 1 0 1 1 1 1 0 1 2 1 1 1 2 2 0 1 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 1 0 2 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 2 1 0 1 1 1 0 0 0 1 1 2 0 0 0 1 0 1 1 1 0 0 1 1 0 0 1 0 0 0 0 2 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 2 3 0 1 0 1 0 1 2 0 1 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 2 1 1 0 1 1 1 2 1 0 0 0 0 1 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 2 1 0 0 0 0 0 0 2 0 2 0 1 1 1 0 1 0 0 0 0 1 1 1 0 1 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 1 0 0 1 4 1 1 2 1 0 0 1 1 0 0 0 1 2 0 0 0 0 0 1 1 0 2 0 2 0 0 1 0 0 0 0 0 2 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 2 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 1 0 0 2 3 0 0 0 0 2 1 0 0 1 0 2 0 1 2 2 1 0 0 3 0 0 0 1 2 1 2 1 1 1 1 1 1 1 0 0 0 1 0 1 0 0 1 1 1 2 0 0 1 1 3 0 0 0 0 0 1 2 2 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 1 1 1 0 3 1 3 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 2 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 2 0 0 0 1 0 1 0 1 2 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 2 0 1 0 1 2 1 0 1 0 1 1 1 0 0 0 2 1 1 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 1 1 2 1 2 2 0 1 0 1 1 1 1 0 2 0 1 1 0 1 1 1 0 0 1 0 1 1 0 0 0 2 0 1 0 1 1 1 0 1 0 0 1 0 1 1 0 1 0 0 0 0 3 0 2 2 0 1 2 0 0 0 0 1 0 1 1 1 1 3 1 0 1 0 1 1 1 0 0 1 2 1 2 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 2 1 0 1 2 0 0 1 0 0 0 0 0 0 0 0 2 1 2 0 0 0 0 0 0 1 0 1 1 0 0 0 0 3 0 1 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 1 0 1 0 0 1 1 2 1 1 2 0 0 2 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 2 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 2 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 2 2 0 0 1 0 0 1 2 1 0 1 0 0 0 1 1 0 0 0 2 2 1 2 1 0 0 0 0 1 0 1 0 0 1 1 1 0 2 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 2 2 0 0 0 0 0 0 0 2 1 0 1 1 0 0 1 1 1 0 0 0 3 1 0 2 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 2 1 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 0 2 1 1 1 1 0 1 0 1 0 0 0 1 0 1 2 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 2 0 0 0 1 1 0 1 0 2 0 0 0 0 0 1 0 1 1 0 1 0 1 0 1 1 1 0 0 0 3 0 0 0 0 0 1 1 0 0 1 0 0 1 0 3 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 2 0 0 2 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 1 0 0 2 0 0 1 0 0 1 0 0 0 2 1 1 0 1 0 0 1 2 0 0 1 0 1 0 0 0 1 0 1 0 0 2 1 1 0 1 1 1 0 0 0 1 0 0 0 0 0 1 2 2 1 0 0 2 1 0 1 0 1 0 2 0 0 1 0 2 0 0 0 1 0 2 1 1 1 0 1 0 0 1 1 1 1 1 0 2 3 0 0 0 0 0 1 2 1 0 2 2 0 1 2 2 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 3 0 2 0 0 0 0 1 0 2 1 0 1 2 2 1 0 0 2 0 1 1 1 2 0 0 0 1 0 0 0 2 0 0 0 3 2 1 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 2 0 0 1 0 1 0 1 0 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 2 1 0 1 0 0 3 0 1 0 0 1 3 2 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 1 1 2 1 0 1 0 1 1 0 1 1 2 0 0 0 0 2 0 0 0 1 0 1 0 1 1 1 0 0 0 1 0 1 0 0 1 3 0 2 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 1 1 2 1 1 0 1 1 0 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 2 1 0 0 2 0 0 0 0 0 0 0 2 0 0 0 1 0 1 1 0 1 0 0 0 0 0 3 0 0 0 1 0 0 1 1 1 1 0 1 0 0 0 2 0 3 0 0 0 0 1 1 1 1 0 1 1 0 0 0 0 0 0 2 1 0 0 2 0 0 0 0 0 0 0 2 0 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 2 0 0 0 1 0 0 0 1 0 1 1 1 0 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 0 2 0 1 1 1 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 1 2 0 2 1 2 0 0 0 0 0 2 2 0 1 1 1 1 1 2 1 1 0 1 1 0 1 1 1 1 0 0 1 1 1 1 0 1 0 1 0 1 0 0 1 1 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 1 1 0 1 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 2 0 0 0 1 1 0 1 1 1 0 0 1 1 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 2 0 0 1 1 0 1 0 1 2 0 0 0 0 1 0 0 0 1 2 1 0 0 1 0 0 0 0 2 0 0 0 2 0 0 1 1 1 0 0 0 1 0 0 1 2 0 2 1 2 1 1 1 1 0 1 0 0 1 0 1 0 0 0 1 0 2 0 0 1 0 1 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 1 1 1 0 0 4 2 0 1 3 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 3 0 2 1 1 0 1 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 1 0 2 1 1 0 0 1 1 0 0 1 1 2 0 0 2 1 1 0 1 0 0 0 0 2 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 3 1 0 3 0 1 0 0 0 1 2 0 0 0 0 0 0 0 1 1 1 2 1 1 1 1 0 1 1 1 1 0 2 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 2 0 0 1 0 0 3 0 0 0 1 1 0 1 1 1 0 0 2 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 0 3 0 0 1 2 0 0 0 1 0 2 1 0 1 0 0 1 0 1 1 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 1 3 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 1 2 0 0 0 0 0 0 1 1 1 1 1 1 2 2 3 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 0 2 2 1 0 0 0 3 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 1 0 0 1 0 1 1 1 1 0 1 0 2 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 2 1 2 0 1 0 0 1 1 2 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 0 0 0 2 0 2 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 1 1 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 2 0 1 0 0 0 1 0 0 0 0 0 1 1 2 0 0 2 0 1 0 0 2 0 1 0 0 1 2 2 1 0 0 0 0 3 0 1 1 2 0 0 1 0 0 0 0 1 0 0 0 0 1 0 2 0 0 1 1 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 1 1 0 1 1 2 1 0 1 0 1 0 1 0 0 0 1 1 1 1 1 0 1 0 0 1 0 0 0 0 1 1 0 0 1 1 4 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 2 1 1 1 1 2 1 0 2 0 0 0 0 0 1 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 1 2 0 0 0 2 2 0 0 0 2 0 2 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 2 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 2 1 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 2 1 1 0 0 2 2 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 3 1 0 0 0 1 1 0 0 0 0 3 1 1 1 0 0 0 0 1 0 0 1 1 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 2 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 2 0 1 1 1 0 0 0 0 0 1 1 2 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 3 0 2 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 1 0 0 1 1 1 1 1 0 0 1 1 1 1 0 1 0 0 2 0 0 0 0 1 1 2 1 0 1 1 0 0 0 0 0 0 2 0 0 2 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 1 1 0 0 0 0 1 0 1 0 1 1 0 1 1 0 0 1 0 1 0 0 0 0 2 2 0 0 0 0 1 0 2 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 2 2 1 0 1 3 0 0 1 1 0 1 0 1 2 0 1 2 0 0 1 1 0 0 0 0 0 0 1 2 2 1 2 0 1 1 0 1 0 0 0 2 0 2 0 1 0 1 0 0 0 0 2 0 1 0 0 2 0 0 1 0 2 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 1 3 1 0 0 2 1 1 0 2 0 2 0 0 2 0 0 2 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 2 0 1 0 1 0 2 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 0 1 2 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 2 0 1 0 1 1 0 1 0 1 0 1 0 1 2 0 0 1 1 0 2 0 0 1 0 0 1 0 0 0 0 1 0 0 2 1 1 0 0 0 0 1 1 1 0 0 0 3 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 2 2 0 0 0 0 1 0 1 0 0 0 0 3 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 2 0 0 1 0 0 0 1 1 0 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 1 1 2 0 0 1 0 0 1 2 2 0 0 0 0 1 0 4 1 1 0 1 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 2 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 2 0 0 0 1 0 1 0 2 0 0 1 2 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 2 0 0 1 1 1 0 0 0 0 1 0 0 0 2 1 0 1 1 0 0 0 0 3 0 0 2 0 2 0 1 0 1 2 0 0 2 1 0 1 0 3 0 0 0 0 2 0 0 1 1 1 0 1 0 0 0 0 1 3 1 0 0 0 2 1 1 0 0 0 0 0 2 0 2 0 0 0 1 0 1 1 2 0 2 0 0 1 0 0 0 1 0 0 2 0 2 1 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 2 0 0 3 1 1 1 1 1 1 1 0 0 1 1 0 1 0 0 1 2 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 1 0 0 1 0 0 2 0 1 0 1 0 1 0 1 0 3 1 0 0 1 0 0 0 0 3 0 1 0 0 0 1 1 0 0 1 1 2 0 1 0 1 2 0 0 2 0 0 0 2 1 0 0 0 1 0 1 1 4 1 1 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 2 1 1 0 2 0 2 0 0 1 0 3 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 1 0 3 2 0 0 3 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 1 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 3 0 0 0 2 2 0 1 1 0 0 1 0 0 0 2 0 0 0 0 2 1 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 2 0 2 0 0 1 0 1 1 1 0 1 0 2 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 1 0 1 0 3 1 0 0 2 0 1 0 2 0 0 2 0 0 1 1 0 0 0 0 3 0 0 1 1 0 0 0 2 1 1 2 0 0 1 2 0 0 0 0 0 1 0 0 2 0 3 2 0 0 0 1 0 0 1 0 0 1 3 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 2 0 0 1 0 0 1 0 2 0 1 0 0 0 0 0 0 1 0 3 0 0 1 0 1 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 2 1 1 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 2 1 0 0 0 0 1 0 2 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 2 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 1 3 3 0 0 2 1 1 0 1 0 0 0 1 0 2 1 0 0 2 1 1 0 1 0 0 2 1 0 1 0 0 0 0 1 1 0 1 1 1 0 0 0 0 1 0 1 0 0 0 2 1 2 2 1 0 0 2 1 0 0 1 1 1 0 1 1 0 0 0 1 2 0 0 0 3 0 0 0 0 1 0 1 1 1 1 1 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 3 0 1 0 0 1 1 0 2 0 0 0 0 1 2 1 1 1 1 0 1 0 1 0 0 1 1 0 0 2 0 0 0 0 1 1 1 0 1 0 0 0 1 1 0 1 1 1 0 0 1 0 0 1 1 0 1 1 1 0 1 0 0 0 1 1 0 2 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 1 3 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 2 0 0 0 1 0 0 1 0 1 0 0 0 2 3 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 3 0 0 2 0 0 0 0 0 2 3 0 0 1 1 0 0 0 0 0 0 0 1 1 2 3 0 1 0 0 0 0 0 0 3 0 1 1 0 0 1 2 0 1 2 1 0 0 0 1 1 0 1 1 0 0 1 1 0 0 1 0 1 0 0 2 0 1 0 0 2 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 2 1 0 0 1 0 0 0 2 1 0 0 0 1 1 1 1 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 1 0 0 0 0 1 1 0 1 0 2 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 3 0 1 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 2 2 0 0 1 0 0 0 0 0 0 0 1 2 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1 1 0 0 2 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 2 0 1 0 2 1 1 0 2 0 0 0 0 1 0 0 2 0 0 1 1 0 1 0 0 1 0 0 0 0 2 3 0 0 1 1 0 0 0 2 1 0 2 0 0 0 0 1 0 0 0 1 2 2 1 0 0 2 1 0 0 0 0 1 1 1 0 0 0 0 2 0 0 2 0 0 1 1 1 0 0 0 0 0 2 1 0 0 2 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 2 0 0 0 1 0 1 0 0 1 3 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 2 0 1 0 3 0 0 0 0 0 0 1 1 1 1 2 1 1 0 0 1 1 1 0 0 1 3 1 0 1 1 0 0 1 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>JSB(3.3132579162789213, 3.5699016099768617, -85.28476790565949, 659.6869360693105)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83 54 93 56 58 109 125 150 122 42 65 68 131 106 76 49 47 112 122 82 114 95 122 68 119 58 80 103 36 82 89 126 100 138 163 76 142 88 125 108 129 51 91 110 116 119 64 140 224 52 93 224 165 154 56 60 26 86 78 142 120 101 188 98 117 85 108 93 116 70 141 139 141 84 107 70 67 85 119 74 116 80 110 82 82 150 63 153 23 86 89 73 70 113 132 141 109 73 167 120 65 163 149 89 63 160 114 113 26 40 122 129 61 105 132 135 80 111 44 188 80 123 107 95 61 104 85 33 174 45 118 120 58 80 127 136 94 92 86 98 79 57 108 185 78 126 188 46 31 79 108 138 160 35 78 88 166 121 137 132 100 87 123 120 199 52 89 110 106 56 87 57 143 124 95 65 41 144 112 134 110 118 82 42 49 82 68 133 83 167 185 80 172 98 98 155 90 103 122 120 83 66 76 107 67 116 153 92 147 77 127 86 87 104 145 87 100 190 126 72 165 88 78 96 91 100 88 80 173 99 146 89 107 37 162 68 102 148 94 127 162 72 179 98 160 165 75 70 115 132 135 42 88 143 172 112 114 90 91 84 49 261 147 79 104 143 49 65 130 94 133 69 45 84 128 86 131 48 40 179 97 66 76 123 118 84 112 129 139 139 70 60 112 95 95 122 121 156 76 197 124 140 136 164 36 85 93 191 107 134 123 55 130 114 126 144 138 101 77 166 35 79 68 88 211 56 114 75 182 147 100 74 151 99 141 172 148 121 121 102 106 101 109 110 67 80 124 91 79 119 165 77 135 147 100 92 146 136 140 131 92 40 125 51 96 133 135 153 153 174 41 75 65 83 107 95 121 83 69 108 69 88 74 36 119 101 103 130 70 95 50 117 105 86 185 78 71 120 132 78 115 106 107 122 141 56 52 134 132 72 145 112 120 64 94 117 124 144 57 85 108 93 77 149 14 126 103 119 151 61 112 94 105 69 118 93 120 87 89 105 159 120 95 77 97 84 87 84 29 116 153 84 66 117 106 124 131 104 123 174 86 103 131 42 74 64 64 168 84 153 101 88 72 74 101 166 68 118 138 102 66 96 162 107 163 50 67 52 51 74 126 84 141 140 93 198 71 115 71 52 96 121 147 56 70 63 115 64 59 162 125 117 69 58 58 106 91 121 126 146 139 127 113 152 77 96 40 50 74 179 104 93 179 65 40 65 132 111 108 72 75 88 159 60 91 62 109 168 132 127 102 29 125 147 71 79 129 69 64 25 102 114 136 152 173 78 185 40 42 91 141 53 114 67 82 76 74 47 71 108 165 148 131 74 152 156 111 115 127 126 157 43 171 78 99 43 177 151 165 92 130 91 110 142 208 86 136 129 91 127 75 62 63 157 27 78 55 80 157 118 98 113 122 71 99 36 109 137 170 106 59 81 179 90 71 89 141 71 156 144 145 83 71 118 71 57 66 81 140 48 108 111 138 68 130 93 80 72 84 116 99 91 75 133 160 125 56 104 107 157 157 43 105 142 134 115 65 88 89 151 161 162 39 99 76 20 114 155 89 79 134 128 129 94 132 185 129 128 156 84 108 130 84 107 97 105 117 151 96 133 82 168 125 133 142 135 71 114 113 125 108 91 90 121 225 99 113 210 105 68 136 155 183 102 97 44 96 146 6 56 102 145 105 157 71 151 114 83 125 101 157 134 100 103 93 89 58 126 88 108 89 91 166 128 55 113 99 104 57 76 151 166 98 127 69 119 98 109 184 102 226 178 207 100 106 56 136 73 91 94 129 120 142 104 79 148 164 168 69 91 168 132 81 60 65 90 48 83 84 111 119 137 135 134 182 92 144 84 68 59 147 121 53 131 95 173 113 69 64 117 159 68 71 83 140 170 83 110 54 114 102 48 136 159 79 153 174 133 146 54 74 43 158 123 67 103 74 186 136 56 105 115 109 78 59 113 143 59 73 133 83 128 113 93 87 77 113 145 116 97 77 71 155 123 116 109 72 122 78 138 169 107 104 79 78 120 123 164 88 122 99 101 154 135 56 79 52 73 131 56 110 52 92 126 122 133 96 39 136 122 196 160 97 135 69 87 104 81 67 88 63 126 103 117 113 106 105 141 122 97 106 182 87 112 181 151 89 111 124 102 96 104 135 117 133 124 122 20 72 130 131 62 57 118 106 122 118 93 91 81 144 145 120 73 57 136 57 178 79 133 171 81 115 58 136 183 136 94 55 58 171 177 66 75 131 213 139 92 75 87 83 153 69 87 99 52 92 131 61 85 148 74 92 166 69 101 116 38 145 82 128 58 105 147 206 78 172 139 83 109 135 98 142 95 51 145 89 55 109 91 61 82 105 83 113 69 52 110 123 98 44 133 162 45 109 108 99 74 73 80 129 99 27 103 55 86 125 104 144 160 75 93 92 76 80 147 150 107 93 51 130 146 137 135 91 128 117 84 30 139 143 69 193 30 139 111 76 182 153 139 66 108 43 82 164 52 99 184 137 113 115 46 50 92 32 176 50 47 54 84 86 77 75 54 83 97 117 42 60 194 64 81 63 109 74 102 109 180 103 72 128 50 175 112 83 173 181 153 87 96 55 78 100 131 21 116 155 76 80 85 121 119 136 47 106 63 94 50 73 97 126 148 153 103 66 99 122 122 90 90 106 108 88 47 106 124 134 96 53 96 47 80 106 127 169 118 55 97 34 158 107 100 145 36 106 112 198 106 144 84 128 124 26 129 95 114 100 90 102 165 33 112 70 63 191 113 85 81 108 76 120 55 148 86 101 201 161 62 52 77 47 62 100 83 119 148 139 144 101 130 77 67 116 138 95 110 61 129 94 125 107 53 18 42 133 100 108 156 65 27 141 128 145 128 156 60 58 115 127 93 117 85 156 45 12 75 95 123 90 87 101 94 133 119 112 140 111 96 132 98 138 117 173 90 108 101 124 59 117 109 166 53 77 65 130 152 115 52 59 114 94 57 112 53 176 148 117 52 59 83 103 108 152 147 171 149 232 77 129 69 49 126 106 63 111 128 96 86 196 48 108 86 204 69 70 164 114 101 57 98 91 125 133 156 79 92 88 59 151 67 109 102 64 118 103 68 94 79 49 77 169 47 122 148 133 134 144 71 127 125 65 149 131 117 103 135 103 87 88 75 155 119 109 70 122 68 109 120 74 130 135 152 86 68 63 83 168 43 98 97 68 100 59 88 92 69 82 147 128 99 100 170 109 85 148 75 173 124 88 76 118 49 87 97 111 109 127 122 83 116 100 83 73 48 92 81 96 147 84 159 122 103 91 95 73 89 63 77 101 71 109 115 102 75 165 102 102 59 20 110 65 100 180 93 39 106 125 72 126 138 94 179 215 120 81 121 93 81 136 144 88 82 83 76 59 104 28 109 156 98 110 130 164 193 91 59 120 37 96 79 22 132 96 69 77 134 79 122 145 106 83 71 114 73 87 152 167 95 82 73 102 74 121 109 124 151 71 79 128 127 60 100 108 72 78 125 99 44 100 97 44 109 84 190 119 104 113 61 103 93 72 71 116 91 138 182 95 115 106 84 135 149 144 54 100 119 73 111 53 11 179 121 160 123 136 54 91 105 13 87 115 95 56 64 71 118 83 148 146 126 147 58 179 91 106 207 131 139 54 84 47 105 194 80 68 136 100 186 120 98 135 93 64 69 73 98 141 86 132 87 120 68 68 117 140 103 162 82 102 109 58 108 42 76 139 141 84 147 96 131 154 144 149 108 61 68 114 67 118 108 125 50 67 98 69 134 120 167 181 209 80 46 165 64 102 112 81 96 195 123 71 101 59 113 80 191 124 77 60 47 57 143 76 110 42 136 106 132 69 162 71 126 60 90 143 198 104 51 104 135 112 66 87 104 147 130 103 118 36 18 89 172 108 138 81 103 107 76 104 74 121 139 96 121 125 120 139 150 111 100 61 93 89 66 124 132 152 69 148 64 96 107 94 166 160 67 94 54 168 109 90 116 43 152 61 112 66 122 59 153 116 123 61 130 57 117 94 84 73 116 102 58 80 112 162 140 98 125 129 74 59 83 37 124 77 96 135 137 68 116 81 119 87 98 137 161 95 96 128 99 79 84 71 114 165 66 68 126 92 172 140 104 88 115 78 108 96 72 76 146 99 91 100 92 100 95 134 159 110 168 118 82 105 89 112 96 77 108 117 82 130 48 131 91 145 82 99 90 112 93 147 179 49 33 126 100 73 173 76 105 86 96 127 103 155 121 110 53 53 128 73 68 137 45 108 134 125 78 198 135 133 147 58 79 97 83 142 120 52 97 47 88 26 57 115 44 132 92 177 77 106 125 110 107 147 49 133 140 116 169 105 67 94 83 111 143 40 56 136 131 105 90 82 97 130 95 87 120 128 129 132 18 146 46 100 12 57 94 49 77 107 80 127 80 58 211 75 17 52 75 124 53 60 39 144 119 117 106 127 83 52 82 52 155 147 76 212 102 107 93 114 85 58 100 139 84 46 158 63 145 53 139 66 87 142 111 132 111 137 153 107 82 125 95 110 120 77 103 112 88 100 133 122 85 141 98 101 126 148 60 108 50 93 131 95 59 94 102 162 49 186 103 73 44 85 116 118 121 181 104 68 121 78 102 106 105 119 62 121 56 123 67 167 87 159 102 137 104 144 66 56 79 95 168 92 44 125 119 76 102 91 111 54 152 81 79 135 69 135 118 92 60 133 62 71 128 176 160 73 75 127 86 86 122 138 89 96 97 60 111 87 50 142 54 118 45 75 110 64 75 162 123 69 124 165 70 99 86 114 190 91 118 109 151 54 43 147 177 124 106 51 87 89 81 67 105 106 98 99 122 109 86 42 124 152 57 63 85 96 138 47 193 116 57 79 38 115 101 52 115 130 147 135 59 162 98 84 104 114 103 92 159 160 57 96 75 74 147 80 108 76 135 63 83 48 130 72 121 61 110 113 9 56 91 50 131 117 64 150 153 73 88 39 182 62 150 130 118 125 110 149 60 119 61 103 73 138 168 156 113 126 105 38 119 122 76 81 64 117 143 182 18 99 74 101 76 87 139 86 92 95 43 100 135 134 148 101 52 70 98 112 46 122 28 177 147 87 143 48 72 149 149 80 101 135 93 114 124 76 133 141 106 126 120 100 50 117 57 141 216 97 107 49 104 163 68 72 85 109 25 92 99 99 126 81 137 48 87 106 180 57 114 49 83 109 77 88 178 81 108 148 105 110 84 121 131 213 114 67 69 125 94 142 95 112 62 78 116 124 200 101 109 106 95 162 104 115 91 93 109 89 78 95 178 140 71 51 26 82 142 118 92 75 145 92 111 78 112 117 92 98 57 104 73 161 97 62 106 96 81 120 54 107 60 91 198 131 67 30 118 119 73 124 84 127 169 63 68 28 87 132 87 59 121 85 124 60 143 107 122 157 130 78 50 77 51 157 160 162 154 114 186 125 83 143 41 138 70 74 86 79 82 91 148 105 53 97 164 70 87 140 114 149 64 118 97 147 66 114 133 22 209 132 132 112 56 100 133 72 70 158 110 62 100 46 139 45 8 144 154 191 94 81 119 92 172 120 42 162 125 137 127 116 78 94 76 103 138 129 81 91 182 91 82 122 117 156 107 63 155 184 127 101 180 170 110 74 116 73 113 133 41 86 131 79 75 201 88 85 46 92 120 143 145 93 120 94 120 106 124 139 74 67 67 76 79 71 144 134 80 72 79 177 32 156 108 55 131 154 116 42 101 46 160 118 62 95 164 92 98 179 154 47 81 98 72 99 98 50 86 78 148 120 99 165 158 81 67 186 122 114 87 96 44 77 69 62 132 129 169 164 127 104 50 182 112 108 109 48 71 154 138 147 141 84 115 89 199 62 101 130 100 92 74 98 66 172 113 147 163 110 98 158 105 124 138 89 119 103 96 118 113 99 105 121 63 127 209 282 121 152 72 104 114 111 55 86 79 86 59 78 99 95 80 114 85 141 70 118 113 60 137 187 76 104 80 122 70 189 99 68 108 109 82 65 201 27 159 112 108 83 116 67 138 105 81 76 46 107 112 107 90 103 35 97 109 176 133 68 109 99 50 111 60 126 87 76 132 132 101 59 90 83 143 136 108 118 106 113 76 80 134 74 193 106 166 104 90 210 31 120 111 99 63 171 123 123 138 77 100 167 53 106 133 65 124 141 110 71 123 106 118 91 109 71 113 111 127 79 114 34 130 131 63 30 49 146 134 117 84 42 78 43 70 220 54 90 125 47 78 149 58 130 59 110 145 103 109 88 75 39 169 110 80 108 65 72 175 81 55 145 80 46 62 40 108 65 72 108 86 80 93 106 127 96 107 138 34 108 103 87 148 134 95 157 120 106 110 167 74 49 48 100 85 58 116 112 176 111 78 173 50 131 47 91 80 66 71 104 75 75 80 166 112 114 24 98 37 113 128 118 111 114 108 83 177 107 69 136 91 111 95 73 62 180 117 185 99 39 82 103 78 68 82 166 95 131 36 40 90 157 92 127 117 93 129 93 117 110 153 173 84 120 69 140 101 101 69 165 122 91 137 97 73 84 161 108 84 49 28 50 110 101 190 104 98 33 85 39 160 121 142 139 112 84 91 102 68 160 168 166 57 115 123 148 145 114 78 140 88 119 144 122 73 90 104 74 59 135 111 73 110 72 60 159 123 83 125 31 129 130 141 101 96 148 106 110 103 120 89 79 101 50 158 178 76 84 60 71 92 73 106 52 142 170 43 115 55 120 40 187 145 92 74 123 100 143 62 137 126 124 137 86 125 89 39 97 120 57 174 111 162 159 112 29 116 154 80 97 99 88 50 135 130 139 120 52 81 179 81 205 140 128 141 80 57 96 31 106 88 33 61 122 87 110 144 114 112 120 87 67 90 53 141 115 83 160 42 132 177 85 112 109 69 86 61 69 136 128 77 81 82 142 195 88 78 76 219 98 130 31 136 90 167 64 106 109 110 97 64 135 150 104 80 61 167 61 58 32 160 64 165 51 83 129 123 144 103 47 134 125 64 85 113 120 108 89 127 129 123 75 62 58 59 125 124 87 153 112 140 65 92 144 97 122 55 172 78 90 83 74 85 185 146 87 64 82 122 109 182 65 107 152 70 71 78 62 112 70 155 60 80 152 94 38 105 96 105 131 63 34 33 67 89 78 93 39 69 29 122 82 106 55 134 149 149 58 85 61 88 121 65 186 158 57 95 78 58 76 29 95 142 67 80 82 89 51 87 99 106 115 41 85 93 81 51 62 62 93 137 105 32 30 127 88 113 190 131 125 167 171 95 79 93 32 128 102 77 125 49 120 81 83 81 80 49 87 128 112 52 78 115 164 95 99 117 164 143 107 184 88 60 99 172 62 119 153 65 102 122 156 34 101 110 106 135 192 72 72 125 66 166 95 94 149 100 95 50 76 75 92 83 83 52 56 133 117 61 134 152 95 43 63 72 102 84 73 111 128 114 130 126 96 124 86 115 129 136 128 91 71 87 48 85 69 97 111 162 125 66 169 102 67 30 117 131 86 99 57 96 42 108 111 96 92 62 94 74 68 107 106 132 80 86 35 101 164 144 109 98 112 106 140 104 183 124 55 131 82 64 58 46 151 115 96 185 91 99 144 156 139 82 81 81 32 170 73 139 89 78 81 61 73 118 59 114 136 104 158 63 84 115 76 122 106 142 87 101 115 125 104 71 56 104 113 125 71 64 155 96 65 56 107 89 95 115 48 72 29 165 90 121 68 180 116 111 218 102 108 46 16 61 112 39 155 106 128 64 214 90 78 135 125 82 107 86 109 52 70 89 46 43 130 103 133 140 137 115 107 33 50 113 107 90 176 98 79 110 51 98 68 64 77 133 179 144 107 153 50 61 90 100 132 134 147 83 119 58 125 120 118 70 185 66 70 62 79 41 168 125 79 118 116 93 120 139 179 157 87 89 121 120 137 167 80 131 119 182 170 139 144 51 49 97 91 114 26 147 104 121 100 171 97 89 101 65 170 134 42 130 141 85 194 61 124 98 85 141 26 81 38 74 104 127 97 106 79 98 160 92 48 30 104 162 87 57 161 153 90 184 106 132 112 94 29 82 79 142 85 97 61 61 135 88 108 76 45 107 160 79 167 101 91 149 126 80 116 58 136 109 100 63 105 155 85 102 113 102 69 89 133 241 112 93 151 79 67 134 137 87 72 146 179 117 65 150 97 98 71 146 137 109 83 39 35 48 150 55 120 136 171 152 70 98 133 67 82 107 109 58 137 93 71 77 74 97 59 99 74 110 125 105 126 187 52 76 133 142 141 104 152 117 56 118 96 92 85 112 127 92 75 125 60 98 99 162 78 103 73 81 148 118 117 57 109 84 90 139 69 146 106 72 133 98 119 89 113 73 65 60 57 249 129 112 202 156 135 48 108 107 132 95 117 137 157 105 65 160 154 63 83 76 118 69 20 105 95 95 103 90 162 106 136 111 92 136 56 43 101 104 112 65 130 142 79 53 151 155 40 114 90 73 165 194 75 118 96 70 86 88 107 110 135 84 88 85 117 131 153 39 73 33 74 88 81 132 136 102 25 101 76 114 153 131 126 93 70 114 92 90 110 148 77 164 124 143 103 86 26 162 79 114 118 48 98 150 60 108 159 145 123 97 51 136 83 103 105 65 58 99 113 83 63 94 57 172 124 106 132 58 85 108 101 105 155 126 93 101 143 40 82 75 84 177 141 127 131 154 71 80 148 86 153 129 47 121 131 95 141 95 74 35 108 137 40 86 95 107 169 44 204 132 118 107 83 117 58 168 116 76 125 163 131 86 89 44 67 159 115 160 68 127 147 76 62 128 130 66 127 83 194 117 97 85 92 96 141 91 123 112 148 91 79 192 164 100 126 89 127 72 64 96 135 67 93 120 129 112 128 76 104 114 167 74 118 135 181 134 119 103 59 63 30 129 131 120 118 122 95 126 98 129 173 66 107 140 50 51 123 65 79 75 63 163 123 55 109 103 53 143 117 106 167 122 111 87 57 103 16 62 77 87 59 81 94 127 118 96 100 109 75 64 98 145 78 102 81 69 75 32 92 149 124 53 127 114 200 116 41 134 170 117 111 143 148 147 92 49 88 118 91 107 124 125 160 149 89 103 188 74 80 76 124 120 172 151 108 121 48 90 44 85 119 156 28 143 77 55 102 142 74 131 113 83 91 100 121 94 61 74 53 111 48 90 78 92 125 143 47 134 35 92 160 96 95 30 101 196 126 109 91 100 133 48 145 87 81 192 114 99 115 125 125 50 150 114 126 156 95 30 70 73 75 49 117 77 88 61 92 47 117 113 125 124 95 90 108 87 172 86 57 66 163 118 119 112 128 126 86 115 143 172 30 49 71 121 135 172 110 85 83 143 98 86 67 103 52 80 62 143 136 72 141 171 107 100 95 107 120 126 130 93 99 95 137 106 126 78 133 13 105 64 145 124 31 104 99 130 40 93 64 93 179 112 74 83 81 47 65 31 70 139 126 95 171 151 93 38 56 59 90 151 74 70 53 121 96 80 112 98 85 69 117 68 99 120 121 105 116 89 52 74 58 96 127 125 102 167 79 83 110 172 119 66 99 73 67 129 114 173 113 90 85 179 100 85 103 114 59 119 148 90 98 124 146 219 160 84 82 161 74 60 105 81 169 73 128 71 51 166 60 130 87 115 78 136 58 100 59 153 68 128 87 69 112 78 121 106 109 37 134 106 139 27 52 98 153 138 46 73 68 92 133 54 99 102 134 133 68 20 153 90 155 95 182 42 127 111 45 110 134 106 83 120 98 138 104 112 157 57 116 63 105 78 102 57 136 83 110 217 54 130 148 99 105 63 50 113 152 97 96 100 176 57 100 67 83 61 125 164 108 102 128 174 48 102 86 87 136 133 135 86 131 105 127 150 106 93 122 112 171 112 83 51 145 102 64 59 174 60 126 100 82 84 42 112 56 145 75 182 105 73 199 131 113 115 86 99 150 133 127 87 164 156 81 62 46 122 177 115 129 75 161 90 99 79 79 47 148 82 98 74 85 81 55 109 56 80 194 52 126 143 91 104 121 101 98 99 87 111 157 137 116 79 119 103 122 99 154 135 139 114 52 90 114 98 60 103 141 118 72 200 119 145 82 129 71 82 95 162 54 72 112 104 105 63 59 114 65 82 85 96 67 86 124 87 87 85 113 145 78 130 135 98 225 71 101 107 149 116 90 27 110 72 122 97 117 199 113 39 174 26 28 91 92 29 87 81 86 47 204 66 87 74 74 120 53 148 87 49 196 138 81 102 209 118 130 125 113 86 24 139 84 94 101 139 112 114 136 71 169 100 118 38 131 135 93 139 49 107 171 145 42 119 83 100 91 90 71 98 40 102 114 108 84 101 103 101 92 99 106 100 132 87 112 137 63 79 58 105 145 58 111 216 98 134 128 84 62 79 102 79 155 90 71 121 110 144 107 72 24 137 80 149 137 154 33 138 46 181 129 145 65 141 163 151 78 145 88 133 152 49 138 77 78 71 78 99 71 82 176 82 118 124 136 70 118 84 113 91 182 154 86 134 119 134 127 98 74 108 44 72 162 85 116 126 156 103 71 139 82 94 110 134 95 86 103 125 44 109 145 149 173 94 108 131 148 126 78 152 106 87 119 123 68 104 81 100 133 110 153 101 70 91 127 144 156 122 73 52 123 117 93 170 119 82 62 79 121 124 178 84 105 67 45 91 95 182 80 74 200 89 83 40 109 93 149 49 91 83 120 126 129 61 101 91 48 95 28 187 151 93 93 106 76 156 151 31 151 101 180 179 56 148 119 122 100 161 183 113 91 125 106 102 126 96 112 102 98 90 180 45 159 98 136 86 107 123 87 81 100 95 153 140 96 130 96 47 75 115 133 166 128 133 178 77 154 143 99 98 126 79 47 79 57 123 115 85 95 100 154 123 48 109 205 43 94 146 80 126 118 133 142 121 53 117 106 92 80 132 59 112 63 121 100 37 88 108 122 47 79 144 144 68 131 106 116 95 98 39 79 107 108 120 126 100 97 106 145 69 185 72 43 86 45 99 155 117 130 120 168 70 93 135 102 45 111 64 137 69 123 126 115 101 105 35 76 99 89 72 126 91 128 79 112 153 69 129 118 30 82 106 115 114 69 115 97 88 135 131 122 152 137 115 110 104 147 57 128 88 94 39 187 84 101 145 80 99 160 132 132 63 105 183 151 118 82 47 69 84 96 120 84 56 128 118 124 74 89 178 89 89 65 132 74 188 92 72 96 164 129 97 114 103 109 117 48 92 73 116 104 85 74 60 76 121 85 61 69 56 61 98 71 88 108 125 108 101 116 141 101 53 103 73 111 71 110 58 74 99 130 123 92 118 110 78 102 107 117 161 81 53 151 58 82 161 89 71 79 135 31 117 76 195 107 76 101 138 56 133 83 124 85 27 165 77 74 109 88 101 42 65 76 213 122 41 206 92 163 104 147 145 104 83 132 101 92 106 99 168 106 105 99 41 194 85 76 131 97 142 67 48 176 100 58 100 102 126 59 192 115 60 129 58 95 80 76 129 110 162 77 59 103 118 93 69 88 123 138 115 126 138 107 118 130 83 84 169 101 38 129 152 123 100 50 172 82 125 130 36 154 102 94 89 91 208 80 106 85 56 81 76 89 99 67 153 141 77 86 47 105 61 85 132 110 90 107 80 75 139 97 142 147 125 71 124 100 152 90 86 112 97 56 80 130 104 88 72 75 35 147 71 128 134 105 116 31 48 38 97 153 90 141 139 114 79 99 95 73 137 92 54 136 131 131 90 76 128 113 126 150 147 92 135 94 195 81 80 119 110 106 120 102 102 112 132 125 81 127 117 111 37 96 110 66 60 44 163 69 126 87 95 104 114 156 47 124 81 85 109 67 125 50 152 72 117 131 109 58 180 110 167 51 100 69 98 129 86 132 136 140 83 115 163 71 77 80 41 145 102 145 125 113 117 116 136 133 121 123 138 27 74 92 72 139 50 144 186 82 96 5 84 70 76 128 132 105 144 194 121 80 88 126 63 45 98 88 69 78 70 93 85 71 156 113 111 132 83 82 112 86 96 102 85 127 129 162 70 245 51 97 72 86 73 72 80 74 133 145 49 129 66 148 107 48 138 133 203 149 53 108 75 108 128 91 58 143 133 115 102 61 95 62 99 81 84 147 119 60 76 190 102 132 106 151 39 117 93 222 78 176 141 104 131 125 192 98 53 73 80 121 70 114 70 105 54 86 83 76 109 118 21 143 43 77 142 17 82 34 56 56 91 76 112 63 72 127 25 65 75 81 206 111 127 110 77 39 123 65 99 154 147 66 82 136 144 58 54 94 103 166 83 114 96 157 96 88 63 108 84 187 126 107 89 144 63 40 51 89 136 108 133 59 52 59 27 99 71 128 167 116 113 168 115 102 160 69 71 134 85 80 68 117 114 162 157 125 138 50 102 88 72 173 84 161 108 123 72 111 187 156 134 133 113 135 152 159 98 178 90 89 128 161 98 122 48 157 81 97 140 140 131 149 123 84 47 99 87 75 117 58 86 149 111 138 267 113 100 104 145 127 145 160 113 72 88 143 92 149 136 28 35 93 81 113 132 61 91 113 104 127 91 117 128 126 69 138 200 167 119 74 90 95 104 82 89 117 122 134 68 165 166 108 116 115 104 154 86 131 78 81 26 110 64 57 119 106 110 92 161 124 75 122 95 130 104 59 69 89 106 93 127 63 119 152 141 50 46 91 128 160 66 85 130 104 64 139 122 111 184 123 194 117 117 47 172 146 65 105 82 157 100 69 138 140 66 117 171 82 85 95 73 111 102 115 88 96 119 147 97 104 35 96 157 114 80 112 111 167 95 44 177 121 77 106 61 95 79 91 145 102 184 144 106 106 48 39 138 120 151 110 106 125 110 71 50 170 92 67 139 69 89 134 100 52 108 141 88 151 144 135 55 93 76 83 132 73 97 101 64 78 89 60 51 134 164 145 163 96 129 191 56 80 62 122 83 85 127 77 101 81 59 76 88 32 107 63 113 70 109 173 103 78 77 61 67 85 123 117 94 62 126 59 106 129 45 123 128 95 111 68 97 63 80 102 65 100 122 121 111 115 117 99 78 124 59 76 98 99 136 88 131 112 69 13 104 72 137 93 116 148 91 36 97 102 128 77 101 74 96 71 209 123 162 87 120 91 129 155 136 141 85 57 93 149 64 49 197 44 99 178 83 108 167 82 83 128 163 93 113 136 73 130 97 115 161 118 126 136 132 54 56 79 83 113 166 67 42 116 161 119 76 105 96 120 42 80 132 122 105 136 73 86 78 117 145 47 53 105 131 125 117 188 87 141 72 77 148 66 104 100 123 140 62 70 45 132 120 166 110 87 138 104 161 99 79 178 150 129 96 178 125 119 99 81 120 106 142 132 48 72 112 133 110 78 207 100 123 18 71 116 158 72 87 69 98 133 114 103 141 158 56 89 84 135 37 82 67 60 94 111 91 89 104 83 100 108 88 100 67 124 148 106 97 132 124 108 177 115 111 183 105 79 90 166 59 118 51 124 125 150 151 64 184 129 46 107 111 57 107 161 101 139 108 138 39 62 88 134 58 48 69 78 109 96 98 160 95 131 134 80 100 154 129 104 53 34 83 134 101 121 32 98 74 165 118 93 101 71 102 121 175 86 146 60 161 103 42 138 71 116 63 38 101 105 56 137 148 80 150 133 77 120 151 72 106 94 88 102 67 146 76 138 111 119 105 99 83 142 81 84 37 108 97 60 125 128 64 94 77 66 98 105 182 68 114 125 91 25 98 86 113 47 59 100 31 101 122 56 74 118 59 33 73 103 108 88 97 125 124 121 127 94 115 136 141 85 70 79 89 95 123 61 117 104 123 112 90 47 109 36 100 50 53 88 124 61 76 97 92 85 130 116 147 128 110 60 149 176 135 117 126 153 112 78 69 76 109 147 118 37 99 83 165 136 215 92 55 128 73 138 80 78 115 119 81 146 145 81 163 87 133 63 109 77 157 122 98 80 59 112 53 120 159 112 33 104 115 223 88 100 143 168 123 101 88 70 200 72 109 99 80 137 86 130 183 109 39 141 79 94 121 76 87 79 111 90 44 146 84 257 170 62 103 124 99 110 52 67 133 103 89 57 51 67 164 107 65 132 131 104 118 79 117 94 250 114 90 59 134 105 73 102 34 51 153 130 101 58 59 80 117 122 101 113 83 153 158 102 57 106 63 145 63 75 238 67 101 134 106 149 58 112 120 79 104 49 53 170 112 102 179 80 135 205 65 93 91 77 66 134 141 122 133 95 66 112 135 115 119 189 142 102 79 144 98 63 87 90 94 128 62 107 65 86 147 135 133 80 100 116 77 46 110 90 98 109 90 39 209 216 82 162 37 66 101 42 104 156 103 72 150 107 92 69 87 100 92 153 94 153 142 212 105 100 150 80 116 67 98 75 81 138 178 150 161 98 66 109 130 101 135 78 77 61 104 124 120 130 96 192 91 61 121 78 93 61 71 70 72 240 86 123 68 63 76 71 101 106 77 112 141 81 151 93 80 138 38 90 110 123 41 87 39 92 42 25 115 88 138 130 146 148 121 157 124 106 108 111 159 170 134 35 106 67 137 76 119 112 104 72 131 175 145 82 170 132 103 153 116 155 184 129 123 62 132 88 84 162 37 73 56 110 88 97 102 129 69 67 143 104 37 71 114 95 93 208 100 108 67 108 135 185 59 96 68 117 66 147 115 88 116 63 149 115 130 99 41 133 120 121 88 178 61 95 76 145 72 75 115 120 84 123 99 184 67 138 85 78 102 135 128 102 137 91 193 137 97 144 38 153 107 124 139 155 55 152 37 85 77 92 36 132 150 114 121 142 87 178 115 80 132 50 127 124 82 94 165 108 108 151 76 110 88 73 62 120 119 131 135 79 149 143 134 54 132 130 160 193 115 48 111 98 136 108 89 91 81 81 114 87 115 88 100 67 118 136 120 54 130 105 92 89 83 59 34 33 116 84 61 88 72 77 105 122 126 61 196 160 65 100 131 156 74 128 68 100 132 127 105 140 93 128 56 99 182 129 155 93 108 68 88 95 20 121 72 29 210 102 125 93 124 138 121 77 117 116 113 76 135 121 146 67 58 67 101 97 107 76 147 98 111 90 65 101 73 67 103 53 112 120 36 113 121 111 56 115 184 85 106 117 85 144 94 106 93 123 150 92 95 44 65 105 113 97 107 119 196 83 75 133 94 211 103 81 75 95 95 118 162 193 138 71 150 47 173 41 81 56 130 64 141 85 114 150 84 85 89 111 53 79 121 142 108 122 126 89 147 97 129 73 36 157 90 149 159 95 78 94 93 51 43 55 134 78 101 137 122 124 70 139 136 117 76 127 149 85 152 83 129 128 139 81 49 109 165 91 142 87 103 112 78 91 57 97 106 52 74 64 51 109 132 47 123 172 41 114 80 65 101 83 106 142 85 116 131 146 33 90 74 100 134 70 91 157 68 99 57 147 46 15 127 85 53 110 100 63 89 110 83 114 86 141 27 131 104 77 110 81 164 64 103 121 36 94 115 67 45 97 165 68 118 111 98 167 131 131 24 123 92 123 91 117 64 101 61 116 175 104 92 116 49 154 131 109 131 105 96 65 166 99 97 33 45 139 56 79 56 126 87 44 110 58 87 62 232 103 62 151 33 81 117 106 93 132 137 90 133 184 81 87 64 127 95 54 107 172 117 113 73 171 133 112 110 120 163 105 87 125 149 108 149 97 76 137 115 86 24 178 147 139 195 112 71 140 29 85 226 111 130 99 133 104 136 99 120 78 99 72 124 137 132 90 106 121 80 80 129 141 139 155 46 105 97 118 116 135 224 109 82 93 89 123 96 104 54 94 157 88 92 154 91 84 76 132 78 77 95 136 62 91 116 174 33 69 90 81 29 41 53 129 139 123 106 214 89 162 115 114 147 44 84 143 108 163 166 164 41 117 157 120 86 58 85 60 62 149 43 68 124 56 172 100 113 101 56 84 88 139 117 89 102 131 105 111 111 139 97 134 72 147 92 77 76 129 178 160 158 103 89 133 65 126 125 109 77 53 80 107 74 102 210 59 129 149 97 59 101 108 183 87 99 78 88 78 109 105 123 108 24 172 106 66 60 73 80 105 64 105 117 120 150 151 42 66 139 16 67 138 59 98 134 89 77 107 90 28 108 40 168 153 76 91 99 80 44 113 56 133 141 99 83 136 71 92 83 121 83 139 54 130 148 141 107 123 116 125 79 102 29 84 92 137 135 144 178 199 109 125 99 122 147 116 71 84 133 116 171 103 64 74 154 105 69 69 66 88 57 174 72 126 150 88 74 127 210 60 130 20 52 119 75 19 84 66 113 59 129 75 11 119 113 113 83 148 106 30 95 131 146 134 45 71 129 43 162 20 92 195 128 147 92 100 164 58 159 88 89 84 138 193 137 108 113 118 79 47 137 89 175 99 125 95 106 60 70 83 76 95 154 77 112 84 126 72 134 52 80 84 141 100 87 42 42 75 112 130 33 105 108 148 161 94 104 60 140 130 118 191 38 112 78 113 157 32 117 68 79 153 95 98 126 73 57 88 40 126 24 180 66 140 61 149 71 72 67 90 142 189 96 115 95 144 97 45 95 60 141 108 119 69 103 89 51 86 74 116 66 53 94 84 86 96 87 119 96 110 40 98 191 56 90 62 64 83 85 173 94 119 66 123 117 115 86 87 56 34 151 84 79 137 84 132 83 165 196 107 162 110 101 96 140 117 108 108 101 121 125 110 86 106 73 31 65 66 57 95 90 110 122 147 146 88 81 40 97 116 152 116 105 43 93 79 42 113 46 140 85 44 114 114 113 115 120 73 65 147 141 92 98 132 103 56 123 80 91 211 136 54 128 85 41 15 86 149 153 54 90 60 84 125 88 66 135 122 140 86 155 121 127 95 135 77 155 98 100 93 174 130 69 67 98 66 109 80 95 117 123 74 100 63 38 162 38 129 184 94 72 90 151 194 162 83 120 85 98 84 154 89 113 70 159 159 118 114 137 149 67 142 109 113 105 109 142 98 134 229 77 87 92 77 35 105 112 187 107 166 74 116 90 117 25 87 99 55 163 90 88 74 122 114 102 91 150 119 96 87 114 51 107 94 113 46 65 115 114 129 110 119 90 111 119 111 102 114 44 95 140 146 112 121 69 123 115 92 81 103 98 83 100 103 67 90 137 106 130 136 120 143 92 80 87 86 134 39 56 88 96 127 86 80 97 113 105 92 67 44 142 67 119 176 108 132 137 120 53 156 64 146 142 79 84 40 39 30 85 71 145 172 133 34 112 131 73 44 102 55 132 113 93 111 93 119 48 87 92 103 40 95 96 139 59 109 105 97 122 147 91 147 151 118 80 139 155 99 101 63 108 198 63 105 169 74 92 64 147 88 143 90 94 125 110 124 35 89 163 95 62 113 62 67 113 67 103 20 42 102 94 74 73 83 64 130 109 108 94 203 147 130 56 88 108 107 119 113 132 91 144 176 139 96 95 58 82 97 43 126 140 60 125 82 169 100 72 77 119 134 140 126 71 90 115 107 110 132 78 95 139 86 149 86 89 96 61 88 148 96 66 74 85 129 80 122 29 102 80 73 30 102 101 92 112 60 175 59 85 90 143 138 97 206 122 86 87 164 139 124 138 146 89 59 59 72 87 49 113 73 147 123 81 123 86 143 141 54 167 140 100 178 92 49 102 69 113 60 135 86 213 118 71 85 68 119 55 72 93 62 24 86 131 41 112 92 138 92 104 123 115 59 172 108 103 125 136 71 103 147 89 91 84 104 120 101 75 81 151 85 130 85 152 63 79 136 123 107 102 112 232 87 128 79 135 108 98 134 109 46 114 51 116 103 136 133 138 114 88 29 79 113 112 126 143 156 128 82 154 100 63 56 167 111 103 60 127 66 165 75 103 81 117 192 138 140 100 158 93 151 195 80 93 161 117 103 107 168 170 104 230 146 59 97 72 110 166 120 79 80 54 60 106 75 19 99 101 91 179 108 117 95 72 132 63 107 76 83 77 94 185 96 142 112 68 101 138 74 129 111 82 157 54 90 102 140 57 132 87 81 117 139 112 63 132 92 121 115 92 70 170 102 56 131 92 92 147 101 64 64 112 142 14 116 65 43 158 71 128 66 70 119 83 66 142 116 37 93 133 90 80 68 125 31 118 128 111 192 41 167 153 114 117 152 80 96 104 159 113 50 73 125 54 36 166 60 151 130 119 208 152 105 155 105 37 129 82 128 70 122 100 75 169 104 97 120 144 35 159 32 39 114 127 112 97 161 81 131 201 104 161 78 167 119 56 162 98 134 92 35 114 65 102 129 160 83 82 61 84 165 83 106 135 105 72 56 16 112 172 73 110 92 63 80 109 77 74 88 117 134 145 141 87 123 49 152 112 64 109 144 88 153 129 77 146 180 103 87 51 22 135 190 140 112 79 22 71 78 77 107 118 126 104 128 146 147 60 164 105 70 123 97 120 161 77 160 130 148 79 22 132 165 56 181 92 65 156 67 70 130 87 103 61 111 173 114 123 113 87 54 105 143 203 118 94 163 74 61 89 47 113 160 164 66 75 84 114 122 106 114 159 51 90 103 134 59 62 104 52 82 112 68 106 62 9 108 106 132 12 99 16 70 55 77 38 120 90 120 99 99 109 144 62 83 57 93 111 78 88 48 80 158 86 43 130 151 81 169 66 48 33 128 118 108 75 74 86 102 37 151 79 83 96 100 42 122 151 98 134 111 176 57 110 76 154 63 140 99 140 116 59 145 163 117 127 103 82 114 124 73 124 51 113 103 164 45 135 84 118 117 84 50 122 144 145 76 148 131 146 83 76 88 88 87 106 41 114 119 150 132 58 55 44 79 162 118 143 73 66 128 91 108 77 87 149 102 111 59 104 154 116 40 156 114 93 74 41 41 222 107 122 57 72 145 111 70 107 147 122 114 158 137 84 47 131 217 77 79 128 80 129 85 63 123 86 72 154 59 72 152 101 123 128 91 80 47 42 59 98 93 109 100 88 146 111 16 119 74 119 126 87 83 86 178 89 78 115 97 140 76 92 95 77 100 189 72 45 128 84 116 74 98 128 75 132 56 172 120 208 82 58 138 98 125 114 160 140 105 127 46 89 98 82 91 177 88 85 117 106 114 154 47 85 73 90 113 59 81 151 74 61 71 139 45 128 132 122 100 104 99 88 98 136 120 88 122 145 52 114 93 67 52 119 69 120 137 124 102 101 98 79 63 172 127 135 73 133 99 114 91 126 113 125 156 209 129 72 43 97 58 65 76 100 173 100 127 140 60 135 128 122 124 120 88 121 135 136 124 105 133 164 66 71 78 96 105 63 64 84 102 106 48 143 81 102 136 117 100 69 111 127 69 144 65 181 120 71 94 128 173 74 102 181 56 150 71 160 56 87 43 122 145 99 121 72 85 96 126 46 40 126 94 103 61 101 115 88 155 138 35 103 86 28 90 109 137 107 44 140 146 93 99 212 30 146 67 79 84 94 185 129 139 75 93 90 182 108 117 122 105 55 108 156 87 44 78 111 137 39 81 39 94 101 71 43 116 47 124 149 170 139 102 112 167 100 98 99 115 103 96 154 78 85 125 75 132 34 80 110 108 131 95 95 119 142 158 128 120 122 97 33 83 77 51 46 94 126 106 96 66 61 131 127 142 157 77 81 156 102 94 78 80 106 69 124 125 90 56 109 145 117 93 111 148 186 104 63 51 91 83 147 84 89 95 126 124 152 92 86 85 154 85 153 114 116 149 77 97 96 160 45 68 100 121 167 139 116 114 125 76 74 79 114 104 76 161 126 116 96 203 58 116 142 81 84 133 58 61 69 124 105 111 142 94 111 59 111 139 113 153 70 82 104 60 123 124 101 147 137 111 86 101 151 150 92 91 108 68 87 130 77 169 67 161 107 96 135 124 77 40 131 97 57 95 102 138 85 152 166 148 96 134 70 51 128 46 86 117 126 55 178 75 6 66 126 165 137 55 163 117 89 144 106 125 48 114 119 43 89 155 52 68 105 120 47 62 89 127 202 117 106 132 65 71 132 55 98 134 97 50 107 95 114 133 57 140 121 217 100 131 143 84 99 122 81 161 118 103 86 72 61 151 153 24 110 102 35 86 177 115 124 98 109 30 124 77 65 103 110 60 95 75 111 61 149 126 82 107 94 72 94 102 81 112 32 74 135 76 127 144 59 147 51 72 85 56 101 139 68 73 91 92 124 131 131 143 113 77 132 39 123 102 98 177 86 51 97 124 64 162 149 78 140 87 74 89 104 115 96 207 50 92 104 60 112 137 102 121 129 139 156 108 182 93 88 78 98 136 125 42 82 60 125 105 161 107 98 17 96 94 111 58 99 17 90 155 78 82 55 82 88 82 87 63 103 89 131 61 61 93 82 110 69 72 110 90 114 51 96 130 74 45 59 83 77 67 137 95 70 116 111 91 129 81 117 93 76 172 111 86 74 80 74 131 86 35 126 118 50 177 112 79 148 62 92 113 80 142 86 146 127 159 110 116 27 41 96 149 108 101 46 139 87 95 84 25 39 74 96 135 103 78 115 141 90 93 80 158 48 184 76 98 149 128 68 168 83 119 59 206 174 86 38 76 82 90 84 53 104 84 97 114 134 185 99 34 110 113 130 82 110 116 92 114 53 87 194 112 122 77 153 105 92 65 79 118 80 107 179 109 153 143 128 109 118 117 68 116 188 83 82 139 132 62 53 142 79 54 173 147 76 121 101 76 115 122 110 105 129 69 129 123 93 161 139 130 116 119 181 116 47 80 62 62 69 116 153 56 56 142 162 103 132 65 110 57 96 61 98 128 51 63 </t>
-  </si>
-  <si>
-    <t>GAM(0.18915221566559087, -2.8103244500986194e-31, 0.6389746299327632)</t>
-  </si>
-  <si>
-    <t>0 0 2 0 0 1 1 1 0 1 2 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 2 0 1 1 0 0 1 1 1 0 2 0 0 0 2 0 0 1 1 2 1 1 0 0 1 1 0 0 1 1 2 0 1 1 2 0 1 0 1 0 0 1 0 0 0 1 1 0 0 2 0 3 0 1 0 0 0 2 0 4 0 0 2 2 4 2 0 2 1 1 0 0 0 1 0 1 1 1 1 1 0 0 0 3 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 3 2 0 0 1 0 2 1 0 1 0 1 1 0 0 0 1 0 2 0 0 0 1 1 1 1 2 0 1 2 1 0 0 2 1 0 0 0 0 1 0 1 0 2 1 2 2 1 0 0 1 0 0 2 0 2 5 1 1 0 0 0 1 1 1 1 2 1 1 1 0 1 1 0 3 0 1 1 0 2 1 3 2 1 1 1 1 0 0 0 1 0 0 0 1 0 2 1 1 0 1 1 0 2 2 1 2 2 2 1 3 0 1 1 0 1 0 1 2 0 0 1 0 0 0 0 0 2 2 0 1 3 0 0 0 2 2 1 0 0 1 0 0 0 0 0 1 1 0 3 1 0 3 1 1 2 0 0 3 1 1 1 0 1 1 1 1 0 3 1 0 0 0 3 1 2 1 0 1 1 1 1 3 1 0 2 1 1 0 1 1 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 3 0 0 0 1 0 0 0 0 2 1 0 1 3 0 1 2 0 0 1 0 1 0 0 2 1 2 2 1 2 1 1 1 2 1 1 1 0 0 2 1 1 0 0 0 0 0 2 0 0 0 0 1 1 1 1 0 0 2 2 0 1 0 1 1 0 0 0 2 1 4 2 0 0 0 1 0 3 0 1 3 1 0 0 0 0 0 0 2 0 0 1 2 1 1 0 1 0 0 0 2 1 1 1 0 0 1 1 1 1 4 1 0 2 0 2 1 1 1 1 1 0 1 0 3 0 2 1 1 0 0 2 0 0 1 3 0 1 2 0 0 0 2 1 1 1 0 0 0 1 0 1 0 0 1 1 0 1 1 1 1 1 0 0 0 1 1 2 0 2 2 1 0 0 0 1 0 0 0 0 1 1 1 2 0 1 0 0 1 1 2 1 0 0 0 1 2 2 1 2 1 1 2 0 1 1 0 0 2 1 0 0 0 1 1 0 1 0 0 0 0 0 3 1 1 1 0 0 0 1 3 0 1 3 0 1 0 0 0 0 1 1 1 0 1 2 0 2 1 1 1 0 3 0 1 0 0 0 0 0 1 1 0 3 1 1 1 1 1 1 0 1 1 0 1 0 0 2 1 0 0 0 0 0 1 0 0 2 1 0 1 0 3 1 1 0 0 1 1 1 0 0 0 0 1 0 0 1 1 0 0 1 2 1 0 2 0 1 2 1 0 2 0 1 2 1 0 0 0 1 1 0 1 0 1 0 1 0 0 1 1 1 0 1 1 0 2 1 1 2 1 0 0 1 1 0 1 1 0 1 1 2 0 1 0 1 2 2 0 1 0 0 0 1 1 2 1 0 1 1 2 0 0 0 1 1 2 2 0 2 1 0 1 0 1 0 0 2 0 1 2 0 0 0 0 2 2 1 1 0 0 1 2 0 0 1 0 1 0 1 1 2 2 0 0 1 1 1 0 0 2 1 0 0 1 0 1 1 1 0 1 1 3 1 0 0 2 0 2 1 2 2 1 1 0 2 0 2 0 1 1 1 0 0 0 1 0 0 0 1 2 1 3 1 2 1 2 1 0 0 0 0 1 2 0 1 0 0 0 2 1 0 1 1 0 2 0 1 0 2 0 0 1 0 0 1 1 1 0 1 0 0 2 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 1 1 0 0 1 1 2 1 1 1 0 1 1 0 1 2 1 0 0 1 0 1 1 0 0 0 1 1 1 2 0 0 1 0 1 2 0 0 0 1 0 3 0 1 0 3 3 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 1 1 0 2 2 0 0 0 2 0 1 0 0 0 0 1 1 1 1 1 1 0 0 1 0 0 0 0 2 1 0 1 0 1 2 3 0 1 2 2 0 1 0 2 2 1 2 1 1 0 0 1 0 0 0 2 1 0 1 1 1 0 1 0 0 2 1 1 1 0 0 0 0 1 1 1 0 0 1 0 0 0 1 2 3 0 1 3 3 0 1 0 0 1 1 1 1 0 1 2 1 0 0 0 1 0 0 0 2 1 0 1 0 0 0 2 2 0 2 1 0 0 0 0 1 1 0 1 0 1 2 1 0 0 1 0 1 1 0 1 1 1 0 0 0 2 2 1 1 1 0 1 0 1 1 0 2 0 1 1 0 0 3 0 0 0 0 0 1 0 1 0 1 1 1 0 1 0 0 2 0 1 1 2 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 2 0 1 0 1 0 3 1 0 1 0 2 0 0 0 1 1 1 0 2 0 0 1 1 1 2 1 0 0 0 0 0 1 1 3 0 2 0 0 0 1 0 1 2 0 0 0 1 1 3 1 0 1 2 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 3 1 0 1 0 2 0 1 2 0 2 3 0 0 1 0 2 1 2 0 0 0 0 0 0 0 0 2 1 1 0 2 0 0 0 2 0 2 0 1 1 1 1 1 1 0 0 0 0 0 0 2 1 0 1 1 1 1 1 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 3 0 2 1 0 0 0 0 1 0 1 2 1 1 0 0 1 1 0 2 0 0 0 1 0 1 0 0 2 1 0 0 0 1 2 1 2 1 0 2 1 0 0 2 1 2 0 2 0 0 1 3 0 1 0 1 0 0 1 1 0 0 0 0 1 2 2 1 2 0 0 1 0 2 0 1 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 0 2 0 1 0 0 2 1 1 0 1 0 0 0 1 0 0 2 0 1 2 2 2 0 1 1 1 1 0 0 1 0 1 2 0 1 1 1 2 0 2 0 0 3 2 0 2 1 4 0 0 1 2 0 0 1 0 0 1 2 0 0 0 0 1 1 0 2 0 1 1 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 2 1 1 0 2 1 0 0 1 2 0 1 0 1 3 1 1 2 3 1 0 2 1 0 0 0 1 0 0 1 3 0 0 0 1 1 2 2 3 1 2 0 1 0 0 0 0 1 2 0 0 1 1 1 0 1 1 0 2 0 0 0 1 3 0 1 1 0 2 1 1 0 1 0 1 2 0 1 2 0 1 1 1 0 1 1 0 0 0 0 1 2 1 0 1 0 0 0 2 1 2 2 0 0 2 2 0 1 0 0 1 1 0 2 0 0 3 1 2 2 1 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 1 1 1 1 1 0 1 0 2 2 0 2 0 1 1 2 1 1 0 0 0 0 0 2 0 0 0 0 0 3 1 0 1 1 0 1 1 1 0 0 0 1 1 1 1 0 0 2 1 3 0 0 0 0 1 2 0 0 0 3 0 1 0 0 0 1 0 0 1 1 1 1 2 0 3 1 0 1 0 0 0 3 0 0 1 0 0 1 1 1 2 2 1 1 1 3 2 0 0 0 0 2 0 1 1 1 0 0 1 1 2 0 2 1 0 0 1 2 1 2 1 1 2 0 1 0 0 1 0 0 2 1 1 2 0 0 0 2 1 0 0 0 2 2 1 1 0 1 0 1 1 1 0 0 3 0 0 2 0 1 0 0 0 1 1 3 1 1 0 1 0 1 0 1 0 1 2 0 0 2 1 1 0 0 1 0 0 2 1 0 1 2 0 1 0 2 1 0 0 1 2 1 0 1 0 1 0 1 0 0 1 0 0 0 3 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1 0 2 1 0 1 0 1 0 1 1 0 0 1 0 1 0 2 1 0 1 1 0 0 1 1 3 0 0 1 0 1 2 1 1 0 1 1 1 1 0 1 0 1 1 0 3 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 2 2 0 1 1 1 0 1 2 1 0 3 0 0 1 1 1 1 0 3 0 2 0 1 1 1 0 0 0 0 0 1 0 1 2 0 2 1 0 1 0 0 0 1 0 1 0 1 3 1 2 0 0 0 0 0 0 0 1 0 0 1 0 1 2 1 0 0 0 0 1 0 1 2 1 1 1 0 1 1 2 1 1 1 1 0 2 0 0 0 0 1 1 2 3 1 3 1 1 2 0 0 1 0 1 1 1 0 0 1 0 3 0 2 1 1 0 2 0 0 0 2 0 1 0 0 0 1 3 1 0 1 1 1 3 4 0 1 1 2 1 1 1 0 1 0 0 2 0 2 0 1 1 2 0 0 1 0 1 1 1 1 0 2 0 2 0 1 1 0 1 1 0 1 0 3 1 0 0 0 2 0 2 2 1 0 1 1 0 0 1 2 2 0 0 1 1 1 1 1 1 0 0 0 1 0 1 1 1 1 1 3 0 0 0 0 4 0 1 0 1 0 0 3 4 2 2 0 2 0 0 0 1 3 2 1 1 2 0 0 0 1 0 0 0 1 2 0 1 0 0 2 0 1 0 0 0 2 0 0 2 1 2 0 1 1 0 0 2 0 0 1 0 2 2 1 2 1 3 0 0 0 0 0 2 0 1 1 0 0 1 1 0 1 2 1 3 0 1 0 1 0 0 1 0 1 0 1 0 2 2 0 1 3 0 4 2 1 0 1 2 0 1 1 1 0 1 0 0 2 0 0 0 0 2 0 0 1 0 3 1 2 0 0 0 0 2 0 0 1 0 1 2 2 1 0 0 1 1 0 1 0 2 1 1 0 1 1 1 2 0 3 0 0 1 0 2 1 0 0 0 3 0 1 1 1 1 0 3 0 2 2 2 0 0 0 4 0 2 0 1 0 0 2 2 0 3 1 0 3 0 0 0 0 1 1 1 1 1 0 0 3 0 1 1 2 4 2 0 1 1 1 0 0 0 1 0 2 0 1 1 1 1 0 0 1 2 0 0 0 1 0 1 0 1 1 0 2 1 0 0 2 1 0 3 0 1 2 2 0 0 1 1 0 0 1 0 3 3 2 0 0 1 0 0 0 0 0 0 2 0 1 0 1 1 1 2 1 0 0 0 0 1 2 3 0 0 3 3 1 1 2 0 1 0 1 0 1 1 1 1 1 0 0 2 1 1 2 0 0 1 3 1 1 0 2 1 0 2 2 0 0 0 2 1 1 1 1 1 0 0 0 0 0 0 3 0 2 1 0 2 1 2 2 0 1 2 1 2 1 0 0 0 0 1 1 0 2 4 1 1 1 1 1 2 1 1 1 3 2 2 1 1 1 3 0 0 2 0 0 0 0 0 1 0 0 0 0 2 1 0 1 1 0 0 1 2 2 0 1 0 1 0 0 0 0 0 0 0 4 0 3 0 0 0 1 1 0 1 0 2 1 0 1 0 0 0 1 0 0 1 0 0 0 1 1 1 1 1 0 0 2 3 2 1 1 2 0 1 0 0 1 1 0 0 0 2 0 2 0 0 2 0 2 0 0 0 1 2 2 1 1 2 1 1 0 1 1 2 1 1 0 1 0 1 0 1 2 0 1 1 1 2 0 0 2 0 0 0 1 0 0 0 0 2 3 0 2 1 2 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 1 2 0 1 1 1 2 1 1 0 2 1 1 0 0 1 0 0 0 1 0 0 1 1 1 2 0 0 1 0 1 2 2 1 1 0 1 0 1 0 0 1 2 0 2 0 2 1 0 2 0 0 1 0 0 1 3 1 0 2 1 0 0 0 0 2 0 0 0 0 3 0 1 0 1 0 1 2 2 0 0 1 3 1 2 1 2 1 0 2 0 1 2 0 3 0 2 1 0 1 2 0 0 0 2 0 0 0 1 2 1 1 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 1 1 2 0 3 0 2 1 1 0 4 2 1 0 0 1 0 2 1 1 3 2 0 0 0 0 0 0 1 2 3 1 1 1 1 0 0 1 1 0 1 0 2 0 0 2 1 0 1 1 0 1 1 0 1 0 1 0 0 0 1 1 0 2 0 0 1 1 0 0 1 0 3 1 1 0 2 1 0 2 0 2 0 1 0 1 2 0 0 0 4 1 0 0 1 0 0 0 0 0 0 2 1 1 0 1 0 0 1 1 1 1 1 2 0 2 0 3 1 1 0 0 1 0 1 0 2 1 1 2 1 2 0 0 3 0 1 1 1 1 2 1 0 1 2 0 0 1 1 1 2 0 1 1 0 1 3 3 2 2 0 0 0 1 2 2 0 2 0 1 2 0 0 0 1 1 1 2 1 1 1 0 1 1 1 0 2 2 1 0 1 0 1 0 1 0 0 0 0 2 0 0 0 2 0 1 0 0 1 1 1 0 1 0 3 0 2 1 0 0 1 2 1 0 2 1 2 1 2 1 1 0 2 1 1 1 0 1 2 1 0 1 0 3 1 0 0 2 0 4 0 0 2 0 1 2 0 1 0 1 0 0 1 0 2 1 0 1 1 1 0 2 0 3 2 2 0 1 2 1 1 0 0 1 0 0 0 2 0 0 0 0 0 1 1 3 0 1 0 0 0 0 2 2 0 0 1 1 0 0 1 1 0 1 1 3 0 0 0 0 0 2 0 1 1 1 0 1 1 0 0 1 3 0 0 2 0 0 1 0 0 0 0 1 1 3 0 0 2 0 1 0 0 2 0 1 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 2 0 0 0 0 1 0 1 2 1 3 1 0 0 0 2 0 1 3 1 0 3 0 0 1 0 1 0 0 0 2 0 2 0 0 2 0 1 0 2 0 0 0 1 1 2 0 0 1 1 0 1 0 1 2 1 0 1 0 0 1 1 2 1 0 2 0 0 0 0 0 0 2 1 1 3 2 0 1 1 1 1 1 0 0 1 0 1 1 0 1 1 0 1 1 1 0 2 1 2 1 1 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 1 1 0 3 2 2 0 1 1 0 2 1 0 1 0 0 1 1 1 2 1 0 2 0 0 1 0 0 0 0 0 2 1 2 0 0 0 1 0 0 1 1 1 0 1 0 0 0 1 1 2 1 1 0 0 1 0 1 0 1 0 1 2 1 0 1 1 2 0 2 0 0 1 1 0 0 2 2 1 1 1 0 0 1 4 0 0 1 0 0 2 1 0 1 1 2 0 1 2 0 1 2 1 1 1 0 2 1 4 1 1 1 0 0 1 0 0 0 0 0 1 1 0 1 3 1 0 1 0 1 1 0 1 0 1 3 5 1 1 2 0 1 0 1 0 0 0 0 0 1 2 0 2 0 1 1 1 0 0 2 0 0 0 0 0 1 0 1 3 1 1 1 0 1 1 0 1 0 2 1 0 1 0 0 0 1 0 0 0 1 1 0 2 0 0 1 1 0 1 2 0 1 0 2 1 2 0 2 1 0 1 1 0 1 2 1 1 0 0 0 0 1 3 2 0 2 2 0 1 0 1 1 1 1 2 1 0 0 0 0 0 0 0 2 0 1 3 0 2 0 0 1 0 0 0 2 0 2 0 1 1 0 1 0 0 0 0 2 0 1 1 0 0 1 2 1 0 2 0 1 0 3 0 1 0 1 1 2 1 0 1 0 1 0 0 0 0 2 1 2 0 0 2 1 0 0 4 0 2 2 1 2 0 0 1 0 0 1 0 0 1 1 2 0 0 0 1 1 2 2 2 2 1 2 0 0 2 1 0 1 1 1 0 1 0 3 1 1 0 0 0 2 0 0 2 0 0 0 1 1 0 0 1 0 0 2 1 0 1 1 1 0 2 0 1 1 2 1 0 0 1 0 2 2 0 1 2 1 0 1 1 1 3 0 2 0 0 0 0 1 3 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 3 1 1 3 0 0 1 1 2 3 2 1 0 1 1 0 3 1 0 0 1 2 2 1 0 0 2 0 0 0 2 1 0 3 2 1 1 2 1 1 1 0 1 0 0 0 1 2 0 1 2 0 0 1 1 1 2 1 0 2 2 0 2 0 0 0 3 0 1 0 0 2 1 1 1 0 2 1 1 4 1 1 0 2 0 2 2 0 0 1 0 0 1 1 2 0 0 0 1 0 1 0 0 1 0 1 1 0 1 1 1 0 1 2 2 3 0 3 0 1 0 0 0 1 2 1 1 2 0 1 2 1 1 0 1 2 0 1 1 1 2 0 1 1 0 2 1 0 1 1 0 3 1 1 1 1 2 2 0 2 3 2 2 0 0 0 0 3 0 0 1 1 2 0 1 2 1 0 1 3 1 1 3 0 2 2 1 0 0 1 0 0 0 1 2 1 1 1 0 2 1 0 1 0 1 0 1 1 0 0 2 1 2 2 1 1 0 1 1 0 1 1 0 1 0 0 1 1 1 1 3 1 0 0 3 0 2 1 0 1 3 1 1 0 0 0 0 1 1 1 1 0 1 2 1 3 0 0 1 1 1 0 1 0 0 1 0 2 1 1 1 2 0 2 1 0 4 1 1 0 0 1 0 0 2 0 0 0 1 1 2 0 0 1 0 0 1 3 0 0 0 0 0 0 0 1 0 0 2 0 4 1 0 4 1 0 0 2 1 0 1 0 0 1 0 0 1 0 0 1 1 0 1 2 1 1 0 1 1 1 0 2 0 0 1 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 0 0 1 2 0 3 0 1 2 1 1 3 0 1 0 0 2 1 0 0 1 1 1 2 1 2 0 0 1 2 0 0 0 1 0 0 1 1 4 1 2 3 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 2 1 1 2 2 1 1 2 2 1 1 1 2 0 0 0 2 0 0 1 1 0 1 0 1 1 2 0 1 0 1 0 2 1 1 0 0 1 3 0 0 1 1 0 3 1 0 0 1 1 2 1 0 0 1 1 0 3 1 0 0 1 0 0 2 0 1 0 1 0 0 1 0 0 0 0 1 1 2 1 2 0 0 1 0 1 1 0 1 0 1 0 1 2 1 1 0 2 0 0 2 0 2 1 1 0 0 0 2 0 2 1 1 2 1 1 2 0 0 0 0 0 1 2 1 1 1 1 2 2 1 0 2 0 0 0 1 0 0 0 0 2 0 1 1 0 0 0 1 4 1 1 1 0 1 0 3 3 0 1 0 0 2 0 2 0 2 1 0 1 1 0 0 1 0 1 1 1 0 1 3 1 1 0 0 1 1 2 1 0 2 0 2 0 0 1 0 1 0 0 0 2 1 0 0 4 1 1 0 0 2 1 0 2 0 0 1 0 0 1 1 1 1 1 2 0 1 1 0 1 0 0 1 3 1 2 1 3 0 1 1 0 0 3 1 1 2 1 1 0 2 1 0 2 0 0 1 0 0 0 0 0 1 0 0 2 1 0 0 0 1 0 0 1 0 1 0 0 1 1 2 0 0 0 1 1 0 1 1 2 0 0 1 0 2 3 1 0 2 1 0 1 1 3 2 0 0 3 0 0 3 0 0 0 0 1 0 1 0 0 0 0 0 3 0 1 2 1 1 0 1 0 1 1 0 0 0 1 2 1 1 2 0 1 2 0 0 0 0 2 1 1 1 2 1 0 0 0 1 0 1 0 0 2 3 1 1 1 1 2 0 0 2 1 0 0 0 0 2 2 1 0 0 1 0 1 0 0 1 2 0 1 2 1 3 1 1 1 1 1 2 0 3 0 0 2 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 1 2 0 1 1 2 1 2 1 3 2 1 1 1 0 2 1 1 0 1 0 1 3 0 1 0 2 0 1 3 1 1 1 0 1 2 0 1 0 1 1 0 0 0 0 0 2 1 0 1 1 0 1 1 0 1 1 0 1 1 1 0 2 0 1 0 2 4 0 0 1 0 0 2 1 0 2 1 0 2 1 1 0 1 0 0 1 1 0 1 0 1 0 1 2 0 0 0 2 1 0 3 1 1 0 1 1 1 0 0 1 1 1 1 2 2 1 0 1 0 1 1 1 0 0 1 1 0 1 1 1 3 0 1 0 0 1 0 0 2 1 1 2 0 0 0 0 0 0 0 1 2 1 1 1 1 0 0 3 1 2 2 1 2 1 0 2 1 0 0 0 0 0 1 0 1 0 0 1 2 1 0 1 1 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 0 0 1 1 0 3 0 1 2 0 2 1 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 0 2 2 1 0 1 1 0 0 2 2 0 2 0 1 1 1 0 1 0 0 0 0 2 0 0 2 0 1 1 1 0 1 1 2 1 1 0 2 0 3 0 1 1 1 1 0 1 1 3 4 2 1 2 0 1 1 1 3 0 1 0 0 0 1 1 2 1 0 1 1 1 2 0 0 0 1 0 1 0 1 1 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 3 1 1 1 0 1 1 0 0 1 0 2 1 2 0 0 1 0 1 1 0 0 1 1 1 0 1 2 0 0 2 0 0 0 2 0 1 2 1 0 0 1 1 0 0 0 1 0 2 1 0 1 1 0 1 2 0 4 1 1 1 0 2 0 1 0 0 0 0 0 2 0 0 0 2 1 1 1 1 0 0 0 1 1 0 1 1 0 0 1 1 1 0 0 1 3 1 1 0 0 0 1 0 0 2 3 1 1 0 0 0 0 0 2 1 0 1 1 0 0 1 2 0 1 1 0 2 1 1 0 0 1 2 2 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 2 0 0 1 0 1 4 0 0 3 1 1 1 0 2 0 1 0 2 0 0 1 0 0 0 3 1 0 2 1 2 0 0 0 2 1 0 2 1 2 1 1 1 0 1 0 1 1 0 0 1 1 2 1 0 2 0 0 0 0 1 1 0 1 1 1 1 0 1 2 3 1 0 2 1 1 2 0 0 2 2 0 0 1 1 1 0 1 1 2 2 0 0 1 1 2 0 1 0 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1 2 1 1 0 1 0 1 0 0 0 3 0 1 1 0 0 0 3 0 1 2 1 0 1 1 0 1 0 0 2 1 0 0 1 2 0 0 1 0 1 1 1 0 1 1 2 0 0 0 2 0 1 2 0 0 0 0 1 1 1 3 3 1 1 1 1 1 0 1 1 2 0 1 1 1 1 0 1 3 1 0 0 3 2 1 0 0 1 1 0 2 1 4 2 0 1 1 0 1 1 1 0 1 0 2 0 1 1 0 0 1 1 0 2 1 0 0 3 0 0 2 1 0 0 1 0 1 2 1 1 1 2 0 0 0 1 1 1 1 1 2 1 1 0 0 1 2 1 0 0 1 1 3 1 1 1 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 1 1 1 1 0 2 1 0 1 0 1 0 0 0 1 1 1 1 2 0 0 0 2 2 0 0 1 0 2 1 1 0 1 0 0 1 1 0 0 0 1 2 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 0 1 1 2 3 1 0 0 1 1 0 0 0 1 0 0 1 1 2 0 2 0 1 0 0 0 3 3 1 2 2 5 0 0 0 0 1 0 0 2 0 0 1 1 1 1 0 0 3 1 0 3 0 0 0 0 0 3 0 0 0 0 1 1 0 0 0 1 1 3 3 0 0 2 0 0 1 2 0 0 2 0 1 1 1 0 1 1 1 1 0 0 0 0 1 1 2 0 1 1 2 1 0 0 0 2 1 1 0 0 0 0 0 0 2 2 1 0 1 0 0 3 1 1 1 1 0 1 0 1 0 2 3 2 0 1 0 0 1 1 2 0 2 0 1 2 1 3 1 3 1 1 1 0 0 1 0 0 3 2 2 0 1 1 1 0 1 2 1 0 1 0 0 0 0 1 0 1 1 0 1 3 1 0 1 1 1 1 1 0 0 2 2 0 0 1 0 0 1 0 1 1 0 0 1 1 1 1 1 1 0 0 0 4 2 1 1 2 1 0 0 1 0 0 0 1 2 1 2 1 1 1 1 0 1 0 1 0 0 0 0 1 1 0 1 1 1 0 1 1 2 0 0 1 0 1 0 0 1 0 1 1 0 0 2 0 3 0 1 3 2 1 0 1 1 0 1 1 1 2 0 1 2 0 3 1 0 1 1 1 0 0 0 0 0 1 0 1 1 1 1 1 2 1 0 0 0 0 2 1 0 0 0 0 1 2 0 0 0 2 0 0 0 1 0 1 1 2 0 1 0 0 1 2 1 0 1 0 1 1 1 0 2 0 0 0 1 1 2 1 1 0 1 0 1 2 3 0 1 0 0 2 0 1 1 0 0 1 1 0 1 1 2 2 2 1 1 0 0 0 0 0 1 1 0 0 2 0 2 0 1 1 0 1 0 0 1 1 1 0 1 0 0 2 2 1 0 1 0 1 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 2 0 2 0 1 0 0 0 0 1 2 2 0 1 0 1 1 1 0 1 0 0 1 1 1 2 0 0 0 1 0 3 1 1 1 0 1 3 1 1 0 2 0 1 2 1 0 2 0 0 1 0 0 2 1 0 1 1 2 0 1 1 1 0 1 1 0 1 1 1 1 0 1 0 0 2 1 0 2 2 2 1 0 1 2 0 2 2 1 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 2 0 0 1 1 2 1 0 1 0 0 1 0 1 1 0 0 0 1 2 0 0 0 3 0 1 3 1 3 0 2 1 0 0 2 0 0 0 1 0 1 1 0 0 1 0 0 0 1 1 1 1 0 2 1 0 1 0 0 0 0 0 2 1 0 1 0 0 1 0 0 2 1 1 3 0 0 0 1 2 1 1 1 2 0 1 0 0 1 1 0 0 0 1 0 1 2 2 1 1 1 0 0 1 0 1 1 2 0 0 0 1 0 0 1 0 1 0 0 1 1 1 1 1 4 1 3 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 0 0 1 1 1 1 0 0 0 1 0 0 0 1 0 3 1 1 1 0 1 1 1 0 1 0 2 0 0 2 0 1 1 1 1 1 1 1 1 0 1 1 2 0 0 3 0 2 1 0 1 1 1 1 1 1 1 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 2 1 1 0 0 0 2 0 1 0 0 0 0 1 1 0 2 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 3 0 2 0 0 0 1 2 0 0 0 0 0 2 0 1 1 0 0 1 0 0 1 0 2 1 0 2 0 1 1 2 0 0 1 1 1 0 1 0 1 1 1 0 1 1 4 0 1 0 0 1 0 2 0 1 0 2 2 0 2 0 0 1 0 0 2 1 1 0 0 0 0 1 0 0 2 0 1 1 1 5 0 0 1 2 0 2 1 1 0 2 1 1 1 1 1 1 1 1 2 1 2 2 1 0 0 0 1 1 0 1 0 1 1 0 1 0 0 2 3 0 1 1 0 1 0 0 3 0 1 0 0 3 0 3 0 1 1 1 1 1 0 0 1 1 3 2 1 1 3 1 3 0 0 0 0 0 1 1 0 0 0 0 1 0 1 2 2 2 1 0 1 1 2 0 0 1 1 0 2 1 1 1 1 1 0 2 2 1 0 2 2 1 0 1 0 0 1 1 0 0 0 2 0 0 2 1 0 0 1 0 1 1 1 0 0 1 2 3 2 0 0 0 2 1 2 1 0 0 2 0 3 2 3 0 1 2 1 1 0 0 0 0 2 0 1 1 2 1 0 3 1 0 0 0 1 1 1 1 1 0 1 3 2 3 2 0 0 1 0 2 0 1 4 1 0 1 1 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 2 2 2 1 1 1 0 1 0 0 1 0 0 1 1 3 1 1 0 2 2 0 3 1 1 2 0 3 1 1 1 0 1 0 0 0 0 1 0 0 1 1 2 1 0 1 0 0 1 1 1 1 1 1 3 1 0 0 3 0 2 1 0 2 1 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 1 0 2 0 0 0 1 1 1 1 2 1 2 0 1 0 1 2 1 0 0 1 0 1 2 3 0 1 0 0 0 0 0 2 0 1 0 1 0 1 1 1 0 1 2 0 1 0 0 1 1 0 0 2 0 0 1 0 2 1 1 1 2 3 1 1 2 1 1 0 1 2 2 1 0 2 2 0 1 0 2 1 1 0 1 1 1 0 2 1 2 1 1 1 0 0 0 0 1 3 0 1 0 2 1 0 0 1 2 2 0 0 0 2 2 0 1 1 2 1 1 0 1 0 1 0 1 0 1 0 1 1 1 0 0 1 0 0 2 1 3 0 1 3 1 0 1 2 1 0 2 1 1 0 2 0 5 1 1 1 1 1 2 0 1 1 0 0 1 0 1 1 0 0 2 0 0 1 1 1 0 1 0 0 2 2 1 2 0 0 1 0 0 0 1 1 1 2 3 1 0 1 1 2 2 0 0 0 2 1 2 1 1 1 2 0 0 0 4 0 1 1 1 0 1 1 0 2 1 3 1 0 0 3 0 3 1 0 1 0 0 0 0 1 2 2 1 0 0 1 0 0 1 0 0 0 2 0 0 0 1 0 1 2 1 0 0 0 1 1 2 1 1 0 0 1 0 1 1 0 0 2 2 0 0 1 1 0 0 1 0 0 3 0 0 0 0 1 0 2 0 0 2 0 1 0 1 0 0 0 0 2 2 1 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 1 2 1 0 2 0 1 0 0 1 1 0 0 0 1 0 0 0 2 0 1 0 0 0 1 1 2 0 1 1 3 1 0 0 2 0 0 0 0 1 2 0 0 0 1 1 2 2 0 0 0 4 2 0 1 0 1 0 1 0 3 1 1 0 0 1 0 2 0 0 0 0 1 1 1 1 1 0 0 2 1 1 0 0 0 0 0 1 1 1 0 0 2 0 1 0 1 0 0 0 2 2 2 2 0 0 0 3 0 0 3 1 2 0 0 0 1 0 0 3 1 1 1 0 0 1 1 1 0 1 0 1 0 0 0 0 1 1 0 3 1 0 1 0 1 0 1 0 1 2 0 2 1 3 2 0 0 0 0 0 0 3 2 0 0 0 1 0 1 0 3 0 0 2 2 1 1 0 0 1 0 0 1 0 0 0 3 2 3 2 2 1 1 1 1 1 2 3 1 0 1 1 2 1 0 1 1 1 1 0 1 0 0 0 2 1 2 1 0 0 0 1 0 0 1 1 2 1 0 1 2 0 0 1 1 1 3 4 0 1 1 1 3 0 0 0 0 0 1 1 0 0 0 3 0 2 1 2 0 2 2 0 0 2 0 2 0 1 0 0 2 0 2 0 1 0 0 0 1 1 1 0 0 2 0 1 0 2 0 1 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 1 0 2 0 1 1 1 2 2 2 2 0 0 0 2 1 2 3 2 1 1 2 0 1 1 0 0 0 1 1 1 2 3 3 0 1 0 1 2 1 0 2 2 1 2 0 0 1 0 1 0 1 1 0 2 0 0 3 0 1 0 3 0 1 0 0 0 0 0 2 0 0 0 1 1 0 0 2 0 0 2 0 0 0 2 0 1 0 1 1 0 1 0 0 0 2 0 2 2 1 0 3 2 1 0 0 2 0 0 0 2 0 1 0 1 3 1 2 1 1 0 1 0 0 0 1 0 1 0 0 1 1 0 2 0 2 0 0 1 0 1 1 3 0 0 0 1 1 3 1 0 1 1 0 1 0 0 0 1 0 0 2 0 0 2 1 0 1 0 0 0 0 2 0 2 0 0 0 0 0 0 0 1 2 1 1 0 1 3 0 0 1 1 1 0 0 1 0 1 1 3 0 0 0 0 0 0 1 0 3 1 0 2 0 1 1 0 0 0 0 2 0 2 0 0 0 2 2 0 0 0 0 0 1 2 1 2 0 0 1 1 0 0 1 1 1 2 3 0 0 1 1 2 2 3 1 1 1 1 0 2 2 2 0 0 1 1 1 0 1 0 2 2 2 2 1 0 1 0 0 1 0 1 2 0 2 1 0 2 1 0 1 2 1 0 2 3 1 1 1 0 1 0 1 0 2 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 3 0 1 1 1 0 1 1 1 0 0 1 1 2 1 0 0 0 2 1 1 1 1 1 0 0 0 2 0 0 1 0 1 2 1 2 2 0 2 0 1 0 3 1 1 0 1 1 0 1 2 0 2 2 1 0 3 0 1 0 1 1 0 1 0 1 1 0 0 1 1 0 0 2 0 0 0 0 1 0 0 3 1 0 2 1 4 1 0 1 0 2 0 1 2 0 0 0 0 3 2 1 2 0 0 1 1 1 0 1 0 1 1 0 1 0 0 1 0 2 0 1 2 1 1 1 0 1 1 1 2 1 1 1 0 0 1 3 1 0 0 0 0 3 1 0 0 2 2 1 1 0 2 2 1 1 0 0 0 1 0 4 1 2 1 0 0 0 0 0 0 0 1 1 1 0 1 0 3 1 2 0 3 1 1 2 1 1 2 0 0 0 0 0 1 1 0 3 0 2 1 1 0 1 0 0 0 1 0 2 0 0 0 2 0 0 0 1 1 1 0 0 2 0 1 0 1 1 0 1 1 0 1 1 0 0 1 0 1 0 0 0 1 1 0 0 0 3 0 1 1 2 0 0 0 0 1 1 0 0 2 0 1 2 1 1 2 0 0 2 1 1 2 0 1 0 2 3 2 0 2 1 2 1 0 1 0 2 1 3 0 0 0 0 1 0 0 1 0 0 2 1 1 0 0 1 0 2 1 1 0 1 0 0 1 0 1 0 1 0 0 1 2 2 1 3 1 1 2 2 2 1 2 0 1 0 0 1 0 0 0 0 1 0 1 1 0 1 0 2 0 4 1 3 0 1 0 1 2 0 0 1 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 3 2 0 0 2 0 2 2 0 0 1 0 0 1 1 2 2 1 0 2 2 1 1 1 2 1 1 0 1 1 1 1 3 1 1 2 0 2 2 1 0 0 1 0 0 1 1 1 1 0 1 0 1 2 1 1 1 2 1 0 0 2 0 0 1 0 1 0 1 0 4 0 0 1 1 2 2 0 0 2 0 1 1 1 0 2 0 2 0 2 4 0 2 1 0 3 1 0 2 0 1 1 1 1 0 0 0 1 1 1 1 2 1 0 1 0 0 0 2 2 0 0 2 2 1 3 0 0 2 1 1 1 0 1 0 1 3 2 0 0 0 0 3 1 1 0 2 0 0 0 0 1 4 1 1 1 0 1 1 0 0 1 1 0 0 0 1 0 1 2 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 3 0 1 1 0 0 1 2 1 0 1 0 0 0 1 1 0 1 2 0 1 1 1 3 4 1 0 0 0 2 0 0 0 0 1 0 2 1 3 0 1 0 2 0 0 1 0 2 1 3 1 1 2 2 1 1 0 0 1 3 2 1 1 0 1 0 1 2 5 1 0 2 2 2 2 0 1 1 0 0 0 0 1 1 1 0 0 2 1 0 0 2 1 0 1 1 1 1 0 0 0 0 1 1 1 2 1 1 1 1 0 1 0 0 1 1 3 0 0 0 1 1 0 2 1 3 2 2 1 2 1 0 1 0 2 1 0 1 3 0 1 1 2 0 2 2 0 1 0 1 2 0 0 2 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 3 1 0 0 1 1 2 4 0 1 0 1 0 0 1 2 0 0 2 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 2 0 2 1 0 1 2 2 0 1 0 0 1 1 0 1 0 1 1 1 0 0 1 1 3 1 0 0 1 1 2 2 1 2 1 0 0 2 1 2 0 0 3 2 0 1 0 2 1 0 2 2 0 0 2 2 1 1 1 2 1 2 1 1 1 0 0 1 0 3 0 2 0 1 0 0 2 0 2 2 0 1 1 2 2 0 1 1 1 1 1 1 2 1 1 2 0 0 0 0 0 1 2 0 1 1 1 1 0 0 1 1 0 2 0 1 1 2 0 1 2 0 1 0 0 3 1 1 0 1 1 2 0 0 1 1 3 1 1 2 1 0 4 0 2 1 1 2 1 0 1 0 0 4 0 0 0 0 0 0 0 1 0 0 0 2 1 0 1 1 0 1 0 2 2 0 1 0 1 0 1 2 0 3 0 0 1 1 1 1 0 3 1 1 1 0 1 1 0 2 0 2 0 2 2 1 1 0 1 1 0 0 3 1 0 1 0 2 2 0 0 4 1 1 0 1 0 0 1 2 1 2 2 1 1 2 1 0 1 0 0 2 1 0 2 0 1 2 1 0 1 3 0 1 0 1 0 0 0 0 0 2 1 0 2 0 0 0 1 1 1 1 1 0 0 1 1 1 0 1 0 2 0 2 0 1 1 0 0 0 0 0 1 1 0 2 0 2 2 0 0 1 1 1 0 2 1 1 0 1 0 2 2 2 0 0 0 1 2 1 0 1 2 1 1 0 0 2 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 4 1 0 1 1 1 0 0 0 1 0 1 0 0 1 0 1 2 0 0 2 0 1 1 0 1 0 0 0 1 0 0 0 2 1 1 1 0 1 2 1 0 2 2 0 1 1 1 1 1 0 2 1 0 1 1 0 0 1 0 0 0 2 1 1 0 1 2 0 2 3 1 3 0 0 0 1 0 0 0 1 1 1 0 2 1 1 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 2 1 1 0 1 1 2 1 2 0 0 1 4 0 2 0 0 1 0 0 0 0 0 3 0 1 0 1 4 0 0 0 1 1 3 5 0 2 2 2 1 1 0 0 3 0 1 0 1 2 2 2 0 2 0 0 0 0 3 0 1 1 1 0 0 0 1 0 2 1 1 0 0 2 2 1 0 0 2 2 1 0 0 2 1 0 1 1 0 0 2 1 0 1 0 1 2 0 1 0 0 0 2 1 0 1 0 3 2 1 1 1 1 0 1 2 1 2 1 1 0 0 0 0 1 1 1 2 0 1 1 0 1 0 0 0 0 0 2 1 0 1 2 1 2 0 0 1 1 1 1 0 1 1 0 0 0 0 0 1 1 0 1 2 0 2 1 2 1 0 0 1 1 1 1 1 1 1 1 0 1 1 1 0 2 0 0 1 1 1 2 2 1 3 4 1 1 1 1 2 0 2 1 1 0 2 1 0 2 0 0 1 2 2 1 0 1 0 1 0 0 1 1 1 0 1 0 1 2 2 1 0 1 1 1 1 0 2 0 1 1 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 1 2 3 1 1 4 0 0 2 0 1 0 2 0 2 0 2 2 2 0 0 0 0 1 0 2 1 1 1 1 0 1 2 2 0 1 0 2 0 1 2 1 1 1 1 0 1 1 0 1 1 3 2 1 0 1 1 3 0 0 0 2 1 1 1 0 1 0 1 0 0 0 0 1 0 0 0 1 2 1 0 0 0 2 2 1 0 1 0 0 0 0 0 2 0 0 0 0 2 2 1 1 1 0 2 1 0 1 1 0 3 1 0 2 1 0 4 1 0 1 1 0 2 0 0 1 0 0 2 1 1 0 0 1 0 1 0 1 2 0 1 0 0 1 0 0 1 0 1 1 1 2 0 0 3 0 1 1 0 1 1 1 3 1 1 0 2 1 2 0 1 0 0 0 0 1 1 0 0 1 1 1 0 1 1 2 2 0 0 0 0 0 0 0 0 2 0 2 2 1 0 0 1 1 1 0 1 2 4 0 0 1 1 0 2 3 0 0 1 1 0 0 0 2 0 3 0 1 2 1 0 1 3 0 0 1 0 0 1 1 2 2 0 3 1 1 0 1 0 0 1 1 1 0 0 0 3 1 0 1 1 1 0 2 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 2 1 2 1 1 1 3 0 0 1 1 1 0 2 0 1 0 1 1 1 0 0 2 2 2 0 0 2 1 1 1 1 0 0 0 2 1 0 0 0 0 0 0 1 2 0 0 1 2 1 0 1 1 1 1 1 1 2 0 0 2 0 0 1 0 1 0 1 0 1 0 2 1 0 2 0 1 2 0 2 2 1 2 1 1 1 2 0 1 1 1 1 0 0 0 0 0 0 0 1 0 2 2 1 2 0 1 1 1 0 3 2 0 1 2 2 2 2 0 1 3 0 0 1 0 0 1 0 1 0 2 1 3 0 1 0 0 0 2 1 0 1 1 2 0 2 1 0 0 1 1 0 0 1 1 0 1 3 0 2 2 2 0 2 0 0 0 1 1 2 0 1 3 0 1 0 0 0 0 1 1 0 1 1 0 0 0 1 2 1 0 1 0 1 1 2 1 0 0 2 2 2 2 2 0 2 1 0 1 0 2 0 0 1 1 1 0 3 0 0 0 0 1 1 1 1 1 2 1 1 1 3 0 1 0 2 0 0 0 1 4 2 0 0 1 0 2 0 2 0 1 1 1 1 0 1 0 0 2 1 0 2 0 1 0 3 0 0 1 0 0 2 2 0 2 1 2 1 0 0 0 1 1 1 1 2 0 0 0 1 3 0 0 1 1 1 0 1 1 0 0 3 0 0 1 1 0 0 0 1 2 1 0 0 0 0 1 1 1 0 0 0 1 1 2 0 2 2 0 1 1 1 0 2 1 1 0 0 0 1 0 0 1 2 0 0 1 2 1 3 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 1 1 2 0 2 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 3 1 0 5 3 2 0 0 0 0 1 0 2 2 0 1 1 1 0 0 0 1 1 2 1 0 1 0 1 0 0 0 1 2 2 0 1 2 0 0 2 2 2 0 1 2 0 1 1 0 1 2 3 1 0 1 0 0 2 0 2 1 0 1 1 3 0 1 0 0 1 3 0 0 1 3 0 1 0 2 0 2 1 2 1 1 0 0 0 0 0 1 1 1 2 1 0 2 2 0 3 1 2 1 1 2 0 3 0 1 4 0 1 1 1 1 0 0 1 1 0 1 0 0 0 2 0 1 0 0 1 1 1 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 1 0 1 0 0 0 1 0 2 0 0 1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 1 0 2 1 1 2 0 2 2 0 2 1 0 0 1 0 0 1 1 0 0 3 0 1 1 2 2 3 0 1 0 1 1 0 3 0 1 1 2 0 1 1 0 1 0 1 1 1 1 0 3 0 1 3 1 0 3 0 1 0 2 1 1 3 1 2 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 1 3 0 0 1 2 0 1 3 2 0 1 0 0 2 0 1 0 0 0 0 1 2 0 1 0 2 1 0 0 0 0 1 2 1 2 1 2 0 0 0 1 2 1</t>
+    <t>FTL(0.10713510104033436, -54.87194023395119, 72.4682473655347)</t>
+  </si>
+  <si>
+    <t>18 17 16 6 17 20 28 23 17 13 19 17 10 38 10 10 15 25 23 24 27 6 20 10 14 14 0 19 21 3 0 14 16 34 3 27 3 10 16 6 20 17 32 8 10 23 10 31 28 10 10 0 9 10 21 20 15 26 13 13 24 24 20 9 16 20 16 21 8 27 20 17 14 6 14 24 23 24 21 7 19 14 33 12 10 34 6 13 17 28 13 3 17 21 21 10 7 14 21 28 0 3 27 3 28 19 10 16 26 14 13 10 20 40 37 10 19 20 13 30 17 16 15 37 28 9 6 10 21 7 23 24 7 16 28 27 9 20 14 24 27 17 14 25 20 7 16 21 6 11 28 23 27 23 30 7 24 16 17 16 15 20 6 6 21 19 16 30 13 17 24 26 16 31 16 20 16 16 21 14 31 16 26 34 21 28 13 31 3 28 62 19 15 9 27 17 23 19 14 27 16 14 10 27 17 12 24 17 13 17 17 26 14 17 5 7 30 13 8 20 21 10 27 27 11 21 17 20 19 17 10 10 7 21 19 21 17 19 16 14 9 14 21 12 15 10 15 20 6 16 24 21 17 14 35 14 19 7 17 21 28 28 12 24 27 16 6 27 6 17 7 9 31 16 31 27 18 20 24 12 17 6 17 14 20 23 23 31 17 17 3 9 15 17 38 9 16 33 11 17 21 28 15 16 17 24 17 22 27 9 14 10 13 29 0 21 14 13 9 20 10 20 17 21 21 23 20 17 20 13 9 17 16 13 10 23 7 7 16 33 10 18 20 12 17 20 13 16 10 14 0 31 19 17 17 16 3 13 20 27 13 20 24 10 13 20 17 24 17 10 22 10 10 17 31 13 23 26 27 38 27 17 7 21 17 13 23 18 27 11 31 16 10 31 22 23 16 19 16 25 14 33 13 22 30 16 24 20 13 14 23 9 17 20 6 10 23 0 20 20 9 17 12 24 17 20 30 28 17 24 27 16 11 3 15 16 17 26 31 10 13 10 16 12 27 10 17 10 30 20 12 19 17 27 19 20 27 9 7 14 7 14 7 27 23 13 29 6 36 41 17 13 22 14 27 23 17 20 24 17 30 20 23 10 14 3 19 13 28 25 17 17 10 17 34 7 17 16 28 24 23 20 14 27 20 52 7 26 17 25 35 37 22 13 17 17 17 37 20 20 30 24 27 10 6 17 23 10 22 23 26 31 6 23 22 27 27 14 10 21 12 13 14 20 27 20 27 17 14 13 28 38 7 3 22 16 16 21 7 17 0 0 10 28 20 24 13 14 10 19 13 17 6 13 13 30 27 14 27 31 17 34 6 31 14 18 10 20 12 34 10 0 16 24 3 3 30 17 30 26 24 24 19 14 19 24 20 14 16 17 18 19 22 23 7 24 20 9 15 17 9 20 20 38 14 16 23 16 7 17 20 28 17 31 28 17 7 18 31 14 15 19 23 10 25 37 21 31 27 21 7 21 31 27 20 10 24 16 24 31 24 17 17 34 24 20 14 10 27 23 24 23 22 14 9 20 13 9 13 21 16 20 13 18 24 13 19 23 17 16 27 17 23 27 24 21 21 0 20 17 16 0 3 17 17 20 16 30 32 10 20 17 20 17 9 31 10 13 15 31 20 20 29 0 23 17 13 14 27 13 29 17 20 7 12 27 31 17 17 13 12 17 23 17 20 27 21 13 24 16 24 23 7 20 13 31 17 24 31 21 24 23 23 10 13 27 15 10 24 14 15 14 3 29 33 17 34 3 31 28 24 17 20 0 23 45 21 14 6 23 7 34 10 3 24 12 38 9 20 19 13 16 11 31 21 6 20 13 17 17 27 20 26 19 0 15 16 20 16 10 12 15 16 13 15 13 28 7 23 17 27 7 17 20 19 16 33 24 17 14 10 24 3 41 9 19 13 17 27 3 20 20 10 11 9 10 23 9 24 6 16 15 34 28 23 10 20 23 9 13 19 34 17 27 21 7 10 13 24 17 20 17 31 21 13 14 21 14 0 15 6 27 10 6 12 19 27 14 24 27 9 24 10 21 24 9 17 21 17 34 14 17 34 20 24 28 16 9 24 16 13 26 22 24 6 15 7 16 19 14 34 14 31 3 20 27 9 17 13 14 23 21 20 21 3 13 21 24 10 34 27 12 19 7 21 27 19 10 24 21 21 27 25 24 3 6 27 19 3 13 12 26 16 17 17 28 6 29 10 10 3 24 24 23 30 12 16 20 17 17 26 7 3 20 20 7 10 21 23 17 10 24 26 30 23 17 24 12 10 25 20 12 28 38 13 23 31 27 13 14 21 21 14 23 20 6 17 21 14 17 23 17 17 16 7 18 10 16 20 27 20 31 16 17 21 17 17 10 13 17 17 20 24 26 28 15 23 17 17 13 24 3 24 17 15 22 20 17 23 10 27 24 16 19 23 27 17 23 24 19 13 17 20 24 6 27 10 34 14 10 20 0 20 17 13 35 3 20 20 18 24 18 23 25 20 17 31 6 15 10 6 35 16 10 24 3 13 16 24 10 14 20 29 20 17 20 19 21 31 13 17 19 3 28 24 12 9 9 26 10 28 24 17 27 13 20 20 27 10 24 26 7 24 20 17 16 30 7 0 28 17 20 23 6 15 7 31 10 20 6 21 33 9 27 16 10 10 16 3 19 34 3 9 21 19 20 21 17 13 19 34 27 33 16 15 9 20 27 11 22 20 13 27 14 24 24 14 12 20 20 23 17 13 23 13 7 8 20 17 34 3 20 22 10 27 20 10 20 20 26 16 7 21 27 16 27 33 22 12 13 20 20 16 34 16 6 14 24 16 13 17 16 16 17 20 21 14 17 31 21 20 16 24 24 24 17 7 22 20 19 13 9 33 7 26 20 33 17 24 10 10 7 20 28 10 17 24 7 13 24 6 18 23 8 13 13 13 17 22 20 17 31 20 13 17 6 6 16 13 7 0 17 20 31 8 10 14 17 13 22 14 19 28 23 17 7 24 23 23 20 13 18 23 19 14 16 24 17 21 24 24 19 24 22 20 35 30 15 12 16 21 0 20 6 34 20 25 14 17 24 6 16 16 21 12 17 3 6 0 31 22 24 14 34 17 30 10 10 17 27 20 14 9 30 26 13 3 24 19 26 17 10 22 24 6 22 24 36 20 7 10 20 6 35 20 16 21 10 18 27 10 21 17 24 21 17 28 24 22 17 10 24 16 19 3 10 16 10 14 16 13 34 20 19 13 22 30 13 23 17 17 23 27 0 3 27 34 14 6 17 20 14 21 21 34 17 13 13 18 6 20 9 29 16 13 17 20 17 6 6 17 21 13 16 14 24 23 12 15 19 17 14 20 20 26 27 18 23 23 24 31 26 14 13 31 19 7 24 22 17 7 6 28 13 24 6 27 17 17 10 20 27 24 17 24 20 9 19 23 16 27 21 14 32 22 0 17 24 41 17 7 34 14 9 17 28 24 18 12 10 27 18 10 17 28 6 14 26 20 24 19 13 13 17 9 24 14 24 13 27 7 16 17 13 20 10 16 15 14 17 31 24 3 12 34 13 19 9 14 14 21 7 10 35 3 16 24 16 22 17 17 21 23 17 21 33 10 7 17 14 20 28 16 31 14 12 10 10 24 20 18 28 7 6 32 26 16 20 20 13 3 17 13 3 12 35 13 30 24 26 10 31 14 16 14 23 16 10 9 20 24 15 24 18 10 30 6 17 21 20 11 23 24 20 20 12 23 27 48 23 40 22 17 20 5 28 13 7 10 23 20 6 20 28 13 24 14 20 19 27 14 17 28 21 13 9 10 34 16 13 20 17 7 28 13 29 16 17 9 16 31 16 13 20 27 13 13 13 14 21 23 10 9 13 24 7 6 10 13 19 6 7 23 21 24 19 9 20 21 17 10 27 17 28 26 20 13 16 16 24 16 33 25 20 20 13 10 11 10 25 31 21 24 16 22 13 16 17 17 20 7 24 26 24 10 14 0 27 7 3 17 11 6 13 13 17 23 12 30 17 17 17 24 12 27 24 23 12 33 23 28 16 6 17 19 17 14 17 15 3 19 23 24 6 17 21 13 16 16 9 17 21 9 13 21 3 3 16 17 17 13 27 27 7 13 21 20 13 16 19 17 27 31 13 23 20 21 26 10 13 17 24 21 8 3 20 20 13 9 30 19 34 30 20 27 10 27 10 17 23 23 16 17 17 20 24 13 16 10 10 23 17 13 16 10 16 13 21 31 9 26 7 6 24 19 13 7 6 19 6 33 19 17 10 16 9 14 38 21 9 14 17 26 7 15 26 9 24 31 24 13 10 7 17 17 20 31 28 13 13 8 20 40 3 16 13 10 24 14 8 29 19 40 17 10 13 13 19 20 27 7 19 9 35 0 27 9 10 3 20 23 19 19 10 14 20 14 17 34 10 17 27 21 27 21 11 3 19 38 21 24 7 38 26 6 20 17 10 19 6 21 9 13 0 24 17 10 24 10 20 7 3 23 13 17 14 20 31 34 31 24 6 12 25 27 13 15 3 20 13 14 27 17 30 24 20 31 17 16 23 17 9 7 20 28 8 20 10 0 27 24 9 13 23 3 17 25 30 16 27 3 15 24 23 28 16 31 16 3 10 16 15 13 15 17 19 9 17 27 12 30 17 3 16 24 13 17 21 34 37 10 27 9 20 19 21 17 24 20 13 10 20 38 18 34 31 17 16 3 9 24 7 19 6 14 20 20 30 28 28 7 12 16 26 10 24 15 20 17 17 20 13 7 14 27 17 30 20 16 17 7 10 23 14 7 17 3 34 19 7 20 34 17 10 20 20 23 15 30 15 17 24 10 21 16 34 22 16 9 30 27 7 10 7 21 26 31 20 22 20 28 16 38 14 10 17 24 17 10 13 27 20 21 7 16 24 26 27 37 24 17 15 17 21 21 27 15 14 7 16 10 17 37 6 27 6 10 9 34 7 17 14 13 20 27 10 10 7 31 17 11 16 10 6 23 13 33 30 21 21 9 31 14 8 25 17 13 10 12 20 10 3 28 22 13 6 21 24 13 24 26 27 16 13 7 13 33 17 23 10 13 26 31 9 32 21 17 10 15 13 6 13 9 21 17 28 16 9 20 19 20 14 17 17 32 19 13 17 16 23 21 9 34 15 14 23 20 3 6 20 24 3 17 45 17 6 30 16 21 16 16 22 21 14 17 17 7 13 19 17 31 10 3 0 13 2 13 28 20 45 20 22 34 13 21 7 17 13 10 13 19 16 6 21 27 23 27 23 6 3 16 10 17 9 7 38 16 10 17 12 23 10 17 23 6 17 30 20 10 10 9 23 3 31 17 21 14 31 10 19 13 44 7 16 31 23 20 13 20 7 9 9 34 9 14 34 21 21 27 24 17 19 17 31 13 20 18 33 27 21 12 10 19 18 21 33 10 19 20 17 6 21 20 27 7 9 13 14 13 19 22 27 21 27 21 13 17 24 14 34 24 15 17 24 20 10 15 10 10 20 7 23 24 23 6 24 20 13 16 27 7 23 17 30 16 7 9 26 17 20 27 13 23 18 9 17 14 0 12 17 17 10 21 17 13 13 10 20 29 15 6 27 7 10 20 18 10 18 16 16 10 17 32 16 28 24 10 21 15 30 10 23 27 16 27 21 6 13 27 18 23 17 6 24 17 6 7 12 20 16 6 14 14 21 0 24 13 13 26 16 20 3 19 14 13 12 10 10 35 28 10 14 10 44 37 20 17 13 13 20 13 19 14 16 34 7 15 17 6 10 14 28 13 26 31 6 34 10 3 14 27 19 19 27 13 6 9 24 14 6 10 30 9 7 16 16 17 13 10 17 26 24 29 18 14 10 11 14 9 30 13 20 24 28 34 6 30 17 37 15 13 16 24 14 17 23 27 0 13 13 19 14 13 6 22 33 10 23 15 11 27 17 17 16 10 23 12 10 0 25 15 17 17 27 31 17 24 24 9 3 14 23 6 19 23 31 27 24 29 24 16 31 10 19 16 13 21 21 26 27 17 24 31 20 21 10 27 23 10 34 13 19 23 20 21 31 16 17 31 27 10 24 24 31 13 17 28 24 13 19 9 17 21 20 26 10 31 17 31 0 20 17 7 30 14 9 17 23 13 20 3 21 6 3 26 10 16 14 18 20 35 29 7 20 7 31 21 14 24 24 11 17 10 20 18 24 22 0 20 16 21 23 10 20 30 17 17 19 10 9 9 3 13 16 13 28 24 13 2 24 24 27 6 12 20 16 28 21 17 23 15 10 22 3 10 17 40 17 16 20 9 12 17 13 17 20 26 34 38 20 13 14 3 13 21 14 3 13 11 10 27 16 17 7 13 12 30 17 17 28 14 24 33 19 24 13 24 17 3 24 10 17 20 21 13 20 26 19 17 17 28 13 21 20 38 21 21 21 29 6 21 10 10 21 24 28 17 16 6 13 10 35 19 31 22 22 27 9 15 27 13 31 30 17 12 16 27 34 17 9 27 19 12 14 17 16 9 13 13 3 20 17 16 14 17 17 13 3 0 20 14 17 10 20 16 34 27 10 20 14 27 20 24 19 34 16 17 13 17 7 17 16 9 31 17 14 17 21 14 0 6 25 17 13 20 13 10 9 13 17 19 23 14 41 31 13 17 17 24 16 10 21 33 23 21 17 10 28 13 20 36 20 28 20 27 17 20 17 26 34 9 24 23 17 14 20 0 31 20 24 14 13 24 10 28 9 20 6 24 24 6 24 20 19 17 21 19 28 14 24 17 14 21 25 3 14 12 10 21 12 10 24 28 7 19 10 28 23 13 22 17 9 16 48 38 16 26 17 14 27 8 10 12 16 31 17 10 10 10 24 13 3 24 24 31 24 21 21 19 13 13 10 21 30 22 15 10 7 23 10 17 16 13 31 9 3 7 13 20 24 13 13 21 12 17 20 12 16 23 21 14 22 17 24 6 24 17 6 6 17 24 20 16 17 15 24 11 17 17 24 24 34 17 25 23 13 7 20 10 10 16 23 34 14 23 17 31 3 37 27 24 10 21 24 37 19 16 15 34 33 31 19 12 21 13 14 16 19 24 19 21 16 27 34 27 11 8 23 21 10 18 26 21 34 20 20 20 24 24 20 14 14 13 7 13 20 21 27 20 23 9 20 10 3 7 10 12 44 26 21 27 20 23 8 37 16 40 10 16 17 22 17 38 10 28 24 34 13 24 24 27 35 24 28 23 23 7 25 13 13 6 17 20 10 2 12 17 27 6 20 17 18 19 16 20 24 7 12 13 24 3 13 20 7 10 19 17 24 17 25 30 14 27 24 3 8 20 14 3 7 18 6 27 27 20 23 20 19 23 27 23 7 13 34 23 20 14 24 20 13 17 14 14 11 24 8 19 7 10 22 13 23 13 13 9 30 22 21 23 17 7 10 13 23 23 13 10 6 12 21 14 20 30 17 13 24 20 14 24 10 21 27 9 12 6 13 12 19 13 3 10 22 12 28 14 7 17 17 9 10 13 6 29 12 10 23 8 34 20 27 27 16 14 30 11 32 7 31 21 19 14 13 14 23 28 5 21 16 24 17 17 21 10 24 16 18 42 3 21 13 21 23 13 17 19 14 11 20 23 6 19 11 9 27 20 20 17 34 10 35 20 24 36 20 13 7 20 23 15 3 37 23 21 34 17 28 19 20 10 13 10 10 26 24 17 20 11 18 21 17 7 10 24 17 38 23 21 17 20 13 10 10 21 23 19 21 23 17 19 21 17 13 25 17 30 12 21 14 12 13 12 14 9 6 30 13 10 27 14 17 13 13 21 36 6 21 24 17 10 35 28 13 19 16 3 21 19 13 13 26 16 20 3 34 35 24 17 17 14 10 10 21 32 20 19 20 10 22 16 20 20 21 20 9 9 24 29 16 20 9 20 7 16 24 9 24 17 17 27 20 34 34 20 15 27 24 38 10 10 3 10 31 9 13 6 14 24 13 20 9 13 28 23 22 31 10 17 10 16 14 21 17 14 0 31 13 13 14 10 20 47 16 9 21 13 24 10 20 14 14 13 16 24 17 13 32 20 20 33 28 19 17 24 10 13 14 27 24 16 17 20 23 9 13 31 10 3 21 28 13 31 13 15 28 14 22 17 19 14 19 23 18 10 21 22 12 21 19 21 14 21 16 7 20 28 20 34 9 27 17 13 27 20 10 31 17 24 21 28 21 28 14 16 20 20 24 28 14 10 6 21 21 13 17 13 28 13 23 13 13 17 16 24 24 14 22 35 16 13 16 16 13 28 7 20 7 28 20 14 18 10 19 14 31 9 17 28 17 16 3 14 10 16 33 6 15 17 24 17 11 10 7 13 16 16 24 13 20 7 3 17 24 22 20 13 7 24 22 21 9 12 20 7 6 7 20 16 14 21 14 31 27 10 24 7 20 7 24 31 23 20 34 17 21 19 13 21 19 7 27 17 16 21 24 24 13 24 20 24 26 21 16 3 34 17 20 24 6 20 7 23 20 14 17 17 25 13 37 20 27 24 16 17 17 21 24 18 31 28 20 27 20 13 16 22 17 16 28 27 21 13 21 21 10 21 19 12 28 13 13 20 23 20 21 9 21 30 20 7 22 3 13 13 20 20 17 24 17 21 14 17 17 20 10 16 14 6 7 32 13 16 12 17 24 6 20 23 14 17 17 13 17 12 14 22 24 28 17 10 3 14 14 17 13 15 16 26 13 17 6 10 17 15 7 19 27 18 13 7 28 27 20 14 13 13 21 19 20 20 20 3 10 14 17 21 20 19 10 7 16 27 10 27 27 16 24 13 25 12 14 7 23 27 23 24 14 24 13 24 23 34 9 24 20 16 14 13 28 27 16 23 31 20 7 14 19 18 17 17 20 17 20 20 38 37 37 10 17 10 20 24 23 27 23 23 23 24 10 30 15 7 14 30 19 10 17 19 10 13 12 6 25 23 14 16 26 27 37 10 6 6 28 23 13 11 35 6 10 13 13 9 14 21 24 24 14 27 31 10 17 6 20 28 20 7 17 19 42 27 10 12 29 10 12 20 16 17 23 17 31 28 13 14 34 38 16 23 31 27 23 35 16 20 17 20 19 3 20 14 13 13 23 27 10 14 10 13 23 27 10 21 17 24 3 13 14 13 30 14 19 27 28 24 15 25 11 37 11 14 21 30 9 8 31 16 3 7 31 19 11 13 24 7 23 17 12 12 13 13 0 13 15 31 17 13 17 3 14 9 16 26 25 31 16 20 19 16 21 20 6 7 7 9 12 20 10 17 15 10 17 23 21 24 13 6 10 21 10 42 30 10 10 13 21 13 14 22 6 20 16 12 19 22 27 17 17 36 13 18 2 21 20 15 14 36 10 3 28 20 17 14 41 3 31 13 24 11 19 17 17 27 11 3 7 2 14 22 23 17 34 32 16 42 19 24 12 20 21 27 16 11 7 36 13 21 9 17 14 22 19 14 30 24 14 17 20 12 11 17 14 7 23 17 17 9 7 23 30 20 24 9 23 17 27 10 17 9 24 23 37 9 24 19 20 17 26 13 17 28 27 24 31 20 15 17 20 0 21 27 21 30 30 6 20 20 13 31 31 24 10 14 28 16 20 17 20 27 27 28 24 32 17 30 13 6 13 10 10 17 6 3 7 31 24 23 15 17 21 27 24 17 20 14 21 13 10 14 27 17 17 13 16 17 30 24 20 21 20 31 9 27 14 21 36 26 13 34 6 9 0 23 23 26 14 27 29 27 24 3 20 7 10 19 14 7 22 31 31 24 6 18 19 31 21 9 16 14 17 23 10 24 0 0 20 6 27 30 27 20 15 30 30 6 9 17 7 37 17 20 16 13 20 29 25 23 14 14 22 17 17 41 6 27 15 20 23 17 27 9 14 25 24 20 23 10 10 17 13 17 13 16 9 18 20 21 13 6 14 20 10 36 6 19 3 28 26 23 20 16 19 13 31 17 17 31 21 24 14 12 6 20 3 13 17 17 27 0 27 24 10 14 44 27 13 30 20 19 35 12 20 17 28 24 20 31 28 9 21 9 21 28 21 20 10 21 17 14 23 19 30 24 17 12 25 16 23 22 14 7 14 17 17 10 22 20 19 21 20 9 20 19 15 34 16 13 17 30 27 13 27 21 22 10 17 20 20 14 20 6 14 28 17 9 14 20 27 28 17 13 28 17 17 15 29 23 23 32 6 17 13 14 21 10 24 24 14 3 20 21 13 27 9 34 27 13 26 14 34 10 17 24 13 14 21 20 10 13 20 14 10 20 10 33 7 9 13 13 27 14 11 17 22 13 25 13 20 24 14 16 15 7 12 28 32 17 10 10 6 37 14 17 31 20 21 14 35 19 30 21 27 9 6 26 24 17 23 20 16 31 24 33 20 28 20 14 9 37 26 14 24 14 27 17 26 31 13 21 20 14 13 10 13 17 30 31 20 23 38 26 6 27 24 23 22 13 13 14 13 24 31 27 17 7 16 13 17 22 17 26 27 24 13 34 23 19 17 17 9 17 10 10 10 14 31 13 23 10 20 20 16 23 3 17 26 3 32 17 7 17 17 6 22 11 10 16 3 26 17 10 14 16 13 17 9 16 16 14 16 17 17 21 11 10 28 24 14 21 20 6 9 0 17 17 13 23 23 28 14 22 7 17 20 14 16 33 27 23 7 10 35 14 20 25 24 20 30 24 30 19 14 17 18 20 17 31 31 13 19 6 21 18 17 16 20 32 31 0 27 20 19 6 17 26 38 27 16 13 24 20 9 14 13 7 21 20 22 24 10 17 13 26 30 19 3 16 31 0 10 21 6 14 24 20 34 7 10 15 14 28 13 7 29 24 28 6 23 31 23 6 20 6 17 33 21 9 8 24 20 14 34 14 23 14 14 24 17 22 13 16 0 7 38 24 30 20 6 16 10 16 14 24 13 19 24 13 3 23 10 10 16 20 7 27 10 13 13 28 13 13 23 10 27 23 24 17 27 19 11 10 10 20 17 17 17 13 10 21 13 9 23 6 24 10 26 27 35 21 24 10 25 27 20 7 23 6 20 17 21 19 17 26 17 10 12 23 23 24 17 12 20 7 6 20 24 13 31 7 24 24 0 16 17 13 23 20 13 11 9 24 22 20 16 17 13 13 20 16 31 19 14 17 10 27 13 33 23 20 19 23 20 13 13 10 30 10 35 20 17 14 42 20 7 12 6 17 24 38 12 14 10 16 15 17 6 14 19 23 8 31 13 14 20 6 20 22 23 18 13 10 21 21 21 17 31 19 13 20 20 30 13 10 34 48 12 20 10 20 34 42 22 17 22 8 13 12 34 20 3 23 29 16 9 14 3 24 9 17 13 27 18 26 3 17 31 38 38 19 16 27 13 29 10 14 17 16 19 15 34 14 7 13 10 13 23 20 17 12 12 38 27 17 23 16 27 31 15 27 21 17 24 31 22 12 19 10 17 10 17 12 21 13 10 13 20 23 20 13 17 9 6 12 27 7 10 12 25 14 13 27 34 13 7 20 18 20 15 14 31 18 27 26 17 27 17 13 27 30 10 20 10 20 7 10 28 38 35 24 27 30 10 17 27 27 13 14 22 13 21 16 35 21 36 17 17 10 17 13 12 14 17 24 0 24 21 14 13 20 10 10 15 24 23 10 11 7 13 38 9 10 12 16 17 24 10 35 3 6 23 14 23 13 14 6 17 12 28 10 7 24 16 23 13 7 3 10 21 20 30 6 27 24 3 12 13 16 13 17 27 14 10 27 13 0 13 14 16 27 9 31 17 14 27 12 24 16 25 20 14 17 17 27 21 13 3 17 19 23 9 18 15 20 19 42 28 20 6 13 13 24 15 16 19 12 16 19 20 13 19 10 27 14 17 7 14 23 31 24 23 14 7 13 22 17 16 24 28 10 3 27 34 20 14 12 31 41 14 3 14 36 34 22 30 16 9 20 27 10 6 10 21 24 6 12 24 17 20 23 11 6 26 20 25 10 27 7 17 27 6 20 28 24 28 19 7 21 10 23 14 33 31 21 0 25 3 14 19 18 38 17 20 20 14 24 6 10 13 14 9 10 28 9 9 20 24 17 23 26 10 16 34 10 17 16 24 13 26 21 14 25 10 31 24 21 28 19 20 10 6 28 17 26 17 13 7 10 27 20 26 3 6 16 10 10 24 11 24 29 7 24 14 16 23 7 37 17 22 17 23 31 10 17 40 13 20 17 17 21 17 28 14 24 10 27 28 13 26 17 6 14 6 14 22 13 9 27 21 18 14 21 20 20 23 22 24 7 17 20 3 26 26 21 16 18 14 15 30 7 17 20 21 18 16 17 12 20 23 10 20 17 17 27 10 28 26 24 24 14 20 30 21 9 26 20 6 14 10 20 7 9 23 14 17 12 21 10 20 17 12 7 27 6 13 17 17 22 13 20 31 20 10 27 16 25 23 24 9 13 14 16 28 24 24 16 14 20 7 21 9 15 0 35 9 20 15 8 23 6 17 10 24 17 6 20 23 15 7 27 23 23 20 16 3 23 20 18 29 13 0 28 13 20 24 23 41 17 9 17 23 20 16 13 26 6 14 17 24 24 17 21 26 20 10 12 21 24 23 20 23 19 20 13 24 14 20 6 13 10 16 34 3 34 10 29 19 34 17 15 30 20 16 6 20 17 22 13 28 16 13 9 16 9 23 13 16 33 27 20 30 22 14 13 26 28 17 23 13 21 17 12 0 15 6 13 23 31 17 23 27 24 6 10 7 16 13 14 21 14 34 20 14 13 16 13 22 16 10 17 6 27 14 20 13 22 27 30 29 24 17 16 30 13 21 20 25 20 18 6 23 27 21 28 16 14 19 19 15 9 13 17 38 7 7 13 10 32 22 30 13 20 20 6 17 30 24 20 13 19 9 12 24 24 21 17 17 23 24 23 21 8 13 10 34 6 20 10 32 16 9 21 20 8 24 24 25 13 15 10 10 24 15 13 13 27 24 14 25 13 14 17 10 13 13 0 6 22 14 23 3 15 21 16 6 12 13 10 31 14 3 13 19 13 37 28 24 42 20 28 17 29 9 28 24 17 24 16 23 11 7 14 36 13 30 10 16 31 17 20 23 23 30 37 7 10 6 21 33 27 17 21 14 17 3 23 20 16 3 7 13 14 20 20 20 27 27 7 16 21 16 10 3 31 10 21 16 30 27 14 17 21 27 20 18 10 11 9 21 20 31 13 28 9 21 8 16 27 6 11 24 24 30 24 20 21 14 15 25 10 7 10 27 13 20 25 19 27 14 17 14 20 26 13 27 21 30 17 24 34 14 14 3 20 7 6 25 16 13 10 15 17 10 3 9 12 7 30 3 21 14 28 23 17 34 10 23 15 13 6 24 9 26 28 14 16 14 3 6 10 18 17 27 37 17 20 33 28 17 10 10 17 0 24 30 17 3 23 17 14 7 21 13 17 9 20 13 16 24 17 13 24 13 19 17 24 14 34 15 16 16 9 17 17 10 10 17 21 22 17 10 22 0 16 24 23 7 17 20 6 12 20 17 16 23 18 17 20 17 22 17 35 20 14 27 28 7 24 45 13 17 20 30 23 17 21 29 13 24 21 17 6 21 17 15 25 14 20 21 10 21 17 23 9 6 27 14 22 24 13 10 17 47 21 19 20 3 17 13 19 7 7 14 13 14 8 20 6 10 9 19 14 13 20 10 33 13 14 0 16 19 13 13 17 17 7 27 27 3 22 14 22 13 22 20 24 17 24 23 13 24 20 23 34 10 26 31 12 20 17 17 31 16 28 9 17 9 31 17 37 13 6 17 35 23 17 27 16 20 13 22 21 20 13 23 34 42 21 20 24 20 10 30 11 7 17 20 21 17 20 23 21 23 13 13 19 26 20 12 27 17 31 18 16 20 21 13 21 10 6 20 7 17 20 20 23 21 27 20 22 30 16 24 8 24 31 22 22 19 30 7 7 24 10 24 20 23 12 22 13 20 6 20 20 20 20 14 34 19 19 13 0 20 17 20 13 19 27 16 28 30 42 20 19 14 9 28 20 24 17 14 21 3 24 17 16 14 30 6 23 20 21 35 13 14 29 13 13 17 23 14 18 10 17 37 15 0 20 10 13 14 7 30 13 24 13 31 16 24 0 16 17 30 20 7 17 27 19 17 17 24 12 13 10 17 21 24 21 30 13 6 31 10 22 17 6 31 26 17 16 24 14 10 21 17 27 17 16 20 10 14 6 17 13 19 31 14 14 21 24 14 13 13 7 17 10 20 22 10 17 25 20 6 21 14 21 33 20 28 15 27 20 10 16 14 20 23 20 20 23 23 13 20 24 13 16 7 17 21 17 13 17 20 13 10 3 20 10 26 17 10 14 20 18 13 17 36 23 26 16 14 13 17 23 22 7 16 20 20 17 30 30 13 24 17 19 35 19 15 13 30 10 9 6 7 24 32 13 28 13 17 23 24 10 28 22 27 10 13 19 13 16 28 16 27 11 17 7 21 24 24 23 22 9 24 6 16 24 7 24 10 23 17 17 14 20 14 13 7 17 27 13 25 17 29 7 17 27 34 20 25 12 21 3 23 17 27 31 9 13 28 21 10 30 10 16 6 10 25 10 19 9 16 23 16 9 20 27 13 23 28 20 24 16 16 22 21 20 31 10 7 23 35 17 28 13 19 3 7 20 23 7 3 15 21 16 20 17 30 21 21 16 7 21 10 17 14 16 20 20 13 21 25 13 27 19 7 16 17 38 30 30 14 27 31 6 13 10 35 14 6 17 10 27 25 27 10 14 10 17 23 20 24 20 13 24 17 3 13 3 0 9 10 17 18 21 24 20 3 28 10 10 20 13 10 20 20 16 15 17 9 16 13 31 13 14 27 6 35 42 14 13 17 9 31 31 24 12 14 21 27 13 17 20 20 6 10 27 21 19 10 24 16 9 13 16 0 3 13 10 20 21 24 13 21 0 20 15 17 14 37 7 35 7 17 20 0 14 25 14 14 10 10 15 21 24 17 19 24 20 16 9 16 12 23 24 9 20 17 26 20 27 17 6 28 13 14 26 24 17 21 9 16 14 12 26 25 13 14 10 22 17 13 24 17 13 16 21 6 7 20 14 6 17 24 38 12 17 30 16 20 11 20 17 13 26 20 3 13 17 6 17 23 24 27 13 12 7 23 20 23 6 9 24 17 13 14 28 20 21 16 26 10 20 28 27 14 29 16 20 18 14 24 28 16 27 14 10 24 31 10 10 14 23 13 17 17 16 20 23 9 20 14 17 12 18 29 10 14 17 16 26 21 3 20 17 17 16 17 10 20 15 14 14 20 13 17 13 20 21 14 7 20 14 17 20 17 10 3 16 13 6 17 7 17 20 17 27 16 21 21 27 27 24 31 23 7 17 17 23 35 13 24 13 19 17 9 21 7 16 16 25 24 21 13 20 28 10 13 26 13 10 6 31 21 13 13 24 14 20 20 17 10 22 13 18 13 30 10 21 9 17 19 8 14 17 7 11 20 10 20 16 14 31 20 27 24 16 21 12 24 26 24 16 13 23 19 30 24 21 8 17 16 24 24 27 23 14 14 16 20 2 10 14 13 24 20 7 3 6 9 19 17 24 17 31 21 19 17 10 18 10 10 3 10 18 16 14 23 14 27 17 22 17 3 13 22 13 10 0 16 20 13 10 27 6 20 24 14 10 13 23 21 29 16 23 26 7 3 19 9 27 17 10 40 6 10 27 9 11 24 12 11 16 10 21 17 33 13 27 10 17 13 27 30 27 17 16 23 16 15 21 17 10 7 17 27 7 3 30 21 30 23 15 17 14 27 10 7 23 16 9 30 16 7 19 3 31 16 23 16 32 42 3 24 20 18 11 6 20 13 15 31 13 17 24 19 25 16 16 29 21 20 14 22 17 17 24 13 13 27 17 13 10 15 10 24 13 10 23 14 13 10 20 13 13 10 17 18 31 14 25 17 26 24 31 24 21 7 22 21 24 20 27 12 16 9 30 23 10 26 41 7 7 38 3 10 40 24 27 17 17 13 26 24 24 10 31 3 10 10 12 15 18 21 16 13 27 24 7 20 27 17 17 3 14 14 28 3 30 21 19 10 12 27 20 16 31 20 24 21 17 30 11 18 21 17 17 16 23 22 6 35 17 35 19 16 24 17 27 23 17 26 20 17 7 16 9 27 32 13 24 12 16 17 19 18 24 34 20 41 34 15 14 9 17 6 7 17 20 10 10 16 10 18 27 10 7 17 13 20 25 3 19 23 27 31 13 6 13 24 14 16 7 20 13 21 6 13 17 13 3 11 13 23 17 13 27 17 38 0 10 24 13 17 20 26 7 21 16 17 28 29 17 17 23 17 34 9 44 25 7 33 27 9 12 16 14 17 17 10 14 0 17 6 20 10 31 28 10 10 10 17 20 20 6 10 6 6 16 20 16 14 17 24 7 12 30 20 6 28 16 20 27 16 14 7 10 17 24 17 22 9 17 35 13 14 17 16 9 10 20 27 23 24 27 7 24 21 31 15 12 27 24 14 27 17 17 24 13 20 31 14 14 23 7 9 23 15 10 14 3 21 10 24 13 21 21 16 9 7 23 23 7 6 14 17 14 27 21 13 31 27 8 24 6 6 20 7 12 20 17 13 10 20 23 17 43 28 9 29 24 35 27 24 24 27 13 20 27 24 21 20 13 14 23 24 20 24 11 17 18 18 13 14 20 6 10 20 20 16 13 24 23 17 7 24 20 12 6 20 17 24 27 21 19 13 20 37 16 30 13 17 17 26 20 18 20 30 17 7 24 20 20 22 7 16 16 27 27 11 13 26 14 6 15 6 19 26 9 20 31 24 27 14 20 35 20 17 22 19 23 31 27 13 25 24 14 3 23 17 27 17 14 3 37 14 24 19 13 16 17 17 17 28 3 13 27 10 17 17 10 0 20 35 17 13 7 20 42 10 23 13 13 31 13 41 21 7 15 24 10 30 16 6 13 27 37 9 14 17 27 24 23 10 21 20 27 13 17 8 12 17 20 10 13 13 17 20 27 17 17 9 13 0 26 19 28 27 13 21 13 16 17 9 20 7 13 17 24 28 13 16 20 28 22 17 23 29 7 13 23 6 19 23 21 19 24 38 10 19 20 26 7 21 17 13 9 16 9 17 0 6 21 27 23 22 20 27 27 27 7 21 34 18 28 31 33 13 16 27 11 10 27 18 21 6 27 20 13 20 14 20 24 10 14 3 23 13 18 25 23 17 13 27 24 28 17 14 26 38 13 13 26 17 24 14 21 26 20 20 29 27 9 13 24 12 18 24 14 16 6 24 20 12 20 23 17 19 25 23 20 23 12 16 16 26 7 27 26 10 24 31 8 42 11 16 21 31 3 20 14 13 23 12 7 3 17 15 26 21 28 20 7 24 14 10 14 7 24 10 17 17 31 14 10 6 14 23 17 20 10 25 21 14 24 20 10 20 24 9 20 19 16 27 14 17 16 16 15 18 21 14 20 27 15 10 20 20 31 10 13 24 18 17 27 17 31 20 27 21 13 17 13 3 10 25 11 19 23 21 24 17 13 14 7 16 15 27 20 19 19 6 6 24 10 24 26 7 17 13 31 13 27 14 14 16 7 21 6 14 41 20 24 10 3 27 18 20 3 26 7 17 20 17 10 31 14 16 26 18 28 23 20 20 13 24 23 34 7 23 7 13 20 18 20 11 24 10 10 24 13 16 3 27 38 14 17 13 20 24 24 16 21 24 23 13 23 10 25 28 7 16 7 24 14 6 11 21 20 10 16 16 31 21 6 20 7 27 6 17 24 6 14 13 12 17 16 14 38 38 23 16 24 42 20 7 19 24 16 17 16 14 19 14 9 7 14 12 22 10 30 31 20 24 20 9 27 21 21 7 13 7 23 30 10 24 7 20 21 30 24 7 27 6 27 27 35 19 27 10 6 34 23 10 16 30 21 30 11 13 9 6 11 31 16 10 18 18 20 13 20 17 10 23 27 17 27 17 9 24 8 16 25 16 19 13 21 19 20 21 27 26 20 16 20 3 20 6 24 20 17 18 16 20 35 23 21 10 7 20 10 24 17 17 27 6 33 35 7 28 14 17 12 7 27 27 18 10 20 10 14 25 24 20 35 17 23 10 24 23 7 30 22 14 27 10 13 3 23 17 13 10 21 24 24 10 20 24 27 10 17 12 16 18 19 14 15 17 38 13 41 28 14 17 13 24 24 14 24 35 17 16 14 21 24 27 24 13 14 17 20 21 31 17 17 38 13 20 17 21 17 13 13 24 19 24 15 3 29 0 24 20 6 8 7 29 17 17 14 17 19 27 23 20 14 24 6 19 13 14 19 20 21 23 13 18 9 20 7 30 16 17 21 14 7 13 20 21 27 17 23 20 44 18 17 24 9 20 24 17 14 20 24 13 21 27 13 3 17 19 28 20 3 20 23 24 14 13 23 16 16 24 18 13 27 6 27 15 14 7 21 21 12 14 14 19 16 21 7 16 3 19 20 34 20 9 7 14 10 17 16 30 26 6 23 10 24 6 10 14 25 16 20 24 16 22 20 27 10 14 24 21 24 14 22 21 14 18 18 17 27 7 7 3 17 3 10 6 24 28 41 21 21 13 12 11 17 24 17 13 6 20 12 9 28 31 17 19 34 24 21 10 15 14 17 9 20 38 23 13 17 34 17 19 6 8 20 31 9 7 9 17 7 13 24 6 20 23 13 17 7 22 20 27 6 38 25 12 38 17 17 14 17 22 20 28 23 24 14 14 16 6 23 28 21 24 15 10 13 21 17 30 9 21 19 21 31 7 16 20 32 6 17 13 10 24 6 10 22 21 13 7 24 21 20 20 28 17 10 19 22 13 21 13 24 9 25 24 21 14 27 17 7 23 24 14 3 26 7 14 12 20 21 16 20 24 26 31 30 24 20 19 13 14 27 17 13 21 21 7 20 24 29 23 13 24 13 16 26 10 20 34 20 14 35 7 24 24 7 24 13 10 19 10 19 25 14 14 24 23 20 9 9 14 20 30 6 26 31 24 20 18 23 13 3 22 24 21 21 10 14 20 21 37 23 24 3 20 29 14 15 28 12 17 35 24 20 14 20 17 21 17 14 24 27 19 13 7 17 19 16 17 44 14 16 17 23 19 16 16 28 26 17 12 28 7 26 6 24 17 11 16 34 11 26 7 20 16 18 30 20 20 24 13 16 10 18 17 14 7 26 24 3 19 16 19 7 12 12 9 13 10 21 24 9 27 43 13 12 8 24 17 13 10 17 17 11 17 6 23 10 24 7 10 15 14 34 10 16 26 16 28 19 3 23 23 28 21 17 20 16 17 13 31 17 17 15 13 20 6 28 20 20 16 29 21 11 10 17 34 27 17 7 13 17 13 24 24 20 23 10 27 14 17 16 9 31 10 17 17 21 13 13 24 13 34 19 20 13 7 9 20 24 17 17 22 27 17 7 16 17 16 15 8 31 10 13 17 14 33 29 24 19 24 21 27 17 21 7 20 16 23 14 23 10 3 14 14 15 26 16 34 19 3 14 6 15 10 23 14 20 27 7 28 31 21 16 16 8 23 27 17 23 17 26 13 20 3 13 17 13 21 20 30 15 13 26 13 11 10 34 16 23 10 16 17 27 17 5 24 16 25 21 19 14 23 27 10 10 14 17 34 11 26 30 28 0 19 22 10 16 14 17 23 23 20 19 3 20 10 28 23 19 20 20 21 20 30 28 20 9 13 7 27 0 21 30 21 34 21 23 10 20 9 16 26 34 17 24 14 45 17 19 13 9 30 41 24 10 10 13 19 31 17 32 11 10 9 12 23 21 19 9 23 13 17 38 32 24 13 30 12 22 38 17 10 13 27 7 21 10 10 24 27 14 30 30 16 3 10 6 20 19 27 14 40 24 17 14 17 24 17 9 27 9 28 34 17 20 17 24 20 37 20 10 14 20 30 10 30 17 32 13 13 12 13 20 16 6 13 20 6 9 23 13 14 13 10 17 17 3 17 25 27 10 20 18 13 18 0 10 21 10 28 13 17 24 16 18 15 26 3 20 17 6 17 12 28 27 20 14 25 15 10 24 24 21 14 19 10 13 28 19 7 20 3 17 30 19 17 27 23 14 17 13 16 14 17 20 20 41 17 9 27 23 27 24 32 16 17 13 17 16 18 15 14 17 13 12 16 27 20 10 3 24 24 28 34 31 24 9 15 9 14 16 27 0 10 26 18 26 13 21 24 31 16 7 17 0 21 27 30 13 24 42 21 27 24 16 20 17 14 13 6 20 38 7 10 21 27 20 14 12 27 28 14 27 29 6 26 13 16 13 17 16 28 6 23 37 34 23 20 13 16 10 21 19 23 17 21 28 27 7 15 17 34 15 20 31 7 20 13 13 17 24 7 6 10 26 3 23 18 17 16 11 24 28 14 19 20 27 10 15 17 23 17 24 17 21 24 14 23 6 0 20 27 17 0 24 28 25 13 20 15 21 18 28 29 17 17 0 10 14 20 20 16 6 7 26 29 13 22 26 20 20 13 24 17 7 24 14 21 3 20 34 14 19 17 21 17 34 30 3 10 24 24 18 14 28 30 10 13 20 31 10 30 10 27 16 21 10 7 14 10 20 16 24 17 28 21 13 27 14 10 24 20 7 27 10 17 13 17 20 33 14 20 10 11 15 7 13 20 15 21 20 13 20 20 27 27 17 15 13 10 20 17 21 0 10 30 37 6 16 24 17 20 16 18 9 14 22 24 14 0 17 19 9 10 16 23 17 19 26 13 34 23 23 8 20 7 23 20 0 20 13 24 38 28 14 13 14 14 20 27 24 17 17 30 34 13 20 13 20 21 21 10 13 20 13 7 9 17 23 17 24 13 13 3 21 3 3 20 6 16 16 13 26 17 10 13 6 27 0 17 17 17 7 20 14 24 27 20 13 14 15 3 17 18 7 21 9 28 7 20 20 3 13 6 24 14 19 26 17 24 10 28 24 24 20 35 24 16 10 20 26 26 31 13 14 7 10 34 6 17 13 17 10 7 17 18 17 17 10 17 22 10 23 9 29 24 16 17 33 20 10 15 3 7 35 21 41 21 21 12 17 15 16 13 20 16 10 20 21 6 17 6 20 23 11 16 7 23 3 0 31 17 11 33 17 27 13 13 17 13 14 24 27 12 10 24 27 28 17 14 21 21 9 27 23 34 20 13 17 24 31 3 14 6 38 16 10 9 16 12 17 9 10 17 21 10 13 16 16 24 14 10 10 17 26 30 13 19 24 18 0 17 56 10 3 20 21 21 22 10 13 24 29 24 16 10 17 27 0 16 17 20 6 7 6 24 33 10 19 17 24 10 14 23 6 14 26 20 16 18 35 19 31 23 20 24 27 14 23 13 24 26 13 30 3 10 24 41 23 21 14 14 24 14 20 17 16 7 0 9 20 14 14 9 23 14 20 3 6 27 29 20 17 14 21 14 26 10 20 21 21 13 27 14 13 3 14 9 20 14 12 11 18 23 13 27 10 26 7 20 3 13 16 24 7 10 10 17 23 10 17 10 21 24 20 17 17 7 9 14 10 11 10 13 18 19 24 16 21 24 6 24 16 14 23 7 21 9 24 17 21 42 17 13 30 20 37 22 0 13 12 17 20 23 20 14 17 9 16 21 16 20 6 17 19 9 17 13 13 10 14 17 13 26 20 16 20 19 17 6 16 27 17 14 28 16 14 18 14 24 20 26 21 25 13 20 19 28 28 17 16 27 16 14 24 3 24 3 10 31 17 20 26 20 13 28 34 20 17 3 17 23 20 17 21 10 3 20 34 17 27 7 23 23 13 17 24 19 6 17 26 16 6 17 20 11 21 17 33 13 17 10 10 20 19 27 13 16 13 9 13 17 22 22 20 19 17 17 30 20 7 19 20 28 23 16 16 14 20 30 19 22 14 29 21 23 20 10 12 27 28 27 27 20 18 17 16 17 27 21 10 21 10 10 26 16 10 20 13 20 0 13 23 38 21 10 24 17 14 27 16 13 18 0 0 13 21 13 29 26 17 11 24 20 13 27 10 14 9 17 24 20 14 20 10 30 6 26 6 7 17 21 15 28 20 6 24 16 3 20 17 27 13 18 14 7 9 14 10 17 22 27 14 24 6 10 31 15 7 24 20 13 18 13 10 23 19 9 25 9 10 31 6 31 20 19 16 6 22 20 29 24 24 20 23 13 13 3 10 28 23 28 15 14 20 20 16 34 9 17 12 6 13 17 12 10 16 19 28 16 22 3 30 26 18 9 24 19 14 6 21 14 17 20 13 21 16 21 10 19 23 16 14 6 27 13 13 13 19 16 21 29 17 20 10 14 12 6 27 37 3 31 12 15 6 6 20 20 24 20 27 17 13 3 16 3 10 24 14 7 32 22 14 17 22 19 13 18 27 3 7 14 13 14 24 11 21 16 20 23 23 12 21 24 24 23 24 27 28 10 18 10 16 32 24 27 28 21 26 21 10 13 17 16 21 7 13 17</t>
+  </si>
+  <si>
+    <t>EXN(0.5032014507381563, 19.281989321729345, 3.8115650770309)</t>
+  </si>
+  <si>
+    <t>17 21 14 20 19 19 20 21 26 27 17 26 22 31 22 27 20 20 21 26 22 25 19 24 22 25 17 25 24 18 18 20 24 30 20 16 24 19 13 23 19 16 25 14 16 24 17 23 26 30 15 18 24 24 26 25 21 24 24 22 22 20 18 19 17 23 33 23 17 20 19 17 21 20 21 23 19 18 22 16 25 12 19 23 22 27 22 22 19 31 15 24 23 21 19 16 20 23 18 15 18 15 24 24 21 25 22 19 25 17 21 16 22 25 23 26 26 21 22 31 17 17 24 27 23 14 22 23 13 23 16 21 15 26 26 19 25 19 12 19 21 22 22 26 18 20 20 22 22 23 25 17 22 26 23 27 27 25 24 16 22 24 19 18 17 26 21 27 18 16 19 15 28 26 19 26 24 28 20 18 26 14 25 23 20 23 17 33 18 22 24 27 26 11 20 23 20 26 21 28 25 19 18 25 23 16 24 17 28 20 26 25 17 25 14 24 26 16 11 16 12 19 21 21 18 23 23 29 21 18 20 11 19 19 22 16 16 23 27 20 21 15 15 24 18 17 28 22 16 21 20 14 22 25 19 21 17 9 26 22 20 26 16 21 16 18 12 18 14 23 23 31 20 23 26 26 18 20 18 16 21 15 26 18 22 26 23 20 26 14 21 25 20 19 24 18 20 26 28 14 21 27 19 19 20 21 15 21 27 19 18 18 21 29 16 19 26 14 25 25 18 15 26 26 31 22 17 17 23 28 22 10 22 14 20 17 16 22 19 20 19 17 20 24 17 20 9 15 17 27 13 28 17 16 13 29 18 13 23 23 23 20 22 17 19 20 22 21 23 16 28 14 21 21 24 21 31 16 25 28 19 20 22 25 18 17 24 19 30 25 23 30 26 26 16 25 24 21 21 25 17 13 26 15 23 22 21 23 22 23 21 16 22 24 22 19 29 20 23 23 19 22 27 25 16 16 24 22 19 29 32 23 20 19 23 19 13 27 24 23 23 16 19 23 17 18 18 23 24 22 23 21 13 19 24 27 29 21 12 21 12 21 14 21 20 24 26 15 16 27 27 19 20 16 17 28 30 22 18 23 19 14 22 18 26 14 19 16 32 20 18 12 22 21 28 20 23 20 18 23 23 13 14 26 17 23 20 24 21 17 23 28 25 20 16 24 18 28 13 23 22 16 19 18 12 15 25 27 19 23 25 17 23 22 21 22 21 26 19 19 21 16 20 23 32 18 27 25 19 15 19 27 24 17 23 20 17 20 16 24 14 21 20 29 20 23 25 20 18 17 27 21 19 22 22 21 23 20 30 26 24 31 29 22 22 27 19 26 15 19 11 23 24 25 23 19 20 15 17 27 29 25 19 23 23 22 35 12 24 20 26 21 18 23 14 25 20 12 15 24 22 18 22 29 23 24 25 17 24 28 22 24 23 21 23 24 23 23 28 24 23 17 29 23 24 28 24 22 17 17 24 20 21 19 15 19 24 20 21 23 16 17 17 25 30 23 20 19 15 28 15 25 17 23 22 17 26 17 27 20 20 23 21 23 18 15 25 24 19 15 19 19 21 29 24 29 25 24 19 19 21 15 12 17 14 19 28 21 27 19 21 19 21 28 24 30 25 21 21 35 24 17 30 22 27 25 19 13 26 18 28 32 16 14 23 25 24 27 18 19 19 18 17 19 15 22 17 25 30 20 18 21 15 23 24 27 21 18 20 18 26 22 19 21 23 27 23 18 23 23 14 18 15 19 25 18 21 20 25 16 20 25 17 17 24 20 17 24 17 24 19 20 23 17 23 17 24 21 25 17 16 20 23 19 16 18 19 18 25 22 27 16 19 17 20 23 12 19 26 28 20 31 21 26 18 24 20 19 26 13 24 21 12 24 21 23 25 27 24 23 14 21 16 22 19 17 24 20 22 17 21 20 25 24 19 25 27 21 15 23 25 14 19 19 23 21 19 27 23 33 24 23 23 20 24 21 21 26 18 13 19 17 25 26 15 19 26 19 21 17 20 25 21 22 23 18 25 17 18 23 20 24 19 14 21 18 12 24 24 25 19 21 34 25 21 26 14 16 26 24 27 22 23 25 17 20 15 19 21 23 25 17 20 18 19 21 18 17 21 21 22 21 24 20 27 21 29 30 21 25 27 19 19 20 21 25 26 17 25 24 20 21 25 20 14 13 27 24 18 23 21 29 21 24 19 19 19 18 20 17 15 23 22 19 18 18 31 19 19 19 25 21 20 26 24 21 17 16 20 20 23 26 19 21 20 19 25 20 24 19 26 24 24 21 17 15 26 20 26 19 22 28 18 26 19 23 26 21 20 21 20 22 20 19 28 18 28 20 22 21 15 25 18 21 25 25 15 19 24 24 21 20 19 17 24 17 24 26 23 27 23 13 19 16 20 22 24 22 21 17 21 13 26 26 27 21 18 14 18 19 31 21 25 23 12 22 19 21 22 20 23 24 15 16 25 32 13 21 21 20 21 22 24 19 17 25 21 24 20 20 18 23 16 22 18 15 16 21 21 16 22 27 24 24 21 22 20 19 23 25 17 21 22 23 24 16 24 17 23 20 22 29 22 31 18 18 30 21 14 24 19 27 16 17 19 18 18 23 21 18 17 18 25 22 24 23 26 19 19 21 16 21 15 18 17 17 15 17 11 16 28 18 23 26 14 27 25 20 25 23 24 23 23 21 24 17 26 20 22 26 16 21 27 23 24 19 14 20 17 19 23 24 18 24 22 16 16 23 24 23 26 21 28 21 21 25 16 17 26 24 16 15 19 19 26 18 29 15 11 21 17 28 22 25 20 24 20 25 19 19 12 20 18 20 15 23 21 22 28 28 21 23 22 26 25 20 17 22 18 24 18 22 24 18 21 19 19 20 18 18 19 20 13 27 16 28 22 18 14 17 16 18 22 21 22 23 21 29 25 21 18 25 25 20 21 26 15 21 22 12 17 29 24 31 26 19 23 25 26 33 17 20 21 24 21 24 25 27 21 18 26 18 28 26 25 16 14 16 22 21 24 27 16 19 20 27 25 15 17 23 18 15 19 22 26 26 25 15 18 25 18 26 14 19 18 23 15 20 16 23 22 24 20 25 24 26 21 18 14 24 20 22 12 22 26 15 17 20 20 23 17 18 19 22 21 19 24 26 22 28 25 20 18 30 27 16 22 18 13 28 18 20 23 19 23 24 23 28 17 25 15 22 22 21 12 13 18 23 18 19 24 29 20 22 24 21 21 18 20 25 23 22 24 25 25 22 18 24 20 24 23 13 20 19 21 11 21 16 28 19 23 20 25 26 20 20 27 23 19 30 24 27 22 21 21 17 23 21 15 19 28 18 21 26 21 20 30 25 26 23 21 23 22 23 22 22 20 22 21 24 12 14 19 18 22 18 23 21 17 21 16 23 22 19 14 16 16 21 26 26 25 19 27 20 17 15 24 26 24 14 13 25 18 25 16 28 23 22 22 23 16 24 19 22 25 32 21 16 30 18 21 22 27 23 23 24 14 21 22 23 19 22 30 17 20 20 26 21 20 22 36 27 17 19 18 24 18 22 21 20 25 23 16 33 14 25 31 19 24 19 29 21 23 21 22 22 17 10 29 28 17 23 26 25 21 19 20 17 25 24 21 26 23 17 23 23 37 28 19 27 19 17 19 21 19 26 25 16 23 19 28 26 27 15 18 19 21 21 20 25 30 18 19 29 20 18 18 18 17 21 22 19 26 28 28 23 17 28 21 22 28 28 16 18 15 25 22 26 16 19 23 23 27 25 21 22 27 14 15 15 18 14 25 20 19 16 17 24 18 22 14 24 26 23 24 23 19 17 22 23 23 23 20 20 33 20 24 28 27 25 18 19 28 18 17 12 17 24 26 22 13 23 27 20 27 28 21 15 23 17 14 35 25 22 21 29 17 23 20 24 18 21 24 23 21 24 23 23 13 26 27 30 21 16 20 24 15 23 23 22 19 22 25 24 17 21 12 27 12 18 26 17 15 21 23 20 19 25 23 11 22 17 24 24 23 19 22 21 25 24 18 20 25 22 23 17 17 21 19 23 22 29 19 18 20 34 15 14 22 14 27 22 22 27 16 12 20 30 24 21 17 21 22 18 18 21 20 20 20 12 27 20 20 20 26 22 19 27 25 22 26 21 23 29 19 19 20 22 20 23 20 14 22 22 23 22 23 13 26 21 24 17 19 18 25 25 17 24 13 25 20 21 18 19 17 24 17 20 21 10 24 20 24 23 29 18 19 16 21 17 23 25 24 25 24 15 21 26 20 19 25 19 26 20 18 23 17 27 23 21 27 22 17 25 18 18 14 29 20 23 24 27 22 11 25 22 25 21 18 27 24 18 24 23 22 22 15 22 27 21 24 20 21 24 16 26 22 14 13 22 17 16 21 15 20 34 20 19 26 19 22 20 22 28 29 20 15 21 21 16 15 18 21 17 15 17 27 23 17 20 20 19 23 20 24 21 25 20 20 24 18 13 22 18 21 19 20 27 24 29 15 17 18 27 28 21 21 19 28 21 23 30 19 25 23 24 27 19 25 21 18 16 14 21 22 20 20 20 23 26 18 23 20 24 17 23 23 27 20 35 23 17 23 20 22 22 23 32 17 22 18 22 17 27 24 27 16 18 27 19 27 16 17 22 16 18 17 20 28 24 22 23 13 23 17 18 15 21 21 23 14 17 24 26 26 20 20 20 17 24 17 19 20 22 24 17 34 26 24 22 17 15 27 24 14 30 19 19 17 23 20 22 24 26 24 23 19 16 21 30 18 8 21 25 14 15 14 28 15 16 17 18 19 19 26 17 21 14 24 25 18 26 14 23 16 23 15 22 23 20 18 19 28 22 22 24 21 29 14 16 17 21 20 25 21 19 22 24 23 21 19 29 24 23 19 15 19 25 23 18 20 23 18 20 23 28 30 20 21 14 18 15 22 10 22 16 19 16 23 15 15 22 21 21 14 19 17 16 29 24 23 22 19 21 24 24 30 23 26 22 20 26 23 20 33 20 11 20 21 23 20 18 21 18 22 19 22 23 18 21 25 24 31 18 22 16 20 18 24 14 21 18 19 17 25 16 22 17 14 23 25 22 24 23 26 26 12 24 19 23 33 23 16 15 28 28 23 25 20 28 19 18 23 21 21 22 18 17 17 23 17 24 21 32 24 19 24 24 23 23 24 15 22 23 27 29 22 20 19 9 19 23 27 21 26 14 23 23 26 27 17 17 21 23 19 19 18 19 13 19 15 21 24 17 28 30 22 20 19 24 18 19 22 17 23 18 30 19 14 20 18 24 24 20 15 20 25 16 17 13 10 25 20 23 21 14 18 20 14 19 25 31 21 22 22 15 24 23 29 16 13 23 23 26 33 24 19 19 28 20 22 24 24 24 16 21 15 25 28 26 21 18 11 15 19 28 22 14 24 27 19 26 21 20 14 21 21 19 29 19 15 29 14 24 21 18 25 19 20 29 21 19 23 16 17 14 17 16 16 19 16 16 16 24 24 22 18 16 23 28 19 22 20 21 25 13 21 22 31 24 16 20 15 24 19 15 20 18 19 20 22 21 21 19 14 19 17 25 31 25 29 27 27 24 16 15 23 20 24 17 26 22 18 23 22 24 23 20 27 22 26 18 27 25 24 16 22 27 21 16 22 29 11 17 20 13 20 15 18 26 17 19 17 20 18 16 23 17 20 17 16 18 19 22 15 19 20 30 21 24 19 26 21 20 21 26 19 18 22 17 15 23 20 20 32 16 22 28 15 15 20 21 19 14 16 24 18 16 20 14 27 25 22 20 18 16 26 23 16 12 22 22 20 15 22 24 22 15 16 23 20 21 20 17 14 27 24 17 15 24 20 25 18 24 32 18 23 18 22 18 18 22 22 14 23 22 22 9 10 19 22 17 18 17 24 27 17 25 17 20 22 25 25 24 25 25 19 21 18 27 21 22 18 20 23 21 23 22 18 13 18 19 21 24 21 25 15 31 19 21 24 19 16 25 19 19 21 18 28 19 25 24 21 25 21 20 27 22 18 27 24 21 23 23 17 23 25 21 22 23 25 20 21 24 16 21 17 22 14 21 28 27 23 22 20 21 22 15 27 20 24 23 26 21 23 22 11 19 22 11 16 28 19 24 16 18 29 18 23 23 23 24 16 24 21 21 22 24 23 19 20 15 25 21 19 18 22 21 23 11 22 26 21 19 18 31 15 19 24 21 23 19 16 24 17 26 23 23 12 22 28 17 26 24 25 24 23 18 26 21 15 17 25 18 17 23 28 19 22 20 21 17 18 18 22 17 23 21 22 21 22 22 23 20 22 20 16 27 14 15 23 21 20 20 15 25 28 18 17 17 15 23 21 27 13 21 25 20 23 21 19 20 21 22 21 22 25 20 23 13 23 30 22 23 28 18 23 31 25 25 28 21 19 19 15 17 28 20 11 12 17 21 21 35 14 19 22 17 17 17 25 23 19 20 29 16 21 26 27 21 16 28 20 17 27 26 24 16 17 20 21 20 13 25 21 21 22 18 22 26 24 17 20 28 23 33 24 16 25 19 26 27 21 30 24 19 26 19 25 13 17 21 23 25 22 17 22 18 17 17 19 23 26 17 21 16 23 17 20 13 25 24 17 23 18 21 19 27 23 22 23 21 22 20 29 21 20 25 18 21 29 19 27 24 21 18 28 15 15 22 22 27 18 18 18 19 18 20 19 20 20 23 24 19 15 25 19 17 23 23 23 20 21 25 23 22 27 26 18 20 21 20 17 23 16 16 18 20 21 19 15 19 22 22 13 19 20 20 20 18 24 20 19 32 24 18 30 19 20 19 20 22 23 18 21 22 18 17 18 25 20 14 21 19 20 25 32 24 24 25 23 11 24 35 12 20 16 23 25 21 23 16 19 19 20 15 19 12 27 22 19 23 23 21 15 21 23 24 18 29 21 25 20 25 16 21 23 18 29 28 18 23 18 20 22 15 17 18 17 26 26 20 24 27 24 27 20 21 21 17 21 18 30 27 23 23 22 15 27 17 22 20 29 19 27 22 22 24 28 17 19 27 16 20 14 21 22 22 25 22 28 25 26 19 19 18 23 22 25 32 16 21 23 30 20 23 21 26 22 24 18 23 21 19 17 18 25 20 19 23 19 21 23 15 31 13 21 24 19 14 16 23 28 18 22 18 26 23 13 22 22 19 19 21 27 24 26 17 22 22 21 23 20 21 17 27 13 21 26 20 23 18 17 18 20 27 22 27 18 25 14 23 23 21 15 16 22 20 25 20 15 17 22 16 19 18 19 20 25 20 23 25 18 29 23 12 31 18 16 19 17 22 20 22 19 21 24 32 20 20 31 22 23 24 17 24 24 21 26 21 23 23 16 25 20 22 14 25 14 23 20 21 17 28 13 28 18 20 19 25 23 23 15 23 17 14 17 25 14 17 25 25 24 20 18 30 15 20 17 23 24 18 21 25 17 20 22 24 12 12 26 22 25 27 13 19 26 21 13 19 27 19 30 18 8 20 19 22 20 25 24 24 25 15 26 22 20 24 17 19 19 24 25 27 22 16 18 26 28 22 16 21 21 20 23 25 25 21 15 23 26 21 16 28 17 18 23 20 16 20 20 21 21 19 27 21 21 20 25 25 22 23 27 16 21 17 19 14 26 19 21 22 13 22 22 21 24 23 21 18 18 22 24 25 22 23 22 24 27 21 14 23 22 16 24 20 20 18 28 23 17 20 18 29 23 18 25 21 24 16 18 20 22 18 18 24 22 19 22 23 15 21 19 18 21 22 15 22 24 36 26 26 19 28 12 14 30 19 18 19 18 13 24 17 17 26 16 13 23 24 19 24 18 24 24 24 17 14 18 29 20 16 25 23 26 19 21 24 16 21 14 22 21 22 19 22 16 21 22 19 21 22 21 27 22 20 26 22 30 23 20 29 18 25 21 22 29 16 25 11 18 26 24 21 21 19 27 27 26 16 18 19 23 20 24 14 21 22 20 23 28 25 21 20 20 23 17 22 17 31 24 24 11 28 21 19 19 27 22 25 20 20 19 24 18 29 26 22 22 18 21 21 17 20 16 18 29 23 12 19 20 19 30 23 20 22 24 24 23 20 19 16 29 21 13 19 30 14 19 27 24 20 16 25 17 21 20 21 28 19 28 13 24 21 21 23 27 17 23 23 22 14 16 24 23 24 15 24 17 26 22 15 18 24 18 27 21 17 13 30 34 18 21 24 24 23 16 16 23 28 21 14 19 22 23 24 21 19 22 19 22 19 29 15 22 16 19 25 18 17 21 22 14 24 23 20 25 23 22 22 20 21 28 28 20 18 15 32 21 30 19 25 12 15 28 15 21 21 10 23 17 22 25 21 14 21 24 22 10 18 20 27 20 20 25 18 20 22 17 17 35 22 25 22 26 15 17 21 23 21 16 28 21 27 20 21 25 27 18 26 24 21 22 21 19 23 17 21 26 21 21 22 24 17 22 18 16 17 18 21 19 21 16 19 15 26 17 20 24 22 18 17 24 22 21 21 22 26 18 12 26 20 19 29 21 16 18 17 24 24 24 21 19 20 26 22 17 20 20 19 18 20 19 26 18 16 21 17 24 28 16 17 23 17 22 25 26 20 20 23 19 21 23 25 19 19 21 22 19 23 20 19 22 18 26 25 17 15 17 25 21 12 15 21 19 26 27 19 24 18 23 25 17 21 24 30 25 23 21 19 23 21 21 22 22 21 24 23 23 24 15 19 20 15 20 26 29 17 17 20 18 18 26 23 21 20 25 12 18 25 28 21 25 21 25 24 22 21 17 23 19 19 21 18 22 19 24 15 25 23 28 19 20 21 29 18 24 20 28 22 24 19 23 19 14 23 15 23 17 27 25 25 28 22 27 30 22 22 21 21 20 24 21 20 20 26 18 20 23 20 20 26 17 17 13 19 19 25 30 21 20 26 18 12 26 23 28 19 15 16 23 20 28 13 20 22 18 22 19 22 20 23 20 27 26 17 27 16 23 17 19 18 25 19 22 16 19 29 26 20 20 18 22 20 27 18 19 17 23 22 28 19 25 13 18 13 19 17 20 21 22 21 24 17 16 27 11 26 16 14 20 26 26 22 30 16 23 20 23 12 15 20 21 13 24 29 20 29 26 23 29 19 24 22 27 22 25 18 18 27 25 15 17 24 27 15 20 25 22 23 21 24 18 18 21 18 23 17 15 15 23 24 28 24 15 27 25 19 19 24 24 25 20 13 19 19 18 22 16 15 15 16 21 16 20 17 21 28 24 19 24 19 19 21 21 22 24 14 25 24 17 16 22 23 11 24 20 17 23 18 27 19 26 18 22 28 13 23 13 18 14 15 14 14 26 24 18 19 22 20 15 37 17 19 19 19 20 21 20 21 18 22 20 18 11 21 16 31 24 23 15 19 23 25 23 23 25 19 22 27 20 23 20 18 21 16 15 22 23 24 20 21 24 12 24 24 16 27 23 23 23 25 28 24 19 14 21 24 25 20 23 21 28 23 18 18 27 22 21 21 29 27 18 22 21 25 24 12 17 29 23 27 17 17 13 16 22 24 21 27 23 13 13 20 20 15 29 21 21 19 28 19 23 25 25 24 19 22 19 21 21 17 18 28 18 21 14 17 14 12 30 15 26 27 24 14 21 25 24 22 16 15 22 23 18 18 16 26 21 22 18 16 19 23 18 22 26 21 31 20 26 17 14 23 23 21 22 21 16 15 24 19 15 16 23 16 24 15 18 16 28 21 18 18 22 16 24 19 14 21 10 25 17 20 21 20 15 29 26 27 16 13 13 23 13 26 21 17 17 20 21 21 14 24 25 25 23 18 23 23 19 24 25 20 16 18 25 21 18 16 26 21 21 25 27 32 18 24 24 17 17 20 22 21 22 18 15 25 15 23 18 28 25 27 23 23 18 13 30 19 32 10 19 27 23 17 25 29 13 18 18 24 21 18 19 21 18 21 27 15 28 24 21 17 21 25 20 20 19 22 19 30 24 15 28 22 23 20 16 24 21 28 31 18 30 16 15 24 24 25 23 28 18 12 18 18 17 21 21 30 28 22 20 25 29 28 21 19 14 23 20 17 14 29 22 20 23 20 22 14 32 15 20 20 16 24 23 20 14 24 24 24 15 23 17 24 19 24 15 22 20 27 12 25 26 29 21 15 19 33 20 20 16 19 19 23 23 15 19 17 25 22 25 26 17 38 11 30 23 26 25 32 23 23 21 27 25 22 19 22 23 20 24 18 21 16 22 14 11 20 19 22 25 18 21 23 18 20 20 19 18 25 27 23 14 27 23 25 20 23 17 19 30 25 13 16 17 22 29 21 20 19 26 18 23 22 25 23 19 26 26 23 21 21 19 23 23 24 24 28 20 21 23 18 23 25 32 20 21 26 16 26 19 23 21 26 18 20 21 25 21 15 22 19 27 26 25 20 20 19 20 24 24 24 26 20 19 11 27 19 17 24 17 16 21 27 24 31 22 19 17 24 22 26 20 26 17 19 22 19 30 13 19 18 16 19 18 19 21 20 24 15 24 25 17 20 22 18 22 28 15 21 13 18 17 14 20 22 17 23 17 21 21 14 18 24 19 24 29 21 21 27 18 19 20 21 20 22 26 25 22 26 23 14 16 17 22 22 30 25 18 25 28 19 27 23 17 19 17 23 26 16 23 22 21 24 21 24 21 25 18 29 26 20 19 24 21 21 20 22 21 25 22 26 21 20 12 27 25 25 11 11 22 27 24 20 22 26 19 18 16 12 15 20 26 25 21 22 20 26 20 19 20 21 28 20 21 28 16 20 21 20 23 19 28 22 25 22 26 29 21 18 15 25 16 25 24 17 15 16 23 22 25 29 18 25 21 18 34 29 23 17 17 23 17 20 24 24 28 17 17 26 23 17 22 15 20 20 23 19 23 20 21 22 28 15 18 16 21 20 30 17 17 16 22 21 20 24 21 25 12 18 19 25 24 17 28 19 19 18 21 22 20 19 16 18 22 21 23 14 26 26 29 28 20 25 22 18 19 20 26 15 22 18 24 17 22 22 19 26 22 18 21 28 29 23 24 20 16 22 23 23 21 32 16 26 20 16 26 31 17 23 24 26 22 26 20 23 22 21 21 21 14 25 20 21 20 15 26 19 23 19 24 28 23 25 20 20 20 19 22 19 24 22 26 25 18 20 20 28 17 13 18 16 23 28 25 17 25 17 22 20 19 23 21 25 19 21 19 19 22 18 19 23 18 25 15 21 22 22 22 26 16 27 18 21 27 23 20 16 20 21 37 12 18 24 21 30 18 14 20 17 23 23 26 27 21 19 19 19 21 15 23 15 15 24 24 17 25 21 21 20 18 17 29 25 29 12 21 15 19 23 17 18 14 16 17 23 19 13 18 22 14 13 19 18 23 17 18 27 16 23 21 24 17 33 33 23 18 21 20 22 20 12 13 15 24 18 20 20 22 23 18 19 21 25 21 20 25 16 20 22 20 17 19 20 21 17 26 19 20 24 35 27 19 13 18 21 24 22 24 26 19 16 21 26 29 25 28 14 20 21 18 30 23 20 25 20 19 15 13 24 21 24 18 27 21 13 23 31 22 23 21 20 17 19 19 20 20 23 18 15 25 25 28 17 21 15 21 21 24 25 24 23 26 20 31 18 19 21 17 19 22 20 22 22 23 19 19 22 20 17 25 21 24 24 22 15 24 21 26 22 15 21 15 24 21 13 22 23 19 19 27 19 19 22 28 33 26 20 27 21 15 23 21 16 24 19 21 22 17 23 29 24 18 28 21 24 15 19 18 21 22 18 20 20 27 16 24 14 19 18 30 14 21 20 18 18 19 21 17 29 18 22 18 21 21 23 20 19 20 21 22 21 23 26 20 19 20 14 26 14 20 13 20 30 25 20 21 23 25 25 19 23 34 21 12 22 25 25 34 25 23 24 24 30 15 21 17 23 24 18 22 19 17 23 20 21 22 21 23 21 27 21 26 18 20 15 20 22 24 27 23 17 22 15 22 17 26 28 23 20 19 22 19 26 22 25 23 24 27 20 24 17 10 19 20 15 14 24 23 20 19 25 20 23 18 19 20 23 18 20 16 14 23 24 22 19 29 21 21 32 32 27 20 29 17 26 22 20 20 15 23 19 17 24 19 21 27 24 17 19 29 21 18 21 27 20 16 20 25 26 18 29 19 20 17 20 18 20 25 22 15 21 18 22 19 23 24 13 21 20 21 19 26 23 19 20 20 29 18 19 21 19 26 21 13 21 25 19 22 18 23 18 12 23 20 20 21 19 19 20 23 22 22 22 21 22 19 26 26 23 24 24 20 26 18 23 26 21 22 20 24 21 21 29 16 19 25 17 19 21 17 17 19 23 26 19 24 19 19 22 16 18 15 25 18 21 17 21 17 23 22 22 19 23 20 18 21 18 26 27 36 27 23 24 22 20 14 29 19 21 16 17 24 18 18 17 22 16 22 20 17 21 22 22 21 17 20 18 20 20 21 19 25 21 27 30 16 17 14 14 24 17 17 21 18 13 23 19 24 27 19 30 22 23 26 21 20 19 19 27 19 18 21 21 19 19 22 21 21 22 16 16 13 22 24 24 26 24 19 19 18 12 14 28 33 17 21 15 24 14 18 17 26 25 17 25 20 11 38 22 21 20 28 22 19 20 26 30 20 19 22 20 26 24 24 20 17 25 22 29 21 18 19 22 28 23 24 23 26 21 18 22 31 27 19 17 22 10 19 19 29 25 22 20 20 34 22 23 18 18 22 29 24 21 24 16 30 22 24 32 25 22 22 23 19 18 18 24 18 21 20 27 15 27 21 30 23 29 25 21 20 21 22 22 21 22 18 29 23 12 14 24 17 23 20 23 26 25 16 19 25 23 30 16 18 24 24 21 23 22 20 24 20 23 22 18 18 22 20 29 18 21 19 33 16 19 23 27 16 16 27 20 17 19 29 23 23 20 18 21 27 18 20 22 19 23 21 21 20 23 18 19 27 24 23 23 23 20 19 21 21 21 10 24 20 19 24 23 21 23 32 29 33 23 18 23 21 28 24 25 23 22 30 19 25 21 15 24 23 23 21 20 26 16 17 22 21 23 25 20 16 25 26 18 22 22 21 23 14 17 26 19 19 17 13 17 21 17 15 17 22 23 13 18 20 24 18 24 24 20 22 23 20 18 31 18 18 21 18 30 25 20 20 21 14 20 16 28 22 18 16 16 24 23 34 25 21 27 18 23 28 22 22 26 22 22 18 22 14 21 22 15 18 15 17 10 28 12 23 25 20 20 21 23 23 27 21 18 13 21 13 21 18 17 24 24 23 16 20 26 29 17 24 21 18 15 25 18 22 28 18 24 20 25 21 26 18 21 22 18 16 18 15 16 21 26 22 19 26 24 19 20 23 26 23 19 19 17 29 21 26 23 24 20 16 15 12 15 16 20 31 19 17 17 19 30 17 22 24 17 25 22 33 20 20 28 18 23 16 11 17 26 18 21 19 19 19 21 18 21 28 19 20 21 14 13 27 17 24 14 24 19 23 23 14 21 19 20 19 22 21 25 29 22 17 15 22 26 15 19 22 29 17 16 19 20 16 20 20 26 23 24 21 27 17 22 28 17 17 17 26 21 25 27 26 26 26 27 12 16 20 18 17 25 22 25 17 19 18 19 26 26 14 18 15 17 22 20 26 25 27 18 21 23 24 23 19 20 25 23 22 23 26 16 14 21 18 17 28 22 20 31 22 17 23 24 37 24 25 18 16 24 21 24 24 25 20 19 22 28 19 20 25 16 23 22 15 17 24 28 18 29 19 24 23 21 27 23 20 26 23 28 18 22 25 16 20 24 22 16 17 18 17 15 32 25 26 19 19 17 17 23 22 20 24 18 22 16 21 9 22 22 17 17 14 27 22 16 19 25 19 24 18 22 23 27 28 19 25 22 29 27 24 18 28 28 14 23 18 27 21 22 20 19 19 24 26 16 26 27 24 20 18 24 21 21 20 25 21 18 24 23 19 23 18 24 24 20 22 12 14 34 21 19 22 24 15 17 24 31 19 20 24 19 22 19 23 19 21 28 20 23 17 16 25 13 25 17 21 29 21 15 25 21 18 18 12 28 13 20 21 27 23 20 17 16 19 22 24 14 21 24 14 17 19 16 31 20 17 20 24 20 21 24 25 20 25 17 20 21 23 19 18 17 15 19 18 21 22 20 16 16 28 26 19 20 22 22 18 20 18 15 17 23 15 24 17 19 14 26 18 30 13 20 23 21 22 27 22 21 27 20 21 16 24 17 20 23 20 19 18 23 20 14 24 24 18 25 21 19 18 18 21 20 17 17 24 25 17 18 23 22 14 26 18 19 24 24 21 20 22 21 15 20 23 15 12 18 31 29 23 20 21 19 18 19 23 18 21 18 23 27 22 22 31 23 18 20 22 25 20 26 18 27 18 14 26 19 23 20 25 26 13 23 26 17 26 25 30 14 21 22 22 24 31 18 26 27 20 16 22 27 21 17 25 18 26 12 21 17 18 20 17 15 21 28 23 18 27 20 12 26 16 20 20 22 10 22 22 26 19 18 18 13 20 30 18 26 21 19 27 24 23 21 24 23 29 21 16 21 19 15 26 17 20 19 20 23 27 15 25 27 20 27 29 16 23 25 18 20 14 25 20 14 22 19 21 16 25 19 24 28 15 15 21 18 28 21 23 13 21 14 25 13 18 20 21 23 16 22 22 16 27 26 23 21 26 22 19 24 29 17 23 21 22 16 21 17 27 20 26 11 26 19 19 17 26 19 21 18 25 17 27 16 18 16 22 18 23 22 19 18 23 8 30 18 22 17 24 29 26 21 16 19 21 20 29 13 28 19 15 25 15 27 34 23 21 23 13 24 34 20 27 18 23 18 19 26 21 24 19 15 22 24 29 19 21 19 24 20 19 16 21 20 17 15 23 20 21 21 23 20 23 16 20 28 26 25 19 23 24 18 26 22 26 19 20 21 32 26 23 27 28 17 24 25 21 18 23 18 18 21 23 21 25 24 19 15 17 20 23 19 23 25 24 26 25 19 19 20 21 28 19 25 20 26 30 24 23 22 22 16 18 20 19 18 17 22 24 24 27 14 17 27 19 26 25 23 17 16 25 19 18 20 24 26 23 27 22 21 25 24 18 23 18 23 29 17 19 20 18 20 20 17 16 14 27 19 25 19 23 26 22 23 13 24 15 25 19 22 17 19 24 26 26 19 27 22 30 22 18 18 24 24 25 25 19 23 16 17 22 17 21 19 23 20 25 19 17 24 18 23 13 20 20 25 21 16 22 18 19 23 18 22 26 26 20 17 21 20 24 19 20 16 24 14 26 25 22 15 22 24 21 23 23 20 20 20 19 22 23 16 22 26 19 24 16 21 14 24 24 30 22 16 18 24 19 25 14 18 25 21 18 19 26 20 15 12 27 17 25 21 26 15 17 21 19 17 18 19 25 15 24 19 23 13 23 23 30 13 22 22 19 27 19 17 24 22 21 23 20 28 21 23 20 24 23 17 19 14 22 15 21 28 23 17 18 29 23 30 18 26 15 25 22 22 20 17 19 21 23 22 14 20 12 23 26 18 21 21 30 27 26 24 16 25 14 16 14 22 21 20 22 27 23 21 23 15 18 17 20 22 18 23 19 31 24 22 24 23 29 22 19 22 29 23 27 26 22 16 30 17 23 19 19 19 18 19 23 24 15 23 19 28 31 24 15 26 17 18 20 18 24 20 19 19 12 22 21 22 23 23 21 27 15 22 28 18 13 16 22 22 18 18 29 17 24 21 12 24 19 33 20 19 24 21 20 29 22 24 22 19 25 25 16 14 25 28 23 20 24 25 18 14 28 16 26 24 20 15 24 21 26 16 18 19 25 22 18 30 23 21 24 15 21 15 18 20 19 27 22 30 21 25 16 18 29 33 14 20 19 13 18 28 26 14 21 17 24 18 21 26 24 25 20 23 29 21 27 24 25 22 27 24 17 21 25 22 17 25 26 17 23 24 22 31 20 17 20 18 22 22 22 15 20 20 28 23 25 24 17 30 17 25 24 15 18 16 19 14 14 28 18 15 16 18 22 20 25 29 22 18 28 20 20 29 16 18 14 20 22 20 23 15 16 29 16 18 25 22 19 21 18 20 25 27 22 26 20 26 26 22 16 21 30 17 21 24 21 18 26 21 29 25 24 25 29 21 18 22 24 17 15 23 22 15 19 16 19 19 22 14 26 29 22 23 13 14 26 12 25 25 16 21 25 23 23 18 21 29 27 21 24 21 30 31 20 24 29 13 23 26 25 21 23 16 23 29 21 16 16 20 21 21 20 16 22 19 17 12 27 21 24 19 33 22 15 28 15 25 20 22 21 17 19 23 16 21 22 18 30 24 22 22 21 18 22 25 25 20 13 23 21 12 19 20 19 24 15 22 15 18 24 19 24 20 23 29 29 19 24 19 21 18 21 21 17 15 20 27 19 17 19 19 15 30 29 18 24 22 18 19 19 31 21 24 21 28 19 17 22 18 25 22 22 22 27 22 23 23 18 21 26 15 19 24 19 23 16 26 18 22 28 19 14 18 14 18 19 20 20 24 25 24 18 21 18 20 19 26 18 18 17 18 24 28 21 21 24 21 16 19 31 33 24 26 22 27 26 23 11 19 32 25 34 27 15 24 13 20 27 17 18 11 29 20 22 31 22 23 28 18 19 27 21 21 18 18 21 22 22 22 18 22 22 30 14 20 17 25 25 19 23 28 27 26 24 21 18 23 19 32 25 23 21 19 22 25 17 19 22 31 20 31 19 17 22 18 23 11 31 20 24 27 21 20 32 22 13 19 18 24 16 14 25 21 21 22 21 26 23 22 23 22 20 18 26 21 23 34 20 21 20 27 17 19 17 24 18 16 26 26 19 17 21 16 18 20 25 27 20 19 18 24 26 24 19 16 22 24 20 20 22 18 27 25 17 28 13 18 20 20 28 26 28 22 21 22 20 17 19 22 22 27 18 26 18 25 24 20 15 24 21 24 20 23 13 24 11 17 23 25 25 18 20 19 22 17 19 26 21 22 21 16 23 19 23 16 26 31 22 24 19 22 20 20 25 16 30 30 20 20 22 24 18 23 20 21 24 24 20 19 20 22 23 21 14 17 24 17 23 17 27 20 15 23 16 29 24 20 24 23 25 19 16 22 12 21 27 23 17 20 25 29 19 20 21 19 17 23 21 15 25 17 25 26 25 14 27 16 32 20 21 25 23 30 24 25 21 24 18 16 18 27 20 20 29 25 16 25 17 26 23 18 20 21 22 19 22 21 16 32 29 27 22 30 18 20 19 23 27 17 22 23 26 22 17 26 28 29 27 25 18 30 19 23 17 16 19 22 20 24 24 20 28 23 23 21 17 23 23 16 18 17 23 20 17 12 30 30 14 17 24 21 18 18 22 17 26 19 17 17 14 18 20 21 23 23 25 17 24 24 25 23 20 20 23 17 19 20 19 17 20 15 17 17 25 14 27 21 24 26 17 25 20 25 24 15 31 14 13 22 17 22 21 19 18 22 23 23 18 16 22 20 18 20 19 18 15 21 12 28 15 14 23 16 25 24 25 12 18 19 27 18 23 20 22 20 23 27 14 28 26 23 25 27 16 25 19 11 20 27 24 25 24 21 23 18 17 18 20 25 23 21 21 21 19 17 25 23 27 24 18 18 16 27 25 19 13 25 20 26 28 26 14 17 22 32 25 14 31 17 25 20 20 18 18 27 23 19 20 15 21 19 29 15 21 21 22 21 21 25 18 23 22 22 29 24 12 21 15 19 30 22 25 36 24 19 17 30 23 18 23 18 22 28 11 12 21 17 21 23 22 25 17 21 20 24 21 22 20 16 16 23 14 29 22 21 20 22 13 17 20 22 26 26 21 27 23 19 23 26 24 29 20 27 17 28 24 19 16 16 17 25 27 16 23 18 26 18 22 17 24 21 17 15 23 28 25 19 23 26 24 20 24 18 25 16 27 25 20 24 21 23 27 21 19 29 16 21 21 24 20 19 22 20 31 19 26 26 28 20 19 22 15 20 23 23 21 24 28 15 21 27 14 15 22 15 22 15 17 29 21 25 25 24 14 29 26 20 24 26 16 14 22 20 19 20 24 18 27 26 22 15 21 17 13 26 25 28 27 16 24 29 15 16 18 18 19 27 28 33 16 20 25 21 23 21 18 29 22 29 23 26 24 27 23 18 23 23 22 25 27 25 23 24 18 23 19 17 20 27 15 30 18 23 15 19 15 21 19 28 20 19 21 13 21 30 20 26 25 27 19 22 26 22 27 20 26 17 15 22 21 24 20 16 17 15 20 12 14 22 20 22 21 20 21 15 21 29 22 26 20 28 18 22 18 24 34 17 17 25 22 19 20 18 19 23 24 19 24 26 25 20 27 25 18 19 20 23 18 19 26 22 28 21 29 24 25 17 18 23 21 14 21 26 16 16 23 18 21 25 17 18 19 25 20 21 20 23 20 23 19 18 20 18 28 28 34 13 20 18 31 18 16 24 23 24 18 26 22 29 28 17 16 21 23 23 17 22 33 19 20 16 22 18 23 19 23 18 18 22 21 23 22 22 33 27 16 28 22 16 25 18 23 19 26 22 22 15 27 24 30 12 20 25 21 17 20 23 22 26 26 30 21 22 21 17 16 28 25 21 22 26 21 21 18 20 21 18 17 24 19 24 20 27 20 27 22 31 17 22 18 17 26 24 27 25 24 28 19 25 14 25 23 19 25 17 25 20 24 21 19 15 18 20 23 28 21 18 16 23 20 18 16 13 18 24 22 19 15 26 23 22 20 18 22 18 18 24 27 17 26 19 19 21 19 18 21 18 21 21 24 22 21 17 22 29 30 24 24 18 19 20 22 19 13 20 22 18 19 18 25 21 28 29 22 19 25 20 19 14 20 29 11 14 24 23 24 23 21 21 22 24 17 19 22 17 26 17 22 19 28 24 9 26 15 22 25 23 29 24 26 22 29 21 17 24 25 20 24 24 16 18 22 19 19 22 22 11 21 21 21 20 17 17 24 16 26 32 22 25 26 19 27 24 28 28 19 20 18 17 18 19 27 19 23 14 12 21 19 20 10 23 24 22 20 28 32 21 15 27 25 26 25 23 16 21 24 21 26 20 22 24 20 20 36 30 26 20 23 15 19 22 20 21 20 26 21 22 22 28 30 19 21 14 18 26 16 30 17 27 25 17 21 20 16 21 21 26 19 22 23 15 23 20 18 22 15 20 16 20 21 28 19 19 17 27 16 13 21 18 18 24 14 21 14 25 21 16 19 25 28 26 19 31 27 16 22 32 20 22 25 18 19 19 17 22 22 28 24 21 23 17 17 24 22 24 21 24 25 27 21 24 23 21 23 21 20 23 14 25 18 16 21 25 17 17 21 24 11 22 27 25 17 18 17 23 21 24 25 23 18 18 23 17 24 21 12 26 16 16 15 22 22 18 23 26 18 10 18 24 14 19 16 27 23 18 18 26 17 16 20 19 16 24 23 20 17 20 20 21 16 26 17 12 13 20 19 19 22 21 15 26 21 24 24 17 17 17 22 20 19 18 17 19 12 22 15 25 20 28 30 22 20 25 26 24 24 21 27 16 25 17 16 27 16 27 21 17 26 14 17 17 21 22 19 25 24 24 18 25 20 23 20 20 25 17 17 25 20 22 20 20 28 17 30 14 20 21 22 14 19 25 10 27 20 12 18 22 15 21 26 22 30 25 17 24 26 25 15 14 22 19 25 21 24 27 14 23 27 20 25 23 25 23 24 25 25 16 23 20 21 15 31 22 23 16 23 24 18 18 21 21 24 18 26 15 21 24 20 18 18 27 15 37 22 13 17 27 22 16 23 22 22 30 24 24 20 21 19 35 24 23 15 28 24 16 16 17 26 22 26 18 18 20 25 30 27 25 18 19 12 29 23 22 15 19 24 16 25 16 24 26 23 18 22 16 18 20 25 20 25 25 29 22 15 17 23 19 16 24 28 17 30 10 19 24 16 23 19 16 16 19 18 17 23 21 22 16 16 21 15 20 22 22 21 24 21 24 24 24 21 17 23 24 15 20 16 25 19 11 32 21 27 18 18 20 20 24 20 26 29 21 25 23 16 19 30 15 19 15 20 20 21 15 22 22 22 21 18 20 22 23 18 26 19 20 19 19 19 21 30 17 21 25 25 25 17 15 26 28 16 27 17 25 22 14 26 28 16 19 16 21 16 20 16 24 19 20 31 21 19 23 20 28 24 17 21 22 22 28 21 11 21 20 27 26 10 18 26 18 22 26 14 21 24 23 14 22 22 24 15 20 29 21 25 20 24 11 12 17 30 24 19 17 21 22 16 21 27 23 21 29 22 16 22 22 19 17 16 19 15 23 19 18 17 24 17 23 27 21 22 18 25 17 22 21 20 27 27 21 18 15 18 17 24 38 20 21 29 24 15 27 24 17 26 11 17 30 24 22 22 21 22 19 12 15 24 25 18 22 19 20 20 24 18 21 19 19 16 25 19 18 16 24 25 30 22 21 29 21 28 23 15 21 23 21 13 19 25 20 25 17 23 21 22 13 21 22 15 20 18 27 15 21 16 16 23 25 22 22 21 22 21 17 18 16 18 24 26 20 23 17 21 25 19 22 16 18 30 22 21 20 22 11 17 20 18 23 24 25 21 19 22 25 20 32 20 21 17 16 21 15 20 22 30 18 23 20 20 22 22 31 14 21 22 32 23 16 25 17 25 20 19 17 20 20 13 20 23 21 25 18 20 18 16 22 25 26 19 17 29 25 17 12 21 18 22 23 14 16 22 24 19 25 14 18 22 21 20 14 22 25 15 17 16 12 19 16 25 16 22 19 28 26 17 31 13 16 25 21 21 25 19 20 17 24 19 17 26 21 9 19 23 22 17 16 21 22 16 22 22 20 21 17 20 19 19 23 19 18 24 16 20 23 21 21 20 16 20 25 17 21 21 20 20 30 19 18 22 20 30 21 17 18 21 22 24 20 18 15 23 17 31 24 22 28 16 23 20 16 20 18 26 19 29 30 24 19 14 21 22 22 26 24 18 19 25 19 25 21 23 21 19 18 24 21 19 18 24 21 21 16 19 23 20 24 15 23 23 14 17 21 25 19 18 22 21 21 18 26 20 21 20 24 30 26 17 17 23 15 23 25 28 27 21 24 12 20 20 22 25 24 23 28 22 14 25 25 30 24 31 20 19 22 21 20 34 24 21 17 23 17 19 29 19 26 23 20 15 25 23 23 20 21 21 22 22 27 19 25 22 27 29 20 17 26 20 19 17 20 20 23 14 24 25 21 18 24 27 23 19 23 16 19 27 22 20 30 24 19 31 25 18 18 25 21 21 15 24 23 18 26 23 18 23 19 16 19 16 23 21 21 22 25 23 23 17 20 24 15 19 22 19 26 26 21 12 25 16 25 16 20 23 26 22 24 21 20 18 23 23 24 15 17 23 19 23 22 17 24 18 23 26 24 22 24 19 24 21 19 23 16 17 24 21 22 21 20 26 21 17 25 23 32 28 16 25 17 17 18 16 21 20 21 28 24 23 28 18 20 25 16 23 20 16 21 20 17 14 27 24 23 23 16 29 24 23 23 25 16 30 19 14 16 29 16 19 28 17 18 24 19 26 21 21 17 20 14 18 23 27 15 17 18 19 23 18 17 24 22 22 23 23 16 26 20 19 18 21 24 24 25 19 22 26 26 26 17 22 24 22 16 23 25 18 13 18 17 26 19 23 18 19 23 23 22 27 24 22 26 23 16 23 17 13 17 19 18 20 17 31 27 19 21 21 24 20 16 28 20 18 20 22 21 25 22 21 24 15 26 19 21 30 24 17 21 21 27 19 18 22 23 14 32 19 27 22 23 15 17 17 29 19 28 16 25 20 25 22 26 19 24 26 23 16 19 20 22 28 29 21 21 24 18 25 26 25 20 19 25 22 23 16 19 17 28 19 16 15 24 17 28 18 22 24 21 18 20 22 23 16 23 18 22 26 21 23 15 22 21 23 26 22 22 21 23 24 17 27 26 25 25 18 22 24 24 17 25 18 18 17 21 29 18 26 27 16 19 21 26 28 23 17 19 28 23 16 27 14 30 19 21 14 24 18 18 17 22 19 15 16 21 28 23 20 27 19 24 13 24 17 26 18 17 26 19 24 12 30 26 21 33 21 12 25 15 20 27 25 20 24 22 18 33 19 27 22 29 19 16 21 22 25 17 23 24 27 17 18 22 24 15 26 24 26 26 19 19 20 28 26 14 25 21 23 33 22 25 26 17 16 22 16 21 18 12 27 27 21 22 19 17 18 21 18 15 24 32 22 22 18 16 21 20 20 28 18 20 29 21 28 18 32 20 21 18 23 13 30 19 26 25 27 32 10 20 16 18 31 21 26 23 25 16 33 18 21 24 25 24 23 15 25 20 16 26 22 23 20 26 16 19 17 22 32 19 23 25 18 29 17 27 18 15 22 24</t>
+  </si>
+  <si>
+    <t>NIG(92.46105639724716, 67.83735848146975, -0.9481297693253687, 30.713950725177234)</t>
+  </si>
+  <si>
+    <t>25 28 23 33 27 29 34 30 40 32 26 36 29 43 33 41 31 32 31 34 27 34 34 31 31 36 33 35 35 36 34 30 33 41 36 23 38 30 19 34 33 26 30 25 26 32 36 32 37 44 30 32 36 35 37 30 31 37 34 34 32 24 23 39 28 31 47 37 29 31 33 27 30 34 30 39 29 25 29 26 34 20 30 37 28 37 40 31 35 45 26 41 39 37 24 25 30 32 28 34 32 26 29 36 24 32 40 29 33 26 35 29 33 34 28 40 49 29 32 37 23 29 35 34 27 27 29 34 17 36 22 32 23 32 42 27 47 27 16 31 30 34 39 35 33 33 34 29 34 41 30 24 28 35 35 38 41 41 31 30 34 34 36 31 23 39 31 31 26 30 33 27 40 38 29 33 33 42 28 28 39 26 38 35 32 32 35 45 38 35 31 37 43 26 33 33 29 36 29 33 32 28 29 38 29 31 34 27 38 27 36 33 23 35 28 30 37 27 19 27 16 34 26 36 32 33 29 41 27 31 27 22 31 28 35 25 25 35 38 31 32 21 26 34 33 28 36 35 21 34 31 22 30 44 28 36 26 19 33 31 27 29 28 34 28 33 26 30 23 35 38 36 30 33 37 34 29 29 28 27 28 30 38 29 26 41 44 26 33 30 35 37 34 27 35 33 35 38 39 21 35 36 33 28 36 29 25 37 38 31 29 30 33 40 25 26 34 16 43 36 30 22 37 34 45 40 24 26 32 41 30 18 35 27 37 25 28 33 29 30 33 30 28 41 25 31 24 30 29 42 27 37 29 27 22 37 36 25 28 33 34 32 32 25 28 37 38 30 31 34 46 22 31 27 35 30 42 24 40 34 33 32 36 32 35 32 33 23 34 40 32 49 40 34 26 32 40 32 37 32 34 20 38 23 34 33 37 32 30 40 31 32 32 46 33 30 43 31 33 37 28 32 53 37 27 30 36 37 30 42 48 31 31 32 33 29 30 38 33 34 34 30 30 31 25 33 26 31 35 30 35 33 21 32 35 41 36 34 25 31 23 37 30 30 33 40 32 35 26 37 40 31 31 29 25 43 48 33 30 37 27 20 36 36 40 38 27 31 46 32 25 27 32 37 37 30 29 33 25 35 31 21 20 41 26 30 32 33 31 22 33 36 38 27 28 36 30 35 21 39 36 21 34 30 25 24 37 41 33 32 38 28 44 31 30 28 28 43 29 24 31 22 30 31 44 29 39 33 33 31 35 34 39 31 32 33 27 27 28 31 29 38 29 37 29 34 35 30 31 29 42 36 30 33 39 33 32 29 41 40 37 43 40 34 31 39 36 34 29 27 18 35 36 34 39 32 30 22 25 40 37 35 33 33 32 30 50 19 41 31 42 33 25 28 26 33 30 24 26 39 39 27 37 34 35 34 32 30 38 44 30 31 32 29 31 37 42 30 40 36 35 26 49 37 37 36 37 28 27 29 38 28 29 24 28 39 35 31 28 31 24 31 29 36 37 39 33 32 27 37 21 39 36 33 32 28 35 31 43 22 30 38 38 33 27 28 38 30 24 27 24 26 29 43 30 46 40 36 31 33 36 23 31 27 20 24 40 31 37 31 27 32 34 43 31 44 39 34 35 47 35 27 40 44 37 36 35 22 35 27 41 41 21 28 31 39 30 40 27 31 31 35 23 33 29 32 24 39 42 29 22 30 22 35 43 37 27 22 29 24 31 32 25 28 32 37 42 33 33 36 28 34 24 32 31 29 26 37 30 24 26 38 27 32 32 32 31 34 27 31 29 31 33 30 33 29 35 39 40 25 30 28 38 23 24 31 30 28 31 39 33 31 32 32 36 35 29 31 41 42 25 42 31 40 29 41 25 35 36 27 35 31 16 37 31 36 38 35 33 33 29 27 28 27 30 25 46 35 32 30 36 29 40 37 38 40 36 35 25 40 41 24 34 27 34 40 31 37 39 48 33 37 39 31 36 30 33 40 29 22 25 21 36 35 24 33 45 35 42 26 32 37 26 38 33 27 34 26 28 29 33 33 31 24 28 33 22 31 37 38 27 36 47 39 29 32 28 22 35 40 41 25 35 33 28 32 27 29 35 37 33 26 30 28 28 27 27 23 31 28 27 27 27 30 39 37 38 36 27 32 37 35 32 32 37 31 38 26 33 25 33 28 41 28 29 21 32 38 30 32 32 44 35 35 35 28 27 32 35 29 30 41 30 26 31 31 50 30 29 30 37 44 30 32 36 34 29 20 32 33 37 31 23 30 30 28 39 25 33 34 35 41 33 32 27 26 34 24 34 35 28 36 24 34 26 38 41 28 38 24 31 39 34 34 39 28 49 27 33 30 28 37 25 27 31 34 27 36 36 36 28 31 32 26 33 28 29 36 35 37 34 25 27 27 30 33 33 29 28 25 31 21 34 34 41 29 24 21 30 38 46 32 41 30 29 26 35 30 29 34 32 33 22 21 42 42 21 37 35 31 29 36 29 32 32 38 33 36 34 33 29 33 31 44 26 34 29 29 24 27 27 32 33 35 32 31 26 32 33 33 29 34 34 29 33 28 37 27 31 42 30 39 36 44 37 25 41 33 25 33 31 39 27 24 32 26 26 36 33 30 29 30 32 48 37 38 32 31 29 37 27 33 24 23 31 28 23 23 22 26 35 26 43 35 19 43 40 26 37 31 31 31 41 37 31 25 39 30 38 36 28 31 32 28 37 24 20 33 25 35 34 29 27 33 31 31 28 33 35 37 41 28 40 36 33 29 34 29 36 36 26 26 33 29 36 30 38 21 20 27 26 32 31 38 35 30 33 40 28 30 19 25 27 30 27 35 32 34 37 43 38 38 33 34 31 28 27 32 29 32 28 30 33 33 36 28 22 25 27 27 33 29 23 44 27 35 35 36 25 26 25 24 35 34 34 40 30 36 39 32 24 35 43 32 27 43 32 33 34 31 28 41 32 43 44 26 40 39 40 43 26 31 28 35 30 34 35 34 28 30 39 26 42 45 35 25 22 24 36 35 34 35 23 32 27 40 31 30 35 36 30 33 32 31 40 43 31 22 29 34 30 36 23 33 28 31 35 35 35 31 35 34 30 33 35 42 32 31 24 31 28 28 28 30 33 24 27 35 32 34 24 31 29 29 36 26 35 40 37 49 36 28 28 42 42 24 30 35 29 40 34 31 39 34 36 35 30 37 27 37 28 30 36 33 20 25 26 35 24 36 33 36 30 30 35 26 35 25 27 36 30 35 30 46 35 30 33 36 34 33 29 25 29 35 32 21 34 27 38 40 31 33 32 36 33 30 36 36 32 47 30 39 36 32 31 24 35 28 18 37 39 28 28 40 32 25 45 36 35 33 29 31 29 38 34 33 35 32 34 38 23 23 21 27 32 31 27 34 29 37 29 35 28 32 21 30 31 30 41 38 44 30 37 31 28 26 38 34 34 22 30 32 31 38 27 38 31 34 26 31 23 31 40 30 34 50 30 23 39 25 34 27 36 34 33 40 28 29 35 31 25 36 37 29 37 29 40 31 30 26 47 31 27 33 27 39 28 41 31 30 28 40 25 45 27 32 39 40 35 31 46 28 31 36 37 39 28 32 34 35 31 28 37 37 31 33 39 29 34 37 27 34 36 28 33 32 53 32 27 37 34 22 33 29 37 34 38 27 31 29 43 34 38 29 31 34 35 32 35 34 36 32 27 43 30 26 28 30 24 36 36 32 36 38 34 33 24 36 29 27 37 35 22 30 28 38 36 35 29 31 32 35 38 33 36 34 40 24 26 20 34 22 34 27 31 32 23 35 23 34 21 41 31 32 39 30 35 28 34 38 32 35 33 34 49 39 31 41 37 30 23 31 38 24 29 25 31 38 39 29 24 39 44 28 32 42 36 22 36 27 32 48 36 30 41 43 29 43 30 31 26 25 35 36 32 36 36 39 27 37 34 47 34 27 28 42 30 34 31 35 39 33 39 34 32 33 20 35 22 27 39 27 26 38 31 33 27 38 40 20 34 30 32 35 28 28 28 37 32 33 27 33 40 31 33 27 36 27 32 34 31 46 28 33 31 43 26 22 32 26 41 28 35 38 26 24 42 38 37 33 27 30 28 26 31 33 28 35 33 20 34 25 29 28 38 32 30 37 33 35 34 28 35 47 37 25 36 33 29 33 27 19 29 30 30 32 27 26 36 34 36 25 36 30 35 34 26 40 25 37 31 35 29 32 23 36 25 28 34 22 38 35 46 34 45 29 34 32 33 29 34 40 33 31 35 28 30 31 28 30 37 29 32 35 34 33 35 40 28 33 34 32 32 33 29 27 20 39 30 35 36 39 35 23 38 40 44 32 34 37 39 30 29 34 38 34 26 31 39 25 39 32 32 28 32 36 32 28 27 28 27 28 30 26 27 48 28 28 37 33 40 26 27 38 40 33 29 30 29 24 23 27 25 29 30 22 40 40 31 39 39 31 38 35 32 33 37 31 39 35 32 24 33 25 26 31 26 33 29 30 24 32 36 32 37 37 36 31 41 37 30 45 32 35 37 34 35 28 42 31 24 26 27 31 29 36 26 39 45 38 31 40 32 31 32 32 38 39 33 48 37 23 30 33 27 34 29 44 36 37 30 35 25 41 31 37 22 35 36 37 38 27 29 36 25 30 24 31 41 31 43 39 25 33 31 27 25 35 32 35 36 28 32 39 29 30 30 27 30 34 29 29 36 33 41 23 44 34 34 30 32 32 39 31 20 39 31 28 36 37 39 32 35 32 30 31 31 26 28 47 25 22 32 38 28 23 27 37 25 32 30 27 27 29 35 34 35 23 32 41 25 33 23 30 30 29 21 41 37 29 30 29 38 38 33 36 37 38 24 22 31 33 33 33 33 24 34 38 33 31 33 39 35 33 28 22 34 31 35 30 32 32 27 27 32 43 41 33 32 25 34 22 32 23 29 33 29 33 33 31 26 29 38 32 25 24 34 25 37 29 32 32 29 31 36 36 40 36 37 29 27 35 42 37 47 27 14 35 35 27 29 23 28 30 32 27 36 31 34 28 31 33 42 31 35 34 28 27 33 28 28 26 31 29 36 23 32 30 32 35 40 36 41 32 38 33 20 32 28 28 41 28 29 28 34 44 32 32 29 40 23 33 33 38 39 32 27 27 30 31 26 42 36 42 38 26 35 34 33 32 33 30 35 32 45 41 35 31 28 19 29 36 40 36 35 23 35 25 36 40 20 26 33 35 23 31 34 30 18 28 26 32 38 26 40 41 34 29 32 43 24 28 33 28 38 20 47 34 26 31 27 35 36 33 27 33 37 26 32 23 21 37 37 27 34 25 28 27 28 28 34 37 42 32 29 36 33 35 38 30 27 37 34 44 45 27 29 32 41 28 32 30 34 33 26 31 23 36 41 38 37 35 21 28 31 44 34 28 33 41 37 38 27 29 21 35 30 28 41 33 25 39 20 31 23 25 36 33 29 40 30 26 28 26 25 27 35 24 26 27 30 27 27 40 37 33 27 30 32 40 32 32 31 28 39 22 38 33 48 35 26 31 24 37 40 22 38 34 32 28 27 32 35 24 30 30 28 38 39 34 45 36 39 41 22 24 35 31 37 28 38 35 33 30 26 36 34 28 40 30 41 29 33 38 32 22 37 38 32 23 29 36 28 25 34 25 40 21 28 38 32 28 23 36 41 23 33 34 28 26 25 33 25 34 29 36 35 42 33 37 32 43 27 29 32 43 30 28 33 28 23 30 29 31 38 23 35 43 30 27 27 32 31 27 29 41 22 29 38 26 35 28 26 31 37 22 45 39 34 25 32 30 29 29 33 33 41 26 27 34 29 31 28 32 26 36 37 28 23 34 31 36 29 38 39 27 36 26 33 29 19 35 30 29 43 32 29 15 20 32 37 23 34 28 37 33 24 35 25 34 28 38 43 31 32 42 29 33 40 37 36 33 26 27 32 29 38 27 30 30 33 31 38 36 29 33 26 43 26 31 41 32 34 37 36 28 29 32 35 30 36 35 30 37 34 33 36 34 26 36 35 37 34 32 24 29 43 31 35 33 40 38 32 32 25 36 27 30 27 35 44 44 30 39 36 37 28 25 38 28 32 29 37 31 42 35 17 28 32 23 24 40 33 33 24 23 47 32 31 30 28 38 26 35 34 30 40 33 37 27 33 22 36 27 30 30 30 31 30 28 31 35 41 30 24 41 24 29 37 36 35 34 21 36 32 41 28 43 22 29 34 28 42 37 30 32 30 36 37 28 21 35 38 31 25 29 32 31 33 29 35 33 28 25 31 27 32 32 31 28 32 30 48 28 26 33 25 42 30 27 32 29 24 33 22 42 39 24 26 22 30 34 33 43 20 35 37 27 30 27 31 29 31 31 35 39 32 32 35 21 29 51 35 32 35 27 33 44 38 44 37 30 34 25 28 25 44 33 29 24 28 30 36 42 19 22 37 35 25 23 37 32 31 36 46 32 34 36 37 37 23 43 34 29 40 40 31 24 30 37 29 30 20 28 36 35 37 34 36 37 34 31 35 36 34 47 34 25 33 31 33 39 31 43 37 40 39 31 31 23 26 29 37 31 30 28 30 29 24 32 33 35 38 31 31 30 44 35 28 23 36 37 31 27 24 32 26 37 25 33 39 30 37 29 39 34 30 30 28 35 34 29 39 42 26 32 34 20 24 31 35 37 31 30 27 29 31 26 25 27 32 39 34 29 21 42 29 29 37 29 41 30 35 31 46 29 38 31 32 33 35 27 25 42 26 29 28 31 28 32 28 33 35 35 33 29 30 26 31 25 42 33 32 40 32 25 44 37 31 24 32 39 44 28 38 36 27 35 30 39 28 29 29 24 31 29 51 38 32 34 35 22 41 51 21 29 26 36 31 30 29 29 30 30 38 36 30 26 44 30 29 36 31 30 24 25 36 40 30 37 39 37 26 32 30 29 29 30 42 43 33 30 25 31 41 25 23 24 24 39 40 24 34 34 33 35 30 35 40 31 31 31 40 39 37 33 31 33 37 27 31 25 43 23 36 36 34 40 36 26 28 41 24 26 20 34 33 30 32 41 38 37 37 35 27 24 36 35 32 51 26 31 34 42 33 45 27 35 30 31 29 34 35 26 32 30 32 29 29 31 28 30 42 27 46 22 30 35 33 28 22 34 39 31 32 34 34 35 27 35 38 33 23 33 32 37 33 25 33 32 31 31 27 31 24 37 30 32 40 36 37 28 27 31 28 40 34 39 26 30 28 38 34 31 23 22 36 27 42 26 27 27 34 28 28 33 24 30 35 30 34 37 23 41 38 22 38 22 30 33 29 34 31 29 31 31 30 45 25 28 51 35 38 36 27 32 36 33 39 38 34 28 24 32 30 40 29 39 25 40 29 29 29 42 19 34 31 33 34 37 38 30 35 28 25 28 25 42 25 29 40 32 32 28 31 38 20 30 28 33 31 28 37 36 31 28 31 40 24 38 46 43 38 32 31 33 41 34 24 28 35 35 41 28 21 33 33 34 29 36 34 35 38 23 47 38 31 35 24 29 36 44 39 41 33 32 22 39 36 34 29 27 33 34 36 40 28 44 24 30 36 30 29 36 33 30 33 29 22 26 34 33 37 27 50 29 39 32 36 38 27 34 33 28 33 29 28 29 38 30 33 33 25 35 31 29 31 32 39 29 28 27 30 32 33 33 33 31 36 30 32 42 35 23 32 27 24 25 34 40 32 36 23 46 32 24 35 31 31 25 25 35 30 29 23 35 31 28 41 35 27 35 35 31 33 32 20 29 35 41 44 38 27 37 26 22 43 32 34 27 31 20 32 29 29 38 25 25 39 33 29 37 47 33 39 34 29 26 32 44 34 23 34 31 32 32 35 33 26 31 23 31 32 42 29 30 28 29 35 28 34 38 36 37 35 32 41 40 34 29 28 39 29 36 31 29 35 35 39 21 33 36 37 33 39 38 35 37 43 32 28 20 27 32 31 25 40 39 32 37 40 34 27 37 28 34 27 30 28 40 36 31 20 44 33 28 26 31 30 34 29 33 29 31 30 40 33 26 29 25 28 29 26 32 26 27 38 27 31 28 35 30 46 38 26 32 39 36 29 33 29 28 44 34 18 35 38 21 31 42 36 29 26 32 23 34 31 34 42 24 39 27 41 28 32 33 37 27 34 30 31 22 26 31 30 32 20 35 24 40 30 24 24 36 28 37 29 27 22 45 47 26 31 33 39 29 31 20 39 42 27 19 24 35 32 36 31 27 35 30 38 36 41 24 36 34 28 32 28 32 38 31 25 34 40 33 35 36 31 33 29 34 38 42 34 35 23 37 33 47 27 39 23 29 41 27 30 26 20 39 22 34 39 29 28 31 34 34 23 25 34 43 29 34 36 27 32 37 32 33 45 26 39 35 37 24 30 27 32 36 27 36 38 40 32 38 34 32 25 41 31 38 36 27 28 32 29 30 33 26 30 32 35 23 38 30 27 28 24 36 26 33 26 29 22 34 22 34 35 33 22 31 33 38 35 29 31 36 26 24 36 30 32 43 30 25 23 20 32 29 38 32 30 29 32 30 29 23 28 35 30 28 34 37 26 23 30 24 46 39 25 25 30 18 31 34 37 35 23 32 30 31 32 29 33 28 34 37 29 35 35 35 40 24 37 34 31 32 25 36 23 23 26 28 30 31 39 28 33 31 31 36 27 31 34 43 34 34 34 33 36 28 39 30 33 29 32 30 31 34 24 27 36 26 39 32 39 31 27 31 32 26 40 37 31 31 40 20 26 33 39 37 32 25 32 34 31 36 28 33 28 31 32 26 33 35 35 26 36 35 37 33 30 25 42 25 38 29 39 34 33 28 36 33 25 35 25 34 27 37 31 33 42 26 33 37 33 30 33 27 28 33 32 35 30 38 24 30 29 26 27 37 28 29 28 27 31 33 39 33 32 38 27 15 34 39 37 28 24 29 39 32 32 24 35 25 35 33 24 31 38 34 28 37 34 24 34 23 40 26 34 29 30 30 35 30 30 34 39 34 30 30 32 39 37 32 36 24 36 29 39 31 39 20 25 25 31 25 26 43 33 30 30 29 29 36 27 38 30 27 28 36 38 31 42 33 40 28 31 24 23 31 29 29 28 38 35 41 43 34 39 29 33 29 39 39 37 34 35 35 36 22 25 31 34 29 31 34 35 35 35 30 33 32 28 35 33 35 26 31 40 39 33 30 25 36 38 24 23 41 39 39 23 25 25 33 26 32 30 28 24 31 34 25 31 32 25 42 39 34 39 29 30 33 31 31 33 30 31 36 26 29 37 37 22 36 31 30 31 29 35 27 39 29 31 43 24 30 23 26 22 27 21 24 38 38 24 27 33 31 30 48 28 25 26 29 35 36 26 31 30 39 33 26 22 36 28 41 33 33 25 31 35 38 30 37 34 26 29 37 35 37 27 29 31 29 35 33 32 31 26 25 34 20 36 34 28 43 34 34 43 36 37 33 28 25 30 33 27 25 33 37 38 34 26 24 41 32 31 28 41 35 33 30 31 34 30 27 24 36 34 37 22 23 23 23 40 30 27 36 35 18 25 33 25 26 39 31 26 32 38 26 37 36 31 28 33 34 26 39 35 28 27 46 23 32 25 28 18 24 41 31 37 34 37 25 34 33 31 30 28 25 32 34 28 31 30 36 31 36 27 22 30 36 28 36 38 30 41 36 34 29 22 34 38 33 37 29 28 25 33 27 23 28 33 24 34 22 33 25 47 39 25 28 39 29 36 24 23 36 18 36 21 27 39 34 25 47 34 40 26 25 22 30 21 31 30 27 25 32 31 33 33 48 32 36 35 33 31 40 26 37 34 25 25 30 38 30 23 29 34 35 29 35 36 44 29 38 40 29 26 27 37 33 34 33 27 41 26 39 29 41 37 32 31 34 25 24 48 27 41 21 31 39 31 24 32 44 16 27 29 29 41 32 30 29 27 29 35 31 40 33 36 24 35 40 35 31 27 31 31 36 33 26 39 36 31 31 29 34 32 40 43 31 38 22 26 33 38 37 32 40 29 19 26 29 26 27 26 40 38 38 39 34 41 40 27 28 33 28 30 25 26 40 33 27 38 31 40 23 45 27 28 32 26 42 35 28 26 32 41 37 22 36 30 32 31 36 32 33 29 32 21 35 36 42 31 25 30 39 34 23 26 27 34 38 35 21 25 30 37 36 33 33 25 63 17 39 36 37 39 49 38 32 36 40 35 26 34 34 35 30 33 27 31 31 31 23 22 31 29 34 33 33 36 31 29 29 28 30 31 36 42 32 26 36 28 34 27 39 31 26 45 36 21 28 25 35 39 28 25 32 39 30 35 29 40 29 26 40 39 35 27 31 31 35 34 30 32 38 26 33 37 29 30 41 42 33 29 29 32 35 29 34 34 35 29 27 36 39 38 23 37 31 37 34 40 26 31 33 29 37 35 37 38 32 29 19 43 31 23 33 29 24 33 32 40 44 32 33 26 38 27 35 32 35 25 31 28 32 46 23 31 29 28 30 30 33 36 32 30 29 29 34 26 28 33 30 34 41 26 31 22 37 25 28 37 38 25 42 31 30 33 24 30 46 25 38 39 29 26 43 31 28 32 29 23 25 44 39 34 42 37 26 20 26 36 34 41 43 25 39 47 29 34 32 29 28 31 37 41 24 36 32 32 35 34 30 32 34 31 42 36 31 26 34 36 29 39 35 33 32 34 42 31 27 29 37 40 40 21 20 33 33 30 31 39 37 33 29 28 23 29 29 35 35 30 37 28 39 35 28 34 31 35 29 35 38 27 34 31 33 28 32 40 38 31 32 34 42 33 29 20 33 32 35 32 23 26 25 36 32 36 43 29 36 29 33 46 34 42 32 31 37 30 29 36 37 36 31 27 40 34 29 32 30 31 33 30 36 38 42 31 35 43 27 24 24 31 33 46 32 22 24 34 31 27 34 31 42 27 26 30 39 41 20 41 31 36 36 30 36 31 34 24 34 36 35 34 23 40 32 39 39 34 37 31 23 28 26 36 24 35 24 41 26 33 31 29 36 29 29 41 41 41 29 31 31 27 33 35 40 27 47 27 33 41 22 36 45 27 34 36 34 32 39 33 32 28 34 32 34 32 39 35 31 32 23 40 30 31 35 34 44 34 40 29 28 32 23 37 28 40 28 42 34 36 29 30 38 31 23 29 30 38 37 35 31 39 29 38 31 32 39 29 36 27 26 27 30 30 29 34 32 25 32 25 34 32 31 32 31 26 31 25 34 36 37 24 22 30 25 44 24 29 41 32 42 27 26 32 26 33 34 39 34 29 40 34 33 29 27 32 26 19 41 38 28 32 36 32 39 30 25 38 32 48 26 31 28 26 35 32 28 27 27 32 30 29 30 32 36 25 23 30 27 39 28 29 33 18 32 30 39 31 44 46 29 24 27 37 26 31 23 29 25 40 27 28 32 38 39 30 36 30 29 33 35 31 29 25 28 29 32 30 29 35 27 37 32 34 36 43 40 31 25 33 26 39 33 38 45 31 24 35 37 39 33 38 22 28 33 30 35 32 29 34 30 26 29 24 34 36 39 27 40 28 26 33 46 32 35 32 33 22 32 29 34 33 35 29 23 36 39 41 29 33 30 35 37 32 40 40 41 42 28 43 27 34 32 28 26 28 22 30 39 34 25 28 39 32 31 48 31 43 31 34 31 28 33 31 30 26 32 27 33 29 29 36 41 29 40 38 36 28 32 40 45 37 32 39 34 32 35 34 25 33 33 31 34 32 30 47 35 28 40 34 33 22 29 30 32 36 30 31 27 35 20 33 28 27 32 42 28 33 27 32 28 25 41 29 36 34 30 30 28 31 30 34 29 27 32 36 30 35 38 32 29 30 24 46 20 34 23 29 37 40 33 26 35 35 39 34 33 49 31 26 30 33 34 45 38 42 37 37 38 27 34 41 29 31 29 33 32 24 29 32 36 36 32 36 29 38 35 42 31 29 31 39 29 33 42 35 26 33 26 32 27 35 36 36 33 29 39 27 37 37 35 36 32 36 30 31 28 24 31 32 23 22 35 34 31 25 34 37 35 22 26 31 36 31 30 26 24 36 34 33 38 39 36 26 47 48 32 29 42 26 42 29 26 35 23 33 32 35 37 25 31 46 38 30 27 42 34 28 31 41 33 22 33 42 37 32 40 26 34 27 30 27 30 35 29 30 36 28 34 25 37 27 21 28 33 27 29 35 33 26 33 26 48 31 25 33 28 39 33 23 31 38 29 42 33 35 24 22 35 31 36 32 31 27 26 29 33 32 32 31 39 29 37 45 32 35 35 30 38 31 34 41 43 32 29 29 35 24 33 28 30 38 25 33 36 25 29 34 31 34 29 32 29 31 30 23 32 27 37 31 34 30 32 37 43 36 34 33 40 32 31 28 27 34 43 48 41 29 45 33 35 30 44 29 32 31 21 37 29 22 30 32 34 28 32 25 28 41 29 30 28 38 36 30 34 31 30 36 42 41 43 27 26 29 27 39 26 28 31 37 29 28 31 33 40 33 45 35 33 39 30 28 32 28 34 33 29 26 33 26 28 34 34 34 32 28 25 19 27 40 35 34 38 28 27 30 20 26 44 49 26 30 28 40 25 29 28 31 37 26 34 27 28 51 33 29 33 39 31 28 29 39 44 33 35 35 28 43 33 30 34 22 34 38 40 28 41 34 33 41 29 36 39 44 34 34 29 42 36 29 33 28 25 31 29 44 40 31 30 34 47 32 34 36 27 43 42 39 29 38 27 40 26 35 44 41 32 34 29 29 33 28 37 25 33 31 36 26 42 35 40 37 41 33 27 36 30 31 38 29 31 34 39 30 22 26 42 26 29 30 32 37 30 27 37 35 31 37 32 28 38 35 31 31 31 38 34 31 33 33 31 31 33 28 42 28 30 26 47 30 32 33 38 26 28 33 30 27 33 45 41 33 32 26 32 30 25 36 29 28 37 29 34 36 33 28 28 33 36 35 35 39 30 29 35 31 32 25 37 34 32 41 39 36 33 43 46 40 31 28 32 26 35 35 34 30 34 46 27 36 30 24 33 35 33 37 30 35 25 27 33 36 32 32 34 23 42 37 27 32 34 31 32 23 23 39 27 32 31 28 27 34 31 28 32 30 32 26 29 27 37 33 32 33 31 31 34 27 23 45 24 22 30 23 47 43 30 39 33 20 27 27 37 36 31 27 29 30 34 50 35 31 38 25 31 39 35 33 39 32 33 29 28 26 28 33 26 24 29 25 25 41 24 32 35 29 29 36 30 32 41 31 29 30 38 25 33 23 29 36 35 31 28 35 36 36 30 35 39 28 34 35 29 32 42 32 32 33 35 34 39 21 30 31 28 28 29 31 28 34 40 31 26 44 43 29 26 28 40 40 31 30 40 40 31 41 40 34 25 26 29 20 25 24 29 37 27 26 23 28 43 20 41 32 27 37 36 42 26 32 40 23 31 30 26 26 35 28 30 35 35 27 37 28 35 36 36 34 33 32 28 37 27 39 25 29 28 34 28 23 32 28 31 22 28 28 39 38 31 26 26 30 37 23 29 33 39 29 24 25 33 26 29 34 38 37 38 25 37 33 33 37 23 35 38 39 27 34 37 39 43 36 36 25 35 25 32 28 43 30 35 40 32 29 34 51 33 25 29 31 27 37 33 33 39 38 25 29 41 38 40 35 40 32 31 36 31 33 26 23 29 28 25 41 34 34 47 29 34 33 31 46 32 32 28 27 31 35 38 32 34 27 35 29 42 27 38 26 31 34 31 27 27 33 41 24 43 27 35 39 34 37 29 31 41 33 38 24 35 35 24 33 31 34 23 32 31 21 24 45 35 37 32 35 28 27 29 32 26 29 21 26 26 31 22 39 39 30 29 23 38 32 23 26 41 35 45 30 42 39 38 41 31 41 33 41 35 37 30 41 42 22 31 30 42 31 29 33 25 33 34 40 27 33 35 36 32 33 35 30 35 32 41 36 31 30 34 32 35 30 36 31 29 32 26 23 46 32 31 37 41 19 22 34 47 25 32 33 32 34 32 37 29 37 35 30 30 36 29 34 22 33 34 34 40 35 28 37 33 30 34 22 36 21 28 34 36 36 31 27 26 27 30 37 24 35 38 21 29 33 23 44 32 27 32 37 25 38 31 41 35 37 26 33 32 34 25 26 30 26 31 32 36 34 33 26 21 41 37 32 32 34 34 27 33 23 25 30 35 23 46 28 25 26 35 35 43 23 31 34 29 31 43 33 28 37 24 41 30 42 26 32 37 35 30 29 36 30 23 40 30 29 32 30 28 27 34 34 32 32 28 35 33 32 27 38 35 25 36 22 35 32 31 31 32 33 31 31 33 33 24 18 29 43 38 32 33 29 26 24 27 40 30 34 28 32 34 33 31 44 36 28 31 34 39 31 34 30 43 29 23 36 29 35 29 39 38 22 32 38 25 33 31 38 24 32 31 34 34 38 27 41 38 37 22 33 38 28 27 35 29 35 17 29 22 26 26 33 24 30 35 42 24 32 25 25 33 23 28 30 33 29 34 34 35 27 22 29 27 29 38 30 42 30 26 37 37 33 27 44 30 37 31 30 32 26 23 35 34 34 27 25 31 40 23 33 35 30 33 37 32 31 35 28 27 18 35 32 38 30 27 38 31 36 26 35 40 24 23 32 29 44 32 32 25 30 20 37 17 24 32 30 35 33 37 39 26 41 43 29 31 31 38 28 37 39 28 37 27 34 25 30 28 40 28 38 23 41 33 26 30 41 27 31 33 40 26 50 26 37 27 45 34 39 31 25 27 36 15 38 26 33 26 34 38 32 27 26 32 29 29 44 24 36 31 31 33 31 36 43 39 27 29 28 28 43 31 38 30 28 20 32 37 32 35 29 24 31 32 45 29 28 30 33 27 29 31 36 29 30 21 27 28 33 26 36 26 30 23 40 41 42 37 28 37 31 36 45 32 40 29 29 34 42 33 28 37 39 26 33 34 33 26 36 26 25 37 32 30 39 38 34 29 27 25 29 33 32 31 47 34 35 30 36 29 29 40 25 40 31 33 40 33 35 29 35 24 28 30 29 28 29 38 40 36 35 22 25 36 26 36 39 34 25 25 38 32 31 30 37 46 30 40 35 26 34 38 29 35 25 33 46 34 31 31 33 29 28 28 25 31 32 25 33 29 31 43 35 38 21 43 26 36 27 29 26 31 40 38 33 27 39 32 45 29 26 30 36 34 39 38 24 40 23 30 32 28 36 30 39 30 35 29 24 30 23 38 20 30 31 41 35 23 37 23 32 38 30 32 34 35 31 24 32 29 32 25 29 33 41 24 44 37 34 26 31 35 34 35 30 29 26 32 26 34 33 28 30 29 24 33 23 29 26 35 33 40 36 33 36 36 28 38 28 37 36 26 25 29 42 33 29 22 39 31 36 34 39 25 25 31 31 35 26 30 35 23 32 31 30 23 35 34 46 29 27 38 34 37 29 23 32 30 30 28 28 34 32 26 28 29 32 26 27 24 32 18 28 45 33 30 29 43 30 39 23 35 24 37 38 32 36 30 25 35 32 29 26 40 22 31 35 27 28 31 35 39 41 36 27 33 24 31 30 35 27 33 31 40 30 30 35 27 28 29 29 36 35 37 37 41 29 35 33 32 39 30 29 31 39 35 40 36 30 25 37 27 36 32 23 31 31 28 43 35 30 33 28 45 48 32 27 42 27 31 30 30 34 34 30 27 18 36 31 28 36 34 43 37 29 25 35 29 25 30 40 32 34 37 41 29 33 28 21 37 32 42 29 40 39 30 33 40 34 41 27 34 31 37 22 20 37 39 39 28 36 45 34 29 42 32 41 31 34 22 33 32 35 31 29 25 31 35 29 44 35 32 32 27 31 23 25 27 29 37 32 44 34 38 25 27 45 45 29 30 32 24 27 37 33 21 31 22 42 24 28 40 31 45 32 35 36 32 34 42 38 33 38 35 27 28 31 36 42 33 51 23 38 34 28 49 31 31 28 27 33 32 39 27 33 30 38 33 35 30 27 44 27 31 37 26 24 30 30 28 18 37 20 31 23 26 35 31 34 39 35 30 37 32 31 40 30 21 32 35 32 26 32 22 27 39 30 23 34 35 29 32 29 26 34 37 30 42 27 35 47 33 28 28 40 30 33 42 31 31 43 30 37 31 41 30 36 37 27 37 34 34 28 33 34 25 28 27 27 30 32 17 45 39 24 37 21 33 38 29 35 33 27 39 40 32 36 27 29 35 41 32 44 35 37 44 32 36 39 23 33 40 35 37 29 27 46 40 32 24 29 26 41 31 30 26 34 25 26 23 38 26 30 27 45 32 26 36 24 43 25 34 36 24 33 36 25 40 29 24 43 45 30 30 34 27 37 37 37 31 22 39 32 27 32 28 25 32 26 30 33 27 36 31 43 29 32 37 36 29 34 29 33 31 29 34 27 27 38 42 31 24 25 27 24 40 42 28 38 29 30 32 34 51 27 29 30 33 25 22 34 25 38 29 32 31 33 31 35 33 33 33 39 29 37 33 34 35 32 35 37 30 36 22 25 30 21 24 35 44 37 35 35 36 31 33 33 24 29 39 31 32 25 29 37 39 36 35 37 28 25 32 41 39 33 39 30 35 33 34 20 31 43 34 49 40 24 33 22 26 40 24 23 21 42 34 35 44 32 41 39 29 33 36 33 30 32 28 30 32 42 32 29 37 34 44 28 25 27 32 34 26 33 35 34 33 41 30 25 35 30 46 33 31 36 31 31 42 25 30 30 50 27 37 24 31 32 26 43 23 41 30 33 34 30 33 37 29 18 33 22 35 27 21 38 30 38 35 34 34 35 30 39 30 28 27 34 36 36 50 23 41 28 36 29 29 29 32 29 23 34 37 23 35 32 31 29 33 40 35 30 25 34 35 37 32 28 29 36 34 37 32 26 29 40 35 30 34 24 24 30 32 33 39 41 32 31 30 27 26 26 35 36 39 36 36 31 35 34 28 31 30 36 42 30 36 21 37 20 33 28 40 29 26 29 36 41 26 33 38 31 37 29 26 33 27 30 32 35 40 35 33 31 29 34 35 40 29 41 35 31 27 34 29 30 31 35 33 34 33 33 30 27 33 33 28 24 32 34 25 28 24 48 29 28 29 24 38 33 33 32 27 37 26 31 40 23 27 37 35 33 29 31 39 29 27 33 33 26 39 34 32 39 32 35 35 39 24 49 25 38 25 30 37 33 36 33 36 36 35 27 25 24 40 33 27 40 33 29 36 26 41 36 27 30 38 34 24 38 31 27 40 39 37 35 42 31 34 33 34 35 25 31 33 42 32 25 32 40 36 39 41 23 36 38 31 32 31 28 42 34 29 36 35 41 38 36 29 27 29 41 29 31 27 32 32 29 19 47 47 24 32 40 30 27 27 30 27 38 30 26 26 35 28 29 29 34 35 41 25 39 37 33 30 27 27 37 22 32 29 31 26 30 27 19 29 38 22 44 30 33 41 30 39 27 33 31 29 58 26 30 33 30 31 29 30 27 29 45 42 35 28 30 29 29 28 38 24 28 35 22 31 28 23 38 24 34 37 44 24 25 33 41 26 30 37 31 34 27 37 30 47 40 34 41 37 28 36 30 21 33 34 38 37 37 34 31 25 34 29 33 33 33 32 38 32 30 31 33 34 41 33 28 32 29 37 38 34 22 38 26 35 35 34 21 22 34 55 34 21 44 30 37 33 33 28 32 40 34 27 35 29 40 33 39 28 31 30 32 26 37 30 35 31 42 40 39 37 20 29 27 37 38 32 36 55 33 33 27 39 32 26 31 30 35 45 21 28 34 30 32 32 34 40 25 34 35 36 27 30 32 28 22 31 24 38 34 33 26 29 26 28 36 34 34 35 35 47 31 38 29 42 30 46 28 43 34 43 29 34 24 23 24 38 38 33 36 25 41 31 31 28 32 33 30 22 36 45 35 27 30 40 37 29 37 24 34 27 43 36 34 36 28 31 41 36 25 39 24 31 37 41 33 30 28 24 47 31 45 39 33 33 34 38 27 28 38 27 36 37 40 31 30 32 26 25 32 24 34 22 29 44 24 34 32 35 25 42 34 31 34 32 25 26 26 35 36 27 37 26 38 36 31 24 32 28 21 37 33 40 36 26 31 40 27 25 27 26 26 44 32 43 26 37 32 36 31 33 28 42 31 40 33 39 31 35 41 33 35 33 32 36 36 32 38 33 27 31 26 29 29 40 27 44 29 36 18 38 27 33 30 50 32 33 24 33 29 42 31 44 42 35 31 34 37 36 33 30 30 25 27 33 32 32 30 22 22 26 28 20 24 38 31 33 33 24 34 23 33 41 38 42 31 40 24 35 23 35 40 32 27 42 29 33 27 23 34 33 35 29 35 34 30 32 38 29 26 35 32 31 31 26 39 29 36 28 43 36 31 25 25 37 26 20 37 37 29 22 36 28 30 38 28 28 31 44 38 33 31 28 26 40 32 27 33 26 47 37 41 27 32 30 45 30 26 37 33 42 31 32 28 40 41 23 37 28 35 33 27 39 48 26 35 26 35 33 33 35 31 30 31 34 32 35 28 31 45 46 26 40 32 30 41 27 35 31 43 32 33 26 30 33 49 26 27 34 27 27 30 31 32 45 35 44 34 34 33 22 33 41 45 34 31 33 36 28 29 27 29 31 24 40 33 32 31 38 35 43 32 40 23 26 27 29 33 31 39 39 37 40 37 33 21 33 31 29 32 24 37 25 30 26 38 19 30 36 39 36 35 26 29 38 30 28 30 29 31 39 32 33 22 31 36 33 29 25 34 28 28 32 40 25 31 32 24 32 32 27 36 26 42 37 34 33 27 26 30 38 40 35 35 32 34 33 35 33 26 34 34 25 28 27 33 32 38 40 30 27 41 30 26 25 37 44 22 29 35 31 39 29 32 27 30 37 31 34 35 27 35 27 32 30 39 33 19 34 24 32 41 38 43 36 42 32 50 33 26 44 31 25 40 39 28 28 30 26 26 40 30 21 35 34 39 36 21 33 36 27 37 41 35 36 40 23 33 36 46 35 33 30 27 27 28 33 32 32 33 28 24 32 28 26 26 36 33 35 34 49 42 28 27 44 36 37 38 32 30 32 37 33 32 32 32 42 30 33 46 46 36 30 37 25 24 31 27 30 31 37 33 30 31 40 44 30 39 28 33 32 29 45 30 39 40 30 37 30 25 29 33 41 34 33 34 24 37 32 31 32 24 37 24 27 35 39 33 28 31 41 27 21 32 21 25 40 24 32 27 34 28 34 31 30 38 34 28 47 35 31 31 42 28 28 37 24 26 34 26 30 27 46 35 34 42 26 29 31 30 33 38 34 32 39 31 33 31 35 35 33 37 33 24 37 35 24 26 36 27 31 31 29 22 28 36 37 28 35 26 32 32 35 40 36 30 29 41 27 40 31 19 45 25 29 24 29 30 23 30 34 32 20 33 34 23 28 32 39 38 26 29 40 27 31 29 28 29 39 31 24 29 33 30 33 23 48 29 21 26 28 30 29 26 27 31 45 32 32 34 29 27 34 32 24 28 36 29 26 23 29 25 30 28 41 41 40 28 36 38 40 40 32 38 30 32 26 29 34 28 31 30 24 43 23 21 30 33 32 25 31 36 33 26 38 36 31 26 31 35 26 29 35 31 29 37 36 37 25 37 28 30 30 32 22 30 36 14 37 26 22 27 30 20 28 37 34 37 39 21 36 44 39 29 26 29 33 30 33 29 41 26 35 41 29 29 33 33 34 39 45 39 28 34 25 31 34 50 37 32 25 39 36 30 29 28 28 30 30 33 25 41 32 27 30 25 33 29 46 38 26 23 40 35 27 34 31 40 41 39 37 36 31 26 45 30 32 23 37 32 25 31 29 39 30 33 29 31 32 33 40 36 35 31 29 20 41 40 30 31 30 36 27 35 28 32 36 43 27 29 33 28 34 36 27 42 45 38 33 35 27 33 28 21 38 45 26 38 30 31 33 24 27 24 25 31 28 34 26 35 44 31 25 22 28 30 28 30 34 31 38 35 38 36 36 32 28 29 29 29 27 30 44 34 20 46 27 30 25 26 29 24 32 30 44 45 35 35 27 24 30 49 20 28 25 26 29 35 23 32 38 33 32 30 36 36 35 29 39 26 23 35 32 31 29 37 26 30 37 36 41 30 23 40 34 39 40 23 36 33 32 46 40 25 27 29 29 35 27 23 30 39 31 44 30 33 39 30 44 38 25 35 35 32 39 33 26 29 24 38 38 19 26 28 35 35 38 30 28 34 31 24 32 28 32 25 38 39 34 40 27 38 17 20 26 42 35 27 27 29 34 24 34 40 31 35 38 26 29 32 32 32 29 26 30 27 34 29 32 30 38 26 36 44 26 32 28 34 24 36 41 39 40 43 30 27 26 26 27 29 52 28 35 39 34 24 39 38 25 41 19 33 43 30 31 31 27 31 38 30 23 34 34 27 37 35 33 31 34 30 34 33 30 19 38 27 26 31 35 34 38 34 36 38 40 46 39 21 34 34 38 26 34 39 31 37 27 29 26 34 23 30 30 35 29 33 38 21 32 26 26 40 44 33 38 36 40 28 29 30 30 28 38 40 27 39 22 33 36 28 32 32 27 37 35 38 30 41 24 29 33 24 38 39 37 28 28 30 38 34 41 27 29 28 27 33 29 30 30 41 31 36 27 33 33 28 40 21 33 29 44 31 30 33 26 39 34 23 30 25 30 22 46 32 35 34 35 34 25 33 35 42 35 33 29 40 36 31 28 38 33 32 33 24 23 27 35 29 36 20 31 36 33 29 28 39 39 25 33 19 23 34 22 38 23 29 33 39 41 30 43 25 25 35 41 30 36 36 29 24 35 38 29 37 32 18 31 36 30 30 26 34 32 25 42 35 31 29 24 29 26 31 36 36 26 38 31 28 33 39 32 31 23 29 38 26 32 33 25 27 40 31 22 28 30 38 33 27 28 33 32 38 36 35 30 41 31 50 35 39 38 22 38 31 27 32 32 36 25 41 47 39 29 23 30 35 41 37 33 22 29 35 31 37 35 35 30 22 28 38 30 29 27 35 38 33 27 31 33 34 32 34 39 28 28 25 29 32 27 30 37 30 32 31 37 23 34 29 31 45 39 28 25 33 21 37 27 35 39 33 34 19 37 27 34 33 38 32 39 33 22 34 43 38 36 53 26 25 32 31 31 50 31 31 28 37 29 24 44 29 35 32 30 27 34 30 37 29 31 26 28 32 43 29 35 25 37 36 40 24 30 34 31 25 29 34 37 23 35 28 33 24 34 30 37 33 40 29 27 34 34 32 43 33 25 41 36 31 27 39 30 24 22 33 32 31 32 35 30 32 31 26 22 31 29 29 33 36 34 33 34 26 31 37 22 29 36 30 40 41 41 24 32 31 39 25 33 31 38 35 40 27 32 26 39 32 33 33 26 35 33 35 34 24 37 26 29 44 33 31 35 31 34 39 33 37 20 22 38 32 38 30 28 31 34 26 41 37 43 39 27 36 26 28 29 32 35 25 28 40 30 30 37 33 31 39 27 32 32 29 33 30 30 24 35 38 32 31 28 37 34 34 36 36 30 46 26 22 27 42 30 31 37 30 27 38 35 44 32 35 30 30 24 28 37 39 26 28 31 31 43 25 30 35 28 28 37 26 26 35 35 31 24 26 35 33 42 35 35 35 38 35 28 36 37 33 22 30 37 26 24 27 28 39 25 38 33 30 32 32 29 37 36 33 39 30 29 40 26 30 36 29 23 29 27 41 35 34 34 28 36 34 29 43 26 27 31 31 31 31 36 32 34 23 41 29 31 39 34 28 26 34 40 32 25 33 33 24 48 28 38 31 30 29 27 29 40 35 38 26 33 32 33 30 42 26 27 33 34 26 29 34 32 42 41 30 35 35 31 47 38 31 28 28 38 31 36 22 31 30 37 30 28 28 32 30 36 27 32 32 25 30 35 32 32 34 41 31 33 32 30 39 27 37 38 30 35 31 28 30 37 37 24 37 36 37 33 33 35 43 36 24 42 31 29 39 29 41 34 34 41 31 34 31 35 43 34 38 35 45 45 32 41 28 42 28 31 25 30 28 31 28 28 24 25 26 32 39 31 32 37 22 35 26 28 30 35 29 25 42 37 33 19 41 35 31 45 29 19 35 32 28 32 34 35 35 41 30 41 33 40 36 37 28 32 34 33 35 33 32 33 38 27 26 33 37 23 40 40 38 38 34 31 28 37 39 22 37 28 32 45 41 37 33 31 33 35 29 32 31 19 42 39 28 35 27 26 25 32 30 28 37 42 45 32 28 29 32 37 28 44 31 32 37 30 45 28 46 36 31 25 43 22 45 23 36 31 32 47 27 29 26 39 41 28 39 31 34 29 42 26 33 33 38 40 30 22 34 29 23 33 29 38 30 39 29 31 26 33 40 33 31 34 28 41 26 39 28 30 35 34</t>
+  </si>
+  <si>
+    <t>JSU(-11.271269317868594, 10.336952132382056, -175.04966093247208, 304.28393927393483)</t>
+  </si>
+  <si>
+    <t>206 239 158 193 195 222 192 234 252 301 178 278 249 391 292 304 231 252 252 233 236 256 193 234 227 236 180 300 316 236 198 179 268 328 191 185 259 224 138 254 202 181 321 174 164 242 211 243 235 299 155 169 237 252 246 265 211 253 271 233 225 218 168 172 165 219 335 222 170 204 215 196 214 189 236 240 212 174 229 194 237 118 219 232 252 331 243 206 228 356 131 291 285 244 225 159 218 249 192 183 161 168 272 288 227 350 254 216 261 197 234 179 222 311 247 279 280 205 230 356 163 181 255 253 227 130 247 263 118 269 171 233 147 291 265 199 263 226 146 223 256 239 225 298 189 217 233 263 254 251 280 196 233 304 252 270 322 253 249 185 210 241 175 174 166 290 216 278 209 151 241 153 312 274 222 276 272 307 247 192 328 154 276 248 219 216 188 383 207 293 224 268 246 132 176 233 224 328 236 286 236 175 177 281 226 175 227 174 288 216 272 282 165 271 166 266 285 156 128 185 160 233 206 217 233 250 311 277 213 220 210 124 195 221 256 153 185 278 237 238 197 207 169 266 193 171 303 243 186 206 263 165 254 282 209 240 234 100 279 268 243 290 180 224 225 216 114 191 150 284 278 314 190 235 272 318 189 228 195 170 206 162 336 191 239 287 265 228 305 150 206 270 210 230 251 185 228 281 332 149 226 269 175 187 211 224 184 238 291 206 196 199 228 332 163 212 281 141 225 313 175 160 275 279 345 276 180 176 252 273 222 104 240 151 207 201 170 243 195 273 220 209 237 301 192 218 99 150 167 314 142 291 165 186 147 296 187 132 207 266 237 231 255 171 210 203 263 231 257 177 288 156 223 254 253 211 363 161 255 299 180 256 229 243 172 179 282 219 302 270 321 321 263 263 172 281 265 223 221 230 192 138 287 132 269 225 201 257 239 230 258 156 236 254 231 194 349 201 272 254 185 244 277 293 183 189 286 248 215 289 324 229 317 201 253 187 140 306 256 233 230 159 200 222 150 179 232 210 250 217 244 187 137 216 217 286 310 203 162 235 163 198 133 264 299 268 304 159 231 312 279 172 206 163 181 286 295 238 209 266 187 155 245 198 254 155 192 168 353 237 262 160 229 206 340 238 215 187 191 286 260 170 156 308 159 219 222 258 269 199 296 318 268 231 161 261 206 323 161 232 241 182 206 184 145 174 269 295 209 227 300 227 238 233 237 217 234 265 203 188 228 175 209 268 292 215 334 283 162 181 199 343 211 179 241 229 195 230 177 263 124 199 208 279 230 242 265 192 191 194 238 247 190 245 213 246 217 230 291 230 248 337 326 278 229 295 228 279 166 211 108 239 307 295 238 184 240 115 220 277 298 294 189 222 233 251 375 119 252 269 274 231 187 236 145 239 206 130 149 241 238 139 268 267 251 258 235 189 365 254 279 305 236 225 269 222 223 265 355 258 239 209 325 232 292 329 249 231 203 219 289 227 249 248 164 190 304 213 246 233 186 150 173 261 319 244 212 210 220 356 142 310 161 227 223 172 265 183 305 229 208 283 232 247 177 165 277 264 190 238 211 193 211 301 253 266 250 255 216 231 213 151 145 156 173 217 278 246 313 188 224 208 207 315 242 310 257 259 250 354 279 164 332 266 311 277 217 126 288 198 315 338 213 146 287 248 300 262 180 203 203 175 222 231 176 235 188 258 279 208 180 248 177 244 305 271 219 189 217 196 246 261 207 202 248 304 227 236 249 262 167 200 150 197 238 188 226 208 324 224 225 283 176 171 218 223 159 275 191 266 173 210 225 179 237 204 278 231 265 169 155 232 212 190 152 188 233 228 273 240 259 210 202 175 216 285 128 211 277 268 215 304 229 249 198 219 184 183 274 112 272 276 141 245 227 280 264 320 246 226 136 221 165 255 179 164 261 192 238 178 266 207 259 262 190 277 310 239 155 232 250 177 211 233 263 232 209 327 202 364 284 250 250 194 277 207 225 259 215 148 207 171 303 291 187 213 295 193 204 168 199 291 234 245 309 176 286 190 190 255 221 266 203 128 221 166 119 286 249 313 166 221 366 267 220 277 148 160 272 320 244 202 243 255 194 218 134 228 224 224 286 179 200 185 223 233 255 153 243 229 273 211 290 181 284 224 284 278 202 286 316 218 159 196 214 276 238 213 252 277 232 198 307 250 126 126 291 239 185 243 231 281 218 207 201 205 188 173 222 200 147 273 246 210 223 181 353 202 208 215 298 209 216 316 253 235 247 168 211 188 262 294 181 244 257 189 237 264 257 219 286 224 270 263 168 259 256 175 314 189 228 291 171 275 207 233 254 264 203 243 270 221 274 184 259 184 280 185 249 202 147 263 194 196 276 272 211 198 238 267 226 204 241 226 268 195 263 248 216 259 249 123 197 128 171 262 248 218 265 181 184 157 226 294 323 223 178 176 195 266 330 276 259 255 103 222 185 187 200 187 205 258 158 185 279 339 123 250 248 198 244 223 239 215 183 276 218 248 244 235 176 295 188 261 190 144 169 240 230 165 222 288 265 238 225 236 237 230 231 241 183 246 255 235 284 183 254 189 273 227 210 283 236 343 196 172 310 243 135 291 236 264 198 239 234 205 202 252 207 183 198 208 276 280 210 237 303 177 209 203 186 231 173 247 242 193 155 168 122 192 309 200 248 318 169 302 265 217 250 264 255 250 284 258 262 169 288 202 207 313 168 214 291 235 235 221 138 192 164 210 299 269 182 283 270 152 198 206 261 266 291 188 308 222 208 262 157 173 280 243 197 175 224 188 290 186 357 175 121 247 205 276 226 329 208 242 185 284 177 199 162 193 197 208 163 259 196 237 319 287 241 234 248 247 265 180 183 214 227 242 188 214 317 215 364 220 221 215 218 193 161 181 146 252 163 306 224 214 139 184 177 179 226 223 242 259 256 315 270 245 217 252 262 199 221 255 160 239 221 135 156 289 243 365 281 208 252 238 278 344 179 220 245 224 213 267 251 252 233 208 271 168 280 303 268 231 168 189 209 211 293 290 189 192 209 299 288 135 185 270 226 150 199 269 249 266 286 162 188 296 197 275 163 231 165 256 196 190 166 291 227 278 186 298 232 327 210 218 158 280 218 188 120 265 282 136 179 235 208 275 156 199 207 260 200 227 235 263 225 298 252 215 188 353 285 163 255 231 134 294 181 196 256 230 222 246 219 265 189 253 164 246 257 239 114 139 224 275 173 199 260 338 227 189 246 193 220 187 261 227 246 248 228 258 252 266 194 212 230 295 246 129 250 173 243 145 192 172 290 199 265 215 259 271 221 189 285 303 209 320 246 317 235 206 211 185 261 202 141 216 259 172 259 283 241 262 292 243 291 270 283 225 238 262 270 219 243 199 264 216 114 189 206 160 212 205 264 216 158 181 200 258 219 171 173 165 186 221 309 252 264 167 304 221 208 161 236 238 265 148 139 313 232 260 160 269 252 221 258 223 176 263 199 231 260 309 208 181 297 175 236 234 310 223 259 277 164 208 227 236 196 231 333 155 222 206 298 218 253 228 400 296 167 201 220 254 201 226 246 187 240 264 143 317 128 244 297 218 290 184 276 186 234 215 229 281 165 97 287 255 196 222 271 265 233 210 248 155 258 271 192 274 269 172 235 252 383 305 222 285 201 143 225 238 237 275 258 167 286 232 344 295 275 164 186 197 231 231 224 254 279 199 197 288 205 207 190 193 198 243 211 221 311 356 308 246 161 279 209 241 359 273 161 181 154 305 247 263 175 217 255 229 284 221 180 202 267 153 175 168 178 148 251 233 165 209 187 244 161 221 129 304 250 247 289 283 216 175 200 259 277 249 237 277 331 184 260 263 290 280 198 258 288 200 178 146 220 232 254 227 111 225 287 210 298 265 215 138 216 142 156 373 301 256 244 302 169 235 233 223 189 207 276 220 230 278 213 214 139 257 256 281 216 166 212 244 181 248 244 241 192 218 237 284 209 217 117 284 115 224 244 174 151 246 285 221 202 259 273 113 231 207 234 275 258 228 255 226 266 297 223 256 237 216 241 163 183 198 205 223 221 333 223 188 234 346 177 149 242 178 301 224 225 286 180 118 190 296 262 223 161 238 286 217 189 280 199 201 214 125 297 248 201 214 255 236 220 289 263 228 241 199 226 287 219 179 241 225 219 247 242 184 220 240 269 236 285 136 265 231 240 176 212 205 290 243 163 253 156 239 236 208 197 230 182 245 172 219 241 100 211 184 279 212 268 182 199 171 269 203 276 273 254 241 261 191 223 290 198 208 248 185 257 220 178 252 191 266 260 225 278 231 184 247 191 222 140 321 203 216 253 265 247 120 274 260 280 212 202 284 270 186 295 257 263 214 169 208 273 247 219 179 202 259 194 243 214 133 144 201 169 172 267 171 228 381 221 183 301 153 221 227 256 288 318 210 158 247 207 189 214 176 237 215 140 177 276 215 172 190 216 196 299 212 274 210 241 183 221 214 188 106 239 159 248 243 201 278 248 307 168 187 200 258 285 213 231 202 278 262 260 297 199 247 264 268 260 191 246 246 171 190 190 230 232 169 193 228 242 285 210 232 223 227 185 235 275 321 229 373 211 178 210 180 250 268 224 352 185 220 228 244 151 282 233 278 184 174 253 280 290 190 170 241 203 209 176 211 310 266 248 243 135 250 173 179 172 241 195 242 134 202 235 277 327 216 206 202 187 258 165 200 223 239 251 180 342 278 259 251 183 178 278 272 122 297 203 195 199 209 208 193 234 304 249 220 197 171 260 305 196 65 241 335 125 186 148 316 218 169 212 178 216 173 242 196 240 169 260 252 201 311 127 236 190 365 134 249 247 222 223 182 283 252 225 291 255 294 139 170 203 196 267 240 263 210 229 293 222 227 175 263 274 231 220 177 202 279 265 194 208 246 188 220 222 279 274 174 211 142 181 185 275 118 243 148 197 152 281 153 179 260 244 223 139 176 180 167 329 232 211 264 272 228 258 260 297 251 279 213 217 310 258 240 308 218 153 241 208 259 251 184 215 221 246 209 222 248 175 247 263 253 302 226 226 196 249 182 234 151 211 176 239 214 255 208 214 189 169 241 253 248 226 250 276 301 162 308 215 215 328 236 178 197 321 297 247 228 210 317 211 213 242 269 205 213 186 160 178 233 180 259 218 410 259 221 252 223 253 244 247 168 238 225 265 319 220 234 209 101 222 233 300 216 277 135 258 291 314 314 196 209 264 268 185 232 197 193 115 248 180 215 235 189 283 293 241 241 230 244 184 169 213 189 302 189 323 197 145 226 245 253 250 191 169 201 271 199 176 143 150 292 186 218 210 153 182 209 180 211 260 350 239 231 209 132 248 248 256 182 127 221 253 287 346 274 290 200 280 226 234 243 237 296 194 200 173 283 304 323 243 195 144 156 175 348 229 153 261 285 224 242 197 191 132 245 216 202 306 206 188 333 153 278 221 188 241 163 216 302 190 218 261 200 213 175 175 170 172 214 159 138 210 266 263 213 213 173 300 315 194 231 197 224 276 167 222 251 313 268 162 221 165 238 204 149 228 179 191 202 210 244 253 209 144 191 192 237 336 270 273 345 282 264 157 203 253 221 249 177 258 247 216 244 211 215 241 224 275 239 282 186 336 266 233 160 236 268 233 229 245 365 109 179 233 132 208 133 192 286 221 216 156 256 200 182 216 181 221 203 177 180 248 262 164 243 207 290 216 251 187 240 200 206 246 297 212 201 228 183 144 269 200 229 362 185 221 273 166 168 212 216 207 150 197 272 179 167 224 134 308 298 226 220 209 153 256 253 175 137 255 266 207 146 255 271 226 180 233 264 275 317 184 186 125 293 233 168 163 230 194 280 181 345 406 180 276 187 212 214 180 257 216 159 242 261 253 85 89 198 245 208 204 169 257 305 175 257 163 192 307 259 238 220 275 240 192 207 187 290 277 265 180 213 291 249 272 202 182 134 178 263 197 233 237 254 173 368 225 194 238 232 156 261 250 180 205 209 274 229 249 246 225 304 205 211 321 268 170 283 285 265 245 234 206 259 276 230 279 279 273 230 233 247 174 248 196 246 141 185 310 305 256 222 223 256 248 185 325 195 257 254 245 206 296 209 137 220 249 105 144 309 179 290 163 197 300 257 213 253 256 239 166 232 261 275 262 237 261 222 229 181 233 281 237 188 233 233 231 111 254 322 217 213 205 325 183 197 279 267 268 214 168 240 201 287 221 262 113 217 300 187 233 248 262 213 254 214 315 191 175 180 267 159 182 216 269 184 249 206 250 211 233 217 233 198 241 238 235 226 240 211 231 215 246 228 203 268 162 165 297 266 175 214 164 270 299 210 170 191 167 257 184 300 211 251 296 192 244 207 194 254 235 197 216 227 284 225 242 210 255 322 223 258 308 262 206 312 265 224 240 212 199 211 174 171 303 207 134 166 191 269 228 386 135 220 231 218 187 214 252 247 182 219 272 183 212 293 338 261 211 269 250 136 294 290 235 176 169 214 252 190 135 230 238 209 236 177 234 286 244 187 205 306 239 309 248 136 263 178 274 330 228 341 251 173 301 198 271 134 151 274 230 270 243 186 234 198 151 193 196 227 297 224 200 158 239 171 200 111 310 263 160 266 219 235 235 293 241 198 239 233 233 219 310 222 163 255 191 245 295 252 306 265 238 187 288 156 175 260 224 284 199 192 223 227 181 223 197 248 178 235 218 280 147 289 219 169 217 240 222 243 230 301 233 205 268 279 203 261 208 181 169 253 185 136 203 209 238 259 165 233 270 249 142 189 218 187 218 182 256 225 214 360 283 181 360 199 212 188 244 207 261 184 201 225 202 169 216 258 259 175 223 186 235 286 378 231 264 252 269 113 261 351 137 218 183 193 271 280 247 169 195 260 209 145 204 134 319 226 189 206 242 233 163 207 249 236 191 331 220 237 180 282 170 211 232 197 314 302 209 269 221 217 232 157 159 152 194 239 302 238 271 302 231 279 190 252 217 193 218 188 332 285 263 220 261 175 296 164 226 221 327 198 284 252 248 271 364 183 213 292 162 204 163 223 227 243 342 235 313 250 278 200 206 188 240 219 267 287 170 215 259 341 224 261 238 321 237 263 198 243 220 168 183 184 250 239 219 232 190 229 237 127 292 118 193 320 196 129 193 269 291 188 275 207 272 227 115 266 239 234 201 231 294 267 277 166 231 256 225 260 211 260 233 292 143 247 275 209 256 191 156 222 227 295 225 276 184 293 146 277 255 241 133 202 198 180 224 237 143 167 254 158 165 175 235 212 230 215 253 316 221 294 233 149 311 208 194 195 164 214 237 268 177 252 244 337 227 252 356 229 240 243 183 307 287 234 265 237 256 228 146 288 208 241 133 279 137 239 209 241 146 243 189 304 229 257 201 247 250 225 157 256 189 135 145 275 168 191 250 328 257 203 186 299 178 226 189 216 224 190 207 261 167 208 205 280 136 124 284 239 246 248 158 182 251 232 115 191 287 181 351 215 84 199 165 289 214 275 260 244 267 176 264 207 199 272 188 178 211 220 296 292 275 141 224 330 282 244 177 276 217 294 250 271 296 243 192 236 276 225 182 312 192 233 235 236 172 178 220 190 196 195 254 241 235 227 281 289 255 256 224 182 243 183 248 123 233 195 225 201 131 211 235 213 223 256 256 204 196 229 265 248 218 227 218 238 298 216 152 248 255 222 271 222 216 204 319 228 159 203 210 337 270 210 252 227 251 179 202 216 300 209 188 244 253 211 229 277 143 210 186 181 247 176 148 281 244 366 257 271 204 330 115 163 319 201 224 232 225 120 273 164 193 342 163 151 246 236 214 256 159 281 265 280 182 136 193 258 205 153 274 275 290 195 220 227 176 254 136 240 264 220 185 233 184 257 237 205 247 212 217 312 273 234 263 223 343 245 251 303 176 277 244 221 311 174 235 117 196 293 240 219 244 207 267 267 322 141 160 211 223 235 298 159 264 268 280 246 275 250 204 215 196 227 171 222 182 321 284 220 133 303 217 208 170 239 223 245 254 208 248 256 204 344 267 209 244 180 266 216 165 213 182 231 341 265 113 203 210 199 314 247 195 246 228 240 223 256 212 173 315 195 194 248 314 148 155 292 229 216 152 241 185 221 225 192 290 191 282 128 224 250 221 258 322 165 232 199 203 177 176 248 230 225 191 251 211 328 227 190 191 264 195 283 232 175 188 311 372 201 243 235 271 249 220 153 298 315 232 130 214 227 217 267 250 195 233 208 225 196 297 154 237 145 200 296 239 194 215 258 213 269 228 235 253 235 245 219 223 217 323 279 215 227 134 316 212 334 159 302 139 172 282 142 233 221 113 226 181 273 288 193 195 226 273 237 121 192 247 280 197 209 262 182 230 227 222 209 411 217 259 236 238 150 196 213 266 250 191 306 227 245 201 247 303 264 185 304 264 226 229 201 200 224 183 230 297 229 234 227 249 208 239 208 147 177 181 232 183 238 133 184 150 304 186 203 253 208 182 175 218 241 240 222 230 266 194 149 275 250 215 305 193 179 233 174 268 267 239 228 187 208 262 209 211 235 193 201 197 215 223 273 161 150 256 198 237 277 138 187 278 157 221 267 305 195 201 260 207 216 250 255 212 214 207 212 184 240 202 242 220 214 259 253 176 151 194 250 221 156 153 243 189 257 289 199 308 175 248 257 168 248 228 303 242 227 233 190 229 180 196 207 221 239 257 226 203 256 138 216 222 170 207 303 317 186 151 242 188 179 276 325 215 224 278 129 194 245 270 203 255 216 256 287 242 250 224 211 174 265 193 166 231 215 253 159 277 273 335 187 248 204 284 263 234 262 286 221 366 199 267 206 167 243 167 272 177 304 238 236 316 214 288 298 235 243 191 246 187 280 210 206 201 276 227 178 244 220 208 250 174 213 140 205 237 262 292 239 205 291 249 134 248 231 320 203 150 146 256 221 306 120 193 262 194 258 203 232 188 203 190 294 269 152 345 188 232 225 200 187 265 217 223 175 186 344 262 229 232 205 241 222 350 164 170 193 249 281 297 184 228 177 238 178 231 195 209 217 257 267 251 187 163 349 119 238 187 152 216 314 265 227 305 192 220 222 274 122 160 214 203 131 305 307 205 306 283 222 306 236 277 244 317 250 272 191 210 283 264 190 164 258 284 222 235 244 230 241 244 240 162 233 197 187 255 189 159 148 271 282 305 244 169 268 297 197 207 199 275 247 246 113 178 249 177 227 183 152 143 148 214 207 179 209 230 303 232 204 275 184 221 249 284 207 238 154 278 303 163 150 217 251 158 248 190 191 202 213 285 203 302 233 262 330 165 246 140 182 183 151 151 138 294 224 182 196 261 208 188 410 181 220 199 222 207 232 205 242 182 242 218 217 115 212 165 332 293 259 189 183 293 272 251 235 262 215 260 273 241 261 206 232 224 179 142 223 263 275 165 270 224 151 256 250 157 270 265 246 291 312 300 246 199 150 218 291 273 182 252 217 304 278 199 183 244 281 260 233 297 260 180 281 264 230 243 137 247 319 262 268 186 164 150 171 200 241 210 330 211 161 137 233 194 157 294 233 251 214 285 206 241 310 294 281 195 248 191 214 239 186 196 327 201 221 139 161 159 141 327 164 279 332 269 149 213 248 291 215 204 114 235 210 167 223 158 271 274 250 171 135 194 271 197 260 276 221 314 188 299 206 168 285 269 240 257 250 181 153 281 204 177 160 221 168 259 164 225 180 271 264 221 211 225 212 254 256 199 214 117 247 183 230 210 246 156 327 263 225 184 149 137 266 138 275 241 193 199 200 223 224 142 279 254 224 235 210 233 243 171 248 296 183 195 200 279 243 164 197 296 258 221 233 348 307 216 248 217 182 206 201 286 310 258 200 205 278 200 262 190 277 324 317 248 222 175 119 305 191 318 142 185 275 255 165 283 306 136 173 180 248 185 168 200 240 197 233 279 140 292 245 187 180 192 253 174 187 170 256 205 344 281 156 301 227 238 299 217 258 229 339 292 219 336 168 192 259 279 294 255 255 196 114 185 165 177 192 215 279 304 274 239 268 284 265 207 188 134 216 233 195 153 294 234 226 267 235 227 150 323 159 232 174 185 254 250 246 154 265 296 281 175 254 218 281 187 241 187 198 184 276 138 250 220 314 221 182 198 348 231 244 206 200 244 220 248 151 243 174 277 238 249 300 219 386 109 292 278 257 255 332 277 247 235 268 245 212 193 201 251 226 251 176 193 207 211 180 130 203 228 210 295 192 204 278 200 184 214 240 197 244 299 248 169 318 224 271 201 230 186 271 302 284 149 210 141 212 284 217 194 207 286 216 239 245 266 250 194 355 266 257 209 225 205 258 234 256 272 300 233 190 275 189 219 246 416 227 236 257 176 296 141 237 208 283 183 218 240 249 239 158 268 209 342 266 262 234 249 173 217 207 282 252 287 202 172 133 313 248 235 265 159 185 231 336 250 314 218 225 199 245 223 257 249 254 207 178 220 205 324 129 169 221 158 200 215 202 220 193 264 138 240 294 170 193 248 197 222 298 173 255 128 206 195 160 207 226 151 232 212 220 203 176 210 255 219 239 283 215 229 277 179 252 182 248 219 262 258 267 249 263 230 133 166 179 232 230 287 250 166 259 274 217 298 236 169 220 189 252 295 256 253 261 214 240 250 256 220 250 151 348 219 209 191 328 237 232 231 269 203 253 233 299 231 170 100 259 259 247 129 171 233 322 264 184 194 290 212 182 211 135 154 204 267 265 230 258 190 286 199 217 184 257 310 278 213 291 169 212 207 228 231 223 305 244 259 224 272 350 215 210 170 256 171 306 266 178 170 166 228 281 288 278 180 253 241 184 385 342 246 214 193 231 224 193 254 238 310 169 175 310 243 164 218 147 190 222 266 212 259 206 224 251 295 134 196 182 221 179 307 175 193 201 249 226 229 294 215 254 136 231 189 243 249 190 283 177 194 173 199 227 207 233 157 205 227 230 205 154 285 304 284 299 255 311 220 222 200 176 281 170 243 175 242 206 252 214 203 321 256 211 228 332 319 267 236 217 183 231 224 256 191 296 180 261 201 181 253 314 187 278 232 243 203 249 223 249 215 201 267 199 172 263 205 236 198 187 266 219 266 189 242 290 220 243 191 225 281 188 254 196 283 227 265 263 199 188 202 309 174 133 193 163 211 292 283 192 230 155 239 213 190 259 208 252 220 214 198 229 254 192 195 255 198 207 159 235 232 237 264 304 184 277 179 280 334 260 228 202 183 190 394 134 211 271 205 290 182 172 203 208 243 235 286 262 220 180 223 223 228 150 234 196 156 285 230 163 247 212 233 198 195 186 294 281 309 135 207 184 198 270 218 164 145 155 188 260 242 154 190 223 168 172 237 196 219 182 229 304 182 223 206 252 222 352 399 240 221 185 235 228 238 144 154 157 239 204 204 203 259 268 203 218 215 249 222 216 302 151 214 267 175 175 222 230 249 201 295 201 194 229 334 261 236 123 191 224 221 263 228 280 179 185 242 324 290 271 278 185 214 213 192 327 255 219 289 195 212 176 138 271 207 283 190 277 234 125 219 351 274 248 222 210 157 198 185 215 292 282 161 191 274 263 262 161 225 139 222 244 244 272 247 242 245 199 342 227 177 226 182 172 210 185 250 271 198 198 227 254 266 164 294 256 241 342 218 154 249 212 304 225 154 219 175 226 197 124 212 259 224 187 281 172 216 204 288 373 296 209 321 201 183 294 240 175 287 188 276 219 191 234 295 272 212 316 210 243 191 205 254 233 218 164 214 195 268 168 264 141 214 186 310 191 227 192 198 185 223 202 183 297 189 245 169 233 202 210 198 228 238 228 226 222 237 259 212 215 199 131 268 152 213 135 211 311 280 214 212 258 251 281 206 310 331 222 116 267 271 270 331 294 224 238 265 363 174 211 190 246 228 186 206 198 151 221 189 220 230 218 289 214 266 229 245 171 211 180 250 246 252 305 257 169 258 155 212 172 270 337 228 211 224 244 216 294 252 269 208 214 308 226 379 181 123 222 201 157 164 282 228 211 233 257 222 261 183 196 226 239 234 222 166 180 239 271 218 199 269 196 230 385 302 337 194 276 163 249 206 241 202 175 280 183 203 265 177 211 285 251 170 187 290 219 207 235 287 196 179 195 232 308 189 292 193 215 179 225 255 209 285 227 163 200 154 222 209 199 262 125 229 216 195 197 273 289 229 177 202 309 182 226 243 221 294 191 125 216 207 203 223 193 287 169 109 249 208 183 247 212 207 183 263 228 247 250 199 220 230 255 258 233 254 313 201 283 210 296 280 214 231 241 204 234 238 364 179 226 301 239 207 220 176 186 205 199 281 199 273 220 219 247 160 221 187 271 197 219 185 213 178 223 257 250 214 247 228 188 243 222 279 337 411 318 280 243 240 202 175 272 199 216 185 198 253 186 212 193 233 148 228 208 230 187 248 227 244 189 213 170 225 220 229 181 245 182 297 302 185 191 134 148 224 196 218 292 227 148 292 172 247 337 221 336 219 221 288 239 235 199 196 246 200 229 203 249 231 216 237 219 216 237 155 160 132 220 246 265 301 223 185 206 216 131 189 321 364 168 239 187 246 131 187 246 255 271 169 269 211 130 391 220 266 212 289 227 222 228 263 304 242 179 226 222 296 223 256 213 161 292 225 299 219 181 191 226 283 259 215 234 255 234 193 280 293 293 199 199 217 103 199 216 277 265 236 204 221 439 252 272 172 213 222 316 281 177 253 144 315 251 234 348 275 269 245 241 195 200 207 253 198 225 183 289 138 249 190 347 240 344 253 203 187 234 240 280 250 209 178 332 235 154 145 247 171 215 218 201 271 248 142 180 259 234 310 169 201 230 259 253 237 216 231 261 205 248 236 241 182 213 192 314 194 225 194 378 180 184 236 265 164 171 295 231 198 203 281 240 226 196 220 214 327 205 206 234 196 278 231 229 194 242 191 216 272 265 248 227 283 213 188 212 229 217 118 260 190 221 255 254 227 279 300 405 343 293 227 270 263 288 284 246 229 225 329 192 242 230 153 297 240 262 237 195 253 173 237 263 297 264 279 220 175 230 263 185 280 236 240 227 154 183 273 217 217 150 141 200 214 217 180 177 256 262 153 217 193 264 192 254 234 202 274 235 234 194 310 166 245 214 181 322 285 206 233 204 155 196 183 328 207 200 162 168 263 226 344 266 214 265 234 228 279 241 244 279 251 274 185 229 144 190 249 165 225 172 170 97 301 139 250 251 236 214 244 252 248 256 218 174 129 194 116 237 198 162 303 264 215 145 171 229 287 166 206 216 193 164 251 159 250 317 211 274 224 272 241 280 217 197 245 189 174 207 170 175 261 263 234 209 307 265 208 229 253 277 212 202 206 205 302 199 312 274 274 172 182 153 143 168 152 201 313 204 185 192 236 345 192 229 257 167 265 243 355 217 224 313 215 223 177 97 150 292 196 237 197 198 171 213 237 214 309 185 219 216 166 159 274 209 299 154 264 206 217 267 152 247 221 203 246 230 187 294 309 246 228 138 192 296 196 204 255 321 191 184 192 225 137 240 227 253 253 218 216 274 197 235 256 255 160 169 247 216 249 268 284 235 296 271 143 175 239 185 174 286 248 248 178 193 164 209 288 255 149 196 190 193 199 206 271 260 323 206 217 290 236 260 208 181 291 242 217 261 242 154 166 263 205 180 316 202 203 310 229 197 264 250 425 237 308 173 170 276 198 267 199 234 181 200 209 272 219 294 256 187 262 233 180 189 245 333 174 332 183 227 251 231 264 262 202 272 263 298 199 233 327 203 204 261 246 160 175 183 182 136 367 284 251 193 208 165 159 218 246 218 296 209 246 176 231 90 271 228 171 174 131 299 232 194 212 283 207 270 208 214 250 288 287 195 289 227 304 258 286 188 303 311 144 236 204 332 214 278 215 201 223 265 284 165 321 286 280 234 214 228 210 242 200 257 245 181 233 250 221 232 244 252 250 220 249 176 168 334 276 192 217 245 163 184 278 301 192 207 295 198 224 205 264 215 224 289 192 216 192 247 290 136 267 206 264 348 210 140 275 225 189 199 115 315 120 229 278 267 245 209 145 220 222 238 265 147 216 265 145 217 207 204 339 245 174 239 276 189 243 270 260 239 323 165 186 209 245 252 175 174 175 197 165 211 218 197 163 194 286 288 196 204 222 238 158 235 172 172 206 232 167 237 191 184 142 289 182 347 167 201 228 229 256 288 241 233 273 196 217 174 231 177 196 207 226 176 195 252 217 139 254 256 213 260 344 212 200 189 231 202 196 205 225 298 178 188 229 249 185 270 201 183 257 292 213 238 263 250 145 200 234 158 119 218 331 344 219 201 223 185 199 168 287 225 241 202 254 298 280 237 352 270 225 218 191 272 218 281 182 307 171 149 274 209 285 223 266 269 140 235 286 171 282 278 317 164 205 245 245 303 354 184 234 305 239 185 225 276 247 171 251 211 280 92 189 180 211 214 193 190 225 290 271 182 280 209 150 284 185 266 231 233 111 301 217 279 205 230 234 128 234 323 220 283 201 185 281 258 234 255 253 243 297 199 187 259 221 154 281 192 211 207 206 194 276 126 287 252 249 275 269 157 253 253 201 239 163 266 219 162 261 237 220 187 277 192 256 308 149 146 216 224 319 231 252 151 208 147 268 142 193 225 190 268 160 277 237 170 235 243 236 217 350 220 200 290 286 169 230 228 223 148 228 179 271 197 300 121 275 224 190 184 297 159 228 186 346 153 284 180 192 185 248 230 213 217 204 149 251 80 352 190 228 215 250 330 242 196 180 235 240 240 270 108 298 221 185 251 176 312 398 212 221 244 133 224 422 218 257 174 268 177 171 261 231 234 199 145 235 246 275 195 266 254 226 212 220 143 212 217 189 171 261 206 203 206 232 238 259 174 215 333 282 253 155 249 222 187 330 243 276 197 194 200 288 257 212 279 337 167 236 226 219 191 226 217 206 225 231 246 295 293 206 179 178 200 233 238 265 286 245 280 256 198 208 219 244 339 224 304 195 282 292 245 222 232 203 195 217 199 168 207 212 254 296 260 275 139 152 290 248 279 263 239 169 153 263 188 188 182 242 265 236 262 243 231 246 264 216 254 208 239 278 158 254 217 190 203 241 189 132 159 265 199 279 195 245 249 267 245 132 268 151 286 237 213 181 198 243 279 239 185 289 208 325 223 168 188 259 265 273 265 213 279 189 158 247 321 254 183 270 225 283 176 183 259 162 240 129 207 213 287 216 191 201 281 194 277 205 258 260 296 228 206 230 203 261 212 227 200 247 175 274 251 231 167 218 272 192 245 244 208 216 243 213 219 280 158 201 275 209 247 184 211 120 228 264 277 262 160 185 263 222 280 125 184 265 226 171 186 236 212 174 121 315 211 284 216 293 166 173 221 204 199 207 228 262 155 277 174 277 151 253 233 312 145 232 203 159 293 196 186 209 233 258 237 222 319 230 267 219 204 262 172 194 133 278 170 192 335 227 169 205 316 265 332 175 291 144 253 237 235 207 182 175 220 224 251 190 239 161 256 284 212 242 216 278 302 274 246 177 284 144 189 137 227 216 223 214 276 239 230 291 219 215 191 213 224 198 236 154 321 244 221 245 249 272 216 204 228 292 280 298 232 250 167 293 181 274 216 168 186 209 233 228 245 155 245 212 263 303 245 192 259 185 196 223 184 274 222 201 209 145 226 229 257 262 207 219 292 173 207 297 203 123 231 256 203 199 184 299 199 234 270 148 283 211 379 200 206 281 203 199 279 246 219 237 213 364 300 213 144 283 284 232 194 239 273 189 169 281 210 261 279 191 144 285 255 312 206 184 181 252 244 213 292 230 222 276 146 305 167 176 202 245 282 267 285 210 242 174 203 293 304 157 205 186 113 188 286 267 158 214 199 263 210 197 287 265 247 207 239 289 219 297 236 307 250 257 252 177 224 248 238 216 257 257 169 269 217 296 367 224 196 233 203 230 250 232 148 204 208 284 259 275 257 205 278 182 264 244 163 198 198 209 156 145 276 231 173 156 206 223 210 252 298 190 164 287 206 258 302 169 191 159 228 222 205 224 189 148 293 184 174 282 234 167 219 227 194 258 272 245 342 192 260 232 243 184 211 307 150 295 236 213 189 279 235 299 286 264 277 280 247 195 236 250 191 170 255 245 131 196 188 200 205 202 163 266 299 186 257 122 154 232 127 251 275 188 276 291 257 221 165 219 282 271 208 262 241 322 334 250 281 335 169 194 267 317 240 236 167 231 320 267 197 180 224 228 192 226 198 247 230 158 135 302 230 264 194 356 228 183 334 157 217 221 244 187 148 188 242 169 208 257 181 305 234 281 289 217 220 234 243 292 197 104 246 213 119 217 208 221 271 183 237 139 209 252 235 271 172 253 272 306 189 268 188 213 253 227 161 167 163 188 300 230 211 204 192 167 289 309 225 237 248 205 193 220 335 243 233 231 271 229 169 243 180 256 239 236 297 245 236 228 269 192 191 271 154 203 257 207 237 180 288 186 224 268 179 151 199 160 191 168 202 214 229 260 238 213 191 241 244 210 244 192 189 195 236 279 258 219 224 258 212 232 199 359 347 258 301 231 319 321 306 117 220 328 272 339 287 165 267 135 200 291 185 173 124 269 232 224 346 237 256 267 208 202 311 209 232 196 226 240 213 239 246 202 228 204 343 172 220 204 253 260 220 261 361 254 274 235 232 181 273 248 317 277 226 217 194 234 265 185 212 205 294 253 295 238 182 221 192 251 147 340 183 238 334 222 248 346 227 153 237 246 274 163 202 257 208 266 268 307 307 239 225 240 227 188 213 295 216 264 333 242 243 192 276 172 198 171 243 167 189 241 280 208 172 232 174 161 215 283 284 210 191 160 254 320 253 182 186 217 266 157 231 225 256 283 246 223 313 131 178 190 232 320 251 315 236 272 285 223 154 165 256 233 297 182 241 198 289 271 226 200 269 259 268 215 292 158 231 122 177 250 260 238 203 202 204 253 198 175 264 215 213 232 191 257 214 255 160 284 349 327 207 185 241 215 228 299 191 330 314 259 229 240 232 168 285 199 200 237 280 182 180 199 220 230 236 135 219 221 245 260 162 319 226 164 301 197 337 316 215 301 259 297 197 181 232 124 230 289 278 200 213 242 321 248 239 201 195 201 256 213 167 276 153 268 266 279 138 232 203 341 234 217 266 287 315 265 245 218 226 227 163 196 282 202 218 340 285 159 324 191 320 250 189 177 230 221 211 301 272 152 328 323 310 220 309 202 202 175 241 309 170 232 254 261 227 185 271 274 345 326 276 241 302 199 259 191 155 205 198 180 244 257 214 266 254 240 210 168 240 223 171 201 169 297 231 213 122 340 308 138 216 263 225 200 192 268 221 264 185 181 212 209 224 246 241 243 249 262 214 268 258 259 236 196 224 287 159 222 213 155 175 219 198 192 159 318 160 282 238 281 299 203 306 269 264 240 182 333 138 120 259 192 200 235 202 173 222 220 218 203 160 231 191 192 235 191 188 159 260 127 268 174 135 260 195 278 242 250 130 224 192 327 151 238 232 223 232 251 305 166 299 280 256 241 237 167 263 212 120 228 271 294 370 245 225 258 201 165 169 271 243 262 253 206 210 208 173 275 244 248 222 171 191 144 303 241 215 140 252 207 267 290 275 149 180 222 338 230 145 311 181 286 192 243 276 164 277 229 210 247 173 244 204 292 161 217 216 235 261 203 223 194 253 300 246 262 240 130 203 153 186 357 214 290 353 226 181 171 314 264 197 233 189 233 319 110 113 219 181 201 248 271 236 169 285 220 249 238 241 216 187 209 240 143 309 234 225 216 226 118 187 193 215 294 257 205 224 274 181 284 276 286 313 249 295 156 293 278 182 178 197 219 212 263 170 230 208 274 197 218 191 245 231 245 160 245 283 315 204 237 279 260 285 236 167 273 189 340 238 227 244 230 249 320 218 228 333 192 235 218 234 244 175 232 217 312 268 276 266 294 203 191 202 181 234 260 306 217 256 294 158 230 291 132 173 252 206 211 166 184 255 232 293 232 218 168 309 288 237 273 275 177 172 273 204 199 237 242 196 298 247 238 169 230 214 131 253 296 315 311 209 254 341 148 129 185 208 208 279 318 319 166 216 311 211 198 219 180 301 271 316 262 234 249 289 290 187 241 244 236 306 290 259 258 236 227 247 237 190 234 319 199 263 239 230 137 226 159 232 235 353 233 188 210 132 258 296 200 253 279 275 191 241 302 228 264 219 309 205 150 249 222 265 204 192 167 193 204 145 147 261 191 277 218 236 226 190 231 278 275 249 215 253 234 214 205 252 343 201 211 223 213 244 192 204 187 259 297 219 233 313 241 186 261 305 206 204 198 218 227 258 24</t>
+  </si>
+  <si>
+    <t>GAM(0.2496329910049158, -6.96568580078012e-24, 1.2396933597784545)</t>
+  </si>
+  <si>
+    <t>0 1 1 1 1 2 1 1 2 0 1 0 1 3 0 1 2 2 1 3 2 0 1 1 1 2 0 2 3 0 0 1 1 2 0 2 0 1 1 0 2 2 2 1 1 1 0 4 4 1 0 0 0 0 1 2 1 1 1 1 2 1 1 0 0 2 2 2 1 3 1 1 2 0 1 2 1 2 2 1 1 2 1 0 1 1 0 2 1 4 1 0 2 1 1 1 1 1 1 0 0 0 1 0 1 1 0 1 2 1 1 1 3 2 3 1 0 2 2 3 1 0 0 1 1 0 0 1 1 1 2 1 1 0 0 1 0 0 0 2 3 2 2 1 1 0 1 2 0 1 1 0 1 1 2 0 2 2 1 1 1 2 0 0 3 1 1 2 1 2 3 2 1 3 1 2 1 0 1 1 3 0 1 3 1 1 0 2 0 2 4 1 1 0 2 2 2 1 2 2 1 2 1 2 0 0 1 2 1 1 1 2 1 2 0 0 2 1 0 2 1 1 2 2 1 2 1 3 1 2 1 1 1 3 1 3 2 0 1 0 1 1 2 0 2 0 2 2 0 1 2 2 2 2 3 1 0 0 2 2 3 1 0 1 1 1 0 1 0 2 0 0 3 1 1 2 2 1 0 0 2 1 1 2 2 1 2 2 1 1 0 1 1 1 1 0 1 2 1 0 1 2 0 1 1 2 1 1 2 0 1 0 1 3 0 2 2 1 1 2 0 2 2 2 0 2 2 1 1 2 1 1 1 0 1 1 1 0 0 3 1 1 1 1 0 1 1 1 1 1 0 3 1 1 0 2 0 1 0 1 1 1 1 1 0 2 2 3 2 1 1 1 1 1 2 1 1 2 3 3 1 1 1 0 1 1 1 1 3 1 2 1 0 1 1 1 0 0 1 2 1 0 2 1 2 1 2 1 1 2 1 0 1 2 0 1 2 0 1 1 0 1 1 1 1 1 1 1 2 2 3 1 1 0 1 1 1 2 3 1 1 1 0 1 0 1 1 1 2 1 0 1 1 0 1 2 1 0 1 1 1 1 1 0 1 1 3 0 1 3 2 1 0 2 1 1 2 1 1 0 0 0 0 1 2 0 1 0 3 3 2 0 1 1 2 0 1 0 2 2 2 2 1 3 2 4 1 1 2 0 2 2 3 0 1 1 0 3 1 1 2 1 1 1 0 1 2 1 1 1 1 3 1 2 2 1 2 2 0 2 1 0 1 1 2 0 2 0 1 1 2 4 1 0 2 2 1 0 1 1 0 0 0 2 1 1 1 1 1 2 2 2 0 1 0 1 1 2 3 1 0 4 0 3 2 2 1 2 1 3 1 0 1 1 0 0 3 1 1 1 3 1 1 2 1 1 2 1 2 2 1 0 1 2 0 2 2 0 1 2 0 2 3 2 1 1 0 1 1 2 1 3 2 2 3 1 0 0 1 1 0 2 2 1 2 3 2 3 2 0 1 3 1 2 2 1 2 1 1 3 1 0 1 3 3 2 2 0 1 2 1 3 2 1 1 0 2 0 1 1 1 1 1 1 2 2 1 1 1 1 1 1 2 3 3 3 2 0 1 0 1 0 0 1 2 1 1 2 1 0 2 0 1 1 0 3 0 0 0 3 1 2 1 0 2 1 0 1 0 2 2 1 1 0 0 0 3 2 0 0 1 0 1 1 0 1 1 0 1 0 2 1 1 2 1 2 1 1 4 2 3 2 1 1 1 3 2 1 2 0 0 0 0 1 2 0 1 0 2 3 1 2 1 0 2 1 1 2 0 0 1 4 1 0 1 0 1 0 2 0 0 1 1 1 1 0 0 1 2 1 2 3 2 1 0 1 0 2 0 1 1 0 1 0 0 1 3 0 1 1 3 1 2 1 1 1 2 3 1 2 1 2 0 3 0 0 1 1 2 0 0 1 1 1 1 0 1 1 2 0 1 0 0 2 1 1 1 3 1 1 1 2 1 2 1 1 1 0 3 1 1 2 1 3 1 0 2 1 0 1 0 1 0 0 1 1 1 2 2 1 0 3 1 0 2 0 1 1 2 4 1 1 3 1 3 2 0 0 3 0 1 2 1 2 0 1 1 1 1 2 3 1 3 0 0 3 0 1 2 1 3 2 2 2 0 1 2 2 0 1 2 1 1 0 2 2 1 0 2 0 3 3 2 2 0 1 3 0 0 1 1 2 0 2 1 1 0 1 1 0 0 2 1 0 2 0 2 1 2 1 3 0 0 1 1 1 1 1 2 1 1 2 1 1 2 1 2 0 1 0 0 0 1 2 1 3 3 2 1 0 3 2 2 2 1 0 2 1 1 0 0 2 2 0 1 1 1 1 2 2 1 3 0 2 3 1 0 1 0 1 2 1 1 3 2 1 1 1 2 1 3 0 2 1 1 3 1 1 3 0 1 0 1 0 1 3 1 0 2 1 1 1 1 1 0 2 0 2 2 1 2 0 2 1 0 2 0 2 3 1 1 0 1 2 1 2 0 0 0 0 0 5 0 1 1 0 1 0 2 0 1 1 3 0 0 0 2 0 4 1 1 1 0 3 1 1 1 0 0 1 2 2 2 3 0 1 3 2 1 3 2 1 2 1 1 0 1 1 0 0 1 1 2 0 1 1 2 1 1 0 1 2 0 1 1 1 1 0 0 1 2 0 1 2 0 1 2 2 1 1 2 1 3 1 2 0 1 2 1 1 0 1 2 1 3 3 0 0 1 1 3 1 1 1 0 1 1 1 2 3 0 3 2 1 1 1 1 1 1 2 0 1 1 2 1 0 2 2 0 1 1 1 1 1 0 0 1 2 0 1 2 1 1 1 1 2 1 2 3 3 1 1 2 2 1 2 1 2 0 1 1 0 2 0 2 1 0 1 2 0 0 0 1 3 1 1 1 0 0 1 0 1 1 1 1 1 1 0 1 1 1 3 2 0 1 0 0 1 0 0 0 2 1 4 1 0 0 2 1 2 2 1 1 2 1 1 1 2 0 0 1 2 2 2 2 1 1 1 2 2 2 1 2 2 1 4 3 2 0 1 2 0 2 0 4 3 0 1 1 2 0 0 0 2 1 1 0 1 0 3 2 3 2 3 0 1 0 1 1 2 0 1 0 1 1 1 0 2 2 0 1 0 0 1 0 0 1 2 1 1 1 2 0 4 2 0 2 1 0 2 1 1 1 1 2 1 3 2 1 2 0 1 1 0 0 0 1 0 2 1 1 3 1 1 0 1 2 0 1 2 2 1 2 0 0 1 1 2 0 1 1 1 1 3 2 1 1 0 1 0 2 0 3 1 1 0 2 1 0 0 2 1 1 0 0 1 1 1 2 2 2 0 1 1 0 1 1 2 1 2 1 3 2 1 1 1 0 2 2 2 0 0 3 1 3 0 1 1 2 1 0 2 3 1 1 1 0 1 3 2 3 2 1 3 1 0 1 1 2 1 0 1 0 1 1 2 2 2 1 0 1 2 1 2 2 0 2 0 2 1 2 0 1 2 0 3 1 1 1 1 1 1 2 0 1 1 2 2 1 1 4 3 0 0 1 0 0 0 1 2 2 1 1 4 0 1 2 1 3 0 2 1 0 0 3 2 0 1 1 2 0 3 1 1 1 0 1 1 2 1 1 4 1 0 1 3 2 1 0 1 0 2 1 0 0 2 0 0 2 1 0 2 1 0 1 1 1 1 0 1 2 0 1 2 1 3 0 2 1 2 1 2 2 1 0 1 2 1 3 1 4 2 1 1 0 1 0 1 1 2 1 0 2 1 1 3 0 1 0 0 1 0 1 1 1 0 1 2 1 0 1 1 1 2 1 3 0 0 1 1 3 1 0 2 1 1 1 2 0 2 1 0 0 1 2 0 0 1 2 1 0 1 2 2 3 2 0 1 1 1 1 1 2 1 1 2 0 2 0 2 2 2 2 2 1 1 1 0 1 1 1 3 1 1 0 1 2 2 0 2 1 1 1 2 1 1 0 2 1 0 2 1 0 0 0 0 2 1 2 1 1 1 1 0 2 3 0 1 3 2 3 1 0 2 1 2 1 2 2 0 0 3 1 0 2 2 2 0 1 0 1 2 1 1 0 0 0 2 2 2 1 3 1 1 0 2 2 1 1 1 1 1 2 1 1 1 3 1 1 1 2 2 1 1 0 2 1 1 1 1 0 2 2 1 0 1 1 0 1 2 0 1 1 1 1 2 0 2 0 1 2 2 0 0 0 1 0 1 2 0 2 1 0 3 0 1 0 0 1 0 2 3 1 0 1 0 1 4 3 0 1 2 3 1 0 2 1 2 2 1 2 1 1 2 1 1 2 4 0 1 1 2 2 0 1 1 0 3 0 1 4 2 2 1 1 1 0 0 2 3 1 1 0 1 0 1 1 0 0 2 1 1 0 1 0 1 1 1 3 1 2 2 3 3 2 1 0 1 3 0 1 0 5 0 0 1 2 0 1 0 2 0 1 0 2 1 1 3 1 2 1 0 2 1 1 1 0 3 2 3 1 1 0 2 1 0 1 0 1 1 0 2 1 1 1 0 4 2 0 1 1 1 1 2 4 0 2 0 0 2 2 0 1 1 0 1 1 2 1 2 0 2 2 2 3 0 2 1 0 1 1 0 1 1 1 1 0 1 1 1 1 0 0 1 3 1 2 1 3 2 1 2 0 2 1 2 1 2 1 1 1 2 2 1 1 2 2 0 0 0 1 1 1 0 1 1 2 1 3 2 1 0 0 1 1 3 2 2 2 2 2 0 1 2 2 2 3 0 1 2 1 0 0 1 1 1 0 2 1 1 0 1 0 1 2 2 1 0 0 1 1 2 1 2 1 4 0 1 0 1 2 1 1 1 2 0 4 1 2 2 2 0 2 0 0 2 0 2 0 0 1 2 2 1 1 0 0 3 1 2 1 1 2 1 2 3 1 1 0 1 1 1 2 0 3 0 1 0 2 1 2 1 1 1 3 0 1 1 1 2 1 0 1 0 2 0 2 3 2 2 0 4 1 0 3 2 1 1 1 0 0 0 2 0 1 1 1 1 0 3 2 2 2 0 1 0 1 2 1 0 0 2 3 0 1 2 1 1 2 1 0 1 0 2 2 4 1 0 0 2 1 1 1 1 3 1 1 2 1 2 3 1 3 1 1 1 1 0 0 0 2 0 1 3 1 0 2 0 2 1 1 3 0 1 1 2 1 1 1 2 3 1 0 0 1 0 1 2 2 4 1 1 2 0 2 1 2 1 1 0 2 0 0 1 4 2 2 2 0 0 0 1 1 0 1 1 0 1 0 0 0 0 2 1 0 2 3 2 1 1 1 0 0 1 0 1 1 2 1 0 1 1 1 1 3 2 1 1 2 0 0 0 3 0 1 2 1 2 2 1 0 1 1 1 1 1 1 2 2 2 0 0 0 1 3 2 1 1 0 2 0 2 1 2 1 0 1 1 2 1 0 1 2 2 1 0 2 2 1 1 2 0 0 1 0 1 0 1 1 1 1 0 2 3 0 1 1 0 1 0 1 0 2 1 2 0 0 1 1 0 1 0 1 1 0 0 2 0 0 1 2 1 2 2 0 1 1 2 2 1 1 1 1 1 1 1 1 0 1 1 0 2 0 1 2 3 1 2 2 1 1 2 1 1 1 2 0 1 0 1 2 0 0 2 0 0 1 0 2 0 0 1 2 1 0 2 2 1 0 0 1 0 2 2 1 1 1 1 1 1 1 1 1 1 1 1 2 0 1 1 0 1 1 1 2 0 0 1 0 0 1 2 0 0 2 1 3 0 0 2 3 1 2 1 1 0 1 0 1 0 1 0 0 0 1 1 1 0 1 2 2 3 1 1 1 1 1 2 0 1 2 1 2 4 2 0 2 0 1 1 1 2 3 1 1 1 2 0 0 0 1 0 1 1 2 3 1 2 0 1 1 1 1 0 1 3 0 1 0 3 1 1 2 1 4 2 3 3 0 0 1 1 0 2 1 2 2 3 2 2 1 3 1 0 1 1 1 1 2 2 2 0 1 0 1 0 2 2 0 1 1 0 2 0 0 2 1 1 2 3 1 1 2 4 1 2 1 2 1 2 1 2 2 1 1 1 1 0 4 0 3 2 0 2 1 0 2 2 1 1 0 2 0 0 0 1 1 1 2 2 3 2 0 2 0 3 1 2 2 0 1 0 0 0 0 1 1 0 0 1 2 1 0 2 1 1 2 0 1 0 0 0 1 1 0 3 1 1 0 2 0 2 0 0 1 1 1 1 2 2 0 0 3 0 0 1 2 1 0 0 0 1 1 1 1 0 2 1 3 1 0 1 0 0 1 2 0 1 1 0 0 1 1 1 0 2 2 0 2 3 1 2 2 2 1 1 2 2 0 2 1 2 1 2 0 3 1 1 2 1 3 1 2 2 3 2 2 1 2 0 3 1 1 2 1 3 2 0 0 1 1 2 0 1 2 0 3 0 0 1 0 2 2 1 0 0 2 2 1 0 2 2 0 1 2 2 0 1 0 0 2 0 0 1 1 1 1 0 0 1 1 1 1 2 0 4 0 1 1 1 2 2 1 2 2 0 2 1 2 1 1 0 1 3 2 1 2 1 0 0 0 1 1 1 1 0 1 1 0 2 0 1 1 1 1 1 1 1 2 0 0 2 2 1 1 2 1 3 0 1 3 1 2 3 1 1 2 0 1 1 0 2 2 2 1 0 0 2 0 3 1 1 3 1 0 0 2 0 3 2 0 2 1 0 1 2 2 3 2 0 2 0 0 3 0 2 0 0 0 1 1 1 3 0 1 1 3 1 0 1 1 0 1 4 3 0 2 1 1 3 1 1 2 1 1 1 1 1 1 1 0 0 1 2 0 2 2 2 0 0 1 0 2 3 2 2 1 1 2 0 2 1 1 0 0 0 0 1 0 1 0 1 2 1 0 2 1 2 1 3 2 1 2 2 0 1 0 0 0 1 2 1 1 0 0 1 1 2 2 2 3 2 1 2 1 1 1 1 0 1 1 1 4 2 1 2 2 0 1 0 2 0 2 1 3 1 2 2 3 3 3 1 0 0 1 1 2 2 3 1 3 0 1 1 2 1 1 0 2 1 1 1 2 4 2 2 1 1 2 0 2 2 0 1 1 2 1 3 1 1 1 0 1 0 1 0 1 1 3 2 2 2 0 1 1 1 2 1 1 2 2 1 1 1 0 2 3 0 1 1 2 2 2 2 0 2 0 3 1 1 1 2 1 0 0 0 1 3 0 2 2 2 0 0 1 2 1 0 2 2 0 1 2 1 1 1 2 2 2 0 1 2 2 3 0 1 2 2 0 1 1 0 1 2 1 2 1 0 2 2 1 1 1 2 0 2 2 0 2 1 2 0 0 1 1 1 2 1 1 1 1 1 1 1 0 2 1 1 1 2 0 0 1 2 0 1 1 0 1 2 1 0 2 2 0 1 0 1 1 0 1 1 0 0 0 1 1 2 0 0 0 1 1 3 1 1 2 1 0 1 2 1 3 1 1 2 1 2 2 2 1 1 1 2 1 2 0 3 1 0 2 0 2 2 3 0 2 1 2 1 1 3 1 2 2 0 4 0 3 1 0 2 0 0 0 1 1 1 1 0 0 0 0 2 1 1 1 2 0 3 2 3 3 1 1 0 0 1 0 0 1 0 1 3 0 2 1 1 1 1 0 0 0 2 2 2 1 2 2 2 1 0 1 1 3 1 3 0 2 0 0 0 1 1 2 3 2 1 1 1 0 0 3 0 2 1 2 1 0 1 0 1 0 0 2 1 0 3 2 2 1 0 1 2 0 2 3 2 1 1 2 1 1 1 0 2 0 1 1 1 0 1 0 2 3 1 1 1 1 1 1 1 4 0 1 0 0 2 0 1 0 2 0 1 0 2 0 0 2 0 1 1 1 3 1 1 1 1 1 1 4 2 0 2 4 3 3 0 1 0 1 3 1 1 0 2 1 0 1 1 1 2 2 0 1 0 2 1 0 2 2 0 1 0 3 1 2 2 1 2 4 2 0 3 0 1 1 3 1 0 1 1 2 1 0 3 1 2 3 4 0 1 2 1 1 2 3 2 1 0 2 1 1 0 3 1 0 1 2 0 4 1 2 1 0 2 2 0 1 1 3 0 1 3 2 1 1 2 2 1 2 0 1 1 2 2 2 0 0 1 1 1 1 1 3 1 2 0 3 2 4 2 1 1 1 2 4 0 1 1 3 2 1 1 1 2 1 1 1 0 2 1 1 3 1 1 3 0 1 0 1 1 2 1 1 1 1 2 1 1 1 2 1 2 1 2 2 1 0 0 1 1 1 3 0 0 1 2 1 1 0 1 1 0 2 2 0 1 1 0 0 2 1 2 1 0 1 0 1 1 0 1 1 0 1 1 0 0 2 1 3 2 1 1 0 0 1 3 1 2 1 3 2 3 1 2 1 2 1 1 1 1 2 2 1 0 1 2 1 0 1 0 0 0 0 1 3 0 1 1 1 1 1 2 0 3 1 2 1 3 2 0 1 2 1 1 2 1 2 0 2 0 0 1 1 2 1 0 1 2 1 2 1 0 2 2 0 1 0 0 1 1 2 2 0 1 3 1 1 0 0 0 0 1 2 2 1 2 1 1 1 2 0 1 1 2 0 0 3 0 1 1 1 1 0 1 2 1 0 2 1 0 0 1 2 1 3 1 1 0 1 0 2 1 2 2 3 1 2 0 0 2 1 0 2 2 1 0 1 3 1 0 1 1 1 2 1 1 1 0 0 1 2 2 0 2 1 1 1 2 2 1 3 0 1 0 1 2 0 2 1 1 2 2 1 2 3 1 1 3 5 1 1 2 2 2 1 1 0 1 1 2 2 1 2 1 0 0 1 2 1 0 1 1 2 3 1 2 1 1 3 2 0 1 1 0 1 1 2 1 1 2 1 2 0 1 2 1 0 1 0 2 1 0 0 1 2 2 1 0 0 1 1 0 1 4 0 0 1 0 0 2 1 2 3 1 2 1 1 1 0 1 2 0 1 2 1 5 2 0 0 2 1 1 1 1 1 1 1 2 2 0 2 1 4 0 0 2 1 2 2 1 1 2 0 1 0 2 1 1 1 2 1 1 1 0 2 1 3 1 2 0 3 0 1 1 0 2 2 1 1 3 2 1 2 1 2 1 2 2 2 0 1 4 0 0 1 2 2 1 2 1 1 1 0 1 1 1 1 0 1 1 3 0 0 1 0 2 0 2 0 0 2 1 1 2 1 1 0 0 0 1 1 0 1 1 0 1 1 0 0 2 1 1 1 1 3 1 3 1 0 1 1 1 0 1 0 0 0 0 0 2 2 2 1 2 3 1 0 0 2 1 1 1 4 1 0 2 0 1 1 4 0 2 1 2 1 0 2 2 1 1 0 1 0 1 1 2 1 4 2 0 2 0 2 2 1 1 2 2 1 0 3 0 2 0 2 1 1 0 1 1 3 2 1 2 0 1 1 1 1 1 2 0 0 0 1 2 1 1 1 0 1 1 1 1 0 2 2 1 1 3 1 2 2 0 1 1 2 3 2 2 0 1 1 2 0 2 2 2 2 0 0 1 0 1 2 0 1 0 1 2 1 1 0 1 2 3 2 1 2 1 1 2 1 0 0 0 2 0 0 1 1 2 1 0 1 0 1 2 2 2 1 2 2 1 0 1 2 2 0 1 1 2 1 1 2 1 2 0 2 1 0 1 2 1 3 0 0 0 1 3 1 1 2 2 2 2 0 1 1 1 1 0 1 0 1 2 0 1 1 1 2 3 0 1 0 2 1 1 1 0 0 0 0 1 2 0 1 2 1 0 0 1 2 1 3 2 0 2 1 0 1 1 0 1 2 1 1 0 2 0 1 1 2 1 1 0 0 1 1 1 2 2 1 0 1 1 2 0 1 0 2 1 2 1 0 0 0 1 3 0 2 0 4 1 2 1 0 0 1 2 2 1 3 2 0 0 2 0 3 0 0 1 0 2 0 2 1 0 1 1 2 0 2 2 1 5 1 1 2 2 2 0 2 2 0 0 1 0 2 0 2 0 1 0 1 1 1 2 3 2 1 0 2 1 2 0 1 1 1 1 1 1 1 0 2 1 1 1 3 1 2 0 1 1 0 1 1 3 2 2 1 0 1 2 0 1 0 1 2 1 0 1 1 3 0 2 1 2 0 1 0 1 1 3 2 1 1 0 1 1 1 1 2 2 0 2 2 0 1 1 1 0 1 1 1 1 1 1 1 1 1 2 1 1 1 1 1 1 1 0 2 1 1 0 1 1 0 1 0 1 1 2 1 2 2 1 1 2 0 1 3 2 0 0 1 0 4 1 1 3 0 1 2 3 0 4 2 2 0 1 2 2 1 1 1 1 2 2 1 1 3 0 2 1 3 2 0 1 1 2 1 1 2 1 3 2 2 0 1 0 1 1 3 2 2 4 3 0 1 2 0 1 0 0 0 1 2 3 3 1 0 0 1 1 1 1 1 1 0 1 4 3 2 1 1 1 2 1 1 0 1 2 0 2 0 0 2 0 2 0 2 2 0 3 2 1 2 2 0 3 1 1 1 0 0 1 1 2 1 1 0 0 2 1 1 2 2 0 1 0 1 2 2 0 2 1 1 0 0 2 2 1 1 1 3 2 1 0 1 0 2 1 3 3 1 1 1 4 1 1 0 2 2 1 2 1 0 1 1 1 2 1 2 1 0 1 0 2 1 1 2 2 3 2 0 2 1 2 0 1 2 2 2 1 1 1 0 0 1 1 1 1 1 1 3 1 2 0 2 2 0 0 1 2 0 1 3 0 1 1 1 2 1 1 2 1 4 0 0 2 1 2 0 1 4 3 0 0 0 1 4 2 1 1 1 2 2 1 1 0 0 0 0 2 2 0 2 0 1 3 2 2 1 0 1 1 1 1 3 1 0 2 1 0 1 1 0 1 2 1 1 0 1 1 3 0 1 2 0 3 1 2 0 1 1 1 1 0 0 1 2 1 0 1 2 0 0 0 0 2 1 1 2 3 3 1 1 3 3 2 1 2 0 1 1 3 1 2 2 2 1 1 2 2 2 2 0 3 1 0 1 3 1 3 1 2 1 0 0 1 2 1 2 0 1 1 1 2 1 1 1 1 0 2 2 2 1 0 2 1 2 1 2 1 2 2 1 2 1 1 1 1 1 3 1 1 1 4 1 0 1 0 1 2 3 1 1 0 1 1 2 0 2 0 1 0 1 1 1 1 1 1 0 2 0 0 1 2 0 1 1 2 1 1 3 2 2 0 0 4 5 1 2 1 2 0 4 1 0 1 1 2 0 2 0 0 1 0 1 1 2 0 1 0 1 1 2 1 1 0 2 2 4 4 2 2 1 1 2 1 0 2 1 0 1 1 2 1 1 1 1 1 1 0 1 0 2 1 1 2 1 3 2 0 3 2 1 3 2 1 0 2 1 1 1 2 0 0 0 1 0 0 3 1 1 0 1 0 1 3 1 0 1 0 2 0 1 3 1 1 1 2 1 0 2 2 1 0 0 1 1 2 1 3 3 1 2 1 1 1 0 4 2 4 3 3 2 1 1 2 1 1 1 2 1 1 1 3 1 2 1 1 0 0 1 0 1 2 2 0 3 3 2 1 1 0 0 1 2 1 1 1 1 0 2 0 1 1 0 1 2 0 2 0 0 1 1 1 1 1 0 1 1 4 0 1 0 1 2 0 0 0 0 3 0 1 0 2 1 0 2 1 1 1 1 3 0 1 3 1 0 1 2 1 3 0 3 1 2 2 1 3 1 3 2 2 0 0 2 2 0 0 0 0 1 0 2 1 2 1 5 3 2 0 0 0 2 1 1 1 0 1 1 3 0 2 0 2 0 1 1 0 0 3 3 1 1 1 1 1 1 1 2 3 1 0 3 3 1 2 1 1 4 1 0 0 2 2 2 2 1 1 1 3 0 0 1 3 1 0 0 2 1 2 1 1 0 2 1 2 1 2 1 2 1 0 2 3 2 2 1 0 0 0 3 2 1 1 2 0 2 0 0 1 1 5 1 2 1 1 2 0 1 1 2 0 1 2 0 0 1 2 1 1 2 0 1 3 0 2 1 2 1 2 2 1 2 1 0 3 2 2 1 3 0 0 2 0 2 1 0 0 0 2 0 1 0 0 2 1 1 1 1 2 1 0 1 1 1 2 1 2 1 1 1 2 0 0 1 2 1 1 2 1 3 2 2 1 1 1 2 3 1 1 1 0 1 1 0 2 0 0 2 3 2 2 2 1 1 0 2 0 0 0 2 0 2 1 1 1 1 0 2 2 1 1 2 2 2 1 2 1 3 1 0 1 2 0 1 0 3 1 2 1 2 2 1 2 0 1 2 0 0 0 3 1 1 1 2 0 0 1 1 0 1 1 0 3 0 1 1 1 0 1 1 1 1 1 1 1 3 2 1 1 0 1 1 2 2 2 0 0 2 0 0 0 1 0 5 0 1 1 1 1 0 1 0 1 2 0 1 1 2 1 1 1 1 2 0 0 1 0 1 1 0 0 2 1 0 3 1 2 2 0 2 2 1 1 0 1 0 1 1 0 1 1 1 2 2 1 1 2 2 0 2 1 1 2 1 1 0 0 0 1 1 1 3 0 4 1 2 1 4 1 0 2 1 0 0 1 1 1 0 1 1 0 1 1 0 1 1 1 2 3 0 3 2 2 1 2 4 1 2 1 2 2 1 0 2 0 1 0 3 2 2 2 0 1 1 1 1 1 1 1 2 3 1 2 1 1 1 2 0 1 1 0 2 1 1 1 0 3 2 3 3 2 1 2 1 1 0 3 2 2 0 2 3 3 3 1 2 1 1 2 0 2 0 5 0 0 1 1 3 1 1 1 2 2 0 1 2 3 2 0 0 0 0 0 1 3 2 2 1 2 0 1 1 1 0 2 1 1 0 4 1 1 2 2 1 1 3 1 0 1 1 1 2 2 0 1 3 3 1 2 1 1 1 1 1 1 0 0 3 1 2 0 2 1 0 1 0 0 0 1 2 0 0 0 2 4 4 3 4 0 3 1 3 1 2 2 1 3 1 1 1 1 1 1 1 1 1 1 2 0 2 1 1 2 3 0 1 0 2 2 3 1 0 2 1 0 1 2 1 0 1 1 1 1 0 1 2 1 0 1 2 0 0 0 0 1 2 0 2 2 1 2 0 2 1 1 0 0 0 3 0 0 0 2 1 2 0 1 2 1 1 1 1 3 1 2 1 1 0 3 0 1 1 2 1 2 2 1 2 1 1 0 0 1 1 2 1 2 2 1 1 1 2 0 1 1 0 2 2 0 1 0 2 0 0 0 1 0 3 0 2 2 3 1 1 1 1 0 1 1 0 3 1 3 2 0 1 1 0 0 1 2 1 1 3 2 1 4 2 2 1 1 1 0 1 3 1 0 1 2 1 1 0 0 1 0 1 1 0 2 1 1 1 1 0 0 1 2 3 2 1 2 0 2 1 0 1 2 0 1 0 1 1 0 1 2 1 0 2 1 0 0 2 1 2 2 0 1 1 0 0 1 2 2 1 2 2 1 2 4 2 1 2 2 0 1 2 2 1 2 2 1 1 0 1 2 2 1 1 3 0 3 1 1 0 0 1 1 2 3 0 1 1 3 2 1 1 0 1 0 1 1 0 2 0 1 1 1 0 0 1 0 1 0 1 0 2 1 1 0 1 1 1 0 2 0 1 1 2 0 1 0 2 1 2 2 2 2 0 0 1 1 2 2 2 1 2 2 1 1 1 2 1 1 3 0 2 1 3 1 3 1 0 1 3 2 2 1 0 2 1 2 3 1 2 1 3 5 1 1 3 1 1 3 0 0 0 2 1 1 2 1 3 2 0 1 1 3 1 0 2 1 3 2 0 0 2 1 2 0 0 1 1 0 1 1 1 2 0 1 0 2 1 3 1 3 4 2 2 2 2 1 1 1 0 3 0 2 0 1 1 1 0 1 1 1 1 2 2 1 1 1 0 1 1 2 1 3 2 0 3 1 2 1 0 1 0 4 2 3 2 1 0 0 3 2 1 1 1 0 0 3 2 1 1 1 3 2 1 2 2 0 2 1 1 4 1 0 3 1 0 0 0 2 0 1 1 3 1 1 0 0 0 1 2 1 1 3 2 1 0 1 1 1 0 0 1 3 1 0 1 0 2 1 2 0 0 2 3 0 0 1 2 1 2 1 2 1 1 0 0 1 0 2 0 0 1 2 1 3 1 1 1 0 1 1 1 0 0 1 1 3 2 0 0 1 2 0 1 3 2 2 2 0 1 2 2 1 0 0 1 1 0 1 2 0 1 1 1 2 2 1 1 0 0 1 0 2 1 1 1 1 2 1 1 1 2 1 1 1 1 1 1 1 3 1 1 1 2 3 2 2 2 1 2 1 1 3 0 2 1 3 0 0 0 1 0 1 1 0 1 1 2 0 0 1 2 2 0 1 1 1 0 2 1 1 1 2 1 2 2 0 2 2 0 1 0 1 3 0 3 1 0 1 1 0 1 0 0 0 2 2 0 0 1 1 0 1 1 1 1 0 0 2 0 1 2 1 2 0 1 4 1 1 1 0 2 0 1 3 1 0 0 0 2 0 0 0 3 1 1 3 1 3 1 0 1 2 2 3 1 1 1 4 2 1 0 2 0 1 3 1 1 0 1 2 2 2 1 1 2 0 0 0 2 1 1 1 0 1 1 1 1 0 0 2 1 0 1 2 3 2 3 0 0 3 0 0 1 2 1 0 2 0 2 2 2 0 1 0 1 2 2 2 1 0 3 1 0 1 0 0 0 1 1 1 1 1 1 0 3 1 0 0 1 0 1 1 1 1 1 0 1 0 3 0 1 3 0 3 4 1 1 0 0 4 1 1 1 2 2 1 2 1 2 1 0 1 1 3 2 1 1 1 1 0 1 0 0 1 1 1 2 1 2 3 0 2 1 1 2 3 1 3 1 1 2 0 2 1 1 2 1 0 2 2 3 2 1 2 0 0 0 0 1 0 3 0 1 1 1 1 0 0 0 3 2 2 1 2 1 2 0 2 0 1 1 2 0 2 1 2 0 0 1 1 1 1 2 0 1 1 2 0 2 3 1 0 1 0 1 1 1 3 0 1 2 2 0 0 1 0 1 2 3 1 2 2 1 1 2 2 0 0 1 2 1 1 1 2 1 1 2 1 2 2 2 2 1 2 0 2 1 2 1 2 3 1 0 2 2 1 0 2 1 1 1 2 1 2 2 0 1 1 0 1 1 3 0 0 2 0 1 0 0 1 1 0 1 1 1 0 1 1 1 1 1 0 1 0 3 2 1 1 1 1 1 1 1 0 1 1 1 2 1 1 1 2 1 1 2 3 1 1 2 1 1 0 0 0 2 4 0 1 0 1 2 1 2 1 1 0 1 2 1 1 2 2 0 1 1 0 1 0 2 2 1 0 2 0 1 1 0 1 2 1 2 0 1 1 3 0 2 1 1 1 1 1 1 0 1 1 1 2 2 1 2 2 1 2 0 0 0 2 2 1 1 2 2 3 1 1 2 1 3 2 2 2 2 1 1 1 0 1 1 1 1 1 0 0 0 0 1 2 0 1 3 2 0 2 0 0 1 1 0 1 2 1 1 1 0 1 2 1 1 0 1 1 1 1 0 2 1 1 1 2 0 1 2 1 1 1 1 2 2 0 2 0 1 0 1 0 2 1 0 2 0 0 1 1 0 2 0 1 1 1 1 2 1 2 2 1 2 1 3 0 2 1 0 2 0 2 1 1 0 1 2 1 1 0 2 1 3 1 0 2 0 1 1 0 1 1 1 0 0 1 1 0 1 1 2 1 3 4 0 1 2 2 0 0 0 2 1 1 1 2 1 1 1 1 1 3 3 1 1 3 1 1 2 0 1 1 1 1 0 1 1 3 0 1 0 2 1 1 0 1 1 0 0 2 2 1 1 2 0 1 1 1 2 0 0 2 2 0 2 1 1 0 3 2 1 1 2 0 0 2 0 1 3 3 1 1 0 0 3 1 1 0 1 0 1 0 2 2 2 3 1 1 2 1 1 2 1 1 0 0 2 1 2 0 2 2 0 1 1 0 0 1 3 1 3 1 1 2 1 1 1 0 1 0 1 3 0 2 2 1 2 2 3 2 0 1 1 2 0 2 0 0 1 0 3 0 2 1 2 2 0 2 3 2 2 2 0 2 0 1 2 0 1 1 1 0 0 1 1 0 2 0 1 2 1 1 1 0 1 1 1 2 1 0 1 1 1 0 0 1 1 3 0 1 2 1 0 0 1 0 2 2 3 1 3 0 1 1 0 1 2 1 1 1 2 2 3 2 1 1 1 2 2 0 4 2 1 2 0 0 0 1 2 1 1 1 0 0 1 0 1 0 4 2 1 0 1 2 2 1 0 1 0 0 0 1 1 0 1 2 0 0 3 2 0 2 0 2 2 1 1 0 1 0 2 1 2 0 1 5 1 1 0 1 1 1 1 1 1 2 1 1 0 1 1 1 1 3 0 1 1 0 2 1 1 2 4 1 1 1 1 1 2 1 0 2 0 2 0 2 1 0 1 1 0 0 1 1 1 0 1 1 2 2 2 1 2 3 1 1 1 0 1 0 0 2 1 0 1 1 0 1 3 2 0 1 0 3 3 1 1 1 1 0 2 2 1 1 0 1 3 3 0 2 1 2 1 1 1 2 2 0 1 2 2 2 1 2 2 1 0 2 1 1 1 0 0 2 2 1 1 0 1 2 2 3 1 1 0 2 3 2 0 2 0 0 1 1 0 0 0 2 1 3 2 1 1 1 1 0 0 0 1 1 0 0 4 1 1 1 1 3 0 1 3 0 2 1 2 1 1 3 1 0 2 0 1 0 0 0 1 2 3 0 1 0 2 2 2 2 0 1 2 1 2 1 1 0 1 4 0 2 1 1 4 1 1 0 1 3 1 3 2 0 2 2 0 1 0 0 1 2 3 0 1 0 3 3 1 0 1 1 2 1 1 1 1 2 1 1 0 1 0 3 2 1 1 1 1 0 2 2 4 0 1 2 1 1 2 0 2 1 1 1 3 1 1 1 2 2 0 1 1 2 0 1 2 0 0 2 2 1 1 2 1 0 1 2 0 2 1 0 0 0 0 0 0 0 3 1 1 1 2 2 1 2 1 3 1 2 3 2 2 2 0 2 1 1 2 1 2 0 1 0 0 1 1 1 0 0 2 0 1 0 1 2 2 2 1 2 2 2 2 2 1 4 0 1 0 2 3 1 1 1 1 1 3 2 0 0 2 1 0 1 1 1 0 2 2 0 1 3 1 1 2 1 2 1 1 1 1 1 0 3 2 1 2 2 1 5 1 0 3 2 0 1 0 0 0 1 0 0 2 1 1 0 3 0 1 1 2 1 2 1 2 0 1 0 3 1 0 0 1 2 2 0 1 1 3 1 1 0 0 1 1 0 2 0 0 2 2 2 2 1 1 0 2 1 2 2 0 0 1 2 2 0 1 0 2 1 2 1 2 0 1 2 1 0 1 0 0 2 1 0 1 3 3 1 2 1 1 0 1 1 1 2 1 0 0 2 0 3 2 1 1 1 2 1 2 1 1 1 0 2 0 1 2 2 1 1 0 3 2 2 0 2 0 2 0 1 0 3 1 2 2 1 3 0 0 1 1 3 0 2 0 2 0 0 1 1 3 0 2 0 1 2 1 1 0 1 2 2 2 2 0 2 1 2 1 2 1 1 1 1 1 2 0 2 1 1 1 0 1 2 2 0 0 1 2 2 0 2 1 1 0 0 2 0 0 0 0 1 1 0 2 3 1 2 3 6 1 1 0 2 0 2 0 1 2 0 1 0 0 1 2 0 1 1 2 1 0 1 2 2 1 1 1 0 1 0 0 0 0 1 1 3 2 1 2 0 2 1 2 0 1 0 0 3 1 1 1 3 3 4 1 1 1 1 1 1 0 0 1 2 1 0 2 1 1 2 2 2 2 1 0 2 1 0 2 1 1 1 2 2 1 3 1 1 1 1 1 0 2 0 2 1 1 2 1 2 2 0 2 1 1 0 0 1 2 2 3 0 0 3 0 4 2 1 0 1 1 2 1 0 2 1 0 3 1 1 3 2 2 0 3 1 0 2 1 1 2 1 0 0 2 1 0 1 2 2 3 0 1 3 2 0 1 0 2 2 1 2 1 1 2 1 3 1 1 2 0 3 1 1 2 3 0 0 2 2 3 3 2 1 2 1 1 1 2 2 1 2 1 2 1 3 2 0 0 2 1 2 1 0 1 0 1 1 0 1 1 2 1 2 2 2 2 1 2 0 2 2 0 2 0 1 1 0 1 1 1 1 0 1 1 2 1 1 2 1 0 1 1 1 3 2 1 1 5 2 2 2 1 1 2 2 2 0 2 1 2 1 1 0 2 1 1 1 0 1 2 1 2 1 1 0 1 2 3 0 3 1 1 0 1 0 0 2 0 1 1 1 1 2 0 1 0 0 1 1 1 0 1 0 0 1 1 2 2 0 0 1 2 0 0 1 3 2 1 1 1 2 0 1 0 2 2 2 2 0 3 1 2 2 2 2 0 1 0 0 1 0 0 0 1 2 2 3 2 1 0 0 2 1 2 1 0 0 1 0 4 3 0 1 3 2 3 0 0 2 1 1 2 1 3 1 0 1 1 2 0 1 1 4 0 1 0 2 1 1 2 0 0 2 1 0 1 1 0 3 0 2 2 1 2 1 1 1 2 2 2 1 0 3 2 2 1 0 2 2 3 3 2 1 2 2 2 3 0 1 2 1 0 0 1 2 1 0 2 1 1 2 0 0 2 1 1 1 1 1 2 1 3 2 0 1 1 0 2 1 3 1 2 2 1 1 1 1 0 1 2 2 0 2 1 2 0 1 3 1 2 0 2 3 2 1 0 1 1 2 1 0 1 1 0 0 1 1 2 1 1 1 0 2 1 1 2 3 1 1 3 1 3 1 1 2 0 0 0 1 1 2 1 1 3 0 0 1 1 1 3 3 0 1 3 2 2 2 2 1 0 2 2 2 3 1 2 0 2 2 3 1 0 0 0 0 2 3 0 2 3 2 1 1 0 2 1 1 0 3 2 1 0 0 2 1 2 2 4 2 1 2 1 2 1 0 1 2 2 0 2 0 0 0 3 2 1 1 3 1 1 0 2 1 1 2 2 1 2 1 1 1 2 1 1 0 1 1 0 1 0 1 1 1 1 0 0 0 2 2 0 2 2 0 1 0 1 1 1 0 2 2 1 1 0 2 1 2 1 1 0 1 1 0 0 1 1 3 0 0 1 2 1 1 1 1 1 1 1 3 1 1 0 0 1 0 2 1 1 2 2 2 1 1 1 1 1 0 1 1 1 1 2 2 1 2 1 0 2 1 1 0 2 1 2 1 1 1 0 2 0 2 1 1 1 1 1 2 1 1 1 1 1 1 1 0 2 0 1 1 2 1 1 1 1 3 1 3 1 1 2 2 1 1 1 1 1 2 2 2 1 0 2 2 0 2 1 4 2 0 2 0 0 1 2 1 1 2 1 3 2 0 0 2 1 0 1 2 2 2 0 0 2 0 1 1 1 2 1 2 2 2 2 1 1 1 1 1 3 1 1 2 1 0 0 2 1 3 2 0 2 0 2 0 0 1 1 2 1 3 3 1 0 2 1 1 1 1 1 2 2 1 1 0 0 0 1 1 0 1 2 1 1 0 0 2 0 1 0 3 0 2 2 3 4 2 2 1 0 1 0 1 3 1 3 0 3 1 0 1 1 3 4 0 1 0 1 1 1 1 3 1 0 0 1 1 2 2 0 2 0 0 4 1 1 1 1 0 1 2 0 1 1 2 0 3 1 1 0 1 1 0 1 1 0 1 0 3 1 2 2 3 2 2 1 2 2 0 0 1 1 2 4 2 1 1 2 1 3 2 1 1 2 1 0 2 1 1 2 1 1 0 2 1 0 1 1 0 0 0 0 1 1 1 0 2 0 0 1 2 1 2 2 1 2 0 1 1 1 2 0 2 2 0 1 1 1 0 1 1 0 1 1 2 1 2 2 3 1 0 3 2 1 2 2 1 0 4 0 1 1 0 2 3 1 1 2 1 0 1 1 1 2 1 0 0 2 1 1 3 3 2 2 1 1 1 1 2 0 1 0 1 2 1 1 1 2 1 1 0 1 2 1 3 2 2 0 2 0 2 0 2 0 1 2 1 1 1 3 3 1 0 1 1 0 3 0 2 1 1 0 1 2 2 2 1 2 1 1 0 1 5 1 0 1 2 0 2 0 1 2 1 2 1 0 0 1 1 1 1 1 2 0 1 4 1 2 1 1 1 0 2 1 2 2 1 2 0 0 0 2 3 1 1 2 1 2 1 0 1 3 1 0 1 1 0 0 2 1 1 1 0 3 1 1 0 1 1 1 1 2 0 2 1 2 1 0 3 0 0 1 2 1 0 3 2 2 0 1 0 2 2 1 1 2 1 0 1 2 2 1 0 0 1 3 2 0 1 1 1 0 1 2 2 0 0 0 2 0 0 2 2 2 2 3 2 3 2 0 0 2 1 2 1 3 3 0 0 1 3 1 3 1 3 1 1 1 0 2 1 1 2 2 2 3 1 0 3 2 0 2 0 1 0 1 1 1 1 2 1 2 2 0 1 2 0 1 1 2 3 2 2 1 0 0 2 1 2 1 1 0 0 1 0 1 3 3 0 1 2 0 0 2 2 1 1 2 3 1 0 2 0 0 0 1 1 0 2 2 1 1 2 0 1 1 0 2 1 0 0 1 1 4 3 0 1 1 0 2 1 1 1 2 2 3 1 0 0 1 3 2 1 1 2 0 1 0 0 0 1 1 1 2 0 2 0 0 1 0 2 1 1 2 2 1 0 0 1 0 1 1 1 1 1 1 2 3 2 1 0 1 0 1 1 0 2 1 2 0 2 0 0 1 1 1 2 1 2 1 1 0 4 1 0 0 0 1 1 0 1 2 0 3 1 0 1 1 2 0 2 1 2 1 1 2 1 2 2 0 1 1 1 3 0 3 1 1 2 2 1 0 0 0 1 2 1 2 1 0 1 2 2 1 0 1 0 1 1 2 0 1 0 1 1 1 0 0 1 0 0 2 1 0 2 2 1 1 1 0 0 0 2 1 0 0 2 1 1 1 0 2 3 0 2 2 2 1 0 0 0 1 0 1 0 4 1 0 0 1 0 0 0 1 2 2 1 0 2 0 2 2 0 1 0 1 2 1 2 2 1 0 0 5 1 0 0 0 2 0 1 1 1 1 3 1 0 0 1 0 1 1 3 0 0 0 2 1 0 2 1 3 1 2 0 0 1 3 2 1 2 2 1 3 1 2 1 3 1 1 0 2 2 2 2 0 1 3 3 1 0 2 1 2 2 1 2 1 1 0 0 1 1 1 0 0 2 1 0 1 2 2 3 0 0 1 1 1 1 1 1 1 1 2 1 0 0 1 1 2 2 1 0 2 2 1 2 0 1 1 2 0 0 1 0 1 1 1 1 1 0 1 0 1 3 2 2 2 1 1 1 0 0 1 0 1 1 1 1 1 3 0 1 1 1 2 0 1 0 2 2 2 4 1 1 1 1 3 2 0 1 0 2 3 0 0 1 0 0 1 1 1 1 0 1 1 1 1 0 1 1 2 1 1 2 1 0 1 1 2 0 1 2 1 1 2 0 1 0 1 2 2 1 3 1 1 1 2 4 2 2 1 3 1 1 2 0 3 0 1 2 2 1 2 1 2 2 2 2 1 0 2 2 2 1 1 0 0 0 3 1 1 1 1 0 0 2 2 0 0 2 1 1 0 2 1 1 1 2 2 1 1 0 1 2 1 1 1 0 1 0 1 1 2 2 1 3 1 1 3 0 0 1 2 3 0 1 1 0 1 4 1 2 2 2 3 2 1 1 0 1 3 4 3 1 0 2 0 2 2 2 0 2 1 0 1 0 1 2 0 1 0 1 0 3 0 0 1 1 2 2 1 1 0 0 0 2 2 0 0 2 2 0 1 2 1 2 1 1 0 2 2 0 2 2 0 2 0 2 1 0 1 2 0 2 2 0 1 2 0 1 1 2 2 0 1 0 1 1 1 2 1 2 0 1 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 0 3 0 2 1 2 1 0 2 2 3 2 2 2 0 0 1 0 0 4 1 2 1 1 1 2 0 3 1 1 0 0 0 2 1 0 2 2 3 1 2 0 2 0 1 0 1 3 2 0 3 2 2 0 0 1 2 2 0 1 1 0 2 0 1 1 1 2 0 2 2 2 0 1 0 0 0 0 3 2 0 3 1 0 0 0 1 3 1 3 2 1 1 0 2 0 1 0 1 0 3 1 2 1 2 3 1 1 1 0 0 2 1 2 1 0 3 0 2 2 2 1 3 1 1 1 2 3 2 1 1 0 1 0 0 2 3 3 1 3 0 1 2 1 2 1 0 1</t>
+  </si>
+  <si>
+    <t>GAM(0.23155126459398312, -5.721708104523172e-28, 0.7245286567124054)</t>
+  </si>
+  <si>
+    <t>0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 2 1 1 1 0 0 1 0 0 0 1 0 1 2 1 0 0 0 0 0 2 1 2 0 1 0 1 2 0 1 0 1 0 1 0 3 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 1 1 1 1 0 0 0 0 1 1 1 0 0 0 2 1 0 3 0 0 0 0 1 1 1 1 0 0 1 2 1 1 0 0 0 0 0 0 0 0 0 1 1 2 0 0 1 1 1 2 0 0 2 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 1 2 1 2 2 1 0 0 0 2 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 3 0 1 0 0 1 1 0 1 0 0 0 1 0 1 0 0 2 0 0 0 0 3 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 2 1 0 0 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 2 0 0 1 1 0 0 0 1 2 2 1 2 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 2 0 0 2 0 0 0 1 0 0 0 2 1 2 0 2 1 1 1 1 3 1 1 1 0 0 0 2 0 2 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 1 1 0 0 0 0 0 1 1 0 1 1 1 1 1 0 0 1 0 0 0 0 0 2 0 1 1 0 1 0 1 0 1 1 2 0 1 0 0 1 1 0 1 1 0 0 1 1 0 1 1 0 1 1 0 1 0 0 1 1 0 1 0 2 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 1 1 0 1 2 0 1 1 1 0 0 2 2 2 1 3 0 0 0 0 0 1 0 1 0 0 0 1 0 2 0 0 2 0 1 2 0 1 2 1 0 0 0 1 0 2 0 2 2 0 1 0 1 0 0 3 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 2 1 0 0 0 0 1 0 1 1 1 0 0 0 0 2 3 0 0 0 0 2 0 0 1 1 2 0 1 0 1 1 0 0 2 0 2 0 0 0 0 1 0 0 1 0 0 0 2 1 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 1 0 0 2 1 2 0 0 0 1 0 0 1 1 1 0 1 0 0 0 2 1 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 1 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 2 0 1 0 1 0 2 1 1 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 3 1 3 1 0 2 0 0 2 0 1 0 0 0 0 0 1 0 0 1 2 0 0 2 0 1 0 0 2 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 2 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 2 0 0 0 0 1 0 0 1 4 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 4 0 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 2 1 1 1 0 0 1 1 0 0 1 1 1 0 0 0 1 0 1 1 1 0 0 1 0 0 0 1 1 0 2 1 0 0 0 1 0 2 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 3 1 0 0 1 0 0 1 1 1 2 0 0 0 0 4 0 0 0 0 0 0 1 0 2 0 0 2 1 1 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 2 0 1 0 0 1 0 0 0 0 2 1 0 1 1 1 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 2 1 0 1 0 1 2 1 1 0 0 0 0 0 0 3 0 1 1 1 0 0 0 1 0 0 1 0 1 1 0 0 0 1 1 0 0 0 1 0 2 0 0 0 0 0 0 3 2 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 2 0 0 1 0 2 1 2 1 0 0 0 0 1 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 1 0 0 1 0 0 0 2 2 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 1 2 0 1 0 0 0 0 0 1 2 0 0 1 0 0 2 0 1 2 1 3 2 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 1 0 1 0 0 0 0 1 0 2 2 0 0 0 0 2 0 2 0 0 0 0 1 0 0 2 1 1 0 1 0 1 1 0 0 0 1 0 0 0 1 0 2 0 0 0 0 1 0 1 2 0 0 1 1 0 0 0 2 0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 2 1 0 0 0 0 1 2 0 1 0 0 1 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 3 0 0 0 1 1 1 3 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 3 1 1 0 0 0 0 0 1 0 0 0 3 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 2 1 1 0 1 0 0 0 0 2 1 0 0 0 0 0 0 2 2 0 0 1 1 0 1 0 3 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 1 0 0 1 3 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 1 2 0 2 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 1 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 0 2 0 2 1 1 0 0 1 1 0 2 0 0 0 0 2 0 1 3 1 2 0 3 0 1 1 0 0 0 1 1 0 1 0 3 0 2 1 1 0 0 1 2 0 1 0 0 0 0 0 0 2 0 1 0 1 1 0 0 1 2 1 0 0 1 2 0 1 1 1 0 2 1 2 1 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 2 1 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 2 0 0 0 0 0 2 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 2 0 2 0 2 0 1 0 0 0 1 0 0 0 2 0 0 1 0 4 0 1 0 1 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 3 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 1 3 0 2 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 1 1 0 2 3 1 0 0 0 0 0 0 0 1 3 1 0 1 0 2 0 1 1 1 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 1 1 0 0 0 2 0 0 4 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 1 0 0 1 0 0 0 3 0 0 0 2 2 2 1 1 0 0 1 2 0 0 1 2 1 0 1 0 1 0 0 1 2 1 0 0 2 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 1 0 0 1 0 1 0 1 1 0 0 1 1 0 1 0 0 0 0 1 1 0 2 0 0 0 0 0 1 1 2 0 0 0 0 0 1 0 0 0 1 0 2 1 1 1 0 2 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 2 0 0 1 0 1 1 1 1 0 0 1 0 2 1 0 0 0 1 1 0 0 1 1 1 1 0 0 0 0 1 1 1 1 0 0 0 2 0 0 0 0 1 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 2 0 1 2 0 1 0 1 0 0 0 1 2 0 1 1 0 1 0 0 1 0 0 0 1 2 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 2 1 0 1 0 0 0 3 2 0 1 0 0 0 0 1 2 0 1 0 0 1 1 0 0 0 2 0 0 1 0 1 1 1 2 0 2 0 3 3 0 2 0 0 1 0 0 0 0 0 3 0 1 0 0 2 0 1 2 1 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 1 0 0 1 0 0 2 1 1 1 1 0 1 0 1 1 0 0 1 1 0 0 1 1 0 1 0 1 0 1 0 1 1 0 1 2 0 0 1 1 1 0 0 1 1 1 1 0 0 1 0 1 0 1 2 1 0 0 1 1 0 0 0 3 1 0 0 0 0 1 0 0 0 0 0 0 0 3 0 1 0 0 2 0 0 0 3 1 0 0 3 0 2 1 0 0 0 0 2 1 1 0 0 2 0 2 0 0 2 0 0 1 1 0 0 0 1 0 1 0 1 0 2 0 1 0 1 1 1 0 1 1 1 1 0 0 0 0 0 1 1 1 0 2 0 0 1 0 0 2 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 2 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 3 2 0 0 0 0 0 0 1 0 1 0 1 0 2 0 0 1 2 0 3 0 0 2 2 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 2 0 0 0 3 1 0 0 0 0 0 1 1 0 1 0 1 0 1 1 1 0 1 0 0 0 2 0 0 0 0 0 0 1 2 0 2 0 0 2 1 0 0 1 2 0 0 2 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 2 0 0 0 0 2 1 0 2 2 1 0 1 0 0 0 1 1 1 0 0 0 2 0 1 0 0 0 0 2 0 3 0 0 0 2 3 0 0 0 2 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 2 1 0 0 1 0 0 2 3 1 1 0 0 1 1 2 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 2 0 2 1 3 0 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 1 2 0 0 2 0 0 1 1 1 0 0 1 0 0 0 0 0 0 2 0 0 1 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 2 0 2 1 0 0 0 0 0 0 1 1 0 2 0 1 0 0 0 0 2 1 0 0 2 1 1 0 1 0 0 0 1 1 0 1 0 1 0 2 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 1 2 1 2 0 0 0 1 1 0 0 1 2 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 2 1 0 0 1 0 1 0 2 1 0 0 0 1 0 0 0 1 0 0 0 0 3 0 1 1 1 0 0 1 0 0 0 1 0 1 1 1 0 1 2 0 0 0 1 2 2 3 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 1 0 0 0 2 1 2 0 0 0 0 0 1 0 1 1 3 0 1 1 0 0 1 1 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 0 1 0 1 1 0 1 2 2 1 1 0 1 1 0 1 0 2 1 1 1 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 3 0 0 0 3 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 2 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 2 0 0 0 0 2 1 0 1 2 0 0 0 1 1 1 0 0 2 1 1 0 1 1 0 0 0 1 1 1 1 1 1 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 2 0 1 0 0 0 1 1 0 2 0 0 0 0 1 1 0 2 2 1 0 0 0 0 2 0 0 2 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 2 1 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 1 0 1 1 0 2 0 0 0 0 0 1 0 0 1 0 1 1 1 0 1 0 0 0 1 0 1 0 0 0 2 0 1 1 0 0 1 0 2 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 1 0 2 0 0 0 1 1 1 0 1 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 3 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 1 2 0 1 0 0 1 0 2 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 2 0 1 1 0 1 0 1 1 2 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 1 2 1 2 0 0 0 0 1 1 0 1 1 1 0 1 0 0 1 1 0 0 1 0 0 0 3 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 1 1 0 0 0 0 1 1 1 2 0 1 0 0 0 4 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 2 0 0 0 0 1 1 0 0 1 1 1 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 2 1 1 0 1 0 2 3 1 0 1 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 2 0 0 0 0 2 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 2 0 0 1 1 0 0 2 0 0 2 1 2 0 2 1 1 1 4 1 0 0 0 2 0 0 0 1 1 0 1 0 2 1 1 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 2 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 1 2 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 3 0 0 1 2 0 1 0 1 1 3 0 1 0 1 1 1 0 4 0 1 2 1 0 1 0 1 1 0 1 0 2 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 2 1 0 2 1 0 1 1 1 0 0 1 1 1 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 3 1 0 0 2 0 0 0 0 1 1 1 2 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 1 0 1 0 0 0 1 0 0 2 0 0 1 1 1 0 2 1 0 2 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 3 2 1 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 0 1 0 1 0 2 1 0 0 3 0 0 0 2 0 0 0 2 1 0 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 2 2 2 0 0 1 0 1 0 0 0 0 3 0 0 0 0 1 0 0 0 0 1 1 1 0 1 1 1 0 1 0 1 3 3 0 1 1 1 1 1 0 0 0 0 0 1 1 3 1 0 0 2 0 2 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 0 0 1 1 2 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 2 0 0 0 1 0 1 0 1 2 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 1 1 0 0 1 1 1 1 1 0 2 1 1 0 1 0 0 0 1 0 1 0 0 2 1 2 1 0 1 0 1 1 0 0 2 0 1 0 1 0 1 1 1 1 0 1 0 2 1 1 1 1 0 0 0 0 0 0 3 0 0 1 0 0 1 1 0 2 0 0 0 1 1 2 0 1 0 1 0 0 1 0 1 0 1 0 0 1 0 2 0 0 2 2 1 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 2 0 0 0 0 3 2 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 1 2 1 1 0 1 0 0 1 2 0 1 0 1 0 0 1 0 1 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 1 0 1 1 2 0 1 0 0 1 0 2 0 0 0 1 2 2 0 1 0 2 0 2 0 0 1 1 0 0 1 1 0 2 1 1 0 1 0 1 1 0 2 0 0 0 0 0 0 1 2 0 0 0 0 2 0 1 0 1 1 0 1 2 1 1 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 1 1 0 0 0 0 0 1 2 1 2 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 1 0 0 1 1 0 0 2 1 0 0 0 0 1 0 1 1 1 0 2 0 1 1 0 0 2 1 1 2 0 0 0 2 1 0 0 0 3 0 1 0 1 0 3 1 1 1 0 0 2 0 0 4 0 2 0 1 1 0 0 0 1 0 1 0 0 0 0 3 0 0 0 0 0 1 0 0 2 0 1 0 0 0 1 0 0 1 0 0 1 2 0 1 0 0 0 1 1 0 1 0 0 1 0 0 2 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 3 0 0 0 1 0 1 1 0 1 1 0 3 0 1 0 0 1 0 1 0 1 1 0 1 1 1 2 0 1 0 1 0 0 0 0 1 0 1 2 1 2 1 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 2 0 1 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 2 1 0 2 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 2 1 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 2 0 2 2 2 0 0 1 0 1 1 1 2 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 2 0 0 0 0 0 0 2 0 0 0 1 2 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 3 1 0 0 0 2 1 0 0 0 2 0 0 1 0 1 0 0 0 1 3 0 1 2 1 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 2 0 1 0 0 1 1 0 1 0 2 2 2 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 2 0 1 0 1 0 1 0 0 0 1 1 2 1 0 1 2 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 2 0 0 1 0 0 0 1 0 4 0 0 2 1 1 0 0 1 0 1 1 1 0 4 0 0 1 1 0 0 1 0 1 0 2 0 0 0 0 1 0 1 0 0 0 1 2 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 2 0 0 1 2 1 1 0 0 0 0 2 2 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 3 2 0 1 0 0 2 0 0 2 2 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 0 2 1 0 2 1 0 0 0 0 1 1 0 1 1 1 1 1 1 0 0 1 0 0 1 0 0 0 1 0 1 0 1 1 1 1 0 0 0 1 0 1 0 3 0 0 1 2 1 2 1 2 0 0 0 0 1 1 2 0 0 0 2 0 2 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 2 0 0 2 0 2 0 0 0 1 0 2 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 2 0 1 1 1 1 0 1 0 0 0 1 0 0 0 1 1 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 2 1 2 0 2 1 0 1 1 2 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 1 0 3 1 0 0 1 1 0 1 0 0 0 1 0 1 1 0 1 0 0 1 0 0 1 0 1 1 1 0 0 0 1 1 0 0 0 0 0 3 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0 1 0 0 3 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 2 2 0 0 1 0 0 0 2 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 2 2 2 0 1 1 0 1 2 1 0 1 0 1 0 1 0 0 0 1 1 0 0 0 2 1 2 0 0 0 1 0 0 1 0 0 0 0 1 1 0 2 0 0 1 0 0 3 0 1 0 0 2 0 0 0 0 0 1 0 1 1 1 0 1 0 2 0 1 0 0 0 0 0 0 1 1 0 2 0 2 0 0 0 0 3 2 0 1 0 0 0 3 0 2 0 2 0 0 1 1 1 0 2 0 0 0 1 0 0 0 2 1 0 0 0 1 1 0 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 2 1 1 1 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 1 0 0 0 1 2 2 1 1 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 3 1 2 0 0 3 2 2 1 0 2 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 4 0 1 1 0 0 1 2 2 0 1 1 1 1 0 1 0 1 1 2 0 0 2 0 1 0 0 1 2 0 1 0 2 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 2 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 2 2 0 0 0 0 0 1 0 0 0 0 1 2 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 1 2 1 1 0 2 0 0 0 2 0 1 0 1 2 0 0 0 0 0 1 0 0 1 0 0 1 0 0 2 0 1 0 0 0 0 0 1 0 2 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 1 0 0 3 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0 2 1 0 0 0 0 0 0 2 0 1 0 0 1 0 2 0 0 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 2 0 0 2 0 2 2 2 0 1 2 1 0 2 0 1 0 0 0 3 1 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 2 0 2 0 1 0 1 1 1 0 0 0 1 1 0 0 0 1 0 0 1 0 2 1 0 0 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 2 0 0 1 0 1 1 1 0 0 1 0 0 2 1 0 2 1 0 0 2 0 0 1 0 0 0 2 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 2 0 0 0 0 1 1 1 1 2 1 0 0 1 0 1 1 0 0 0 1 0 0 1 1 1 0 1 0 0 0 1 0 0 2 0 0 0 1 1 1 1 0 1 0 0 1 0 0 1 0 0 2 0 0 1 0 3 1 1 0 0 0 0 0 1 1 0 1 0 2 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 2 1 1 1 2 0 1 0 0 2 0 0 0 0 1 0 3 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 0 1 0 1 1 1 0 3 0 0 0 0 0 1 2 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 2 0 1 0 0 1 0 0 1 1 0 0 1 0 2 1 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 1 1 0 0 3 1 0 0 1 0 1 0 1 3 1 1 1 0 0 0 0 1 2 1 1 1 1 1 1 2 1 0 0 0 0 0 2 0 0 0 0 1 1 1 2 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 3 1 0 0 1 1 0 0 0 0 1 2 0 1 1 1 1 0 0 0 2 0 1 0 1 0 0 0 0 2 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 2 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 2 1 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 2 0 0 0 0 1 1 2 0 1 0 2 0 2 0 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 2 0 0 0 0 2 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 0 2 0 1 2 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 4 1 0 1 1 0 0 0 4 0 0 1 1 1 1 2 1 0 1 1 1 0 1 1 0 0 3 0 1 3 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 2 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 3 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 0 3 0 1 1 0 0 0 2 0 1 0 0 1 0 3 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 0 1 0 1 2 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 2 0 0 0 1 0 1 0 1 1 0 1 0 1 1 0 0 1 1 0 1 1 1 0 1 1 0 0 0 0 0 1 2 0 0 0 1 0 2 0 0 0 0 0 0 0 1 1 0 0 1 1 2 0 1 0 1 0 0 1 0 1 1 0 1 1 1 1 0 1 1 0 0 0 1 1 0 2 0 1 2 0 1 0 0 1 1 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 1 0 0 0 2 0 0 0 0 2 1 0 0 0 0 0 0 2 0 1 0 0 1 0 2 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 2 0 0 2 1 1 0 0 0 2 0 0 1 1 1 1 2 0 1 0 0 0 0 0 2 1 1 1 1 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 2 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 2 2 0 1 0 1 0 2 0 1 2 0 2 1 3 0 0 1 3 1 1 0 1 0 1 1 0 0 0 0 0 0 0 2 0 0 1 1 2 0 0 0 0 0 0 1 2 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 3 0 0 2 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 1 1 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 1 1 0 1 0 0 1 1 0 1 1 0 2 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 1 0 1 1 0 1 1 0 0 2 1 0 1 0 1 1 1 1 1 0 0 2 1 0 0 1 0 0 2 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 4 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 1 1 2 0 1 1 0 0 0 1 1 1 0 0 1 0 0 1 0 0 1 0 1 3 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 2 0 1 0 0 1 0 1 1 0 0 1 2 1 0 0 0 1 0 1 0 0 1 1 0 2 1 1 0 1 1 0 1 1 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 1 1 0 0 2 0 1 0 0 0 1 1 1 0 1 1 0 1 1 0 0 2 3 0 0 0 1 1 1 0 2 2 0 1 0 0 1 3 0 0 0 2 1 0 0 1 0 0 1 0 2 0 1 1 1 0 0 0 0 1 0 2 0 0 2 0 1 1 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 1 3 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 2 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 1 0 0 2 1 4 0 0 0 0 1 0 2 0 1 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 2 1 0 1 0 0 1 0 0 0 1 1 1 2 0 0 1 0 1 1 0 1 1 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 2 2 1 1 0 0 0 1 0 0 4 1 1 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 1 1 0 1 1 0 0 1 1 0 2 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 2 3 3 0 1 1 0 0 1 0 0 0 3 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 2 0 2 0 0 1 1 0 0 0 0 0 0 0 0 2 1 1 1 1 0 1 1 0 0 1 1 1 1 0 0 1 0 0 0 1 1 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 1 0 2 2 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 2 0 1 0 0 2 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 0 0 1 2 0 0 3 1 0 3 0 1 0 0 0 0 1 1 0 0 2 0 0 1 0 0 1 1 2 1 1 2 0 1 0 0 1 0 0 0 0 0 2 0 2 1 0 0 0 0 0 1 2 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 2 1 1 1 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 2 2 0 0 1 2 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 2 1 0 1 0 0 0 1 0 1 0 1 0 1 2 2 0 0 2 1 0 1 1 0 0 0 1 1 0 0 0 0 1 0 2 1 1 0 0 0 2 0 1 0 0 1 0 0 1 1 0 1 0 1 0 0 1 1 2 0 0 2 0 0 0 1 0 0 1 0 0 0 2 0 0 1 2 0 0 1 1 1 0 0 1 1 3 0 0 1 0 0 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 2 2 1 0 0 0 0 0 2 0 1 0 0 0 1 2 0 2 0 0 1 1 0 1 0 3 0 1 1 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 2 1 1 0 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 3 0 0 0 0 0 1 0 1 0 2 2 2 0 1 1 0 1 0 1 0 2 0 3 0 0 0 1 0 0 1 0 2 0 0 3 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 1 2 0 0 0 1 0 2 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 2 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 2 1 1 0 1 2 0 0 1 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 0 2 1 1 0 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 3 0 0 0 1 2 0 2 1 0 0 1 1 0 3 0 1 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 1 1 0 0 1 0 2 1 1 1 2 2 0 1 3 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 3 2 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 2 2 0 1 0 0 1 0 1 0 1 0 1 0 1 1 1 0 0 2 1 1 1 0 0 0 0 0 0 1 0 1 1 1 0 0 2 0 0 0 1 1 1 0 0 1 0 2 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 2 0 1 1 0 1 0 0 2 0 0 0 2 0 0 0 2 0 0 1 1 1 2 1 0 0 0 0 2 0 0 1 1 1 1 0 0 1 0 2 0 0 2 0 0 0 1 0 0 1 0 2 0 0 1 0 0 0 1 0 2 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 2 2 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 2 1 0 1 1 1 0 1 2 1 0 2 1 1 0 1 0 0 0 0 0 0 0 0 3 0 0 0 2 1 3 0 0 0 1 1 1 1 1 1 1 0 0 0 0 1 1 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 3 0 2 0 0 1 0 2 2 0 1 1 0 0 1 1 0 1 0 0 0 0 2 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 2 0 0 0 2 0 0 1 2 0 0 0 1 1 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 1 0 0 0 2 3 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 2 0 0 0 0 1 1 1 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 2 1 1 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 2 0 0 0 1 0 0 1 0 0 0 3 1 1 0 0 0 0 2 0 1 1 0 0 1 1 0 0 1 1 1 0 0 1 1 2 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 3 1 0 0 1 1 0 0 0 0 1 0 0 1 0 2 0 0 1 0 1 0 1 1 0 0 1 0 1 0 2 1 0 0 0 1 1 0 1 0 2 0 0 1 1 1 0 0 0 0 0 1 0 0 2 2 2 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 3 0 1 1 1 0 0 0 0 2 2 0 1 2 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 2 1 0 0 0 1 0 1 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 1 2 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 2 1 1 0 0 0 0 0 1 0 2 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 3 1 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 2 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 2 1 1 0 0 0 0 1 2 0 1 0 0 2 0 0 0 1 0 1 2 1 1 0 1 1 1 1 1 0 1 1 0 1 1 0 2 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 2 1 0 2 1 0 0 1 0 1 2 0 2 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 1 1 1</t>
+  </si>
+  <si>
+    <t>JSB(1.5534803629549048, 2.534250830235438, -47.73095729326158, 422.982019013288)</t>
+  </si>
+  <si>
+    <t>84 67 120 63 123 85 104 92 72 91 130 98 151 70 55 143 96 187 158 145 173 81 69 141 186 108 56 88 42 65 22 98 87 143 47 178 93 108 113 101 131 93 89 98 60 178 98 126 85 52 101 66 58 76 99 99 74 143 61 103 124 166 163 81 141 98 62 90 58 134 207 64 78 77 77 108 126 133 126 43 169 106 115 95 75 127 62 42 178 90 163 54 48 173 128 95 56 122 156 118 51 71 100 81 136 74 108 125 114 81 145 74 134 106 117 37 133 146 86 96 156 92 84 218 107 135 51 60 178 62 108 90 141 54 153 71 76 141 130 98 119 58 88 146 150 99 65 88 103 120 124 133 133 125 205 63 154 70 56 146 81 110 75 128 100 53 35 140 100 131 67 147 46 132 123 101 83 85 156 56 140 105 185 164 163 159 80 83 65 116 168 135 115 113 136 124 83 110 90 103 102 117 43 66 85 135 139 91 92 69 62 107 68 130 83 67 79 76 79 106 132 31 143 83 118 58 94 74 148 77 75 125 71 114 107 145 128 112 39 78 78 87 150 71 60 60 40 95 74 77 98 156 98 49 155 44 119 54 89 125 106 165 50 108 125 111 98 194 85 53 106 77 124 96 60 104 69 96 167 45 54 110 78 126 133 112 104 109 66 139 32 20 110 45 142 82 107 89 41 134 128 124 93 71 145 173 117 90 134 81 43 100 113 52 90 107 60 139 90 128 155 95 105 103 116 101 71 114 121 48 17 98 57 70 52 71 99 72 74 75 67 105 137 38 133 116 55 101 109 123 64 111 129 88 120 92 65 113 134 146 101 112 104 76 91 144 93 119 85 70 103 78 152 130 69 104 136 119 99 99 152 78 133 103 65 97 129 65 118 90 80 48 118 91 122 101 66 67 127 67 119 161 46 125 142 109 91 57 75 70 151 77 135 81 45 107 126 31 145 100 56 57 42 77 118 126 150 117 59 86 103 76 57 52 120 92 144 116 139 115 74 51 121 95 137 23 37 117 186 126 56 101 100 150 153 122 65 51 115 139 67 66 81 134 93 105 146 106 227 115 81 76 69 50 120 99 45 94 107 64 136 123 145 83 54 74 157 121 123 89 68 119 67 98 119 55 98 159 175 127 57 59 94 131 143 184 88 134 89 144 139 151 81 145 108 101 112 110 134 102 143 160 180 109 71 134 97 59 150 73 135 106 46 137 113 140 107 67 111 99 75 52 138 112 39 167 134 69 133 70 126 203 66 60 129 91 73 51 89 51 69 70 61 126 103 119 95 103 83 107 64 97 115 98 92 162 105 86 111 117 111 45 66 125 105 31 81 119 56 128 135 79 115 87 79 132 145 140 170 115 118 116 101 121 81 139 116 146 92 118 92 145 121 159 107 113 55 107 124 79 67 155 60 177 117 55 149 123 69 102 68 114 66 183 116 71 107 182 64 76 86 83 35 91 99 99 66 97 77 95 64 102 228 116 158 102 81 135 162 132 195 150 101 191 127 128 119 39 118 40 113 106 113 112 70 121 63 54 79 94 154 60 63 109 94 66 116 105 140 53 86 123 138 66 118 42 55 54 122 42 162 58 86 164 99 81 117 100 127 106 87 133 95 111 106 219 100 103 77 100 72 85 106 63 72 61 68 89 149 132 150 97 77 84 164 106 67 121 98 96 117 96 178 109 139 93 110 104 103 133 154 135 49 94 41 82 97 154 175 123 103 97 77 108 97 86 54 94 83 71 105 80 77 107 67 200 215 65 87 128 132 76 119 17 78 157 169 100 65 153 48 172 85 113 112 62 119 36 110 98 83 83 73 125 129 46 125 127 35 52 102 105 132 118 97 86 121 103 134 135 162 68 95 114 121 118 143 118 72 120 84 43 140 103 110 61 190 71 100 72 136 157 100 172 126 145 61 132 170 109 144 114 64 13 37 80 153 58 99 132 80 122 199 118 65 48 126 78 77 59 94 130 98 99 74 78 102 85 103 91 141 85 172 121 84 91 49 85 60 93 91 109 74 86 49 172 183 69 139 143 98 140 125 140 90 82 128 107 60 126 135 65 79 107 152 129 107 79 58 76 116 123 146 142 88 113 65 105 98 83 153 95 167 53 119 116 84 129 118 88 51 147 88 191 72 80 92 107 91 114 103 89 93 44 70 132 101 49 101 69 117 190 90 113 52 54 130 115 123 62 42 92 129 184 149 112 45 161 100 146 44 72 127 111 94 76 24 138 82 84 117 57 125 99 146 99 49 121 106 98 66 168 153 202 160 153 118 88 106 127 77 85 101 181 95 58 133 163 74 86 107 142 99 54 107 49 84 67 62 123 114 99 103 91 49 85 17 101 95 124 107 117 46 89 87 76 87 90 63 96 41 136 137 91 65 68 91 104 46 42 140 55 103 52 96 40 142 108 130 65 105 149 51 135 92 81 135 163 90 84 62 54 130 107 76 163 130 149 120 105 124 80 158 116 132 103 117 127 58 168 175 138 178 99 149 82 106 87 92 94 66 127 124 87 143 26 96 77 134 64 118 97 109 124 81 125 102 115 142 131 83 88 41 109 117 114 25 145 160 73 136 180 107 84 106 118 116 115 101 83 94 56 101 161 39 80 166 79 118 120 98 93 146 65 77 80 93 106 127 129 130 129 98 103 85 110 96 87 84 120 58 86 40 116 178 80 85 80 86 59 143 136 116 58 105 87 131 159 88 138 101 140 123 100 80 122 141 53 98 181 56 125 109 123 106 77 29 104 66 124 66 175 60 120 122 105 149 148 101 133 122 100 125 147 85 118 90 102 140 121 97 120 107 148 154 94 59 107 150 154 135 190 107 117 170 82 109 61 122 45 121 118 186 110 107 170 89 116 139 142 101 122 148 118 108 137 103 34 129 91 119 65 179 151 168 95 111 68 78 127 86 143 170 58 113 127 106 99 100 105 130 110 54 76 51 73 57 91 76 130 55 103 136 90 86 101 98 97 162 88 63 101 129 68 75 64 101 64 121 100 98 100 92 112 130 79 164 99 77 145 112 112 141 72 72 109 127 31 67 56 114 30 170 101 157 45 139 99 126 61 57 82 142 123 68 110 61 58 21 124 84 118 102 88 110 163 39 58 99 52 51 115 123 166 59 60 67 124 132 111 153 65 66 85 93 130 100 162 63 27 38 104 142 115 144 124 96 53 139 85 88 76 87 74 63 125 141 101 145 73 74 172 62 78 78 50 73 131 90 87 90 139 125 98 61 176 120 96 95 130 80 89 124 63 102 119 152 171 129 96 133 93 76 58 191 132 195 97 66 32 149 68 141 160 75 144 166 111 132 79 89 102 92 76 70 173 129 117 108 85 69 104 82 65 72 182 105 95 142 162 134 126 64 126 112 102 76 131 76 63 45 89 157 81 124 41 170 103 84 164 109 78 149 116 129 113 118 105 59 28 87 132 79 162 139 98 68 156 165 139 171 118 135 65 66 104 90 47 121 69 185 43 109 89 117 60 106 211 84 112 153 146 66 74 115 139 60 129 102 128 128 71 32 106 99 59 39 75 175 148 90 88 102 179 114 133 124 45 61 131 134 47 64 134 72 123 160 67 91 164 43 86 192 118 101 95 128 37 107 101 132 148 103 104 43 132 55 93 156 189 94 89 80 70 165 68 49 101 108 71 93 70 95 24 109 150 110 139 155 123 135 177 66 140 77 179 111 100 47 68 96 57 97 46 51 136 60 139 139 63 28 136 56 147 98 124 163 144 194 162 84 141 138 136 69 90 75 42 86 86 130 52 102 79 128 108 100 138 62 171 49 140 146 101 99 36 119 121 79 154 194 71 71 140 69 116 50 127 91 92 100 64 81 105 88 75 98 50 68 99 122 82 43 85 86 97 108 38 85 50 103 53 47 92 77 137 130 110 185 181 109 99 139 144 168 49 131 99 158 108 170 128 135 143 95 108 102 115 124 106 128 117 128 139 162 108 125 96 94 109 49 104 157 78 70 43 112 117 75 86 128 35 115 34 104 110 163 45 127 130 133 95 110 70 128 136 110 87 88 129 83 79 92 145 126 115 72 142 94 104 130 61 103 94 97 91 102 161 98 131 62 69 44 105 150 47 46 155 59 53 120 135 160 40 80 106 112 55 86 161 100 159 162 144 160 125 136 99 65 71 105 153 142 42 72 81 147 89 134 107 136 219 147 79 140 161 73 159 95 87 107 188 94 100 97 104 188 71 93 54 187 75 81 91 66 78 137 93 133 115 68 44 88 170 113 143 103 94 127 52 93 28 94 75 65 82 88 142 80 28 77 103 177 97 98 174 24 109 134 175 86 79 87 114 188 132 148 139 125 64 45 94 119 124 130 69 53 124 84 92 137 154 113 105 100 73 78 128 102 112 75 145 137 120 73 133 88 71 49 78 171 155 60 90 118 80 111 85 67 103 77 104 69 57 149 24 65 107 105 92 130 55 166 169 106 54 133 89 114 64 129 81 88 24 115 77 99 125 151 104 92 126 154 100 38 107 184 172 146 118 108 48 139 96 125 96 96 82 114 104 121 132 135 136 64 111 82 133 95 107 141 30 39 127 112 153 135 84 80 87 91 87 94 167 59 86 130 84 63 43 65 135 191 160 107 70 132 42 135 39 81 140 109 129 91 154 26 48 123 108 138 97 43 52 116 104 84 122 165 118 97 65 83 28 185 149 42 140 44 130 120 85 79 89 217 179 131 60 91 59 112 85 93 64 80 123 84 147 102 143 77 103 69 160 79 94 58 56 43 170 66 112 49 58 116 120 144 120 120 88 59 86 104 52 92 111 90 141 156 66 117 157 109 105 86 166 87 67 152 50 116 106 137 104 103 65 140 177 81 153 103 93 70 19 76 119 139 83 149 185 120 138 177 110 96 88 144 55 78 97 140 103 93 123 85 147 167 121 189 163 47 73 135 91 81 124 46 78 81 136 142 121 104 117 170 85 14 50 126 91 93 119 77 107 141 99 129 23 79 88 76 170 86 70 72 57 117 146 95 100 102 137 57 66 50 76 112 90 79 90 72 101 148 153 120 59 154 106 143 88 155 110 63 93 59 143 150 139 70 110 135 145 153 87 175 141 130 84 25 85 143 123 87 115 81 92 175 94 132 150 100 131 62 89 163 54 108 114 123 111 79 59 70 58 101 92 132 82 111 143 167 135 100 99 49 88 119 113 131 80 138 117 150 107 53 58 44 100 120 78 78 142 26 53 97 120 68 91 107 122 119 65 118 71 144 86 153 104 51 105 73 133 46 124 81 143 100 115 97 94 125 76 59 97 55 226 81 63 120 75 91 72 85 106 90 128 65 120 79 111 35 63 99 207 159 115 154 119 99 105 114 132 94 67 140 127 105 143 69 112 60 82 120 89 56 162 126 146 153 85 155 116 134 179 84 79 135 107 115 75 62 24 128 83 102 116 111 194 162 98 131 73 203 92 186 54 144 95 36 82 102 133 88 103 90 114 90 121 57 162 88 125 34 87 120 111 77 126 95 65 103 94 50 101 74 143 156 111 88 136 95 94 154 127 39 123 96 136 59 103 169 133 84 100 129 162 111 53 96 120 137 34 111 100 70 125 114 108 86 83 23 135 38 35 134 113 151 55 61 189 71 154 245 103 221 77 66 158 43 166 21 156 194 48 98 155 36 83 154 88 146 78 77 132 109 90 49 116 97 138 92 105 99 129 38 122 77 56 100 130 119 77 117 90 105 90 55 108 220 125 84 75 70 141 143 111 123 98 122 113 132 93 70 107 67 91 65 81 48 66 89 116 123 99 144 63 103 52 41 64 84 141 95 145 53 65 61 130 95 46 98 135 80 63 80 111 96 95 92 158 102 99 182 99 111 78 96 91 147 149 91 77 88 42 163 136 152 69 148 103 118 97 41 108 60 167 160 63 168 105 106 126 122 66 106 79 95 131 122 54 90 78 42 89 62 103 122 79 58 89 94 78 92 137 140 78 105 98 117 51 116 51 62 88 88 133 142 110 101 195 51 147 107 121 73 99 95 89 32 126 79 143 130 174 65 95 45 94 96 136 127 133 89 170 128 94 67 93 106 122 65 174 106 179 68 161 117 163 86 134 58 94 151 134 209 87 147 144 104 32 90 68 62 133 65 85 174 106 78 161 79 26 90 82 122 41 52 65 97 88 233 111 85 101 97 99 92 125 191 163 52 113 62 120 95 131 155 52 131 177 74 134 60 129 105 75 105 145 34 53 87 57 137 129 138 55 90 108 114 113 150 78 44 135 134 94 128 64 55 106 172 158 87 41 70 114 171 95 124 161 78 126 61 155 168 154 111 135 139 98 75 74 77 122 120 75 75 120 69 91 109 66 107 101 72 33 117 127 147 131 72 97 185 64 135 65 94 154 92 123 107 81 101 82 132 39 116 105 92 80 122 67 199 92 146 173 110 29 103 61 103 114 91 146 150 119 122 121 121 95 33 124 86 93 112 65 86 93 64 148 91 120 163 106 81 111 85 148 127 53 144 146 68 146 72 39 72 96 122 32 68 139 208 111 133 101 111 98 68 110 60 109 17 59 95 142 127 115 134 78 69 60 95 27 191 144 87 107 78 74 143 74 33 133 142 30 79 167 182 61 78 121 72 72 175 156 52 87 108 62 100 99 56 171 175 119 75 140 87 168 55 165 117 151 158 86 60 122 53 114 168 52 112 85 135 116 103 155 127 142 120 89 108 121 113 89 58 118 121 109 119 83 99 85 147 111 131 104 146 106 77 77 60 73 69 212 55 142 111 158 108 117 143 88 57 84 138 97 127 122 81 92 135 82 118 84 75 121 96 127 90 75 132 198 163 71 102 80 129 169 57 93 56 140 200 124 88 253 73 117 55 38 133 117 146 118 87 117 85 71 89 88 79 164 171 141 77 94 102 131 123 78 131 237 82 21 58 69 132 114 83 133 102 134 86 79 90 59 114 118 62 114 168 95 83 132 122 124 40 108 81 80 59 108 95 160 127 135 144 126 82 97 190 119 141 135 79 60 109 102 42 96 118 98 50 108 131 112 114 165 110 142 52 165 159 149 123 47 81 186 138 81 84 81 180 55 86 162 49 116 103 143 117 181 158 72 25 116 96 50 117 141 53 128 97 42 76 95 105 112 116 72 104 61 149 136 87 121 67 133 95 138 32 63 22 37 70 112 101 121 97 114 84 63 169 106 163 120 144 88 71 83 167 90 87 110 110 140 135 70 173 194 126 123 115 112 97 123 122 95 52 136 144 73 60 91 85 175 116 89 68 86 86 75 153 78 38 100 83 113 37 65 57 82 126 137 107 127 101 162 94 32 125 87 71 50 127 107 53 69 96 101 124 134 134 130 66 115 125 85 78 108 103 146 168 103 108 202 148 154 80 135 100 62 175 24 128 70 159 120 100 123 117 91 59 153 118 101 108 102 82 95 103 83 92 125 114 75 41 93 90 75 135 106 66 71 113 112 146 76 93 163 74 81 58 71 56 147 93 48 77 102 90 156 94 32 114 71 89 55 16 25 144 109 141 129 22 113 182 166 126 106 67 204 12 135 79 87 107 159 37 48 79 132 79 62 93 101 127 129 126 84 44 78 112 103 156 94 97 49 154 96 107 74 89 27 94 144 122 85 77 95 98 182 131 93 104 97 139 81 119 133 73 92 77 75 90 168 66 73 145 125 69 153 62 100 162 93 51 128 71 122 168 112 101 90 81 75 123 119 57 65 105 156 50 109 102 130 67 134 75 101 42 105 51 118 137 89 95 135 149 104 77 147 174 66 146 96 72 127 85 87 53 67 86 142 76 95 48 88 96 59 120 128 59 124 70 79 108 142 131 110 153 101 69 20 176 126 72 124 115 113 75 140 103 77 136 163 106 122 43 70 76 92 81 109 62 126 86 86 162 103 182 58 78 115 110 169 103 120 91 87 50 89 59 129 112 47 103 104 95 108 125 84 56 139 123 62 117 121 86 97 93 105 80 44 155 84 90 137 211 89 66 190 121 73 99 56 168 56 78 83 134 59 110 78 72 69 113 86 197 33 41 61 92 110 102 178 113 59 95 36 91 35 122 82 102 95 168 117 115 119 145 33 112 58 159 118 81 92 98 129 25 133 134 127 40 61 116 151 204 121 19 145 121 179 95 135 108 71 120 99 71 108 101 89 134 102 167 81 107 90 54 97 128 105 137 90 153 140 131 151 99 90 169 87 126 107 113 88 112 131 56 131 70 116 114 111 94 56 32 109 125 94 100 130 88 114 66 71 94 94 153 112 109 117 222 91 102 79 55 60 130 89 102 54 153 74 115 81 40 154 99 153 21 106 180 115 111 72 80 85 74 76 43 79 100 61 112 35 105 39 107 142 49 126 142 122 38 34 118 80 125 135 61 96 73 119 159 75 78 89 63 89 70 142 67 104 101 60 94 157 94 108 54 105 104 74 99 114 138 170 41 116 134 67 92 102 117 104 47 92 67 131 159 38 155 65 109 185 99 111 97 151 154 111 81 72 111 69 93 117 89 99 112 84 137 171 104 138 135 104 113 16 118 140 81 50 109 75 123 48 124 148 145 122 107 126 111 108 86 139 131 38 72 130 141 153 155 105 59 135 76 77 99 95 110 110 49 117 47 118 105 197 112 51 105 106 71 84 96 149 106 81 88 54 90 94 164 105 110 59 185 161 48 156 134 63 110 146 126 125 166 76 104 112 168 35 109 115 48 143 124 95 94 28 116 71 46 112 96 145 43 96 77 114 163 93 120 159 103 96 68 136 120 76 38 147 163 131 52 44 55 90 88 158 110 69 63 62 94 67 120 91 87 71 96 129 118 73 75 149 180 102 171 88 95 82 85 96 91 75 144 154 121 107 31 95 168 98 110 129 78 58 139 47 105 92 119 55 71 112 134 223 183 106 76 100 61 160 105 127 110 135 111 117 150 66 97 46 94 114 151 91 119 130 59 148 71 83 120 104 111 197 91 98 97 188 91 89 103 98 61 91 49 202 53 94 124 139 171 106 101 46 111 131 80 210 40 77 64 107 130 113 45 125 106 82 123 63 126 200 102 70 109 117 120 67 90 110 140 107 45 193 135 79 170 74 106 66 160 52 142 136 102 69 74 60 114 68 121 87 110 98 72 128 34 163 133 99 138 119 86 41 90 80 119 155 13 57 114 154 102 79 65 58 189 44 73 122 215 116 124 115 136 49 187 202 90 55 127 100 108 117 101 47 58 27 123 101 67 127 113 99 48 168 52 121 134 95 136 182 141 175 101 92 89 137 149 96 100 34 48 177 180 80 87 131 60 159 134 149 151 50 115 121 98 108 134 94 130 139 144 66 97 79 230 49 140 118 83 101 123 162 71 60 217 75 187 69 119 158 90 145 123 114 33 121 119 123 92 125 83 96 86 119 66 90 83 95 184 126 39 144 94 65 144 108 104 168 139 114 175 124 83 74 103 149 117 67 116 98 142 124 144 45 75 64 107 112 102 118 113 63 124 68 101 92 65 85 62 112 86 107 161 94 104 144 94 124 58 134 89 112 69 90 116 65 132 90 19 105 114 86 157 137 119 116 116 97 116 94 95 63 103 132 46 123 157 98 124 135 98 106 123 107 138 88 110 107 112 94 118 81 135 99 107 122 147 180 116 113 220 46 78 86 76 76 89 77 47 62 115 40 154 126 107 162 108 135 94 116 132 151 132 60 94 82 99 130 102 70 95 92 77 91 98 63 117 51 114 51 112 175 115 57 190 79 94 52 100 121 169 74 140 116 88 99 40 89 88 112 154 126 70 82 151 128 63 20 64 90 167 110 127 121 92 92 61 55 103 84 42 77 69 73 195 130 105 91 159 152 68 58 88 94 157 22 91 81 108 96 149 142 120 136 93 96 93 78 185 89 142 113 95 87 81 109 61 107 111 113 60 95 94 78 112 106 66 46 115 99 30 109 116 108 150 127 100 106 94 68 57 62 125 162 152 123 95 134 111 94 113 143 178 67 201 98 112 83 73 133 51 70 139 114 31 181 167 122 70 161 120 157 102 149 99 140 72 169 116 114 117 111 88 116 54 115 54 95 137 138 80 137 119 116 155 176 137 60 147 140 71 74 71 88 102 121 25 86 95 84 46 100 138 119 95 147 61 206 42 62 99 151 107 114 108 154 115 88 57 71 152 81 41 93 78 92 85 50 100 137 104 84 173 46 141 193 114 92 147 88 166 116 121 106 129 42 114 104 91 116 84 128 137 39 56 91 74 49 136 69 171 83 106 151 130 147 62 123 86 70 138 49 105 63 78 47 70 45 101 66 110 52 28 67 65 156 67 103 124 84 51 105 72 83 173 81 118 27 45 47 77 87 130 130 83 122 86 93 141 156 100 129 100 157 78 103 158 61 122 48 119 107 123 138 153 106 107 96 145 132 87 156 119 71 138 115 95 87 128 125 148 101 120 49 170 79 108 117 77 98 36 156 132 71 149 169 117 45 127 172 110 67 84 78 60 100 82 88 127 91 98 91 129 73 75 146 91 109 121 84 133 99 93 79 69 120 77 70 128 57 156 114 167 103 71 100 74 118 85 56 109 134 58 127 60 50 79 97 71 70 65 37 101 90 97 113 181 53 76 95 157 113 84 105 105 50 90 124 48 88 87 69 143 82 71 176 54 85 66 64 144 132 174 164 156 91 173 87 178 129 121 69 79 150 136 72 95 159 78 104 134 112 83 134 106 156 69 85 210 135 142 88 174 80 58 97 45 68 112 47 85 96 137 168 68 78 99 82 45 53 99 109 71 112 66 80 126 97 82 52 91 88 86 50 121 114 124 148 143 147 83 93 43 82 60 60 67 84 71 175 87 144 59 120 54 97 159 54 120 144 169 147 77 148 131 191 120 113 52 174 115 96 131 34 213 88 60 108 52 110 117 102 119 96 124 93 57 94 55 129 113 140 111 90 145 75 118 66 77 81 111 100 129 22 135 125 74 202 58 39 116 77 116 105 138 78 97 121 92 97 136 75 115 73 104 27 83 93 99 63 69 83 81 117 65 61 74 135 59 124 70 64 116 119 151 103 90 151 140 115 97 179 58 138 112 170 169 67 128 124 120 58 76 110 196 83 97 180 68 53 134 52 56 101 16 91 170 38 130 77 82 86 111 108 57 76 174 158 120 100 89 48 97 90 142 148 138 105 88 61 121 64 98 195 150 108 87 146 94 113 60 149 55 151 155 158 47 128 127 88 79 95 85 116 115 69 96 115 160 103 145 72 108 107 141 104 178 109 80 126 41 88 111 104 94 104 65 116 101 143 117 158 188 55 75 127 115 86 118 155 140 118 172 38 59 112 183 87 92 108 66 119 45 137 127 28 82 146 89 55 113 67 120 47 89 104 111 139 234 91 147 91 179 179 60 81 119 53 123 63 120 101 105 127 83 141 51 62 114 63 133 112 91 115 108 94 171 96 103 83 98 65 86 61 69 123 115 163 102 106 102 168 104 157 142 96 104 56 58 71 132 102 147 105 93 106 59 148 85 86 98 89 60 146 98 94 139 119 91 125 64 56 165 101 7 110 49 79 141 75 103 121 88 83 146 61 50 51 116 94 148 151 191 99 67 139 126 124 101 163 139 26 62 94 108 127 116 133 94 126 84 110 86 93 136 86 124 59 117 31 98 67 132 140 118 104 55 130 138 113 101 28 36 116 157 92 69 87 102 159 100 69 158 20 118 96 62 122 59 91 103 78 41 56 88 83 116 133 130 75 67 32 90 80 132 189 23 110 135 64 60 89 160 114 84 115 101 121 152 98 56 112 94 147 123 54 141 109 60 140 20 129 119 75 97 110 114 79 114 134 99 63 77 139 143 132 52 119 155 102 119 151 127 94 68 79 125 92 105 112 107 69 105 158 110 97 77 104 96 88 109 66 132 92 66 101 146 122 23 159 51 68 151 129 76 90 122 99 132 47 37 129 90 97 65 122 216 123 59 103 118 35 168 96 85 29 57 85 137 58 107 137 180 95 156 81 92 115 99 176 86 126 88 60 184 81 162 119 134 85 107 93 70 55 115 88 125 121 111 67 103 58 141 99 136 94 79 167 128 103 58 55 29 132 122 167 51 205 110 33 50 118 41 82 90 149 96 169 93 96 136 169 79 161 129 113 75 100 123 8 97 103 96 62 114 104 177 106 72 40 60 70 106 135 92 126 65 84 86 105 75 105 105 93 118 107 127 102 115 160 85 138 100 105 79 154 137 117 77 175 76 89 95 129 125 89 117 68 126 71 219 183 76 147 211 159 52 58 138 73 88 86 165 146 92 67 87 66 171 158 84 122 98 146 85 59 145 122 107 78 69 88 74 82 65 101 132 91 38 163 86 72 134 91 105 63 51 104 149 91 130 138 165 74 120 140 60 94 52 122 129 46 99 174 72 83 50 92 120 100 130 120 64 151 132 95 71 151 106 87 154 111 151 57 116 110 193 122 155 78 79 62 72 56 95 77 127 148 202 100 122 70 52 91 131 123 172 130 156 128 122 59 56 146 86 105 78 138 113 149 107 141 35 46 96 89 106 63 98 66 93 143 81 132 106 11 66 38 104 88 133 122 57 69 53 105 124 87 145 165 85 54 71 98 132 124 114 96 153 108 76 130 219 170 29 91 96 136 94 155 123 100 86 77 65 69 145 60 93 84 165 108 81 47 64 180 126 131 58 110 84 166 125 148 82 63 157 97 99 115 99 62 64 107 82 109 166 77 115 107 69 92 85 115 68 86 48 31 42 109 61 124 124 55 132 156 98 85 55 85 85 58 70 104 88 61 99 68 99 87 123 87 131 74 98 135 104 90 138 17 108 146 164 120 108 67 135 74 81 138 212 87 110 92 50 77 94 70 202 138 126 134 88 45 53 68 114 127 90 113 127 36 153 155 146 69 93 77 37 87 128 134 74 95 94 65 92 129 77 81 34 123 138 162 136 129 54 59 98 98 40 153 86 91 93 28 82 103 38 167 96 73 144 94 91 76 73 77 61 65 52 95 109 115 85 76 131 89 37 91 57 102 53 115 103 38 66 111 76 45 105 91 114 82 70 51 84 118 107 166 91 30 130 127 101 55 154 63 168 93 138 143 87 198 61 117 123 76 134 134 57 124 217 138 83 96 119 81 137 82 67 55 30 162 115 62 130 80 92 47 102 65 112 44 119 115 112 141 81 143 109 186 88 120 94 106 143 51 94 71 98 51 97 166 90 94 144 133 111 79 66 36 119 78 105 121 154 119 37 54 97 118 100 43 53 109 151 114 78 180 85 60 118 76 105 101 68 156 123 92 104 101 159 108 144 69 140 178 68 124 231 188 97 96 148 62 94 117 111 71 79 126 74 176 58 69 126 90 52 110 84 54 99 88 97 88 102 131 63 31 53 123 185 126 126 103 75 160 110 117 102 108 55 78 124 36 51 133 151 61 83 132 113 73 117 94 130 58 140 134 105 63 119 96 49 62 75 72 188 101 103 97 89 83 61 77 136 102 99 178 123 89 82 108 71 64 56 86 106 92 111 119 111 114 94 108 156 63 115 140 86 40 84 99 90 127 111 112 60 152 115 119 155 83 171 107 172 88 105 139 117 47 100 158 64 107 137 83 133 141 146 94 64 163 150 50 95 66 118 65 41 57 119 97 114 78 106 137 147 69 115 167 67 132 115 96 119 66 135 87 126 41 109 60 98 57 58 118 54 75 40 100 102 47 63 103 116 130 80 44 118 154 77 57 92 115 65 108 52 138 112 112 103 76 166 64 119 104 59 105 138 61 124 194 54 129 125 123 125 74 211 107 83 70 86 103 175 113 112 28 103 56 106 105 113 124 65 47 157 89 65 101 164 87 147 89 85 66 131 110 114 131 121 136 65 104 17 144 122 83 155 108 107 108 42 71 96 135 86 107 139 115 161 134 32 138 115 96 70 236 80 76 77 114 66 141 69 116 99 115 130 86 149 64 133 76 42 68 55 72 107 118 65 123 115 56 61 180 106 104 88 88 61 161 118 128 54 109 116 116 73 90 151 103 73 139 108 75 94 111 106 85 184 96 103 98 199 130 90 123 82 101 83 93 150 53 150 80 163 47 90 38 99 45 195 136 72 200 163 47 82 75 166 56 113 97 21 104 172 90 193 43 113 78 122 103 112 152 111 95 80 104 130 102 59 108 171 78 122 77 118 74 143 40 95 143 99 92 147 141 83 159 85 206 53 24 112 124 129 151 54 62 159 97 116 83 61 90 84 105 123 102 119 50 96 102 50 108 97 119 167 58 61 56 171 83 95 68 106 84 91 119 161 130 110 132 105 43 93 85 74 189 35 95 38 105 71 105 86 78 131 55 113 124 98 106 115 86 36 51 105 94 109 102 103 74 63 139 105 131 69 78 65 80 102 75 127 84 75 136 27 140 149 179 127 138 142 142 39 75 105 85 94 139 108 132 76 90 102 133 151 175 84 35 102 123 82 26 45 143 143 96 79 114 77 115 161 151 124 176 86 149 103 59 118 132 125 115 73 118 71 68 130 97 117 88 53 120 58 125 51 62 106 39 86 66 156 186 108 107 106 124 64 84 73 143 73 147 121 115 58 108 134 160 50 115 91 58 96 89 100 78 149 102 72 114 167 51 173 83 83 57 81 46 34 131 98 96 132 107 88 119 157 97 71 79 156 160 18 82 88 154 136 197 100 44 63 141 148 111 104 105 44 132 90 162 49 64 105 99 46 112 81 183 94 91 47 118 140 105 119 178 93 184 153 86 119 120 91 81 112 82 45 29 236 152 109 80 122 125 123 135 102 140 80 66 101 64 76 154 115 129 23 109 95 101 53 155 118 84 79 73 43 98 53 114 91 75 64 119 63 171 101 79 114 108 96 118 58 102 138 178 100 77 59 71 54 146 164 47 98 128 83 95 110 37 65 107 93 181 96 94 68 69 68 159 52 100 143 91 99 86 100 69 64 37 137 185 34 73 105 134 76 113 80 153 98 131 67 87 79 140 98 121 100 135 25 126 54 40 109 89 63 133 103 57 98 63 77 80 155 46 111 156 81 80 153 81 101 107 125 133 88 132 115 125 149 125 110 158 75 81 87 96 51 112 75 168 82 128 180 29 95 161 55 109 84 108 152 103 69 116 111 73 102 147 116 77 76 201 128 99 115 118 126 159 69 173 126 133 123 85 117 97 93 76 94 73 151 156 114 35 82 142 58 151 26 89 129 72 115 39 118 137 173 88 124 70 91 140 144 66 114 39 101 20 50 145 147 132 163 61 98 85 133 118 84 73 132 95 113 61 72 85 118 64 64 51 150 72 63 72 108 73 58 160 135 159 82 129 95 81 142 125 165 87 117 95 29 68 142 103 97 99 153 82 90 110 86 83 51 110 93 109 51 57 39 31 60 158 132 60 127 95 59 164 122 137 116 146 64 73 109 137 115 136 112 124 95 143 49 10 38 106 121 127 167 111 138 41 88 124 95 123 121 96 81 142 130 82 75 101 159 119 167 159 104 105 85 57 51 57 105 172 89 140 114 125 48 161 94 32 98 114 54 96 130 99 157 153 133 144 52 98 51 178 151 116 164 142 139 132 145 54 111 164 55 80 117 80 126 67 120 93 90 110 58 130 86 34 107 118 145 59 116 86 90 133 91 88 112 116 81 112 123 76 90 162 67 74 88 112 122 160 97 169 118 158 100 57 105 147 78 24 90 26 88 107 59 125 153 96 121 184 49 41 125 85 97 99 109 168 85 41 158 42 115 146 120 199 92 75 108 83 43 115 64 65 151 70 62 64 75 87 138 88 140 126 154 107 127 82 127 159 95 141 115 78 83 81 98 120 144 65 142 67 112 80 26 121 111 121 80 103 85 116 80 71 95 96 110 44 152 99 133 152 112 109 87 183 110 34 29 20 143 36 136 156 72 120 113 117 119 109 122 145 69 118 89 104 122 101 123 104 55 85 98 48 110 79 122 58 138 141 97 92 62 92 71 93 147 65 111 61 127 108 109 125 88 95 131 89 68 87 118 129 68 127 111 107 120 162 159 143 137 151 143 83 47 122 31 118 162 98 113 51 132 77 135 105 145 63 129 76 72 98 28 81 77 96 144 150 112 124 92 145 111 81 89 95 63 105 108 123 170 80 83 114 31 143 137 113 111 115 103 63 95 223 28 130 54 71 100 111 182 58 37 166 88 141 91 123 142 68 168 151 106 77 117 68 41 181 112 116 43 160 70 54 126 99 83 59 122 96 77 193 170 49 125 95 127 62 35 50 90 55 43 135 149 150 123 133 67 96 67 106 134 45 154 155 115 161 87 48 118 136 87 111 106 77 131 116 65 77 96 86 34 84 60 154 67 37 76 157 102 84 21 126 47 85 110 155 36 126 123 54 133 90 131 115 101 93 138 64 131 86 77 144 122 104 118 124 96 87 129 155 97 87 88 151 80 76 120 127 97 132 163 108 163 172 87 103 75 93 88 113 125 113 146 62 77 86 118 100 31 232 125 141 95 91 50 112 112 155 70 157 106 150 98 121 62 65 106 162 61 85 89 91 145 74 111 83 113 38 201 144 98 114 115 72 150 182 104 104 119 111 110 109 51 92 79 100 64 96 44 84 58 114 76 96 84 109 139 158 49 185 105 180 39 101 103 141 55 79 110 93 136 130 101 130 54 81 112 50 48 157 87 91 28 64 101 119 163 74 79 89 178 109 171 166 94 109 80 127 149 74 106 87 135 29 80 150 134 167 88 88 60 26 91 46 114 77 81 68 116 33 126 77 151 89 70 110 140 72 125 96 100 109 129 147 137 44 74 121 76 86 61 56 156 108 61 42 112 168 76 117 119 69 152 133 65 69 112 81 122 63 129 172 89 61 86 105 85 106 82 149 101 104 141 105 102 125 226 72 37 173 122 126 94 92 104 185 84 35 134 145 76 142 110 114 159 89 60 108 100 165 127 104 80 164 49 97 124 34 57 132 81 50 61 178 168 96 66 157 126 64 115 167 108 108 96 118 95 101 58 95 98 113 119 82 96 109 130 71 83 111 198 104 113 67 146 169 91 57 126 87 57 82 105 93 113 65 83 44 142 90 213 100 137 32 100 80 122 127 126 57 83 91 174 60 171 43 144 75 127 167 67 122 69 47 129 104 131 138 64 75 51 114 154 69 153 104 154 189 73 116 91 192 27 146 152 114 92 94 74 103 22 68 95 138 95 153 30 89 94 109 130 92 135 92 104 95 145 25 120 212 77 103 146 85 107 59 160 116 113 98 74 167 174 80 91 77 87 142 66 81 77 88 39 159 114 135 81 70 151 133 80 83 110 151 137 88 98 78 93 60 103 105 115 107 141 22 63 172 116 67 42 70 105 81 120 122 146 97 154 76 124 170 130 97 142 141 68 103 70 98 92 142 80 151 79 103 79 113 58 104 58 63 170 83 101 111 73 142 92 85 135 140 80 110 74 171 46 27 117 124 116 110 118 44 111 84 63 86 85 120 53 124 76 81 124 107 117 90 133 123 72 91 111 162 81 88 87 101 134 122 76 62 83 145 129 96 68 119 159 112 98 139 51 118 91 124 214 105 158 85 136 74 34 39 75 89 54 117 180 153 105 181 62 117 83 136 113 130 87 76 103 66 83 79 71 114 179 64 103 70 153 77 137 99 160 124 63 120 93 117 130 120 73 48 51 60 133 71 61 121 87 67 130 109 153 170 163 74 83 87 141 144 174 125 173 120 99 156 54 54 79 145 65 56 29 77 139 57 61 78 77 107 94 140 155 87 105 59 124 154 157 49 98 144 115 94 99 82 209 170 100 43 86 110 119 96 54 91 116 70 123 110 111 93 71 113 54 107 46 117 60 98 108 116 73 137 119 101 172 134 72 61 63 129 103 89 146 151 76 107 199 187 109 122 95 84 174 70 92 100 90 154 116 91 119 94 161 76 142 69 59 57 146 142 100 126 46 114 77 124 171 76 139 117 111 89 116 124 88 74 118 162 146 88 124 138 92 115 62 91 94 72 18 121 148 106 93 79 66 107 84 63 39 124 115 123 124 114 102 157 91 143 47 99 81 101 101 127 80 144 136 38 79 73 86 44 87 84 154 92 62 67 95 70 86 163 143 147 163 147 103 115 60 104 81 87 178 118 62 213 69 90 152 146 113 87 82 99 176 88 103 81 114 165 110 109 189 110 85 84 113 141 97 93 138 78 102 48 124 66 166 90 71 136 75 112 116 110 120 119 96 46 173 62 72 87 104 79 130 86 161 119 60 52 80 126 98 129 122 199 159 90 64 114 103 108 139 83 57 170 74 99 119 94 105 131 62 45 113 117 62 80 145 103 74 99 73 66 114 54 93 133 52 84 82 115 156 89 89 130 138 114 81 162 80 109 100 81 72 99 125 159 145 187 86 66 70 81 48 138 58 158 63 102 88 72 125 96 122 85 179 107 148 110 107 96 140 87 132 90 182 129 141 75 92 137 63 78 119 86 180 112 95 140 164 109 79 63 74 123 53 64 22 126 107 19 159 75 83 87 124 133 60 85 81 123 69 102 134 103 93 167 113 158 120 71 100 153 112 88 44 141 71 162 95 86 65 59 130 38 53 33 143 110 96 106 114 104 42 60 108 131 181 78 54 99 43 81 44 76 89 111 68 40 148 53 148 66 116 87 90 30 73 83 143 97 75 123 88 87 87 122 67 75 89 142 79 106 93 101 129 64 124 116 123 88 192 183 99 90 59 74 152 37 55 43 158 81 103 79 109 135 51 92 136 39 140 162 93 95 77 137 112 72 127 188 80 85 134 171 54 84 67 83 121 153 143 128 79 136 113 58 133 187 132 81 30 142 67 105 83 149 78 124 93 123 147 118 132 101 220 85 87 105 105 103 36 114 74 124 114 40 182 147 114 136 108 157 48 154 145 130 134 93 121 27 147 42 140 117 131 49 122 159 153 97 86 36 45 123 78 108 71 84 160 92 157 107 153 101 128 94 62 58 82 112 77 96 78 108 125 138 100 114 101 129 122 88 132 65 81 139 96 145 193 110 111 91 47 67 133 87 124 37 61 102 71 83 58 134 117 58 41 57 149 109 59 101 120 126 134 78 84 104 66 112 118 89 103 24 76 73 85 94 63 74 80 153 87 146 73 131 79 97 151 92 142 160 103 105 81 80 140 103 86 125 117 66 75 95 31 34 92 99 149 57 197 67 93 138 135 84 80 135 166 110 164 65 158 83 32 32 106 88 115 113 96 106 102 159 130 60 84 85 107 84 59 72 81 139 96 140 100 56 89 93 23 69 77 50 88 83 104 88 53 195 92 119 53 78 122 87 117 114 83 103 54 68 61 147 68 52 106 106 91 128 171 93 185 122 88 124 70 57 152 121 142 62 108 125 99 109 72 83 152 96 82 105 136 83 106 158 74 75 125 112 37 30 113 56 132 91 31 76 125 65 114 135 105 104 82 104 49 121 127 119 92 74 113 99 108 103 81 72 133 177 53 88 96 89 140 106 95 112 73 112 96 161 59 125 98 106 112 47 92 42 114 50 56 138 149 161 132 119 112 102 127 119 126 62 120 123 99 96 73 69 152 90 145 71 165 146 139 77 108 69 101 90 145 139 99 148 87 122 82 107 99 102 7 86 157 119 103 113 167 78 113 41 79 81 103 124 169 101 136 112 60 161 118 96 142 62 60 44 42 139 81 50 82 110 118 82 134 123 57 109 98 81 90 129 114 147 74 82 172 127 54 74 127 98 104 93 65 122 139 122 85 125 155 131 136 76 109 83 151 164 114 130 118 166 130 104 98 124 70 120 56 105 170 133 89 106 63 53 145 145 129 37 153 43 219 57 131 76 81 95 177 142 43 101 196 76 114 111 109 102 88 97 35 96 119 136 100 124 81 89 128 121 61 117 136 85 84 127 89 139 96 67 73 45 110 129 111 97 147 171 143 86 80 66 72 40 104 129 70 71 131 107 115 107 127 104 101 96 56 138 130 105 108 83 122 122 132 51 73 39 82 91 97 160 141 140 48 98 67 105 124 75 38 115 156 23 110 162 102 66 84 42 63 78 56 144 118 106 77 75 25 70 69 102 106 107 102 132 84 122 59 71 50 135 141 33 60 129 65 70 89 150 128 101 79 87 124 105 117 88 74 93 87 93 68 75 114 82 165 65 26 180 122 112 38 115 89 70 72 47 51 127 103 123 222 149 83 110 83 189 151 193 79 63 130 48 85 80 85 78 14 67 64 60 124 141 94 78 133 77 150 147 191 79 71 68 84 161 108 155 89 65 120 109 150 111 70 98 154 134 94 77 24 126 146 101 82 157 155 98 168 77 94 96 53 55 79 65 119 185 91 125 132 76 85 116 109 162 128 95 110 168 40 134 100 70 82 122 123 52 98 102 90 124 131 89 76 163 78 140 59 103 124 116 206 176 38 127 68 116 61 77 137 121 71 105 145 115 110 49 118 67 180 25 135 74 85 79 60 114 130 41 93 84 96 68 93 99 83 93 122 113 40 97 105 85 162 69 96 150 89 30 47 167 93 77 122 121 135 91 103 135 33 93 69 60 110 107 115 139 79 48 52 129 162 63 128 137 123 44 122 50 129 106 68 97 31 111 178 110 88 59 131 68 122 149 149 111 129 149 146 73 158 187 76 162 89 100 40 126 106 77 160 123 109 112 82 107 112 102 84 105 125 156 149 153 106 92 116 83 85 148 61 96 85 95 154 157 28 109 114 88 63 78 85 160 91 95 112 76 103 125 120 103 70 50 67 129 138 152 74 108 103 176 81 116 68 165 117 89 73 81 38 66 199 218 113 28 146 84 74 36 131 64 89 133 130 28 131 62 84 22 120 81 92 115 35 110 100 104 98 89 87 67 31 132 146 118 144 110 67 167 91 103 114 112 127 112 70 119 73 69 83 103 75 88 146 136 81 43 45 86 67 42 58 92 116 113 104 75 113 83 72 93 70 159 26 92 88 69 87 119 95 150 104 125 133 79 88 63 141 120 45 55 84 102 72 120</t>
+  </si>
+  <si>
+    <t>GAM(0.6916978947796677, -3.528708747916487e-29, 0.5243752569203206)</t>
+  </si>
+  <si>
+    <t>2 1 1 0 1 0 2 2 0 1 0 2 0 2 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 2 1 0 0 0 0 1 0 0 2 1 0 0 0 1 1 1 1 0 0 0 2 1 0 3 0 0 1 0 0 0 0 2 2 0 0 1 2 1 0 0 2 0 3 1 1 0 0 1 0 0 0 3 2 0 1 1 0 0 1 1 1 3 3 0 0 0 1 0 1 2 0 1 3 2 0 2 2 1 0 0 0 1 1 1 0 1 0 0 3 2 2 1 2 1 0 0 1 0 1 0 0 0 0 2 0 1 0 0 0 0 0 1 1 0 0 1 2 1 1 1 1 1 2 3 1 2 0 0 3 0 0 0 1 0 0 2 0 1 0 0 0 1 2 0 2 0 0 1 1 0 1 0 0 1 1 0 0 0 2 0 1 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 2 0 1 1 0 1 1 3 0 2 2 0 0 2 0 0 1 0 1 0 3 1 0 1 3 0 0 0 1 0 0 1 0 2 1 1 0 0 0 1 4 0 1 1 0 2 2 2 1 0 1 1 0 1 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 0 1 1 1 0 0 1 1 1 0 1 0 1 1 1 0 1 1 0 2 1 0 0 0 1 0 1 1 1 1 0 0 0 2 2 1 0 2 0 0 0 0 0 0 0 2 0 0 1 2 0 1 0 0 2 2 1 0 3 1 0 1 0 0 0 2 0 1 3 1 1 2 1 0 0 1 3 0 2 1 0 1 1 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 2 1 2 2 2 0 1 0 0 0 0 1 1 1 1 1 0 0 0 1 0 3 0 1 0 1 1 0 1 0 3 0 0 2 0 0 0 0 1 0 3 1 0 0 0 3 2 0 0 1 0 1 1 0 1 2 2 3 2 2 0 0 0 0 1 1 0 0 2 0 1 2 1 1 1 2 1 0 0 1 0 0 3 0 1 0 2 3 3 0 1 1 1 2 2 1 1 1 2 2 0 0 1 1 0 1 1 2 1 0 1 1 2 2 0 1 1 0 1 1 1 1 2 1 2 1 0 2 1 0 0 0 0 1 3 0 1 0 0 1 2 1 1 0 1 0 1 0 0 0 0 1 2 2 0 0 3 2 0 0 1 0 0 0 0 0 2 0 0 0 2 0 0 1 1 3 2 0 2 1 0 1 2 0 1 0 0 0 1 2 1 1 1 1 0 0 0 0 0 0 3 1 1 2 1 0 0 1 1 0 2 0 1 1 1 3 0 1 0 0 0 1 1 1 1 1 3 0 0 3 1 0 0 0 0 2 1 2 2 1 1 0 0 0 0 2 0 2 0 1 1 0 2 0 0 1 2 0 1 0 1 0 0 1 1 1 0 2 1 1 0 0 0 1 0 1 1 0 0 0 1 0 1 1 1 3 1 0 2 1 1 0 1 1 1 2 1 1 0 2 0 1 1 1 1 3 0 1 0 1 1 1 3 1 0 2 1 0 2 2 1 2 2 2 1 2 1 1 1 0 1 0 2 1 2 0 1 0 0 2 0 0 0 0 0 1 2 0 2 0 2 1 2 3 0 2 1 2 0 1 0 0 5 2 0 0 2 0 0 0 0 2 0 4 0 0 1 1 0 0 3 1 0 2 0 0 0 2 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 1 1 0 0 0 1 1 0 2 0 1 0 0 1 0 3 1 1 1 1 1 0 2 1 0 0 0 1 1 0 0 0 0 2 4 2 1 0 1 0 0 0 1 2 1 0 2 0 0 2 0 1 1 0 3 0 0 2 1 1 0 0 0 2 1 0 0 1 2 0 1 2 0 0 0 3 1 0 1 2 0 0 1 1 1 1 0 2 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 1 1 0 2 0 0 1 0 1 0 1 0 1 0 0 0 1 1 4 1 0 0 1 1 1 1 1 1 3 0 0 1 1 0 0 0 1 0 0 0 1 1 0 1 1 1 1 0 1 0 1 2 2 1 0 0 1 0 1 0 1 0 1 1 0 0 2 0 1 0 1 2 3 0 1 1 0 0 3 2 0 3 3 0 0 1 1 0 2 0 0 0 1 1 0 0 2 1 2 2 0 0 1 0 1 0 1 0 1 1 1 1 0 0 1 2 0 1 1 0 1 2 0 2 0 2 1 0 0 0 0 1 1 0 0 2 1 0 1 2 3 0 2 1 0 1 2 1 1 0 1 1 2 0 1 1 2 0 0 1 0 0 1 1 3 0 0 0 0 2 1 1 1 1 0 4 0 1 1 0 0 1 0 2 0 1 1 1 1 1 2 1 2 2 2 0 2 0 1 0 1 0 1 2 0 0 0 2 0 2 1 0 0 1 1 0 1 0 0 1 0 0 1 1 1 2 0 0 4 1 1 0 0 1 0 2 0 1 0 2 1 0 3 0 0 0 1 0 1 2 0 0 1 1 1 1 0 0 1 2 2 1 0 0 0 1 1 0 1 2 0 1 1 0 0 2 0 1 1 0 1 0 1 1 0 0 1 0 1 0 0 1 0 2 1 0 1 1 1 1 0 1 1 0 3 1 0 1 1 2 1 0 3 1 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 1 0 1 1 2 0 0 1 2 1 0 1 2 1 1 1 4 1 1 1 1 1 1 1 0 1 2 1 1 2 1 1 1 0 0 0 0 2 2 1 1 1 0 1 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 1 0 1 3 1 1 0 1 0 2 2 0 0 0 0 0 0 1 1 1 1 1 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 3 0 1 1 0 1 2 1 0 1 0 0 0 1 0 0 0 1 2 2 1 0 1 1 2 1 0 2 2 0 0 0 0 2 1 1 2 2 0 1 2 1 1 0 0 0 0 1 0 1 1 0 1 1 0 2 1 1 1 1 1 1 1 0 1 2 0 1 0 1 0 1 0 0 0 1 1 0 1 2 1 1 1 0 0 1 2 0 0 2 3 0 0 1 1 1 1 0 2 1 0 1 0 0 0 0 1 0 0 2 0 1 0 0 0 2 0 1 2 2 1 0 0 0 0 2 1 1 2 2 1 0 2 1 3 0 0 0 3 0 1 1 1 0 1 0 1 0 0 1 2 1 0 0 2 1 0 0 2 1 0 0 0 0 0 1 1 0 2 0 1 2 3 1 1 3 2 0 1 2 1 0 0 1 2 0 0 0 2 0 0 3 0 2 0 1 0 0 0 0 1 2 0 3 0 0 0 1 1 0 0 0 1 1 0 0 0 1 3 1 1 0 1 0 1 0 0 1 0 1 1 0 0 2 0 2 2 2 0 1 1 0 1 0 2 1 1 3 1 1 0 0 1 1 1 0 0 0 2 0 0 1 2 0 0 0 0 0 0 3 1 4 1 2 1 2 1 1 1 1 0 0 1 1 1 2 2 0 0 0 0 0 2 0 0 0 1 1 2 0 1 2 3 1 0 1 1 1 0 3 1 0 0 0 2 0 0 3 0 0 2 1 1 3 1 2 3 2 0 0 0 2 0 1 1 1 0 2 0 0 1 2 0 0 1 0 1 0 1 0 0 0 2 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 2 1 0 3 0 3 1 1 1 0 1 1 0 2 0 0 2 0 0 0 0 2 3 0 2 0 2 0 0 0 2 0 0 2 1 1 0 0 0 0 0 0 0 0 0 1 1 2 1 0 2 1 1 1 2 1 1 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 1 1 0 1 1 0 0 3 0 0 0 0 0 0 0 2 0 1 1 0 0 1 0 1 2 2 0 1 1 0 1 0 0 0 1 2 0 0 0 0 0 0 2 2 3 2 1 3 0 2 1 1 0 2 0 1 1 1 1 1 0 1 0 0 0 1 1 1 0 1 2 2 0 0 0 0 0 2 0 1 0 1 0 2 0 1 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 2 2 0 0 0 0 1 1 2 0 1 0 0 0 2 0 1 0 1 0 0 0 0 0 3 1 0 0 1 1 1 0 0 0 0 4 0 2 0 1 0 0 1 0 1 0 2 1 1 1 1 0 0 1 0 0 1 0 0 0 2 3 2 1 0 2 0 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 2 1 2 1 2 0 0 1 2 1 0 0 1 0 2 1 1 2 2 2 0 0 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 2 2 1 1 0 0 1 1 1 1 2 0 0 0 0 0 0 0 1 1 0 1 2 0 3 2 0 1 0 0 0 2 2 2 0 1 0 0 0 1 0 1 1 0 0 0 3 1 3 2 0 1 0 0 2 0 0 0 1 2 0 2 1 2 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 1 2 1 0 1 0 2 1 0 2 3 2 0 0 0 1 1 3 1 1 1 0 1 0 0 2 0 0 2 1 0 0 0 1 2 0 1 0 0 2 1 3 2 1 0 3 0 1 1 2 1 1 0 0 3 3 0 3 1 1 1 0 2 1 0 0 1 1 1 0 1 3 0 1 0 0 0 2 0 0 1 0 1 1 1 0 0 3 0 0 1 0 0 1 1 2 0 1 1 0 0 0 0 0 0 0 0 0 2 1 0 2 3 0 0 1 2 1 0 1 1 0 1 0 1 3 0 2 1 1 1 1 0 3 1 1 0 0 0 0 0 0 1 0 0 0 0 2 0 1 1 1 1 1 1 0 0 0 0 0 0 1 1 1 2 1 0 0 2 1 0 1 3 1 0 1 2 1 0 0 0 2 1 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 2 2 1 2 1 1 0 0 0 0 1 0 1 0 2 0 0 2 0 0 0 2 0 1 0 0 4 1 0 2 0 2 1 0 2 0 0 1 0 0 0 0 2 0 3 2 1 1 1 0 2 1 4 0 0 1 0 1 0 0 1 1 1 1 0 0 2 2 0 1 2 2 0 1 3 0 1 0 2 1 1 0 1 1 1 0 1 0 0 3 0 0 1 1 0 0 1 0 1 0 1 2 3 1 1 2 1 0 1 1 3 0 1 2 2 2 0 0 0 0 1 0 1 1 0 0 2 1 1 1 3 0 2 0 2 0 1 1 1 1 2 2 1 2 1 0 2 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 2 0 0 1 0 0 2 1 0 1 0 3 0 2 0 0 1 0 2 0 0 2 0 2 1 0 0 3 1 0 1 0 1 2 0 0 0 1 2 0 1 0 2 0 1 0 1 2 1 1 0 1 0 0 0 0 0 4 3 0 1 0 4 3 1 0 1 0 1 2 1 1 0 2 1 0 1 0 1 1 2 1 3 2 0 1 1 0 0 0 0 0 2 0 0 0 3 1 0 0 3 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 2 0 1 1 0 2 0 2 2 3 1 0 0 0 1 1 1 2 0 1 1 1 2 0 0 0 0 0 1 1 0 2 1 1 2 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 1 1 0 1 2 1 0 1 1 1 1 0 2 0 0 2 1 1 1 0 3 3 2 1 1 1 1 1 3 0 2 1 2 3 2 1 1 2 0 0 2 1 0 0 0 3 1 0 0 0 0 1 1 2 0 3 2 0 0 0 0 1 2 1 0 0 0 0 1 0 1 0 0 2 0 0 1 0 0 2 0 1 1 1 1 2 0 1 3 0 2 1 2 1 2 1 0 2 0 1 1 1 0 2 1 0 1 0 0 0 0 0 0 1 1 2 0 0 1 3 1 0 0 1 0 3 2 0 0 1 1 0 0 1 1 3 1 1 2 0 0 1 0 1 3 0 3 2 1 1 1 0 1 2 0 0 0 0 1 2 0 1 0 1 0 2 2 0 1 1 1 1 0 2 0 1 0 0 1 0 0 1 0 1 0 2 1 0 1 1 0 1 0 2 1 1 1 1 0 0 0 0 1 2 1 0 2 0 0 0 3 1 3 0 2 0 0 1 2 1 2 1 1 2 1 1 2 1 0 1 0 0 1 0 0 0 0 1 0 0 2 1 1 1 1 0 0 0 1 1 1 0 0 2 0 3 0 1 1 1 0 2 0 2 1 0 0 0 0 1 1 0 1 0 1 0 2 2 0 0 1 0 0 1 1 0 0 1 0 2 1 1 4 3 0 1 1 1 1 1 1 1 2 2 0 0 1 0 1 1 1 2 0 3 1 0 2 2 3 0 1 0 0 1 2 0 2 2 0 1 0 0 0 3 0 0 0 0 1 0 1 1 1 1 1 0 1 0 2 0 2 3 0 0 0 0 1 2 0 0 2 1 1 1 0 1 1 2 2 1 0 0 2 2 1 0 1 0 0 0 0 0 1 3 1 0 0 0 2 1 0 2 1 4 1 1 1 1 1 0 1 1 1 1 0 0 0 0 1 0 0 0 2 0 0 1 0 2 2 1 0 0 0 2 0 0 0 1 0 0 0 0 1 0 2 2 0 0 1 1 1 1 2 0 2 0 0 0 1 0 2 1 0 1 0 0 1 1 0 0 1 0 0 1 0 2 0 3 3 1 1 0 2 2 0 0 0 1 0 1 0 1 3 0 0 0 0 0 1 0 1 2 3 1 0 0 2 1 0 0 2 0 0 0 0 1 2 1 2 0 0 1 0 0 0 2 0 1 1 0 2 0 0 0 1 0 4 0 1 1 0 2 0 3 1 2 0 0 0 0 1 4 0 4 1 2 1 2 2 1 3 1 2 2 0 1 0 1 0 0 0 2 1 0 1 1 0 1 0 0 0 1 2 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 3 2 0 1 0 0 0 0 0 0 0 1 0 2 1 1 0 0 2 1 2 1 0 0 2 2 0 0 3 0 0 0 2 2 0 2 0 0 0 0 1 0 1 0 0 1 2 1 1 2 0 1 1 0 1 2 0 0 0 0 1 1 2 1 0 1 2 2 1 2 1 2 2 0 1 0 0 0 0 1 0 1 2 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 2 0 1 2 0 2 1 1 2 1 0 0 0 1 1 0 1 0 1 1 1 0 0 1 0 1 2 0 0 0 2 0 1 2 1 1 0 1 1 0 1 1 0 1 1 1 1 2 1 2 0 0 1 1 0 1 2 1 2 0 3 2 2 1 2 2 0 1 0 0 1 1 2 1 0 0 0 0 1 0 0 1 2 1 2 1 0 2 0 1 0 1 2 1 0 0 1 1 2 2 2 1 0 2 1 0 1 1 0 0 0 1 0 0 1 0 1 1 0 0 1 1 2 2 0 1 0 0 0 4 2 0 0 0 0 0 2 0 0 2 1 2 0 2 1 2 1 1 0 0 0 2 0 2 1 2 1 0 1 1 2 0 2 0 0 1 3 1 0 0 1 0 1 0 0 2 1 1 2 1 0 2 2 0 0 0 2 1 0 0 0 1 0 0 0 0 2 1 1 0 0 2 0 1 3 1 0 0 2 0 0 2 1 0 1 0 0 0 0 0 2 0 0 0 1 2 0 0 0 2 0 0 1 1 1 1 1 0 1 0 2 1 1 0 1 0 0 1 0 2 0 1 0 1 1 0 0 1 1 1 0 0 0 3 2 0 0 1 1 1 0 2 0 0 1 0 0 0 1 1 1 2 0 1 2 0 2 0 3 1 0 2 1 0 1 1 1 3 1 1 0 0 1 1 1 1 0 2 0 0 0 1 1 0 0 1 0 1 0 1 0 0 2 0 1 1 2 1 0 1 0 0 1 0 1 0 3 0 1 1 0 0 1 2 0 0 2 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 1 1 0 0 2 1 1 1 0 1 2 2 2 0 0 2 0 0 0 1 1 1 1 1 1 1 0 2 1 2 0 0 3 0 1 2 0 0 0 0 2 0 0 2 1 0 1 1 2 1 2 0 1 3 2 1 0 4 2 1 0 0 1 0 1 1 0 0 2 0 0 2 1 0 1 1 1 0 2 1 0 3 2 2 1 2 1 0 0 0 0 4 2 1 0 1 2 1 1 0 0 3 1 1 1 2 1 1 0 2 1 1 0 1 0 1 1 1 0 0 2 0 2 1 1 0 2 0 1 0 0 1 1 1 0 0 0 2 0 1 0 1 2 0 1 2 0 1 1 2 1 1 0 0 1 2 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 2 2 1 0 0 1 0 1 1 2 0 0 0 0 2 0 0 0 0 0 1 0 0 3 0 3 0 0 0 0 0 2 2 1 2 0 0 0 2 0 0 0 2 0 0 0 0 3 3 0 2 2 0 0 0 0 2 2 1 0 1 2 1 4 2 1 0 0 0 1 0 0 3 1 1 2 2 0 2 0 0 0 2 0 1 1 0 0 1 0 0 0 2 2 1 1 1 2 0 0 0 3 2 1 0 1 0 1 0 1 0 0 2 1 0 1 1 3 0 1 0 1 2 2 0 0 1 1 1 1 0 0 0 0 1 1 1 2 1 2 1 1 0 3 1 1 3 1 2 0 2 1 1 0 2 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 1 2 0 0 0 1 1 2 0 0 2 1 1 0 1 0 2 0 0 1 2 0 0 0 1 0 0 2 0 0 0 2 0 1 2 0 0 0 0 0 0 1 1 2 1 1 0 0 0 0 2 3 2 0 1 0 0 2 2 0 1 0 0 0 1 0 2 0 0 2 2 1 2 0 0 0 0 0 3 2 1 0 0 1 1 1 3 0 2 1 0 0 0 1 1 0 0 1 2 0 1 1 1 1 1 0 0 2 2 1 0 1 0 2 0 1 0 1 0 0 2 0 0 0 0 0 1 0 1 0 1 1 1 2 1 0 1 2 1 0 0 1 1 1 1 0 0 1 0 2 1 2 0 0 1 1 0 0 1 1 0 1 0 2 0 1 1 1 2 2 0 2 1 2 0 1 0 1 0 2 0 0 0 0 0 3 0 1 2 0 1 2 2 1 1 1 0 1 1 1 2 3 0 1 2 0 2 4 2 1 1 2 0 1 2 1 1 0 2 2 0 1 3 0 0 1 1 1 0 0 0 0 3 1 1 2 1 3 2 1 0 0 1 1 0 0 0 2 0 0 1 0 1 1 2 1 1 1 2 1 1 1 2 3 1 0 1 0 0 0 1 0 2 1 1 2 0 0 0 1 0 0 1 2 0 2 3 2 3 0 1 1 2 0 0 1 2 0 1 0 2 0 0 2 0 2 1 4 1 0 2 3 0 0 0 0 2 0 2 0 0 2 1 1 2 1 0 2 1 2 3 0 2 0 1 1 1 3 0 1 2 2 1 1 0 1 1 1 0 1 0 0 0 1 1 0 0 2 2 0 1 1 0 0 0 1 0 1 1 1 0 1 0 1 1 1 3 2 0 0 0 0 1 1 2 1 0 1 2 1 1 4 1 1 1 0 1 0 0 1 0 2 1 2 2 2 0 3 0 3 2 1 0 1 2 2 1 1 1 1 0 0 0 2 0 1 0 1 0 1 1 1 0 1 1 1 0 1 0 1 0 0 2 1 0 1 3 2 0 0 1 0 0 0 1 0 2 1 0 0 1 1 0 0 1 0 4 0 0 2 2 1 1 1 1 0 1 0 1 1 1 2 0 2 1 0 0 0 0 1 2 0 3 3 0 1 1 3 0 1 2 0 1 1 1 0 0 1 1 0 1 1 2 0 0 1 0 2 0 0 2 1 0 0 0 0 1 1 0 0 1 0 1 2 2 1 0 0 1 1 1 1 2 2 0 2 2 0 1 1 0 0 1 1 1 2 1 0 2 1 2 1 1 2 0 0 1 0 1 2 1 1 1 1 2 0 0 0 0 1 0 1 1 2 1 1 0 1 0 0 2 1 2 0 1 2 0 0 1 1 0 1 1 2 0 1 0 1 1 1 3 0 0 0 0 1 1 0 0 0 0 1 1 2 1 0 1 2 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 3 1 0 0 0 1 2 0 0 0 1 0 0 2 2 1 0 2 1 2 1 1 0 0 0 0 0 0 1 1 1 0 1 1 1 2 0 0 0 0 1 0 0 1 1 1 1 1 1 2 1 2 1 1 1 1 0 1 2 3 1 0 0 1 1 1 0 0 1 2 0 1 1 0 0 1 0 3 2 0 0 2 2 0 1 0 0 2 1 2 0 0 0 1 1 1 1 0 0 2 0 0 0 0 1 2 1 2 0 0 0 1 0 1 1 0 2 2 0 1 0 0 0 2 0 1 0 0 0 0 2 1 0 3 0 2 1 2 3 0 0 1 0 0 0 2 1 1 1 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 2 1 0 0 1 1 0 0 1 1 1 1 2 2 1 0 0 1 2 1 0 1 1 0 1 1 1 2 0 1 0 1 1 2 0 2 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 2 0 1 1 0 1 0 1 0 0 2 0 1 0 1 1 1 0 0 2 0 2 0 0 1 1 2 1 0 0 1 0 0 0 0 2 0 2 1 1 1 2 1 1 0 0 1 1 2 0 1 1 1 0 0 0 0 1 2 0 3 0 0 1 0 1 1 0 0 1 0 1 3 2 1 2 1 0 0 0 2 1 1 0 1 0 1 0 0 4 2 2 2 1 0 0 0 2 2 0 1 3 0 0 0 0 2 0 1 1 2 0 2 0 0 2 1 1 0 0 2 0 2 0 2 0 0 1 0 3 0 0 0 0 0 1 1 2 0 1 3 2 1 0 1 0 1 1 0 1 1 0 2 1 1 0 0 1 0 0 0 1 1 0 1 2 0 1 0 2 0 0 0 0 0 1 0 3 0 1 2 1 1 0 1 0 1 1 0 1 1 3 2 1 2 0 0 0 0 0 0 0 1 0 1 0 3 1 0 0 1 0 1 1 2 0 1 0 0 1 1 2 0 2 1 1 1 2 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 3 0 0 0 2 1 1 1 3 0 0 2 1 1 0 1 0 1 0 0 1 0 3 0 1 1 1 0 1 0 2 2 0 1 2 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 2 2 1 1 1 0 2 2 1 0 0 0 0 0 1 1 0 0 1 1 1 1 0 1 1 0 1 0 1 0 1 1 0 1 0 2 2 1 0 1 1 0 1 1 1 0 1 1 0 0 0 1 1 0 0 3 1 0 0 2 3 2 1 1 0 0 2 0 1 0 0 0 1 0 1 1 1 0 1 0 0 0 2 1 0 2 0 0 2 0 0 1 1 1 0 1 3 1 0 0 2 3 1 0 1 0 2 0 0 0 1 0 1 0 1 0 0 0 0 1 0 2 0 0 1 1 0 2 0 1 0 1 1 0 0 1 0 0 0 0 1 0 4 0 0 2 0 0 1 0 2 2 0 1 1 1 1 1 1 2 0 0 0 0 0 2 0 1 1 1 2 1 0 1 0 2 1 1 1 0 4 1 1 3 0 1 0 1 0 0 2 1 2 0 1 1 0 2 1 0 1 0 0 0 1 0 2 0 0 0 1 1 1 2 0 2 1 2 0 0 1 1 1 0 0 2 0 1 0 1 0 0 0 1 0 0 0 1 1 1 0 2 2 1 1 1 1 2 0 0 2 1 0 1 0 0 2 1 0 0 0 1 0 2 0 1 0 2 1 0 1 0 0 0 1 0 1 0 1 2 1 0 2 0 0 1 2 0 1 1 0 2 1 1 1 2 0 1 3 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 0 0 0 0 2 1 1 0 1 0 0 2 1 1 1 0 2 0 2 0 2 3 0 0 0 0 1 0 1 2 0 1 1 3 2 1 1 0 1 0 0 1 1 2 0 1 0 0 1 2 1 2 0 0 0 0 1 0 0 0 2 0 0 1 1 2 1 1 0 1 1 1 1 3 1 1 0 1 0 1 0 1 1 0 2 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 1 0 0 1 3 0 0 0 0 0 1 1 0 1 1 0 0 1 0 1 2 0 1 0 2 1 1 0 1 1 1 1 0 0 1 1 0 2 2 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 0 1 1 0 0 1 1 2 0 0 0 0 0 2 0 0 1 2 0 0 3 2 0 0 0 1 1 2 2 0 0 1 2 0 1 1 0 1 0 1 0 0 2 0 2 1 1 0 0 1 0 1 1 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 2 1 0 1 1 1 3 0 0 1 1 0 0 0 0 2 2 1 1 1 0 2 1 1 0 0 1 0 0 1 3 0 2 0 0 2 2 0 2 1 2 1 1 0 1 1 0 0 1 3 0 1 0 2 0 0 0 0 0 1 1 2 1 1 2 1 0 1 2 1 0 3 0 1 1 2 1 0 0 3 1 1 1 1 1 0 0 2 4 1 2 0 1 0 0 1 0 0 2 2 0 2 0 1 0 1 0 1 0 0 1 0 0 1 1 1 1 1 2 2 2 0 1 2 2 0 2 3 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 3 0 2 0 0 0 0 0 0 2 2 1 1 0 1 0 0 1 2 1 0 1 0 2 0 0 0 1 0 2 1 1 0 1 0 1 0 3 1 1 1 1 0 2 1 1 0 2 0 1 2 2 0 2 0 1 0 0 0 1 1 0 0 2 2 2 0 1 0 1 1 2 1 0 1 1 0 0 1 0 0 0 0 1 2 1 1 3 0 1 2 2 0 1 2 0 0 0 1 2 1 1 1 0 1 1 1 0 3 1 0 1 1 1 0 1 0 1 1 0 0 2 1 1 0 1 0 1 3 1 1 1 0 1 1 0 0 1 0 1 1 0 1 0 1 0 1 1 1 1 1 2 0 1 0 0 0 0 1 0 2 0 2 1 0 2 1 1 0 0 0 1 0 3 2 0 2 0 1 2 0 1 2 0 1 1 0 3 0 1 0 0 0 1 0 2 0 0 1 1 0 0 2 1 0 0 0 0 2 0 1 1 1 2 1 0 1 0 1 1 1 2 0 2 1 0 1 0 0 1 0 0 0 1 0 2 1 1 0 1 2 1 0 1 1 0 1 0 2 1 1 1 0 3 1 1 2 0 0 0 0 0 0 0 0 2 0 0 2 1 0 2 0 1 1 0 1 0 1 1 1 1 0 1 0 0 1 0 1 1 1 0 0 1 1 1 2 4 1 1 1 0 0 0 0 0 1 2 0 0 0 0 1 3 0 2 0 1 3 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 2 1 2 1 2 1 1 1 0 0 1 2 2 0 0 1 0 0 1 2 1 0 0 1 2 1 0 1 3 0 0 2 0 1 2 0 2 0 2 1 2 0 0 1 1 1 1 0 2 1 1 0 0 1 1 3 0 1 0 2 0 1 1 0 0 0 2 2 0 1 0 0 0 3 1 1 4 1 1 0 1 1 1 0 0 1 1 2 2 1 1 1 1 1 1 0 0 1 1 0 0 1 2 1 0 0 0 0 2 1 0 0 1 0 0 0 3 1 1 0 1 0 1 0 2 0 0 0 0 0 0 2 0 1 1 0 2 2 0 0 1 1 1 0 0 3 4 0 4 0 1 0 3 1 2 1 1 1 0 1 0 1 2 1 2 0 0 0 1 1 3 0 0 0 2 0 0 0 1 0 0 3 1 1 2 2 2 1 1 0 1 1 3 1 3 1 1 2 3 1 3 0 1 0 1 0 2 2 0 0 0 1 0 3 1 0 0 0 0 0 1 0 1 0 1 0 2 0 0 1 1 1 0 0 1 1 1 0 1 0 0 1 1 0 3 1 0 0 0 0 1 0 0 0 1 0 0 1 2 1 3 1 1 1 0 1 1 1 1 1 0 2 2 1 1 1 1 0 0 2 1 1 2 3 1 0 1 0 3 1 0 0 1 1 1 1 1 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 2 2 1 0 1 0 1 3 0 1 1 1 0 1 1 1 0 1 1 1 1 0 0 2 2 1 0 2 1 0 3 2 0 0 1 2 0 1 0 1 0 0 2 0 0 0 2 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 1 1 0 1 0 2 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 1 2 1 0 1 0 2 0 0 1 1 1 1 3 1 0 1 0 0 2 1 0 1 0 0 2 0 1 0 1 0 0 0 2 1 2 1 0 0 1 0 0 2 0 0 0 0 4 0 0 3 0 1 0 0 2 0 1 0 0 1 1 0 1 1 0 2 0 0 0 1 0 1 0 1 1 0 0 0 2 0 2 0 1 0 0 2 1 0 2 0 2 1 1 1 3 0 0 0 1 1 1 0 1 0 2 0 1 0 0 0 0 0 1 1 2 0 1 0 1 2 0 1 1 2 0 1 1 2 0 1 0 2 0 1 1 1 1 2 0 2 0 0 0 1 1 1 1 1 0 0 1 0 0 0 0 1 1 0 2 0 1 0 2 2 1 2 1 1 2 2 1 1 1 2 1 1 0 0 1 0 0 1 1 1 2 0 0 2 1 0 1 1 0 0 2 1 1 1 1 2 0 1 2 0 1 0 0 1 3 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 2 1 1 1 0 1 0 3 3 1 0 0 2 0 1 0 2 0 0 0 0 1 1 1 0 1 0 1 0 0 1 0 2 1 1 0 0 0 1 0 3 1 1 1 1 0 1 1 0 0 0 0 0 0 1 0 2 2 0 1 1 0 0 1 0 0 0 0 1 1 0 1 0 1 1 1 0 0 1 0 1 2 0 2 0 0 1 0 1 1 1 2 0 1 2 0 1 1 1 0 0 0 2 0 1 0 1 0 0 0 0 3 1 1 1 0 1 0 2 1 1 0 0 2 0 0 1 2 0 1 1 0 2 2 0 1 1 0 0 3 1 0 1 0 3 0 1 0 0 2 0 2 0 0 1 0 2 0 0 3 0 0 2 0 0 0 0 1 0 1 1 0 1 1 1 2 0 2 1 0 1 0 0 0 1 0 2 0 0 0 2 0 0 1 2 0 2 1 1 0 2 2 2 2 1 1 2 1 1 2 1 0 0 1 1 1 0 1 3 1 1 3 0 0 2 0 2 1 1 1 0 2 2 1 3 0 0 1 0 0 0 0 0 0 1 2 0 0 2 1 2 0 0 1 2 0 2 1 1 0 0 3 2 0 1 1 0 2 1 2 0 1 1 2 1 1 1 0 0 3 0 4 1 0 0 0 3 1 1 0 2 0 1 1 0 3 1 1 1 0 0 0 2 0 0 2 0 4 4 0 2 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 2 1 0 1 1 2 2 0 0 0 2 1 1 1 1 0 0 0 0 0 0 0 1 1 2 0 0 0 1 2 0 0 2 1 1 0 0 0 2 0 0 1 1 1 1 1 0 2 0 1 0 0 2 3 0 0 1 0 1 1 0 2 0 1 0 1 1 0 2 0 1 0 0 0 1 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 2 2 0 1 0 1 1 0 2 1 1 1 0 1 0 0 1 2 0 0 0 1 2 1 0 2 0 3 1 3 0 0 0 3 1 2 2 0 2 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 3 1 0 1 1 1 2 0 0 1 1 0 1 1 0 2 0 0 2 0 0 1 1 1 0 1 1 0 1 2 1 2 1 1 1 3 2 0 1 2 2 0 3 1 1 1 1 1 1 0 0 2 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 0 0 2 2 1 1 2 0 1 1 2 0 0 0 1 2 1 0 0 2 1 2 1 2 2 2 2 1 0 0 0 2 0 0 2 0 0 0 0 0 2 0 2 0 2 2 1 1 2 1 1 0 2 0 3 1 0 1 0 1 0 1 2 2 2 2 0 4 0 0 2 0 1 0 0 0 2 0 0 1 0 0 1 0 0 1 1 1 0 0 0 2 0 1 1 0 1 0 2 1 1 0 1 1 3 1 0 0 1 1 0 1 2 1 0 1 1 2 1 1 0 1 0 0 0 1 0 1 1 2 0 2 1 1 0 0 0 1 0 0 3 0 1 0 0 0 0 0 0 0 1 0 3 0 0 0 1 1 1 1 0 1 0 0 0 2 0 1 0 2 3 0 1 1 1 1 1 1 1 0 1 0 2 0 0 0 2 1 1 0 1 2 0 0 0 3 0 1 2 2 0 1 1 0 0 1 1 1 0 2 2 1 1 1 1 3 1 0 0 2 1 1 0 0 0 0 1 1 2 0 0 2 1 1 0 2 0 0 1 2 2 1 1 0 2 0 1 1 0 1 2 1 0 0 1 0 0 1 0 1 0 1 1 0 1 0 1 1 1 1 1 1 0 1 2 0 1 0 1 0 2 0 1 2 1 2 0 1 0 0 0 1 2 1 2 0 2 0 0 0 0 1 1 1 2 1 1 1 0 1 0 0 2 0 2 0 1 2 2 1 1 2 0 0 1 1 1 0 0 0 0 0 2 1 1 0 1 1 1 1 1 2 1 0 3 0 1 1 1 2 2 2 1 0 2 0 0 1 0 0 1 2 0 0 1 0 1 0 1 1 2 1 0 0 0 0 1 1 0 1 0 1 0 2 0 1 1 1 1 1 1 0 0 2 0 1 0 0 0 0 0 0 1 1 0 2 1 1 1 0 0 0 0 1 2 2 1 1 0 2 2 1 0 1 1 1 1 0 1 1 1 0 1 0 0 0 1 3 0 0 0 2 1 2 0 2 1 2 0 1 0 1 2 1 0 0 2 1 0 0 1 1 1 1 0 2 1 0 0 0 2 0 2 1 0 2 2 0 1 0 2 3 2 1 0 0 0 1 0 1 1 1 0 1 1 0 2 0 1 2 0 1 1 2 3 0 2 2 0 2 1 2 0 0 1 2 3 1 3 1 1 1 0 1 0 1 0 1 2 3 2 2 1 0 1 2 0 1 0 0 0 0 0 0 0 0 2 1 1 1 0 1 1 0 1 0 0 1 0 1 1 1 1 0 1 1 0 0 0 1 0 2 0 2 2 1 0 1 0 1 0 1 1 1 0 1 1 3 2 1 0 0 2 1 2 0 0 0 0 4 2 1 0 0 1 0 0 2 1 1 1 0 0 2 0 2 1 2 0 0 1 0 1 1 1 1 1 1 0 2 0 1 1 1 0 0 1 0 1 1 0 1 1 1 1 0 0 0 0 0 0 3 0 2 3 1 0 1 0 2 1 1 2 2 1 0 1 0 1 1 0 0 1 1 2 2 0 1 3 0 0 1 0 0 2 1 1 1 1 1 0 2 0 2 1 0 0 0 2 1 0 0 0 0 2 1 1 0 0 0 0 1 1 1 2 2 1 0 1 1 1 0 2 0 1 1 1 1 0 1 2 0 0 2 1 0 0 0 1 0 1 1 0 0 2 1 0 1 2 0 0 0 0 3 1 0 1 1 2 0 0 2 1 0 1 0 1 0 0 2 1 0 1 3 1 0 1 1 1 0 1 1 0 0 1 1 4 1 0 0 2 1 1 1 2 2 0 3 0 1 0 1 1 0 0 1 2 0 0 2 2 1 0 1 1 1 2 0 2 0 0 0 0 3 0 1 0 1 0 1 0 2 2 3 0 1 0 0 0 0 2 0 0 0 2 0 0 0 1 2 0 1 1 0 1 1 0 1 0 0 4 0 0 2 3 1 0 0 0 1 0 0 0 0 0 0 0 1 0 2 1 0 2 0 1 2 0 0 3 1 0 3 1 1 1 0 1 0 3 3 0 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 2 0 2 4 1 0 0 1 0 0 0 0 1 0 1 1 2 0 0 2 2 0 1 1 0 1 1 2 1 1 0 0 0 1 1 2 1 2 1 1 1 1 0 0 0 0 0 1 1 0 0 0 3 1 1 1 2 2 1 1 0 2 2 0 1 1 1 1 2 1 1 0 2 1 0 2 0 0 1 1 1 2 0 0 2 0 1 1 1 1 0 1 1 1 0 0 2 2 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 2 1 2 0 2 0 2 3 2 0 1 0 0 2 1 1 1 3 0 1 0 2 0 1 1 1 1 0 1 0 0 1 0 0 0 1 0 0 2 2 0 0 0 2 1 2 1 0 0 0 0 2 0 1 1 1 0 0 1 1 1 1 0 0 0 0 1 1 1 2 2 0 1 1 1 0 0 0 0 1 1 0 1 0 1 3 1 0 0 2 1 0 1 0 0 0 1 0 0 0 1 0 0 1 1 3 1 1 1 1 1 1 0 1 0 3 2 1 1 1 1 0 1 0 1 0 1 1 0 2 1 1 0 1 1 0 0 1 3 2 2 0 0 1 0 1 1 1 1 0 3 0 1 1 0 1 0 0 1 2 0 1 1 1 2 1 1 0 0 0 0 2 1 1 2 2 1 0 1 0 1 1 0 2 0 0 1 1 1 2 0 0 2 0 1 1 2 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 2 0 0 2 3 1 0 0 2 3 0 1 0 3 1 0 0 0 1 0 1 1 1 0 0 1 0 0 0 3 0 0 0 1 0 2 2 0 1 0 0 0 1 0 2 1 1 1 1 1 3 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 0 2 1 2 1 1 1 0 2 1 3 4 0 0 0 1 0 0 1 1 0 0 1 1 0 2 0 1 2 1 1 0 2 3 1 2 0 0 0 1 3 0 1 0 1 3 1 0 0 1 0 0 1 1 1 0 0 1 2 1 2 2 0 2 0 1 3 2 0 0 1 1 0 0 0 3 2 1 3 2 0 0 0 0 0 0 1 0 1 1 0 1 0 1 2 0 2 0 2 0 0 2 1 1 1 1 0 0 1 0 2 1 1 1 3 0 0 0 1 0 0 0 0 1 0 1 2 1 0 0 0 1 0 0 2 2 1 0 0 0 1 0 0 0 2 0 2 1 0 1 1 1 0 1 0 1 0 0 1 0 2 2 0 0 0 1 1 0 1 2 0 0 0 0 0 1 0 1 0 0 1 1 1 1 1 2 1 0 1 0 1 2 2 3 1 0 0 0 1 1 3 1 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 3 1 2 1 0 0 0 0 1 2 0 0 1 1 1 0 0 0 3 1 0 1 0 0 3 1 0 2 6 0 1 0 0 1 0 0 0 0 1 0 0 1 2 1 2 0 0 2 1 1 1 2 0 2 0 0 0 1 0 2 0 1 1 3 0 1 0 1 1 1 0 0 0 2 2 3 1 0 0 2 0 1 2 0 0 0 1 1 0 0 0 0 2 0 2 0 1 1 0 3 1 1 1 2 2 0 0 1 0 2 1 1 1 2 2 0 0 0 1 1 1 0 0 2 1 1 1 1 1 0 1 3 0 1 0 0 0 0 1 1 0 0 0 1 1 2 2 1 2 0 1 0 1 3 2 1 0 2 3 0 0 0 0 0 0 2 0 1 0 2 0 1 1 1 1 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 1 1 2 0 3 0 1 0 1 1 3 0 0 1 0 0 1 0 1 0 0 0 0 1 2 3 1 0 0 0 0 2 2 2 0 0 1 1 0 0 0 2 2 0 0 0 1 0 0 0 0 0 1 0 1 0 2 2 0 1 0 3 0 2 0 1 1 0 1 0 2 0 2 1 1 2 0 1 2 1 2 2 1 0 2 1 0 2 1 1 0 0 0 0 0 1 0 1 2 3 1 2 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 2 0 1 1 1 0 1 1 1 0 0 1 1 0 0 1 1 1 1 0 2 1 0 2 0 0 0 2 0 0 1 1 2 1 0 2 3 2 5 2 0 1 1 0 3 1 0 2 0 0 3 0 0 0 0 0 0 0 1 0 0 1 1 2 0 0 0 0 2 0 0 1 1 1 2 0 0 3 2 3 1 3 0 0 0 0 1 1 1 0 1 1 0 1 0 1 1 0 1 1 1 0 0 2 1 1 2 0 2 0 0 2 1 0 1 2 0 1 1 2 2 1 2 1 0 0 1 0 2 1 1 2 2 3 0 1 0 1 0 1 1 0 1 2 0 0 0 1 0 1 0 1 1 0 0 0 2 1 1 0 0 1 0 0 2 3 0 0 2 3 1 1 0 0 2 2 0 0 1 2 2 0 0 1 0 0 1 0 1 3 1 0 1 0 0 0 2 0 1 1 1 0 0 3 0 1 1 0 2 0 1 2 1 1 1 0 1 0 0 0 2 1 3 0 1 1 0 1 0 0 0 0 0 1 1 1 0 2 0 1 0 0 1 2 0 2 2 1 1 2 0 1 2 2 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 1 1 0 0 0 1 0 3 0 0 0 1 1 1 1 1 2 0 0 0 0 0 0 1 1 1 0 1 1 0 2 0 2 0 0 2 0 1 0 1 2 0 1 0 1 2 1 0 2 1 1 1 0 0 0 0 0 2 2 1 2 0 0 2 0 1 0 1 1 0 1 1 0 0 0 1 0 1 1 1 1 1 0 0 0 1 1 1 2 1 1 1 1 1 0 2 0 2 0 1 0 0 2 0 0 0 0 1 1 0 0 0 0 2 0 1 1 1 0 2 2 0 1 0 0 1 0 1 1 1 0 2 1 0 2 0 1 2 1 0 1 2 0 0 1 0 0 0 1 0 2 0 3 0 1 1 0 0 1 2 0 1 0 0 0 1 1 1 1 0 1 1 1 2 1 0 0 1 2 0 0 2 1 0 0 1 0 2 0 0 1 0 1 2 1 0 0 1 1 0 1 0 1 1 1 0 0 1 1 1 0 0 1 2 0 0 2 2 3 1 1 1 0 0 0 0 1 0 0 0 1 1 2 0 0 1 2 0 0 1 0 1 0 0 1 2 0 0 1 1 0 1 0 1 0 1 1 2 0 0 1 0 0 1 1 1 0 0 1 1 0 1 0 0 0 1 2 2 0 0 3 0 0 2 1 0 2 1 0 2 0 0 2 0 1 1 0 2 1 0 0 0 1 1 0 1 1 0 2 1 1 0 1 0 1 1 0 1 1 0 1 1 0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 3 0 0 2 0 0 0 0 0 0 2 1 2 0 0 1 1 1 1 0 0 2 0 0 0 1 0 1 2 2 1 1 1 0 0 0 2 0 1 0 0 0 0 2 0 2 0 1 1 0 0 0 0 0 3 1 1 1 0 0 1 1 0 1 1 2 0 1 0 0 0 2 0 0 1 0 1 0 0 0 2 2 1 1 0 2 0 1 1 0 3 3 1 1 0 1 0 1 1 0 0 1 0 1 1</t>
   </si>
   <si>
     <t>Name</t>
@@ -210,12 +210,12 @@
     <t>D.Williams</t>
   </si>
   <si>
+    <t>K.Herbert</t>
+  </si>
+  <si>
     <t>J.Graham</t>
   </si>
   <si>
-    <t>K.Herbert</t>
-  </si>
-  <si>
     <t>J.Grant</t>
   </si>
   <si>
@@ -261,52 +261,52 @@
     <t>C.Santos</t>
   </si>
   <si>
-    <t>EXN(0.6525378445605848, 14.929907137627609, 6.7033853427131405)</t>
-  </si>
-  <si>
-    <t>16 19 10 20 35 20 14 17 26 19 30 24 20 21 6 14 27 23 29 25 16 16 9 36 15 26 10 13 29 20 42 17 31 13 24 14 10 20 18 27 10 23 27 17 21 24 27 31 6 20 21 10 13 17 16 26 32 13 24 13 13 10 23 16 19 24 13 16 16 0 20 14 19 16 19 20 27 7 21 14 20 27 16 18 23 17 33 6 31 16 17 21 23 10 23 30 23 10 28 10 26 27 3 7 23 20 23 29 28 34 17 22 27 10 23 10 10 16 35 27 26 10 13 21 31 6 23 30 3 38 16 14 30 20 13 23 26 17 18 19 33 34 17 22 16 27 9 29 43 35 23 26 15 20 17 16 17 24 6 7 25 19 12 16 25 17 31 20 28 37 25 30 13 17 28 20 17 9 23 10 14 24 34 20 23 25 13 14 16 6 3 20 13 17 26 14 14 26 6 18 20 18 6 20 23 17 27 18 24 31 21 23 27 15 13 3 31 23 18 13 9 21 19 17 22 16 20 16 8 26 24 10 16 27 17 38 6 10 22 9 23 18 3 24 26 6 13 3 23 19 14 45 15 28 13 6 23 25 17 23 27 13 21 28 10 23 22 19 7 13 17 40 14 19 10 33 17 28 31 28 16 20 37 17 11 7 23 9 10 24 14 33 28 19 34 6 38 27 38 23 17 25 23 9 31 17 22 17 13 12 9 20 14 9 14 9 21 7 20 10 30 23 20 19 0 40 20 30 13 28 27 28 9 22 18 15 7 17 26 14 23 20 26 31 16 17 24 27 19 6 6 24 23 7 24 15 23 6 12 23 19 35 23 30 20 10 13 29 10 16 24 25 9 23 16 30 10 16 40 23 20 27 19 9 10 16 24 10 20 20 30 7 27 13 16 24 34 14 12 15 13 19 17 24 11 12 7 9 31 37 6 24 13 36 17 27 21 28 24 14 19 24 10 7 34 13 20 6 10 15 13 16 17 27 13 14 22 20 27 17 16 30 16 20 35 27 9 17 43 10 0 10 22 24 0 9 13 30 19 0 9 23 10 19 21 34 24 14 13 8 10 17 20 13 9 14 16 17 13 20 23 16 17 9 25 31 9 20 23 40 13 33 17 6 7 29 13 19 17 26 6 16 16 24 27 16 21 17 12 24 10 17 26 17 26 14 27 13 20 15 16 22 17 20 22 31 37 34 27 16 17 17 27 20 48 23 29 24 30 23 20 17 13 35 22 24 7 16 17 9 17 26 14 6 27 20 8 34 26 12 21 21 27 29 20 10 13 37 27 25 6 27 17 27 24 20 30 27 27 6 17 23 14 23 17 20 13 20 13 23 15 36 15 6 17 30 15 24 17 29 9 27 9 12 23 21 15 21 15 12 40 23 26 16 24 23 38 22 10 6 3 24 23 26 21 31 27 21 20 20 16 26 16 19 22 19 16 38 3 21 16 24 26 16 23 30 21 28 24 34 17 14 30 21 3 23 16 20 24 9 25 13 3 10 21 3 20 18 7 10 20 17 13 20 16 17 17 14 24 10 14 16 46 15 16 33 19 20 17 15 19 3 20 16 17 16 17 13 19 39 17 16 28 17 23 20 15 3 24 24 10 19 24 27 13 7 22 6 13 13 21 17 18 19 17 23 20 7 3 20 17 9 9 16 10 19 31 3 26 19 13 26 13 21 34 24 38 23 20 17 24 6 7 17 10 14 24 3 24 12 35 9 24 23 16 20 16 17 41 23 23 27 11 13 5 10 31 17 10 7 6 7 10 20 16 20 16 29 13 18 22 6 27 20 20 6 12 11 13 6 17 20 9 17 15 20 38 33 23 24 25 16 13 24 13 19 10 20 25 20 13 13 15 20 13 3 24 24 27 14 8 36 26 17 20 6 34 20 41 12 20 20 15 16 9 20 10 30 17 30 16 24 13 23 34 6 34 20 3 20 20 20 7 10 23 13 27 29 20 10 17 27 17 17 17 25 13 16 17 21 19 27 23 20 24 9 20 20 34 25 21 23 30 0 24 13 17 23 19 12 27 13 14 27 16 10 28 33 17 22 28 26 17 10 13 19 30 17 17 17 28 6 13 16 31 31 24 28 15 33 20 20 16 19 20 20 17 37 17 22 18 10 17 14 6 10 9 10 17 15 12 3 14 24 31 10 16 31 36 13 7 30 30 16 17 15 16 19 30 15 10 14 16 32 13 14 30 27 19 14 13 27 21 23 17 17 17 19 41 20 27 19 30 31 23 13 13 23 16 16 10 10 17 30 23 37 22 17 28 31 6 13 16 33 29 14 38 27 24 7 20 21 21 21 7 27 12 14 27 27 6 30 17 24 31 17 30 23 17 13 19 20 7 20 25 10 20 13 17 12 22 9 7 14 9 9 25 20 13 26 26 17 23 23 29 21 20 13 13 16 27 17 9 16 9 24 10 7 20 30 6 31 13 3 7 24 17 6 41 24 23 23 14 20 12 12 17 7 14 23 16 12 27 24 13 23 23 17 14 17 15 24 33 14 16 11 33 30 9 42 20 31 13 20 3 13 14 16 12 13 36 14 16 9 16 7 13 15 13 27 24 7 13 15 25 17 23 7 30 14 27 16 16 13 24 19 23 13 23 19 24 0 17 18 10 17 9 31 23 15 9 20 27 10 13 21 13 22 16 6 14 13 26 20 3 19 20 20 10 7 41 16 23 31 13 24 19 26 27 16 20 31 17 34 17 15 3 20 17 29 25 12 44 14 9 26 27 21 31 23 23 19 7 15 19 24 10 38 20 23 3 23 17 20 22 14 9 22 10 15 26 24 10 24 20 20 28 21 13 16 37 29 14 20 13 13 33 16 23 16 15 21 30 31 14 22 18 17 20 19 28 20 24 27 15 23 9 13 9 21 24 27 19 26 42 10 19 13 7 10 26 13 3 13 18 19 24 14 13 17 9 20 16 26 19 3 16 34 14 20 21 27 10 9 20 9 24 39 20 10 20 21 17 24 12 17 17 30 20 27 18 9 13 26 10 17 10 27 29 30 17 28 15 20 21 10 16 14 10 23 13 20 19 20 33 17 17 18 34 14 13 3 15 23 13 26 10 19 13 31 46 21 27 3 13 15 25 23 33 21 10 27 21 17 14 20 40 21 15 15 16 13 12 3 20 12 21 15 21 9 24 21 31 10 20 12 16 24 24 18 21 16 28 23 16 16 20 33 14 14 7 10 21 30 26 19 26 20 23 13 19 20 16 23 21 19 16 21 13 20 24 41 13 13 17 21 30 21 14 9 23 16 12 20 13 24 17 21 13 17 9 25 9 29 23 23 31 28 13 13 27 25 17 30 16 17 20 16 38 20 11 13 17 16 14 7 27 23 13 19 17 11 9 10 16 19 13 9 13 27 7 17 17 19 33 14 20 19 12 27 22 26 19 3 31 13 10 30 24 21 38 14 23 22 15 20 6 24 17 10 22 17 20 20 12 3 13 20 12 14 13 28 10 19 24 14 31 16 6 20 30 24 25 24 38 22 10 30 7 18 20 26 16 24 21 13 7 33 26 13 23 16 23 9 13 3 17 10 10 19 13 27 10 10 21 17 22 10 30 38 31 20 10 10 23 24 20 11 38 28 13 20 17 24 23 16 24 19 6 13 19 27 20 14 14 15 29 0 34 17 31 26 7 27 14 16 29 27 12 24 17 16 10 27 21 19 17 21 17 17 10 16 31 14 25 9 27 10 6 16 24 14 20 20 6 15 17 13 23 24 7 17 33 10 31 10 23 31 14 38 21 24 19 21 23 17 17 15 30 23 10 20 22 27 27 29 13 16 22 20 6 20 17 20 26 26 9 19 12 19 34 17 23 21 34 10 22 6 16 17 24 20 13 7 12 15 20 13 20 17 10 21 17 38 15 15 17 6 16 26 26 17 21 17 16 7 20 25 17 14 20 6 21 18 25 17 19 20 12 24 49 21 31 23 13 6 14 13 16 34 7 13 24 23 6 21 7 33 12 23 28 16 23 14 21 21 28 13 22 17 22 6 3 10 29 3 3 21 24 19 21 30 17 10 10 30 16 21 23 27 34 18 29 13 20 25 13 16 10 15 27 14 13 0 26 30 21 21 13 16 7 20 7 10 25 22 14 7 21 20 31 20 29 17 21 31 10 37 20 20 17 7 24 23 12 23 7 25 17 19 13 17 13 13 16 27 27 20 20 24 9 17 21 19 21 30 19 31 10 20 26 14 20 33 15 20 16 3 26 20 26 14 23 31 17 17 7 26 24 7 33 21 23 24 13 22 6 35 9 9 18 20 9 13 13 16 10 17 30 19 13 23 19 27 12 27 30 13 7 34 23 26 9 17 24 27 13 15 16 17 9 19 26 20 12 24 23 17 27 20 25 44 9 3 17 24 10 7 20 16 25 34 6 16 35 50 20 21 34 13 23 20 18 15 17 9 20 10 20 27 27 19 17 27 10 17 22 19 15 30 33 34 33 25 7 22 13 15 12 25 24 24 20 34 10 20 26 13 35 27 14 19 26 16 17 24 20 16 19 26 10 16 9 27 10 6 24 27 24 23 16 13 10 21 21 21 26 21 20 27 13 9 19 7 23 14 14 10 23 34 23 18 9 26 16 17 13 25 10 11 28 35 22 19 13 22 21 24 10 32 17 27 14 10 16 10 10 15 14 24 20 14 10 0 9 30 13 13 14 16 15 23 34 10 19 29 12 13 6 20 13 33 24 20 17 3 23 20 20 10 26 13 23 27 13 25 24 23 21 12 36 28 21 16 26 23 21 16 19 16 23 10 23 13 6 17 16 13 14 21 17 16 17 9 13 28 18 7 7 6 13 6 16 14 36 19 11 13 31 14 24 17 21 13 20 16 27 21 16 17 30 20 3 45 18 22 20 24 31 20 13 12 23 16 12 17 17 17 10 10 19 20 7 20 13 27 31 27 20 13 16 13 20 19 23 23 19 13 13 40 15 41 23 24 31 14 14 6 10 17 23 17 31 6 34 27 0 9 13 13 9 31 30 6 14 16 7 13 34 7 20 16 30 17 8 43 29 25 17 28 10 29 21 24 12 13 13 16 14 31 20 16 17 20 22 24 24 34 36 16 17 34 19 17 3 10 3 20 27 17 10 3 23 14 20 23 10 18 24 21 7 21 24 18 21 33 17 24 16 21 17 21 38 22 14 23 19 9 37 12 34 24 15 13 6 19 15 19 24 0 27 24 23 27 14 9 31 17 20 13 14 21 12 24 19 14 10 0 17 14 13 26 31 26 28 24 16 20 26 6 21 6 34 13 30 20 30 6 17 21 29 35 10 10 23 22 16 34 27 10 27 17 20 15 28 15 23 15 17 30 17 30 10 19 21 10 21 10 16 20 20 19 16 6 20 12 27 38 22 10 20 26 7 13 17 19 29 23 33 33 17 29 22 20 27 24 29 20 9 6 23 14 13 28 10 17 3 21 9 28 17 24 14 7 17 23 9 19 25 14 35 26 20 23 17 36 20 28 19 13 31 13 27 9 13 14 16 20 27 21 31 13 33 31 6 23 17 16 16 16 7 24 37 17 31 23 25 30 10 6 20 23 22 19 16 14 21 34 20 26 14 23 13 17 21 23 9 38 15 22 30 21 21 26 17 17 14 11 29 20 7 18 11 16 10 9 16 7 17 23 16 36 24 16 12 9 20 17 17 6 22 7 19 10 24 29 29 14 13 13 30 26 17 13 21 20 14 17 13 13 31 17 10 27 16 23 29 27 21 31 34 20 22 13 13 25 17 10 10 21 10 16 38 20 23 27 14 20 33 13 13 27 15 3 13 19 20 16 9 24 24 24 20 21 20 16 20 9 20 11 13 23 13 27 14 27 10 17 34 24 20 20 20 10 26 9 19 9 31 20 28 18 25 7 22 21 16 21 17 16 3 26 7 23 16 20 20 16 12 19 6 23 20 10 16 16 24 23 17 37 17 24 29 10 16 24 21 20 20 10 34 22 23 17 27 30 0 24 14 12 17 20 23 19 23 27 13 19 6 24 24 13 21 35 29 20 32 19 0 20 16 19 33 28 19 24 13 22 24 19 3 20 23 17 14 24 17 17 16 27 15 25 6 27 23 16 12 17 13 33 20 14 27 21 10 16 16 20 20 38 0 14 37 14 24 11 6 13 10 20 23 27 17 23 10 23 20 17 22 28 13 17 26 9 16 21 28 6 26 20 24 16 28 17 28 15 23 16 20 7 44 27 24 17 33 24 24 27 10 6 27 26 34 17 14 20 9 13 24 29 19 20 23 38 16 9 20 19 9 17 16 31 27 20 3 14 21 20 31 23 13 16 27 24 34 17 28 31 31 14 27 13 10 26 16 14 24 34 20 25 31 16 9 17 17 8 16 17 20 33 40 29 30 34 28 0 23 23 23 31 6 33 27 30 24 3 9 23 16 20 16 20 18 20 20 37 25 38 10 17 19 24 24 28 24 18 20 22 21 13 14 12 14 27 13 16 23 24 17 30 10 13 10 26 13 19 27 31 17 20 18 23 11 23 11 31 23 6 23 6 10 17 24 24 17 28 12 21 18 16 16 21 25 31 16 21 16 24 30 24 17 24 26 27 27 10 26 17 10 31 10 23 17 23 10 22 21 15 17 9 6 24 18 22 7 30 28 24 13 20 9 22 19 28 7 23 41 12 14 17 40 22 23 13 3 13 19 26 20 14 9 24 9 12 10 20 17 27 24 23 6 30 15 19 20 24 17 34 22 30 33 35 21 23 19 23 21 38 14 16 24 23 12 17 10 13 3 31 17 18 20 10 19 6 16 20 19 17 26 20 3 10 14 16 28 20 28 17 20 7 28 27 17 23 10 12 27 16 17 25 6 16 16 10 34 29 13 20 29 16 24 34 10 19 17 16 19 10 24 24 26 13 34 18 10 23 29 33 17 6 24 26 7 21 14 40 19 19 15 26 14 34 21 17 14 26 16 6 12 14 33 6 7 18 12 7 29 20 23 27 13 24 12 24 17 15 22 22 22 18 32 19 34 22 20 10 20 9 26 16 11 17 19 10 17 26 26 20 20 23 21 16 13 27 10 26 17 18 16 29 27 20 11 31 24 31 13 20 21 10 27 34 16 16 23 9 27 12 16 14 21 24 13 34 6 22 20 22 38 13 10 25 19 19 24 24 17 23 16 23 23 26 19 20 29 26 33 19 31 7 24 24 28 13 10 17 30 20 23 27 14 32 19 22 31 34 19 29 19 22 14 19 13 24 16 23 30 27 24 13 20 36 14 19 10 10 27 20 30 13 30 30 33 10 22 23 30 13 17 21 29 23 10 38 24 23 20 6 14 17 6 22 16 24 20 17 33 20 34 34 23 7 17 24 14 14 13 17 13 20 20 38 13 9 34 16 13 6 31 14 14 44 22 27 7 21 12 20 24 21 10 27 6 17 7 17 10 23 17 7 29 40 34 31 20 14 24 18 6 10 20 30 18 19 12 14 19 14 13 10 20 14 27 16 16 21 16 16 0 13 27 21 20 17 13 10 9 14 10 24 19 6 16 20 30 10 24 17 16 17 12 27 24 41 15 24 23 3 23 20 20 3 23 26 23 31 24 21 13 15 14 12 22 26 18 17 34 16 34 28 10 17 17 12 17 24 26 22 25 15 17 20 9 23 33 27 21 9 14 16 14 19 27 30 21 10 23 16 10 10 14 27 24 19 22 16 13 20 13 12 44 27 27 12 24 20 20 20 14 18 17 23 12 10 13 18 30 13 38 39 30 20 16 7 24 24 9 19 17 30 24 26 13 14 27 20 20 24 31 20 10 21 21 28 30 17 26 37 20 30 35 39 32 28 16 31 20 31 16 23 19 24 13 13 6 14 23 10 26 27 27 19 24 26 20 14 16 21 17 33 17 20 13 16 13 20 9 23 10 13 31 21 28 13 13 30 27 22 19 22 25 13 24 19 15 12 14 21 23 15 17 14 24 17 30 15 15 20 14 15 20 13 17 24 20 17 23 16 10 6 23 20 21 19 14 23 0 17 20 13 17 24 30 23 16 20 27 10 33 30 24 9 16 7 13 30 20 6 26 3 18 33 18 16 19 26 13 19 14 13 24 0 17 21 23 32 13 17 30 6 17 23 10 21 21 17 23 7 22 27 19 18 13 17 25 7 16 27 17 12 20 27 20 16 27 25 10 23 23 20 20 19 23 23 19 29 28 16 13 17 19 24 16 21 10 3 21 34 32 13 17 27 26 20 28 39 38 15 16 13 9 16 14 13 22 15 7 7 13 18 24 19 17 27 15 17 10 13 20 17 12 6 3 17 41 13 11 17 13 17 10 16 31 33 17 17 23 3 13 23 16 20 22 21 29 16 22 10 20 27 20 18 22 33 13 26 17 16 17 17 27 20 16 21 23 29 7 16 6 28 20 15 21 20 13 13 10 12 21 16 24 10 17 20 12 22 17 16 24 25 26 24 14 23 31 23 13 27 3 6 16 21 26 10 27 16 23 38 27 15 6 20 13 10 23 45 6 25 17 20 24 29 13 16 24 20 23 16 37 12 3 20 12 24 13 19 27 23 16 27 10 34 16 21 20 13 17 13 38 21 25 25 25 12 14 19 21 3 18 17 22 13 13 10 34 10 23 13 31 6 21 10 20 29 20 24 10 19 17 16 23 23 29 17 16 14 24 18 24 37 10 14 31 19 21 3 24 17 10 24 8 16 20 18 9 12 10 12 10 38 24 7 9 20 9 37 30 29 24 16 16 10 10 17 28 38 9 20 19 3 26 44 24 22 22 20 24 47 29 20 16 0 30 20 20 14 34 9 10 20 24 28 8 14 31 42 27 10 15 14 31 17 17 20 19 17 10 9 13 10 10 14 28 14 17 13 7 16 13 20 10 19 12 16 18 16 17 31 20 27 16 29 14 13 18 31 21 17 8 23 20 30 9 30 33 20 35 18 24 10 19 30 41 17 19 10 13 17 30 10 14 18 17 27 27 27 36 30 24 15 27 30 26 3 20 31 16 3 20 13 13 12 18 13 17 7 31 19 26 20 13 24 31 29 11 10 24 10 17 18 23 28 19 24 17 31 20 13 24 30 29 14 13 32 10 20 11 7 24 7 20 13 22 21 19 23 3 19 23 13 10 23 17 31 3 20 13 16 17 12 20 6 20 6 10 24 25 20 19 13 40 24 23 17 37 14 10 24 23 14 20 18 31 12 7 20 12 14 26 13 29 23 23 29 28 24 21 19 30 26 48 26 23 21 10 37 31 8 7 6 23 10 17 22 6 19 10 19 19 43 10 13 16 17 23 19 24 28 20 29 8 27 13 31 3 24 10 29 10 9 14 7 24 25 13 17 15 21 14 17 21 35 21 38 14 16 7 13 23 31 24 23 24 30 12 27 24 19 7 23 16 17 12 35 38 27 35 20 16 22 14 13 6 17 34 10 19 21 17 14 10 41 13 10 17 27 21 20 10 44 18 27 19 0 30 16 16 29 23 20 24 30 17 29 21 20 3 20 38 40 19 26 34 21 7 16 16 35 13 20 6 10 23 21 38 22 24 31 12 16 0 26 16 30 26 0 23 10 24 31 23 27 28 20 6 13 14 10 17 10 17 3 17 28 7 23 14 16 21 15 10 31 21 10 15 12 29 24 17 15 15 7 7 15 15 14 20 17 23 31 24 17 20 24 18 10 16 28 13 9 9 20 16 24 20 17 36 25 26 29 21 17 13 20 24 25 24 19 20 27 22 9 17 38 16 20 19 13 24 33 20 16 11 16 20 14 12 20 31 34 20 24 23 12 17 23 10 20 27 6 25 20 30 17 16 23 7 10 16 10 16 27 19 13 6 20 24 13 17 13 23 16 16 12 17 17 26 23 17 8 17 15 7 22 16 27 24 29 17 22 20 21 21 20 46 15 21 17 14 9 24 17 15 21 21 17 24 10 16 17 17 20 13 25 19 15 14 17 7 20 6 15 34 17 30 17 16 14 42 20 21 9 23 10 31 6 10 13 14 5 16 20 6 10 13 20 36 15 20 22 16 33 7 13 33 20 17 32 14 10 22 20 6 23 16 26 31 37 28 16 13 13 27 24 17 24 15 20 9 24 14 19 17 14 17 20 34 23 24 7 19 16 16 9 16 16 28 9 17 10 24 13 24 17 17 19 29 14 28 16 7 28 19 16 20 18 24 24 9 29 16 28 23 30 10 13 7 14 34 16 31 20 11 17 24 27 25 21 17 22 13 28 23 23 15 6 24 28 16 30 13 33 24 20 10 33 17 24 16 27 17 20 6 28 17 24 30 23 18 34 22 26 20 13 17 3 3 9 22 14 27 6 13 17 21 16 18 16 14 16 24 6 27 20 7 24 16 17 34 13 13 21 38 17 16 15 16 13 31 20 33 23 20 28 17 10 9 10 19 17 19 17 13 30 20 19 26 32 27 13 17 26 10 16 10 17 6 22 24 16 20 29 18 26 22 23 9 21 30 20 33 13 27 24 14 13 47 22 27 16 13 13 31 24 21 17 17 3 16 20 10 30 16 24 31 21 24 27 9 20 14 20 6 22 10 27 21 6 6 19 13 17 23 16 16 13 22 23 20 7 23 17 10 37 13 23 13 27 18 13 9 17 23 9 28 40 17 16 31 3 27 6 20 17 14 14 13 24 23 22 7 14 10 24 26 30 28 10 7 9 20 28 14 23 24 0 17 9 16 10 19 20 37 17 22 10 23 20 13 14 21 17 13 27 45 24 9 27 26 41 16 13 27 21 10 20 25 23 26 14 26 23 17 22 10 20 31 31 24 14 23 25 27 28 17 20 27 22 27 12 18 3 39 22 15 16 21 23 14 8 14 14 20 20 24 23 28 13 16 23 21 17 17 14 25 15 21 13 28 7 27 10 24 20 20 3 23 31 31 21 7 21 27 9 35 16 16 13 14 6 16 20 31 24 23 17 9 9 13 28 12 24 27 13 23 16 9 16 18 20 22 9 10 12 26 21 14 14 23 26 38 20 38 16 27 30 22 9 27 20 26 14 14 20 7 10 17 27 27 51 7 9 7 20 14 9 6 10 7 17 14 30 30 21 19 18 17 7 6 34 17 17 16 28 25 28 18 20 27 15 18 16 17 17 22 30 27 6 12 15 17 23 16 16 16 13 26 9 20 33 17 12 16 12 31 30 10 37 13 9 24 20 10 17 24 10 22 9 13 13 34 23 9 10 7 17 13 30 16 15 10 24 21 21 29 20 27 33 24 35 24 9 20 24 16 17 19 17 16 17 24 17 24 13 35 20 22 22 10 7 14 22 27 34 13 16 26 8 27 26 10 9 37 47 19 24 31 28 13 13 9 10 24 13 21 19 27 24 14 19 14 16 14 20 12 23 23 24 22 23 15 7 24 10 15 34 21 23 21 16 24 17 10 26 17 23 35 31 20 14 20 16 25 13 20 27 10 16 30 20 16 9 17 16 27 19 27 31 41 20 19 21 23 10 30 21 6 23 14 9 14 16 17 11 27 23 19 26 13 26 20 12 20 29 16 17 21 7 3 3 31 38 22 12 26 30 24 23 6 15 23 17 6 23 21 29 23 16 21 17 17 23 27 23 13 10 24 3 16 16 16 0 12 26 23 10 17 17 20 27 10 16 33 27 27 0 20 22 0 39 13 14 6 19 20 13 10 28 6 20 23 25 24 17 24 10 19 20 12 20 15 13 9 26 21 14 17 28 21 31 15 16 19 19 24 9 12 16 28 37 27 20 20 24 10 15 19 26 35 33 10 27 29 24 10 6 27 21 27 20 28 24 7 16 16 13 17 21 20 9 37 28 14 16 7 13 41 20 23 17 24 17 17 22 10 27 15 20 41 16 14 19 20 17 21 10 24 17 17 27 10 41 24 14 24 10 27 20 17 6 13 13 6 20 14 26 18 14 10 24 18 16 13 17 24 24 12 26 36 24 24 26 33 27 25 23 22 19 30 26 19 15 31 3 34 6 16 30 20 17 16 12 16 16 15 20 9 17 16 14 34 20 23 9 10 30 3 14 27 16 9 9 26 7 10 27 17 24 16 10 15 16 17 30 37 6 22 16 24 26 21 21 14 20 10 20 13 14 16 12 16 20 27 22 17 17 17 16 13 23 19 17 23 17 6 20 17 20 16 20 22 20 14 20 19 12 16 27 7 20 14 13 17 12 10 21 10 13 3 10 29 33 31 19 26 19 18 26 21 17 31 24 23 14 21 27 13 20 7 23 23 27 3 27 17 17 13 14 17 23 3 3 13 22 22 13 20 24 14 20 20 23 9 37 13 24 30 13 31 37 24 27 20 21 30 24 20 10 18 21 20 20 22 0 17 23 44 27 31 16 7 33 23 28 13 6 14 25 9 16 25 19 13 6 24 27 9 13 12 9 13 13 20 16 14 20 31 30 30 24 13 24 13 30 24 25 18 17 14 6 16 14 19 9 13 10 25 23 14 22 16 23 23 23 6 20 23 19 20 19 23 23 3 17 4 22 16 20 19 6 20 20 22 19 16 16 24 19 15 17 27 16 13 17 10 31 3 27 9 8 16 24 22 27 32 24 20 21 30 17 22 40 10 9 13 6 24 20 21 14 11 13 23 16 33 28 13 20 24 17 26 23 23 30 16 13 35 17 17 10 16 17 16 32 12 6 11 6 10 19 41 13 13 27 20 17 16 30 7 24 24 25 34 25 15 6 13 44 20 20 19 49 27 31 31 27 20 10 16 20 10 17 30 14 14 24 36 31 20 14 17 13 29 14 24 17 29 24 17 23 13 28 16 17 20 23 10 18 24 19 20 24 20 20 29 10 15 19 13 23 6 24 23 6 6 23 23 8 23 19 31 29 21 17 6 28 19 14 34 22 7 22 16 23 20 16 20 8 13 6 23 10 24 14 27 27 23 30 7 13 35 6 9 13 21 17 30 6 3 31 19 23 16 17 24 16 20 14 16 23 24 27 0 14 27 20 10 17 24 13 13 26 19 21 10 30 17 24 28 13 17 14 28 31 10 3 16 15 16 23 16 26 28 3 21 25 20 6 20 13 19 31 13 14 24 27 26 20 27 26 10 24 21 20 17 22 20 21 27 14 24 10 15 24 23 26 12 19 6 24 35 16 27 6 24 26 10 9 17 20 17 43 14 20 10 31 10 11 17 26 23 22 6 33 30 19 13 20 16 26 17 16 14 13 13 12 23 10 32 14 27 31 17 12 28 18 17 27 10 21 13 18 36 28 31 30 12 16 40 10 25 17 3 17 16 27 20 13 6 14 24 6 6 27 18 13 16 16 11 9 12 19 15 10 29 24 26 37 21 20 28 20 13 19 21 28 16 16 28 13 17 20 7 21 23 10 30 17 20 13 16 24 16 19 27 17 31 23 30 19 10 20 18 28 19 28 20 17 24 20 20 30 13 14 28 24 15 10 13 39 31 20 17 23 26 24 17 15 27 27 16 27 18 23 23 23 13 12 34 22 25 20 15 20 34 20 10 16 22 17 30 37 24 20 16 30 10 27 20 24 27 20 20 6 17 6 14 23 9 27 13 9 13 23 23 28 16 17 13 7 22 23 30 26 17 30 7 20 10 14 20 19 24 17 14 19 13 17 26 27 14 23 17 20 24 30 27 33 16 19 31 23 17 29 19 16 23 9 6 23 27 31 23 3 13 24 31 16 29 30 13 33 30 34 20 18 16 24 27 29 20 31 17 17 24 19 28 28 14 13 13 13 27 23 16 39 3 22 16 10 27 17 28 21 24 7 24 25 14 23 17 35 13 26 23 13 10 28 17 22 33 45 21 16 28 13 9 12 21 20 17 14 21 13 23 30 16 23 27 16 27 13 33 38 20 20 27 17 19 31 6 26 31 17 14 13 21 13 17 10 21 24 6 16 16 21 26 19 7 9 15 10 30 27 13 28 7 28 26 3 29 24 33 34 27 16 23 25 19 17 18 27 30 13 9 13 20 17 23 10 13 30 14 12 13 23 27 16 6 12 33 0 10 14 9 15 37 32 13 22 16 22 20 13 20 37 3 13 19 21 20 12 13 13 22 16 26 17 10 10 21 21 9 10 16 23 30 26 7 13 23 14 16 13 16 22 27 16 20 31 19 16 6 22 17 13 13 27 9 14 14 24 27 16 20 17 17 13 24 17 6 13 27 33 16 41 16 14 17 7 16 29 15 10 7 13 17 18 7 6 17 18 26 24 31 25 13 14 24 14 14 19 13 33 19 13 12 30 27 22 16 20 14 7 23 15 23 14 12 9 33 29 25 13 12 6 30 32 27 24 10 23 27 19 17 10 23 16 7 27 15 24 13 31 6 23 20 7 15 33 20 10 18 19 10 27 19 17 23 17 16 16 10 34 0 17 20 21 12 31 9 24 16 27 9 20 24 16 14 32 23 24 20 15 9 20 31 16 22 13 20 19 9 42 20 20 26 20 14 20 27 16 20 16 10 17 30 20 28 27 3 3 15 16 0 13 26 3 33 31 13 20 21 11 3 24 10 37 26 19 10 19 24 20 30 13 0 6 23 21 20 20 36 12 12 13 27 19 23 37 17 19 17 20 45 20 31 20 26 21 17 10 27 10 24 13 14 23 13 20 48 32 26 20 7 31 38 16 23 16 17 31 23 10 10 16 14 29 10 17 21 16 35 10 30 20 16 10 7 20 23 18 20 20 31 10 29 24 10 17 10 25 9 13 24 6 13 20 8 34 17 15 24 31 16 20 16 16 15 20 20 31 21 13 30 10 20 19 13 27 3 6 21 23 3 14 15 20 20 19 30 20 28 13 22 17 16 27 27 9 27 21 10 31 10 20 13 13 16 27 24 18 16 27 13 17 10 15 22 28 15 17 19 27 30 10 10 16 10 38 31 35 23 20 13 20 16 20 20 26 27 24 13 13 20 25 24 23 24 3 27 14 7 16 20 6 6 13 16 14 13 17 8 16 31 30 7 19 10 7 7 26 15 14 24 10 19 10 13 10 29 20 16 10 16 27 26 20 33 9 16 10 27 20 18 12 26 26 30 6 13 33 16 26 23 39 37 16 20 27 27 20 17 21 7 17 9 24 23 17 6 17 28 24 28 5 31 36 19 21 6 15 24 28 26 6 10 16 24 23 21 21 16 26 16 37 42 17 26 27 27 7 10 20 19 21 7 13 3 26 31 13 9 11 13 19 26 17 41 7 17 21 16 27 10 14 13 16 26 17 27 33 26 36 14 24 22 20 26 21 3 23 18 14 18 31 19 20 15 30 29 16 17 19 16 23 17 8 7 13 7 20 11 28 18 23 20 19 23 13 16 19 21 24 20 6 16 17 20 34 18 9 16 34 21 21 10 20 14 27 16 3 23 18 3 13 27 10 24 20 14 16 26 27 9 19 19 20 20 20 33 24 34 27 30 17 13 23 21 10 14 10 10 16 6 10 16 13 34 17 13 16 31 30 26 21 24 27 17 28 16 16 16 23 31 13 30 13 27 29 23 16 20 10 16 20 37 13 27 24 10 31 17 34 29 20 20 26 6 31 31 16 24 14 6 17 24 30 31 20 48 31 17 20 16 13 22 29 9 17 17 10 19 21 23 17 13 31 23 28 33 22 17 30 15 24 7 12 24 16 21 9 22 24 23 17 10 37 17 3 20 6 15 7 23 12 9 23 22 23 20 45 10 24 20 13 20 19 28 17 31 17 27 26 20 29 20 18 23 10 20 13 27 0 13 13 20 19 24 17 14 36 3 21 24 12 19 16 12 26 20 30 16 17 9 23 16 13 23 28 20 9 7 13 10 26 23 13 23 13 33 13 13 26 23 22 12 33 0 13 13 16 16 33 23 12 15 21 10 12 17 16 27 7 17 13 33 12 16 17 24 16 20 19 3 38 13 10 13 3 8 36 24 19 24 17 16 22 26 17 10 13 25 21 21 33 20 14 20 13 14 15 28 13 16 7 14 3 14 30 6 28 31 38 22 14 12 36 24 19 19 16 20 14 6 13 23 22 17 23 26 23 26 13 21 16 13 24 19 31 9 27 23 17 19 27 13 27 9 3 30 13 13 17 7 23 28 13 27 24 9 14 16 16 19 19 20 17 21 23 22 19 36 17 28 3 20 14 9 19 11 27 20 11 17 34 10 30 16 9 27 9 27 20 17 23 26 28 24 6 18 13 23 17 26 29 23 20 17 27 19 10 27 26 19 13 16 31 24 10 24 21 3 38 34 22 39 32 10 16 16 14 13 10 6 15 26 22 27 28 12 10 38 20 27 17 21 30 21 16 31 16 21 27 24 26 6 35 13 14 24 16 16 28 25 27 14 21 24 43 23 20 3 17 22 19 10 3 30 12 21 6 23 9 24 15 14 12 27 16 23 20 20 20 27 31 20 6 17 26 9 23 13 30 20 3 31 26 19 27 21 41 24 23 23 13 34 27 27 40 27 14 23 20 16 13 28 14 17 21 6 20 22 10 33 23 50 20 13 20 19 17 23 9 24 23 12 17 10 13 16 24 17 16 27 31 27 14 27 15 3 13 23 23 34 22 22 20 15 9 11 24 6 10 7 21 23 31 33 26 3 26 24 31 20 13 16 39 23 7 16 29 21 9 33 23 23 12 17 20 17 36 16 16 41 9 23 24 23 30 19 23 34 31 30 37 19 26 10 23 17 42 13 13 25 30 33 20 19 27 17 19 13 21 21 16 24 22 24 10 9 16 13 17 24 34 23 16 15 16 14 21 27 20 14 18 24 16 20 16 24 27 24 16 24 16 20 10 12 19 24 21 17 31 21 24 25 7 11 24 20 23 12 10 27 20 16 13 9 15 10 6 16 13 23 27 17 13 24 10 20 33 41 27 21 26 13 7 10 20 21 15 27 15 24 18 29 16 15 21 23 24 27 34 31 27 23 11 42 32 24 9 16 10 30 27 12 12 13 31 23 7 30 17 19 14 21 3 13 21 30 13 33 29 24 9 23 24 10 16 31 14 30 23 7 17 7 21 21 17 21 6 14 13 10 21 9 17 10 17 37 17 14 16 28 17 24 19 21 33 23 17 20 24 21 10 28 21 20 23 7 27 29 20 14 23 0 34 13 24 13 20 10 21 20 9 23 26 21 25 27 24 25 24 19 30 22 14 13 19 32 31 25 17 19 10 13 23 14 12 19 31 21 20 35 9 3 16 16 20 17 34 17 14 24 7 12 14 23 18 10 16 23 22 17 3 25 23 12 26 28 34 14 6 31 30 9 27 14 23 9 23 21 36 20 17 6 28 29 20 14 23 36 29 26 19 12 16 21 22 9 23 13 28 31 20 34 27 10 10 20 38 20 20 17 19 30 19 17 12 15 15 13 20 23 28 20 13 17 16 9 27 31 32 21 17 21 24 21 21 40 21 25 22 16 14 30 21 35 21 17 13 27 10 14 19 16 13 13 16 38 27 20 16 13 9 14 19 28 18 17 3 16 13 26 16 35 7 13 17 13 13 28 22 13 14 9 10 34 13 13 13 20 30 13 31 6 27 17 31 30 16 6 13 38 20 27 28 14 20 17 41 7 20 10 24 7 17 18 28 24 21 10 9 26 17 15 23 8 23 27 13 24 37 26 28 23 13 20 10 10 14 23 17 23 13 12 33 16 20 13 17 13 27 13 17 27 3 22 20 33 16 3 34 15 24 10 12 16 26 23 23 14 24 15 16 21 14 24 10 14 10 35 14 31 12 19 10 14 37 10 12 23 31 17 13 26 27 18 16 7 22 17 23 17 10 23 20 10 27 23 24 32 9 30 6 19 14 14 3 31 14 20 16 30 14 24 6 17 10 12 22 25 23 27 25 24 29 27 16 30 24 15 7 9 12 16 7 0 17 26 24 14 17 34 27 16 9 17 24 22 13 17 15 13 21 31 16 13 0 20 33 16 12 7 20 20 7 24 27 12 18 9 10 19 21 20 6 29 14 16 13 14 17 27 13 31 23 17 30 15 13 10 28 24 20 27 31 23 27 25 29 30 21 20 23 13 13 15 12 24 21 13 28 0 10 13 16 16 10 26 16 22 30 24 6 24 27 21 27 9 20 12 21 20 31 18 26 27 14 29 44 45 26 12 16 12 9 0 13 14 34 22 19 24 6 24 0 28 13 16 31 26 16 11 17 9 17 3 16 17 31 24 29 13 3 9 24 22 17 29 32 13 7 0 17 20 16 10 28 26 33 21 10 27 27 19 3 19 30 13 27 27 24 26 3 20 27 3 23 17 14 7 32 14 17 13 27 20 13 26 13 17 17 20 13 10 20 29 14 6 5 24 10 13 6 27 35 13 20 42 7 24 15 31 19 0 12 21 20 17 37 9 14 16 23 17 20 29 7 16 22 31 20 19 34 33 17 12 5 14 20 14 19 23 14 12 24 6 7 23 20 15 20 27 15 28 21 9 3 27 13 35 16 24 27 20 25 16 12 24 15 25 30 13 22 23 19 9 30 16 10 20 13 27 20 20 14 17 19 24 24 0 29 11 13 27 17 14 20 26 10 3 14 16 26 23 13 9 23 20 12 22 20 27 19 6 10 0 17 14 6 12 20 10 35 28 22 20 24 8 20 21 10 13 10 32 8 14 17 14 13 13 24 20 36 21 16 23 13 27 10 17 17 24 16 23 13 7 17 27 21 17 27 17 20 34 10 30 16 27 19 18 20 17 24 21 28 29 28 16 6 17 16 7 23 6 13 36 10 30 20 10 21 27 39 41 40 22 20 8 20 7 22 27 16 13 23 20 17 10 44 10 20 10 13 24 9 6 24 24 14 9 16 3 27 19 29 17 13 24 29 17 17 20 16 26 29 3 31 6 27 20 15 27 21 23 23 23 19 23 31 13 20 20 24 20 17 17 15 21 13 10 23 9 6 13 24 16 14 14 13 38 13 16 21 10 13 31 13 14 16 26 16 13 24 27 35 34 13 6 24 21 16 12 18 19 29 36 30 17 26 20 27 38 21 26 26 17 28 10 12 13 19 16 17 16 21 23 24 20 18 23 33 27 14 10 20 19 32 29 17 22 10 20 19 17 27 21 31 23 10 14 36 20 6 24 0 16 38 19 28 20 10 33 38 27 24 3 0 20 7 24 27 31 13 9 16 21 23 22 20 42 16 6 17 13 6 9 26 19 13 22 9 18 10 21 31 21 34 10 10 13 36 23 27 20 25 20 18 3 3 19 11 14 16 14 28 9 7 37 13 3 20 29 15 27 12 21 16 24 23 27 45 20 17 14 21 20 18 13 27 21 33 24 17 38 34 9 21 31 13 17 27 12 7 14 17 13 16 41 30 30 13 16 0 14 23 23 20 23 21 14 17 17 6 34 23 20 12 26 6 24 16 27 13 28 12 10 19 20 16 23 3 32 34 16 20 17 10 22 21 13 0 27 12 7 17 21 18 28 12 35 14 24 7 7 17 31 22 17 24 12 20 35 20 13 13 30 12 30 14 27 10 20 16 26 24 26 27 27 32 14 27 15 10 12 15 23 16 20 17 17 17 30 22 27 19 31 18 28 12 19 20 18 24 29 20 3 32 34 13 13 13 24 17 33 14 17 30 20 17 21 15 27 20 23 13 15 27 33 24 19 14 7 6 20 6 6 13 27 30 20 16 21 19 13 10 21 20 16 30 24 13 3 36 17 30 10 24 23 35 6 27 6 12 14 24 24 17 17 17 22 21 0 9 14 21 17 10 12 12 33 25 13 33 14 8 6 24 24 6 7 20 15 10 13 27 24 16 24 33 16 19 23 27 28 17 19 3 19 27 10 13 19 19 27 17 30 20 10 13 13 24 23 27 19 23 23 16 14 20 20 20 21 27 27 10 20 21 16 20 17 20 27 29 17 20 20 10 12 20 10 12 17 23 30 34 20 14 15 13 17 20 27 14 26 28 17 27 24 16 20 0 27 23 13 17 16 13 20 24 17 24 20 15 26 13 24 15 24 14 20 17 21 35 6 34 17 17 19 12 13 17 3 23 13 30 28 27 22 17 6 13 32 42 21 27 17 19 27 6 20 23 10 20 36 19 10 31 25 13 25 16 0 13 17 13 20 21 31 14 31 20 20 9 17 18 24 38 31 24 13 20 20 14 28 9 19 12 27 20 15 7 30 16 21 34 7 3 14 19 26 19 22 30 5 23 25 23 28 27 16 10 10 13 16 20 8 12 21 21 17 13 10 20 23 15 27 16 3 6 16 23 31 20 33 24 15 14 34 17 15 34 6 9 17 13 10 20 23 14 26 27 22 24 27 10 17 20 20 9 20 28 24 24 17 20 24 10 10 21 13 10 23 27 7 27 10 30 13 33 35 9 17 16 14 26 18 9 23 26 3 10 26 14 28 13 20 20 26 24 34 7 5 27 14 13 16 20 24 17 26 34 33 13 27 27 14 20 31 5 23 16 19 12 21 13 20 14 10 13 11 15 9 13 22 30 20 21 21 26 16 25 20 7 23 10 41 19 23 10 20 21 14 22 14 21 31 20 20 28 6 21 16 35 10 19 24 16 12 13 14 15 19 24 9 16 20 17 26 28 22 23 19 49 19 28 16 27 30 20 13 23 19 22 17 15 15 7 14 14 26 10 24 24 21 21 31 27 14 27 20 22 17 19 13 16 17 19 17 34 37 23 20 20 17 34 20 19 19 44 12 49 20 6 13 7 20 27 38 21 20 17 14 34 8 14 16 19 23 27 22 34 16 27 19 22 12 20 11 6 38 35 31 27 12 16 36 21 13 22 27 28 21 16 26 3 17 21 16 19 27 24 20 12 24 24 16 18 32 27 31 13 21 7 16 14 22 19 24 19 23 28 22 14 13 22 25 12 34 30 13 17 16 18 20 32 21 20 19 20 9 31 14 19 10 20 20 20 23 3 20 25 13 19 13 20 16 38 16 6 9 10 30 26 13 14 20 19 38 20 41 21 20 13 17 24 10 19 13 15 29 20 26 7 23 20 20 16 17 13 30 23 14 30 17 9 10 10 10 24 19 7 10 24 19 17 31 33 34 17 20 27 23 19 21 13 21 27 16 30 20 17 23 18 10 27 14 34 15 23 30 24 12 17 17 17 9 23 17 21 16 27 9 17 27 34 12 32 19 24 9 17 20 15 10 24 13 10 20 30 20 21 15 21 30 13 29 17 13 17 31 9 16 9 9 17 16 20 13 15 23 14 27 20 30 30 6 23 17 25 17 17 33 28 9 10 16 23 21 25 7 30 13 7 26 37 23 21 20 24 10 20 13 9 26 13 21 20 20 37 23 27 12 9 19 20 16 33 3 12 9 17 16 23 27 28 7 47 24 10 6 20 38 9 14 24 20 20 20 17 13 29 29 23 20 27 3 23 13 9 28 18 30 10 27 15 23 10 22 16 24 19 12 30 23 20 7 26 21 20 21 24 31 39 29 24 17 13 17 9 27 13 16 22 47 24 28 17 28 15 24 9 16 13 10 13 17 27 16 26 20 17 33 0 17 20 25 23 30 7 29 34 9 25 27 23 0 21 20 26 16 6 20 16 9 31 13 6 16 31 39 22 31 27 16 31 17 10 19 23 17 32 24 27 44 27 28 16 21 0 20 17 6 20 16 44 14 21 13 23 22 22 29 31 19 12 16 9 24 28 20 23 13 21 27 31 19 37 11 9 17 25 31 17 20 16 9 14 16 34 31 24 17 20 0 17 37 16 33 13 7 6 17 13 9 13 12 26 21 35 20 12 45 13 18 16 14 16 17 13 22 31 25 30 31 21 13 20 28 20 10 29 13 31 21 31 14 28 13 30 10 27 39 7 13 3 17 3 17 21 21 10 21 24 13 10 20 9 10 24 9 10 12 25 21 17 9 16 47 24 30 19 16 10 34 23 17 13 19 16 24 21 29 26 19 22 17 18 26 9 27 7 10 31 20 20 16 9 30 18 27 20 10 26 7 13 15 33 29 30 20 31 24 28 32 24 20 21 13 34 13 13 20 17 20 13 27 13 25 16 9 13 13 12 21 15 24 17 13 18 25 20 23 17 17 27 34 13 6 3 24 21 22 10 27 27 18 21 3 16 23 23 19 21 24 10 14 17 7 23 16 25 34 14 24 19 20 22 6 13 14 19 11 13 21 17 14 30 34 16 31 17 3 12 17 31 22 40 16 3 18 13 17 26 23 24 17 10 19 27 6 16 13 17 21 6 20 29 12 16 31 26 24 30 27 19 17 21 29 26 30 9 16 21 24 10 10 22 31 21 26 28 10 22 13 20 17 28 20 6 14 10 30 23 13 20 13 19 24 29 30 27 31 17 10 16 18 17 23 9 15 25 24 27 13 13 17 20 16 22 23 20 28 14 19 34 9 19 21 6 9 21 24 14 23 17 20 11 10 24 17 24 16 21 10 21 30 13 29 40 20 20 16 24 29 3 19 20 31 19 13 21 20 20 25 27 17 9 17 13 9 27 30 17 21 13 23 32 15 9 27 22 22 19 24 37 20 23 3 30 12 20 26 21 19 10 24 27 20 27 27 17 15 20 20 21 27 19 16 16 26 38 23 24 23 28 12 9</t>
-  </si>
-  <si>
-    <t>JSB(1.2610995784014012, 3.7026281477030873, -6.045956724899058, 65.85070705195561)</t>
-  </si>
-  <si>
-    <t>19 23 23 26 27 22 17 25 24 23 22 22 19 17 19 28 15 18 23 31 18 17 18 21 32 23 22 19 31 18 29 23 22 22 18 21 22 14 23 21 14 16 21 25 20 20 27 24 15 21 26 25 24 17 21 20 24 17 20 18 24 18 21 21 19 25 21 20 20 19 27 21 19 20 22 25 23 19 18 24 20 21 20 21 20 22 25 13 27 16 26 22 19 27 19 18 26 22 18 29 20 23 12 17 22 30 17 25 22 23 15 25 26 19 18 16 20 21 33 24 18 17 23 27 27 26 20 29 18 25 24 18 20 22 18 23 24 21 22 22 27 29 24 19 20 21 21 20 28 18 20 22 22 29 19 22 21 18 18 25 18 16 24 26 21 21 21 25 23 21 19 20 17 17 15 26 26 21 20 16 21 25 37 17 23 25 23 14 29 22 16 21 16 18 26 20 20 18 18 23 24 19 13 21 22 26 27 21 24 23 20 24 22 18 22 19 26 21 29 22 15 21 24 23 20 19 15 19 19 16 24 19 21 21 18 28 21 22 20 14 23 22 21 17 27 16 19 18 26 16 15 34 19 17 27 16 21 25 22 17 22 26 26 26 23 21 24 27 17 22 16 29 21 19 13 16 25 19 19 22 25 24 33 20 19 22 23 17 17 23 24 27 29 24 19 24 25 23 25 24 21 26 25 17 25 24 22 15 17 18 12 17 15 20 26 19 30 19 20 13 24 21 19 15 17 29 14 21 7 17 17 24 17 20 32 23 15 21 23 10 21 22 29 22 22 21 23 25 19 19 19 21 29 27 27 19 20 18 23 21 21 26 23 24 19 19 17 24 27 21 17 23 18 30 17 20 23 21 36 19 19 14 24 20 15 16 24 23 17 24 24 19 23 18 22 17 28 14 18 20 18 21 21 22 20 24 23 16 27 21 15 14 17 23 18 17 18 28 19 21 23 19 21 16 27 21 18 19 18 20 22 19 16 27 18 25 22 25 24 21 18 29 20 20 29 19 23 32 29 19 19 24 29 26 20 24 16 27 17 16 24 24 22 23 22 29 19 17 21 23 18 22 21 16 18 36 18 24 14 23 20 21 29 21 27 28 30 22 24 22 20 23 21 22 13 29 17 13 23 18 11 22 21 24 22 21 24 19 28 28 18 19 22 20 24 17 17 25 22 28 23 21 18 20 23 22 31 31 20 17 19 19 21 17 30 21 28 22 23 24 21 24 25 19 22 23 14 16 19 22 20 28 22 13 23 24 29 20 19 24 20 18 27 33 18 18 20 31 20 30 20 18 22 26 24 20 23 26 21 22 22 19 17 18 19 30 16 31 23 23 22 27 19 20 19 27 16 18 33 27 22 25 18 23 21 24 19 17 19 23 27 21 17 17 15 26 28 17 23 21 17 23 26 33 18 27 20 21 17 22 25 18 19 25 24 20 24 28 18 14 23 22 21 20 24 19 21 21 22 27 25 18 25 23 16 25 13 20 24 19 24 28 14 23 24 22 18 24 19 20 24 20 19 19 23 16 20 19 31 16 22 19 29 16 21 30 24 22 22 21 22 18 24 23 21 21 21 24 16 24 21 16 23 20 14 27 20 18 24 17 12 23 17 25 20 13 17 12 15 17 21 17 15 23 29 26 22 26 18 28 22 15 22 21 17 27 17 23 31 22 22 20 25 20 26 27 25 25 30 17 24 19 24 25 18 20 23 21 27 18 24 16 21 20 23 13 21 17 22 18 20 25 18 26 15 25 18 19 15 17 16 15 25 18 33 29 18 25 26 30 26 24 27 23 26 22 22 23 25 21 20 20 15 19 22 12 25 29 25 27 19 10 22 27 28 15 23 20 30 18 16 24 26 23 14 17 22 13 27 16 27 21 28 26 23 18 21 22 28 28 17 25 19 24 15 20 19 15 15 21 12 27 25 19 19 20 31 22 15 22 21 18 22 22 16 19 20 20 27 23 30 17 17 31 21 20 20 20 19 24 21 19 19 20 34 13 24 18 21 24 23 20 28 15 23 20 25 21 19 20 25 23 15 19 23 19 30 26 24 27 30 21 13 14 21 26 25 22 25 28 17 19 25 18 22 33 24 17 21 30 24 28 20 22 17 23 16 21 15 19 23 19 14 21 24 20 20 19 17 19 23 20 18 20 24 22 14 26 23 15 25 20 25 19 18 28 27 17 18 21 16 28 20 29 21 23 31 27 21 30 21 24 23 30 18 24 23 17 22 26 29 25 25 22 22 18 19 19 28 16 23 24 21 21 18 30 25 17 24 24 16 14 18 21 27 22 28 23 19 22 26 19 24 19 25 18 22 21 24 16 14 28 15 19 17 25 22 28 20 19 19 20 17 27 25 26 21 18 27 18 20 16 25 20 26 28 20 20 17 19 22 28 25 26 21 21 17 16 12 17 29 19 23 23 21 19 16 13 17 29 25 20 18 21 28 16 27 26 26 22 22 21 20 18 17 13 28 17 15 20 18 20 18 21 20 26 23 17 17 21 21 17 23 20 25 23 16 25 20 22 17 27 21 22 22 19 18 25 21 16 25 20 17 15 21 17 25 14 15 20 16 15 26 14 21 22 23 20 21 25 23 16 28 24 25 18 28 34 22 25 24 22 26 25 14 26 20 27 25 28 31 20 26 18 14 20 25 26 22 16 23 15 20 20 23 24 14 23 24 19 27 13 18 29 16 23 20 26 30 14 24 23 19 31 21 19 18 25 20 23 24 13 33 20 24 26 20 21 28 21 31 20 16 33 27 28 18 28 24 23 20 25 27 20 19 20 15 22 19 14 25 28 11 20 30 11 24 18 14 17 22 25 9 23 18 21 20 23 21 18 18 23 20 25 24 18 20 23 18 25 15 25 19 21 26 24 23 23 15 21 30 26 22 23 26 17 17 22 20 22 18 14 19 21 17 26 17 23 25 23 20 23 14 22 13 17 18 21 28 23 16 26 18 16 18 15 24 26 22 11 21 19 14 26 17 24 25 21 15 27 25 19 23 22 18 20 14 16 27 20 23 29 25 25 27 23 20 22 21 27 11 28 15 17 25 24 15 21 23 19 23 16 28 19 22 31 22 25 24 26 19 24 25 23 20 21 23 24 24 14 25 21 18 18 18 24 26 18 16 15 14 15 22 19 25 31 23 21 22 14 24 19 21 16 19 25 20 25 23 29 19 22 22 20 18 21 24 23 19 20 18 21 23 29 23 17 23 21 29 17 21 32 18 20 19 21 26 27 17 19 27 23 16 22 26 18 24 18 23 13 25 24 18 19 17 22 21 16 18 16 18 22 18 23 27 18 23 29 14 17 20 15 16 26 23 14 22 24 28 27 25 18 25 19 24 19 21 24 26 23 23 19 14 16 25 25 22 20 16 26 23 22 17 24 22 25 22 14 18 22 22 26 17 22 26 22 21 24 19 18 36 14 28 20 21 20 26 25 17 18 19 18 29 15 18 16 15 20 20 20 16 26 16 29 19 14 20 21 21 24 27 15 16 22 28 22 22 22 21 18 27 19 29 23 29 21 25 26 24 27 19 21 20 16 17 19 24 14 21 24 23 21 11 15 21 16 23 23 28 31 14 24 18 13 26 20 17 28 26 24 25 23 23 20 28 20 24 19 17 17 19 26 14 14 20 18 17 17 25 22 30 17 23 26 22 22 31 26 20 24 19 26 20 21 25 27 21 24 17 17 22 20 26 24 16 13 24 19 23 24 21 17 23 22 24 30 13 30 22 24 22 25 15 30 23 23 20 21 19 25 16 18 25 26 22 21 23 23 21 19 27 26 16 20 24 18 13 15 33 19 17 21 20 24 23 22 17 19 25 27 25 18 19 19 22 25 14 13 27 18 22 26 20 24 16 26 22 19 27 24 18 20 23 22 27 21 25 15 22 14 21 30 22 21 21 22 17 27 21 20 17 26 28 22 31 17 22 20 13 24 27 32 24 19 21 13 13 25 27 17 18 20 24 25 22 19 18 22 16 27 24 28 24 22 20 21 19 15 25 27 30 19 19 24 20 19 23 27 20 24 27 26 13 21 19 26 16 21 21 15 27 29 26 24 26 18 22 22 20 20 23 14 16 23 18 15 20 17 20 13 15 23 24 22 20 21 20 21 20 25 23 24 24 17 24 18 20 25 16 20 18 19 21 17 12 24 10 26 26 19 24 19 22 20 19 20 22 24 25 24 18 24 23 22 24 24 17 19 19 18 17 19 21 25 19 19 24 16 21 26 20 23 22 25 16 13 23 21 32 24 22 18 31 22 22 17 14 28 25 17 24 27 28 17 24 22 19 28 25 22 23 20 21 25 23 22 18 20 17 28 25 22 19 24 29 24 14 18 14 20 22 23 15 22 21 20 17 15 15 20 23 25 23 15 16 23 16 24 17 22 21 21 15 26 20 28 20 16 32 23 20 26 17 15 22 19 20 21 20 30 25 24 24 15 23 20 16 19 14 22 33 33 20 27 18 22 18 21 20 27 22 21 20 26 12 20 26 25 17 23 15 18 19 26 27 28 23 14 20 24 24 22 16 25 16 30 20 23 14 23 26 24 20 21 28 15 22 22 22 20 22 21 22 22 27 28 23 10 21 34 18 25 19 24 24 20 16 29 15 25 26 24 28 18 20 20 23 19 23 24 20 20 27 24 27 17 11 20 16 23 23 22 22 20 15 26 16 22 20 19 18 19 27 19 26 23 21 14 22 23 21 23 18 31 24 25 18 22 23 18 26 19 28 26 18 23 16 10 16 20 20 27 17 22 18 21 23 27 19 14 22 20 23 18 25 20 25 28 21 20 27 16 22 24 19 26 25 14 12 17 20 15 18 21 24 18 13 22 25 19 29 18 17 20 19 21 27 21 20 27 25 27 18 27 24 20 17 16 19 19 21 16 19 22 22 21 20 22 21 19 17 16 21 16 22 28 18 21 19 19 14 24 25 18 22 30 25 19 17 26 27 22 18 21 27 16 15 16 23 15 21 23 21 18 21 24 18 22 16 11 15 24 23 20 28 18 25 18 25 14 21 17 22 27 19 21 28 20 21 26 26 28 24 16 20 23 13 18 20 25 24 19 19 25 23 25 23 20 22 17 13 30 18 17 21 15 22 21 25 22 14 25 28 28 17 17 23 20 26 18 18 25 19 30 25 25 21 20 19 24 23 20 31 24 29 22 27 25 22 19 24 26 20 17 17 25 26 25 21 20 20 29 21 26 18 15 20 17 16 28 17 19 19 23 22 25 22 20 23 20 16 31 15 23 19 25 20 18 22 15 26 28 24 23 25 18 17 11 21 28 14 26 21 15 21 23 14 26 24 30 21 18 30 22 16 16 18 24 24 20 32 25 15 26 22 19 19 17 25 17 23 24 14 19 21 17 27 27 18 19 25 20 15 24 24 21 19 20 30 22 17 22 21 17 15 18 22 25 22 20 17 20 20 30 23 21 18 21 17 21 24 23 19 15 18 19 11 22 24 18 25 22 22 15 17 24 20 19 14 22 23 16 19 30 22 30 24 27 23 21 20 22 30 22 13 21 20 24 21 28 12 24 25 23 21 25 29 25 18 22 17 21 21 13 22 24 17 26 13 24 17 24 16 21 25 17 11 25 22 23 23 31 18 22 16 26 23 20 21 26 12 17 20 20 25 29 22 22 17 25 18 28 19 24 24 19 21 18 23 20 23 17 16 15 22 25 25 18 29 21 29 24 16 23 22 19 21 15 14 22 23 18 21 25 38 23 25 21 21 19 29 28 21 14 23 26 23 13 21 20 12 25 23 20 22 22 22 22 21 20 20 18 20 15 18 24 22 20 22 21 20 22 22 26 25 29 18 19 26 23 19 24 24 21 21 28 27 21 25 26 23 21 25 20 27 17 24 18 27 15 17 26 28 19 25 23 18 20 19 20 21 30 15 23 23 18 22 20 24 17 17 21 20 18 20 23 16 28 18 20 26 17 24 15 23 26 19 22 24 19 24 26 25 18 20 16 13 14 19 24 21 21 22 19 21 30 32 21 15 24 24 17 27 25 28 17 21 17 22 25 21 23 23 21 18 23 11 20 23 27 20 17 23 24 21 27 17 23 19 23 19 22 25 23 27 23 25 20 13 28 23 22 24 27 19 18 22 27 24 22 17 15 25 16 22 25 25 17 24 31 29 25 17 28 20 20 26 22 27 25 21 25 30 18 23 25 23 22 22 21 27 19 23 16 27 24 22 20 31 18 34 19 19 21 27 16 25 25 20 23 27 17 27 17 20 30 21 24 26 25 25 28 21 30 21 21 20 19 19 23 26 17 15 22 11 18 24 28 19 25 21 21 20 25 23 21 25 22 24 22 24 16 22 24 15 16 22 30 24 22 25 21 25 24 14 17 24 16 21 22 27 23 20 25 34 23 21 26 20 23 19 27 24 28 26 18 16 19 17 17 21 25 21 16 21 28 22 27 21 24 25 27 20 22 24 26 24 22 27 22 23 23 22 29 24 25 28 18 28 30 17 22 13 22 21 29 27 28 24 18 31 30 13 25 19 19 21 16 24 22 20 15 14 27 19 15 18 19 26 23 18 26 30 23 24 21 23 18 28 25 24 20 25 22 25 28 24 18 22 27 19 19 18 28 28 18 21 19 27 18 16 24 23 19 24 29 18 23 23 24 23 30 16 31 21 25 25 22 25 29 19 25 19 19 24 27 18 22 21 19 23 25 23 22 18 22 24 14 37 20 16 20 13 21 20 24 27 20 26 21 24 20 14 19 24 19 18 24 19 23 21 24 24 22 12 20 21 30 24 15 29 15 24 20 21 23 20 17 24 23 26 13 18 17 29 24 20 28 21 20 31 20 15 15 25 29 19 17 25 18 15 17 19 18 27 19 22 21 24 31 17 25 25 26 24 21 21 18 27 24 17 22 25 26 23 24 23 21 18 12 25 28 14 19 31 22 22 18 23 21 17 25 18 19 14 12 15 21 24 23 32 20 22 20 20 17 22 19 22 21 11 21 18 22 22 20 31 18 28 30 24 14 21 17 19 19 23 20 25 18 22 23 28 28 18 20 23 20 17 18 25 16 23 25 24 21 25 17 20 26 24 20 25 25 23 20 22 17 19 26 26 27 17 18 23 27 20 24 24 14 20 24 23 28 18 21 20 22 27 19 20 28 18 17 25 19 22 28 17 20 24 20 25 20 31 24 19 23 25 27 19 21 18 19 25 18 20 19 24 28 20 22 23 22 19 24 22 23 19 21 19 25 17 24 20 16 25 26 18 21 27 24 24 26 20 17 24 22 22 21 20 22 25 21 21 25 17 20 17 21 26 26 20 25 19 20 24 22 23 22 21 17 15 15 22 16 16 28 21 25 21 20 19 16 21 22 15 20 16 18 23 32 20 16 29 25 18 22 21 20 15 23 23 22 19 22 25 14 16 21 26 26 16 22 22 22 29 24 20 16 22 27 26 29 23 20 15 22 24 23 23 24 23 20 20 25 19 19 19 23 21 16 25 20 11 24 21 18 16 20 24 17 22 19 23 15 18 17 20 31 19 18 19 18 21 15 26 24 24 22 16 23 20 23 16 28 29 17 20 25 21 17 20 17 26 30 21 22 21 17 27 25 19 16 25 21 22 18 32 25 21 24 15 16 19 22 14 24 22 28 27 19 13 18 22 22 23 21 18 21 23 24 22 30 22 18 23 21 18 19 14 22 13 22 20 25 22 22 17 24 22 19 30 24 20 17 21 22 20 25 20 28 15 26 23 17 30 22 21 24 22 25 25 25 16 22 20 19 18 19 24 25 18 24 22 16 22 19 25 17 18 24 18 26 21 22 14 25 27 25 23 16 29 22 17 26 25 29 29 22 21 18 24 22 15 21 25 14 19 25 24 19 18 19 22 27 21 25 24 22 14 20 19 17 13 12 23 20 20 17 21 22 26 31 22 18 19 22 17 23 20 21 21 26 23 19 18 22 19 23 20 15 25 20 23 17 18 26 19 26 22 24 19 23 22 21 26 13 12 26 24 31 17 19 16 15 20 25 22 20 25 20 21 23 23 20 22 15 28 20 26 17 21 16 22 24 26 15 21 25 22 28 20 25 22 24 16 20 19 16 14 16 29 23 32 21 19 18 20 13 19 16 23 17 18 19 13 22 13 25 21 26 18 21 14 11 20 17 19 20 20 21 25 19 27 23 21 20 19 22 17 21 23 22 21 28 26 17 16 18 24 27 19 18 18 18 17 25 14 17 20 23 30 17 23 28 19 22 24 26 19 24 21 19 16 11 15 14 16 19 24 21 18 28 19 24 15 18 18 28 28 19 14 18 25 24 15 20 27 20 19 21 26 19 15 20 22 21 28 20 16 18 16 14 24 17 23 13 17 24 15 17 17 28 19 28 20 19 23 27 21 21 26 18 16 26 21 26 24 21 18 14 26 18 24 25 22 13 20 24 25 21 20 17 14 26 22 23 20 20 31 15 18 19 21 20 27 18 16 17 19 20 18 15 20 22 28 25 25 22 16 19 22 19 21 27 18 21 27 21 19 24 13 13 17 22 20 25 26 23 11 22 17 19 25 21 15 26 23 27 22 27 15 23 28 19 15 23 24 23 25 24 13 19 19 16 27 16 15 19 22 17 20 22 23 17 22 23 23 20 25 20 25 22 26 23 20 19 27 18 28 24 21 29 19 20 18 22 22 22 20 16 21 17 22 16 24 24 26 25 21 19 17 22 18 19 13 17 17 22 26 30 25 22 16 24 26 24 21 21 18 28 26 23 28 26 21 29 21 19 25 29 23 26 23 18 19 20 22 28 14 17 25 29 19 21 26 19 19 31 22 17 24 18 15 27 28 21 19 17 26 23 23 18 24 14 25 17 19 26 27 15 27 23 22 19 23 17 31 17 13 24 20 26 19 24 21 20 23 23 21 26 15 12 23 19 24 27 20 30 26 20 22 24 22 18 27 30 23 19 29 31 29 22 22 19 15 18 22 22 21 23 19 24 21 27 30 20 16 13 25 28 23 13 26 19 18 19 28 16 23 14 21 22 22 18 21 17 26 19 23 25 24 21 12 21 26 18 21 23 19 16 23 20 22 24 17 23 26 25 26 22 22 21 27 19 19 17 29 16 18 24 26 21 17 13 24 28 24 27 25 17 21 26 18 20 16 16 13 24 24 17 24 23 14 27 19 22 20 28 32 26 17 24 32 19 15 24 21 19 18 20 28 24 23 15 14 23 27 22 15 19 21 22 17 30 35 22 29 25 32 23 25 19 26 23 20 14 23 17 19 18 18 20 11 24 21 15 26 26 17 23 24 27 31 25 23 23 23 31 25 20 19 22 16 15 17 26 17 23 24 19 18 16 22 25 22 23 20 29 31 29 20 22 11 16 16 20 22 23 18 19 24 26 15 24 29 26 18 23 14 28 23 21 21 22 32 24 16 24 13 24 11 15 17 18 28 17 23 25 21 21 17 16 18 24 20 21 17 32 17 23 22 15 27 15 20 17 22 21 26 22 19 26 16 23 23 23 26 27 14 24 15 26 18 20 16 26 23 23 28 23 22 19 24 21 26 17 25 19 17 21 17 22 20 26 27 14 21 27 25 22 24 22 20 20 27 23 22 22 22 18 20 31 19 18 23 18 27 20 21 19 23 20 21 26 26 24 24 19 22 23 26 24 15 17 22 21 21 25 22 19 17 20 29 25 13 23 18 17 27 22 26 25 19 20 31 21 25 26 23 25 22 24 21 25 17 21 18 25 24 26 23 25 25 22 24 23 17 27 27 27 19 25 23 25 20 25 29 27 19 21 18 21 25 27 24 20 17 17 33 17 28 17 18 21 12 18 24 14 18 22 19 18 20 23 22 21 26 18 24 22 25 20 25 20 18 18 23 12 22 18 21 26 22 26 28 25 22 23 19 17 17 16 31 21 25 21 21 24 31 18 25 18 17 18 15 16 20 16 24 26 15 23 20 16 28 23 17 26 19 12 25 20 23 24 21 24 35 16 22 19 24 18 24 13 24 27 18 18 26 18 18 15 15 23 30 18 23 19 19 19 16 19 21 23 18 28 25 17 28 18 19 18 22 27 25 23 20 16 27 20 22 19 22 26 19 19 15 22 15 22 18 23 20 23 24 17 26 16 20 21 21 21 20 17 24 20 18 18 21 21 23 23 18 21 26 12 28 19 18 26 20 18 21 23 23 20 24 21 21 17 19 23 15 23 20 19 21 17 21 21 15 28 27 21 19 22 22 23 25 26 15 24 26 19 20 20 20 34 16 20 25 25 23 22 25 20 18 31 27 23 22 20 21 25 29 27 21 29 23 24 23 24 16 26 17 18 25 16 20 24 17 23 18 21 22 16 20 19 20 22 17 25 13 18 25 19 18 20 18 20 25 24 29 19 20 19 27 22 21 23 23 22 21 13 17 17 29 20 17 17 23 20 25 21 26 24 23 22 13 25 8 29 23 20 9 20 25 26 30 21 24 23 27 19 18 23 24 19 27 22 22 20 24 17 31 22 22 20 26 19 22 20 21 22 17 16 24 25 21 18 23 21 23 16 27 17 19 23 28 25 16 24 17 16 20 19 17 24 16 17 23 18 21 20 28 29 22 15 25 23 24 20 23 18 18 19 27 14 18 20 21 15 22 24 23 26 20 21 27 15 21 24 18 26 27 21 22 20 14 20 23 17 24 22 18 22 23 26 16 32 18 22 26 18 22 22 26 18 25 20 24 16 28 17 16 23 17 21 26 20 23 27 29 21 18 19 26 29 23 19 24 30 14 19 19 21 30 15 25 25 16 26 15 21 24 20 18 18 19 23 26 25 20 21 22 17 25 18 19 22 33 27 22 20 20 18 22 19 18 14 25 15 21 19 29 17 19 21 17 22 18 16 25 15 13 17 21 20 25 14 22 26 21 28 22 19 18 21 19 18 17 20 20 22 30 18 23 17 20 22 26 22 19 25 19 24 20 23 23 18 26 18 30 23 21 18 18 19 18 15 24 27 21 22 18 16 28 24 25 20 22 23 16 21 23 22 23 20 26 20 15 20 22 20 19 20 16 30 25 13 17 18 14 11 16 18 10 34 14 21 26 17 28 21 18 18 18 17 13 16 19 26 20 21 19 20 25 21 15 25 16 21 16 22 25 20 18 20 24 21 30 17 26 17 23 22 22 28 22 14 26 18 25 23 18 24 25 20 17 25 15 14 19 20 27 22 23 22 22 21 19 14 22 17 22 21 25 22 21 21 21 20 25 18 19 24 22 25 23 18 16 21 23 20 23 23 20 19 29 25 25 19 23 22 21 21 20 24 26 23 24 23 20 22 23 22 26 21 24 17 26 25 17 25 24 20 27 21 26 19 30 14 25 26 26 21 17 18 25 18 24 25 22 21 21 19 21 22 26 18 21 23 21 22 21 23 19 22 21 14 20 21 23 21 20 22 19 20 21 11 23 28 20 21 20 16 27 27 21 18 18 23 21 22 18 25 21 23 27 21 19 19 18 18 12 23 18 21 16 21 16 16 29 31 25 18 22 19 27 23 15 27 16 24 25 18 19 14 31 26 22 21 26 25 20 21 24 26 23 23 25 17 26 20 24 13 24 21 18 23 26 25 17 20 22 19 27 22 20 12 25 14 28 30 24 15 19 24 21 25 29 27 26 21 20 23 9 27 23 25 19 19 23 19 13 25 13 21 19 17 18 26 22 18 23 23 20 17 21 21 19 17 32 19 22 18 20 18 20 16 19 18 23 24 30 19 24 21 20 18 18 25 19 21 29 20 20 21 13 19 23 21 19 16 23 17 21 27 24 23 16 30 20 16 27 13 22 17 23 22 29 24 11 17 24 21 24 21 20 22 20 23 16 37 25 23 22 26 15 20 15 26 18 20 22 20 22 25 15 26 19 29 29 24 17 26 19 19 21 19 23 23 16 28 33 22 17 21 22 20 31 26 25 23 23 21 26 15 21 21 31 21 22 25 17 19 23 26 17 24 25 16 27 21 16 21 28 23 27 18 20 14 24 23 11 23 18 23 32 14 21 23 17 21 19 11 21 26 21 23 30 23 14 20 14 22 23 17 25 21 25 17 33 22 24 20 17 20 23 17 18 20 23 21 21 17 16 23 30 24 24 24 19 23 14 23 20 24 24 19 23 22 20 13 17 20 25 21 13 23 23 19 21 18 20 24 20 24 24 20 17 12 20 21 14 22 16 16 27 18 24 22 26 24 24 29 24 22 22 25 22 12 20 27 23 26 19 23 24 28 20 34 23 25 15 23 21 24 17 19 20 26 19 19 19 18 24 20 18 22 22 26 19 19 22 15 22 26 25 26 20 15 24 22 23 28 25 18 16 26 20 17 27 14 31 28 22 30 22 22 27 28 21 17 28 20 28 17 25 23 21 19 31 20 21 21 15 18 23 14 23 22 19 23 26 24 25 20 25 22 30 25 20 26 21 20 28 16 19 18 24 14 18 21 21 20 20 18 21 28 29 22 13 18 23 23 29 21 22 18 19 26 20 24 18 21 27 23 28 20 23 28 21 18 24 24 25 27 21 21 16 26 16 21 9 21 21 16 18 19 19 25 25 24 20 20 20 15 17 21 11 16 19 22 26 18 23 14 18 23 20 21 19 20 17 25 24 24 25 21 22 21 22 21 23 17 19 27 27 21 21 19 18 16 20 21 17 26 26 28 16 23 17 18 23 14 14 29 24 24 28 20 22 17 28 28 29 23 25 25 17 16 28 28 16 20 23 22 18 21 26 24 19 16 26 22 21 20 20 22 19 24 17 16 23 25 18 23 15 26 22 20 19 28 25 19 26 15 19 24 18 25 27 19 28 15 25 15 24 19 17 16 20 19 23 21 24 22 20 23 27 18 20 14 21 17 18 18 23 28 18 14 24 16 25 17 20 19 15 18 15 18 18 23 21 30 18 18 23 21 21 26 24 18 29 15 16 17 17 23 16 16 26 21 23 12 23 19 25 17 21 23 24 23 27 19 25 14 27 21 24 22 27 26 22 21 26 17 24 27 19 32 13 21 16 19 19 20 16 23 22 26 27 23 21 17 23 14 26 32 16 23 19 18 22 17 22 21 22 16 18 21 22 20 22 18 16 17 25 13 20 28 21 20 17 22 14 14 27 17 23 18 27 22 16 17 19 20 22 24 23 21 13 29 25 26 22 24 22 23 18 29 17 22 20 19 22 23 19 22 20 20 22 20 20 23 18 17 24 26 22 27 28 17 19 28 20 20 18 19 27 25 34 28 21 20 28 15 27 22 12 19 27 26 27 27 22 32 18 24 16 17 19 18 22 19 20 12 19 23 18 15 22 21 25 26 17 19 24 16 15 23 21 21 21 28 17 27 18 23 28 25 15 20 30 21 23 15 18 27 16 20 25 20 27 21 26 19 22 21 24 33 27 24 17 14 22 29 29 23 22 23 15 22 30 16 21 22 16 19 19 32 28 22 20 21 14 28 17 27 24 33 20 23 19 20 29 22 15 19 24 24 32 18 17 17 24 15 24 24 23 23 28 23 14 28 14 18 25 23 18 15 21 12 18 19 20 25 14 25 22 25 23 24 22 16 19 20 24 24 21 27 14 23 15 21 16 19 20 17 27 12 20 21 20 25 18 22 18 18 17 21 22 27 23 25 23 21 22 23 18 15 24 19 26 11 21 26 19 24 24 28 22 21 26 14 21 26 15 25 25 21 24 18 18 18 25 23 16 18 17 19 25 19 27 22 20 18 20 24 29 15 16 27 13 21 18 19 17 19 20 18 26 21 23 18 20 20 17 17 27 18 23 18 24 26 21 18 23 31 21 15 23 13 21 18 24 18 21 22 22 20 23 17 26 24 22 22 25 24 25 30 23 23 21 26 22 27 21 28 25 22 22 20 22 24 18 20 23 23 20 18 16 20 32 21 22 23 24 23 20 24 15 24 22 19 29 19 26 23 32 25 29 20 29 28 24 23 18 23 24 20 17 18 22 11 20 14 19 19 27 23 21 25 28 17 16 28 26 22 15 23 13 28 31 24 21 16 17 27 23 20 25 27 23 15 24 31 24 12 22 22 23 22 25 16 24 21 23 27 15 19 20 23 24 21 18 17 21 21 21 20 14 28 18 17 21 19 22 17 22 26 21 14 15 20 18 32 25 21 28 18 20 17 25 18 24 25 23 23 15 28 23 29 19 24 16 23 16 25 27 24 23 19 20 16 15 18 18 25 24 17 30 24 21 17 23 17 18 19 17 25 27 17 10 21 21 14 24 29 15 15 18 17 32 20 14 20 25 28 20 19 20 17 28 27 28 27 19 23 20 29 27 28 18 19 15 20 18 19 22 20 16 20 18 17 23 25 18 23 17 21 17 19 16 17 24 21 18 18 19 25 13 14 22 19 27 22 11 22 20 19 26 22 25 21 18 19 21 17 24 21 16 25 19 16 26 28 25 25 24 29 29 26 23 18 18 18 27 26 23 16 13 23 17 25 18 20 21 14 9 22 20 13 21 18 30 29 19 23 28 22 22 24 20 25 24 25 18 13 16 23 20 12 17 19 22 19 21 17 27 22 17 21 29 23 26 26 28 21 23 24 25 16 19 17 13 26 18 25 19 23 16 25 29 19 20 22 25 29 23 18 17 20 18 23 19 21 21 23 21 17 14 20 18 24 14 25 28 20 26 31 26 18 26 17 14 15 20 22 21 15 29 15 20 19 21 17 12 27 16 18 26 18 20 21 21 24 19 20 18 21 18 22 21 27 27 23 21 30 23 26 20 21 17 26 21 23 25 22 11 24 23 20 22 22 18 17 27 17 23 19 20 17 23 24 24 16 21 22 12 19 27 22 15 23 22 20 26 24 29 20 20 19 16 22 23 23 17 16 24 17 20 25 25 25 20 22 25 22 28 25 19 23 9 17 21 28 24 28 27 17 19 19 19 22 18 18 20 15 16 22 16 18 23 11 19 20 19 23 16 20 20 26 15 21 21 12 17 25 23 20 24 18 14 24 18 16 19 21 11 24 24 29 22 19 23 28 23 12 21 25 22 17 13 23 28 17 21 22 20 19 23 36 31 21 21 32 29 22 20 18 17 27 23 14 24 21 20 23 19 22 16 17 21 18 20 19 19 19 19 20 22 16 23 21 28 24 20 23 21 22 20 29 30 21 27 22 20 17 25 17 20 18 16 21 16 21 19 22 18 27 17 24 19 17 23 19 18 16 20 27 24 22 21 13 27 16 11 27 26 25 14 23 21 24 15 24 14 16 17 28 13 18 20 22 23 25 21 15 13 22 20 13 18 13 18 22 25 21 17 26 30 18 18 26 21 26 17 20 16 27 27 22 28 20 23 23 20 18 15 23 23 24 21 22 20 24 25 18 20 20 20 24 24 19 19 17 19 19 20 26 18 16 18 23 17 18 25 29 29 19 23 22 14 23 26 22 14 22 19 24 23 18 23 30 24 12 15 20 20 22 29 20 19 17 23 24 19 22 24 23 24 22 22 19 19 29 21 18 27 18 16 18 27 20 19 21 21 29 18 23 20 17 19 23 20 26 27 24 14 24 15 19 21 23 24 29 19 30 22 15 20 17 21 26 25 23 21 25 22 21 17 23 20 25 26 24 27 18 14 27 17 24 30 14 24 18 23 16 22 24 14 19 16 28 25 12 19 15 26 16 19 24 11 29 27 25 22 28 15 27 17 18 21 25 24 15 21 21 30 26 17 20 20 20 24 22 28 33 14 18 22 28 22 26 27 23 27 30 19 22 18 20 19 24 16 24 19 22 16 15 20 28 25 26 23 21 16 16 18 13 24 24 19 14 28 25 29 21 23 21 19 25 12 31 9 23 29 27 21 27 20 23 23 19 18 20 28 12 23 15 18 20 26 20 19 14 13 18 26 26 19 24 18 22 21 16 16 26 17 20 22 19 20 30 30 22 25 19 36 25 19 29 22 20 16 24 16 20 17 17 18 22 17 15 21 23 20 25 20 23 21 19 27 24 24 24 26 16 18 26 22 20 25 21 18 20 21 21 29 22 19 23 20 27 19 26 14 20 22 18 16 23 19 23 19 12 25 21 19 19 20 29 22 18 25 25 18 23 24 20 19 18 18 16 18 24 20 20 23 22 25 16 23 26 20 21 25 21 18 15 25 24 25 26 17 20 17 23 28 26 20 17 20 21 18 19 21 26 26 19 24 19 18 18 27 27 20 26 28 24 16 19 24 24 24 18 17 19 23 24 26 19 28 20 24 23 21 18 31 15 19 25 27 21 22 20 24 15 23 20 28 16 19 26 23 22 23 16 22 23 19 18 20 28 16 23 20 18 27 21 23 19 12 26 22 24 26 16 15 24 22 22 26 23 19 19 18 12 22 23 24 19 19 30 22 18 22 22 19 20 27 25 20 18 24 24 21 19 19 29 23 27 23 23 20 23 19 27 23 27 23 27 25 16 23 29 17 29 26 17 25 16 23 22 22 29 24 24 24 15 30 26 28 25 19 16 15 20 24 26 22 27 16 20 19 15 26 16 17 19 27 21 22 22 31 20 19 25 18 29 19 22 20 17 26 15 14 24 22 27 17 26 25 27 24 13 17 23 29 30 20 20 24 31 26 20 24 25 24 17 23 21 13 22 22 20 19 29 22 20 24 18 23 22 28 22 21 24 26 24 25 22 20 23 34 26 17 15 16 20 19 16 24 20 20 21 15 17 17 25 22 22 19 18 26 17 23 22 15 23 27 18 19 23 14 14 25 18 23 22 28 22 28 22 22 23 15 20 23 23 25 21 21 19 25 19 25 17 21 24 22 23 25 12 19 23 26 22 15 19 25 22 17 24 17 19 23 24 18 21 27 24 22 24 27 20 19 21 29 27 22 21 24 17 20 20 23 21 24 18 23 14 19 17 27 22 21 17 22 28 24 24 23 24 26 18 25 14 26 27 30 22 23 18 23 24 24 15 25 22 19 21 23 12 14 18 22 21 23 25 16 14 18 24 20 21 21 19 23 25 26 21 17 22 22 24 19 17 27 14 15 22 24 23 16 30 27 20 22 13 14 22 20 19 30 26 23 20 18 20 18 16 22 21 31 29 14 29 23 14 23 17 12 24 25 21 18 20 17 24 19 28 21 20 23 21 23 26 27 23 28 24 16 17 16 24 17 19 19 16 16 27 19 20 30 16 21 26 17 15 26 18 23 20 24 20 14 30 23 14 21 22 19 22 21 19 20 14 25 28 19 22 23 19 24 26 26 21 27 17 19 24 22 22 20 17 22 28 24 25 22 20 18 24 21 21 20 19 23 27 17 19 22 21 29 18 26 18 27 17 26 20 25 21 18 15 22 22 20 24 18 18 25 24 22 18 25 19 16 15 21 26 24 18 13 19 20 20 27 21 32 23 21 23 15 19 27 23 21 27 26 16 28 19 27 28 22 19 22 18 22 16 24 19 16 23 19 28 28 25 24 18 18 13 28 22 13 16 24 20 24 17 22 28 23 19 24 20 26 19 24 19 31 18 27 25 19 24 20 29 27 28 23 21 26 26 26 15 14 24 26 23 30 21 17 17 25 25 13 18 23 24 19 25 17 28 27 19 14 18 22 22 11 26 18 23 21 17 23 20 17 24 28 16 18 21 24 17 27 21 24 23 18 23 27 17 17 22 16 21 25 22 24 18 28 22 23 20 20 22 19 26 21 19 19 27 21 23 21 21 22 22 23 14 21 23 15 22 24 16 28 24 21 21 22 22 26 13 24 16 16 30 17 26 24 25 12 25 16 26 18 20 22 18 15 23 15 16 26 17 20 17 26 21 24 18 26 19 20 21 28 22 20 19 20 25 25 21 18 23 21 20 21 20 22 29 21 27 21 13 27 27 21 20 16 21 21 21 20 20 26 27 21 21 24 21 22 16 27 21 14 28 24 23 14 17 19 22 18 27 20 21 18 23 24 25 20 30 20 17 20 22 21 19 20 17 24 22 21 20 20 19 28 16 17 20 25 23 24 20 19 26 20 24 27 30 23 24 27 25 19 25 18 17 20 29 25 22 18 30 16 18 19 24 17 15 24 24 20 16 25 27 22 19 25 22 20 21 15 26 18 22 19 26 21 22 27 30 29 24 17 21 15 10 16 19 14 32 16 28 25 20 25 15 21 17 16 27 28 16 28 20 17 19 14 23 19 24 26 26 16 22 22 23 21 17 26 25 18 12 19 19 20 22 25 23 16 24 21 27 23 20 23 20 13 29 15 24 25 28 26 15 27 25 18 23 22 20 19 19 17 24 22 18 22 23 27 19 22 20 20 20 18 19 23 18 13 14 19 20 16 17 28 26 15 16 27 22 22 23 26 13 17 21 17 18 26 18 25 19 16 23 22 21 30 19 26 25 24 26 18 22 25 26 23 17 15 17 28 21 15 21 28 28 23 12 24 31 20 26 21 15 27 26 14 19 23 33 22 20 23 24 16 31 22 18 16 23 31 29 22 21 25 24 14 20 20 17 29 18 18 24 17 19 32 18 23 22 20 19 13 21 24 18 28 21 27 19 20 27 23 22 28 20 25 20 19 20 28 27 23 21 23 14 21 24 21 21 30 25 15 30 21 33 20 21 15 18 20 19 20 26 24 23 22 19 18 15 27 21 20 22 20 24 19 25 24 9 24 17 25 11 24 12 17 21 22 15 21 24 21 21 23 19 28 24 18 17 29 18 18 21 24 20 24 23 17 10 19 20 17 24 14 21 23 20 25 24 21 30 18 17 24 27 30 22 27 20 28 26 26 21 18 21 17 20 22 31 19 22 12 21 17 25 30 23 19 18 14 19 14 21 26 26 27 23 19 26 12 17 20 20 23 24 18 29 22 21 25 20 20 18 18 31 22 14 24 20 20 30 20 22 19 23 21 27 20 29 21 24 22 12 22 26 18 17 21 13 25 25 23 17 25 15 24 23 23 14 28 29 15 21 19 27 23 22 24 18 21 16 33 22 19 24 27 28 32 22 24 24 22 25 22 21 20 24 22 19 19 21 17 18 24 23 25 23 15 29 17 24 22 24 18 28 19 27 27 26 17 22 22 22 23 23 15 22 24 22 23 26 21 23 18 21 18 26 14 17 16 21 27 17 30 23 19 16 18 19 23 25 15 20 19 18 20 24 15 24 22 23 29 21 25 23 19 23 20 17 24 22 23 18 26 19 21 19 23 18 24 32 28 19 22 23 24 24 23 14 19 20 20 19 19 18 17 22 26 20 19 18 21 19 23 24 19 18 25 31 23 28 21 24 25 21 22 29 21 23 21 30 20 20 24 26 18 22 24 19 19 19 22 17 23 26 23 15 27 20 23 17 20 18 23 14 28 21 19 27 19 21 24 25 24 22 20 12 21 22 23 19 19 24 16 18 15 26 14 22 21 18 22 26 23 22 21 14 18 22 18 24 27 20 22 24 26 15 22 25 18 24 22 18 21 25 22 26 19 20 19 15 25 23 21 13 25 22 21 22 21 16 22 16 24 26 27 21 18 17 16 24 19 17 19 20 21 26 30 25 25 22 26 26 24 19 26 22 29 16 18 21 20 28 22 22 23 24 23 26 16 19 19 24 25 19 29 27 28 21 18 18 22 19 25 17 19 30 22 19 26 27 26 12 13 24 21 14 28 18 21 24 21 18 25 15 17 19 30 32 21 17 32 19 28 23 15 19 20 26 19 24 22 23 27 25 26 21 23 14 23 35 20 22 13 20 19 21 20 25 20 32 20 28 25 13 15 21 23 28 15 24 14 26 22 25 19 19 18 17 19 29 18 20 20 22 17 11 20 18 21 26 15 24 26 16 30 20 28 24 25 21 26 22 13 19 21 18 18 36 20 20 14 14 22 19 29 17 21 15 21 21 19 24 12 34 22 10 22 20 22 27 22 23 15 25 21 23 24 23 20 25 26 22 26 26 19 28 25 19 18 15 29 13 17 25 21 17 21 19 21 23 14 27 20 19 24 22 21 26 16 21 22 24 15 25 21 24 20 21 27 16 16 23 19 29 25 14 23 24 21 19 25 26 18 25 24 18 21 21 20 18 16 25 29 17 23 23 25 15 26 19 19 16 15 13 19 28 31 18 30 23 29 17 21 27 24 27 30 21 22 22 18 33 21 14 18 23 28 25 11 22 27 21 23 27 18 18 23 20 29 20 20 21 24 25 26 22 22 23 24 21 21 21 21 20 12 18 19 20 11 23 20 19 20 25 26 19 16 20 28 20 24 18 25 23 19 19 27 18 24 31 16 18 16 24 16 22 27 18 19 19 22 25 24 22 20 24 23 17 26 26 23 19 23 24 25 23 29 27 24 23 26 25 21 21 19 28 24 23 25 21 21 23 18 21 25 22 17 28 21 25 23 15 23 21 21 19 20 20 29 17 21 27 23 29 20 21 22 21 21 26 20 23 15 22 19 21 19 20 23 19 20 18 20 15 17 21 20 23 23 22 13 18 19 24 17 18 21 22 13 28 26 15 21 20 29 19 31 27 22 23 18 27 21 25 23 21 22 23 18 20 25 25 19 24 25 19 21 15 24 25 18 19 15 22 20 19 27 25 27 19 29 25 16 27 24 23 24 24 21 19 17 22 22 20 22 14 16 24 33 14 25 24 22 16 16 24 20 17 31 24 15 24 18 27 28 17 20 20 28 20 23 20 17 31 19 16 19 27 27 21 18 16 14 20 20 19 23 16 12 18 22 22 20 30 16 16 25 26 18 27 20 18 15 20 17 28 15 16 33 26 18 12 20 23 24 29 14 23 22 23 20 18 23 15 28 20 23 14 22 20 19 22 20 24 23 24 22 29 26 15 14 18 23 22 27 24 19 20 21 21 23 21 25 24 16 20 16 23 20 23 21 16 21 27 25 26 17 22 16 25 17 22 19 21 24 14 17 21 21 22 18 20 14 23 19 24 13 22 19 21 27 22 26 16 19 16 23 14 34 28 22 14 20 24 17 21 16 18 19 25 24 17 23 18 25 23 25 19 30 29 22 29 14 21 22 23 14 21 26 21 25 22 21 22 19 24 32 21 20 24 18 22 25 21 18 33 22 22 24 18 13 24 15 31 17 29 18 17 20 23 17 23 13 19 22 22 28 27 17 31 20 20 24 19 23 19 19 25 19 21 22 19 17 18 23 15 20 28 21 18 16 21 17 18 20 22 20 21 23 18 21 21 15 17 21 20 12 25 20 20 16 22 27 30 19 18 20 26 21 21 21 25 28 24 14 26 23 20 11 29 20 19 23 24 25 24 22 20 18 26 18 28 20 15 22 21 25 25 12 22 20 24 13 26 21 27 17 22 22 21 19 20 23 27 15 23 21 31 17 21 27 20 24 18 25 23 17 17 25 34 22 27 18 21 21 24 20 18 14 17 19 19 27 23 20 16 22 16 20 18 14 12 23 32 22 23 18 12 20 21 22 30 26 20 25 17 16 20 21 20 21 20 29 26 21 27 22 24 24 23 26 26 15 23 14 23 16 21 14 26 24 18 24 18 20 22 23 26 16 24 19 28 21 17 23 24 22 19 20 20 24 16 20 22 29 19 15 23 29 21 21 25 20 25 32 23 25 27 17 23 21 27 25 19 32 20 27 11 22 16 20 20 14 33 17 25 22 31 25 19 17 21 20 14 25 19 22 14 24 17 25 17 23 28 18 33 27 21 17 17 26 26 20 15 20 20 21 23 28 18 29 19 21 21 28 17 23 28 21 18 22 17 22 18 19 16 25 19 20 25 27 15 19 21 25 24 19 13 23 22 28 22 16 25 18 25 28 16 18 29 17 28 15 24 13 29 23 26 13 25 31 22 16 10 21 23 13 19 26 24 21 21 24 13 22 15 30 27 23 26 17 16 31 27 14 20 23 26 24 26 23 19 24 25 16 17 19 20 13 21 29 27 22 25 24 22 22 25 20 17 13 26 19 25 20 20 22 27 17 21 28 25 20 22 28 24 26 23 24 26 11 24 20 25 25 25 16 23 24 19 24 18 20 19 24 18 19 23 21 20 24 27 22 17 16 21 23 28 25 23 17 27 23 23 20 19 26 23 16 21 24 19 22 24 16 19 15 17 19 27 17 22 19 16 15 24 22 25 23 28 26 28 26 27 19 19 21 14 24 31 21 28 24 22 11 26 25 19 25 21 21 22 17 22 20 31 16 16 28 13 22 25 15 17 25 23 27 22 26 20 24 17 17 15 24 26 29 24 16 22 19 26 16 22 24 23 16 26 28 19 20 18 22 16 23 18 28 21 17 24 25 24 24 20 25 26 17 16 20 21 24 22 20 29 22 27 19 22 21 21 25 19 16 17 25 14 25 19 14 18 21 23 22 20 19 21 23 18 25 31 28 16 23 26 15 21 23 18 15 27 20 19 30 18 16 28 18 26 23 20 22 24 17 21 19 14 30 16 27 19 18 25 30 19 24 23 26 18 14 19 22 24 26 20 15 15 14 25 17 22 22 17 24 24 20 22 26 20 23 19 26 25 18 30 20 31 22 19 16 19 20 17 19 19 21 17 22 28 22 26 23 17 16 24 18 18 24 25 19 27 18 12 27 29 20 22</t>
-  </si>
-  <si>
-    <t>GAM(97.47477379690258, -22.864532864513126, 0.5491065072000243)</t>
-  </si>
-  <si>
-    <t>31 34 33 36 33 34 26 32 36 34 29 32 27 26 27 37 26 26 29 46 26 22 36 27 50 32 37 29 43 23 37 38 28 29 32 25 29 22 30 31 23 27 33 37 28 27 34 27 28 28 39 33 30 26 30 29 29 26 29 24 27 24 33 26 29 33 31 26 31 30 35 27 30 30 27 37 34 24 25 29 27 27 26 29 29 29 36 24 38 30 35 29 25 42 29 20 29 34 32 42 24 30 21 24 27 38 30 33 29 26 26 38 31 31 27 22 26 30 39 34 23 26 36 35 35 42 29 35 27 30 37 25 32 31 28 30 36 33 31 36 32 38 31 30 26 29 34 32 37 25 29 29 32 41 24 29 37 25 32 37 27 20 32 37 31 29 23 31 29 30 28 29 29 22 21 38 38 34 32 22 26 36 44 24 30 36 32 26 43 33 30 28 22 23 42 27 28 30 29 33 37 21 18 29 29 37 35 28 40 30 24 35 36 30 38 37 34 31 42 34 30 31 28 35 27 27 22 27 33 24 30 25 31 25 28 37 37 29 29 25 37 38 32 26 38 28 30 23 36 29 21 44 31 25 42 31 33 33 28 26 28 36 37 32 35 27 32 36 32 32 27 34 32 27 25 23 38 26 28 35 30 33 38 31 33 34 35 24 25 29 30 32 37 34 28 35 32 30 33 39 28 33 36 31 32 35 33 20 23 25 28 22 22 28 34 27 43 32 24 22 33 31 27 22 29 41 26 33 10 23 22 40 30 29 46 32 28 33 26 16 28 29 36 35 31 30 28 36 26 29 30 29 36 38 33 25 30 26 29 29 29 37 35 30 29 33 31 32 45 28 26 30 23 39 30 30 39 33 43 27 25 24 35 30 26 23 32 41 27 31 37 24 31 27 36 26 37 21 27 25 29 32 31 34 33 33 37 29 37 32 23 19 25 32 27 24 23 35 29 30 35 31 29 24 39 28 29 35 30 28 34 30 22 36 32 32 32 31 33 31 37 36 25 29 33 23 31 46 42 28 27 31 37 38 26 41 20 32 23 26 37 31 31 38 31 39 24 22 27 37 28 33 29 23 28 51 28 32 19 31 28 28 41 27 34 36 41 34 34 28 28 29 39 34 23 38 27 23 39 25 23 32 36 33 29 33 29 25 45 34 29 30 29 33 36 24 27 34 27 37 33 34 29 27 31 24 42 42 27 26 31 30 29 22 38 24 34 30 34 36 28 37 33 28 33 30 20 26 28 35 29 33 31 19 32 33 42 25 29 33 25 24 39 42 28 24 30 37 32 41 34 23 36 34 34 26 27 32 33 31 32 23 29 23 30 40 25 40 32 31 30 36 27 30 30 35 22 25 44 39 30 34 27 32 28 28 31 25 28 33 32 28 24 29 19 40 37 24 33 29 27 30 35 44 24 39 24 33 25 25 38 24 28 37 35 29 39 34 30 22 32 34 30 32 31 26 30 29 29 38 32 29 35 29 23 35 16 23 31 34 31 36 26 33 37 31 27 35 30 31 42 31 29 29 32 25 28 30 37 23 32 29 45 24 27 36 27 31 32 30 28 28 30 36 26 26 28 34 20 33 28 20 26 26 23 40 32 28 31 28 20 31 23 32 30 25 24 20 25 23 25 32 21 37 37 35 34 39 27 37 30 29 29 28 32 38 21 40 42 28 35 31 33 26 33 37 32 38 40 23 31 24 36 37 21 27 33 30 34 27 31 26 28 29 30 20 33 25 29 27 34 29 30 38 23 37 26 29 33 21 21 24 37 30 49 36 25 34 44 42 34 33 38 27 38 32 32 33 31 28 36 27 28 25 28 18 34 39 29 35 27 19 32 37 44 17 32 29 37 31 28 33 41 32 20 30 30 22 33 29 40 29 35 36 31 35 27 29 35 43 24 32 31 35 25 27 27 27 24 26 27 34 38 27 32 29 38 30 29 26 34 27 33 34 20 26 30 34 33 36 35 27 29 41 27 25 32 30 28 36 33 28 25 32 43 27 35 20 27 38 34 29 35 23 31 37 38 30 24 30 30 32 21 32 34 30 35 37 30 35 39 31 20 25 31 39 32 30 36 42 25 31 33 28 26 38 33 24 30 34 32 37 26 31 26 28 24 30 28 27 29 30 20 34 35 33 29 29 26 26 33 32 25 23 29 31 23 33 32 29 41 30 44 26 23 39 37 30 32 37 26 37 29 38 29 32 42 35 27 38 34 31 30 37 32 30 36 23 30 37 39 35 34 28 31 27 25 28 37 24 35 32 27 27 26 36 36 27 36 32 27 23 26 28 32 34 38 30 25 36 33 25 35 28 33 24 35 30 32 19 25 35 22 24 29 37 33 39 26 31 32 27 24 37 31 39 30 29 36 28 34 24 33 25 47 44 27 26 27 28 29 36 33 37 32 30 24 25 22 27 42 33 36 32 35 26 35 21 29 42 36 32 28 29 40 24 38 41 31 27 33 28 34 28 34 23 36 33 24 31 26 28 24 31 27 36 34 25 30 35 29 27 30 30 42 30 27 32 33 28 23 38 32 29 33 30 25 35 31 29 33 27 28 22 31 31 38 30 24 33 27 22 39 27 28 38 32 29 29 36 27 26 37 33 32 24 37 45 35 32 31 37 35 37 25 35 31 35 34 40 44 28 31 24 26 28 38 35 40 22 29 27 37 24 35 33 17 36 36 27 36 22 24 38 18 33 27 36 37 21 31 27 31 38 29 33 34 36 29 31 32 23 49 29 33 33 29 29 33 32 42 27 28 49 39 32 28 33 30 38 32 34 41 24 28 31 26 37 29 20 30 38 22 26 38 16 30 26 28 27 32 35 25 34 30 26 30 33 30 31 31 30 25 31 36 25 29 25 28 29 25 30 24 26 42 33 35 38 30 27 38 34 31 28 35 26 22 33 30 32 29 28 28 29 19 40 21 31 35 32 33 32 23 30 20 27 28 23 37 27 28 33 26 28 29 22 32 34 26 20 31 26 24 34 29 40 32 29 21 33 35 33 31 24 24 30 24 24 40 29 36 41 36 32 35 43 28 33 36 37 16 35 17 22 34 32 27 27 34 32 32 26 41 28 32 42 36 30 33 35 25 31 35 39 34 28 38 32 29 24 32 33 28 27 28 29 33 26 25 21 19 28 34 35 35 47 36 30 28 24 32 26 28 30 26 38 27 30 34 37 36 33 33 26 24 30 32 30 28 30 31 31 30 35 34 25 31 25 36 25 29 46 23 25 27 34 44 34 31 30 38 36 26 32 35 31 28 32 32 23 31 34 27 27 27 31 29 25 23 23 28 28 26 33 34 24 33 41 21 31 27 20 22 33 36 23 28 35 40 34 35 25 34 29 34 25 26 37 36 30 32 31 27 24 30 30 37 32 29 35 38 31 24 35 31 33 27 28 27 28 29 34 21 33 30 31 27 31 29 26 41 22 37 29 29 23 44 35 21 34 32 21 37 25 23 27 36 29 28 28 21 28 23 38 28 21 24 29 30 30 33 24 25 27 42 34 30 32 32 29 33 34 45 33 39 28 42 33 30 43 25 27 30 29 24 34 34 18 31 33 32 28 16 25 32 28 32 33 36 41 21 34 33 23 32 27 25 38 35 28 32 27 31 26 35 32 33 25 26 21 31 35 24 25 28 27 30 26 32 33 44 24 32 36 26 33 42 35 28 29 30 34 23 31 31 44 32 37 27 26 31 34 37 40 27 24 30 28 40 34 27 24 32 28 37 39 23 41 32 29 38 35 22 44 29 29 28 28 27 36 25 24 33 40 29 33 30 30 23 27 36 39 23 34 37 25 21 24 46 24 32 33 32 35 32 32 26 29 38 36 32 24 23 23 26 35 28 24 37 27 26 35 23 33 27 41 31 29 32 34 35 26 33 27 35 29 32 22 35 24 28 42 27 32 30 31 31 42 28 27 25 35 38 31 39 31 32 25 24 32 38 48 31 24 33 19 16 48 36 29 29 31 30 38 31 28 25 30 30 36 30 37 34 29 31 28 24 24 36 35 39 34 27 30 32 32 34 35 29 35 33 35 18 31 23 39 27 27 26 22 31 43 38 34 38 28 34 27 33 35 34 19 26 37 32 20 29 25 28 18 23 30 42 30 26 31 30 30 28 34 27 33 32 29 30 26 28 39 22 31 21 34 26 22 21 38 17 32 36 23 34 24 30 29 33 35 29 34 30 34 30 35 36 33 30 31 20 28 23 24 25 34 27 33 29 26 33 26 30 33 26 33 34 33 26 19 42 32 42 30 27 24 46 31 37 24 27 37 35 26 32 38 36 30 41 30 33 46 33 32 31 26 30 33 29 29 22 28 24 37 33 27 29 32 42 33 24 27 24 24 36 29 21 30 30 27 25 23 22 33 33 35 33 27 21 29 24 37 28 33 30 29 22 32 26 32 30 31 39 33 30 38 24 26 35 34 28 32 29 40 35 34 36 21 33 29 21 32 20 26 45 41 26 33 27 36 26 28 33 38 31 29 26 34 18 28 33 34 24 30 24 27 26 39 41 38 36 23 32 31 33 29 25 31 31 38 26 32 21 31 35 35 25 40 37 22 35 33 30 28 28 29 31 27 37 32 31 17 28 39 23 33 28 38 36 23 24 42 28 34 33 30 33 29 34 31 36 28 32 30 26 31 39 37 41 21 18 28 34 33 34 38 34 32 28 33 24 31 26 28 28 25 36 27 34 33 28 19 30 36 31 32 25 39 32 38 28 36 30 24 37 30 33 36 26 36 27 20 21 33 30 35 24 27 28 26 27 39 27 23 34 27 37 21 35 29 33 40 40 35 43 23 28 35 29 35 42 27 26 31 29 31 28 29 35 23 21 34 38 32 36 22 28 30 29 36 35 31 27 33 32 35 32 34 35 27 20 21 25 31 26 30 28 36 32 31 28 29 28 29 28 22 30 22 29 35 27 29 24 26 26 27 34 29 33 37 33 37 23 33 38 30 27 27 36 21 26 25 30 27 28 29 31 35 28 33 30 34 23 21 29 30 27 31 35 29 32 25 37 22 27 24 30 34 29 25 41 29 35 33 40 33 35 24 33 40 20 25 30 32 31 29 26 33 32 31 30 30 32 26 21 38 24 21 33 27 29 32 33 29 22 40 36 37 26 23 34 28 31 23 27 35 27 38 32 37 32 28 27 37 33 25 39 33 43 33 41 36 31 32 32 32 32 31 32 44 36 35 27 38 31 38 33 33 26 26 24 24 26 38 25 27 36 31 33 32 26 31 34 32 27 38 22 37 28 33 32 28 32 26 38 45 29 32 40 29 24 17 26 32 17 34 30 24 32 34 24 31 31 42 32 22 38 31 22 27 26 39 34 29 43 30 24 35 29 31 25 33 36 24 32 31 23 27 32 31 34 30 23 27 34 29 29 36 36 34 29 29 41 25 24 29 31 25 24 24 29 34 28 34 26 31 30 39 37 26 22 33 26 30 34 33 31 26 29 26 18 30 30 28 36 33 35 19 22 36 30 26 32 36 29 23 24 43 30 38 41 38 33 29 30 38 39 34 25 29 28 32 27 38 20 32 31 32 28 39 34 35 27 32 23 27 31 19 32 36 30 36 17 30 22 32 31 29 35 29 15 31 33 32 29 39 23 36 29 31 32 28 27 33 24 24 33 25 37 51 27 41 23 29 30 37 26 33 31 25 31 29 29 27 26 25 28 24 36 32 31 34 47 29 40 33 28 36 29 31 28 22 15 35 27 30 30 35 54 34 30 27 28 25 38 38 32 23 35 48 34 18 29 30 23 37 31 29 33 37 32 32 30 33 29 26 29 24 25 34 36 35 27 28 32 35 30 32 30 42 26 31 36 32 31 34 34 30 31 31 39 34 33 36 33 31 37 31 37 30 34 29 37 23 26 36 32 24 37 31 22 28 27 33 30 36 27 35 33 23 29 32 34 26 29 31 26 29 33 33 26 33 35 28 35 26 35 23 32 38 29 41 33 27 33 35 33 30 28 24 19 21 30 33 32 28 29 25 28 34 44 37 22 29 37 31 31 30 41 24 35 30 30 33 25 34 29 30 24 32 22 28 35 40 33 28 32 35 31 45 25 35 24 38 35 31 43 31 36 32 38 30 21 37 29 32 39 32 31 26 32 39 35 30 36 25 34 28 33 37 33 26 37 41 35 36 27 34 27 31 35 31 34 32 28 34 43 30 29 33 32 40 32 29 42 27 34 21 39 30 33 27 53 26 45 28 28 31 37 23 34 32 32 32 35 23 29 26 29 37 23 33 37 35 35 40 24 38 33 28 28 32 28 30 37 22 24 36 26 29 31 39 23 36 31 30 26 32 31 31 29 30 37 38 29 25 30 30 27 21 35 37 35 27 28 28 40 31 20 23 30 27 32 30 37 33 27 35 48 36 32 37 27 29 28 35 31 37 33 30 24 28 29 27 25 31 36 21 24 39 31 31 30 33 33 35 28 31 31 40 37 28 36 35 25 33 28 38 29 38 37 24 33 37 31 30 22 30 33 40 36 33 35 30 43 44 18 32 28 27 29 28 37 31 35 23 20 35 31 19 27 24 43 34 28 37 43 29 34 27 31 26 39 35 29 30 31 36 32 36 36 23 37 39 27 22 30 37 44 28 29 42 32 29 24 33 36 29 29 34 20 28 29 31 36 40 28 44 28 32 34 30 39 40 34 35 22 35 39 34 23 32 30 29 37 34 30 33 23 33 29 23 54 34 26 31 23 33 32 34 38 35 38 27 38 29 24 30 32 24 25 31 26 34 29 33 40 32 21 30 29 42 28 26 41 23 32 34 33 31 34 25 33 35 35 23 27 29 37 31 27 36 30 23 40 27 25 27 39 36 25 23 42 26 28 25 26 31 35 28 35 31 27 42 31 34 40 36 36 30 28 27 32 29 21 33 32 35 31 34 31 32 26 23 33 37 21 26 38 28 35 22 38 33 23 31 27 22 24 22 19 35 29 34 42 31 34 31 32 22 36 24 30 30 19 29 28 34 27 29 42 24 37 46 36 24 31 26 30 31 31 31 35 26 31 31 37 45 26 32 27 26 23 27 33 23 31 31 31 28 34 33 37 33 34 30 35 30 32 25 30 25 27 41 31 31 29 25 38 36 28 36 32 26 25 36 34 37 26 36 28 31 35 33 33 38 33 31 29 27 28 38 23 27 27 28 38 29 38 31 29 34 38 37 34 26 28 31 34 23 31 25 33 39 31 28 32 27 26 29 31 36 27 32 24 35 20 30 28 25 33 32 25 35 30 36 35 41 30 31 34 33 30 35 27 30 36 31 29 31 27 24 23 32 34 32 34 38 30 30 36 28 30 30 28 25 23 25 32 23 22 35 31 40 31 26 22 24 30 31 26 24 27 26 28 39 28 21 34 34 27 33 28 30 26 28 30 31 28 34 35 27 23 29 36 40 23 27 32 35 39 34 37 28 32 38 34 34 31 29 27 26 37 34 37 35 35 27 31 42 24 32 34 34 32 22 33 29 19 34 32 31 29 29 37 25 34 29 40 30 33 23 33 40 27 33 27 27 26 24 32 29 40 30 27 37 27 29 25 51 40 25 33 32 30 26 34 28 35 33 31 35 34 23 42 29 27 23 31 38 28 31 39 29 30 33 22 25 35 30 29 30 27 43 35 27 29 27 29 32 34 31 26 31 32 32 31 42 26 30 34 31 24 26 21 38 26 30 27 37 34 30 23 37 28 27 38 31 29 23 25 30 30 41 25 35 26 33 29 26 35 34 29 31 30 32 39 36 24 30 35 22 20 27 30 32 27 32 32 29 29 28 38 24 29 35 26 29 28 33 27 32 35 32 30 25 40 31 25 34 40 35 41 30 33 25 34 35 27 38 32 23 21 31 28 31 23 29 28 32 26 29 29 35 23 26 29 30 22 21 33 30 29 24 30 31 35 50 29 26 24 31 25 31 30 27 29 35 32 28 28 30 25 36 36 29 34 26 27 29 25 34 27 39 33 31 25 29 30 33 41 23 20 36 31 43 20 28 21 22 26 38 28 31 35 26 29 27 33 31 30 22 36 34 29 27 29 25 34 32 35 28 28 35 33 37 29 30 27 35 22 29 25 22 27 25 38 40 43 32 26 24 28 20 28 19 37 24 29 29 20 38 19 34 28 34 31 35 21 16 36 27 29 31 29 28 33 28 34 31 33 26 25 26 21 28 32 31 31 39 36 26 26 28 29 35 32 26 34 31 24 36 19 27 32 27 45 25 30 36 29 27 27 39 26 41 30 29 19 24 30 21 25 26 30 29 25 28 29 34 25 24 25 39 42 31 24 31 31 37 23 30 32 32 40 24 35 32 23 30 27 31 34 32 25 30 27 21 31 26 33 25 28 30 20 24 21 31 36 40 31 24 35 42 31 34 36 24 25 35 27 36 34 33 27 29 31 27 37 40 38 20 31 38 31 33 33 22 27 34 30 36 29 31 42 24 27 27 36 26 37 27 27 24 28 23 23 24 29 33 38 37 37 30 23 23 34 25 30 37 30 32 39 32 29 31 23 22 23 34 29 34 34 32 22 32 25 25 34 29 18 37 44 30 33 32 26 30 41 33 28 32 39 32 37 34 28 31 28 27 34 24 22 32 35 28 23 32 23 20 31 33 30 30 34 32 38 35 31 37 30 28 39 28 39 33 32 32 32 30 27 31 30 36 26 21 28 29 33 26 33 36 31 31 33 26 18 30 31 34 22 25 26 31 36 38 34 32 33 33 35 35 29 28 23 38 30 34 37 32 33 40 28 33 30 41 36 36 31 29 24 33 29 37 30 24 33 38 27 29 33 33 28 40 29 23 32 29 20 34 37 31 29 25 39 32 32 26 31 23 39 26 28 39 39 23 36 31 30 26 41 25 40 27 26 32 25 30 27 36 36 26 30 36 32 36 24 20 32 29 37 38 32 35 34 25 39 27 30 28 31 45 35 25 41 39 32 29 32 27 23 26 31 32 30 34 29 32 28 43 43 27 23 26 38 38 35 26 35 23 23 29 33 23 32 22 32 38 32 31 26 25 36 31 45 33 29 30 25 34 31 28 30 27 25 19 35 24 27 28 29 35 29 36 36 28 33 27 38 26 32 26 35 33 28 31 37 35 25 19 34 37 32 35 34 29 28 34 30 27 23 31 22 33 29 23 32 32 31 47 30 40 29 40 37 34 24 31 49 30 22 32 28 27 23 28 36 34 29 27 29 32 35 31 29 35 25 33 24 40 48 35 41 32 37 31 35 26 36 30 29 22 33 24 25 29 31 27 18 32 30 25 35 37 23 39 34 32 40 36 28 25 32 42 32 23 29 29 34 20 24 33 25 34 27 32 23 26 38 37 41 33 29 34 39 31 28 29 19 25 23 32 26 33 25 30 32 36 25 32 34 35 33 26 18 41 33 29 30 33 39 31 24 33 19 37 22 29 22 30 34 25 34 33 35 31 24 23 25 33 28 26 22 44 27 31 30 24 34 28 25 27 32 25 33 33 28 33 24 31 37 32 31 36 18 34 25 33 27 31 26 32 33 37 37 31 28 29 29 31 33 24 34 31 28 29 26 29 29 36 35 21 26 34 34 33 34 31 32 30 46 30 29 38 33 29 34 37 29 33 34 27 34 29 29 27 27 32 34 35 35 33 35 28 38 31 35 31 23 23 32 26 25 34 32 23 30 27 42 35 21 30 30 24 37 33 38 44 26 30 36 28 37 39 26 35 32 34 27 32 28 26 25 27 34 32 35 36 34 35 35 38 26 30 36 37 31 44 30 34 34 35 38 34 28 32 20 28 32 30 32 27 22 26 45 28 38 23 28 31 23 30 28 31 27 30 28 29 30 35 35 26 36 23 31 30 35 30 37 29 25 22 34 30 34 26 33 32 34 35 41 34 33 33 33 21 24 27 41 31 31 29 34 31 41 31 38 23 25 26 24 18 26 26 37 29 22 36 28 24 41 38 20 38 30 18 37 33 31 36 27 29 42 29 28 31 33 28 28 22 34 34 25 25 40 31 27 25 23 25 36 24 32 29 29 22 26 26 29 33 25 38 37 28 34 28 27 28 27 42 31 32 30 28 35 28 32 24 30 41 32 29 24 29 22 33 24 32 29 35 36 23 34 25 30 25 29 34 25 30 41 33 27 24 30 26 39 30 29 31 32 23 35 31 29 33 35 27 36 30 27 25 42 31 29 25 25 28 22 29 28 27 30 28 27 32 21 37 36 27 27 31 30 32 41 39 22 31 39 30 29 32 27 40 22 33 32 35 32 30 33 33 27 40 37 29 36 33 26 34 42 39 29 37 32 32 29 33 28 34 31 27 37 25 29 31 29 30 28 31 29 30 31 26 24 37 27 32 27 25 35 28 29 29 24 29 34 34 38 34 27 26 33 33 27 33 31 30 34 21 20 31 40 30 27 34 32 25 31 35 33 29 32 30 19 34 15 47 36 25 17 24 32 35 42 28 36 38 36 27 29 27 32 28 36 34 26 35 32 30 41 35 31 27 40 26 32 23 32 35 27 26 35 34 33 29 31 26 29 22 38 25 26 35 38 40 22 35 27 26 29 29 26 31 26 30 32 25 28 30 38 33 32 26 35 30 35 23 34 27 26 33 36 28 25 34 30 23 29 34 32 34 24 33 37 29 31 33 28 36 41 28 34 25 23 28 37 29 42 32 27 29 31 34 21 40 35 35 31 30 38 32 38 28 38 31 36 23 35 27 26 30 26 26 39 27 34 34 43 29 30 25 31 39 34 27 32 44 29 25 24 28 41 23 35 38 25 34 23 33 30 28 26 29 27 33 31 29 28 32 31 26 35 30 28 35 41 34 34 29 24 29 35 25 29 20 29 25 31 28 37 24 31 32 23 27 27 23 31 23 24 28 26 31 33 21 24 33 32 44 34 27 24 28 31 24 25 36 29 29 41 28 32 25 27 30 31 28 29 37 36 32 30 34 35 23 35 29 38 34 31 34 25 33 29 25 41 39 27 33 23 21 39 35 33 30 28 32 26 33 28 32 31 24 30 34 24 28 34 30 27 22 28 36 31 25 28 23 30 17 31 21 15 39 19 28 38 20 43 31 27 33 34 22 18 19 28 33 28 28 30 29 28 31 21 32 22 29 23 26 34 30 24 29 38 29 37 28 33 28 34 43 30 32 28 25 37 29 31 32 26 40 35 37 29 34 27 23 26 28 37 31 30 39 29 35 28 20 26 23 36 25 33 33 31 29 32 28 34 29 29 32 28 33 35 30 30 29 31 30 34 33 28 32 35 35 37 30 33 33 24 28 36 35 40 39 29 31 37 36 29 30 38 28 32 27 31 37 22 36 32 31 37 30 42 32 34 21 36 35 35 27 29 25 35 25 38 36 27 26 30 28 27 30 35 26 25 36 33 30 27 33 32 34 26 23 31 29 30 36 31 29 26 29 31 18 37 46 27 28 31 24 36 33 28 28 30 30 28 31 26 31 28 32 38 30 28 30 24 30 27 32 20 34 28 29 32 25 38 44 35 27 30 30 37 33 23 36 24 33 33 33 28 22 38 40 31 31 35 38 22 24 35 36 31 32 35 24 39 30 30 23 29 32 26 33 39 40 25 31 27 27 34 31 28 22 33 25 36 39 31 25 27 33 31 31 37 34 37 36 28 36 18 35 35 32 31 26 29 29 23 33 25 29 26 25 22 40 31 35 30 39 30 22 37 32 27 27 39 26 30 29 32 29 31 24 31 28 30 35 44 26 29 31 27 29 23 33 24 29 42 26 28 30 22 27 37 25 26 22 31 29 32 38 35 35 28 43 34 24 35 22 32 25 28 32 37 28 25 28 30 37 33 38 24 26 26 30 23 48 36 31 32 36 28 27 27 42 27 37 31 27 32 36 26 36 30 42 43 41 24 36 24 29 25 28 32 36 21 36 47 32 22 35 35 33 37 35 34 29 32 30 28 21 30 31 38 28 29 34 27 28 32 36 22 30 36 26 39 35 22 28 30 29 33 31 29 22 28 33 18 32 26 32 37 20 29 33 25 31 29 18 28 40 31 38 46 32 22 26 29 28 33 27 34 30 35 21 47 32 31 29 26 26 30 30 26 34 32 24 32 32 28 32 42 41 34 32 35 36 22 37 31 32 35 30 35 38 34 18 29 28 30 37 21 31 35 33 29 23 34 31 33 28 34 32 20 23 37 30 20 31 25 29 39 22 28 30 34 36 36 33 33 30 31 29 31 16 31 39 32 38 27 28 34 37 29 49 34 39 22 31 30 38 30 27 27 33 30 23 26 23 33 30 23 29 39 29 30 27 28 24 29 39 32 31 28 20 32 32 32 36 36 27 28 33 27 32 41 21 38 41 32 38 33 33 38 37 31 22 35 30 41 28 33 35 28 28 40 24 31 28 21 28 34 21 34 33 30 29 34 30 35 24 39 28 37 31 27 33 37 27 35 28 28 22 32 22 25 35 35 30 25 31 31 41 39 39 28 26 36 30 41 30 27 26 35 33 29 33 26 27 39 38 31 34 31 37 31 23 36 33 45 31 31 27 29 31 27 29 23 27 33 25 27 24 34 34 34 33 25 27 28 24 27 27 21 25 28 28 39 30 34 25 37 38 26 29 29 26 25 34 33 39 29 30 31 26 36 35 31 27 26 41 42 36 36 28 24 24 29 35 27 38 37 37 22 39 25 22 26 20 29 38 37 30 36 26 33 26 44 36 35 33 30 34 25 29 33 41 28 26 32 27 24 30 31 35 22 26 35 28 28 24 26 40 26 35 27 28 34 29 26 28 22 36 28 26 27 43 35 31 34 26 29 35 26 33 38 25 39 21 33 24 34 24 27 24 25 30 37 30 35 32 30 31 33 27 29 24 27 25 21 25 25 38 26 21 32 23 33 28 32 32 27 29 18 27 24 30 31 39 25 29 33 36 32 37 34 24 32 26 35 22 24 34 27 25 33 28 33 19 28 27 31 24 27 29 33 35 38 24 33 23 36 31 35 32 40 34 29 27 36 22 31 39 24 42 23 31 23 26 27 29 26 28 33 30 33 33 27 30 31 29 30 36 24 29 33 23 29 22 32 32 33 25 28 25 31 28 34 24 26 26 32 26 28 39 26 30 20 31 18 24 38 24 37 29 34 27 27 33 31 25 33 28 34 32 26 40 34 36 28 34 30 29 31 34 30 30 35 24 29 31 26 32 27 27 34 29 27 38 28 19 35 35 33 39 34 28 28 39 27 28 27 26 36 31 44 41 38 29 36 21 37 40 23 33 35 35 36 31 33 43 30 43 29 23 29 27 31 25 33 19 27 27 27 25 31 30 39 36 29 24 42 25 21 32 30 29 29 39 30 37 26 35 39 28 22 33 45 28 28 25 23 35 21 25 33 33 34 32 37 33 26 31 34 37 39 30 24 28 29 37 37 36 28 31 22 31 47 25 30 30 25 30 25 43 39 31 28 39 20 36 24 41 42 37 29 38 25 35 34 31 21 27 28 34 43 24 31 21 31 22 33 36 33 34 38 34 23 36 22 25 33 31 25 27 34 28 22 23 30 28 23 37 29 38 30 26 33 24 28 30 33 37 26 38 26 31 23 26 31 27 27 28 36 20 33 27 29 41 33 28 29 29 26 28 32 33 32 34 32 33 29 33 27 24 29 27 32 18 26 42 23 30 33 45 32 29 36 23 28 31 29 33 30 27 35 27 31 26 36 34 24 23 25 24 38 22 39 28 26 28 28 31 39 22 25 32 24 31 28 31 22 27 27 28 32 34 33 28 23 29 25 23 42 29 24 25 31 34 27 32 35 41 29 28 29 30 38 26 31 20 27 36 27 27 28 25 38 33 32 32 34 42 33 39 35 30 32 36 33 30 27 39 33 27 28 33 28 32 22 28 31 30 28 27 24 27 38 34 33 34 33 36 27 32 23 32 34 27 41 29 33 30 41 30 43 29 37 40 34 38 26 30 33 31 30 28 30 17 31 25 30 28 41 32 32 37 35 29 26 39 32 26 27 31 18 39 43 31 32 24 31 37 35 29 38 32 39 24 29 41 32 23 32 37 29 38 38 29 33 33 33 31 24 26 34 36 37 33 29 24 26 30 30 29 24 38 26 28 33 25 33 28 34 31 28 27 27 25 30 45 34 27 40 32 27 22 35 33 32 34 37 39 29 37 39 36 31 34 24 34 23 29 37 33 33 28 32 23 25 34 25 36 35 26 38 36 34 26 30 26 29 26 28 29 35 27 17 32 28 23 35 32 22 22 26 29 42 27 25 31 31 35 27 26 25 31 40 40 32 35 31 32 27 38 38 37 27 29 24 30 31 25 27 30 27 29 31 22 33 31 29 36 24 33 28 26 28 23 29 32 37 29 26 36 21 22 34 28 39 29 21 29 23 22 42 32 30 32 28 26 26 26 34 32 29 32 23 28 34 35 31 31 38 35 35 35 34 24 23 25 36 32 32 25 21 30 31 36 28 28 36 29 22 34 40 27 30 30 41 35 26 31 35 26 31 31 35 29 38 29 26 22 25 29 29 19 28 35 32 26 31 27 36 33 21 26 33 31 33 35 38 32 35 33 30 29 31 26 23 38 25 33 27 28 24 31 40 26 27 35 32 37 32 26 29 26 25 29 29 29 32 31 29 26 20 34 26 33 24 41 38 28 29 43 38 25 34 27 24 22 31 27 26 21 39 23 29 23 37 23 20 39 28 33 36 26 27 31 30 33 27 29 21 29 25 33 31 30 32 29 29 42 37 36 27 27 27 36 29 32 34 35 19 37 36 27 34 31 32 27 32 25 37 23 27 28 28 31 28 23 31 29 23 32 38 33 24 33 34 27 32 35 45 27 36 24 25 35 29 33 25 26 36 25 27 37 34 36 34 35 35 31 43 31 33 37 23 25 28 36 30 37 44 29 25 32 31 31 25 29 25 23 26 30 23 28 36 25 28 22 28 30 33 30 27 37 21 36 26 21 29 31 31 28 28 25 29 40 32 21 23 31 23 33 37 36 31 25 34 36 35 25 31 32 28 22 24 34 38 27 27 30 26 28 33 43 37 31 27 39 39 30 27 30 24 37 35 20 33 31 31 33 30 35 26 27 31 27 28 31 26 23 34 31 33 30 34 29 41 28 33 30 29 34 30 41 37 32 39 31 26 25 35 26 31 25 27 30 27 27 29 39 26 42 29 35 22 28 35 27 28 25 33 34 36 31 26 24 36 28 18 31 38 39 19 28 30 32 27 31 30 28 29 41 22 22 27 30 32 36 33 21 23 29 36 20 28 24 32 28 35 35 30 35 39 24 24 33 34 37 33 29 32 37 32 35 42 29 30 28 29 24 26 30 33 33 37 30 34 28 34 30 28 30 32 40 29 31 28 24 25 29 30 35 30 27 30 37 29 29 33 46 42 30 29 41 27 28 33 36 19 34 31 31 38 28 36 38 31 21 28 28 27 32 34 25 27 20 32 32 26 33 31 28 31 29 32 27 24 35 28 30 30 31 27 26 35 30 23 29 29 38 29 29 24 25 22 33 26 37 36 33 25 36 24 26 27 32 30 36 25 38 27 26 29 26 30 31 37 34 35 34 30 28 22 30 27 29 34 29 31 27 24 33 25 29 42 22 32 31 33 24 33 30 20 22 25 39 37 18 30 23 37 28 27 36 21 38 37 40 35 35 23 38 31 28 32 40 33 25 32 30 39 37 26 30 23 29 32 31 36 47 22 25 28 42 24 33 36 32 44 37 32 31 22 31 30 38 26 31 27 29 29 33 26 36 36 33 33 24 26 19 33 22 33 36 26 24 34 35 40 28 39 29 34 34 16 36 14 35 35 38 31 35 28 31 30 26 27 33 38 21 30 25 28 31 36 23 29 23 24 32 36 40 32 30 34 29 31 23 22 35 27 26 32 30 32 48 38 26 36 30 46 34 25 33 31 31 23 35 19 29 26 26 25 32 26 29 34 34 27 31 33 34 31 29 39 33 31 38 35 26 28 34 30 27 33 32 22 28 32 32 44 33 24 26 24 33 27 30 19 27 29 32 26 32 27 35 32 24 36 32 34 25 27 38 31 22 35 35 30 33 34 35 29 27 23 21 27 34 29 34 27 29 29 31 31 31 29 31 46 29 28 25 32 33 43 41 25 30 28 36 36 32 29 23 33 26 30 31 26 34 33 25 30 25 26 28 36 37 28 37 35 31 22 30 33 32 30 28 23 27 41 38 34 26 39 30 29 32 31 23 45 25 31 35 33 28 29 28 38 22 35 32 37 20 27 34 29 32 26 24 31 28 27 24 34 40 30 33 26 25 35 30 37 30 19 33 36 36 37 30 23 35 35 29 42 32 25 30 27 21 31 31 31 27 40 47 32 28 27 30 27 30 33 35 30 34 31 32 27 27 27 35 29 42 34 31 32 31 25 32 29 39 29 31 32 26 34 42 23 45 33 28 38 22 28 36 28 33 39 31 32 26 39 37 32 33 29 23 25 29 36 33 31 34 28 32 34 26 39 24 27 32 38 31 29 32 43 36 33 31 23 34 27 33 28 31 33 28 26 32 34 33 22 35 36 33 36 24 24 28 32 37 26 32 31 39 35 32 35 31 38 26 33 33 18 39 33 27 22 36 34 27 31 32 29 29 36 31 34 32 31 33 32 30 28 36 43 38 28 23 27 29 24 26 35 30 30 29 24 28 26 31 25 32 26 26 33 25 31 34 26 30 35 30 25 29 19 20 34 26 31 27 38 32 32 31 29 31 24 29 27 30 32 35 35 31 37 27 34 30 23 37 35 26 32 24 26 28 32 32 24 33 33 31 24 29 29 28 41 42 29 32 33 32 33 35 36 32 28 29 37 33 29 30 34 27 28 30 28 28 28 26 28 24 27 22 38 26 39 23 34 35 32 36 34 32 37 27 33 31 31 37 33 33 31 29 34 32 38 31 32 34 26 35 30 17 27 24 30 33 32 33 23 21 31 34 27 28 26 26 29 35 38 34 33 28 31 37 27 27 43 22 17 28 37 33 24 46 33 25 34 23 22 29 28 29 38 35 31 24 32 30 29 23 27 26 41 39 25 38 32 23 31 23 16 31 36 28 23 31 32 26 27 44 30 29 32 28 30 36 35 37 32 34 25 23 21 33 25 31 24 24 28 37 27 35 47 22 32 39 19 28 36 36 35 34 32 32 22 40 32 21 29 32 33 29 27 28 32 24 36 38 22 36 32 29 37 31 31 27 34 28 21 29 37 25 31 24 31 38 34 32 33 28 31 30 30 31 30 31 34 35 25 24 33 36 39 30 36 24 33 19 32 26 33 28 28 28 33 28 32 36 23 34 33 33 35 24 38 29 27 27 27 31 37 25 18 26 34 29 40 29 40 34 28 33 26 30 32 32 30 34 36 28 40 21 37 42 28 22 30 30 31 30 30 29 24 33 28 34 41 32 36 30 28 25 43 29 21 26 40 28 32 26 29 39 33 29 33 29 32 26 37 21 41 35 38 38 27 36 24 40 38 33 31 30 39 34 34 24 28 34 34 32 39 30 21 26 37 33 19 25 31 27 26 33 23 34 39 29 24 29 34 30 22 34 34 30 29 28 31 27 28 33 37 27 25 35 30 28 39 27 39 34 30 30 40 24 26 31 27 32 36 27 39 29 36 32 31 27 36 29 30 35 35 26 25 34 28 36 36 29 37 34 29 18 26 32 25 33 31 22 33 33 28 31 29 31 32 21 30 26 22 45 23 31 34 33 18 34 25 31 23 32 28 25 20 33 24 23 44 25 28 31 45 35 33 30 34 27 29 26 34 29 30 32 21 35 38 26 28 39 34 31 27 26 30 36 26 35 30 22 41 42 29 35 27 32 30 28 30 26 39 33 40 27 33 32 35 21 32 32 26 42 32 32 28 27 28 29 25 39 37 36 23 34 30 29 38 43 33 25 29 27 34 33 30 27 39 34 31 31 26 25 41 22 24 27 39 39 30 30 32 29 29 29 37 38 30 31 39 30 29 39 25 27 27 39 33 37 22 43 28 31 27 31 25 25 34 38 29 23 33 37 34 24 37 32 30 35 24 36 24 32 30 37 32 28 38 40 33 29 27 29 19 21 29 29 22 41 24 38 42 31 33 28 26 23 27 31 36 19 45 27 31 24 29 34 30 30 43 34 26 32 32 29 31 25 38 32 27 23 27 30 25 32 32 33 23 36 31 32 26 24 34 39 26 38 29 33 33 33 38 29 37 28 26 31 29 28 25 27 26 39 34 27 33 32 33 29 30 22 25 29 30 30 27 29 19 27 29 27 24 30 32 30 24 27 42 29 27 31 36 18 31 38 25 24 37 27 43 31 20 36 29 30 38 30 33 35 29 40 33 29 34 34 33 24 30 29 35 31 22 36 35 39 36 15 36 40 33 40 28 21 34 35 21 23 29 52 28 29 34 32 24 46 29 26 23 30 39 32 33 31 29 37 25 32 26 31 37 33 20 30 25 29 38 29 29 33 31 26 17 28 35 29 46 31 37 30 33 40 37 30 41 31 36 28 31 31 36 37 29 28 37 23 36 36 24 36 36 33 30 40 31 44 31 31 30 25 32 28 29 35 39 42 30 27 25 18 38 31 30 34 26 31 25 34 33 16 35 25 38 23 38 19 29 33 25 25 31 33 29 28 30 25 33 39 25 27 42 23 27 29 34 25 30 37 23 21 29 31 25 28 27 34 34 26 33 32 30 40 30 25 32 37 38 26 37 32 40 34 28 28 31 33 22 33 28 41 31 33 23 35 24 40 44 36 24 24 23 28 31 25 36 37 43 39 26 39 22 26 29 36 33 32 29 42 32 30 36 33 27 26 26 45 29 21 30 27 27 38 30 36 27 29 35 35 36 45 37 37 31 24 30 35 26 26 30 21 30 34 35 22 46 22 29 41 40 22 35 36 24 32 25 41 30 30 34 23 32 28 42 33 26 35 37 38 41 32 33 29 29 34 29 32 28 31 32 24 24 30 28 23 37 31 37 31 21 40 23 29 32 39 24 31 28 37 31 34 30 34 32 33 31 28 27 30 40 37 34 35 29 36 23 38 24 35 20 24 25 31 31 26 46 38 29 23 28 32 31 34 25 34 33 26 32 32 22 34 33 33 41 30 41 36 29 34 35 23 29 33 32 29 36 24 29 27 34 34 33 43 40 25 29 30 28 30 46 23 31 32 35 32 32 26 28 35 35 34 29 29 29 31 31 34 26 30 34 43 27 35 36 26 35 26 26 45 29 35 30 40 30 32 32 30 32 33 34 30 25 27 32 24 32 35 31 28 37 29 28 22 28 33 29 18 35 29 25 36 35 30 32 29 30 31 30 21 26 35 36 25 30 30 23 30 20 35 22 36 30 27 34 33 32 31 31 18 31 31 26 39 33 32 34 31 30 22 28 42 23 34 27 31 31 29 35 39 29 27 32 21 35 31 25 21 30 33 27 32 31 22 30 28 31 35 34 35 28 30 29 28 28 27 27 32 27 39 37 38 38 31 35 36 35 25 37 30 37 25 25 29 29 37 31 28 30 30 31 32 27 27 25 35 33 28 42 33 39 38 27 22 33 28 36 32 30 37 32 31 34 35 36 21 22 40 33 21 37 26 28 35 26 27 32 28 22 24 36 39 34 28 47 30 43 33 28 29 29 33 25 28 35 34 38 33 34 28 35 21 34 46 29 33 17 26 25 29 29 36 28 39 24 38 36 29 30 33 30 39 23 37 26 32 32 38 26 26 25 20 28 34 24 34 30 24 24 16 28 25 34 35 20 36 34 27 37 22 38 30 34 28 27 36 25 31 32 27 29 51 31 30 20 22 28 31 45 23 31 22 30 38 26 29 21 48 31 19 37 31 35 45 30 29 24 34 33 33 32 41 28 35 35 32 42 30 30 40 35 27 25 28 31 23 29 38 31 32 31 25 29 27 25 37 30 31 32 36 33 29 21 30 38 29 23 33 33 33 32 26 38 23 29 29 24 34 32 20 31 36 32 27 36 32 29 32 34 26 31 35 29 26 23 34 36 26 35 32 35 23 38 31 28 28 24 22 30 42 40 27 35 25 40 26 29 35 31 32 39 33 38 35 25 47 26 29 33 33 33 33 14 34 38 29 31 31 33 31 35 29 40 30 28 25 41 29 37 28 30 36 35 31 30 29 34 28 24 28 23 32 19 37 31 32 28 32 33 25 28 32 50 31 31 30 35 33 32 31 39 26 32 41 26 29 25 35 23 33 38 26 32 29 30 28 29 30 28 34 32 30 35 40 31 31 29 33 31 29 34 36 31 34 34 32 34 30 28 31 32 31 34 32 34 33 22 27 32 36 26 36 38 39 31 35 29 31 30 26 27 28 35 30 33 34 37 43 24 34 27 28 25 31 24 37 24 33 28 31 29 22 36 27 34 23 29 28 22 36 31 32 31 32 21 30 24 33 25 30 26 30 25 40 39 20 34 36 35 27 42 38 32 33 23 31 32 39 28 24 31 29 27 30 33 32 30 36 34 33 31 26 32 35 31 26 24 37 32 27 35 31 35 26 41 30 25 39 31 31 32 31 30 27 28 34 31 35 28 23 25 33 40 22 32 33 30 25 20 33 26 20 44 31 23 34 27 33 40 30 24 31 38 34 30 25 27 40 26 26 31 30 32 23 30 30 19 34 31 23 29 29 18 24 27 31 33 45 26 24 30 35 24 33 29 28 28 27 28 37 24 29 41 33 23 16 28 26 35 40 19 37 31 29 28 28 32 23 44 26 33 22 32 27 27 30 29 30 32 32 35 40 35 23 21 28 31 32 40 34 25 29 27 28 35 30 37 35 23 28 27 29 31 34 33 25 30 37 31 38 25 27 29 34 28 36 33 28 31 22 21 41 25 36 29 32 23 33 31 30 30 30 26 32 35 38 34 29 24 27 28 22 40 39 28 21 34 35 21 34 27 28 32 35 31 30 33 26 31 39 37 27 42 40 37 33 27 31 27 29 23 27 43 31 35 31 29 30 29 33 42 30 28 30 26 37 36 34 21 45 30 36 33 27 21 31 24 39 27 37 29 23 31 35 32 28 23 30 38 31 38 40 32 37 32 28 39 32 32 28 30 33 30 26 27 28 32 28 33 26 25 43 24 23 25 32 27 25 23 36 24 37 28 36 29 36 22 28 33 30 17 35 30 27 20 32 41 35 25 23 32 38 25 34 28 32 38 39 21 40 36 30 16 36 32 29 29 34 34 26 32 28 33 34 25 37 30 23 35 29 36 30 15 28 29 36 26 37 33 36 38 33 37 30 28 25 31 35 23 31 31 37 27 25 35 32 37 23 36 34 27 27 29 47 29 34 20 30 37 34 34 29 16 21 26 28 39 40 27 25 29 26 29 27 24 21 29 42 31 34 24 18 30 28 34 40 33 29 31 25 28 31 29 30 26 27 36 37 24 34 27 32 30 33 34 36 23 32 22 32 19 33 18 32 31 32 30 27 27 29 31 36 25 33 27 40 24 27 39 32 32 25 29 26 33 23 31 32 39 32 21 37 35 32 30 32 28 31 42 32 37 37 25 31 34 33 35 26 39 27 32 21 26 27 27 32 17 40 23 32 31 34 38 34 36 28 30 23 33 35 31 18 30 29 41 25 27 38 32 40 39 32 28 24 33 33 35 21 30 26 34 37 35 23 37 32 35 33 37 27 33 44 32 34 33 23 39 26 32 23 31 23 27 37 38 21 25 32 28 35 27 28 33 31 39 28 25 39 28 33 33 29 29 34 23 35 24 32 22 36 34 37 25 31 45 36 23 19 25 38 21 28 34 39 29 21 29 17 26 28 39 33 33 40 23 28 42 36 26 28 27 33 39 39 45 30 33 32 19 24 26 28 22 33 32 34 33 29 29 37 28 28 25 25 24 34 28 36 29 32 31 38 26 32 37 35 28 41 33 31 30 32 34 39 20 37 31 31 34 36 22 27 34 30 35 27 25 28 34 22 25 28 29 31 32 36 24 23 26 34 30 39 38 40 23 37 34 35 31 37 35 40 23 26 31 33 31 36 22 21 23 26 27 41 24 32 21 26 22 36 36 34 37 38 31 41 35 40 29 25 33 24 32 45 34 38 33 28 16 40 34 25 31 27 29 41 26 37 30 43 23 31 37 24 30 35 27 25 33 38 32 34 38 28 36 21 23 25 39 39 45 31 28 26 25 42 26 29 31 35 25 33 40 24 29 31 29 21 33 23 34 31 28 30 40 34 40 31 37 34 28 24 32 38 32 36 31 42 36 38 33 32 38 30 36 29 26 28 31 20 38 31 26 26 27 27 31 37 27 31 33 30 41 42 40 28 32 36 20 28 33 25 29 35 29 28 41 32 28 39 26 36 31 30 29 32 25 30 32 19 37 27 36 23 28 30 38 29 33 32 28 25 18 27 32 31 35 30 19 27 21 34 35 31 24 23 31 37 26 31 36 28 28 31 32 31 24 36 31 42 36 35 28 28 32 27 20 25 25 23 31 35 31 32 29 24 22 32 27 26 32 39 22 35 24 22 35 37 28 42</t>
-  </si>
-  <si>
-    <t>JSB(2.307362255439095, 4.250075378479, -103.51235527077222, 914.2238762449945)</t>
-  </si>
-  <si>
-    <t>192 252 227 207 258 251 200 276 215 225 216 238 196 169 236 345 170 205 257 359 184 169 203 271 325 281 222 219 351 172 334 233 238 265 184 201 228 154 305 247 138 154 250 287 203 214 330 287 190 272 261 248 257 172 204 220 240 187 217 186 252 206 220 211 179 284 222 250 224 182 304 202 230 225 241 239 257 234 183 259 267 229 243 186 257 216 259 161 333 158 277 245 223 289 206 191 297 250 246 300 227 281 134 174 225 359 176 272 215 224 199 300 279 224 223 175 251 234 401 282 214 194 219 345 290 292 181 260 187 277 311 191 229 231 261 260 282 250 231 275 264 289 248 208 237 229 186 211 295 212 221 248 239 291 238 248 219 228 198 264 191 200 227 293 260 204 257 267 236 254 232 261 219 191 182 265 286 204 237 141 267 307 434 194 213 275 257 148 280 240 170 234 178 178 290 239 191 203 193 242 311 240 137 257 241 278 314 227 254 252 216 235 279 180 266 231 281 228 275 208 153 206 221 258 208 212 165 230 200 176 249 219 225 223 224 327 251 230 285 176 259 222 238 205 306 177 256 189 253 171 167 346 220 167 248 189 261 253 242 149 237 235 266 332 249 223 275 337 177 215 191 317 197 244 147 189 298 188 197 288 231 237 373 215 200 217 239 206 168 243 248 279 320 228 223 250 274 188 272 241 228 265 262 178 250 268 247 183 200 214 148 211 163 221 251 164 343 229 257 145 253 220 222 169 164 287 145 248 106 219 171 262 178 220 347 255 174 233 263 97 247 276 291 271 248 213 228 274 211 201 205 211 333 302 273 197 230 192 189 266 236 278 271 312 205 187 198 299 291 208 188 221 235 275 162 224 223 214 416 234 209 170 253 222 186 212 260 269 188 262 283 245 267 158 244 210 245 156 223 222 205 244 218 216 212 255 226 192 301 263 140 144 141 327 187 219 159 307 202 223 261 191 195 152 320 206 202 191 159 283 242 199 163 299 197 271 250 274 252 230 222 330 208 205 307 209 229 334 311 186 211 261 280 293 191 254 178 323 204 155 251 275 268 274 246 323 210 142 225 239 178 226 232 161 175 376 230 255 120 216 228 197 266 193 293 316 299 229 252 261 208 276 265 236 156 292 185 162 235 233 132 232 222 257 271 260 242 256 283 306 222 177 227 230 257 216 210 311 217 259 266 242 197 211 254 250 347 340 249 199 184 206 254 203 397 214 349 216 252 273 274 252 278 217 244 248 132 167 181 237 226 303 222 141 254 277 298 214 218 252 228 178 254 396 190 152 194 339 223 322 219 194 234 286 272 195 276 258 268 233 213 189 167 235 215 373 194 311 243 252 231 324 175 220 213 284 178 211 351 281 243 248 166 252 242 270 195 185 208 233 332 206 205 152 179 250 328 198 242 245 189 240 259 372 195 285 219 205 159 265 261 215 215 281 235 218 234 300 201 192 261 236 220 190 259 249 227 248 261 297 262 149 258 219 144 269 152 194 240 201 242 290 140 247 245 215 198 223 193 200 293 265 223 252 238 140 180 205 303 164 215 179 370 133 233 352 260 257 230 240 235 205 246 278 270 241 268 249 199 241 238 178 254 221 177 287 235 226 272 158 115 264 148 315 220 171 186 146 147 167 240 179 180 262 356 278 313 298 193 281 215 176 229 196 183 318 174 251 315 244 237 256 311 235 290 318 299 287 342 223 253 210 244 273 164 196 232 210 289 181 271 171 198 192 231 175 206 216 267 206 223 278 187 272 153 274 244 194 176 161 154 126 284 180 347 324 206 287 281 306 271 270 293 251 265 240 248 210 286 219 208 254 185 223 235 116 268 268 296 311 193 106 233 289 310 171 240 202 297 196 142 266 288 257 165 165 227 149 260 170 320 283 280 263 253 193 209 246 312 287 196 284 240 238 179 223 232 185 153 265 136 269 268 214 213 189 320 237 154 219 230 212 207 230 163 160 236 257 235 237 308 209 187 342 254 226 239 176 200 256 216 187 211 213 348 174 267 190 260 233 260 236 326 174 265 213 263 224 213 229 253 276 155 154 238 175 300 252 231 256 349 235 141 144 218 300 256 219 294 297 196 228 242 173 239 307 232 188 236 311 296 292 211 270 197 252 128 224 162 233 232 198 127 216 244 231 160 211 225 201 247 186 220 229 276 216 150 307 319 165 267 221 267 195 175 272 279 191 218 236 227 269 279 304 223 247 340 325 226 256 270 271 259 301 245 291 271 181 247 260 289 248 268 242 232 162 216 223 312 163 223 252 203 220 182 298 305 167 270 247 174 152 176 261 330 257 356 235 192 234 265 225 266 202 290 194 233 222 258 157 145 331 165 202 203 282 241 333 196 216 225 192 210 334 250 298 202 211 284 179 216 163 240 226 301 279 209 203 199 234 237 290 275 324 267 240 213 169 154 217 310 200 234 217 241 252 212 131 184 342 247 209 197 205 296 198 270 274 274 241 265 228 211 192 170 145 302 207 170 254 190 183 175 239 184 280 222 191 199 210 198 171 273 205 282 252 166 245 190 238 181 264 224 246 205 213 211 246 213 141 336 209 205 167 236 167 292 173 169 253 172 168 251 148 230 242 250 227 224 248 285 198 287 285 245 217 311 350 216 275 275 228 266 268 177 280 225 250 305 271 317 208 225 187 148 196 274 278 237 170 262 147 205 194 259 275 148 278 256 220 319 153 219 320 202 251 230 311 319 166 236 294 201 333 205 188 233 258 235 280 223 130 337 189 268 267 258 243 312 227 389 218 139 391 299 306 198 297 248 276 213 272 287 210 209 220 165 216 202 147 324 327 106 219 300 144 241 226 156 178 290 250 97 237 228 219 243 250 232 206 227 279 238 267 237 207 217 228 182 245 199 251 225 252 298 263 248 245 174 200 328 287 211 259 339 159 219 241 225 224 225 134 211 213 210 259 189 285 258 249 226 268 177 218 162 146 208 235 335 203 158 277 181 180 208 142 264 257 254 106 241 213 170 297 168 251 301 273 163 313 255 201 234 236 236 221 142 197 308 265 212 322 281 278 273 230 224 209 246 280 106 328 172 181 268 251 154 241 238 207 253 208 261 219 245 262 250 249 232 264 217 237 281 270 222 200 240 277 248 155 268 210 249 168 228 250 275 216 196 159 148 154 242 199 262 298 240 235 282 138 273 236 276 220 204 319 207 317 254 274 251 259 259 209 168 206 272 242 222 199 183 240 242 300 228 198 271 246 336 195 217 308 169 210 186 239 298 332 185 254 308 288 182 230 252 248 238 250 247 137 279 297 221 183 165 277 212 153 210 142 218 220 184 275 268 214 233 330 185 158 260 191 167 290 244 135 234 267 351 298 236 191 239 214 289 205 186 315 293 291 225 222 129 180 278 225 219 199 146 333 229 244 171 244 260 260 233 152 172 272 265 245 200 222 277 235 201 260 220 220 389 123 331 216 217 193 323 253 197 181 237 190 324 203 189 182 186 211 216 172 178 316 180 283 208 125 222 254 203 224 316 149 179 224 281 231 253 219 229 193 264 210 286 242 318 270 266 281 303 261 212 218 212 147 193 189 224 174 199 255 215 296 109 172 191 178 268 263 291 326 187 254 203 162 317 223 186 299 305 288 278 235 212 208 322 213 245 211 220 216 225 255 154 148 193 163 183 173 295 249 322 194 235 276 226 263 317 315 223 286 224 280 196 223 266 285 286 282 190 227 240 261 252 286 204 149 259 179 268 238 243 179 236 231 261 292 155 322 244 260 212 247 169 333 283 239 220 210 195 259 186 183 286 288 225 226 276 233 237 202 282 315 191 237 301 197 180 194 337 209 175 236 224 240 256 251 219 229 241 275 285 213 228 241 245 239 144 146 300 211 237 282 249 232 238 267 211 196 294 251 181 206 250 246 279 197 280 180 200 156 230 277 208 205 217 219 224 241 222 218 197 236 294 244 394 186 206 216 168 246 321 327 303 262 237 125 135 270 275 188 219 210 302 269 212 205 200 285 198 308 272 299 279 263 181 232 221 182 256 293 326 226 220 243 189 211 230 271 229 234 307 318 114 237 200 268 167 258 223 207 321 341 291 271 249 219 207 239 194 227 293 154 162 231 194 173 219 212 224 114 165 250 235 228 222 219 227 211 231 262 264 255 276 166 258 185 225 274 189 255 218 203 220 176 134 300 102 281 316 221 257 230 231 219 243 248 219 263 291 279 207 267 237 242 282 277 177 194 206 186 211 202 259 318 230 207 240 173 279 249 252 286 217 283 171 169 240 223 337 234 273 192 315 243 237 208 167 282 253 193 252 282 309 189 222 229 194 299 308 238 248 196 195 251 274 240 209 215 211 330 276 264 237 287 300 301 157 257 137 212 235 246 213 273 223 224 185 162 162 253 240 278 220 144 133 228 166 257 214 233 256 238 162 271 260 313 236 196 317 246 228 301 188 180 250 210 249 206 224 330 284 281 259 166 248 215 167 234 132 258 379 359 244 302 189 226 189 214 234 288 290 226 242 296 111 228 286 250 215 236 154 184 203 304 285 308 243 166 203 220 244 236 161 224 179 349 201 277 149 215 303 256 188 240 246 164 251 231 269 183 255 248 233 245 299 301 215 113 217 331 210 257 189 279 272 229 170 324 156 243 294 293 300 183 195 240 266 237 258 340 222 195 276 237 310 166 120 210 163 246 267 226 246 241 175 270 204 217 197 215 204 209 256 243 292 238 270 153 242 299 235 256 202 364 267 235 151 277 260 203 328 169 319 280 209 259 155 109 168 211 199 310 205 192 232 256 224 287 210 131 214 202 264 195 217 177 271 265 184 210 284 169 236 244 185 273 259 165 135 189 219 153 178 227 278 217 150 254 282 180 276 183 183 243 261 266 282 237 197 278 280 286 181 331 259 225 193 182 200 226 217 198 217 234 260 230 241 246 190 161 144 175 200 209 226 310 204 235 235 232 159 251 262 186 230 356 266 206 173 301 245 229 215 238 320 180 168 158 234 182 270 215 238 164 251 238 149 202 182 94 143 246 312 213 261 161 244 193 282 182 224 179 233 275 202 249 308 202 213 271 257 274 251 149 246 240 147 183 218 292 291 236 183 276 277 253 223 199 249 202 122 315 191 167 215 194 207 234 291 216 172 276 267 247 194 175 263 254 276 151 177 257 206 316 246 235 224 212 196 264 213 200 354 271 278 265 275 315 251 227 265 279 200 196 171 285 327 287 233 190 204 328 229 281 288 161 231 173 158 302 212 230 184 291 226 242 256 234 227 220 193 305 187 225 207 285 215 209 252 161 291 333 310 229 283 185 175 127 192 293 182 303 206 134 229 279 154 307 245 351 263 203 302 242 177 159 201 273 234 254 313 273 141 266 252 207 184 191 266 193 271 258 124 196 242 187 349 330 170 210 250 240 172 286 240 226 208 197 313 275 159 260 237 205 165 171 209 244 226 197 182 239 197 298 193 222 180 216 174 238 247 265 232 194 201 213 158 226 269 215 258 243 264 179 170 256 215 227 173 228 308 224 234 358 220 315 255 271 261 228 219 236 377 241 154 208 237 295 226 254 123 259 255 255 236 283 278 254 201 217 185 241 269 175 214 266 236 278 151 315 179 261 203 226 248 210 95 300 201 266 270 334 189 243 199 274 278 212 267 255 133 165 216 240 308 337 262 226 163 275 186 309 190 251 263 203 221 210 255 190 249 173 204 178 229 271 273 152 308 209 318 263 163 229 222 190 226 177 156 262 247 209 191 273 389 257 262 217 238 228 311 324 224 152 255 240 246 143 191 227 130 271 251 268 207 242 233 226 283 214 210 204 224 160 215 256 247 210 269 230 246 269 258 229 264 298 180 194 266 268 239 178 265 247 205 338 264 215 251 248 196 239 226 247 361 165 256 191 294 180 219 296 278 166 321 264 202 251 191 235 244 293 145 242 222 174 254 208 285 200 202 221 222 200 226 267 200 358 200 199 281 178 273 167 221 273 232 228 248 214 284 306 294 206 209 193 155 142 273 248 240 218 243 175 250 318 303 256 190 221 317 231 223 232 274 199 230 218 251 281 201 232 265 237 156 282 132 203 262 277 239 147 254 269 229 277 174 288 239 265 203 228 275 241 321 223 284 235 120 295 262 265 301 266 216 151 283 285 269 247 197 147 283 169 255 271 323 195 242 340 286 275 172 285 198 225 297 262 337 256 211 233 303 191 265 273 199 246 230 222 299 248 265 169 264 241 252 259 335 184 392 206 226 209 308 198 242 277 229 230 304 153 275 178 203 272 222 236 311 349 268 269 227 344 229 255 221 234 173 252 278 180 162 220 94 206 299 296 231 307 272 216 186 263 283 207 289 232 262 230 241 174 210 286 173 184 226 306 270 232 269 201 254 293 181 186 253 175 235 244 326 263 178 279 322 250 282 295 241 293 244 272 254 323 284 180 174 186 193 207 229 257 251 156 245 308 279 299 236 265 288 307 185 268 296 285 276 227 271 219 206 217 208 309 219 244 299 202 296 300 242 224 149 256 223 285 294 304 255 226 363 332 122 280 226 283 302 192 273 255 230 155 170 281 233 167 190 191 255 253 224 252 354 274 249 241 297 236 323 264 260 233 242 263 268 286 286 200 214 286 215 227 178 280 337 214 190 244 314 174 183 241 278 257 266 303 219 244 239 295 200 278 211 360 252 276 311 229 260 312 218 271 179 199 266 305 177 239 215 202 249 304 197 227 185 237 246 179 416 252 156 253 139 198 226 284 271 278 260 250 301 248 148 192 202 223 223 288 206 234 215 257 310 244 156 237 216 316 269 164 289 200 285 216 231 197 238 227 253 251 288 128 198 181 333 293 236 286 232 164 347 222 175 141 243 297 271 172 266 193 178 157 194 215 309 230 278 224 282 307 201 292 258 271 288 246 218 220 279 274 168 266 295 290 229 250 231 233 218 129 267 310 145 227 292 260 249 168 208 226 209 296 167 203 146 115 174 204 215 211 367 185 225 236 204 187 264 202 228 277 112 241 216 228 218 242 311 228 297 296 230 165 223 218 265 214 240 190 303 219 231 228 294 328 183 193 295 212 200 225 309 173 239 254 241 241 296 252 238 268 264 225 302 247 224 216 229 178 186 263 319 379 163 237 302 304 255 292 217 201 223 235 226 303 211 224 219 227 279 226 205 274 195 200 295 220 251 313 182 193 302 212 264 185 325 269 221 303 261 292 217 210 183 204 275 222 257 216 233 303 246 233 228 215 196 275 270 230 225 259 151 289 200 242 203 165 307 320 233 192 332 258 247 332 180 211 264 245 259 271 232 255 261 221 239 305 182 219 213 225 269 312 229 308 218 245 267 224 236 213 197 224 166 184 200 190 217 296 286 298 203 219 195 182 204 253 147 216 177 222 200 335 197 190 330 323 225 229 229 202 148 265 227 236 217 251 268 144 203 222 240 253 168 253 213 245 300 286 240 160 269 309 293 355 229 226 138 291 242 236 270 272 240 238 225 279 193 201 230 238 229 164 284 204 133 259 254 208 162 207 224 220 211 219 270 146 196 206 225 335 225 182 191 184 215 149 316 216 281 194 181 246 210 308 148 298 324 157 219 249 239 171 181 201 266 355 217 255 200 156 285 300 205 172 264 224 242 202 359 285 214 256 182 178 217 209 181 245 240 309 274 233 137 216 204 279 209 248 203 238 264 280 267 350 193 181 227 205 157 176 155 306 166 221 233 278 225 232 205 245 227 215 329 273 206 169 205 278 219 272 185 314 195 280 221 151 271 218 241 259 260 330 297 256 165 236 178 216 236 205 284 257 224 206 219 210 230 206 256 258 178 250 205 273 243 231 184 298 274 282 256 189 323 196 168 268 279 281 354 258 240 196 259 224 138 203 303 149 196 293 268 199 188 191 209 283 243 273 270 248 174 211 210 147 135 135 261 213 194 159 237 193 309 288 260 213 266 255 184 267 235 254 210 275 241 211 207 242 190 259 219 179 262 236 241 223 210 277 238 264 236 248 180 256 235 250 301 153 139 270 289 330 185 194 142 159 220 241 241 214 281 223 266 221 255 249 238 169 317 231 291 185 248 183 243 246 258 178 211 269 263 273 214 273 231 248 153 234 183 205 169 164 318 214 365 261 199 201 237 136 202 201 244 162 193 184 183 285 156 285 221 296 209 225 137 126 267 186 215 272 231 263 243 243 255 258 275 211 233 212 188 229 289 267 221 278 264 199 167 209 297 302 198 295 163 180 187 292 159 188 235 271 317 231 255 323 253 206 278 266 186 242 241 190 180 113 197 211 189 235 250 251 226 312 212 221 181 230 224 305 322 212 162 194 292 268 162 203 318 240 189 269 280 254 162 218 250 200 302 223 184 159 175 169 295 212 276 147 179 300 138 212 180 307 169 291 211 172 262 260 233 208 275 164 164 286 202 275 278 231 232 172 266 228 280 310 230 140 228 271 232 209 232 243 137 272 230 277 245 213 358 209 211 195 274 216 341 174 148 180 201 208 210 155 250 220 324 318 273 226 147 197 235 197 230 284 209 220 288 210 212 256 157 168 157 217 209 273 323 265 123 276 185 200 285 206 147 316 237 266 260 296 172 270 287 240 145 256 331 263 264 232 161 197 190 202 254 148 150 229 256 203 205 257 294 167 232 211 266 235 262 225 291 201 250 231 230 251 301 186 326 258 256 314 203 225 182 270 271 250 232 172 249 154 225 163 272 243 251 272 206 212 164 231 195 181 132 175 190 280 286 323 262 229 196 261 288 283 232 164 203 301 352 261 340 267 198 325 204 219 286 291 229 287 234 178 187 224 241 303 191 187 256 312 208 239 296 244 178 301 268 203 229 190 136 290 283 224 180 183 255 248 226 204 248 187 249 187 232 263 295 156 298 234 219 210 237 190 268 178 125 245 219 265 228 247 232 248 238 267 231 309 142 134 260 200 256 282 219 288 307 234 251 313 248 229 298 355 267 201 273 304 326 229 269 171 199 180 227 237 208 211 209 274 236 324 332 221 204 134 291 334 276 158 290 171 229 213 346 202 269 145 208 301 240 183 248 202 288 187 272 303 268 201 108 225 281 176 254 237 236 181 229 219 269 274 214 277 251 262 267 230 224 247 292 242 222 179 271 168 205 236 305 198 176 149 238 328 238 285 242 204 226 313 158 235 185 172 141 270 270 249 269 217 132 283 247 248 226 314 382 305 219 247 379 235 164 268 254 193 233 250 283 267 242 188 146 293 324 247 199 201 260 239 200 342 358 252 337 253 358 227 276 201 257 279 188 160 221 189 191 187 232 238 106 281 217 169 288 316 187 251 279 227 272 295 256 321 251 355 229 238 206 279 172 161 177 303 181 242 241 228 192 169 288 296 257 246 220 291 325 304 214 257 153 204 148 203 200 308 215 231 230 273 157 321 347 293 183 229 136 321 229 232 225 268 354 258 138 266 148 306 110 188 206 171 299 195 263 218 214 256 168 151 219 311 221 229 158 384 142 275 272 146 302 171 220 234 218 228 294 266 188 280 172 278 234 268 291 256 157 304 160 296 224 226 179 296 247 264 267 222 250 240 243 202 270 204 246 233 194 255 180 289 215 254 335 205 205 252 313 236 214 249 224 225 262 249 223 235 246 204 241 327 199 197 234 209 285 233 239 186 259 216 260 237 256 279 221 195 248 239 289 240 161 166 246 244 233 242 284 228 209 193 282 241 152 229 204 190 267 221 294 245 214 198 367 213 283 319 282 235 247 258 224 285 214 200 188 295 253 268 238 305 313 186 287 230 160 278 313 268 177 265 260 270 219 306 323 270 203 212 226 219 250 288 236 274 192 183 340 190 343 168 219 250 141 200 262 178 200 212 221 180 206 263 278 254 301 198 282 247 261 240 248 231 189 199 271 118 253 190 172 301 251 266 292 220 217 221 207 154 188 182 370 205 309 221 235 252 381 195 275 204 214 169 161 167 213 182 317 316 189 256 196 216 297 299 194 285 189 121 308 237 267 285 230 227 403 197 279 184 263 173 220 146 270 252 239 186 272 240 179 157 145 254 350 189 245 213 172 221 154 216 203 243 181 298 199 173 288 188 244 193 228 385 287 253 224 180 253 209 236 228 247 311 221 210 173 249 171 238 225 246 201 243 237 198 307 134 212 232 204 248 213 204 275 238 165 202 253 223 293 219 174 230 273 130 331 200 194 326 269 205 245 276 269 219 256 198 224 180 199 255 143 266 206 200 228 191 215 220 137 264 273 253 206 293 240 263 311 305 166 245 288 228 199 242 183 323 162 205 262 257 212 205 242 272 195 322 299 253 252 209 252 302 284 287 203 262 265 250 264 250 165 253 182 217 247 131 208 265 206 256 195 231 225 168 210 233 213 179 200 296 154 166 254 216 179 219 202 207 263 236 298 215 202 210 298 205 226 230 238 214 242 136 166 153 313 227 239 199 211 233 272 217 252 261 235 217 128 265 93 268 257 220 137 215 252 304 316 212 258 258 260 186 209 275 269 209 315 269 295 243 282 153 357 215 240 227 276 226 243 234 236 226 181 164 256 305 197 243 248 218 273 146 298 238 208 244 353 289 160 260 171 176 225 172 214 239 149 210 272 173 246 181 352 280 258 147 275 257 241 245 227 196 194 202 254 170 188 276 244 120 277 267 291 273 214 240 329 161 223 190 189 259 272 265 252 219 172 204 234 171 264 248 190 238 221 287 169 342 164 244 314 184 266 257 345 190 323 257 260 144 308 165 173 220 214 226 281 208 265 285 331 232 177 237 266 384 257 217 276 363 161 194 229 211 316 152 283 240 187 293 169 210 260 282 200 216 222 208 296 252 201 191 266 165 246 172 194 245 384 302 248 221 273 182 208 210 224 183 262 190 223 199 287 239 230 211 187 233 172 202 250 189 126 154 225 214 314 152 254 254 211 291 276 220 263 193 194 216 198 222 322 213 329 202 270 188 237 271 313 219 195 254 207 240 227 312 250 208 261 166 287 234 203 208 185 190 197 168 269 302 264 232 203 137 274 273 272 256 255 202 171 198 254 218 255 215 288 205 174 210 246 231 200 214 200 364 251 159 150 225 172 153 205 198 105 381 179 213 284 154 314 193 199 207 144 211 143 158 190 264 208 242 215 221 322 231 145 318 175 247 208 250 293 224 209 210 255 214 297 200 305 169 238 218 226 276 253 153 265 205 270 268 209 282 293 180 189 256 182 198 168 197 285 232 213 263 245 192 217 146 211 228 194 235 244 220 188 249 235 251 262 191 200 300 230 277 245 231 168 209 237 254 234 241 238 217 322 268 277 214 237 238 240 237 220 247 252 216 251 289 249 252 262 203 286 221 257 181 356 302 237 288 244 235 281 216 298 205 279 123 231 254 270 257 178 239 276 143 236 257 195 227 262 197 234 264 316 181 220 255 247 264 255 247 224 237 220 154 202 267 249 252 212 212 181 195 228 130 292 324 208 208 214 191 294 305 189 220 240 233 296 201 204 308 252 257 287 247 203 217 210 233 123 240 171 230 139 229 200 191 318 322 259 170 228 192 320 240 160 298 198 291 226 191 188 161 327 293 239 232 354 262 221 238 279 320 258 238 242 169 247 226 278 168 233 215 211 256 304 273 164 225 225 195 344 264 202 177 249 154 282 323 257 153 209 252 213 295 306 326 320 252 208 296 87 292 215 269 188 231 231 270 161 311 169 239 199 159 248 340 230 207 261 226 221 194 220 231 210 175 311 165 244 191 249 199 221 207 204 203 261 274 293 203 267 214 219 164 182 267 174 224 360 189 247 210 138 189 265 212 215 189 289 170 229 291 276 307 180 320 218 218 261 191 182 175 272 251 264 249 130 174 277 253 277 280 208 216 247 291 180 354 306 281 260 317 155 202 163 318 218 188 265 197 260 285 151 332 148 247 334 235 201 264 211 182 177 208 232 234 205 319 326 236 191 237 270 235 363 295 249 284 252 249 311 158 231 210 310 225 227 287 198 214 277 288 176 247 254 185 326 181 192 255 296 239 271 237 217 156 249 245 106 249 187 276 298 158 266 215 184 257 234 126 210 304 209 299 342 274 171 231 157 203 254 198 251 222 267 199 354 204 257 207 198 204 238 191 216 240 267 231 280 195 184 263 285 262 285 277 269 251 132 218 195 262 265 205 268 203 224 137 193 221 306 242 158 245 251 188 248 199 231 249 211 268 233 187 178 148 214 219 146 212 169 171 300 179 310 185 254 256 271 351 241 232 262 284 237 147 220 280 221 284 208 296 292 292 234 341 252 243 165 268 228 280 174 163 225 252 185 209 242 197 245 205 223 220 244 323 165 186 228 176 227 273 268 282 189 197 225 228 212 310 292 229 184 291 204 168 302 115 321 322 255 322 211 268 311 282 221 195 325 215 280 169 317 260 213 202 316 228 241 253 206 175 271 146 249 229 192 243 287 266 249 223 310 198 326 287 242 251 229 226 326 144 221 212 287 157 212 255 210 234 245 191 248 292 283 257 125 209 255 241 335 194 233 195 190 235 232 244 224 221 258 233 326 192 256 301 223 146 239 261 256 247 242 204 171 291 166 232 85 268 215 167 197 185 218 253 288 235 203 239 233 213 212 253 123 205 200 231 296 196 246 159 193 267 218 220 231 188 209 344 268 271 301 214 236 232 245 223 302 217 261 311 319 219 207 251 191 165 230 224 154 259 303 280 154 247 186 176 227 169 155 293 242 250 324 266 245 187 289 388 311 226 252 269 191 188 291 294 206 188 249 238 229 218 264 226 232 161 298 228 239 203 226 242 219 229 183 138 236 287 197 240 192 337 234 197 217 347 258 237 327 171 202 261 200 291 282 214 295 188 288 156 287 202 190 194 196 205 274 216 267 235 216 273 289 186 205 201 212 197 186 199 239 297 229 198 276 181 277 213 205 203 193 205 191 224 168 269 259 336 208 214 285 239 229 257 259 196 325 148 201 205 189 261 175 203 289 221 231 112 273 216 251 200 268 254 291 242 313 201 252 184 281 199 273 272 294 310 224 233 245 198 241 262 188 326 132 222 151 177 217 222 207 283 282 257 253 231 236 194 245 180 280 339 170 247 230 183 189 197 253 227 216 234 173 202 243 224 244 241 179 180 238 139 225 325 280 216 177 247 147 139 244 205 256 187 315 266 144 168 208 182 247 256 257 260 155 326 266 249 250 300 240 191 189 270 194 269 219 227 247 223 235 214 217 208 257 227 235 223 217 191 254 343 239 253 323 185 170 312 219 217 201 189 305 281 370 349 255 241 363 185 279 197 134 243 278 291 296 280 216 349 213 283 177 153 199 171 259 230 190 136 169 237 200 149 276 222 286 279 185 193 296 156 180 217 239 241 239 275 196 322 179 246 274 279 147 230 304 205 272 171 160 287 187 214 285 245 277 230 259 228 197 209 263 351 265 285 180 172 249 267 284 274 219 241 161 200 294 179 250 222 195 190 175 348 302 261 207 243 166 344 197 303 270 293 236 247 184 176 285 276 178 200 276 215 357 245 216 174 255 155 248 257 291 244 275 224 163 307 167 204 301 254 216 174 210 153 160 147 191 296 165 252 234 304 280 253 224 167 191 199 264 265 228 293 181 266 150 192 180 182 193 175 332 131 209 209 179 288 222 241 215 199 159 225 251 316 226 293 242 220 234 273 187 190 273 186 309 109 202 332 233 239 252 277 231 191 267 159 300 259 190 264 241 281 261 199 252 209 228 291 179 187 185 209 281 281 330 229 203 205 203 240 289 176 167 302 126 247 210 227 199 215 216 192 269 204 224 178 223 242 203 189 270 197 233 195 221 257 200 183 253 336 252 198 243 146 201 224 235 178 230 248 230 235 220 182 264 278 242 274 283 291 293 347 278 223 230 274 227 246 254 319 271 251 230 209 224 225 211 225 242 280 203 205 174 207 392 231 238 238 218 267 248 253 183 289 216 204 347 207 303 269 323 269 283 187 294 332 224 268 210 253 254 200 187 205 241 108 200 143 246 223 296 289 215 301 290 149 167 272 314 213 148 281 124 302 346 263 223 151 190 359 224 232 285 281 247 164 256 331 246 139 257 247 215 251 267 174 264 226 261 279 146 203 214 275 261 214 162 169 218 233 186 262 133 315 169 213 264 227 225 156 212 317 221 178 156 208 175 350 221 222 297 223 234 165 268 199 265 260 220 217 156 316 217 308 218 254 145 207 169 265 296 297 235 192 173 218 153 224 198 270 301 189 381 313 246 173 274 191 212 199 154 272 318 179 140 228 251 136 260 286 194 150 218 181 349 230 174 230 325 348 205 193 208 150 315 242 280 239 205 262 216 332 268 277 179 187 151 278 206 221 221 228 159 225 203 160 301 277 184 263 183 220 163 229 154 206 219 228 225 191 224 271 111 142 220 238 283 259 119 248 213 215 289 270 254 221 191 220 288 180 267 228 162 257 190 156 253 318 259 216 250 321 295 294 230 206 157 200 261 246 240 167 152 215 199 275 182 228 235 148 108 240 215 193 246 232 395 298 206 230 302 222 241 261 222 338 266 248 146 134 201 251 208 139 151 201 249 201 225 179 273 229 164 253 379 255 294 266 300 226 214 251 301 157 189 189 184 281 196 252 197 209 174 233 260 229 262 268 258 359 226 160 171 222 242 242 203 245 226 299 237 194 161 204 208 281 183 318 284 240 290 304 302 157 283 205 182 163 251 211 224 170 280 158 231 197 201 187 113 300 175 168 288 176 185 227 234 236 208 195 193 282 199 242 222 289 372 245 243 326 267 252 225 237 198 282 252 270 272 248 112 265 240 248 206 234 210 203 272 193 243 209 196 203 224 307 253 207 271 253 151 205 301 206 179 246 239 260 277 243 309 190 220 225 170 261 262 261 142 178 258 156 191 267 296 281 246 254 273 242 307 246 180 241 99 166 230 294 239 306 303 194 201 212 196 269 206 163 231 145 195 230 204 179 257 161 189 228 193 226 174 189 251 268 144 249 259 135 183 290 302 186 259 185 175 247 192 175 237 221 149 223 250 313 216 201 238 296 262 134 244 249 245 223 166 244 289 187 236 279 238 236 255 390 340 215 242 261 294 250 200 197 150 279 270 156 295 189 226 244 258 231 146 168 240 177 205 204 203 213 207 208 237 158 240 251 338 223 219 246 197 259 209 355 366 240 290 251 218 163 278 155 197 181 175 223 168 200 201 256 177 312 169 269 231 216 231 195 209 197 251 333 236 220 247 150 297 197 110 292 295 285 163 274 229 251 159 277 140 216 181 305 100 212 187 257 242 269 218 150 150 257 247 163 210 138 193 276 232 238 202 262 318 210 177 279 264 309 180 261 202 263 271 218 315 185 242 258 222 164 162 206 240 221 234 271 237 254 256 208 245 168 202 241 318 212 201 197 188 241 225 251 229 194 190 214 185 205 279 286 338 187 231 251 177 256 296 263 142 254 210 236 243 175 307 289 270 155 163 234 231 208 292 249 252 185 280 268 191 239 246 221 253 266 221 167 250 332 236 174 308 195 150 189 307 244 206 236 222 309 208 302 241 153 247 223 201 318 329 304 184 255 114 211 234 255 252 337 204 343 240 203 223 201 230 290 265 234 219 277 272 226 229 242 212 295 259 260 299 221 166 276 224 271 295 147 235 202 280 143 247 315 182 197 210 340 283 123 212 148 256 170 240 280 121 329 347 276 265 327 174 299 175 222 268 281 241 165 243 201 377 280 224 208 230 211 299 252 299 303 147 217 220 302 247 246 358 285 313 305 196 240 154 200 191 235 216 232 178 271 232 169 204 313 238 261 264 229 194 203 197 126 303 254 210 164 317 278 332 235 266 240 183 249 146 375 96 264 282 301 188 314 214 246 224 247 230 201 294 124 252 170 179 222 278 194 210 170 173 173 246 250 211 272 205 257 215 160 169 311 191 246 225 189 204 341 323 227 274 230 345 279 192 323 240 239 192 230 168 228 201 195 166 232 144 152 221 294 238 246 244 251 211 180 282 255 254 249 280 182 220 242 233 199 278 231 176 179 256 198 251 241 186 239 187 285 218 294 164 243 246 233 168 254 219 240 186 123 252 209 187 218 220 312 218 198 320 292 171 240 193 193 218 186 177 168 179 266 203 218 287 248 227 218 284 273 201 230 267 231 145 140 257 248 287 291 176 226 171 264 299 304 229 215 278 256 198 211 189 271 312 226 267 241 174 207 266 278 233 289 283 299 217 210 254 316 294 183 187 188 249 226 225 226 337 217 287 263 206 199 315 180 193 272 247 198 245 259 297 215 249 199 325 175 263 276 226 234 242 169 234 268 218 208 216 305 172 235 201 197 313 275 236 254 122 272 232 289 237 159 177 258 220 221 285 247 228 221 194 151 255 290 225 211 169 285 248 206 269 214 195 216 274 299 241 222 256 242 240 214 237 319 320 287 248 266 191 270 192 290 254 272 202 258 284 193 236 327 195 308 288 187 255 178 225 238 232 291 256 258 296 178 354 262 326 254 187 171 230 233 250 266 252 275 146 236 197 157 250 197 219 209 342 269 244 258 392 197 224 309 182 298 209 222 229 182 257 161 185 231 224 242 175 232 258 308 233 173 177 215 302 277 203 250 251 295 286 194 265 321 253 200 245 255 140 216 246 288 204 286 210 239 233 205 266 240 290 222 234 233 299 254 241 237 234 251 315 245 187 160 161 210 214 199 290 222 222 208 191 193 207 293 211 207 194 160 307 157 269 216 172 308 308 230 224 258 146 173 315 209 282 228 285 258 279 241 235 215 167 218 232 271 316 284 235 174 282 205 264 210 218 263 256 240 251 166 212 241 280 278 175 177 265 233 166 244 167 189 234 236 195 198 274 248 239 269 292 213 233 230 347 256 236 231 230 193 190 209 232 201 256 200 264 183 206 183 277 229 255 194 231 310 269 260 259 244 252 194 260 182 249 304 323 256 270 195 220 259 264 163 322 222 194 235 306 108 131 225 244 240 242 271 180 164 217 238 234 203 294 173 227 272 234 242 171 281 206 236 190 219 262 158 164 246 262 242 170 325 276 200 172 138 188 224 226 193 316 308 205 193 225 253 158 165 253 206 330 345 152 324 288 152 259 179 120 302 299 202 215 247 197 209 216 291 242 196 257 219 247 288 298 254 261 274 173 170 186 239 190 198 187 182 161 306 213 221 330 156 199 298 183 176 267 191 266 201 255 219 158 351 253 148 221 261 213 233 236 181 240 146 292 347 194 266 248 211 244 322 257 251 256 196 261 234 253 240 218 200 252 371 282 336 252 244 168 219 265 245 228 228 284 335 188 185 256 261 305 210 266 225 299 183 269 231 291 207 198 148 271 215 179 271 176 220 256 252 232 179 240 212 210 176 225 282 254 215 134 216 188 211 255 200 385 277 233 242 168 203 280 219 210 291 313 188 284 206 318 306 202 188 257 175 216 171 254 191 168 263 234 268 288 280 265 197 215 215 277 233 157 185 227 219 257 181 211 332 254 200 245 197 251 243 223 214 333 199 308 271 224 249 206 255 299 300 229 243 282 268 280 168 163 264 309 240 348 227 185 187 266 289 141 191 226 257 216 284 153 274 275 202 156 178 278 267 98 289 186 242 226 163 219 251 185 273 344 149 202 180 277 202 272 220 270 287 215 279 302 167 212 236 171 234 236 221 285 199 274 244 203 226 241 222 185 275 235 187 220 273 212 237 194 229 239 234 309 168 224 241 169 249 279 194 285 275 228 238 194 259 241 109 219 193 218 353 192 308 269 251 135 275 159 259 206 205 283 188 181 240 151 167 265 175 225 175 255 257 276 206 273 187 261 207 291 243 240 203 230 250 275 274 176 261 237 209 221 239 210 256 269 275 199 172 321 285 242 210 211 230 274 202 175 187 267 274 208 246 256 229 237 178 287 229 153 356 250 227 156 186 226 257 162 297 222 225 193 208 261 276 230 296 204 177 210 230 211 214 236 203 300 235 227 198 213 222 309 182 200 261 296 252 257 211 219 271 236 279 288 282 240 229 282 281 200 293 200 199 227 281 281 214 174 305 171 181 175 229 159 194 280 237 203 208 260 298 220 200 251 251 181 167 204 250 217 262 172 333 234 213 267 362 362 245 230 235 151 112 177 185 149 289 182 309 278 219 275 172 220 166 212 281 289 188 242 239 206 227 127 258 238 266 301 299 171 206 200 256 197 215 308 270 244 119 198 242 245 246 262 290 226 230 216 248 308 233 219 213 115 322 131 257 280 300 269 151 242 257 174 244 241 229 186 238 191 274 272 214 247 263 270 198 236 211 242 191 217 266 272 194 111 130 168 220 221 178 284 292 140 174 303 254 264 230 291 130 192 230 163 200 308 175 307 231 151 259 210 206 304 245 276 277 258 281 220 221 323 301 212 183 179 180 261 206 158 245 291 321 263 123 309 304 216 289 246 183 334 259 138 176 247 368 281 219 238 221 190 319 245 219 170 229 309 294 252 186 282 258 140 258 233 178 305 197 18</t>
-  </si>
-  <si>
-    <t>GAM(0.3671822268036098, -3.599059592654941e-18, 1.9987394723593788)</t>
-  </si>
-  <si>
-    <t>1 0 1 1 3 2 2 2 1 1 1 0 0 1 0 2 1 2 2 3 1 1 0 2 1 1 1 1 2 0 3 2 2 0 2 1 1 1 1 1 0 0 1 2 3 2 1 3 0 2 3 0 0 2 1 0 2 1 2 0 1 1 1 0 1 2 1 1 2 0 2 2 0 0 2 2 1 1 2 2 2 1 0 0 1 1 3 0 4 0 2 2 2 1 1 3 3 1 4 1 1 3 0 0 2 2 2 2 3 2 1 1 2 1 0 1 1 0 0 1 1 0 1 2 3 1 2 2 0 4 1 1 1 0 1 1 2 1 1 0 2 3 2 2 0 2 1 1 2 3 2 1 1 2 2 0 1 1 1 1 2 2 0 2 1 0 4 1 2 1 2 1 0 2 1 2 1 1 1 0 1 3 5 2 1 2 1 1 1 0 0 1 1 1 2 2 1 1 0 0 1 2 0 2 2 2 2 1 2 4 1 2 3 0 1 0 1 3 1 1 0 2 1 2 2 1 1 0 1 1 3 0 2 2 1 4 0 0 1 0 2 2 0 3 2 0 1 0 1 0 2 5 0 1 2 0 1 2 1 1 2 1 2 2 1 3 3 1 1 1 1 3 1 0 0 1 1 2 3 3 1 2 4 2 1 1 2 0 0 3 2 1 3 1 3 0 2 3 3 3 1 1 2 0 2 1 1 2 0 0 0 2 0 1 1 0 2 1 0 0 2 2 1 1 0 5 2 0 0 2 1 0 1 0 2 0 0 1 2 1 1 0 2 3 2 1 2 1 0 0 0 0 2 1 2 2 2 0 1 2 2 2 2 2 1 0 2 2 1 2 3 2 0 3 1 3 1 0 4 1 1 1 1 0 0 1 3 1 2 3 2 1 3 1 2 1 2 1 0 2 0 1 2 3 0 0 0 1 3 3 0 0 0 1 1 0 1 2 2 2 1 2 1 0 4 1 1 0 0 1 2 1 1 2 0 2 2 2 1 1 1 3 1 2 3 3 1 2 4 1 0 1 1 3 0 1 0 3 2 0 0 0 0 2 1 1 1 1 0 1 0 1 1 0 1 1 1 1 1 2 2 2 1 1 3 4 0 2 3 3 0 2 2 0 0 3 0 0 1 3 0 0 1 2 1 1 2 1 0 1 1 2 1 1 1 0 1 0 3 2 2 2 1 1 1 1 3 2 2 2 0 1 2 2 5 1 2 3 1 2 1 1 1 2 1 2 0 1 0 0 0 1 2 0 1 1 0 0 1 0 2 2 2 4 2 0 0 4 0 2 0 2 1 3 2 2 3 2 2 0 1 3 2 0 2 1 1 2 0 2 2 1 2 0 0 3 1 2 1 1 0 1 0 1 2 2 1 2 1 0 4 2 2 1 1 2 2 1 1 0 0 3 3 2 2 4 3 3 0 2 1 3 2 1 2 2 1 3 0 0 1 2 1 0 0 1 2 2 2 3 0 0 4 1 0 2 1 1 2 1 3 1 0 1 1 0 0 2 1 0 2 1 1 1 2 0 2 0 0 1 1 1 4 1 2 4 1 0 2 1 1 0 1 1 2 1 1 1 0 2 2 1 3 0 0 3 1 0 3 1 1 1 2 2 1 1 0 0 0 2 2 2 1 0 2 1 0 1 0 1 2 0 0 1 1 1 0 0 1 1 1 2 1 2 2 3 2 2 1 1 2 0 1 1 1 2 3 0 1 1 4 0 2 0 2 3 2 1 2 1 3 2 0 1 0 1 2 2 1 1 0 0 1 0 2 2 1 2 0 1 1 0 3 1 1 0 1 1 1 0 1 1 0 1 1 1 3 3 1 1 2 0 1 1 1 1 0 1 2 1 0 1 2 2 1 0 0 1 2 2 1 1 1 1 1 1 2 2 4 1 1 2 1 1 0 1 0 0 1 2 0 2 1 1 3 1 4 1 0 1 1 0 1 1 2 0 1 2 1 1 2 3 1 1 1 2 1 2 2 2 1 0 1 2 2 0 2 1 1 2 2 1 3 0 2 1 1 2 1 1 1 1 0 0 1 0 2 2 2 2 3 2 1 0 0 2 3 1 1 2 2 0 2 1 4 3 3 2 1 1 1 0 1 1 1 1 2 2 1 1 2 0 1 2 1 1 0 1 2 0 0 0 0 3 1 0 1 2 1 1 1 3 3 1 1 0 2 2 1 0 1 2 0 3 1 2 2 1 1 2 1 0 1 1 1 1 1 1 3 2 3 3 2 1 2 1 1 1 1 1 1 1 1 1 1 3 1 0 2 2 0 1 0 3 0 0 3 1 1 1 1 2 3 3 0 1 1 2 4 2 0 2 1 3 0 0 1 2 1 1 0 2 1 2 2 1 1 1 2 0 0 0 1 2 0 1 0 0 0 1 1 2 0 2 2 2 2 0 1 1 1 2 0 0 1 3 1 0 1 2 0 2 0 0 0 1 1 0 3 2 1 2 2 2 1 1 2 0 2 2 1 1 2 2 1 1 1 1 1 0 1 2 3 2 1 1 2 1 0 3 1 3 0 1 0 1 1 0 0 1 2 0 0 0 0 1 1 0 0 2 2 1 2 0 2 2 2 1 0 1 3 0 2 1 1 1 2 1 2 1 3 0 2 1 1 1 0 2 2 1 0 1 0 1 0 2 1 1 0 0 2 1 1 1 0 2 2 1 1 0 2 0 2 2 1 2 2 0 3 0 2 3 1 2 0 0 0 2 0 2 1 1 4 2 0 2 2 1 3 1 1 2 1 1 1 3 1 3 1 1 0 1 2 2 1 2 1 1 0 2 3 1 0 2 2 1 3 1 1 1 2 2 2 1 0 1 3 1 2 1 1 1 1 3 2 1 1 2 2 1 1 2 2 2 2 1 0 1 1 2 2 1 1 2 4 0 0 1 1 1 2 1 0 1 2 1 1 1 0 0 0 1 1 2 1 0 0 2 2 1 1 2 1 0 2 0 2 3 1 1 1 1 1 1 0 2 1 1 2 2 1 0 1 2 1 1 0 2 1 2 2 3 1 2 2 0 0 2 1 3 2 2 0 2 3 1 0 2 3 0 1 0 1 1 2 2 0 0 1 2 1 1 1 0 1 2 1 1 2 0 1 2 1 1 1 2 5 0 1 0 0 1 0 0 3 1 2 0 0 0 2 2 4 0 0 0 0 2 3 2 1 1 2 1 2 1 2 1 0 2 1 1 2 3 1 1 2 2 2 0 1 3 1 1 1 1 2 1 1 1 2 2 1 0 1 1 2 1 1 0 2 1 0 1 0 2 2 1 0 1 0 3 0 1 1 1 3 2 1 1 1 3 0 1 2 0 2 0 2 2 0 0 2 1 1 0 2 1 2 1 0 1 1 0 1 2 0 0 0 2 1 2 1 1 1 0 1 1 1 1 2 2 2 0 2 1 1 2 3 1 4 1 0 1 1 1 0 1 1 0 1 2 3 1 0 0 0 2 1 1 0 2 1 1 2 2 3 1 0 2 1 1 2 2 4 1 1 1 1 2 2 1 1 2 2 0 1 2 3 1 1 1 3 0 1 0 0 0 1 1 1 2 0 1 1 2 1 1 3 4 2 1 0 1 0 2 2 1 3 3 1 1 1 3 2 1 1 1 0 1 2 1 1 2 2 2 0 0 3 0 1 2 1 3 1 0 3 2 0 2 1 1 1 3 1 2 1 3 2 1 1 1 2 0 1 0 2 1 0 1 2 1 1 1 0 1 1 1 0 1 1 2 2 1 2 0 3 3 1 1 2 1 1 2 1 1 2 2 2 2 1 2 3 0 2 2 0 0 3 1 0 1 2 1 2 2 0 1 1 0 3 0 3 0 2 1 1 0 2 0 2 1 1 0 0 2 1 1 2 2 1 1 2 2 2 1 2 1 1 0 3 2 2 1 1 0 1 2 1 0 0 0 1 2 3 1 2 1 0 1 6 2 3 0 0 0 1 2 0 3 0 1 2 2 1 1 1 1 1 2 3 1 2 1 0 1 1 1 2 1 3 0 0 1 2 0 0 3 3 2 1 2 1 1 0 2 0 1 1 0 4 2 1 0 2 1 1 1 1 2 3 1 0 0 1 2 2 1 1 0 1 1 1 1 3 1 1 1 2 2 3 2 1 0 3 2 0 3 1 2 2 0 2 2 0 0 1 3 2 3 0 1 0 1 1 2 2 2 1 1 1 0 3 2 2 3 0 4 0 1 1 0 2 2 2 1 2 0 3 2 1 2 1 3 1 0 1 1 2 1 1 1 1 2 1 3 0 2 1 0 2 1 1 0 1 2 1 1 1 1 1 1 1 3 1 0 1 1 1 4 3 2 0 1 2 2 1 0 0 2 1 2 0 2 1 0 2 1 2 2 3 4 0 0 2 2 0 1 1 1 3 2 0 2 2 4 1 1 3 0 1 2 2 1 1 1 2 1 2 2 3 2 1 2 1 1 2 0 0 2 2 3 4 2 0 1 0 1 1 3 1 2 2 3 1 1 2 2 3 2 2 1 2 2 2 1 2 1 2 3 1 2 1 3 1 0 0 3 1 2 0 1 1 3 3 1 0 2 1 1 2 0 2 0 3 1 2 0 2 2 2 1 1 1 1 1 1 2 0 1 1 3 0 0 1 1 2 1 0 3 0 0 2 1 2 1 0 0 0 1 2 1 1 0 0 2 1 1 0 1 0 1 2 1 0 1 1 1 1 2 1 2 3 2 1 0 2 2 1 0 2 0 2 2 0 3 2 2 3 0 2 2 2 1 1 0 0 2 1 0 2 0 0 1 0 1 2 1 1 2 0 0 0 0 0 3 0 0 1 0 0 0 1 1 3 1 1 1 3 2 2 2 2 1 0 1 1 3 0 0 2 1 0 1 1 0 1 2 0 2 2 0 1 0 1 1 1 1 1 0 2 1 1 1 0 3 1 2 1 1 0 0 2 0 3 2 1 1 1 2 1 4 1 1 4 1 1 0 1 1 3 1 1 1 2 3 0 1 0 0 0 3 0 0 1 0 0 0 1 0 2 2 3 0 1 3 2 1 2 1 1 2 2 2 1 1 1 1 1 2 3 0 2 2 0 2 3 2 2 1 2 4 1 2 0 1 0 1 0 0 1 0 3 0 2 2 1 2 3 3 1 3 3 1 3 1 2 1 2 3 2 1 4 2 2 1 1 1 2 1 2 1 0 0 0 2 0 1 0 0 1 3 1 2 0 0 0 1 1 1 1 0 0 3 2 2 1 0 1 1 1 2 1 2 2 1 1 1 3 0 2 0 4 1 3 3 0 0 0 2 1 1 0 1 2 1 0 4 3 1 3 0 2 1 0 0 1 1 1 2 2 2 0 1 1 0 1 1 0 3 2 3 0 0 1 0 1 2 2 1 1 3 1 1 1 2 4 2 3 3 0 3 1 2 0 2 1 2 1 0 2 1 0 4 0 2 0 2 1 3 2 2 0 0 2 1 0 1 1 2 4 2 0 0 2 3 1 3 0 0 4 0 3 0 1 1 2 2 3 2 2 0 3 2 0 2 1 1 1 1 1 2 2 0 4 2 0 1 1 1 1 0 1 1 2 1 2 3 0 1 1 2 1 2 1 2 0 3 1 1 2 3 3 2 0 2 0 1 1 1 1 1 0 2 1 0 0 0 1 0 0 3 3 1 1 0 2 2 1 0 1 1 0 1 3 0 2 2 1 1 4 1 2 0 2 2 2 1 1 1 3 2 1 3 1 2 2 2 2 1 4 1 0 1 0 3 1 0 1 2 0 1 2 2 0 2 2 1 0 1 1 2 0 0 1 2 2 0 1 1 2 2 1 0 1 1 0 1 3 0 1 1 1 2 1 1 1 2 1 2 3 0 1 1 0 1 0 1 1 1 3 2 1 0 1 1 1 2 1 1 0 1 1 0 0 1 2 1 0 0 0 1 3 1 1 2 1 2 2 2 1 0 2 1 1 0 2 2 2 1 1 3 1 1 2 1 0 1 2 2 2 0 2 1 2 0 2 1 0 3 2 1 2 3 1 0 0 1 0 1 1 1 1 2 1 2 0 1 1 1 0 1 2 1 2 3 1 1 1 2 2 0 0 2 2 2 0 2 1 2 1 2 1 3 1 2 0 3 1 2 0 2 3 1 1 1 0 1 1 2 2 1 0 2 1 1 2 2 0 4 1 1 3 0 0 2 3 0 1 1 3 0 3 1 1 2 1 1 2 1 5 2 0 0 2 2 3 2 0 0 2 3 3 1 1 2 0 1 1 3 2 2 2 4 1 0 1 1 1 1 0 2 2 1 0 1 0 3 2 1 0 1 1 2 4 2 3 3 2 0 3 0 1 1 1 2 2 3 3 1 3 1 1 2 1 1 1 1 2 1 2 3 1 4 3 0 1 0 1 3 0 4 1 2 1 0 1 2 0 1 0 1 2 1 2 4 2 3 1 1 1 2 2 3 2 2 2 1 3 1 1 1 0 2 1 1 2 1 2 1 1 1 0 2 2 2 1 4 2 1 1 2 0 1 0 1 2 0 0 0 1 1 1 3 1 1 0 0 1 1 1 2 2 3 2 2 0 0 0 1 1 2 2 2 2 1 1 2 0 2 1 1 1 3 0 1 2 1 2 0 0 1 2 2 0 3 0 2 1 0 1 2 2 1 1 1 4 1 1 2 2 1 2 1 0 0 0 2 2 1 0 3 0 0 1 2 1 1 2 0 0 2 0 1 1 1 1 3 2 2 1 2 1 2 1 2 0 3 1 1 1 2 1 2 0 0 0 3 2 0 1 1 2 0 1 2 1 0 2 2 0 0 2 0 1 1 2 2 2 1 3 3 1 0 1 1 0 1 2 1 0 1 0 0 3 1 2 2 0 2 1 1 0 0 1 1 0 0 2 2 2 0 3 0 1 2 4 2 1 0 1 3 1 2 2 4 1 1 1 3 1 2 3 1 2 1 0 0 2 1 3 1 1 1 0 0 0 0 1 2 0 2 0 2 2 1 1 1 0 2 5 1 3 1 0 0 1 1 0 0 1 0 2 1 2 3 0 1 0 1 1 1 0 2 1 2 2 0 1 4 3 1 1 2 2 2 2 1 1 1 2 3 0 0 2 0 0 1 1 1 1 1 2 2 0 1 1 1 5 1 1 1 1 1 2 2 1 3 1 2 0 2 1 2 2 2 2 0 2 1 3 0 2 1 1 1 1 0 2 2 1 2 0 3 1 3 2 2 0 1 2 1 0 3 1 1 2 2 3 0 1 1 1 1 1 1 0 1 1 1 1 2 3 1 1 1 2 0 1 3 3 2 1 3 1 2 0 0 2 2 0 1 1 2 1 0 1 2 4 3 2 1 2 2 1 2 1 1 1 2 1 4 1 0 3 1 1 0 4 0 1 4 1 1 1 1 1 1 0 2 1 3 0 2 1 1 1 0 2 1 1 2 3 3 1 1 3 0 1 1 1 3 2 1 0 1 2 0 0 1 0 1 2 1 1 3 1 1 0 1 2 1 1 0 1 0 0 1 1 2 1 0 1 2 2 0 2 0 1 2 0 4 1 1 0 3 1 0 2 1 2 0 1 2 2 4 2 3 0 1 2 1 2 3 2 0 4 1 3 2 1 0 2 0 1 2 2 1 1 2 2 2 0 2 1 3 1 0 1 1 1 0 0 4 2 0 3 1 0 1 2 2 1 2 1 1 1 2 0 2 3 2 3 0 0 1 2 1 1 2 1 1 0 1 0 1 3 1 4 2 2 2 0 1 0 2 0 0 1 2 3 2 1 1 3 1 1 0 3 2 0 1 1 4 1 2 2 3 2 2 3 4 2 2 1 3 2 4 1 1 1 0 1 0 0 2 3 0 2 2 1 1 1 2 1 1 1 1 2 1 1 2 0 1 1 2 0 1 1 2 4 3 3 2 0 0 2 1 2 1 1 0 2 1 1 0 0 2 1 1 1 0 2 2 3 1 1 1 2 2 3 0 0 2 0 1 1 1 1 0 2 0 1 1 1 2 0 2 1 1 1 1 3 2 0 0 2 1 4 1 2 1 2 1 0 3 2 1 3 0 1 3 0 0 1 2 1 0 1 1 0 0 2 2 1 2 1 1 2 0 2 0 0 1 1 1 1 1 1 2 1 1 0 0 0 0 1 1 1 2 0 1 2 1 2 2 0 2 2 1 1 2 2 3 2 3 4 1 2 0 2 3 0 2 1 0 2 2 3 1 1 2 1 2 3 2 3 1 2 0 1 1 1 1 2 0 1 1 0 1 2 2 2 2 0 1 0 0 2 2 1 0 0 2 2 1 0 1 1 1 1 0 1 2 1 1 1 0 1 2 1 2 1 3 1 1 3 1 1 2 0 1 1 1 1 1 2 2 1 2 2 1 2 3 1 3 1 2 1 4 2 1 2 0 1 1 1 0 3 2 1 1 2 2 0 2 1 1 2 1 1 2 2 0 4 3 1 2 0 1 1 1 4 0 0 0 0 2 2 1 0 1 1 1 1 5 0 2 2 2 3 1 1 0 2 0 1 1 4 0 0 1 1 1 2 0 1 3 0 3 0 2 0 2 2 1 0 1 4 2 2 3 0 0 2 0 2 0 2 2 2 0 1 0 3 1 2 1 1 0 1 1 0 2 1 1 1 1 1 1 3 3 2 2 1 1 2 0 1 2 0 1 2 1 3 0 1 2 1 2 0 0 1 2 1 0 0 0 0 3 3 1 0 0 1 5 1 4 1 2 0 0 1 1 2 5 1 2 1 0 2 5 3 1 2 1 1 2 1 2 0 0 1 1 1 1 2 1 1 2 2 2 0 1 1 4 2 1 1 1 2 2 1 1 0 1 1 1 1 1 1 1 3 1 2 0 0 2 1 1 1 2 1 0 2 1 2 3 1 3 0 2 1 0 1 3 1 2 1 2 1 2 1 2 2 2 1 2 2 0 2 4 1 2 0 1 1 1 2 1 0 1 0 0 3 2 1 2 0 0 3 2 2 0 0 3 1 0 2 0 1 0 1 1 2 0 3 0 2 1 0 0 2 1 1 0 2 0 1 1 1 2 1 0 2 3 1 1 2 3 3 1 1 3 1 1 1 1 3 1 2 1 2 2 2 1 0 2 2 1 1 0 1 4 0 1 0 0 0 1 1 0 2 0 1 3 2 1 1 2 3 2 1 1 4 2 0 2 2 2 2 2 2 0 1 2 0 2 2 0 1 1 0 4 2 1 2 1 2 1 3 1 2 1 1 3 3 1 0 0 0 1 2 0 0 3 1 0 0 0 1 1 2 2 3 2 2 3 1 4 1 2 1 3 0 1 1 1 1 0 2 1 1 1 1 1 0 2 2 2 2 3 2 3 0 1 0 1 3 1 2 2 0 4 1 2 3 1 1 1 2 1 1 2 3 0 4 2 0 1 1 1 0 1 3 1 1 0 1 2 1 1 0 0 2 2 2 2 0 3 0 3 0 0 4 1 2 1 2 1 1 2 1 3 2 1 0 2 4 1 1 2 1 2 0 1 2 3 1 2 0 1 1 2 5 1 2 2 0 0 0 1 0 2 3 0 0 1 2 3 2 2 2 0 0 0 2 1 0 1 2 0 2 3 1 2 1 1 2 0 0 1 2 1 2 1 2 1 2 2 2 0 1 1 1 1 1 1 1 2 1 1 1 1 1 1 1 3 1 0 0 0 1 2 1 1 3 1 3 2 1 2 1 1 2 1 0 2 2 3 2 1 1 2 1 2 0 1 1 4 1 1 1 1 0 2 1 2 2 3 2 3 2 1 2 2 1 2 1 0 3 1 2 0 1 1 1 1 2 1 1 1 1 1 0 2 2 1 1 1 1 0 1 0 1 2 2 1 2 1 2 1 1 1 0 1 2 3 1 1 1 2 2 2 4 1 2 1 1 0 3 2 0 1 2 1 1 1 2 1 2 3 0 1 1 0 1 1 0 2 0 2 2 1 3 1 1 1 5 0 3 0 0 0 3 0 0 0 1 0 2 1 0 1 0 3 3 1 2 0 1 4 1 0 1 2 1 2 1 1 2 1 0 2 1 3 3 3 3 0 1 1 1 3 0 2 0 1 1 1 0 2 2 2 2 2 3 2 2 0 0 1 1 0 1 0 1 0 2 0 1 1 2 2 2 2 4 0 4 2 0 1 1 1 1 0 2 3 1 0 2 3 0 2 1 0 1 2 2 0 1 2 0 1 0 1 1 1 2 2 2 2 0 1 2 0 1 4 1 2 1 2 2 2 1 2 2 2 1 3 1 2 0 3 1 2 2 2 1 3 1 3 3 1 1 0 0 1 2 1 3 0 1 0 1 2 0 2 2 1 0 0 1 2 1 3 1 2 2 0 1 2 1 2 1 2 1 0 3 2 1 1 1 4 1 1 0 1 2 0 0 1 1 1 2 0 4 2 1 2 0 2 0 1 1 0 0 2 1 1 1 1 1 2 3 1 0 0 1 3 3 0 3 2 2 0 3 3 1 1 0 1 2 2 2 1 1 0 1 2 1 1 1 3 2 3 2 2 1 3 1 2 0 3 0 1 1 1 0 2 1 0 1 2 1 1 1 2 2 1 2 2 1 2 2 1 1 0 1 0 0 1 2 0 1 2 1 2 4 0 3 0 1 2 2 2 1 2 3 0 0 2 1 3 1 1 2 1 1 0 1 4 1 1 2 0 1 0 1 1 1 2 3 0 1 1 1 2 1 2 2 2 2 3 5 2 0 2 2 3 1 1 2 2 0 1 3 1 3 2 1 1 2 1 0 1 2 1 0 2 2 0 2 3 1 2 0 0 2 0 2 0 3 1 0 1 2 1 2 0 2 2 2 1 1 1 3 1 1 1 1 0 1 1 1 0 1 1 3 0 2 0 3 1 1 0 2 4 2 0 1 2 2 0 2 2 2 1 0 0 1 2 4 1 1 1 0 1 0 1 0 0 0 1 2 2 0 1 1 2 0 1 1 1 1 3 2 2 2 2 4 0 2 1 2 3 3 1 3 1 2 2 2 2 1 1 1 3 2 3 0 0 1 0 0 1 0 1 1 2 0 1 2 2 2 2 0 1 1 3 1 0 1 2 1 0 0 1 2 0 2 1 1 2 1 1 2 0 0 1 2 3 1 0 1 1 1 0 2 3 1 0 2 0 3 2 0 3 1 0 0 1 1 0 2 0 2 0 1 1 3 1 0 1 0 1 1 2 1 1 1 2 2 1 2 1 2 2 2 3 2 1 1 1 1 1 1 2 1 2 0 1 2 1 2 2 1 2 0 1 2 1 1 4 1 0 3 1 1 2 1 0 2 3 1 3 2 0 0 1 0 1 1 0 2 1 3 2 0 0 2 2 0 1 1 1 1 3 0 0 0 0 3 1 2 2 1 0 1 0 1 1 0 0 2 1 2 2 0 1 2 0 1 1 2 2 0 1 1 2 1 0 0 0 4 1 1 2 0 1 2 2 2 1 1 2 0 1 2 1 1 1 1 1 1 3 2 1 0 1 2 1 1 2 1 2 3 1 0 0 2 3 2 0 0 2 2 3 0 1 2 2 0 1 2 1 2 0 3 1 2 1 2 1 0 0 2 0 2 1 2 0 1 3 0 1 2 2 1 3 0 1 2 1 1 0 1 2 0 4 2 2 0 2 1 0 1 4 0 0 1 1 1 2 3 0 1 1 0 0 1 1 0 2 1 0 1 3 1 2 2 0 1 0 1 0 0 0 3 3 2 0 1 3 1 0 0 2 2 2 1 2 2 3 0 0 2 2 3 2 3 2 0 0 2 1 2 1 2 0 1 2 2 1 0 1 5 2 2 2 3 2 1 1 0 4 2 2 1 2 1 2 1 1 2 1 2 2 2 3 1 1 2 2 3 0 3 3 2 0 0 1 0 0 1 1 2 1 0 3 2 1 1 2 2 2 0 1 1 1 2 1 4 1 0 2 1 1 2 2 0 1 1 0 4 0 1 1 2 1 1 1 2 1 2 0 0 2 1 2 4 1 0 0 0 1 0 0 2 2 0 1 1 1 0 2 1 1 2 0 0 0 1 1 4 0 2 1 2 1 1 1 1 1 0 1 1 0 1 1 2 1 0 1 1 2 2 2 2 3 1 2 2 2 0 0 1 2 2 0 1 1 0 0 1 0 1 3 0 2 2 1 2 0 1 2 0 1 0 1 4 2 3 2 2 1 1 3 3 2 3 3 2 1 3 2 1 1 0 1 2 4 0 3 1 2 0 1 1 2 0 0 0 1 0 0 1 2 0 1 2 2 1 3 0 2 2 1 2 3 1 1 1 1 1 2 1 1 1 2 2 1 2 0 2 1 2 2 1 1 1 4 3 2 1 0 2 1 0 1 1 1 1 0 2 2 0 1 0 1 1 0 2 2 0 2 3 2 2 2 1 2 1 1 1 3 0 1 1 1 1 0 2 0 0 1 1 2 1 0 1 2 2 1 1 2 2 1 2 1 2 3 0 2 0 0 1 2 0 0 3 1 1 1 0 0 2 1 1 2 2 1 1 2 0 2 0 3 1 0 0 0 3 2 3 1 2 2 2 2 3 3 1 0 1 0 2 2 1 2 1 0 2 1 1 4 1 2 2 1 2 1 3 2 0 0 4 1 2 1 1 2 0 4 1 0 0 1 0 1 2 1 1 1 3 1 1 2 0 2 3 1 2 0 1 0 2 5 1 3 2 3 3 2 2 1 0 1 1 2 0 2 2 1 1 3 3 3 2 2 1 0 1 2 2 1 2 1 2 1 1 1 0 1 2 3 1 0 3 1 1 1 1 2 1 1 2 0 0 0 1 2 1 0 0 3 0 1 1 0 2 2 3 1 0 1 2 1 2 2 0 2 1 1 0 0 2 0 1 0 2 1 2 1 1 2 1 3 1 1 3 0 1 1 0 2 1 1 0 3 1 0 1 1 2 1 1 2 1 0 3 4 0 1 0 1 1 0 3 1 2 0 0 2 1 4 1 1 2 0 1 0 3 2 1 0 2 2 0 2 1 1 1 0 1 2 2 0 3 0 0 2 0 2 1 3 2 2 2 2 1 2 2 1 2 2 0 1 1 1 2 1 0 1 2 2 1 2 0 2 2 1 2 0 2 1 0 0 2 1 1 6 1 0 0 2 0 1 1 2 2 2 0 3 2 1 1 2 1 2 1 1 1 2 1 1 0 0 0 0 2 2 0 1 3 1 2 2 0 3 1 1 3 1 3 1 0 0 4 1 1 0 0 1 1 1 1 1 0 2 1 1 0 3 1 1 0 1 1 0 0 0 1 1 2 1 1 4 2 0 3 2 1 1 3 2 2 2 3 0 1 2 1 2 1 1 1 2 1 1 1 3 1 0 4 0 3 2 2 2 1 1 3 3 1 2 1 1 2 2 3 1 0 2 1 3 2 1 1 2 1 0 1 2 2 1 2 1 1 1 1 0 2 3 1 3 1 0 3 1 1 1 1 1 1 1 1 1 3 1 2 2 2 2 1 3 1 3 1 1 2 2 2 0 1 0 2 2 0 2 0 1 2 1 1 2 1 1 1 1 2 1 3 3 1 3 1 0 1 2 1 1 3 2 0 2 1 1 2 1 2 1 0 1 1 1 3 2 1 1 2 3 0 3 1 2 2 0 0 3 2 1 1 0 1 3 2 0 1 2 1 2 2 1 1 2 1 1 2 2 1 3 0 0 1 3 1 2 2 1 1 0 2 0 1 4 0 1 1 0 4 1 1 3 2 1 2 2 1 1 2 3 1 0 1 2 1 2 2 1 3 4 2 0 2 0 1 1 3 0 1 1 1 1 2 3 1 2 1 0 2 1 1 2 2 2 3 2 1 3 0 1 3 2 2 1 1 1 0 0 0 2 0 2 0 1 2 1 0 0 1 1 1 2 1 2 0 1 1 0 1 2 4 2 4 0 1 1 1 2 1 2 2 1 0 0 1 1 2 1 0 1 1 0 1 0 1 1 0 1 3 0 1 1 0 2 3 1 0 0 1 1 1 0 1 2 0 2 2 2 1 1 1 1 1 0 2 2 1 1 2 3 0 1 2 0 3 2 1 0 2 1 1 1 1 0 1 1 1 4 1 2 0 1 1 1 2 3 0 2 2 3 3 0 1 1 1 1 2 2 0 2 2 3 1 3 1 2 1 0 0 1 1 1 1 0 2 0 1 0 2 2 3 2 3 1 0 2 3 1 1 2 0 3 1 1 0 2 1 0 1 2 1 0 2 1 1 2 0 0 3 3 3 1 1 1 3 1 2 3 1 2 2 2 2 1 0 0 1 1 0 0 1 2 0 1 1 0 0 3 2 1 1 1 1 2 1 1 1 2 1 1 0 4 0 2 1 1 0 3 0 2 1 0 0 0 1 0 1 1 3 1 2 1 0 1 2 1 3 1 2 1 0 3 1 1 1 1 2 1 2 1 2 0 1 2 2 3 1 2 0 0 0 2 0 1 2 0 3 4 1 1 2 0 0 2 1 1 2 1 0 0 1 2 1 1 0 0 1 2 1 1 2 1 0 0 2 1 2 2 1 0 2 2 2 1 3 2 2 2 1 1 1 1 1 2 1 1 1 1 4 3 4 1 0 2 2 0 2 0 1 3 2 1 0 1 2 1 1 2 2 1 2 0 2 1 1 1 0 1 1 1 2 0 3 0 0 3 0 1 1 3 0 1 3 1 1 1 1 3 1 1 1 2 0 1 2 1 1 2 2 3 2 1 1 1 1 1 1 2 0 0 0 3 0 1 0 2 2 1 2 1 3 0 2 0 1 1 2 0 2 2 1 4 1 2 1 2 1 1 2 2 1 2 1 0 0 1 2 3 1 1 1 3 0 0 0 1 0 3 4 3 2 2 1 0 0 0 2 2 2 2 1 1 1 1 2 2 2 0 1 1 1 2 1 0 0 1 2 1 1 2 1 1 0 2 1 1 0 1 0 3 2 1 2 1 0 1 1 0 1 2 1 1 2 3 2 2 2 0 1 0 1 1 1 0 3 2 4 0 1 2 1 1 1 5 3 1 2 1 1 2 1 2 1 0 0 2 1 1 0 2 1 1 3 0 3 1 1 2 0 1 1 0 1 0 1 1 2 2 3 2 1 3 0 2 2 2 1 2 2 1 0 1 1 2 1 0 0 3 1 1 0 0 1 1 3 1 2 1 2 2 0 3 1 1 0 1 2 2 1 3 2 1 2 2 2 1 1 2 0 1 2 1 0 2 1 0 0 2 0 0 1 2 1 1 0 1 1 0 1 0 1 3 2 1 0 2 2 2 1 1 1 3 2 0 2 2 1 2 1 1 1 3 1 2 1 1 0 2 0 0 0 1 0 2 2 1 0 3 2 1 2 2 0 0 0 2 2 0 2 3 2 2 2 1 0 1 2 0 1 1 1 1 0 0 0 2 2 1 1 1 3 1 2 3 2 2 0 4 0 2 1 2 3 2 2 1 2 2 1 1 1 1 1 1 1 0 1 0 1 3 2 2 1 0 1 1 0 2 3 2 2 2 0 0 1 2 2 2 2 3 1 2 0 0 1 3 0 0 2 1 2 1 2 2 1 3 2 2 2 0 2 3 0 2 1 0 2 2 2 0 0 1 0 2 1 1 0 0 1 0 2 0 2 0 0 2 2 2 2 3 0 1 2 0 1 1 3 1 0 0 3 3 0 1 1 1 2 1 1 2 1 0 1 1 3 1 3 0 1 4 0 1 2 1 0 1 1 3 1 1 1 2 0 2 1 1 1 2 1 0 1 1 0 2 1 0 1 1 3 1 1 1 2 2 0 4 0 1 1 1 0 3 0 0 2 2 0 0 1 0 1 0 2 1 1 1 1 1 1 1 2 1 0 2 1 1 1 0 1 3 0 2 1 2 1 2 3 1 0 1 2 2 3 4 2 2 1 2 1 1 3 1 1 0 1 0 2 1 0 1 2 4 0 1 1 3 2 1 1 1 2 1 0 1 2 2 1 1 0 3 2 1 2 1 1 2 1 3 0 1 2 1 1 1 1 2 1 0 2 1 2 1 0 1 2 0 3 2 0 1 2 2 2 2 1 2 3 1 3 1 3 2 2 0 2 2 1 1 1 3 1 0 1 2 0 4 0 0 2 0 1 2 2 1 1 2 1 0 1 2 0 1 2 3 2 0 2 3 1 1 2 2 0 0 2 2 2 0 2 2 0 2 3 1 3 2 1 1 1 1 1 0 0 1 3 2 1 3 0 0 2 2 1 2 1 2 2 2 2 2 3 3 2 2 0 2 1 1 0 1 1 0 1 1 1 0 2 4 2 2 0 1 0 2 1 0 1 0 2 0 1 1 0 0 0 1 2 1 1 1 3 2 3 2 2 0 2 0 1 1 0 3 3 0 1 3 0 1 2 2 2 3 1 2 2 2 2 3 2 1 2 2 1 0 4 2 1 2 0 2 2 1 3 1 3 1 1 1 0 1 1 1 3 2 0 2 0 1 2 2 2 0 3 2 2 2 3 2 0 2 0 1 2 2 1 2 0 0 0 2 1 1 1 2 1 4 2 1 0 3 1 2 2 1 1 4 2 1 0 2 2 0 3 1 0 0 1 1 1 3 1 0 3 1 2 2 2 3 1 2 3 2 4 1 2 2 1 1 0 3 1 0 1 2 1 1 0 2 1 1 1 3 2 1 2 1 2 1 0 1 1 2 2 4 1 1 1 0 1 3 2 2 2 1 3 1 2 1 2 3 2 1 1 1 0 1 1 1 1 2 2 3 3 2 1 0 0 1 1 2 1 1 2 2 1 1 0 1 1 1 1 1 1 3 1 1 3 1 2 3 2 2 2 3 2 1 1 1 2 1 1 2 2 0 3 1 1 2 1 2 1 2 2 2 1 1 3 1 3 0 2 1 2 3 1 1 0 1 2 0 2 1 0 2 1 0 1 2 3 1 1 4 2 0 0 3 1 2 2 1 1 0 1 2 1 1 1 1 1 0 1 0 1 1 0 2 1 2 1 1 1 1 3 0 3 2 1 1 1 0 2 2 1 1 3 1 3 1 0 3 4 1 1 2 0 2 1 2 1 2 0 2 1 0 2 1 2 3 3 2 3 1 1 3 2 0 0 2 3 1 2 1 0 1 1 1 1 0 1 2 3 1 4 0 0 0 1 2 1 2 2 0 1 1 1 2 2 2 1 1 2 1 1 0 3 1 0 3 3 3 2 0 3 1 0 2 2 0 1 2 1 4 1 2 0 2 2 1 2 2 2 4 2 1 1 1 3 1 1 0 1 1 2 2 3 2 1 0 0 1 2 2 1 1 3 1 1 1 0 1 1 2 1 1 2 1 1 1 0 2 3 1 1 1 3 1 1 2 4 2 2 1 2 0 2 1 2 2 2 0 2 0 2 1 1 0 1 2 5 3 3 0 1 1 2 1 3 1 1 0 1 1 2 1 3 1 1 0 0 1 2 1 1 2 0 1 4 0 1 1 1 3 0 4 0 2 2 2 0 1 0 1 5 0 2 2 1 1 0 3 0 0 1 2 1 1 2 3 2 0 1 1 1 0 0 2 0 1 1 0 1 2 1 3 3 1 2 1 1 2 3 1 2 1 1 2 0 1 1 2 0 2 2 0 3 0 1 1 3 1 0 1 0 3 1 1 0 1 2 1 1 1 1 1 2 1 1 0 1 1 3 1 4 0 2 1 2 1 1 0 0 2 1 1 2 2 2 2 0 2 1 2 1 1 2 1 0 2 2 1 2 0 1 0 1 1 2 0 3 2 2 1 1 1 1 0 2 1 0 1 1 0 2 1 1 2 3 1 3 2 0 1 1 0 1 1 0 2 2 2 1 2 2 3 1 1 1 2 2 0 0 0 1 2 2 1 0 0 3 3 0 0 1 1 2 1 2 1 0 2 1 0 1 2 1 0 1 2 2 0 1 0 2 0 2 2 1 3 2 1 1 3 1 2 2 2 2 2 2 1 1 0 0 2 0 1 1 1 2 1 0 3 0 1 1 1 1 0 1 1 2 2 2 0 2 2 3 3 0 0 0 1 0 2 1 2 1 1 3 4 5 1 1 2 1 0 0 1 2 4 2 2 2 0 0 0 4 1 1 3 1 1 1 0 1 2 0 0 1 3 2 3 0 0 1 2 0 1 4 1 0 0 0 0 1 2 0 2 0 1 3 1 2 2 2 0 1 2 1 2 3 3 2 0 1 3 0 2 2 0 1 2 0 1 1 2 2 0 2 0 0 2 3 1 1 1 1 1 0 0 2 1 1 1 2 2 1 0 2 1 1 1 2 0 0 0 2 0 0 1 0 2 1 2 1 1 2 1 1 1 3 1 1 1 1 2 1 0 2 0 2 0 0 2 1 2 0 1 3 3 1 2 2 0 1 1 0 0 3 1 1 1 1 3 2 3 0 0 2 0 2 3 2 0 2 2 0 2 0 1 1 1 1 1 2 1 1 0 2 1 0 2 0 0 3 0 2 1 1 1 0 2 2 2 1 1 1 1 0 1 1 1 2 1 0 1 0 2 2 0 1 1 1 4 3 3 1 2 1 2 1 1 1 1 3 1 1 2 1 0 1 1 1 2 2 0 2 1 2 0 1 0 2 0 1 1 1 0 1 0 2 1 2 1 2 0 3 1 1 1 2 0 0 2 2 3 1 4 2 0 1 1 1 2 0 1 3 1 2 2 0 3 2 0 4 4 1 1 1 2 1 1 2 1 0 2 2 2 0 3 0 1 0 1 1 0 1 2 2 1 0 1 0 2 1 4 1 1 2 2 0 1 2 0 3 4 0 1 0 1 2 2 2 2 1 3 2 0 1 2 0 2 2 2 2 1 2 2 2 2 1 1 1 0 1 1 0 0 2 1 2 0 1 2 0 0 4 1 1 0 1 2 1 3 3 3 2 1 0 1 2 1 1 2 1 3 3 2 0 2 1 1 2 3 1 0 1 4 0 0 1 1 0 1 1 2 2 3 1 1 2 1 2 1 1 2 1 1 2 2 1 1 1 2 2 2 3 2 2 1 2 3 1 0 2 0 1 3 1 1 1 1 3 2 1 1 0 0 0 1 0 1 1 1 0 1 2 1 1 2 6 2 0 2 1 0 0 2 1 1 1 1 2 0 2 0 3 2 1 1 1 3 2 3 1 1 1 2 0 0 0 1 0 2 2 1 0 1 3 1 0 1 1 0 2 2 0 1 1 3 1 4 0 0 1 2 2 2 1 3 2 3 1 2 4 3 0 3 2 1 2 0 0 0 1 2 1 0 0 3 2 0 0 0 2 1 2 1 1 3 1 0 1 1 3 1 1 0 1 0 1 2 1 0 2 0 1 2 0 1 1 0 2 1 1 2 2 1 1 1 0 0 1 0 0 1 3 0 3 0 4 1 1 0 1 2 1 2 2 1 0 0 2 0 1 0 2 1 4 2 1 1 1 1 3 2 2 1 2 1 1 1 0 0 1 0 2 2 2 2 2 2 2 1 3 0 3 2 3 1 0 1 1 2 3 1 0 1 2 0 1 1 2 1 2 1 2 4 3 2 2 0 3 1 1 0 1 2 3 1 2 2 1 0 2 0 0 0 1 2 1 1 3 1 1 1 1 1 1 1 1 1 0 3 2 3 0 1 2 3 0 3 0 0 1 2 3 1 2 2 1 2 0 0 1 2 1 1 0 1 1 2 1 2 2 0 0 2 2 1 1 2 1 1 2 2 1 1 2 1 2 2 1 2 2 2 0 0 1 2 1 1 1 0 3 2 2 0 0 1 1 3 2 2 1 1 1 1 2 2 2 1 1 1 3 0 1 1 0 0 2 2 3 3 1 3 1 0 1 1 1 1 2 0 2 2 2 2 2 1 1 1 3 1 1 2 1 3 3 1 1 0 2 1 1 1 1 1 1 1 2 3 1 0 3 1 1 2 1 2 2 1 2 2 0 3 2 2 2 1 2 1 0 2 1 3 3 2 3 2 0 0 3 2 3 0 1 1 3 1 2 1 1 2 3 0 0 3 2 1 2 2 0 1 1 1 1 2 2 2 2 1 1 1 0 2 1 3 3 1 1 2 1 1 2 0 0 0 3 2 1 1 1 0 2 3 1 0 1 1 1 1 3 2 0 1 1 0 2 3 1 1 1 1 0 2 1 0 3 1 1 1 1 2 0 2 2 1 0 0 2 2 2 3 2 2 1 2 3 1 1 4 0 0 0 1 0 1 1 0 3 2 0 3 1 1 2 1 1 0 3 3 2 1 2 2 3 1 1 3 1 1 2 2 1 3 1 2 1 1 3 0 0 1 2 2 1 1 1 2 0 0 1 1 2 1 2 2 2 2 4 1 0 2 1 1 1 1 2 1 1 1 1 0 1 3 2 1 3 0 0 1 1 1 2 1 0 2 0 1 1 1 0 0 2 3 0 2 3 1 1 2 3 0 2 1 2 2 1 1 3 1 2 1 1 2 3 1 2 2 0 1 1 3 0 2 2 1 1 0 1 1 2 1 0 1 1 2 2 3 0 1 2 5 1 3 2 2 1 0 0 3 1 2 1 1 2 1 1 2 1 1 2 1 3 2 2 3 2 0 2 1 2 1 0 2 2 1 2 3 3 2 1 1 2 3 1 0 0 5 1 4 2 0 0 1 1 2 3 1 0 1 2 2 1 2 0 1 2 1 2 3 0 3 1 2 1 1 0 0 2 2 2 0 0 0 3 2 0 3 2 3 2 2 3 0 2 2 1 1 3 2 1 0 1 2 0 1 1 1 1 1 1 1 1 1 3 2 2 1 2 2 0 2 1 1 2 1 1 2 1 2 1 1 1 3 1 1 1 2 1 2 0 1 0 2 3 1 2 0 2 1 0 0 0 2 1 3 0 0 0 0 3 2 0 2 2 0 3 1 2 3 1 1 0 3 1 0 1 0 2 2 3 0 2 0 2 1 2 0 2 2 2 2 0 1 1 1 1 1 0 0 1 2 1 1 3 2 1 1 0 3 2 1 1 2 0 3 2 3 1 2 1 1 1 3 1 3 0 1 2 2 0 2 0 2 1 2 2 3 1 1 0 0 1 3 1 1 0 2 0 2 0 1 0 2 1 1 1 1 3 1 0 1 1 2 2 1 0 2 2 0 1 0 1 2 1 1 0 1 1 2 1 1 2 3 0 0 1 3 2 1 4 2 1 1 0 3 2 1 0 3 1 1 2 3 1 3 3 3 1 2 1 0 1 1 1 1 2 2 1 2 1 1 1 1 0 1 0 0 0 2 0 1 2 2 1 4 2 1 0 3 4 0 0 2 2 2 2 1 1 2 2 1 3 1 0 1 1 0 1 2 1 1 2 0 2 0 0 1 3 1 0 0 1 2 0 2 2 0 0 3 3 3 2 2 2 1 1 0 2 0 0 1 3 1 1 2 3 0 2 1 1 1 1 1 1 2 2 2 0 2 2 0 2 1 2 1 3 1 2 3 1 1 2 1 0 2 1 1 1 0 2 1 0 3 2 0 0 2 4 1 2 0 1 1 2 1 2 1 1 1 1 1 4 3 3 1 3 0 0 1 0 1 1 1 1 3 1 2 3 2 2 1 1 1 1 1 3 3 1 2 1 1 4 2 0 3 1 0 1 1 4 2 1 1 0 2 0 0 3 1 2 3 0 1 3 1 2 1 1 0 1 1 0 1 0 3 2 0 1 0 5 0 1 0 2 1 0 0 2 2 1 2 2 2 1 2 2 1 1 3 1 2 1 2 0 0 0 2 0 2 4 1 0 0 2 0 0 2 2 1 1 0 1 0 2 0 1 2 0 1 0 0 3 1 0 1 5 3 1 1 0 1 1 0 0 0 2 1 3 3 2 1 1 2 1 2 3 0 1 0 1 4 2 2 1 0 1 1 1 2 1 3 1 1 0 2 1 4 1 2 1 3 3 2 3 3 1 3 0 1 2 1 1 1 3 1 2 2 0 1 0 1 0 1 0 1 2 2 1 0 1 2 1 2 2 0 0 0 1 3 1 0 3 2 0 3 0 1 0 2 1 0 2 0 0 1 1 2 1 3 2 2 2 2 1 1 1 0 2 2 1 0 2 1 2 3 1 1 2 2 0 1 1 2 2 3 1 0 1 1 2 1 2 2 2 1 0 1 1 2 1 2 3 0 2 2 0 2 1 0 3 2 0 1 0 1 2 2 3 1 0 2 1 0 0 3 3 1 0 3 1 2 1 1 2 2 2 0 1 1 1 3 0 1 1 2 0 2 2 3 1 2 1 0 2 1 3 0 1 1 1 2 1 0 0 0 1 3 1 2 3 1 0 2 0 1 3 0 0 1 2 2 2 1 1 1 0 3 2 2 1 2 1 1 3 0 1 4 0 2 1 1 2 0 2 0 1 2 0 3 2 1 0 2 0 0 0 1 0 2 2 1 2 2 0 1 2 0 3 2 1 2 2 3 2 1 0 2 0 2 2 3 1 0 3 0 1 2 1 2 2 1 2 1 1 2 2 2 1 4 1 1 0 3 0 0</t>
-  </si>
-  <si>
-    <t>GAM(0.25760674121783067, -9.386493686861276e-29, 0.5938776200600451)</t>
-  </si>
-  <si>
-    <t>0 0 1 1 1 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 2 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 2 0 0 0 2 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 1 2 0 0 0 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 1 1 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 2 0 0 0 1 0 0 1 2 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 3 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 2 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 2 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 3 0 1 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 2 0 0 1 1 1 1 0 0 0 0 2 1 0 1 0 0 0 2 0 0 2 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 3 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 1 1 0 1 0 1 0 0 1 0 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 2 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 1 0 0 1 1 1 1 0 2 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 2 1 1 0 0 0 0 0 0 0 1 0 1 1 2 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 2 0 0 0 1 0 0 0 1 3 2 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 2 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 1 2 1 0 0 1 0 0 0 0 1 0 0 0 1 2 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 2 0 0 0 1 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 3 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 3 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 2 1 0 2 0 0 0 0 1 1 2 0 2 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 2 0 0 1 0 1 0 2 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 1 0 2 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 2 0 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 2 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 1 1 0 2 1 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 2 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 2 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 2 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 2 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 2 0 1 1 0 2 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 1 0 0 0 2 2 0 0 0 0 3 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 2 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 2 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 2 0 1 1 0 1 1 1 0 0 1 0 0 1 0 0 2 2 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 1 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 1 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 3 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 1 2 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1 1 0 1 1 0 0 0 1 0 0 0 2 0 1 0 0 0 2 1 0 0 0 0 1 1 1 0 0 0 0 0 0 2 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 2 3 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 2 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 3 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 2 0 0 0 0 2 1 2 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 2 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 2 1 1 0 0 0 0 0 0 0 0 2 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 3 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 2 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 2 1 2 0 1 0 1 0 0 0 1 1 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 1 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 1 0 0 0 2 1 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 2 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 2 0 0 0 1 1 0 2 1 2 1 0 1 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 2 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 2 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 0 0 2 0 0 2 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 2 0 0 0 0 1 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 1 0 2 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 2 0 1 0 0 0 2 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 3 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 2 0 3 0 1 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 1 1 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 1 1 0 0 0 1 0 0 2 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 1 2 0 0 1 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 2 0 0 0 0 0 2 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 2 0 3 0 1 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 2 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 0 1 0 2 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 2 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 2 0 0 1 3 0 0 1 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 1 2 1 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 2 1 0 1 0 1 0 0 2 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 3 1 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 1 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 3 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 3 0 0 0 0 0 0 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 2 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 2 0 0 2 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 2 1 0 0 2 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 2 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 1 2 0 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 3 0 0 0 0 0 1 1 0 1 3 0 0 1 0 0 0 0 0 0 2 3 1 0 1 0 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 1 0 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 1 0 1 0 3 1 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 2 0 0 0 0 0 1 1 0 1 0 2 1 0 1 1 0 0 0 1 0 1 2 0 1 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1</t>
-  </si>
-  <si>
-    <t>JSB(3.7599213233460933, 3.614690544021893, -85.42792855177609, 726.8818396790487)</t>
-  </si>
-  <si>
-    <t>92 103 74 72 140 136 109 72 136 64 139 102 109 175 35 113 223 163 87 34 76 80 84 122 25 133 80 86 89 138 175 129 64 137 147 106 65 100 61 161 67 118 61 20 38 82 152 80 17 139 118 25 79 89 90 105 193 154 174 96 48 99 72 149 97 52 99 103 72 71 78 85 90 113 127 162 106 91 78 102 60 148 99 122 103 85 131 54 140 125 121 111 145 75 125 185 86 66 124 69 134 105 34 121 118 57 149 107 220 222 67 88 90 95 129 99 120 64 106 137 52 144 108 37 108 51 143 144 34 129 75 78 143 86 88 68 134 58 84 140 139 102 79 76 86 102 73 236 141 114 162 128 54 140 92 101 70 143 28 43 99 127 55 52 88 100 156 82 92 193 119 137 72 75 149 112 195 66 82 111 100 66 83 109 102 119 105 173 97 84 65 148 73 116 59 35 91 105 84 83 86 119 42 99 69 103 171 61 113 116 175 115 100 97 32 42 130 151 79 90 98 103 84 70 109 126 155 174 42 116 63 147 90 192 72 125 42 62 103 113 87 65 44 106 90 83 87 136 112 127 50 146 114 166 14 76 124 105 104 154 117 80 85 146 74 74 177 101 94 106 141 137 131 153 57 140 71 109 85 60 60 85 83 142 123 95 93 93 51 73 83 142 66 128 218 94 149 120 195 80 102 96 67 42 146 56 60 168 101 130 91 90 108 109 109 54 50 82 134 57 127 150 127 141 59 117 151 83 109 121 139 158 65 103 15 71 52 146 154 122 143 69 104 103 129 143 113 122 112 126 152 142 100 51 81 165 82 47 48 151 71 130 84 164 76 111 8 129 49 140 59 153 75 53 169 120 38 104 109 136 147 151 88 65 91 63 64 53 131 116 125 114 144 106 78 141 146 92 155 101 88 130 74 138 121 104 105 53 50 175 26 164 85 165 108 168 69 56 104 66 92 140 118 108 155 92 99 54 44 97 39 77 119 107 100 90 89 66 122 87 141 80 121 168 102 130 42 87 113 120 90 105 125 93 40 70 81 125 130 46 55 99 91 104 90 154 108 84 135 27 120 104 67 141 93 40 130 83 187 84 138 69 55 53 77 44 108 93 66 145 71 102 108 34 92 123 111 86 91 138 107 117 163 166 89 86 127 120 65 119 64 98 79 127 110 96 157 81 89 57 69 82 86 178 159 139 78 87 154 109 129 59 96 110 154 131 64 84 95 120 120 70 73 215 111 130 84 135 107 98 109 142 55 77 131 104 74 269 133 101 112 197 105 112 132 71 80 134 143 92 78 181 103 66 92 124 81 150 104 48 120 136 165 205 103 95 122 151 61 98 52 83 58 138 124 93 61 78 80 145 75 140 61 37 73 136 102 100 92 69 98 137 169 106 132 97 155 115 93 77 68 125 82 27 95 74 141 89 141 125 104 94 93 132 151 204 76 146 58 142 82 143 102 121 191 158 77 125 83 112 105 158 120 110 152 83 121 105 153 92 126 50 129 34 139 67 125 79 65 87 98 129 156 111 98 113 123 106 120 95 88 143 148 46 58 100 65 103 123 136 88 113 160 89 77 148 79 82 120 140 114 169 127 154 170 51 77 36 130 111 117 122 189 67 58 123 161 55 155 117 147 67 109 89 29 152 128 72 53 75 92 97 109 80 89 114 196 16 69 67 114 109 87 153 126 152 141 87 84 98 99 44 48 106 77 111 138 33 134 109 198 119 171 120 103 139 86 112 171 147 99 174 58 70 98 71 96 47 117 96 75 93 71 138 38 94 77 106 66 38 100 53 111 98 77 89 55 117 118 66 100 133 130 107 87 109 223 170 132 106 142 139 57 96 52 100 49 123 151 130 126 83 74 66 61 59 105 136 106 159 59 195 100 161 106 46 127 123 108 147 108 128 103 134 78 103 67 156 97 121 113 135 86 137 165 53 105 77 58 71 156 126 83 88 110 83 61 158 171 34 87 127 80 59 111 83 91 104 76 91 78 161 81 173 83 102 96 174 139 60 42 92 123 48 106 33 108 111 85 69 139 99 85 214 94 110 85 173 93 127 64 121 129 72 148 67 151 127 139 28 116 61 54 91 103 81 73 132 190 95 131 123 92 179 155 98 177 172 136 99 97 51 185 65 40 27 122 139 79 220 117 49 122 105 128 144 157 149 194 146 60 159 113 191 94 87 75 131 115 77 68 65 123 135 107 39 105 85 96 79 40 74 99 92 61 81 68 183 165 77 80 81 145 136 172 79 50 166 159 111 123 120 110 120 147 124 59 118 146 124 127 162 170 103 116 122 111 143 139 54 111 89 31 148 51 188 76 90 95 71 97 101 70 117 107 118 96 91 132 50 211 78 71 94 114 74 104 101 98 81 145 106 83 94 42 34 135 178 184 151 100 107 141 10 93 63 72 153 68 68 112 85 62 121 85 149 83 139 119 105 75 230 107 72 47 92 110 62 171 116 78 154 88 112 80 85 97 88 94 90 142 115 194 164 92 143 67 108 104 136 111 147 191 83 95 39 175 199 94 163 96 148 109 161 53 51 100 88 144 173 119 85 151 89 177 92 53 107 58 128 160 93 30 117 113 118 128 68 173 55 106 131 51 152 101 92 57 52 101 138 85 87 62 116 89 115 64 154 69 24 55 109 152 78 127 114 96 77 111 48 102 131 161 156 55 75 53 77 86 107 154 87 118 116 60 127 54 96 112 126 154 54 130 144 168 70 44 136 51 92 101 125 122 101 114 123 79 115 94 149 110 89 61 82 76 77 67 138 78 99 73 164 51 126 158 17 73 215 88 158 71 181 130 153 72 144 114 83 136 93 160 105 114 147 100 106 166 68 138 85 89 115 203 112 48 106 110 77 112 93 172 84 120 89 95 98 108 100 31 100 98 86 120 124 110 105 110 93 39 48 117 104 98 136 95 49 130 79 113 106 34 111 128 112 129 118 146 179 69 139 218 73 128 59 104 77 97 140 65 111 106 138 73 103 165 57 116 63 102 68 114 82 131 172 200 103 18 154 82 115 138 124 131 156 128 52 177 49 28 85 133 87 199 122 84 96 137 105 234 123 94 74 50 116 130 71 123 85 88 181 247 109 129 64 111 146 200 71 141 168 112 142 224 103 76 119 150 131 58 125 136 99 124 52 19 74 121 79 89 122 153 81 86 103 126 43 86 155 89 87 80 60 123 97 182 152 53 182 108 94 101 118 100 162 180 129 112 77 37 129 97 41 133 132 185 115 87 105 95 141 94 180 106 150 90 134 147 127 85 77 78 82 102 111 97 110 95 68 128 122 76 74 123 92 114 90 121 110 86 113 159 149 82 120 74 169 112 134 151 149 133 127 88 144 88 88 169 140 28 133 55 73 102 91 132 110 82 129 115 60 87 155 133 136 150 93 122 116 112 81 101 99 101 54 182 75 123 161 105 121 124 130 85 79 80 72 32 93 167 97 95 131 45 142 91 86 130 130 99 62 84 136 79 115 106 82 126 94 59 117 131 190 202 98 126 102 35 117 123 90 113 46 95 137 76 111 46 123 51 35 226 114 115 84 82 34 78 63 50 37 118 70 143 107 156 134 71 84 95 113 189 83 62 57 93 77 129 72 126 83 84 162 126 153 177 71 149 128 87 136 86 74 133 69 96 89 187 102 120 90 135 166 23 80 85 78 107 134 72 104 79 92 131 174 52 83 57 130 132 168 155 89 120 113 130 118 125 129 71 137 142 46 98 103 91 89 137 68 138 150 46 117 156 49 73 83 97 126 137 166 101 182 103 74 159 77 124 79 104 129 43 67 126 151 177 122 92 147 32 86 147 114 143 127 128 121 93 132 133 86 82 71 117 156 118 85 138 101 70 127 184 66 105 112 88 15 127 112 79 122 35 88 92 260 54 110 137 48 87 195 129 68 122 105 90 61 125 149 72 77 103 131 130 56 53 98 182 142 78 104 135 66 131 130 147 126 112 70 120 255 110 96 111 124 71 157 80 154 44 58 76 118 107 70 64 107 132 117 124 52 44 41 97 67 189 82 41 64 100 107 44 178 156 46 74 126 79 104 137 178 72 86 184 117 90 205 64 70 126 102 99 106 94 18 162 168 152 111 68 125 107 126 100 54 129 171 115 41 92 60 83 51 114 94 85 127 110 82 96 64 126 80 120 127 73 134 99 69 116 112 105 68 91 141 126 82 68 151 153 108 44 113 109 89 41 151 230 205 133 106 148 102 150 152 91 149 120 91 30 77 114 56 200 106 47 188 44 138 78 79 168 116 98 75 75 196 121 139 26 118 74 82 56 125 49 83 100 181 132 121 127 101 99 176 137 115 130 116 54 129 113 109 103 100 108 141 94 62 127 103 103 105 141 111 138 166 140 163 161 74 158 174 136 59 92 127 70 80 137 138 79 134 53 121 144 202 168 91 147 97 130 86 126 122 132 93 100 34 143 94 104 96 153 120 31 149 94 98 164 80 73 109 207 132 45 153 123 87 83 103 75 129 118 139 94 93 142 85 140 123 154 61 158 74 55 163 46 135 126 170 57 120 53 57 175 15 135 151 131 181 80 75 112 88 99 186 89 81 101 163 53 75 116 85 95 70 79 62 110 97 91 87 181 162 90 69 78 73 43 56 65 184 101 98 46 139 71 113 48 149 99 124 31 106 4 134 130 41 112 130 82 151 24 82 116 71 53 101 53 99 163 110 168 83 169 159 66 177 33 79 72 139 88 58 65 41 110 76 104 145 106 129 83 79 97 100 105 130 144 105 177 119 93 117 146 116 90 58 143 183 143 65 117 88 64 153 101 111 75 134 79 149 127 103 134 169 66 67 63 73 119 78 99 154 138 127 91 73 151 103 103 68 176 80 72 109 135 96 76 106 122 54 55 172 93 165 111 92 170 64 139 152 145 94 75 95 159 132 89 66 127 165 35 169 117 82 195 167 127 92 136 111 68 150 134 91 128 94 83 115 56 123 119 94 166 104 135 69 25 154 113 96 122 29 96 96 71 88 100 80 118 192 156 59 75 151 88 114 114 120 107 71 114 70 83 153 96 122 63 166 59 175 104 141 149 72 137 140 90 92 94 101 123 135 104 104 155 148 214 76 94 86 126 161 68 107 115 141 138 74 61 81 118 110 164 171 110 69 54 126 39 117 166 77 77 151 113 153 150 96 92 146 92 139 67 92 122 60 136 121 184 68 120 100 86 28 103 130 108 46 113 68 119 88 59 82 122 116 133 80 92 129 46 95 99 38 20 82 53 69 76 112 92 115 148 182 148 115 76 59 59 60 82 37 153 121 169 72 124 57 141 109 83 30 60 52 137 167 119 30 107 108 87 128 164 38 101 47 76 88 96 145 92 145 130 90 152 68 82 123 155 171 130 89 79 132 99 197 201 66 105 169 135 69 55 131 179 146 135 165 93 134 143 69 154 116 117 129 124 96 127 63 112 84 77 109 39 30 49 67 89 86 42 118 93 106 148 129 132 120 201 133 88 120 145 146 108 113 91 90 54 178 111 57 84 77 21 112 134 91 171 41 143 131 89 99 106 53 73 100 72 93 196 131 123 117 126 148 88 14 107 126 111 108 73 86 96 145 195 127 149 97 96 123 176 60 172 166 104 92 152 159 180 102 99 103 69 27 159 119 49 65 157 84 39 25 129 46 125 178 81 108 145 76 84 106 90 110 94 135 136 95 140 77 120 117 131 119 70 54 133 122 139 88 93 106 47 147 75 36 139 133 57 109 46 182 99 160 31 80 84 75 139 97 87 79 106 70 84 63 92 104 147 85 157 122 56 59 160 81 116 106 127 95 106 157 109 134 40 69 145 100 70 163 72 72 171 139 99 38 85 139 83 87 76 101 136 112 216 111 148 110 36 86 93 94 164 75 118 145 130 99 104 110 113 154 75 94 60 147 122 112 28 202 113 141 107 103 96 87 127 144 90 73 53 118 93 98 69 116 50 117 95 52 83 98 197 138 162 84 125 78 55 86 144 182 61 133 119 120 128 119 121 99 95 106 78 87 102 164 106 87 110 184 98 95 140 81 57 85 107 162 140 165 88 48 112 113 168 69 101 109 102 166 92 126 150 54 130 117 133 194 64 150 59 116 74 104 90 90 151 54 110 87 65 188 135 37 128 146 57 88 187 56 197 30 105 95 60 92 111 136 62 98 62 94 143 63 99 93 69 95 98 131 142 96 111 70 107 91 71 67 120 145 132 72 87 68 67 92 80 163 167 109 168 110 88 60 82 90 161 107 173 82 69 135 134 76 121 80 119 87 103 123 63 91 70 102 67 125 82 227 141 107 117 90 104 62 163 103 48 135 130 242 139 130 74 138 149 60 78 84 126 123 116 110 108 168 82 161 100 110 82 99 100 123 96 76 105 132 141 81 175 88 97 42 44 123 110 110 66 143 148 80 73 50 115 158 141 141 112 147 55 149 169 119 60 104 95 105 79 87 140 90 116 66 55 173 60 107 74 43 136 106 71 84 154 108 60 124 101 104 69 140 49 149 126 107 89 109 96 133 102 92 118 107 79 71 72 98 29 180 169 58 83 137 116 104 66 38 44 88 102 150 117 74 83 121 80 137 125 145 120 104 126 103 142 117 127 129 66 97 116 148 63 135 82 74 64 69 47 115 105 134 43 83 141 185 83 82 97 75 100 68 117 109 143 109 77 67 156 117 136 140 76 70 172 106 50 155 138 63 86 104 133 146 112 114 68 129 84 150 103 170 81 74 102 69 115 138 148 102 124 126 153 115 108 140 102 145 83 124 56 59 66 124 37 96 84 165 105 71 146 87 97 152 127 132 86 100 85 65 64 81 114 150 81 116 126 123 106 182 167 161 46 69 110 102 58 98 119 128 100 69 133 140 91 165 100 72 140 121 99 168 97 139 109 80 107 93 120 78 84 66 108 138 187 214 76 57 144 110 93 119 65 123 70 162 51 134 118 215 122 139 200 151 121 40 114 61 78 47 30 78 117 62 106 150 75 109 133 67 111 101 89 96 86 177 114 23 171 134 155 131 72 144 105 57 158 106 63 95 116 16 100 138 64 132 93 95 103 85 110 120 113 78 82 104 59 71 145 82 31 112 67 157 95 112 146 89 123 74 179 89 105 87 129 55 83 53 104 107 43 109 44 159 129 134 119 60 55 98 127 119 91 97 79 93 126 104 108 111 78 45 80 108 183 81 187 53 114 152 97 70 75 113 170 123 134 90 54 177 116 99 161 73 112 141 66 117 159 83 81 58 40 245 109 106 93 132 86 159 128 89 115 129 108 134 166 75 186 182 125 48 112 85 153 29 99 81 115 95 80 82 132 43 143 41 109 75 119 94 123 82 129 115 191 85 105 171 108 92 132 115 142 69 145 106 67 96 98 122 76 114 125 68 79 88 98 96 86 205 132 126 101 79 59 145 120 75 60 66 98 74 29 175 88 116 90 73 76 128 134 150 140 34 164 88 46 47 95 112 175 150 112 58 129 132 132 65 101 75 124 74 118 140 125 67 72 114 134 106 119 70 120 71 61 70 74 101 127 94 94 131 133 131 100 83 77 55 190 117 109 199 130 39 68 100 110 122 128 112 155 141 101 103 156 114 66 78 70 113 64 153 48 135 149 89 79 108 109 69 148 52 127 92 113 161 142 52 45 85 159 138 181 158 133 54 84 106 33 100 95 149 102 144 127 125 89 78 115 108 109 116 74 34 109 116 112 57 139 92 128 104 113 92 118 112 111 43 171 121 87 63 78 100 94 145 166 178 103 98 75 29 142 120 74 133 112 195 91 159 113 114 163 119 63 108 84 107 71 56 161 100 113 98 140 114 114 133 118 265 101 171 92 148 105 100 79 177 113 154 95 69 48 56 63 148 140 88 113 119 89 86 119 61 146 101 106 150 138 102 141 104 55 155 82 139 124 89 134 109 70 43 77 184 90 96 111 62 185 58 117 95 118 120 119 138 187 109 61 138 95 115 128 98 110 127 134 74 47 91 133 151 110 102 163 119 86 130 92 30 115 150 104 162 39 136 116 43 78 115 114 170 76 121 142 83 113 173 180 124 134 75 121 134 94 115 150 63 93 151 131 80 132 152 52 68 109 88 122 78 71 111 92 174 99 100 102 91 180 165 80 192 126 127 180 61 137 134 99 53 32 111 53 117 151 189 124 35 94 179 111 128 75 130 79 118 115 127 101 131 113 186 134 135 90 77 120 72 101 97 67 109 77 31 116 125 155 86 64 139 182 203 141 137 233 128 69 80 76 106 89 98 127 120 45 93 70 121 84 67 149 56 121 104 131 122 85 117 39 29 57 67 202 41 62 138 86 118 79 92 137 167 189 66 157 44 122 118 89 124 114 142 105 98 47 134 90 119 151 123 179 204 137 105 82 138 115 47 127 171 27 94 157 138 69 38 75 126 114 42 130 118 59 20 15 78 83 93 160 53 50 133 101 97 62 34 170 166 81 128 102 131 181 162 94 168 54 67 67 152 90 81 136 116 119 143 136 108 80 117 54 88 150 192 57 113 101 114 133 121 96 99 265 142 100 83 89 88 81 78 127 126 106 97 159 87 99 106 92 103 148 136 36 59 106 70 76 93 59 92 80 97 110 84 121 73 156 84 154 106 69 50 111 115 75 79 159 94 90 63 103 188 85 122 83 114 42 147 88 102 180 48 113 123 106 83 109 121 95 137 178 110 130 91 110 116 99 85 141 126 129 99 42 109 67 98 127 192 88 50 180 154 69 177 161 46 106 128 55 106 84 107 91 179 76 52 133 111 129 149 80 100 88 132 94 207 93 83 195 35 158 98 100 49 159 35 56 58 85 198 83 110 178 169 155 59 122 119 99 117 146 62 104 85 76 96 90 49 58 66 135 101 178 102 34 160 48 79 144 98 130 125 79 78 85 149 99 156 103 154 87 165 77 114 118 72 29 133 71 143 41 156 127 109 85 31 112 84 109 77 200 86 91 74 97 76 187 76 146 73 104 100 74 149 144 167 114 81 96 114 129 74 140 168 167 17 66 139 48 123 112 91 99 144 131 47 127 93 72 171 164 225 71 129 76 127 68 77 145 114 77 129 85 132 112 111 123 132 112 88 76 170 54 66 46 139 112 76 85 116 110 151 117 153 62 107 155 57 135 158 134 94 53 117 146 81 117 49 124 102 81 21 81 42 34 71 149 64 83 74 184 54 146 91 137 110 102 58 99 71 142 138 85 178 106 41 88 80 134 114 216 85 131 84 44 102 138 154 144 80 138 195 117 177 129 42 66 68 117 91 146 140 86 111 98 114 182 145 150 74 44 139 61 32 90 86 71 76 47 97 54 158 64 85 114 75 87 102 93 74 146 105 55 106 71 185 62 70 97 199 132 129 76 73 63 56 93 123 84 64 158 120 69 104 148 100 40 125 135 82 93 136 183 177 106 115 102 119 166 127 100 120 154 96 90 57 82 50 94 176 136 45 79 79 100 98 68 119 118 138 94 78 148 94 66 174 146 125 93 127 102 110 120 87 77 115 106 161 123 114 117 135 82 107 118 153 75 52 34 78 98 156 185 128 141 206 121 120 72 141 91 130 213 58 101 99 122 169 108 91 133 63 43 77 76 90 207 51 62 54 58 131 118 102 98 118 98 73 103 66 129 65 54 128 202 140 130 49 97 106 74 95 95 69 90 92 93 169 112 104 102 174 43 86 134 194 68 114 36 169 46 73 119 84 142 118 98 56 97 60 101 92 104 97 113 140 123 53 124 73 82 184 99 159 94 58 207 155 87 109 50 84 97 58 51 43 129 113 97 129 128 152 91 75 86 125 166 46 89 66 133 224 141 74 68 126 43 92 116 171 170 82 90 86 49 132 52 122 149 116 52 55 137 45 190 139 86 44 136 45 60 126 115 146 116 110 74 129 79 180 156 169 182 58 96 121 57 104 69 70 55 122 131 67 161 148 123 66 36 74 187 154 132 105 63 99 67 96 54 60 134 139 157 114 117 113 166 101 115 74 98 108 93 94 134 86 110 51 45 118 41 94 108 154 122 122 55 142 142 141 55 104 159 56 103 121 72 102 105 200 96 130 97 126 98 181 102 87 105 125 197 139 189 107 138 114 101 106 99 74 147 69 119 109 122 77 122 94 196 84 93 79 73 141 195 51 210 103 83 97 73 53 135 82 117 128 48 67 73 94 79 67 73 105 95 116 106 117 173 105 134 98 150 101 139 53 188 108 134 122 150 114 123 127 115 139 72 74 38 144 293 82 38 77 162 117 162 85 88 170 143 106 123 124 95 142 108 109 113 138 70 132 66 108 92 111 129 145 89 146 60 80 93 82 57 47 85 129 156 29 106 119 148 69 127 81 76 141 143 95 155 112 85 131 67 79 156 108 28 73 170 94 95 77 109 120 91 128 173 71 66 68 105 103 140 46 121 143 89 139 139 157 76 132 134 180 108 79 118 123 110 61 70 126 86 97 124 62 83 175 67 180 91 109 94 62 163 128 103 86 99 157 91 126 109 133 146 81 108 68 143 135 156 76 127 32 192 124 128 126 119 88 103 103 44 85 80 76 59 113 77 56 80 196 90 38 70 96 112 107 136 141 119 82 93 70 153 76 87 114 37 253 47 124 138 172 117 102 76 63 134 71 157 217 84 28 150 69 109 73 78 124 106 60 79 109 67 105 68 98 50 90 135 126 98 83 73 71 172 68 77 148 68 20 33 58 115 70 72 117 140 164 159 145 173 132 130 124 82 57 57 108 167 105 48 77 111 121 73 57 167 79 148 117 123 131 108 51 106 89 153 79 89 133 116 66 204 31 110 125 83 133 113 135 135 190 196 125 106 73 139 92 91 92 133 150 81 108 108 100 88 134 86 83 79 114 60 109 131 114 136 120 154 73 182 81 175 37 91 126 98 64 192 75 118 110 99 130 127 84 133 116 115 69 33 68 104 81 105 63 119 171 124 46 94 62 96 123 58 158 151 91 74 54 114 84 144 100 113 63 73 12 145 123 83 140 103 127 123 122 220 119 133 124 97 64 138 81 122 109 67 149 51 68 93 147 148 146 117 80 126 134 121 80 81 115 93 57 103 180 95 153 129 128 119 109 87 206 195 112 103 148 136 170 110 95 69 113 100 78 145 90 83 155 62 58 118 83 94 87 92 82 55 121 154 59 106 185 134 126 24 50 98 144 83 115 19 29 167 103 56 147 105 85 103 94 73 97 153 141 93 106 118 146 92 157 65 45 55 137 152 113 88 114 116 177 144 111 183 75 71 104 116 72 88 78 38 65 104 66 92 70 153 76 92 90 115 70 113 142 143 137 103 53 82 20 141 112 64 112 103 146 87 97 112 176 118 128 80 82 98 198 65 93 166 110 81 61 54 153 121 109 118 99 86 174 134 98 124 165 112 93 68 156 90 170 45 51 129 144 79 70 128 61 162 210 100 133 113 168 51 43 81 139 142 143 179 100 114 120 165 114 69 138 141 136 236 99 45 67 110 84 114 183 66 136 99 121 91 51 126 55 126 39 59 142 75 158 71 72 128 151 75 119 143 107 80 85 123 185 80 119 96 105 102 74 128 58 92 124 55 110 154 100 177 124 133 56 119 101 198 105 53 104 129 60 103 84 132 79 59 93 110 78 110 121 142 135 89 155 94 93 172 21 95 113 70 131 69 88 88 149 120 53 157 129 79 147 131 186 119 81 182 140 130 97 68 89 57 135 80 119 104 113 85 75 119 176 59 102 102 110 73 21 68 176 99 201 121 157 114 99 127 135 87 118 188 155 120 179 97 119 71 103 128 114 192 121 149 67 85 87 112 134 71 112 76 103 77 176 58 70 53 178 213 112 120 93 138 68 106 131 81 98 52 169 163 62 101 146 131 48 134 112 127 100 51 117 111 128 151 168 91 106 118 32 118 51 96 134 99 117 146 112 30 74 158 163 143 41 42 56 92 81 119 191 190 117 123 96 74 116 106 137 184 100 170 90 148 112 105 93 66 52 131 167 53 91 128 64 91 137 121 137 100 76 77 79 139 130 130 111 64 235 112 106 103 95 83 90 137 129 54 147 106 161 126 136 106 81 79 147 170 57 149 154 159 113 141 124 47 85 75 104 75 89 63 114 111 86 168 90 125 71 103 104 84 128 113 50 99 98 79 145 146 90 69 130 139 146 65 132 99 67 134 105 56 129 120 81 150 149 44 104 85 111 61 109 107 137 95 129 96 94 116 141 107 87 107 122 74 153 64 78 120 66 78 127 53 116 120 23 78 76 145 127 104 89 89 56 127 102 126 87 97 127 73 148 114 147 122 167 103 144 116 93 155 90 155 155 118 147 86 92 191 78 107 147 129 97 120 83 57 174 117 127 105 88 59 170 92 99 87 71 51 146 83 153 65 123 133 75 42 138 76 126 111 98 68 133 79 45 100 106 113 182 221 76 71 215 88 164 98 170 100 120 79 72 177 108 102 137 135 85 114 53 99 128 75 55 52 73 124 99 32 106 109 99 185 147 49 101 44 93 79 110 140 41 43 123 170 63 145 137 108 128 48 116 209 98 100 61 163 67 46 98 50 60 123 144 64 125 95 119 163 119 194 73 65 168 93 134 108 72 94 123 112 84 42 101 133 102 134 93 32 55 75 81 68 183 83 152 177 91 140 119 82 21 40 85 134 138 102 87 123 57 104 75 133 104 150 101 122 190 71 197 70 149 80 128 93 107 107 98 56 114 89 83 167 158 158 109 146 107 205 97 100 150 110 108 106 39 121 83 157 151 88 53 86 72 189 125 152 157 112 142 116 126 115 60 106 140 139 85 54 164 83 139 137 75 111 42 104 109 31 139 105 128 46 118 89 91 48 134 103 46 103 135 165 127 75 97 76 129 115 86 124 83 43 93 51 110 63 145 96 49 89 107 145 98 159 146 249 157 119 149 70 76 147 64 120 75 84 167 139 116 79 165 107 214 168 140 108 88 127 57 79 72 105 144 42 113 130 114 48 108 100 54 96 176 168 107 117 127 67 128 90 106 102 78 149 96 60 62 70 74 90 107 104 121 81 71 98 123 76 67 90 112 127 95 98 134 139 68 130 107 159 140 58 146 125 108 82 117 58 67 186 71 114 106 109 143 109 157 129 143 81 134 105 96 136 108 67 130 77 68 69 139 116 232 88 114 152 108 98 82 82 103 100 114 99 149 203 93 153 153 105 165 104 110 139 73 78 67 136 81 210 189 97 180 166 57 59 69 151 100 86 71 88 85 87 70 104 35 124 134 76 99 79 119 48 125 102 54 50 90 47 72 78 29 104 170 107 136 115 57 79 121 68 161 132 98 81 175 161 123 76 158 73 134 77 142 145 97 47 15 128 153 143 70 55 116 133 52 149 149 95 92 135 89 74 119 89 68 101 123 129 115 93 143 116 103 159 73 141 136 87 147 51 115 159 58 118 84 32 173 106 189 109 130 150 44 147 123 124 118 177 102 176 81 17 78 112 90 134 140 132 94 162 75 62 146 74 67 33 83 166 106 119 100 96 43 90 143 148 117 144 161 101 71 80 95 85 68 129 163 88 87 93 39 97 84 134 133 130 94 100 82 93 192 141 131 100 75 60 144 107 109 175 64 55 139 81 128 133 137 96 125 42 123 122 96 187 77 84 130 42 125 178 107 139 137 91 92 53 124 82 58 110 135 132 59 65 167 98 193 132 151 55 89 191 154 174 77 91 116 172 93 105 188 131 111 119 69 79 120 92 112 104 106 142 236 163 114 47 90 139 76 135 156 195 115 197 35 153 146 102 135 76 62 73 181 147 62 96 98 162 144 125 207 144 127 101 120 22 136 105 178 106 154 122 86 80 170 108 141 200 24 137 99 145 151 75 115 79 45 99 89 60 132 97 106 94 95 156 84 133 71 92 123 145 123 83 120 188 65 90 149 61 80 106 100 142 112 77 146 96 80 122 94 121 176 82 118 79 76 111 58 168 112 177 83 151 191 122 158 159 117 80 123 29 87 120 77 134 129 94 106 134 17 150 99 97 68 121 127 84 183 101 94 135 128 136 208 52 113 95 49 130 135 105 66 111 100 110 138 96 108 61 113 124 68 80 105 101 43 73 125 168 54 84 66 106 120 161 82 106 186 164 125 36 94 171 101 115 162 86 75 134 69 83 169 137 155 64 128 103 96 46 65 134 102 79 129 126 97 159 71 134 81 90 99 71 77 83 108 25 85 98 85 78 169 113 46 73 123 163 104 125 94 147 91 91 45 106 154 120 143 130 98 89 110 97 103 102 167 56 108 74 61 104 111 76 56 85 73 142 170 52 160 146 75 54 71 192 118 91 126 83 156 25 193 58 155 138 96 97 119 114 73 89 191 122 133 132 90 166 54 126 109 56 121 28 121 100 103 71 136 74 189 114 83 80 85 122 69 108 126 142 80 90 88 82 151 153 99 85 46 60 114 89 190 86 99 74 149 65 137 115 35 129 145 183 69 132 91 131 134 35 63 116 142 73 103 144 57 77 108 96 91 146 50 54 61 111 104 126 156 58 117 110 117 220 63 52 90 104 133 86 180 114 100 111 74 117 127 146 119 44 88 112 141 223 189 148 72 114 118 122 53 223 34 116 123 71 132 130 102 173 123 127 171 94 149 202 78 70 80 101 65 111 95 102 87 71 160 117 89 78 58 111 89 110 155 116 129 62 81 116 100 187 128 152 104 167 120 60 114 67 81 106 73 75 29 174 121 46 206 86 99 98 125 110 72 44 85 58 90 85 94 103 111 132 70 121 100 74 129 32 68 145 100 54 68 134 93 100 93 124 131 102 50 124 135 66 94 95 127 190 75 85 228 38 86 104 113 103 102 71 48 62 134 38 124 90 78 88 129 163 145 127 130 117 73 25 78 59 167 111 156 164 113 61 53 184 173 79 102 127 89 41 73 137 100 131 117 110 64 69 130 84 85 54 121 77 81 117 94 49 65 112 119 100 91 110 60 113 94 139 98 22 112 126 145 94 32 54 87 105 91 177 101 115 106 132 78 117 77 76 97 133 93 91 146 174 87 107 74 91 86 115 158 92 133 97 176 108 117 82 58 69 158 60 116 123 116 86 88 117 95 164 129 157 83 159 177 158 101 104 48 119 165 134 67 65 105 108 134 79 83 114 127 107 152 110 71 96 89 151 46 50 109 138 153 93 80 108 101 190 23 149 101 124 63 155 85 224 43 79 101 98 76 102 76 118 84 99 111 254 157 167 162 79 61 127 111 167 70 109 74 107 17 120 158 59 128 96 124 171 143 158 99 91 131 100 34 71 59 80 94 28 70 22 176 150 82 84 45 110 108 155 127 154 35 130 94 122 96 61 120 124 213 120 105 120 99 75 141 117 47 105 116 69 56 156 50 153 114 125 161 110 152 48 116 110 117 106 118 172 99 123 92 134 119 100 130 72 100 109 78 61 106 72 137 95 41 82 166 89 101 139 189 134 92 83 160 87 105 128 82 89 106 68 49 120 106 144 161 86 93 122 83 91 110 120 104 158 120 85 93 94 124 129 146 79 109 53 110 145 40 208 102 69 164 98 119 149 84 287 83 67 131 96 133 96 119 64 98 42 127 92 77 129 75 74 79 75 111 131 135 119 88 143 82 37 84 74 74 101 85 131 97 171 143 73 99 37 97 126 97 90 84 101 106 147 83 73 107 79 143 58 117 102 96 86 108 159 94 116 109 87 73 71 212 122 104 133 74 82 52 136 96 112 97 119 45 41 112 65 121 61 74 136 95 123 89 110 115 137 97 133 192 110 100 101 83 84 86 76 74 93 106 53 99 123 165 109 96 109 117 98 153 57 145 129 120 18 77 55 122 148 120 191 110 81 71 91 132 70 162 86 91 148 114 182 116 84 120 117 152 123 103 67 161 103 68 44 97 21 181 158 93 105 132 61 31 104 96 75 87 63 76 137 153 108 92 120 150 101 114 141 142 142 93 116 44 33 81 12 182 89 98 150 94 73 185 127 49 73 116 103 91 72 118 117 89 133 121 93 123 136 112 109 126 45 118 127 53 111 155 157 86 89 95 50 96 159 68 135 91 73 159 80 75 181 81 97 108 119 89 102 74 88 152 81 146 111 120 97 104 141 116 120 21 137 109 82 105 91 85 111 95 121 190 55 71 85 94 144 97 91 56 41 139 156 141 98 121 116 84 101 104 112 120 138 106 85 56 93 149 64 143 71 172 49 110 58 68 146 130 63 184 195 108 141 240 109 56 105 61 57 129 115 105 131 116 156 131 44 76 221 136 100 83 73 144 77 92 105 110 123 106 70 127 88 193 76 135 125 117 111 130 109 123 97 108 141 144 119 88 59 53 156 87 80 36 125 40 96 99 135 111 159 91 68 38 126 107 88 193 118 110 85 135 121 148 84 103 47 126 71 112 99 61 166 129 91 105 97 189 169 114 124 123 119 125 131 140 170 48 121 117 59 142 220 114 69 53 33 73 107 77 107 90 170 101 79 172 98 97 102 87 117 68 142 122 108 54 72 170 128 93 91 117 142 72 78 77 55 78 196 145 181 140 113 184 79 117 89 130 78 92 81 91 139 133 164 129 86 186 139 146 66 106 95 109 105 81 81 122 108 81 126 67 173 104 61 75 127 189 146 105 182 72 139 111 129 97 124 116 133 104 84 236 75 137 71 135 123 208 85 86 134 71 127 162 93 144 149 64 52 80 110 157 156 83 84 86 123 74 83 112 88 125 128 59 122 49 81 120 145 114 100 78 112 124 99 123 139 174 128 111 117 62 216 71 92 105 126 141 97 171 128 134 141 101 133 112 118 101 129 157 203 68 133 109 70 95 87 41 125 98 67 84 105 113 77 62 72 127 114 114 85 150 56 48 94 114 79 67 108 77 116 105 97 104 97 76 90 97 103 183 133 112 129 65 228 100 104 69 100 57 127 116 86 124 139 104 111 115 99 46 116 87 96 88 133 95 122 68 193 86 133 107 100 54 125 62 137 102 117 202 107 70 132 77 112 88 143 62 82 161 81 127 85 119 163 60 131 124 152 65 115 100 92 98 78 109 95 103 180 120 106 62 102 122 29 124 82 121 50 184 129 87 43 120 177 175 76 51 95 210 121 38 108 167 70 89 110 109 100 217 53 189 96 110 98 59 118 114 121 112 149 83 90 102 64 143 111 148 115 153 130 109 64 145 63 50 114 146 114 89 127 50 95 102 86 127 91 164 64 116 156 38 107 160 134 145 134 228 70 94 126 126 63 113 30 145 119 79 89 98 114 139 81 103 112 135 120 123 201 54 132 125 33 97 63 196 87 97 98 142 162 99 114 61 92 107 112 186 57 96 134 114 121 43 65 121 150 91 73 127 226 79 78 137 142 143 91 158 109 174 70 133 82 133 91 140 139 132 107 65 85 119 116 132 87 69 43 52 104 113 99 149 50 107 73 91 113 113 62 126 73 62 95 92 91 91 85 114 149 108 197 99 138 72 71 140 83 121 141 144 133 109 63 66 127 92 133 45 90 134 72 102 63 124 101 95 124 150 76 62 139 67 182 133 141 160 139 143 79 152 72 128 63 57 82 98 61 142 127 91 113 43 83 91 73 97 121 103 116 211 111 105 103 94 139 73 54 123 79 117 82 89 60 153 50 161 127 92 146 84 122 132 90 73 101 130 135 104 38 204 164 40 64 116 126 107 120 147 42 146 128 104 61 142 99 107 70 75 131 60 126 122 97 23 86 119 37 147 111 148 101 102 184 105 21 84 94 116 162 69 128 65 58 119 97 116 130 124 124 104 171 96 84 100 50 77 150 112 125 104 106 83 116 31 145 105 105 158 181 116 176 93 173 104 122 125 133 95 103 45 72 79 72 76 62 70 63 90 67 82 175 73 118 96 98 134 135 34 70 114 59 57 133 159 134 100 139 141 79 30 14 116 110 36 80 116 115 81 24 129 146 143 74 123 157 60 77 106 60 70 90 75 127 101 102 114 38 85 96 64 145 77 90 154 136 88 126 127 87 148 202 76 76 130 47 65 54 113 85 91 115 93 151 128 130 184 173 109 158 155 74 44 102 178 41 87 64 113 55 74 135 95 89 78 137 64 146 119 125 143 83 50 103 92 75 92 133 142 158 61 56 88 121 59 94 144 46 145 103 135 59 113 84 132 103 91 97 174 60 128 88 57 109 179 94 68 63 117 66 80 57 108 132 59 56 84 90 186 95 79 96 89 74 81 177 144 111 132 137 174 80 89 128 51 91 128 64 62 76 181 126 97 46 128 81 65 142 87 101 79 54 125 42 86 81 100 89 69 119 47 115 40 95 68 131 118 113 56 128 78 132 198 85 35 170 166 113 217 39 98 105 121 90 171 84 33 91 80 136 149 147 202 143 86 81 79 117 176 61 123 110 25 79 109 71 69 86 76 61 60 113 58 153 145 99 56 80 48 115 160 111 97 93 46 108 110 87 132 76 166 84 138 147 60 60 107 63 137 91 75 212 120 69 59 46 175 128 140 45 129 93 80 101 107 86 90 113 34 77 82 55 126 93 74 67 149 85 138 113 109 74 104 42 148 63 132 49 63 34 106 82 148 127 34 120 162 28 80 81 55 98 89 100 44 93 69 122 134 82 114 121 116 79 78 143 72 132 117 31 167 48 141 169 75 95 167 148 199 68 112 92 166 195 94 94 33 195 167 92 178 100 126 136 112 99 74 138 102 161 125 77 147 73 122 142 108 146 146 72 61 127 239 118 83 81 88 39 136 47 87 113 82 85 143 136 80 144 134 135 111 143 71 129 76 32 135 130 117 75 131 24 179 127 153 49 99 130 97 171 88 138 111 92 89 124 119 53 172 117 50 136 92 129 56 120 67 74 101 74 99 89 120 124 69 109 80 87 37 54 137 41 41 91 70 85 108 59 64 59 96 110 172 72 101 185 120 13 91 66 75 115 115 122 94 102 68 75 95 69 94 37 100 194 153 160 124 66 101 16 49 133 94 172 167 143 146 65 93 92 73 55 101 71 70 151 48 106 69 126 151 159 17 77 131 121 106 91 108 131 69 97 77 172 82 206 102 147 125 82 96 96 47 163 99 105 171 212 145 119 45 154 123 138 143 78 72 126 25 157 165 194 79 135 157 90 105 160 100 158 64 82 50 65 73 117 64 134 122 93 52 82 69 84 188 89 164 104 27 81 132 115 174 163 143 79 79 62 61 100 66 94 46 63 241 54 104 118 102 57 139 86 214 149 19 147 81 133 52 202 208 92 113 97 111 138 128 134 109 69 142 110 114 213 151 155 53 174 29 63 161 113 74 51 56 110 128 113 69 103 79 120 93 59 141 172 125 112 65 58 94 125 62 102 70 119 54 149 46 121 124 67 73 152 92 83 49 125 79 106 90 112 124 133 61 58 122 133 139 126 46 95 79 76 135 43 171 93 103 173 62 123 91 40 94 141 72 116 112 92 143 204 155 132 79 181 83 110 71 138 86 56 150 93 90 116 105 107 201 102 118 136 83 86 137 109 56 66 95 111 83 130 103 51 98 71 77 151 95 150 67 82 96 121 61 85 112 144 58 117 80 138 106 167 79 47 144 80 83 138 73 176 125 118 102 80 95 143 167 97 97 55 115 142 25 83 116 134 191 62 91 120 125 117 98 135 104 89 135 81 101 22 168 82 139 44 117 153 173 60 112 80 104 103 135 109 95 67 118 127 115 25 70 92 105 119 96 129 67 126 94 65 74 120 82 86 73 78 25 19 115 89 67 90 116 136 125 148 140 134 91 145 156 121 152 114 64 80 125 127 84 87 146 110 73 52 145 95 95 45 72 102 111 56 119 119 140 118 21 115 86 114 140 96 117 80 88 75 143 91 88 124 129 106 49 108 101 24 75 71 146 123 132 131 148 119 80 70 43 87 64 105 76 129 81 137 83 75 92 156 119 99 148 75 88 76 119 182 103 56 159 184 87 100 131 52 30 105 54 91 53 72 129 90 174 60 104 93 79 84 138 55 107 63 105 129 168 82 95 84 73 131 148 126 172 99 78 156 38 125 205 55 162 84 125 107 160 125 133 116 78 40 82 118 94 116 135 102 125 112 150 85 91 90 85 118 135 115 162 140 99 123 130 130 87 107 70 145 129 84 95 137 82 169 194 111 75 58 164 115 123 131 158 28 77 98 117 130 73 93 138 79 78 121 125 127 73 154 146 105 79 56 70 136 45 135 149 121 109 41 103 130 122 109 119 52 118 185 73 120 127 117 88 211 19 94 67 159 118 161 112 177 125 135 40 112 128 120 97 51 120 121 114 87 102 82 88 48 129 111 58 94 118 93 105 66 110 64 83 201 49 114 118 98 65 124 78 127 109 66 38 128 72 135 126 56 116 149 88 117 38 47 64 62 44 114 94 117 96 145 188 96 55 180 127 54 119 141 114 116 143 138 128 87 21 202 115 111 134 108 60 68 119 148 157 123 80 78 151 132 134 144 117 53 49 176 122 158 90 83 184 127 134 95 83 107 100 80 108 106 153 121 178 65 100 86 135 98 79 61 110 99 124 61 66 135 105 73 113 63 70 64 176 136 117 99 94 128 99 129 93 91 92 130 102 114 77 105 58 83 90 82 155 154 153 128 104 90 108 53 121 150 146 63 84 80 171 80 187 132 139 122 109 87 124 142 162 146 120 146 218 76 168 100 66 225 117 145 141 193 87 22 155 16 26 127 175 115 117 92 117 76 75 137 90 63 116 88 115 139 121 163 136 127 93 110 116 163 85 209 120 109 109 96 128 78 178 50 212 118 121 68 60 130 101 76 107 110 180 109 11</t>
-  </si>
-  <si>
-    <t>GAM(0.7059626073314538, -6.858939490247993e-31, 0.5660334816716146)</t>
-  </si>
-  <si>
-    <t>0 1 0 1 2 0 0 0 1 0 2 3 2 2 0 0 2 0 1 0 1 1 0 2 0 2 0 1 0 2 3 0 2 1 1 1 0 1 0 2 1 3 2 0 0 1 2 1 0 0 0 1 2 0 0 3 1 0 1 1 0 0 1 2 1 1 1 0 0 0 1 0 2 1 0 1 2 0 1 0 0 2 1 2 1 1 1 0 0 2 0 1 0 0 1 1 0 0 0 0 1 1 0 1 1 0 1 1 1 2 1 0 1 0 2 0 0 1 3 2 2 1 0 0 1 0 0 2 0 1 1 0 2 2 0 1 0 1 1 1 1 1 0 0 1 1 0 1 2 2 0 2 1 0 0 1 0 2 0 0 1 0 0 0 1 2 0 1 2 3 0 2 1 0 3 0 1 0 0 1 1 0 0 1 1 1 0 1 0 0 0 1 0 1 1 0 1 2 0 1 1 0 0 0 0 0 1 0 1 0 2 1 0 2 0 0 3 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 0 1 2 0 1 1 3 0 0 2 1 1 1 2 0 1 2 0 0 0 1 0 0 1 2 1 1 1 3 1 2 1 1 0 0 1 0 0 0 0 0 1 0 0 3 0 1 1 0 3 0 2 0 1 2 1 1 2 1 1 0 1 1 0 0 2 0 0 0 0 0 2 1 2 0 1 1 0 0 0 3 1 2 2 2 0 2 0 0 1 1 0 1 1 2 0 1 0 0 1 3 2 0 0 3 0 0 1 0 0 0 0 1 0 3 0 1 1 1 0 2 0 0 0 1 0 0 0 0 0 1 1 2 1 2 1 0 1 0 0 0 0 0 1 0 0 1 0 2 2 0 1 0 1 0 0 0 1 0 1 0 1 2 0 2 1 2 1 3 2 2 1 0 1 1 0 1 0 0 1 0 1 0 0 1 1 1 1 0 0 1 2 1 1 1 0 0 2 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 1 3 2 1 1 0 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 1 2 0 0 1 1 1 2 1 0 0 1 0 1 2 0 1 1 0 1 0 0 2 0 2 2 2 1 0 0 0 1 1 1 1 3 2 2 1 0 1 1 1 0 1 2 1 0 2 1 1 1 0 3 1 1 1 0 2 0 2 2 0 0 2 1 0 4 1 0 1 1 1 0 0 1 2 0 3 0 0 1 1 0 1 0 0 1 1 0 1 0 0 2 0 2 0 1 1 1 0 3 0 0 2 0 0 1 1 2 0 2 0 0 1 1 0 1 0 0 2 0 0 1 2 0 3 1 0 1 0 0 0 0 1 0 1 0 2 0 1 0 0 1 0 0 0 2 0 3 0 1 2 1 2 2 1 2 0 1 1 2 0 1 0 0 1 1 1 0 0 0 0 0 1 0 2 0 0 1 0 1 0 1 0 2 0 2 2 0 1 0 2 0 0 1 1 2 0 0 0 0 1 0 0 0 1 0 1 2 0 0 1 2 2 0 0 0 0 2 0 1 1 1 0 0 2 0 1 0 1 0 1 1 0 1 2 0 0 1 0 0 0 0 0 0 4 0 2 1 0 0 0 1 2 0 3 0 1 1 1 0 0 1 0 0 0 0 2 0 1 0 1 2 0 0 0 1 3 1 0 1 1 0 0 0 2 0 0 0 0 1 0 2 0 0 0 1 1 1 2 0 0 1 1 0 0 0 0 0 1 1 0 1 1 1 2 1 2 2 1 1 0 1 0 1 1 1 1 1 1 0 0 0 1 0 3 2 1 0 0 4 2 1 1 0 1 1 1 0 1 0 0 1 0 1 1 3 1 1 1 1 0 1 2 0 1 2 0 1 1 2 0 0 1 1 1 1 1 0 0 0 1 1 1 1 0 0 0 1 1 3 1 0 1 0 0 1 3 0 1 1 0 0 1 0 1 0 0 0 2 1 2 3 0 1 2 1 0 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 0 1 0 1 0 2 1 2 1 2 1 1 0 2 1 1 0 1 1 0 0 0 0 0 0 1 0 0 2 0 3 1 0 2 3 0 0 1 1 0 1 0 0 0 2 0 0 0 1 1 0 0 2 1 0 0 0 4 1 1 1 1 1 1 2 0 0 0 1 3 0 0 0 1 0 0 0 0 1 2 1 1 0 2 1 2 0 0 2 1 3 2 2 2 2 0 1 1 0 0 1 2 0 0 0 1 0 1 1 0 4 2 2 0 1 0 2 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 3 2 1 2 2 0 2 0 1 1 0 1 0 0 2 0 0 1 0 0 0 1 1 1 0 2 1 0 1 2 1 0 2 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 1 2 1 1 1 0 0 0 1 2 0 2 1 1 1 1 0 0 1 1 1 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 4 1 0 1 0 0 2 2 1 0 0 0 0 0 0 0 0 1 0 2 1 0 0 1 2 0 1 1 0 0 1 0 0 0 1 1 0 0 0 1 0 1 3 1 1 2 0 1 0 2 0 1 0 1 1 2 2 0 0 0 2 1 1 1 1 0 0 0 2 2 1 2 1 0 0 1 1 0 0 2 1 1 0 1 0 0 0 0 0 1 1 0 0 2 1 1 0 1 1 2 0 1 2 1 0 1 1 1 0 0 0 0 0 2 2 1 0 0 1 0 0 0 2 1 1 1 0 1 1 0 0 1 1 2 1 1 2 1 1 0 0 0 1 0 0 0 0 1 2 1 1 2 0 1 1 1 1 0 1 3 0 1 2 1 0 0 0 0 1 1 1 0 1 2 1 2 0 0 1 1 0 1 0 0 0 1 0 1 1 2 2 1 0 1 0 0 1 1 1 0 0 0 0 0 2 0 1 1 2 0 1 2 0 0 0 2 0 0 1 1 1 2 5 1 2 0 0 0 1 2 2 3 0 1 2 1 1 0 0 2 1 1 1 0 0 0 0 0 1 0 3 0 1 1 0 1 2 0 1 1 0 0 1 0 2 1 0 1 0 3 2 0 0 0 1 1 1 1 1 1 1 1 0 0 0 2 1 0 0 2 0 1 1 4 0 1 1 2 2 1 0 0 0 0 0 1 1 1 0 2 1 1 1 0 1 2 1 1 1 2 0 0 2 0 2 2 0 2 0 1 3 0 1 1 0 0 1 1 1 1 0 1 2 0 0 1 1 0 1 0 1 1 0 0 1 0 2 0 1 1 0 2 0 1 0 0 2 0 0 1 0 2 1 1 2 0 0 1 0 1 1 1 1 0 0 1 0 0 1 0 0 1 1 2 0 0 1 0 1 0 0 1 2 2 0 1 1 1 0 2 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 2 1 0 0 0 1 1 0 1 0 1 0 1 1 1 1 1 0 2 1 0 0 2 1 0 1 1 0 1 0 0 1 0 0 0 2 1 0 0 0 2 0 1 2 2 1 0 0 1 1 0 1 0 1 1 1 0 1 1 0 1 0 0 1 0 0 0 1 2 0 1 0 0 0 1 1 2 1 0 0 1 1 2 2 0 0 2 0 2 1 0 1 1 4 0 2 0 0 1 1 0 0 2 1 0 0 0 3 1 1 2 1 0 1 0 2 0 1 1 1 1 1 0 1 1 2 0 2 2 0 0 0 0 2 1 1 0 1 0 0 2 0 0 0 0 1 0 3 0 0 0 0 0 2 0 0 0 1 0 1 0 1 1 1 2 0 1 0 0 0 0 2 0 2 1 1 1 2 1 1 1 0 2 1 1 0 1 0 0 1 0 3 0 0 1 0 0 1 2 2 3 0 0 1 0 0 0 0 1 0 0 0 0 0 2 2 1 0 1 1 1 2 1 2 0 0 2 1 0 2 0 0 0 0 0 1 1 0 2 1 1 2 0 1 0 1 0 0 0 2 0 0 0 0 1 0 3 2 0 2 1 1 1 0 0 1 1 1 0 3 0 0 0 0 1 1 1 0 1 1 1 0 1 2 0 1 0 0 1 0 2 0 1 2 1 2 1 2 0 1 0 0 0 0 2 0 1 1 1 2 0 1 1 0 3 1 1 1 0 0 0 3 0 1 1 1 0 1 0 0 0 1 2 1 0 2 0 0 0 3 2 1 0 0 0 2 0 1 1 1 0 0 1 0 0 1 2 0 0 3 0 1 1 0 0 2 0 0 0 1 1 0 1 0 1 2 0 0 3 2 1 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 1 1 1 1 1 0 1 1 1 2 0 0 0 2 1 0 1 0 1 1 0 2 1 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 2 0 2 1 1 0 0 0 0 1 1 0 1 2 0 0 1 1 0 1 0 1 0 2 1 1 0 1 0 1 0 1 1 0 1 1 1 1 0 0 1 2 1 1 2 3 0 0 0 0 1 0 1 2 0 0 0 0 0 1 1 0 1 0 2 1 2 0 2 2 1 0 0 0 0 2 0 1 1 0 0 0 1 1 1 1 0 1 1 0 1 0 0 0 2 1 1 0 2 2 1 0 1 1 1 1 2 0 1 1 0 0 0 1 2 1 2 0 1 1 2 1 0 0 1 0 0 1 1 1 0 0 1 0 1 0 1 0 2 0 2 0 1 2 1 1 0 5 1 2 1 1 4 0 0 0 1 1 0 1 1 1 0 1 0 1 0 1 1 0 3 1 1 0 1 1 0 1 0 1 0 0 0 2 0 1 2 2 0 1 1 0 0 1 0 0 3 0 3 1 0 0 1 1 0 1 3 0 1 1 1 1 4 1 1 0 1 2 0 3 2 2 0 3 0 1 0 1 0 1 0 0 1 2 0 1 0 1 2 1 0 2 2 0 0 0 1 0 0 0 0 1 3 2 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 2 0 2 0 0 0 2 1 0 0 1 1 0 2 0 3 2 0 1 0 0 1 1 3 0 2 0 1 1 2 0 4 1 1 0 1 3 0 0 0 0 0 0 1 1 0 1 3 1 2 2 0 1 0 0 1 0 1 0 0 0 4 0 2 1 2 3 1 0 0 1 1 1 0 0 0 1 0 0 4 0 1 1 1 1 0 2 1 0 2 1 1 0 2 0 0 0 2 0 1 0 2 3 0 0 1 0 0 0 1 0 0 0 0 1 2 1 1 0 3 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 1 1 0 1 1 0 2 0 1 1 2 3 0 1 1 1 1 1 0 1 1 0 1 1 0 0 1 1 2 1 1 2 0 1 1 1 0 0 0 1 3 1 0 0 1 2 0 0 1 2 0 0 0 0 1 1 2 3 1 1 0 0 2 0 0 2 0 0 1 0 0 1 2 0 2 0 2 1 0 1 0 0 0 0 1 1 1 2 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 4 2 0 0 0 0 1 0 1 1 0 0 1 1 0 1 0 0 0 1 1 1 1 1 3 0 1 1 0 1 0 1 1 0 1 1 1 3 0 3 1 0 1 4 0 0 1 0 0 0 1 0 1 0 2 1 1 1 3 1 0 2 0 0 1 0 1 0 1 1 2 0 0 3 1 0 2 1 0 2 0 1 0 3 1 1 0 2 1 1 2 1 1 1 0 0 1 0 2 1 1 0 1 0 1 0 2 0 0 0 0 2 1 0 2 1 3 0 0 1 2 1 0 0 0 3 0 2 1 1 2 0 2 0 0 0 2 0 1 0 3 0 0 0 0 1 0 1 2 2 2 3 1 0 1 1 1 3 2 1 1 1 1 1 1 0 1 0 1 0 0 1 1 0 1 0 2 0 1 0 0 0 0 0 2 1 0 2 0 0 0 1 0 1 3 0 0 1 1 2 0 0 0 0 0 1 2 2 0 0 1 1 0 2 0 0 1 0 0 1 1 1 0 1 1 0 1 1 1 1 0 1 0 0 0 1 1 3 2 2 1 0 1 1 0 1 0 1 1 1 1 1 0 2 0 0 0 1 1 0 0 1 0 0 1 2 2 1 2 0 1 3 0 2 2 1 0 2 1 0 0 0 1 1 2 0 1 0 2 0 0 1 1 0 1 1 1 0 0 1 0 0 1 0 3 3 0 2 0 0 0 1 2 1 1 0 0 2 1 2 0 0 0 2 1 1 1 0 2 0 1 1 2 0 1 1 1 1 0 1 0 1 1 0 1 1 0 1 1 0 0 0 2 0 2 0 0 1 1 0 1 2 0 0 1 1 1 0 2 1 3 0 1 2 0 0 1 2 0 1 3 1 1 1 0 0 1 0 1 0 0 1 3 3 2 1 1 0 1 2 0 2 0 1 1 0 1 1 0 1 1 1 0 0 0 0 2 0 1 1 0 4 1 1 2 0 0 0 0 0 2 1 0 1 0 3 2 0 0 0 1 1 1 0 1 1 0 1 1 0 0 1 2 1 2 0 2 0 0 1 2 1 1 1 1 3 3 2 0 1 1 3 2 1 0 2 0 0 0 1 1 0 1 0 1 2 0 0 0 0 0 0 2 0 0 0 1 0 1 2 1 2 0 0 0 0 0 1 2 0 0 3 1 0 2 0 0 1 1 1 2 0 0 2 0 2 3 1 2 1 1 2 1 1 1 0 1 1 2 0 0 0 2 1 0 2 0 0 1 0 2 0 1 0 0 1 2 0 1 0 1 1 0 0 1 1 0 0 1 0 1 3 2 1 1 1 1 1 1 0 0 0 1 2 0 0 0 2 1 2 1 1 0 2 1 0 2 0 0 0 0 2 1 2 1 2 0 1 1 0 0 0 2 1 0 0 1 0 2 1 2 0 1 1 0 1 1 1 1 1 0 3 0 0 0 2 2 0 2 0 1 1 1 0 0 0 2 0 0 1 1 1 0 1 0 3 1 1 0 1 1 2 1 2 0 0 3 1 0 0 1 2 1 0 1 0 2 1 0 3 1 0 1 1 1 0 1 1 0 0 1 1 2 0 1 1 2 1 0 0 0 3 1 2 1 2 1 0 0 1 2 2 1 1 0 1 1 0 2 2 1 2 0 0 0 0 0 0 1 1 2 3 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 1 1 0 0 0 2 0 2 2 3 0 1 0 1 3 1 0 0 0 0 0 1 0 2 0 0 2 3 1 1 2 1 0 2 0 0 1 0 0 1 1 1 0 0 1 0 2 1 1 0 0 0 0 0 0 0 1 2 1 0 0 1 0 0 0 0 1 0 0 0 2 1 1 2 0 0 1 0 2 4 1 0 1 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 2 1 0 1 2 0 2 0 0 1 1 0 0 2 0 0 0 0 0 3 0 1 1 1 0 0 1 3 0 1 1 0 0 1 0 0 1 0 0 2 1 0 0 1 0 3 1 0 1 3 1 0 1 1 0 1 1 0 0 1 1 0 0 1 3 2 1 1 0 3 1 0 2 1 1 0 0 0 1 0 1 1 3 1 0 1 2 2 0 2 0 0 2 0 1 2 0 0 1 0 1 0 0 0 1 0 3 0 1 1 0 0 1 1 2 2 0 2 1 1 1 0 2 0 3 1 0 1 1 0 0 1 1 0 0 0 0 0 0 1 3 2 1 0 1 1 1 1 0 0 0 2 1 1 0 0 2 1 0 0 1 0 1 0 0 0 1 2 1 2 1 2 0 0 0 1 2 2 1 1 0 0 0 1 0 1 1 1 0 1 1 2 0 0 3 1 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 1 1 0 3 0 0 0 1 2 0 1 2 0 0 2 1 2 1 1 1 0 2 2 0 1 1 2 3 1 0 1 1 0 2 2 0 1 1 1 1 1 0 1 1 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 2 2 0 1 1 1 0 0 2 1 0 0 2 0 0 1 1 1 0 0 0 1 0 1 0 0 1 1 1 1 1 1 0 0 0 0 0 3 0 1 1 0 1 0 2 1 1 1 1 1 0 0 1 1 0 0 0 2 1 0 0 1 1 2 0 1 3 0 2 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 1 2 0 1 3 1 3 3 1 0 0 1 0 0 1 1 0 1 0 1 0 3 0 1 1 2 1 0 0 0 0 1 0 2 0 2 2 0 2 0 1 2 1 1 0 0 2 0 1 1 0 0 3 0 0 1 0 0 0 0 0 1 1 1 2 0 0 0 3 0 2 0 2 1 1 2 0 0 0 0 0 0 1 0 0 1 1 1 2 2 1 1 2 1 0 0 2 0 0 1 1 1 1 0 0 0 1 1 1 2 0 0 0 2 0 0 2 0 2 0 2 1 0 1 2 0 0 1 0 0 1 1 0 1 0 1 2 3 3 0 1 0 3 1 1 1 2 0 0 0 1 2 0 1 3 2 1 0 0 1 2 0 1 1 1 1 0 0 0 0 0 1 1 1 0 1 1 0 0 1 0 0 0 1 0 1 0 1 1 0 1 1 1 2 0 1 1 0 0 0 1 2 0 2 2 0 3 0 1 1 0 0 4 0 2 0 0 1 1 0 2 1 2 3 0 1 2 1 3 0 0 1 1 0 2 1 0 0 0 1 0 0 1 0 0 1 1 1 1 1 1 3 2 2 0 1 1 1 1 0 2 2 0 3 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 2 1 0 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 1 0 1 1 0 0 0 0 1 1 0 1 0 0 1 1 1 1 2 0 1 2 0 1 1 1 4 1 1 2 0 2 1 0 1 0 3 0 0 1 0 0 0 1 1 4 0 0 0 0 0 0 1 1 2 0 0 1 0 1 0 1 0 1 0 0 0 0 2 0 1 1 2 1 0 0 0 2 0 2 2 0 1 0 0 3 1 1 3 0 0 1 0 1 0 1 0 1 0 3 2 3 1 0 1 0 1 0 0 1 2 0 0 3 1 0 0 5 1 1 0 2 0 0 1 3 0 0 2 0 0 0 0 2 0 1 2 2 1 0 0 1 0 0 1 4 2 1 2 0 1 1 0 2 0 0 0 0 2 1 0 0 1 2 0 1 0 2 1 2 0 0 2 0 1 1 0 1 2 2 0 1 0 0 2 0 0 0 0 1 0 0 1 0 1 1 1 3 0 0 0 0 1 2 0 0 0 1 0 0 1 1 1 1 1 2 2 1 1 2 1 0 0 1 0 0 0 2 0 1 1 1 1 1 1 2 2 0 0 1 1 2 3 1 1 0 1 0 1 3 0 0 1 0 2 0 1 0 0 0 2 0 0 0 2 1 1 0 1 0 0 0 0 0 2 0 0 1 1 2 0 2 0 0 0 0 0 2 0 1 1 0 1 1 1 1 1 1 0 0 1 0 0 1 0 0 0 1 0 1 1 2 1 0 1 2 1 1 1 0 2 1 0 1 0 1 0 0 0 2 1 1 2 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 2 0 0 1 0 0 1 2 0 0 3 1 1 0 1 2 1 0 0 1 0 0 1 0 1 0 1 1 1 0 0 1 2 0 1 1 0 0 0 1 0 1 1 0 1 1 1 2 0 0 2 0 2 0 0 1 0 2 1 0 0 0 0 0 1 0 1 1 2 1 0 0 0 1 3 0 0 1 2 0 1 0 0 0 0 1 0 0 1 3 0 1 1 1 1 0 0 4 0 1 2 2 0 1 0 0 2 1 3 0 0 1 3 2 1 2 0 1 0 2 2 1 0 0 2 0 0 2 0 1 1 0 0 2 0 1 1 0 1 0 0 1 1 1 1 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 2 1 0 2 0 0 0 3 0 2 0 0 0 1 0 2 1 1 1 4 0 0 0 1 1 1 0 2 1 1 0 1 0 0 0 0 2 1 1 1 2 1 1 0 2 2 0 2 2 1 0 0 2 0 0 2 1 1 3 1 1 0 1 0 3 3 0 1 1 0 1 0 1 3 0 2 1 1 0 2 1 1 1 1 0 0 0 0 2 0 0 2 0 0 1 0 0 1 0 0 0 1 2 1 0 0 1 0 2 1 0 0 0 1 0 0 0 0 0 0 3 0 1 0 3 1 1 0 1 0 1 3 2 1 0 0 0 0 0 1 0 0 0 0 1 0 2 1 0 0 0 1 2 2 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 1 2 0 0 1 0 0 0 1 0 0 1 1 1 0 1 1 2 0 0 1 0 1 1 1 1 0 0 1 2 0 1 1 1 2 3 3 0 1 2 1 1 1 1 2 1 1 0 0 0 2 2 0 0 1 1 0 0 0 0 0 1 2 1 0 0 1 1 1 2 1 1 1 1 2 0 1 1 1 1 0 2 1 0 0 0 2 2 0 1 1 0 3 0 0 0 2 0 0 0 0 2 1 1 1 0 1 3 0 3 3 0 1 0 0 0 0 0 2 0 0 0 2 0 0 0 1 1 1 2 3 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 4 1 0 0 2 2 0 0 0 0 0 2 3 1 1 0 0 2 0 0 1 1 2 1 1 2 3 1 0 1 1 0 0 1 0 1 2 1 0 0 0 0 0 1 1 0 0 2 1 0 1 1 0 0 0 1 1 1 1 0 0 3 2 0 2 1 1 0 0 0 0 1 1 0 0 1 1 0 2 1 1 0 0 1 1 2 1 1 2 1 2 1 0 1 2 0 1 1 0 1 0 3 0 1 0 3 0 2 0 1 0 0 1 2 0 1 2 0 0 2 1 0 0 3 2 0 0 2 4 1 0 0 0 2 1 0 1 0 1 2 3 0 0 2 1 0 1 1 0 2 3 1 1 0 0 0 2 1 2 1 1 2 1 1 2 0 1 2 2 2 1 0 1 0 0 0 1 1 0 2 0 0 0 2 1 0 0 2 2 5 1 0 1 1 0 2 1 0 1 0 0 1 0 1 0 2 0 1 1 1 1 0 0 1 1 1 0 0 0 0 0 2 2 0 1 2 1 1 0 0 0 0 0 0 1 1 2 0 1 0 1 0 2 1 1 1 1 1 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 2 2 2 0 1 0 0 1 0 0 0 0 1 1 0 0 0 2 1 1 2 0 0 1 1 1 0 2 0 0 0 1 2 2 1 0 2 2 0 1 1 2 1 0 0 1 1 1 1 3 1 0 0 2 1 1 3 1 0 1 1 0 1 0 1 0 0 1 0 1 1 1 0 0 0 2 0 0 3 2 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 5 0 1 0 1 1 1 0 1 0 0 1 0 4 1 0 0 1 0 0 0 0 1 0 0 2 1 1 0 1 1 0 0 0 0 0 1 1 0 1 4 2 1 2 0 3 2 0 0 1 2 1 1 0 3 0 1 0 0 2 1 1 0 0 0 0 0 2 1 0 1 0 0 1 2 1 1 2 0 2 1 0 0 0 1 0 1 1 1 2 0 1 1 1 1 2 1 0 1 0 1 1 1 2 1 1 1 1 0 2 0 0 0 1 3 1 1 0 0 0 0 0 1 0 0 0 0 2 1 0 0 2 1 1 1 2 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 1 1 0 1 0 1 1 1 1 0 0 1 1 0 2 1 1 1 0 0 1 1 2 1 1 1 2 2 1 1 0 2 1 1 2 0 2 2 1 2 1 2 2 1 1 0 0 1 0 1 0 0 0 1 3 0 3 0 0 0 0 2 0 0 0 2 1 1 2 1 0 0 1 1 0 0 1 0 0 1 0 0 2 1 1 1 2 1 0 1 0 2 1 0 2 1 1 0 1 2 0 0 1 0 1 1 1 2 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 1 0 1 0 0 1 1 0 1 1 1 1 1 0 1 1 0 0 1 2 0 0 0 0 2 3 0 1 1 2 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 2 1 0 2 0 0 0 1 1 1 1 0 1 2 1 1 1 0 0 0 0 1 0 0 0 1 0 1 1 3 0 0 2 0 1 0 1 1 0 0 1 2 2 1 0 0 1 1 0 0 3 1 2 2 2 2 0 0 0 1 0 1 0 1 0 1 1 0 0 1 1 2 0 1 1 1 2 0 1 1 3 1 1 1 0 0 2 0 1 1 2 1 0 1 0 0 2 1 2 0 1 2 0 0 0 2 0 2 1 2 1 0 1 0 3 0 1 2 1 1 0 0 2 2 2 0 1 0 0 0 0 1 1 3 1 1 1 0 0 2 0 0 0 2 0 2 0 0 1 1 2 1 1 1 1 1 0 0 2 0 0 0 1 3 1 0 2 0 0 0 2 1 0 0 0 1 2 2 1 1 1 1 2 0 0 0 0 2 0 1 1 2 0 2 0 0 0 0 1 1 2 1 0 2 0 0 0 1 1 0 1 1 1 0 0 2 1 2 1 1 0 0 1 0 0 0 0 0 1 1 1 1 0 1 2 1 0 0 2 1 0 0 2 1 2 1 0 1 1 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 2 1 4 2 1 2 2 0 1 0 0 1 1 0 1 1 1 3 0 2 0 1 1 0 1 0 0 0 0 2 0 0 0 0 2 0 1 0 1 0 1 1 0 1 0 1 0 0 2 2 2 0 0 2 0 0 1 0 0 0 0 0 1 1 1 0 0 1 1 0 2 0 2 0 0 0 0 2 0 1 1 0 1 0 0 1 0 1 0 2 1 1 0 0 0 2 1 0 3 0 0 0 0 3 2 2 1 1 1 2 0 0 2 3 0 3 0 0 2 0 1 0 1 0 2 1 0 1 3 1 0 0 0 1 1 2 1 1 1 0 0 1 1 2 1 0 0 0 1 0 0 0 1 2 1 0 0 1 2 2 1 1 0 0 0 1 0 0 1 0 0 2 0 0 1 0 0 0 1 0 0 1 1 2 0 1 1 1 1 2 0 1 0 1 2 0 2 1 0 0 1 0 1 0 1 3 2 0 0 0 2 1 1 2 0 2 1 3 1 0 0 2 1 0 1 1 2 1 2 0 1 2 0 0 0 1 1 2 0 1 0 1 0 1 0 1 3 0 1 0 1 0 1 1 0 2 0 3 2 0 0 1 0 2 1 2 1 1 2 1 0 0 0 2 1 1 1 0 0 0 0 0 2 1 2 1 2 3 0 0 1 0 1 1 0 1 1 0 0 0 2 0 2 1 2 1 0 0 1 2 0 1 1 0 0 0 3 1 0 2 1 1 2 0 2 1 0 2 0 1 2 2 0 0 0 2 1 0 0 1 1 1 1 0 1 2 0 0 0 2 2 0 0 0 1 0 0 1 1 0 2 3 1 2 1 1 1 1 1 2 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 2 0 1 0 1 0 1 0 0 0 3 2 1 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 1 2 0 3 1 0 1 1 1 2 0 0 0 2 0 1 0 0 0 0 0 1 1 2 1 0 0 1 1 0 1 1 1 0 1 2 3 2 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 2 1 0 2 1 3 0 2 0 1 1 1 0 0 1 0 1 0 0 1 0 1 1 0 0 0 1 1 0 0 1 2 0 1 0 1 0 3 0 2 1 1 0 3 0 2 0 1 1 1 2 0 0 0 0 0 0 2 1 1 1 1 0 1 1 0 0 1 0 0 2 0 3 1 0 0 0 0 0 0 2 0 1 0 1 1 1 1 0 1 0 3 0 1 0 1 2 0 2 0 0 0 1 0 1 1 1 0 0 1 1 0 1 2 0 2 0 0 4 1 1 0 1 1 1 0 2 0 2 0 0 1 0 1 2 1 0 1 1 2 3 1 0 2 1 1 1 0 1 0 0 2 0 0 1 0 2 1 1 1 0 0 1 1 2 1 0 2 0 1 2 0 1 1 0 0 1 0 0 0 0 1 0 1 1 0 2 2 1 1 0 0 0 0 0 1 1 0 2 0 1 1 1 1 0 0 3 0 0 1 1 0 0 1 1 1 0 1 0 2 1 2 1 1 2 0 0 0 0 0 0 0 0 2 1 0 0 1 0 2 1 0 0 1 0 1 1 0 4 1 1 0 1 2 0 2 0 0 0 2 1 2 0 1 1 1 0 0 2 1 1 0 1 0 2 1 0 0 1 0 0 0 0 1 0 0 0 0 4 1 0 1 1 0 1 0 0 0 1 0 1 0 0 1 2 0 0 0 0 1 1 0 1 1 1 1 2 1 1 0 1 0 0 0 0 1 0 2 1 1 2 0 0 3 2 0 1 1 0 1 0 1 1 1 0 0 2 2 1 0 1 4 0 1 0 0 2 3 2 0 0 1 1 1 0 1 0 0 1 2 2 0 1 1 1 0 1 1 1 0 0 1 0 0 3 0 0 0 0 1 0 1 3 0 0 0 1 0 0 1 1 0 0 0 3 1 0 3 0 1 0 0 1 1 0 1 0 1 1 2 1 3 0 1 2 1 1 0 0 1 2 0 0 1 0 2 0 0 0 2 2 0 0 0 1 1 2 0 0 0 0 0 1 2 0 0 0 1 2 0 0 1 2 1 1 0 3 0 0 0 1 0 3 0 0 1 1 1 0 2 1 0 1 2 1 0 2 1 2 1 1 1 1 1 1 0 0 0 0 1 1 0 3 1 0 0 1 2 0 0 1 1 2 0 1 0 0 0 0 0 1 0 1 2 1 0 1 0 0 2 3 1 2 3 0 1 0 2 2 2 1 1 0 2 1 0 1 0 0 2 2 1 1 0 5 1 1 0 1 1 1 0 0 2 0 0 0 2 1 0 0 1 0 2 2 1 0 0 0 1 0 1 1 0 1 0 1 1 2 0 0 3 1 0 1 0 0 1 0 0 0 1 0 1 0 3 1 2 0 1 2 0 1 1 3 2 1 0 2 2 1 1 1 0 1 0 2 0 0 0 0 1 0 2 0 1 0 0 1 0 1 1 0 0 1 2 0 0 0 0 0 0 2 2 1 0 0 0 1 0 1 1 1 0 2 0 0 1 0 0 0 0 0 0 0 0 1 1 2 1 0 1 1 0 1 1 2 1 0 0 3 0 0 1 2 0 0 0 0 3 0 0 0 0 0 1 3 0 2 0 0 0 0 1 1 0 1 1 0 0 1 0 1 0 1 0 1 0 1 1 1 0 0 2 0 2 1 1 2 1 0 1 1 1 0 1 0 1 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 1 0 2 1 1 1 2 0 1 0 0 1 0 0 1 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0 2 0 0 2 0 2 0 1 0 0 0 0 0 1 0 1 3 1 0 1 0 1 0 2 0 0 1 2 1 2 0 1 0 2 1 1 0 0 2 0 0 1 0 1 1 2 1 0 2 1 1 1 1 0 2 1 1 2 1 0 0 0 1 0 1 0 0 0 1 2 1 1 1 3 0 2 0 1 1 0 0 2 0 0 0 1 1 0 3 0 1 3 0 0 4 1 2 1 1 1 1 0 0 0 1 2 0 0 0 3 1 1 0 1 0 2 1 1 0 1 0 2 1 0 0 0 2 0 0 0 2 0 2 1 0 0 0 3 0 1 2 1 4 1 0 2 0 3 1 1 1 1 1 1 0 0 1 0 0 1 0 0 1 0 0 1 1 3 1 0 2 1 1 2 0 0 1 1 0 1 0 0 1 0 1 0 2 1 0 0 0 0 0 2 1 2 0 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 1 2 2 0 0 0 1 1 0 1 1 0 0 0 2 2 0 1 1 1 1 0 1 2 0 1 1 1 1 1 0 2 2 0 4 0 0 0 1 2 3 1 1 1 1 3 1 1 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 0 2 0 2 0 0 0 1 1 0 1 0 1 1 1 1 2 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 3 1 0 0 0 0 0 1 1 0 3 0 1 2 0 0 0 1 1 1 2 2 2 2 1 0 2 2 0 0 0 0 1 0 0 0 1 3 1 1 2 1 1 0 2 0 1 1 0 0 2 0 0 0 2 0 0 0 2 0 2 2 0 0 0 2 1 1 2 0 0 1 0 1 0 0 0 0 4 1 1 0 1 2 0 0 2 2 2 2 0 1 1 0 1 2 0 2 1 0 0 1 1 1 0 3 0 1 0 0 1 1 1 0 0 2 1 0 1 1 0 2 2 1 0 2 1 0 1 3 0 1 1 0 0 1 1 0 0 2 0 1 1 0 0 2 1 0 1 2 0 2 2 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 1 2 0 0 1 2 0 2 0 2 0 1 2 1 1 0 0 1 1 1 0 1 2 0 0 1 0 0 0 1 0 2 0 3 2 0 2 1 0 1 2 4 1 0 1 1 0 1 0 0 1 1 0 0 1 3 1 0 1 0 0 1 1 2 0 1 0 2 2 1 1 0 1 2 0 1 1 1 2 1 0 1 1 1 0 1 0 1 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 2 1 0 2 1 1 0 0 0 0 1 0 0 1 0 2 0 0 1 0 2 3 1 0 0 0 2 2 2 1 1 2 2 1 2 0 1 0 1 0 1 1 3 0 0 1 2 2 0 0 1 2 1 2 2 1 1 0 0 0 0 0 0 0 1 0 0 0 2 1 1 0 0 1 1 0 2 0 0 1 1 1 0 0 3 0 0 0 0 2 1 0 1 0 2 0 0 1 1 2 1 1 0 2 1 0 0 0 0 0 3 0 1 3 2 1 0 1 1 0 0 1 0 1 0 1 0 1 1 1 1 1 2 1 0 3 0 1 1 0 0 1 0 0 1 3 1 2 0 0 0 0 0 2 2 1 1 2 1 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 2 1 0 0 1 1 0 1 2 1 0 1 2 1 1 0 0 1 1 1 0 1 1 0 1 3 0 0 0 1 1 1 1 0 1 0 0 1 1 2 1 1 2 1 1 1 0 0 0 1 2 0 2 2 0 1 1 2 2 2 2 0 2 0 1 0 1 1 1 1 0 0 0 0 0 1 1 0 1 2 1 0 1 1 0 1 1 2 0 1 2 2 0 1 2 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 1 2 0 0 2 0 0 0 1 1 1 1 1 1 0 0 1 1 1 0 3 1 1 0 2 1 0 1 1 2 4 0 0 1 1 0 0 0 1 0 2 0 0 1 0 1 1 0 0 0 2 0 3 2 1 0 2 0 1 0 1 2 0 0 0 0 2 1 0 0 0 1 0 0 0 1 3 1 2 2 0 2 0 2 2 0 1 1 2 2 4 0 0 1 0 1 1 1 0 1 2 1 1 0 3 3 0 0 0 0 2 0 2 2 0 0 1 0 0 0 0 0 0 1 0 3 1 0 0 0 0 3 1 1 1 0 0 1 0 1 0 1 0 0 2 1 1 0 1 1 0 1 0 2 1 0 0 0 1 1 2 0 1 0 1 0 2 0 1 1 0 0 0 0 1 1 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 1 0 2 1 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1 2 1 2 1 0 1 1 1 2 1 2 1 0 0 2 2 3 0 2 0 1 2 1 1 1 2 1 0 2 2 1 1 1 1 0 0 0 1 0 0 0 0 1 1 0 1 1 1 0 1 4 1 0 1 1 0 0 0 1 1 1 1 1 1 0 1 2 1 1 1 0 2 0 0 1 1 1 0 0 0 1 0 0 1 0 1 1 2 1 0 1 0 0 0 1 0 2 0 0 1 1 2 0 0 1 1 2 1 0 0 1 0 1 0 0 1 0 0 1 0 1 0 2 1 2 0 0 3 1 0 1 1 1 0 0 0 1 1 0 0 0 1 2 2 1 0 1 1 1 0 0 1 0 2 1 2 1 1 2 3 0 2 3 1 0 1 0 0 1 1 1 1 0 0 0 2 0 1 3 1 0 0 0 0 3 2 0 2 0 1 0 0 1 0 2 0 0 0 1 1 0 1 0 1 2 1 3 1 0 1 3 2 1 0 0 2 0 3 2 3 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 4 0 2 0 0 0 1 0 0 2 2 2 0 0 0 1 0 2 0 0 3 0 0 1 0 0 1 1 0 1 0 2 0 2 0 2 2 2 2 1 1 1 0 0 0 1 1 2 0 1 1 0 0 2 0 0 3 0 1 0 0 0 1 5 1 1 1 1 0 0 2 0 1 1 0 1 2 1 0 1 1 1 1 1 0 1 0 3 2 2 0 0 1 2 0 2 0 1 3 0 0 0 0 2 2 1 0 2 0 1 1 0 1 1 1 1 1 2 1 0 0 3 0 0 2 0 2 3 2 0 1 1 0 0 0 2 0 1 0 0 0 0 2 1 2 1 2 0 1 0 0 1 0 0 0 0 0 1 2 1 1 1 0 1 0 2 1 1 1 0 1 0 3 3 1 0 0 1 1 2 0 0 0 0 0 1 0 0 1 1 1 0 2 1 1 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 0 2 2 1 2 1 0 0 1 0 0 1 2 0 2 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 1 1 0 1 0 2 1 0 2 0 0 0 1 1 0 0 0 0 0 0 1 2 0 1 3 0 0 1 1 2 0 1 0 1 1 0 0 1 1 0 0 2 2 1 0 0 0 1 1 0 1 1 0 0 0 0 1 2 2 0 1 1 1 1 2 0 1 1 0 1 0 1 1 0 1 0 0 0 2 1 2 0 0 0 0 1 1 0 1 1 2 1 0 0 1 1 0 1 1 0 1 0 0 1 2 0 0 1 0 0 0 2 0 2 0 0 1 0 3 0 1 0 0 0 0 0 1 0 1 1 0 1 2 0 0 0 1 1 3 0 3 1 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 0 0 1 1 0 0 2 0 1 1 1 0 2 0 2 2 1 2 0 0 1 0 2 0 1 0 0 0 1 0 2 1 1 2 0 0 1 1 1 0 0 2 0 2 0 2 2 1 0 0 0 0 2 0 0 0 0 2 1 0 0 0 2 0 0 0 0 0 0 1 2 0 1 1 0 0 1 1 0 1 0 0 2 0 1 1 1 2 1 1 2 0 2 0 0 1 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 2 2 1 2 0 0 0 1 0 2 0 0 1 2 1 2 0 0 0 1 1 0 0 0 1 1 1 1 1 1 1 2 3 3 1 3 0 0 1 1 0 3 0 1 0 1 1 2 0 1 0 0 1 1 1 1 1 2 1 0 2 0 1 0 1 0 0 3 0 1 0 0 0 0 1 1 1 1 1 0 2 0 2 1 1 1 0 1 0 0 1 1 0 0 2 0 0 1 0 1 1 1 1 0 2 0 1 0 1 3 2 1 0 1 0 0 0 0 0 1 0 1 0 1 2 0 1 2 0 0 3 0 0 0 1 1 0 0 1 0 2 2 1 0 1 0 1 1 1 2 1 0 3 0 0 1 0 1 1 2 2 1 1 0 3 0 0 1 2 1 2 1 1 1 0 0 1 0 1 1 0 3 3 2 3 1 1 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 2 0 2 0 1 2 3 0 2 0 1 0 0 0 1 1 0 2 1 0 0 0 1 1 3 1 0 0 0 1 1 0 2 1 0 0 0 2 2 0 0 0 0 1 1 0 0 0 1 2 1 0 0 2 1 0 0 1 1 1 1 0 0 2 2 1 3 0 1 0 1 0 0 1 0 1 0 0 0 1 0 2 0 0 0 1 1 1 0 2 2 0 0 0 0 2 1 1 0 1 0 1 1 1 3 1 2 0 0 1 2 0 2 0 0 0 1 0 1 0 0 0 1 2 1 2 1 1 1 0 2 0 0 1 0 0 0 2 1 2 2 1 0 2 1 1 1 0 2 1 1 1 0 0 1 2 0 2 1 1 2 0 2 1 1 0 2 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 2 1 0 0 1 0 2 0 0 1 0 1 1 1 1 0 0 0 2 1 0 0 0 0 0 0 0 2 0 2 1 0 2 2 1 0 0 0 1 1 3 0 0 0 0 1 2 1 2 0 2 1 0 0 0 1 0 2 1 0 0 0 1 1 1 1 0 0 2 0 2 0 0 3 0 2 0 1 0 0 1 1 1 0 1 0 3 2 0 1 1 1 2 2 0 1 1 1 1 0 0 1 0 1 1 2 0 2 2 3 0 1 0 1 0 1 0 0 0 1 1 0 1 2 0 2 0 0 2 0 1 0 0 1 1 0 1 1 1 0 0 1 2 0 0 0 1 0 1 0 0 2 2 1 1 2 3 0 3 0 0 0 1 1 2 2 2 1 0 1 1 0 0 2 1 0 1 1 4 1 0 0 1 0 0 1 2 0 0 0 0 0 1 1 1 0 1 0 2 1 1 0 0 1 1 0 0 0 1 0 0 1 2 1 1 0 0 0 1 2 1 2 0 0 0 1 0 0 0 0 0 1 5 1 1 1 1 1 1 0 0 2 1 1 2 1 1 2 1 1 1 2 1 0 0 0 2 1 2 2 4 1 1 1 1 1 0 1 0 0 0 2 1 1 0 1 3 0 1 1 0 0 1 0 0 0 2 0 1 1 0 1 0 2 0 1 0 3 2 2 1 1 0 0 0 1 1 1 1 1 0 0 0 2 1 0 0 0 0 1 0 2 1 2 0 0 1 0 0 1 2 2 0 1 2 2 1 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 0 0 0 1 0 3 1 3 1 0 0 2 2 2 0 1 1 2 1 0 0 2 0 2 1 0 1 1 0 0 0 2 0 1 2 1 1 2 1 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 1 1 1 0 1 3 1 2 0 0 0 1 2 0 2 0 0 1 0 0 1 1 1 0 0 2 2 0 0 0 0 0 1 0 0 1 0 3 3 0 1 3 0 2 2 1 0 0 0 2 0 1 1 1 0 1 1 3 1 0 0 0 1 0 2 1 0 1 0 3 0 1 1 1 0 3 2 1 0 3 0 0 2 0 1 0 0 0 2 2 1 0 1 2 2 0 0 1 0 1 1 1 3 0 2 0 0 0 2 1 0 1 1 2 0 1 0 0 1 0 1 0 1 1 1 3 2 2 0 1 2 1 0 0 2 3 0 1 0 0 2 2 1 2 0 2 0 0 1 1 1 1 0 2 3 0 0 0 1 1 0 1 2 1 1 0 2 0 0 1 0 1 1 0 3 1 1 2 0 0 1 0 2 1 0 0 0 2 1 1 2 2 1 1 0</t>
+    <t>NIG(27.488436768794067, 14.302048730681028, -0.6930506431647381, 33.054515490994476)</t>
+  </si>
+  <si>
+    <t>15 23 24 29 16 22 31 26 24 17 20 23 6 20 14 13 23 28 20 18 6 20 23 14 20 17 23 30 19 20 30 27 13 9 36 10 21 19 19 10 9 10 29 26 23 20 33 25 31 23 24 26 20 13 12 16 17 9 17 7 26 6 14 23 10 17 27 24 26 21 24 20 15 10 17 9 9 18 14 23 16 27 20 9 19 14 30 24 13 3 20 32 30 30 9 25 24 22 3 7 20 24 14 20 14 28 24 20 30 42 17 25 38 13 20 40 16 15 16 16 19 14 7 17 16 13 7 0 27 20 10 17 13 22 10 21 27 23 16 21 18 30 16 10 17 13 28 18 10 14 14 12 16 13 26 27 21 26 16 17 23 16 14 23 18 24 0 16 17 24 28 24 24 34 17 3 19 31 13 19 7 19 23 9 16 21 18 3 13 13 21 10 23 19 34 16 30 14 19 10 20 16 17 30 31 9 6 20 23 20 24 10 9 40 17 10 12 19 14 17 19 23 20 17 20 12 11 28 6 19 16 6 26 20 3 16 6 21 34 7 19 19 27 13 23 12 33 17 23 26 14 38 10 26 17 23 9 35 16 24 19 21 20 14 14 22 12 20 9 34 24 16 23 23 6 13 27 15 13 20 20 19 20 17 14 20 26 9 18 24 23 26 35 30 15 26 24 15 27 24 14 17 6 13 22 18 10 13 17 16 41 24 20 24 7 17 19 9 27 21 13 28 9 6 10 10 16 13 23 36 20 23 27 16 30 13 22 27 20 13 13 21 13 20 10 14 20 30 14 20 39 12 12 18 19 19 24 16 9 10 23 17 21 9 19 24 19 10 10 17 31 17 19 10 30 24 13 11 30 10 24 14 29 18 30 16 6 16 18 28 15 30 16 28 19 9 30 10 13 16 18 3 33 16 33 31 26 17 20 33 24 18 20 23 14 23 20 30 17 17 13 18 34 31 9 23 16 6 27 24 10 30 28 31 23 23 34 13 6 12 7 26 13 20 17 21 20 13 13 10 24 16 24 30 16 22 20 20 12 20 33 23 19 17 26 24 15 26 11 27 30 19 17 26 6 10 36 24 23 23 7 22 7 24 40 19 13 26 21 19 19 16 28 20 8 20 26 16 23 6 10 17 12 10 27 9 19 6 31 17 14 7 31 9 7 14 20 15 6 23 9 31 17 27 19 27 22 25 15 20 20 26 34 17 16 30 23 44 21 10 14 17 13 17 41 23 24 16 20 27 22 7 24 28 17 16 13 20 17 15 19 13 20 13 7 21 7 17 13 24 26 13 16 17 25 16 23 19 24 21 20 21 19 21 5 28 17 23 30 29 16 17 16 10 9 10 19 24 9 20 31 16 27 20 28 12 20 21 20 20 15 16 13 17 21 7 23 27 23 13 18 16 28 15 17 38 27 21 9 31 16 17 30 13 21 19 10 6 24 38 13 20 37 28 31 17 18 24 12 23 24 16 12 14 13 27 3 7 3 16 16 23 13 16 17 18 21 25 13 26 21 6 25 9 30 14 26 24 32 24 7 7 22 9 21 8 14 21 23 36 19 20 19 30 13 24 24 16 14 10 16 27 10 24 14 17 21 13 13 17 27 7 7 10 13 15 22 14 12 6 13 17 23 23 30 41 17 26 3 17 6 14 15 37 16 6 28 20 13 16 19 20 31 19 24 24 10 9 27 17 17 3 27 28 33 9 18 13 24 12 30 20 13 17 23 13 30 16 17 24 13 17 22 6 12 11 17 9 24 19 16 38 14 30 20 7 16 23 22 29 20 17 28 20 20 27 22 27 30 13 15 19 14 16 27 30 10 20 23 40 19 16 24 23 6 9 14 10 6 16 20 13 20 26 17 16 25 16 12 20 16 19 13 23 3 17 14 34 10 27 16 22 6 7 24 13 37 19 6 19 23 24 20 30 29 29 26 30 23 3 30 23 3 18 17 33 12 35 20 37 20 25 20 10 34 13 26 31 19 14 13 22 17 13 14 13 24 23 20 10 13 13 15 19 16 23 15 10 23 17 27 23 14 3 23 16 13 28 32 6 6 30 9 3 31 14 14 23 27 13 26 13 6 20 38 21 17 13 3 34 7 23 21 19 23 30 13 16 21 21 17 19 26 20 27 32 7 17 3 28 30 20 13 41 26 20 24 23 30 13 25 13 34 23 27 23 3 9 10 28 9 20 6 20 10 11 23 11 13 6 28 27 13 15 12 15 33 27 27 24 23 27 13 21 12 27 22 24 14 23 29 8 18 13 10 27 19 6 19 23 17 0 23 10 19 30 17 7 7 30 6 24 37 37 12 31 20 22 40 13 13 30 14 30 20 24 38 10 23 13 17 9 10 12 19 19 20 32 20 20 27 24 13 21 24 16 19 23 20 17 24 19 10 31 20 33 19 12 24 19 30 16 13 13 26 30 12 17 20 22 28 23 13 16 13 20 28 20 21 26 17 17 10 22 13 11 14 9 14 13 21 6 28 22 23 20 17 3 10 29 21 30 36 30 20 41 31 13 20 9 31 29 12 19 23 26 17 30 28 20 14 23 26 23 27 17 30 17 10 16 25 21 21 9 24 15 23 13 13 19 0 30 27 23 23 10 17 30 10 26 9 13 8 29 26 26 10 20 23 20 16 16 20 26 20 17 18 20 17 12 26 20 34 31 14 23 12 10 14 18 12 20 19 13 18 17 24 17 26 16 16 20 3 21 38 10 18 16 12 0 35 3 9 29 0 22 31 23 20 19 23 13 25 12 16 6 20 10 23 23 10 6 18 17 10 19 11 13 17 28 17 21 22 23 24 16 17 16 10 20 26 7 22 13 23 39 20 16 28 27 9 22 14 20 10 13 17 21 13 14 16 27 21 26 20 17 18 6 20 23 13 13 26 22 6 8 17 23 18 19 33 24 7 23 21 16 10 13 15 6 3 10 30 38 13 31 20 10 20 21 16 24 38 20 32 16 17 27 9 37 29 20 6 16 21 9 7 9 10 17 26 9 20 13 26 20 27 16 37 10 14 20 13 26 17 10 7 26 10 22 16 33 23 10 10 31 19 17 13 35 27 17 19 14 23 12 30 23 30 6 21 21 17 28 24 3 32 31 26 16 23 16 16 12 25 16 16 30 13 13 13 37 19 9 28 17 20 10 35 40 13 17 10 17 34 13 9 34 13 45 27 24 22 17 24 19 21 19 20 23 26 31 21 14 14 6 9 15 16 31 19 10 13 17 21 13 13 10 6 14 12 17 15 31 7 13 7 24 21 8 18 3 14 24 15 24 17 18 14 37 13 25 22 13 21 9 24 24 14 10 12 29 20 14 20 20 7 17 9 25 19 28 13 23 27 13 35 26 17 14 17 16 16 13 16 16 17 17 30 24 26 19 23 20 31 17 3 20 24 16 13 21 14 20 27 16 10 25 36 34 24 24 27 21 13 23 30 18 9 9 23 20 40 23 22 7 27 26 10 19 17 24 24 10 20 27 14 28 13 21 21 16 16 3 21 24 33 10 25 17 22 21 27 20 24 26 31 23 21 7 19 19 34 9 23 16 17 21 20 7 17 20 16 20 24 10 17 48 30 20 31 24 13 31 27 18 31 19 22 23 13 17 21 16 24 16 42 36 20 23 15 31 23 12 10 14 31 33 17 10 16 22 17 13 10 25 12 21 13 27 28 20 19 3 16 10 6 20 27 14 27 12 16 33 22 24 13 9 10 17 28 6 6 20 12 14 19 3 20 17 0 17 6 17 37 7 24 27 20 20 25 23 14 16 19 27 27 13 16 19 17 14 27 20 24 25 6 28 21 13 16 33 23 21 24 9 23 16 12 13 13 20 23 26 21 19 23 24 27 28 17 13 30 16 20 20 30 24 24 14 14 29 33 13 25 13 6 17 26 23 27 24 16 31 21 28 16 43 27 20 23 3 12 30 27 16 6 31 16 16 19 27 21 22 14 16 24 13 34 19 30 10 7 31 27 29 17 20 26 28 38 41 15 41 16 20 17 26 15 13 3 20 10 17 6 10 26 19 17 26 22 23 29 7 7 9 23 16 18 33 16 28 13 27 23 6 24 13 18 26 23 30 26 25 28 19 21 10 23 30 23 17 30 23 16 23 13 24 28 13 10 19 6 16 23 13 17 17 23 19 20 14 22 33 28 19 0 27 6 13 24 20 24 14 6 3 23 26 27 28 14 13 34 23 14 10 20 33 19 6 6 22 27 20 24 22 20 23 12 7 14 27 28 6 22 14 17 13 17 33 30 38 10 25 24 13 27 13 18 23 17 28 20 24 13 9 27 16 14 25 24 13 19 20 14 16 20 10 20 24 26 30 27 19 24 24 30 27 15 17 34 14 12 10 20 24 17 22 31 3 17 27 13 13 23 19 37 22 22 17 20 16 26 16 30 17 10 9 3 20 34 12 17 9 13 27 37 21 13 41 19 19 30 3 24 13 13 7 28 31 38 31 16 16 21 20 20 7 21 24 24 14 10 6 20 31 10 10 13 10 21 23 10 33 7 27 20 17 34 24 34 30 30 13 27 17 24 21 26 20 24 30 21 24 27 3 24 31 40 16 15 26 27 14 29 20 17 15 37 30 14 20 12 17 12 21 20 13 14 29 18 13 27 20 9 17 19 23 14 27 24 10 12 27 34 9 9 24 16 24 24 13 16 19 22 12 24 38 9 10 18 12 17 30 16 22 3 15 7 19 12 16 22 16 34 19 20 9 25 23 35 18 19 18 20 21 35 17 26 0 27 25 10 23 14 34 13 17 13 28 17 27 16 32 26 23 9 18 20 41 17 15 27 23 23 21 24 20 21 40 24 3 17 18 19 20 14 16 18 19 6 21 21 37 19 21 17 16 19 10 15 3 17 17 16 20 16 27 30 16 24 15 18 16 27 3 14 20 7 21 32 33 23 6 25 6 29 16 27 21 16 24 9 13 10 17 38 19 16 26 23 17 23 16 23 24 6 17 15 14 18 6 27 24 34 20 15 17 17 13 30 17 30 13 27 20 20 14 27 14 17 10 16 31 19 19 24 27 16 13 3 13 19 21 30 17 20 13 10 27 16 21 24 20 29 20 19 31 30 14 6 6 23 6 23 17 17 10 17 10 27 12 27 24 6 33 16 26 20 21 16 20 28 22 19 20 14 9 13 10 10 7 13 3 26 14 20 22 14 14 26 13 9 40 41 26 15 14 16 15 16 10 20 26 16 13 20 24 19 16 22 14 16 21 28 14 20 25 20 10 22 14 19 13 23 23 13 12 19 34 30 31 19 7 15 17 16 17 24 34 13 13 29 15 17 23 34 7 13 23 34 15 17 25 20 31 30 29 21 14 24 3 32 19 21 27 10 20 13 17 33 23 9 20 31 29 24 27 24 37 22 13 20 10 16 27 23 13 14 7 34 31 9 21 23 24 13 13 14 20 9 16 12 14 16 17 20 23 34 28 24 9 16 12 18 7 13 17 11 7 17 22 10 14 6 22 9 17 13 21 26 20 20 35 27 19 14 19 21 6 17 20 13 15 15 13 26 20 28 27 9 9 14 20 20 16 31 9 16 12 10 30 9 16 24 10 17 3 16 13 27 10 27 33 27 16 13 37 24 10 7 14 14 18 25 26 37 24 24 9 26 16 13 20 20 13 34 17 23 37 6 20 21 13 19 10 20 9 17 22 16 24 19 15 31 9 9 22 12 20 27 38 13 17 19 30 24 21 0 14 16 17 16 7 14 28 21 19 23 18 10 10 20 20 20 9 16 27 24 24 16 27 9 17 22 27 27 35 27 34 20 16 13 7 28 10 31 21 22 23 16 11 20 31 10 19 20 16 3 24 41 23 17 11 20 19 17 16 17 10 19 17 44 31 14 16 6 23 23 9 16 20 30 30 28 16 17 16 28 9 16 20 16 24 23 13 20 20 10 14 24 31 29 19 13 35 26 20 17 19 20 23 9 21 13 15 23 27 20 31 23 13 23 21 17 17 22 24 17 10 42 34 27 30 20 20 24 18 44 21 18 16 13 27 27 24 21 10 24 16 28 21 26 17 27 37 27 9 26 21 15 17 26 7 12 14 13 0 7 23 27 31 10 17 20 20 9 30 6 33 23 19 42 17 29 13 13 26 29 14 18 34 20 24 13 13 19 26 21 17 8 7 24 25 13 17 10 20 0 14 19 22 19 6 10 10 12 17 10 13 16 10 22 22 19 37 23 16 24 24 21 16 12 23 27 35 12 23 10 17 14 17 17 24 19 13 14 28 32 22 3 30 13 26 17 19 27 30 22 23 7 20 24 14 0 17 10 15 13 17 41 26 23 10 24 10 10 27 27 27 20 23 20 16 15 24 14 19 20 16 27 13 3 38 19 41 17 12 11 28 19 18 16 24 19 38 21 10 13 28 23 27 26 10 12 18 28 31 8 20 31 17 12 19 27 12 31 16 30 29 16 13 13 12 10 0 30 27 10 17 16 24 17 20 20 14 18 31 17 26 20 13 17 22 10 37 20 6 16 24 16 28 13 10 20 20 25 20 23 24 20 23 16 33 24 17 24 13 3 23 16 31 17 24 16 25 36 20 10 13 13 13 30 10 14 38 17 12 19 26 27 10 20 19 17 20 23 20 19 28 13 20 30 30 25 7 21 20 19 12 22 20 10 26 7 23 6 23 24 16 16 15 19 30 3 13 14 19 14 17 31 6 7 20 6 23 17 32 13 20 16 24 19 23 11 31 10 12 20 19 19 26 30 13 30 18 30 14 17 17 21 19 25 34 29 16 10 24 28 15 16 13 21 10 13 17 21 26 24 16 27 20 21 7 16 3 10 24 24 24 30 20 30 10 20 20 29 14 26 27 14 24 23 16 24 14 23 24 12 3 34 30 30 24 19 18 24 16 16 17 10 10 24 18 16 51 31 35 17 17 10 23 14 7 20 23 24 34 7 31 17 11 14 13 18 10 23 10 16 20 39 21 12 20 27 21 18 7 10 21 35 26 22 17 7 22 19 26 24 18 12 20 14 20 20 24 17 10 13 16 16 9 21 13 21 13 21 31 17 19 17 21 22 19 14 31 20 20 37 31 24 13 30 6 19 20 31 17 24 22 17 6 33 0 23 44 24 14 21 10 27 24 7 12 10 23 3 21 17 13 34 13 42 49 26 14 14 14 20 27 20 13 20 19 7 37 10 17 17 20 20 20 17 44 24 30 14 16 30 19 17 22 10 17 27 17 9 14 28 27 30 14 24 28 10 21 26 18 13 16 15 24 6 42 27 16 31 7 22 13 31 10 31 20 9 27 20 10 20 22 20 22 13 27 10 32 10 24 37 30 22 7 11 30 17 20 23 13 17 31 7 18 17 14 21 17 17 13 16 33 20 9 19 19 19 47 23 20 16 7 19 27 10 6 22 14 34 23 6 31 16 20 27 16 16 16 17 17 30 35 17 13 17 12 17 14 16 31 19 28 23 3 13 17 23 16 35 13 10 22 27 16 10 21 46 26 17 31 13 13 37 43 7 23 20 20 30 13 10 10 16 19 30 24 45 13 23 10 19 14 24 20 17 13 18 36 18 13 13 20 8 15 23 27 21 14 24 13 19 20 16 20 9 20 31 18 14 16 13 13 20 23 21 20 26 15 30 17 13 13 9 21 17 13 17 19 17 28 12 23 0 16 16 17 10 16 0 27 27 29 17 13 23 17 20 13 21 23 17 14 37 24 20 13 17 15 24 3 9 16 17 21 26 10 23 12 10 20 21 13 10 15 34 23 17 27 14 10 18 21 16 24 30 17 12 10 24 13 27 14 19 21 13 6 31 26 30 10 27 16 27 28 14 13 18 30 14 12 23 6 9 19 27 14 14 34 34 13 17 13 19 24 35 23 35 17 38 21 10 13 12 34 17 29 21 21 27 23 14 6 14 16 12 13 33 23 31 23 17 14 27 6 17 26 24 21 27 38 20 20 14 22 17 17 35 40 27 25 14 13 16 24 15 0 28 16 12 16 10 24 24 14 10 23 13 12 18 20 27 19 0 26 24 26 15 27 17 23 21 19 14 13 27 9 14 16 24 13 10 27 20 20 17 26 32 25 10 19 27 7 10 20 41 20 28 3 26 23 14 23 19 27 24 13 23 23 24 13 27 43 31 25 30 28 20 29 20 23 24 10 27 20 29 27 17 13 12 18 16 30 20 13 6 13 23 34 9 10 24 17 20 27 15 23 13 27 21 19 28 34 27 25 16 29 16 14 17 17 16 20 10 23 17 17 10 28 17 7 16 24 29 26 19 19 26 41 9 16 17 20 32 17 19 27 45 20 17 24 12 16 6 17 31 6 27 13 22 6 24 26 16 29 14 24 25 20 20 10 16 24 16 14 28 19 23 34 9 31 26 20 26 23 17 26 13 17 24 21 22 29 15 23 16 13 21 16 34 23 14 22 23 10 34 24 16 33 24 15 19 13 30 30 27 20 18 29 17 12 7 6 9 10 10 17 6 16 23 18 10 19 20 3 17 29 13 19 20 19 21 19 13 15 19 34 31 6 33 9 6 22 15 17 16 20 16 13 10 20 20 31 16 17 20 17 24 31 19 3 16 19 28 14 28 20 23 25 25 17 33 14 24 17 7 26 13 23 18 12 12 38 22 13 27 19 14 20 24 20 19 3 31 34 34 17 12 23 17 37 13 3 19 23 3 16 19 17 9 19 10 16 19 16 13 10 16 34 10 19 20 24 15 19 41 19 6 24 20 17 17 20 20 12 26 20 16 17 35 6 17 23 17 16 33 31 12 19 24 21 36 13 18 31 10 12 3 21 16 14 6 21 10 17 20 15 19 15 10 23 21 20 33 20 13 26 21 9 30 13 6 9 6 26 23 20 30 13 23 19 11 17 24 13 20 13 13 10 14 23 29 19 21 13 17 6 13 20 12 24 24 22 23 21 21 17 20 22 31 7 23 7 14 20 17 17 14 10 16 14 16 21 24 17 25 15 28 26 33 6 16 10 18 17 23 21 3 17 18 28 41 27 21 12 26 17 20 23 9 0 17 37 3 11 14 24 0 24 7 31 24 9 18 14 31 10 32 23 26 24 22 44 14 26 17 20 17 22 13 27 20 17 20 24 3 17 24 17 31 26 9 17 14 18 20 37 9 24 26 7 30 23 6 17 27 10 31 20 6 23 26 24 14 17 16 24 13 23 20 15 23 35 24 13 23 29 10 29 29 38 27 16 31 24 7 10 17 20 13 26 20 29 21 8 19 14 17 27 14 18 6 16 9 42 26 6 13 23 15 7 19 19 20 17 7 27 14 10 14 13 24 10 15 13 13 24 16 27 10 25 26 10 21 27 20 7 19 30 23 20 9 3 19 25 19 26 26 13 20 10 24 13 17 7 16 14 23 18 20 17 10 24 17 27 27 10 17 23 14 31 16 28 17 27 7 16 10 20 23 19 13 21 17 13 20 34 3 24 27 16 0 16 17 20 20 13 14 23 14 20 31 26 23 3 10 20 24 13 7 27 16 16 34 16 9 30 12 22 12 35 17 6 33 20 22 17 13 24 16 24 0 23 16 28 3 23 21 25 20 19 6 12 17 28 13 17 10 9 12 14 15 10 20 14 24 23 24 17 17 24 12 6 19 14 16 31 22 30 19 20 20 23 23 44 22 34 20 18 19 6 17 28 16 13 17 17 21 24 12 13 7 24 16 20 13 6 27 16 9 23 36 31 24 28 14 0 24 34 9 12 17 21 17 24 17 17 7 30 21 30 35 30 27 30 14 16 31 13 10 16 15 30 25 22 17 16 14 24 23 24 16 23 16 12 16 10 21 14 14 17 19 23 14 22 26 26 9 16 9 27 17 30 17 23 13 12 16 15 26 13 20 20 3 23 13 24 28 27 27 20 30 9 28 17 26 33 23 27 24 23 39 21 19 14 33 10 23 16 20 0 35 26 9 14 22 16 31 9 3 17 13 17 19 13 22 14 19 20 14 19 15 14 43 24 23 29 23 6 13 17 20 34 31 14 10 20 17 16 17 6 31 9 26 17 9 12 34 23 20 10 31 35 17 3 27 14 28 22 22 29 34 13 9 19 31 17 27 14 27 8 29 23 20 24 12 7 12 9 9 26 27 17 24 20 20 24 20 26 13 29 19 21 23 31 23 14 12 13 28 23 27 33 21 3 10 31 13 21 16 20 17 13 20 22 9 6 26 28 20 15 9 20 13 13 7 19 13 27 33 17 24 14 30 20 23 13 17 3 35 16 32 19 10 24 24 29 23 19 19 17 27 17 23 26 21 22 30 17 34 23 31 20 3 10 28 19 16 31 16 26 10 38 31 20 25 20 21 6 17 14 25 31 16 24 23 11 26 13 31 24 14 20 22 17 14 13 13 21 17 9 13 10 10 10 26 19 31 30 6 15 31 17 16 3 20 3 28 10 17 13 13 24 30 23 30 17 18 15 17 14 24 28 16 27 10 10 17 24 3 29 27 13 24 23 19 9 19 17 24 23 18 24 10 10 28 16 21 18 13 3 14 23 23 18 17 19 10 10 30 16 22 21 20 30 16 23 17 26 20 20 38 10 17 34 26 29 13 23 15 20 17 31 12 16 14 20 34 19 16 30 20 10 28 23 16 23 10 6 20 16 33 29 13 34 14 15 14 13 21 20 0 31 14 20 20 20 10 30 13 17 13 14 17 24 6 20 23 22 31 20 14 24 21 15 7 19 22 28 26 13 23 27 15 24 34 9 29 3 23 10 10 30 22 32 20 10 20 23 10 15 14 20 19 20 21 9 17 16 17 13 21 16 14 30 11 26 13 20 38 24 30 6 30 9 21 21 24 6 34 33 31 35 16 21 29 14 30 20 12 20 23 21 34 24 19 23 17 27 7 16 28 6 37 9 7 3 10 20 23 23 37 13 16 24 30 9 26 14 17 19 13 26 14 30 11 10 9 20 13 12 32 19 34 23 24 18 20 25 35 10 16 9 20 3 6 23 27 20 16 33 27 34 23 30 23 24 10 16 35 19 16 10 24 13 12 10 24 11 24 13 16 20 24 24 9 12 31 14 20 7 17 9 20 10 24 34 13 12 13 19 16 17 20 20 24 35 26 28 38 14 21 31 14 7 24 0 10 20 25 41 16 25 17 23 16 42 20 17 19 9 22 26 19 31 21 21 15 26 13 12 14 0 24 17 35 9 20 16 14 20 19 21 27 20 13 24 33 17 10 33 38 21 16 17 13 27 21 3 20 7 13 19 20 0 37 21 14 15 13 27 12 23 25 22 16 10 9 20 15 17 13 16 6 17 0 17 22 41 27 7 12 24 23 19 19 21 34 28 12 32 6 14 10 33 16 22 18 30 26 26 26 3 21 16 10 22 17 7 24 24 20 22 15 23 6 19 6 13 13 21 22 19 10 23 15 8 16 20 20 7 14 17 16 20 21 24 37 42 24 12 6 27 37 20 18 16 19 6 31 13 17 24 32 23 20 6 16 14 22 10 17 9 20 10 17 14 24 22 17 20 7 10 38 15 21 27 21 12 19 24 37 6 23 31 10 14 16 28 16 22 35 13 13 12 13 3 16 9 20 18 10 27 22 14 30 28 25 26 16 24 21 7 3 15 20 11 17 19 6 7 16 27 17 23 27 27 35 21 17 23 34 10 15 7 17 20 23 0 14 13 19 20 24 10 7 12 28 33 17 15 22 22 26 29 16 20 40 31 30 26 21 24 18 6 27 40 13 31 3 16 18 17 22 13 26 16 17 9 24 27 29 21 12 28 31 20 20 7 29 13 23 19 19 21 47 31 24 28 15 17 13 26 21 20 27 33 13 17 26 7 31 12 16 24 17 21 24 20 30 27 18 26 23 27 10 27 11 13 19 27 9 14 20 27 13 15 13 20 25 17 3 24 26 6 18 9 12 0 16 30 18 3 6 27 17 10 23 20 17 8 30 28 34 9 22 27 17 10 20 34 21 13 14 13 17 31 15 16 13 26 27 0 23 26 17 16 20 20 3 26 23 32 27 37 16 12 24 12 26 24 16 6 17 24 20 33 23 26 35 18 20 21 10 20 27 16 42 16 23 13 31 3 20 34 17 17 20 19 13 18 19 13 26 21 17 17 17 10 16 41 9 13 20 41 37 11 17 30 13 24 21 14 29 23 17 29 13 10 24 20 22 13 12 20 19 27 15 22 32 16 23 20 20 13 23 14 16 17 20 13 16 18 16 13 20 34 13 16 19 26 13 23 20 37 24 23 24 20 23 10 17 40 14 17 21 19 40 20 15 17 41 17 17 20 9 17 10 27 21 14 6 13 19 22 17 6 21 16 34 26 16 28 36 13 28 20 0 15 14 19 23 33 5 29 14 13 15 7 29 23 27 24 6 11 10 23 19 16 31 27 20 7 16 16 10 27 9 17 20 17 10 24 16 26 26 23 17 37 17 9 3 13 6 24 34 19 20 38 12 12 20 14 13 27 23 19 35 11 14 13 14 20 21 6 17 20 28 24 17 14 27 29 6 9 14 26 31 25 18 20 27 23 3 22 17 16 20 10 17 23 14 27 26 30 19 10 34 27 34 13 27 22 20 6 18 23 22 9 13 16 28 23 31 9 22 25 13 10 31 22 28 13 23 20 7 12 20 34 24 20 20 9 23 13 18 26 27 20 20 10 21 13 24 10 26 10 21 22 26 16 17 28 13 20 16 12 21 17 23 16 16 24 17 23 36 19 13 23 27 34 30 24 21 24 22 18 16 23 20 24 20 22 23 22 27 27 16 27 19 21 16 22 26 41 7 28 35 16 14 16 18 17 23 14 9 14 11 18 27 21 20 20 12 30 0 28 27 26 26 15 13 6 14 30 43 17 13 37 26 41 6 7 24 9 12 34 26 16 13 3 14 14 16 30 9 13 7 15 17 28 13 20 13 20 23 20 24 13 24 16 17 27 24 15 19 15 9 26 28 36 12 10 34 17 21 26 8 34 27 24 34 12 10 22 20 28 29 28 25 18 21 12 20 23 16 9 16 24 16 27 23 16 10 41 13 20 16 20 13 16 26 23 30 13 21 35 13 23 25 29 11 16 9 10 13 21 20 17 26 13 30 24 17 13 15 13 14 23 16 7 3 8 14 17 23 23 43 15 13 24 12 19 20 12 17 23 21 15 6 10 29 23 17 30 20 24 27 17 10 27 9 23 25 27 23 14 33 24 30 6 16 24 24 37 40 37 20 27 14 28 16 13 33 18 23 13 13 20 21 22 23 10 20 3 24 31 10 33 7 12 22 13 41 13 24 30 18 29 9 31 0 16 6 13 21 22 20 20 16 29 20 7 21 30 9 14 27 6 23 10 20 27 23 17 17 36 21 10 24 17 24 29 26 15 7 6 12 16 13 10 27 10 17 16 35 29 21 16 17 34 28 17 3 31 13 16 20 31 20 20 23 17 17 27 20 23 17 13 6 20 22 15 22 17 17 19 8 21 24 14 14 27 20 7 30 19 9 33 34 10 29 13 25 12 14 27 29 16 16 20 17 23 21 22 20 30 13 24 27 19 16 13 31 13 21 10 26 13 20 20 21 17 13 14 17 37 18 16 21 24 17 16 9 18 7 15 14 21 24 37 23 19 17 11 27 21 10 23 21 23 31 19 13 26 13 19 28 10 13 22 26 31 13 23 16 20 27 30 17 23 41 38 25 20 24 10 13 35 17 16 13 24 14 24 30 16 9 37 10 7 37 20 20 20 14 16 9 16 29 20 28 15 31 3 10 13 17 20 16 14 17 26 13 22 34 23 17 27 14 13 21 13 9 27 30 30 28 9 6 17 25 20 13 27 14 33 17 13 20 21 27 22 21 26 6 20 10 7 17 17 39 20 3 23 20 21 14 14 37 6 9 17 16 10 23 17 13 18 10 16 23 26 10 27 31 27 6 31 22 16 19 15 21 17 7 23 16 24 19 24 27 30 26 19 20 32 16 24 10 31 29 21 20 35 17 13 33 13 16 16 24 13 24 6 16 23 14 23 10 30 17 30 22 33 20 33 24 33 19 24 14 16 9 25 13 31 12 27 17 17 15 19 27 38 21 41 15 42 20 23 27 28 10 16 31 23 16 24 20 16 33 21 20 27 13 32 28 13 22 38 20 24 16 13 28 17 27 15 29 13 14 17 13 17 19 24 20 27 31 18 35 21 14 13 27 6 14 17 23 30 27 21 44 20 27 27 20 36 9 6 23 23 17 12 24 20 16 10 23 17 50 31 20 16 13 6 23 24 21 31 24 20 13 24 24 17 19 33 23 19 23 26 26 10 17 13 37 17 34 20 34 34 23 24 16 17 26 14 20 20 20 24 23 38 24 18 9 19 23 33 31 6 17 13 27 14 24 31 20 23 16 17 24 7 20 14 15 20 19 20 12 12 16 17 17 20 13 16 14 10 18 21 27 19 16 10 18 38 34 24 17 19 37 23 18 19 41 43 19 14 20 20 19 23 24 7 25 16 29 16 20 10 24 20 30 20 20 7 20 16 13 19 18 12 12 34 6 14 16 12 20 16 31 12 27 13 16 15 12 12 16 23 20 14 26 13 21 10 18 31 29 34 23 3 3 20 24 29 10 12 14 38 24 17 34 20 6 34 30 17 7 26 29 16 13 14 14 33 20 30 27 17 30 6 24 16 15 10 24 22 20 9 14 24 9 7 35 23 12 6 12 13 33 20 27 3 13 22 28 19 21 17 20 12 13 10 14 26 24 17 28 13 28 21 13 31 29 29 11 9 20 27 6 3 36 12 25 27 29 13 14 16 12 14 9 6 31 21 20 20 14 10 12 19 27 22 31 26 16 19 27 26 34 21 24 17 27 13 27 23 27 19 20 23 10 17 6 13 28 26 26 23 10 9 30 6 12 20 7 27 28 10 19 12 7 31 17 25 16 22 37 10 22 27 13 19 20 27 40 27 9 9 23 20 7 13 19 20 22 3 14 30 17 20 13 19 9 6 28 3 27 3 22 31 23 12 38 16 23 21 17 29 37 9 17 31 14 28 14 7 19 10 34 14 16 28 10 23 6 10 7 20 17 9 17 19 20 10 26 24 10 24 26 17 7 24 10 14 20 14 29 16 21 20 27 19 16 7 17 14 20 9 24 10 10 17 10 6 23 20 30 15 19 20 24 23 18 20 14 26 15 37 17 20 24 32 13 23 17 18 22 20 21 13 24 31 20 16 13 19 22 20 22 16 31 27 20 38 17 52 38 27 13 18 15 17 26 9 11 20 16 20 23 16 20 20 24 14 22 13 24 27 3 20 42 22 24 20 44 13 20 7 17 23 16 33 12 14 20 17 17 17 19 7 25 17 23 16 21 19 20 17 35 24 32 20 28 12 27 19 33 34 20 7 26 24 16 17 30 23 10 20 20 13 12 15 27 7 21 22 19 16 19 9 19 27 37 31 20 9 5 20 28 31 17 20 13 24 23 26 13 23 24 27 23 20 27 9 14 7 30 19 27 13 24 27 13 17 38 0 23 13 20 19 6 20 23 38 23 24 22 20 28 7 10 17 6 27 17 7 17 20 13 10 20 14 16 37 12 16 10 30 9 20 21 27 16 24 10 26 23 21 20 24 13 23 13 12 21 13 7 6 23 34 24 16 16 20 16 10 13 13 15 17 16 20 20 20 16 24 34 27 20 27 17 27 16 12 20 30 17 12 19 19 17 18 6 16 28 31 20 27 24 20 20 16 16 33 14 28 38 10 20 15 15 24 21 31 28 30 13 27 10 18 22 16 13 33 24 29 16 10 24 17 24 16 29 20 14 9 12 10 6 23 20 11 15 38 27 22 19 17 21 17 23 17 37 20 20 6 13 11 27 16 7 24 16 22 24 22 27 14 27 10 23 30 38 20 17 23 17 13 20 19 18 0 23 10 19 19 28 23 16 30 20 12 6 25 34 17 13 20 17 23 0 45 7 3 22 6 34 21 17 9 27 27 20 27 21 21 27 12 9 19 14 7 16 38 18 3 20 23 30 30 19 17 12 33 15 16 18 16 30 17 33 23 30 10 12 31 24 20 20 10 3 22 16 13 13 32 31 23 26 16 22 13 20 27 14 28 20 20 16 22 19 34 3 20 12 23 6 17 42 7 23 20 15 13 18 31 20 25 18 27 34 13 19 13 31 30 31 16 20 21 21 31 30 20 14 17 14 31 23 26 34 10 21 30 31 26 38 34 20 10 16 35 16 17 31 6 10 24 23 32 31 27 20 23 19 16 30 17 13 17 0 13 37 20 16 13 17 13 24 26 18 17 16 10 27 22 23 7 10 17 10 16 38 16 9 24 36 29 24 26 24 34 24 10 3 16 31 6 41 14 17 10 30 16 23 20 27 6 18 31 20 26 17 16 3 11 23 21 3 23 13 20 13 16 14 16 10 13 20 9 3 31 10 13 30 14 21 24 20 17 22 41 26 12 7 13 6 10 13 19 31 16 19 10 38 25 7 10 24 9 28 19 13 20 13 21 20 13 27 9 31 23 20 24 28 24 7 24 17 30 19 23 12 34 17 3 17 9 17 17 6 3 23 14 20 23 26 23 41 13 21 26 10 27 39 7 23 26 28 23 24 27 14 14 3 14 13 26 22 27 23 20 31 33 24 17 17 17 19 26 30 34 15 34 13 20 20 16 27 23 27 23 3 11 12 13 6 14 27 16 17 18 20 16 9 26 19 9 21 20 14 7 14 19 30 31 29 27 16 39 20 12 29 12 15 27 16 19 21 23 30 19 10 30 10 20 30 23 10 21 6 16 27 6 24 10 24 22 13 29 11 27 17 13 42 36 19 40 22 19 19 27 15 17 18 27 16 23 33 13 3 27 31 6 25 14 12 16 24 17 19 20 21 10 30 20 10 14 9 17 17 13 30 27 16 23 30 20 24 13 10 24 8 14 17 7 16 12 13 17 19 28 17 28 12 23 12 22 26 18 24 19 23 17 7 23 10 22 13 13 26 18 24 23 33 26 16 7 6 24 20 23 14 23 27 23 24 21 7 16 17 13 10 23 10 30 22 21 8 6 19 7 31 38 13 9 14 23 41 33 29 30 14 21 10 46 21 22 7 10 7 30 27 7 27 23 28 17 17 31 20 21 16 21 23 25 20 21 13 18 24 17 17 10 23 20 10 20 25 34 6 19 20 13 13 6 35 16 23 10 13 19 35 21 7 10 21 27 24 27 14 16 10 9 17 21 31 17 30 24 10 29 17 6 9 17 27 17 21 31 26 16 29 34 33 28 28 19 40 7 16 10 13 17 20 9 22 17 10 20 13 17 28 14 31 25 17 10 24 23 30 31 19 13 20 26 26 16 20 24 17 24 17 16 22 3 23 6 13 6 10 13 16 35 20 16 27 3 27 14 19 28 20 23 13 10 16 9 10 21 24 14 23 10 17 31 31 6 18 17 29 20 27 38 30 19 16 13 9 20 33 23 34 14 23 9 13 15 31 16 30 27 19 15 17 20 19 16 14 19 17 18 27 9 10 21 9 17 24 13 21 22 17 13 20 30 23 9 27 14 10 20 10 17 30 20 22 13 28 54 23 13 28 17 16 22 27 6 38 10 27 13 23 12 17 16 34 29 19 17 25 7 25 21 23 20 11 33 6 26 7 15 44 17 23 17 3 9 17 38 41 15 21 17 30 14 31 19 27 33 17 13 21 32 3 13 24 20 30 17 20 15 20 20 38 26 20 16 17 27 29 38 27 37 17 20 27 14 15 24 27 35 20 30 7 23 27 32 24 19 3 23 6 19 25 23 24 37 30 6 17 17 27 24 23 34 17 14 17 17 35 16 25 20 21 29 0 3 21 23 27 30 7 17 9 0 13 34 13 10 17 23 14 6 3 30 6 24 22 3 28 16 20 10 13 20 16 7 17 12 23 19 23 16 14 16 26 19 7 20 17 13 21 14 6 13 7 27 18 17 17 17 21 13 30 31 27 14 17 20 10 13 24 24 27 27 22 16 36 24 10 20 29 15 13 19 13 23 13 26 11 20 24 24 30 23 23 11 32 9 7 20 17 16 24 13 13 31 31 17 10 16 16 9 21 21 30 31 29 15 0 10 17 22 14 27 26 17 23 13 24 7 15 21 36 23 27 9 9 12 18 6 27 12 7 19 17 31 17 16 24 17 6 24 20 20 20 21 23 11 7 17 10 34 16 38 16 10 28 10 37 23 23 6 24 7 3 31 17 24 3 16 27 23 17 17 15 19 26 31 19 27 20 15 27 6 14 9 19 16 17 18 17 20 28 14 15 26 20 23 20 10 20 34 29 17 20 23 23 21 27 31 41 27 14 24 16 17 13 27 30 20 13 28 23 20 14 6 24 16 26 17 13 21 17 16 23 6 23 17 17 15 17 19 27 14 12 21 15 20 13 31 10 24 23 22 13 23 16 20 16 35 24 16 30 30 16 13 27 27 28 6 6 12 26 23 16 31 24 10 12 27 17 24 24 12 10 15 31 6 21 30 14 20 30 20 16 31 15 17 17 29 24 24 22 37 20 10 11 19 17 7 14 15 21 26 46 23 10 17 24 22 29 14 3 32 33 31 27 6 6 20 20 17 37 22 31 14 9 34 24 9 27 19 34 33 20 17 19 26 15 22 17 23 28 24 17 24 24 16 13 20 20 20 28 17 26 30 29 14 10 19 34 14 9 21 20 13 19 30 23 31 17 10 34 17 34 17 6 33 16 37 16 25 15 24 20 9 23 3 34 27 17 21 24 28 25 24 17 7 20 28 13 17 6 14 20 17 24 30 10 21 16 7 27 21 14 16 14 13 23 6 41 13 24 27 28 24 20 26 22 23 12 12 28 6 29 23 24 16 9 37 23 20 21 6 31 10 21 15 22 13 14 17 16 14 25 16 31 20 27 17 24 29 24 20 23 27 17 13 14 31 10 18 31 29 34 13 26 19 10 16 23 34 20 20 23 29 34 6 24 10 25 15 12 17 10 20 17 16 7 21 17 12 10 27 21 17 9 17 15 49 10 23 9 15 24 17 17 20 24 28 16 28 31 7 17 20 26 23 14 10 19 17 14 21 19 27 17 22 6 13 27 27 10 17 19 16 34 0 28 31 30 6 26 14 24 20 15 20 24 12 10 17 19 28 27 3 22 19 21 13 20 14 16 9 18 31 18 10 19 21 13 21 18 19 23 13 10 12 19 10 0 31 14 22 34 29 25 17 22 20 27 10 10 7 23 14 20 23 17 27 27 23 44 22 27 21 25 10 17 23 27 14 26 13 16 12 17 31 23 24 17 17 20 19 12 6 17 17 20 21 31 31 23 20 26 17 26 14 20 22 23 22 14 6 20 17 10 23 27 21 13 24 13 17 15 25 15 14 10 13 22 6 10 20 24 14 10 37 15 29 36 32 6 26 17 35 41 16 11 17 17 10 10 31 19 21 24 27 19 13 25 13 24 3 19 31 16 10 23 10 32 14 32 27 13 12 21 20 19 16 17 12 16 9 13 14 23 38 30 31 3 16 17 27 13 27 20 16 27 24 14 18 22 10 3 13 35 20 13 12 12 33 3 15 20 31 28 19 26 24 17 27 20 21 13 21 26 21 10 17 28 21 34 17 20 21 19 20 20 12 26 16 24 15 10 28 11 19 9 21 37 23 14 13 24 13 28 28 24 6 0 23 20 16 3 34 14 7 20 28 24 23 34 20 9 6 18 14 18 19 20 22 11 23 28 16 30 13 17 16 22 21 10 20 21 15 17 12 14 14 27 27 22 17 6 20 27 20 17 18 13 17 13 24 14 20 16 27 22 22 10 30 7 20 23 27 14 23 17 24 3 12 29 23 24 28 13 20 14 26 9 20 24 13 28 14 9 13 10 20 24 17 17 17 13 17 34 30 27 24 10 24 13 42 27 20 17 13 20 27 13 9 24 3 34 45 8 14 6 13 30 3 24 31 13 16 21 17 38 11 31 20 16 16 17 17 18 26 17 15 14 24 17 0 23 12 30 20 24 17 14 13 21 16 17 29 14 13 25 21 21 34 10 10 14 20 28 3 20 33 33 21 20 18 14 26 13 17 17 12 20 9 34 13 23 24 21 19 13 22 23 19 24 12 21 28 22 15 26 27 23 22 28 18 6 12 16 34 23 19 23 24 10 10 22 16 21 9 16 34 34 10 16 14 17 10 20 26 20 6 6 18 21 13 20 29 3 26 17 17 38 22 21 17 24 19 15 25 24 13 20 13 11 14 23 26 17 20 13 20 15 34 15 21 29 23 27 31 24 19 22 9 45 16 16 20 26 21 30 17 6 38 20 17 45 19 34 23 13 25 13 7 20 13 17 19 5 21 21 30 30 23 41 23 23 3 17 23 13 7 18 20 13 28 16 9 10 9 16 10 10 29 21 6 3 17 36 10 24 20 24 21 23 16 17 20 9 10 13 24 20 23 14 33 26 32 20 34 27 13 14 27 20 27 13 27 20 0 30 14 13 31 24 19 19 17 13 28 23 30 23 29 37 15 28 12 26 17 28 13 16 33 23 9 16 13 13 16 14 9 12 30 14 14 17 15 16 13 18 24 27 20 28 15 28 24 21 17 7 7 24 20 19 13 17 24 24 13 23 14 16 32 10 10 15 20 17 10 41 17 37 17 13 30 33 13 34 10 13 27 31 19 25 31 10 17 24 17 27 16 41 20 23 20 7 20 14 30 31 26 31 19 31 23 20 12 23 24 30 12 26 10 3 17 23 23 21 21 17 20 7 6 13 9 9 23 8 17 19 23 24 23 16 26 16 21 20 28 20 16 25 22 20 20 12 22 16 27 10 15 17 31 10 6 26 11 26 17 16 9 13 34 25 27 27 22 22 24 27 23 28 13 31 16 17 9 14 29 27 13 24 19 24 20 21 26 15 12 26 30 34 20 27 37 27 7 10 9 9 17 39 24 23 3 12 21 40 22 24 27 23 6 15 10 24 17 24 17 10 30 20 24 21 10 13 17 16 23 23 35 27 40 22 35 7 3 17 27 17 21 18 27 13 27 31 21 13 13 16 22 19 23 19 12 21 17 26 30 24 20 23 9 30 26 30 27 24 19 15 17 16 17 14 12 10 23 13 24 13 9 31 38 29 10 29 15 35 15 27 24 10 17 10 13 14 23 23 13 14 28 13 17 20 23 21 20 13 17 16 22 17 20 23 9 19 17 12 29 13 19 14 15 9 8 24 31 24 20 8 9 20 24 20 18 23 17 6 36 17 19 13 24 19 19 28 17 0 19 6 17 28 14 27 29 16 28 19 13 10 16 26 29 16 17 14 34 16 9 27 31 19 20 33 14 20 7 0 26 20 21 7 3 13 35 15 13 25 25 24 26 13 16 3 14 13 17 20 42 9 27 17 21 17 16 22 10 28 31 24 16 17 16 23 16 10 23 20 22 10 14 16 18 30 18 27 19 9 19 31 20 20 7 9 23 14 20 13 20 17 13 29 6 15 10 24 20 28 21 26 28 16 6 30 23 23 13 24 26 24 26 20 20 21 27 10 32 30 17 7 24 24 16 27 9 20 24 16 16 31 12 19 17 17 27 13 24 19 17 6 20 13 10 34 24 30 20 37 27 20 19 13 10 20 23 17 3 17 17 20 6 19 29 18 12 17 20 26 37 20 18 30 9 6 16 6 26 21 20 21 34 33 6 10 24 28 16 10 10 20 17 10 29 38 3 20 17 20 23 16 26 26 21 27 22 17 30 16 0 13 16 15 26 3 24 19 6 16 13 23 6 26 25 26 17 21 34 22 19 12 24 13 31 18 19 19 23 20 14 23 15 18 11 19 24 20 16 20 27 42 10 9 20 31 27 20 17 16 20 21 23 20 17 14 31 6 38 16 13 23 13 20 13 9 43 10 20 30 20 20 27 20 19 13 23 6 0 28 10 27 21 19 25 19 41 0 38 17 24 23 18 12 31 24 13 10 37 17 16 10 37 17 23 10 26 17 20 6 6 13 24 21 23 15 19 28 9 21 16 3 10 21 16 22 3 17 23 17 23 20 17 6 10 15 16 21 6 16 21 17 24 9 37 17 34 13 12 14 23 17 17 10 13 9 16 33 35 27 10 21 19 27 23 24 13 24 10 32 15 13 13 14 17 23 16 24 26 38 3 6 11 24 13 37 12 19 50 36 14 20 17 17 10 20 13 25 17 6 10 19 19 15 17 19 15 9 3 21 17 16 28 13 10 9 24 19 3 20 13 14 27 23 31 13 7 34 24 31 6 24 25 14 41 17 17 20 15 31 20 13 21 6 19 13 24 19 24 9 19 17 27 6 7 13 24 27 24 28 20 9 22 23 6 14 24 36 31 17 15 17 12 20 25 19 16 26 18 23 23 27 13 0 17 16 21 26 24 18 7 24 16 30 6 12 13 13 33 13 16 35 33 27 27 27 16 28 26 29 23 34 6 21 14 24 41 22 26 7 33 20 17 21 10 21 26 34 12 28 31 6 34 25 16 20 20 13 24 23 13 28 17 23 19 12 13 10 14 7 20 15 34 16 13 17 10 16 10</t>
+  </si>
+  <si>
+    <t>EXN(0.5257307527567572, 19.531621441543354, 3.8243792614935757)</t>
+  </si>
+  <si>
+    <t>29 27 22 26 26 23 27 24 18 14 20 22 19 27 15 20 20 23 24 18 13 19 24 16 23 17 18 26 21 19 23 22 20 18 24 16 20 26 18 12 13 19 25 12 16 24 29 30 25 17 21 21 18 17 17 22 20 21 20 18 23 15 20 25 14 22 21 25 24 29 16 22 20 17 26 18 18 18 17 27 11 16 33 15 18 21 25 21 18 21 19 25 25 20 12 23 27 19 21 17 21 24 23 23 20 28 23 22 22 30 16 19 26 19 28 20 19 23 21 16 20 21 13 22 21 14 13 16 24 19 21 19 18 19 20 21 21 17 22 25 24 27 23 19 19 18 20 20 15 22 17 23 23 21 22 25 13 21 23 19 22 19 16 17 26 22 25 14 23 22 26 26 31 34 19 21 28 21 21 21 17 24 17 20 12 21 24 21 14 21 29 18 22 25 29 20 29 18 26 17 23 23 24 26 25 25 19 20 23 22 21 17 17 22 17 17 17 24 23 26 24 23 19 24 21 20 22 22 11 17 19 25 26 23 18 21 19 18 24 22 22 21 23 18 25 22 24 17 28 18 34 33 13 22 23 26 21 39 17 21 28 18 23 23 27 19 23 22 17 29 26 11 28 25 17 20 25 20 15 25 25 22 13 21 26 14 27 18 18 19 20 27 24 20 17 17 22 25 24 22 21 22 13 19 19 25 20 21 18 22 20 22 23 15 18 23 20 19 17 23 22 29 12 25 13 20 25 20 24 26 26 24 26 20 32 16 18 21 22 25 22 23 17 27 22 20 24 22 24 24 34 25 23 18 20 23 23 17 21 20 24 11 20 26 24 22 26 23 17 16 15 23 15 14 33 24 19 22 33 23 25 20 26 22 21 20 20 22 25 26 32 26 14 27 16 16 24 25 20 20 26 20 21 25 19 25 20 17 16 27 19 20 23 19 15 16 22 26 21 18 15 19 30 19 23 24 24 25 26 21 23 25 26 20 21 20 25 16 14 20 16 26 22 13 19 20 21 17 18 22 20 24 26 22 17 19 19 21 23 22 25 13 20 20 25 21 16 22 24 31 17 15 24 23 13 24 26 19 24 22 22 28 17 29 26 17 18 26 19 18 22 26 21 26 21 27 18 23 27 15 18 20 26 24 27 20 17 21 24 18 26 20 26 17 24 14 25 30 15 21 25 26 29 20 17 18 18 19 17 19 18 25 29 11 23 29 21 32 28 17 10 22 19 13 22 26 27 18 16 29 19 19 22 17 18 27 22 18 19 21 29 21 20 19 20 16 16 28 20 18 22 15 24 18 24 21 25 21 17 28 30 23 24 25 20 29 19 21 27 28 21 22 30 22 10 19 20 27 25 18 26 19 19 29 20 19 24 22 28 22 26 18 19 18 27 22 21 17 27 19 21 20 24 16 18 28 24 23 15 23 17 23 22 15 25 23 17 16 22 21 17 23 21 24 25 32 25 25 22 23 21 24 23 27 13 18 14 15 18 20 22 31 21 24 16 18 16 27 23 25 25 20 15 21 26 22 29 19 26 26 17 17 19 18 19 20 13 24 13 21 23 17 24 25 19 21 23 17 21 21 22 27 12 20 28 26 19 18 20 21 24 22 22 21 11 18 18 12 17 20 22 26 21 24 25 22 23 31 10 24 21 14 18 23 22 14 26 15 17 28 15 19 26 18 22 24 21 19 27 17 25 18 28 27 19 26 17 23 23 28 29 19 24 21 17 18 24 20 21 23 16 20 18 19 37 16 17 20 24 23 25 23 17 27 23 28 23 22 29 28 25 23 15 20 21 28 21 26 17 21 15 21 20 21 26 28 19 18 27 25 23 20 28 19 19 21 21 22 12 8 16 15 19 20 20 20 22 17 23 23 20 22 21 20 18 20 21 25 17 26 26 21 19 26 20 23 25 15 27 24 25 24 21 25 28 23 19 27 25 15 22 22 19 22 18 26 16 26 25 18 29 25 23 18 27 16 24 31 23 24 22 21 21 15 21 22 23 24 25 20 20 19 25 20 22 17 24 20 25 16 19 16 17 10 22 21 20 21 18 21 15 20 18 26 22 18 25 26 21 18 24 19 15 20 29 22 13 12 13 28 26 26 26 23 22 23 20 27 16 20 28 22 18 20 25 29 26 16 17 26 23 18 20 31 26 18 23 20 25 20 25 24 29 17 23 27 18 14 18 23 20 16 15 25 20 23 24 27 26 16 22 22 21 22 29 18 22 24 25 20 19 29 16 15 19 21 26 28 30 20 21 22 22 22 22 25 16 23 21 23 22 14 24 20 18 21 24 21 14 22 14 20 21 25 19 24 15 24 28 21 18 27 20 23 22 24 23 25 21 21 21 25 26 21 28 20 25 22 19 18 26 19 29 26 21 17 18 18 26 17 32 18 19 31 17 19 13 22 24 24 20 26 19 19 18 24 18 23 24 24 18 20 17 25 19 22 23 21 20 27 23 21 19 27 26 20 16 20 19 18 18 17 23 18 21 18 25 17 19 24 20 26 17 26 24 31 20 19 27 23 21 29 23 23 21 20 19 18 23 24 26 21 25 21 24 19 21 21 22 19 23 20 19 21 21 22 21 19 21 23 21 23 31 19 19 15 25 27 18 24 23 18 13 24 18 17 21 24 22 21 17 19 21 20 21 21 27 22 20 19 23 17 23 28 30 19 20 14 20 14 19 18 25 22 16 21 17 19 28 22 20 21 20 21 31 19 19 18 24 21 22 17 16 20 10 21 27 29 22 34 19 20 24 20 24 26 16 16 27 16 18 23 23 20 19 22 21 23 25 23 25 20 21 25 19 16 16 18 24 30 21 17 26 15 17 34 17 19 26 26 20 21 22 20 12 25 19 22 15 23 22 21 19 30 24 16 27 26 17 23 22 18 24 24 16 20 19 26 24 24 28 24 19 21 21 17 22 13 24 20 18 17 28 22 20 22 24 21 24 17 20 13 23 24 24 14 17 25 13 26 25 20 25 21 29 16 18 29 20 22 21 22 26 15 21 20 28 22 28 24 20 16 19 22 17 18 21 26 21 20 24 28 24 24 24 20 19 24 23 23 24 19 21 16 23 15 23 13 26 23 28 19 28 20 21 19 24 28 27 23 28 20 19 20 18 18 26 19 25 14 22 23 18 19 18 24 20 22 27 28 22 18 14 25 17 19 18 20 17 25 22 24 18 15 22 18 18 26 26 29 24 21 20 19 23 27 23 22 22 20 20 23 13 18 17 20 21 23 25 19 16 24 18 27 16 20 22 18 16 18 29 20 17 17 30 18 21 19 18 25 20 24 19 17 14 16 15 18 21 11 17 30 22 20 29 22 14 19 23 27 20 17 14 23 19 22 22 30 19 14 23 29 25 22 22 19 21 13 20 24 26 21 25 21 27 22 17 20 27 21 21 28 24 25 31 19 17 31 29 26 25 21 25 26 18 22 24 18 23 17 19 23 31 29 24 16 26 21 15 19 24 25 18 20 25 19 20 21 16 29 16 17 25 18 23 23 27 18 20 20 20 17 23 18 21 24 23 26 14 10 17 18 19 16 24 21 19 22 24 21 24 28 21 25 21 15 15 21 22 17 28 28 20 24 20 22 20 27 14 19 18 20 15 23 19 22 32 30 18 18 18 24 24 20 20 23 20 20 21 24 16 29 22 25 18 22 13 28 19 23 21 18 19 17 22 20 15 22 30 23 17 21 21 25 28 20 23 15 18 23 22 19 21 23 11 16 19 16 27 24 22 19 18 21 23 18 24 25 20 24 25 21 20 25 25 20 24 20 20 32 21 19 20 28 19 23 17 34 25 25 23 25 21 17 22 23 25 23 17 18 22 25 16 29 21 22 10 21 18 18 21 23 24 23 21 21 19 25 25 19 22 26 20 18 19 14 18 21 26 21 23 24 18 22 23 21 23 28 24 22 19 15 12 23 26 17 20 20 20 19 21 24 24 22 17 12 29 14 19 19 21 18 20 20 18 26 20 15 24 19 18 33 19 27 14 22 23 17 24 19 16 25 27 18 26 18 18 19 21 21 21 24 18 18 16 19 24 26 21 20 26 27 20 22 27 12 23 15 21 24 18 27 26 22 22 25 25 14 17 23 19 16 29 32 24 19 14 17 18 15 27 26 24 22 20 21 22 21 18 18 15 24 28 24 27 27 21 22 17 27 27 28 22 20 24 16 26 23 16 26 21 21 28 26 20 20 18 26 25 21 20 19 22 23 29 24 19 22 21 19 20 19 20 27 23 20 19 22 17 25 27 27 20 25 18 20 30 22 19 23 21 19 21 26 20 27 21 14 20 20 17 18 20 19 14 22 29 23 23 23 26 21 28 17 17 17 23 22 15 20 19 16 23 20 18 17 24 21 20 20 17 23 17 20 19 22 31 24 28 22 26 26 20 26 23 16 19 22 26 23 25 25 20 18 15 25 39 23 22 22 20 19 35 22 16 23 21 17 17 29 24 30 18 21 18 22 19 17 11 25 25 24 21 15 20 22 25 17 19 20 27 26 13 20 18 20 27 24 22 14 21 21 19 15 22 11 20 17 28 19 19 22 28 19 26 13 24 26 28 19 22 20 26 15 26 23 15 18 34 22 25 24 28 21 21 22 24 16 29 24 17 15 20 12 19 12 19 26 27 24 20 24 27 24 26 22 24 18 21 22 14 25 18 22 22 19 25 28 20 21 22 25 30 20 19 20 15 17 13 16 29 18 23 19 28 23 29 24 25 21 26 26 27 23 19 23 33 24 31 20 17 21 19 20 18 26 32 21 20 18 22 31 21 22 26 15 15 27 21 26 27 24 26 22 16 19 22 17 22 22 28 20 20 20 28 27 17 28 17 24 26 28 24 37 27 22 27 22 21 19 34 17 24 17 23 27 16 23 22 14 27 21 23 17 29 26 20 17 18 23 24 27 25 24 23 19 23 28 19 22 19 19 29 27 21 22 33 28 29 21 23 21 19 24 24 25 25 24 24 16 24 13 17 21 19 21 25 22 14 22 25 21 19 19 21 25 26 15 27 20 19 21 27 26 14 26 27 20 23 22 13 19 14 24 33 15 19 19 22 19 25 17 22 20 31 18 25 25 22 23 21 13 14 25 26 27 20 19 19 14 14 20 27 24 20 19 18 21 22 19 23 23 28 29 19 18 23 18 16 26 22 11 22 20 18 18 27 14 20 13 16 23 25 27 24 18 18 16 14 22 24 19 24 25 25 18 20 25 24 31 25 24 29 22 21 15 21 16 31 26 26 10 19 26 23 33 36 26 20 28 26 18 25 17 21 28 24 26 26 26 12 18 20 16 22 17 26 14 15 18 29 19 14 24 19 24 23 21 30 21 24 10 19 27 28 19 21 21 17 23 23 18 18 15 22 26 27 25 13 24 23 16 31 19 18 27 20 28 21 25 27 24 24 26 22 18 15 19 20 17 19 23 13 18 21 21 15 28 20 29 22 24 29 23 27 18 20 14 19 20 20 20 23 23 24 19 19 19 20 22 27 23 29 23 21 22 16 25 22 18 18 21 19 25 20 21 19 24 22 22 18 20 21 23 19 24 21 21 16 23 15 29 23 20 27 25 26 17 23 23 26 15 28 22 21 20 22 29 24 18 24 22 21 18 24 19 31 21 33 23 15 21 24 22 24 18 31 14 23 27 20 20 23 22 22 19 27 19 29 16 19 20 23 24 26 21 24 26 15 19 19 26 23 24 23 23 21 13 21 24 23 22 19 21 27 21 16 17 16 22 19 21 20 21 21 23 18 25 33 23 22 22 12 24 26 27 24 33 22 30 18 21 24 23 22 22 26 26 27 24 20 18 21 23 16 23 19 18 14 18 27 24 21 23 17 21 17 19 23 22 16 23 26 26 15 21 21 23 24 23 18 21 25 29 24 18 21 22 19 14 23 17 21 27 18 30 23 21 27 24 24 26 22 21 16 26 19 20 25 19 19 23 22 18 28 30 23 24 18 25 22 23 25 21 19 30 24 27 25 31 18 27 19 25 24 24 28 27 31 22 29 15 14 24 25 24 21 22 26 24 17 22 17 20 25 35 23 12 27 27 20 15 20 19 28 19 23 19 25 18 22 28 21 23 19 16 20 25 19 25 29 23 26 27 23 12 23 22 15 21 22 32 22 26 26 18 23 25 22 22 17 25 25 23 14 28 27 22 17 18 23 21 18 18 19 16 20 26 15 24 23 19 17 27 21 30 17 17 30 21 24 16 18 17 19 24 18 15 18 28 17 21 15 13 18 17 19 22 29 21 15 18 17 26 28 25 22 21 19 23 19 23 26 17 14 21 16 30 25 26 25 20 23 14 22 15 20 15 20 19 24 25 19 19 23 28 13 18 24 22 23 21 17 31 27 32 19 17 14 20 23 22 26 17 20 25 21 21 20 30 22 17 20 26 32 25 24 23 27 19 16 24 24 19 20 23 16 30 25 36 24 23 23 22 17 24 26 21 17 21 17 23 31 18 23 22 31 23 29 22 18 18 20 23 14 22 20 17 20 22 20 19 19 19 15 21 19 20 18 20 22 23 23 28 21 24 20 19 19 27 20 25 21 20 19 22 28 16 13 22 20 16 23 20 20 26 32 16 19 26 15 21 22 25 20 19 18 27 18 23 19 22 21 26 28 16 24 18 18 10 19 24 25 23 17 17 23 29 23 25 21 20 23 21 19 24 18 23 24 19 21 22 25 26 17 22 28 22 23 21 17 22 26 20 20 26 20 19 20 14 20 21 19 17 26 23 19 18 16 20 18 18 23 22 27 26 17 19 22 19 18 23 30 17 24 20 33 31 16 21 18 22 21 19 28 22 13 22 18 26 30 21 27 15 29 21 31 15 24 18 21 28 24 23 29 22 18 19 24 16 21 23 21 17 18 15 23 18 22 16 15 12 18 23 18 35 19 26 16 25 14 18 11 16 27 18 18 32 27 24 18 23 15 20 21 21 23 13 21 25 29 24 17 21 28 29 25 25 18 27 22 23 20 20 13 20 25 29 23 21 18 23 16 15 24 23 17 18 21 23 19 19 23 23 36 22 19 28 21 22 26 24 23 23 18 24 19 18 22 16 23 23 25 19 20 23 24 21 22 20 24 21 24 12 27 19 26 21 26 21 22 24 19 24 21 27 17 29 18 23 22 13 28 34 22 24 22 17 24 28 22 18 19 19 23 26 18 18 20 20 26 30 25 30 25 25 30 20 20 18 19 20 22 23 29 24 18 19 17 19 23 19 24 18 22 17 26 23 17 17 25 27 30 23 24 23 30 19 17 23 29 24 21 27 15 20 23 21 22 26 25 24 25 24 20 27 25 23 24 24 13 11 20 24 23 20 22 15 14 17 13 13 19 18 23 20 21 14 9 22 17 20 20 23 18 27 22 17 22 24 25 15 21 13 23 21 27 21 23 26 24 19 21 19 24 19 21 25 30 25 22 16 30 16 21 19 26 20 17 23 19 19 17 21 23 23 17 20 26 28 15 19 13 17 28 23 20 21 20 24 26 29 26 17 20 21 29 26 15 15 26 23 23 22 30 21 13 22 22 20 28 19 17 16 19 29 20 16 16 16 19 22 22 27 17 14 30 18 24 20 19 19 16 22 15 24 15 19 23 20 25 19 18 26 15 25 27 20 14 26 17 18 26 16 20 18 24 22 17 31 27 20 28 24 22 28 15 20 26 21 18 22 22 18 23 17 18 22 17 26 27 18 13 23 30 18 21 26 16 24 20 17 27 17 29 22 22 21 22 24 21 17 21 22 25 18 19 17 20 19 26 17 29 15 29 17 24 29 28 12 23 18 18 20 28 24 24 19 19 20 21 26 18 15 17 23 23 21 18 17 25 20 22 29 24 25 33 20 23 21 30 26 23 19 27 19 24 18 22 14 14 21 18 22 21 19 23 23 23 17 17 16 23 17 21 20 21 20 22 18 27 18 20 20 20 16 24 26 20 20 28 30 14 22 23 32 24 19 21 13 16 22 16 15 19 24 22 24 21 22 20 14 20 25 25 19 23 21 20 17 18 22 24 21 17 33 19 20 10 19 20 18 26 21 16 25 21 18 19 21 25 18 21 32 25 19 22 26 25 22 21 26 18 22 22 12 21 22 18 17 21 23 21 19 15 17 19 22 24 16 18 19 27 24 20 25 11 18 18 25 21 28 23 19 24 22 28 20 19 23 23 22 17 16 12 21 20 18 24 19 21 20 21 18 20 16 25 20 26 20 19 26 19 20 18 22 21 18 20 9 19 20 22 25 16 23 17 21 20 26 27 22 20 18 22 27 29 21 24 21 22 20 24 22 27 22 22 20 20 26 14 18 19 21 27 15 25 20 15 24 25 24 20 25 20 23 18 23 26 29 18 23 21 23 24 22 21 19 39 22 31 16 19 22 18 25 21 18 22 33 18 18 16 22 28 24 22 24 33 23 21 12 25 22 16 27 20 17 21 26 23 22 27 16 21 22 23 27 25 17 23 17 12 14 23 25 23 24 17 24 13 29 22 25 23 14 17 18 17 22 23 18 17 21 24 22 30 21 21 21 25 23 21 17 23 18 22 22 21 23 22 15 19 19 20 29 17 30 25 26 23 19 21 13 25 28 22 23 21 17 34 24 16 26 21 23 24 18 20 31 21 19 20 14 18 19 17 17 27 18 18 28 19 18 19 19 29 25 25 17 17 29 16 18 21 20 20 24 18 20 21 17 16 17 15 30 13 18 16 18 15 17 27 19 18 24 13 20 21 26 20 18 18 20 19 25 28 13 18 19 22 27 25 22 20 22 20 21 33 20 25 23 14 31 25 21 19 20 19 26 19 21 19 20 16 23 22 23 14 23 22 23 19 19 17 23 21 23 19 19 15 24 30 20 20 23 20 18 20 16 23 18 18 25 22 19 23 25 27 22 20 16 28 23 17 28 22 30 18 23 28 16 26 16 27 21 27 16 17 19 17 23 15 13 22 23 18 25 24 21 18 26 21 19 26 28 23 22 16 20 17 21 22 28 17 25 28 25 30 24 18 18 18 24 30 30 14 24 23 28 16 21 20 28 14 29 22 28 24 23 14 25 28 29 21 24 21 21 15 24 17 26 16 20 21 26 24 18 20 23 18 22 21 17 22 19 25 27 16 25 20 23 31 26 19 17 18 20 29 18 21 23 27 13 22 17 19 24 26 25 23 17 19 19 12 22 14 24 22 29 21 24 26 23 17 21 21 28 20 20 28 20 21 21 25 24 23 23 18 17 19 14 19 16 22 21 17 17 19 24 18 30 34 16 20 23 19 15 18 21 19 16 24 22 22 26 18 22 22 21 20 15 23 25 19 17 6 28 16 18 20 29 18 18 16 26 33 22 21 25 19 20 23 30 19 15 22 19 26 17 19 14 23 29 23 17 24 20 27 30 30 18 22 19 23 26 20 18 12 25 19 19 26 19 18 21 22 25 22 15 16 18 18 22 18 25 18 23 12 22 20 30 25 26 13 23 15 18 23 23 20 18 9 22 21 20 15 22 24 20 28 18 18 20 16 18 18 30 20 28 27 16 24 23 17 19 18 23 17 16 16 26 25 22 32 24 22 18 20 19 18 28 22 22 19 21 28 23 34 22 13 23 18 21 20 18 30 25 30 22 23 16 24 19 25 24 21 20 20 20 17 28 24 21 18 29 17 12 22 27 20 17 24 20 25 23 19 25 21 16 31 22 18 25 27 21 20 26 23 27 17 20 21 29 25 27 23 21 22 29 23 17 25 25 16 28 27 27 21 20 14 17 16 16 22 24 19 28 28 33 28 19 23 25 15 20 23 17 21 28 29 18 16 28 23 21 28 21 23 24 19 20 27 21 17 18 25 28 23 21 19 22 17 19 19 26 24 21 24 23 20 20 20 23 20 15 31 21 23 15 27 19 26 24 23 19 24 19 24 20 25 15 31 15 31 18 15 25 17 21 22 24 24 19 19 26 13 23 23 27 22 21 16 12 21 23 19 20 16 18 30 35 22 27 27 26 18 21 18 27 28 13 22 24 21 14 29 26 28 19 14 24 13 18 32 27 31 19 30 17 13 11 22 17 23 21 19 25 16 19 22 18 18 27 20 22 22 20 21 21 18 22 19 11 20 20 23 22 23 21 20 24 33 22 17 21 20 20 17 17 18 26 29 23 19 23 28 21 22 21 21 13 19 26 19 22 20 15 21 18 20 18 19 17 22 21 19 24 21 23 20 18 18 14 29 21 23 16 23 18 12 20 28 19 19 11 20 29 23 24 18 20 25 21 27 17 16 24 27 17 14 20 20 31 26 19 23 27 25 18 22 16 24 11 25 23 23 22 19 36 24 27 23 18 16 16 22 15 29 21 16 20 23 17 18 13 20 26 24 21 20 20 15 21 25 16 19 15 27 15 17 16 28 23 21 26 15 25 23 26 24 16 22 22 25 20 22 18 24 20 24 27 22 30 27 18 15 24 22 26 23 27 15 21 12 30 19 25 23 17 34 26 15 22 18 28 30 17 26 29 19 16 27 16 19 22 22 20 21 24 25 23 18 22 23 21 18 23 23 19 21 32 14 21 17 26 25 19 17 16 21 24 28 28 21 24 27 20 21 23 18 15 16 24 24 18 19 30 18 24 25 18 18 22 15 19 23 15 23 21 20 25 18 19 19 29 24 25 9 23 17 27 18 23 18 18 20 33 16 17 15 25 13 25 24 29 23 27 27 17 17 22 17 17 22 28 31 19 17 27 20 26 25 14 25 13 22 27 23 28 24 24 20 25 22 20 19 26 26 20 26 26 31 17 20 18 20 23 20 20 26 34 21 26 13 24 30 20 31 26 21 19 16 29 26 20 25 24 20 18 15 18 27 12 27 25 24 26 25 23 26 23 31 16 12 17 19 26 25 27 24 21 22 16 23 20 21 28 25 16 24 15 30 22 23 24 18 20 20 23 19 18 17 20 15 20 16 22 21 18 25 22 26 19 18 29 20 18 20 24 31 20 13 14 15 28 17 29 23 20 22 23 26 30 23 14 29 20 15 20 22 19 14 13 21 28 15 25 19 29 22 21 17 20 24 17 14 16 21 22 16 21 19 19 21 14 15 16 21 19 18 25 20 23 25 25 25 25 20 20 13 21 23 20 14 19 28 23 16 19 22 18 19 24 21 23 13 27 28 21 25 30 21 18 23 27 12 21 21 18 15 20 21 19 24 27 20 22 21 24 18 24 25 29 18 14 20 16 25 22 21 24 17 20 25 8 20 11 25 26 24 28 28 25 11 16 20 23 25 17 31 23 22 17 15 22 20 22 23 29 18 25 21 13 24 27 25 20 15 21 26 27 20 18 27 24 19 24 24 16 22 30 29 28 21 19 23 32 15 8 15 20 16 32 23 15 20 22 18 21 20 22 18 25 22 24 20 29 29 27 17 20 19 19 22 24 18 17 26 25 20 19 26 26 34 28 18 17 19 14 26 21 21 20 25 20 25 13 17 23 23 24 26 21 16 26 22 17 20 20 21 22 18 21 27 22 22 21 21 27 19 13 20 20 22 21 31 29 26 22 28 18 24 22 17 27 16 27 26 32 22 19 21 26 13 21 27 23 10 26 27 21 32 23 25 19 14 21 21 17 13 28 22 19 21 33 19 18 22 19 22 29 19 25 17 26 28 21 28 13 26 22 21 21 18 22 24 17 17 25 18 17 14 21 27 31 18 25 24 22 25 26 14 27 28 27 27 26 12 15 21 16 18 34 21 25 11 26 21 27 26 23 18 18 18 17 15 26 21 25 24 26 21 25 22 24 28 18 20 21 24 18 32 20 21 23 22 23 26 25 25 23 24 23 23 23 25 13 23 17 21 22 28 22 26 19 29 22 22 21 16 18 20 26 26 18 25 26 14 28 16 24 22 21 20 26 26 14 21 22 25 15 16 23 21 25 18 20 24 16 14 16 21 22 26 16 21 19 23 24 19 28 22 16 16 19 22 31 30 22 22 19 23 24 18 20 16 29 19 22 23 27 20 26 18 26 16 23 20 23 31 25 15 24 24 23 20 22 22 16 13 25 31 26 15 25 16 27 18 18 16 22 23 20 32 22 27 22 21 16 17 24 26 15 19 20 27 21 23 24 22 21 19 24 18 26 20 26 16 19 24 35 26 23 21 20 22 21 23 22 25 21 10 18 16 18 19 23 25 16 17 18 19 21 23 18 25 17 21 22 14 29 18 22 19 21 22 17 27 21 18 19 20 24 23 22 21 29 26 22 19 30 15 23 18 22 17 17 23 30 19 24 22 22 25 22 26 24 25 20 21 25 22 17 23 21 22 19 25 18 26 28 20 19 29 20 21 19 23 27 21 24 23 21 22 21 19 22 21 15 13 20 27 12 19 21 23 26 22 23 21 21 13 27 16 13 21 20 21 21 17 18 19 23 18 25 15 23 15 17 12 18 18 15 23 25 29 23 16 16 21 21 15 22 20 28 20 19 20 23 28 23 20 26 20 19 20 17 17 15 34 24 20 20 20 27 21 20 27 24 24 14 17 21 26 20 19 25 20 23 21 26 18 22 27 18 25 28 19 17 27 19 29 16 23 26 17 17 18 18 13 18 21 19 24 22 16 23 34 23 21 16 27 22 18 17 25 19 17 14 26 18 16 29 17 19 13 23 20 22 21 21 17 23 21 18 25 18 23 22 18 17 20 12 18 17 20 19 15 18 19 25 19 18 20 24 16 13 22 21 17 18 21 14 26 19 22 26 23 23 25 19 18 23 19 19 20 25 22 20 21 20 16 25 16 24 24 27 23 23 22 27 12 25 22 23 20 24 18 11 22 23 18 23 23 22 23 25 21 25 15 24 14 20 23 26 22 24 22 20 18 24 26 20 14 27 22 27 26 20 20 20 21 22 21 24 21 16 17 21 22 17 20 22 12 22 27 18 22 20 22 26 24 17 21 29 23 27 30 26 19 22 21 16 18 23 26 23 16 17 30 24 28 25 10 28 22 17 25 24 22 24 24 27 24 27 26 17 19 22 19 23 23 22 23 21 19 24 21 32 18 27 16 19 20 33 26 23 20 17 30 25 18 24 18 23 25 23 28 17 18 18 14 19 20 14 22 14 26 20 19 19 22 22 19 18 22 14 22 22 27 20 36 15 30 26 30 21 19 19 22 23 21 27 23 22 22 19 21 17 26 25 22 22 30 18 20 23 15 22 22 28 23 24 32 21 22 18 21 22 26 24 22 25 17 18 19 21 19 15 22 22 23 16 23 17 22 16 20 18 26 21 21 19 13 19 14 20 27 16 33 20 21 27 25 26 15 28 14 22 21 26 29 24 25 20 27 18 17 20 23 25 19 22 25 12 11 17 22 32 22 17 19 36 18 18 21 22 21 20 23 25 22 25 13 23 17 21 25 12 33 17 21 28 29 19 18 23 23 23 27 18 22 19 25 21 21 30 18 29 9 21 21 24 20 18 18 22 24 22 31 13 19 16 25 28 26 17 23 18 20 22 22 22 21 28 21 19 21 23 26 26 18 28 28 20 20 26 21 20 23 27 20 25 18 24 26 25 24 23 32 22 25 16 22 23 14 18 21 24 19 23 28 33 18 24 23 19 18 21 23 21 10 22 18 22 24 24 25 27 18 23 26 19 20 18 27 23 19 26 17 23 10 20 22 18 28 18 18 24 29 21 20 26 21 19 20 12 28 21 24 21 25 16 19 29 19 17 18 22 15 16 35 22 28 27 16 18 29 14 19 23 19 19 16 16 26 18 21 21 20 18 18 18 18 25 16 29 12 16 21 19 21 23 20 23 22 17 16 18 18 20 31 32 20 23 21 22 20 29 21 23 18 33 18 17 16 24 31 21 22 23 22 26 16 20 19 24 31 21 12 24 18 21 21 25 21 20 20 22 20 13 24 18 17 23 15 15 26 30 18 29 20 18 22 22 26 21 15 25 16 18 25 20 22 21 22 27 23 30 17 30 27 28 22 29 25 23 26 27 21 27 28 19 19 21 20 17 22 26 22 20 19 19 30 20 28 25 19 20 18 23 18 23 20 18 19 23 27 19 21 18 19 12 18 20 25 23 21 24 21 31 19 26 25 28 22 22 19 25 18 18 26 21 14 19 26 21 29 24 19 32 21 26 23 18 24 28 19 22 26 26 24 21 18 17 30 22 24 23 12 23 20 18 22 24 20 25 27 20 20 16 17 14 20 23 22 26 28 21 25 20 25 31 20 17 17 26 25 21 21 17 27 26 25 20 19 19 26 27 21 21 23 31 21 24 26 25 25 22 16 25 17 21 21 28 19 22 23 24 20 21 21 25 20 31 31 27 22 19 19 26 18 18 17 23 18 20 19 18 24 28 19 26 17 23 17 29 20 19 23 14 19 17 28 25 22 19 18 23 22 15 22 19 24 14 19 24 20 20 17 24 24 19 28 22 14 19 26 22 21 24 16 17 18 29 26 23 24 21 20 18 25 32 25 21 25 21 17 23 18 23 19 23 20 21 25 15 23 16 22 20 23 21 18 24 21 18 15 16 16 26 13 19 25 23 23 20 16 17 25 18 22 15 20 24 19 19 18 21 17 29 25 23 27 29 20 22 28 24 19 20 22 20 20 22 21 19 20 27 20 24 27 21 19 27 29 20 16 23 31 20 18 25 22 26 25 26 20 18 28 19 20 22 31 19 18 23 21 24 21 23 18 14 32 21 23 18 18 25 18 15 28 16 19 25 23 20 17 15 21 23 19 26 19 26 19 20 17 22 17 23 24 21 27 20 28 19 21 27 23 24 24 16 25 23 20 23 20 19 24 23 15 14 22 21 29 14 15 21 18 25 26 22 27 19 21 25 15 23 24 21 23 21 24 23 19 20 22 17 19 21 15 17 13 22 25 16 21 21 20 18 24 18 19 29 18 25 29 16 19 24 19 24 18 19 14 32 31 18 16 23 17 22 24 24 30 25 21 16 21 22 19 16 19 17 16 19 23 29 20 23 18 18 22 21 22 23 23 28 22 27 22 17 23 18 25 24 22 25 28 22 17 28 20 27 19 12 17 22 23 23 28 20 20 19 19 25 18 27 22 20 18 23 23 18 19 17 10 23 20 19 12 20 19 20 24 19 18 21 20 19 26 21 20 21 18 19 17 20 23 16 16 27 20 25 24 24 20 16 18 19 12 20 18 23 22 17 17 20 21 30 23 24 14 26 28 27 21 23 18 23 22 21 22 15 23 21 24 19 24 17 19 20 22 31 20 32 31 18 27 19 25 22 15 20 18 21 13 16 21 21 21 21 19 19 18 14 24 19 18 22 26 20 14 23 25 22 23 18 20 20 24 28 19 22 19 19 15 24 21 24 18 24 19 22 27 16 23 27 24 24 22 24 26 19 26 30 26 22 16 23 23 23 19 17 25 17 36 26 22 26 23 17 23 28 24 30 23 15 30 14 19 25 33 22 11 13 17 18 26 23 14 23 19 22 22 22 23 18 20 19 16 27 18 18 19 17 23 16 22 28 22 30 21 16 32 16 23 20 26 20 15 25 22 14 24 28 16 23 19 23 26 16 21 19 20 17 13 27 19 30 22 17 22 21 17 20 16 21 21 21 22 24 19 22 20 28 19 26 19 23 22 24 20 17 17 21 15 12 28 20 21 18 20 18 28 14 26 12 23 22 21 23 21 23 17 14 22 19 17 25 22 27 14 14 20 21 16 21 19 24 14 20 20 16 20 29 25 30 20 24 25 18 22 23 18 19 29 15 25 26 25 25 17 27 23 22 21 18 18 24 21 30 19 23 20 25 28 21 20 22 20 18 22 31 15 15 20 17 23 19 22 23 20 25 21 19 30 21 24 22 22 20 27 22 21 14 18 31 21 14 25 22 24 20 16 25 21 29 21 23 19 21 28 29 15 25 13 16 18 23 23 18 20 25 20 21 29 27 16 20 23 18 18 22 28 20 17 27 17 21 19 28 14 16 20 20 22 19 22 22 16 32 21 27 21 29 25 17 22 27 21 15 19 25 28 23 16 20 27 17 26 19 24 21 27 21 21 13 24 19 21 26 21 25 18 24 19 24 22 32 15 21 17 21 16 25 26 20 18 26 18 21 19 22 15 26 27 23 17 18 24 16 25 18 30 19 18 22 21 15 23 21 21 20 25 24 19 24 21 23 31 24 16 26 18 20 30 22 24 19 16 22 21 21 19 17 19 19 21 21 19 16 21 29 24 21 25 22 17 20 13 34 19 25 22 16 17 24 17 18 24 23 29 21 19 25 26 23 17 18 22 22 23 20 24 21 27 21 20 17 20 24 17 17 20 16 17 19 19 20 28 19 21 20 16 10 31 24 22 31 26 33 16 15 23 27 26 20 30 21 21 23 21 18 22 22 17 21 19 20 15 22 26 12 13 19 25 20 25 12 13 21 24 18 13 16 19 25 22 12 14 21 24 17 25 21 21 18 34 22 20 23 16 13 21 15 18 11 20 24 27 17 25 15 29 22 19 27 21 16 15 19 22 19 30 24 22 19 20 19 26 29 24 18 20 21 25 21 15 22 26 25 15 22 19 23 14 19 23 20 21 18 15 25 19 23 33 17 24 24 19 19 23 23 29 22 18 21 29 19 21 22 13 19 22 24 20 34 28 20 22 19 19 29 22 19 29 20 26 20 17 29 21 27 23 13 22 26 18 18 15 21 19 16 22 24 17 19 22 14 24 30 22 17 14 18 24 24 25 25 22 22 15 33 15 23 21 20 17 20 19 18 26 19 22 30 17 27 18 24 25 25 22 27 17 25 27 27 23 25 16 21 24 17 25 20 24 19 18 26 29 27 15 17 29 21 32 22 15 21 16 25 15 21 25 29 16 22 23 18 12 21 19 19 25 21 22 22 22 17 25 17 17 17 27 21 12 18 25 13 22 18 24 29 19 22 18 23 18 12 19 24 22 17 23 22 17 15 22 22 18 24 25 25 21 27 22 30 25 15 26 23 26 20 19 20 24 17 27 22 20 32 17 27 21 23 26 24 20 20 27 22 20 22 19 21 20 24 25 18 26 18 24 22 18 25 25 23 22 16 19 20 21 22 24 16 17 17 19 29 25 18 22 28 19 22 17 24 17 20 23 24 18 21 16 22 24 27 16 23 19 18 23 27 22 23 24 19 24 21 25 21 21 32 21 20 25 19 28 16 24 19 23 18 19 16 30 22 16 24 25 22 29 32 22 24 23 25 18 25 19 19 17 18 20 24 24 14 24 21 16 27 19 14 24 19 19 22 18 24 21 22 18 29 26 23 21 26 30 28 19 22 23 18 27 16 26 23 23 25 25 23 23 25 27 21 18 16 17 15 29 28 16 33 21 24 20 22 24 19 23 21 21 19 20 13 21 14 18 20 15 15 22 23 24 16 20 21 20 20 18 20 32 23 23 16 26 23 25 15 26 17 21 21 15 30 22 22 26 22 16 21 29 30 31 14 16 32 22 18 19 25 24 30 22 23 15 20 26 22 19 18 24 22 14 23 25 24 23 27 21 24 17 15 21 23 20 30 25 21 18 18 23 26 29 27 19 31 22 19 23 22 17 25 21 17 19 22 20 40 25 22 26 21 15 26 26 14 29 20 25 20 23 25 30 20 25 28 18 21 27 24 20 22 19 22 26 21 21 26 15 17 24 29 21 18 22 19 22 24 28 27 28 18 24 22 25 23 19 28 19 20 13 29 13 19 23 22 22 26 15 15 31 14 18 24 14 22 19 24 20 28 22 22 23 21 21 19 24 28 30 25 19 26 29 15 17 24 20 27 13 24 15 23 24 24 21 22 21 29 28 20 27 20 25 25 13 22 30 22 22 26 23 22 22 20 25 15 28 18 17 23 20 16 22 16 21 27 29 24 21 28 15 32 15 22 19 25 22 25 28 29 17 19 23 22 31 16 26 24 27 26 24 25 21 23 31 22 15 25 18 16 23 16 24 15 22 20 23 21 28 28 23 17 27 24 23 18 20 21 23 29 21 21 27 19 22 20 24 22 17 20 15 18 26 18 17 17 17 19 29 22 24 22 15 25 24 14 22 16 22 21 20 17 20 23 24 24 28 21 26 21 21 22 19 16 23 27 19 22 18 27 19 18 18 25 17 25 26 18 22 15 23 22 25 21 29 23 14 24 18 24 25 16 13 15 28 19 22 18 18 25 21 19 23 22 19 23 20 21 15 16 15 26 20 35 20 20 25 15 29 24 22 15 26 20 13 26 22 21 12 17 23 18 25 21 28 21 20 24 20 20 23 22 24 26 16 21 25 30 23 22 16 24 22 17 23 21 25 22 22 21 30 21 24 20 22 24 22 26 30 14 29 20 18 28 15 15 20 21 24 22 21 24 20 26 16 20 24 17 25 18 17 17 22 19 31 20 20 19 24 21 24 18 21 21 23 21 28 21 15 28 18 25 26 25 18 34 20 16 20 30 22 22 26 22 15 16 27 19 22 25 21 20 22 22 21 25 14 23 23 21 16 23 22 18 18 26 23 12 24 27 23 25 27 20 28 29 21 18 19 22 20 23 27 27 25 15 27 21 23 25 19 15 21 25 24 19 19 20 23 22 19 18 18 26 29 23 24 24 19 18 20 25 21 26 23 15 21 25 23 23 28 21 28 29 16 19 17 20 19 21 13 19 20 19 25 23 30 27 24 21 20 25 15 23 15 19 25 18 30 27 25 15 21 23 20 17 19 17 23 22 16 12 24 21 22 25 19 29 24 24 14 18 20 24 22 19 24 17 30 23 21 18 24 25 27 22 12 19 18 31 23 19 17 24 24 19 15 18 20 17 22 16 25 20 17 21 23 23 17 23 25 20 20 34 23 20 23 23 23 10 15 19 28 28 29 18 20 21 17 20 21 16 24 26 22 24 20 19 16 16 21 23 20 14 16 14 21 21 26 20 24 22 25 21 24 15 16 22 19 18 16 26 27 29 23 23 16 20 24 25 19 14 23 16 22 22 24 21 24 20 19 19 24 22 19 16 27 14 16 27 18 21 18 25 28 19 23 28 25 33 22 17 23 23 28 22 24 23 21 22 14 27 30 23 20 20 19 25 29 24 19 22 21 18 23 24 19 21 10 27 26 15 23 26 19 19 22 20 25 20 24 21 22 23 19 23 26 21 30 23 17 22 17 21 24 17 21 26 15 15 22 25 22 20 24 29 30 22 26 17 12 24 19 15 24 24 18 21 21 22 14 20 20 20 23 30 32 15 20 24 22 22 20 21 22 20 19 24 16 25 19 19 34 22 22 22 27 14 18 24 18 22 25 23 23 21 22 24 26 20 31 15 20 17 22 27 15 16 21 24 24 17 27 26 35 20 27 22 20 23 31 19 23 19 29 25 23 25 19 22 17 16 21 22 23 20 18 16 14 20 21 20 18 23 25 16 30 23 24 25 24 22 22 32 20 28 25 21 21 18 16 19 19 20 20 26 20 17 26 13 23 18 22 17 21 20 22 22 21 12 25 25 22 28 18 26 26 25 25 23 22 19 20 20 17 23 22 25 23 27 16 19 21 26 19 20 24 23 23 17 24 23 25 23 18 24 27 17 19 17 21 26 13 27 21 28 26 25 17 21 19 21 25 26 26 26 22 18 24 27 24 15 22 23 23 19 16 19 28 25 27 18 25 23 20 24 19 18 12 18 25 18 24 20 21 18 20 29 29 15 15 29 29 24 22 24 26 20 22 22 25 20 24 19 24 21 19 28 22 15 21 25 14 27 25 26 24 20 16 21 18 22 15 25 26 27 25 23 18 9 22 24 36 23 11 29 21 24 22 24 24 19 21 23 19 22 23 28 19 26 24 26 17 21 27 19 25 20 19 25 25 16 32 22 19 23 14 22 24 25 29 22 24 18 18 17 20 16 22 24 29 18 21 16 22 23 25 30 22 22 18 27 21 25 20 22 27 24 19 22 25 21 28 18 26 23 27 28 18 23 25 18 27 23 21 21 20 26 24 15 24 25 31 19 22 16 19 28 20 17 29 26 18 15 21 18 24 24 16 20 19 16 19 19 18 22 22 13 19 22 23 24 18 17 25 26 28 24 24 24 26 28 18 20 23 21 27 20 23 22 28 21 26 21 22 18 24 23 18 23 15 19 21 16 15 25 18 20 26 20 23 24 22 22 19 29 21 26 21 27 25 22 24 22 34 25 22 20 24 18 27 18 21 21 25 14 22 22 27 20 17 24 20 22 19 27 21 24 20 22 26 20 20 19 20 21 21 17 26 29 13 20 23 22 24 22 17 18 20 24 19 19 20 27 20 24 19 24 24 20 23 20 32 21 26 20 25 28 19 21 28 33 27 20 32 17 24 20 15 19 23 20 23 18 15 16 21 22 19 20 20 19 32 23 19 13 21 22 21 16 19 26 23 23 15 23 19 24 25 19 17 22 24 21 14 21 30 17 19 36 17 25 26 24 20 18 14 25 25 28 24 25 22 28 20 23 28 17 22 22 20 29 16 24 21 25 21 35 23 20 22 21 23 18 24 14 23 22 22 19 29 23 22 15 17 24 34 13 20 27 21 31 26 21 17 22 15 24 22 17 19 23 27 22 14 24 28 18 17 24 24 27 25 23 18 26 28 20 11 16 20 15 26 21 26 18 24 19 25 25 15 26 21 23 22 22 21 20 24 32 26 20 22 21 21 19 25 24 18 20 25 16 19 26 20 17 24 16 23 27 23 14 21 18 20 22 22 25 22 26 20 23 24 25 18 19 22 27 25 21 25 20 22 26 23 16 25 21 24 17 26 15 18 19 18 15 15 16 22 23 20 21 28 22 23 13 23 24 19 23 22 26 25 23 22 24 20 25 18 23 21 25 18 21 23 22 25 18 15 26 27 25 30 30 26 19 16 22 29 30 24 20 22 20 20 16 24 20 22 28 15 23 20 28 16 25 25 20 24 30 29 22 21 25 24 19 18 13 11 15 24 21 18 23 21 17 31 26 20 21 19 21 16 18 23 22 22 26 12 25 23 21 26 23 24 23 18 27 15 26 21 23 28 18 22 18 27 33 17 26 26 27 12 23 22 12 19 23 23 15 21 21 17 26 25 27 30 23 26 22 22 28 19 24 22 20 22 19 27 20 18 23 12 25 16 19 26 22 22 20 29 33 22 22 29 21 27 20 22 15 20 18 19 18 20 25 25 29 22 21 14 22 21 17 18 16 15 30 26 25 19 18 23 19 20 15 17 25 20 31 20 12 18 25 19 23 21 25 22 21 19 22 18 23 19 20 19 18 17 20 15 20 23 19 25 24 16 12 17 17 21 19 19 23 20 19 16 18 15 20 17 27 23 20 18 24 24 16 26 16 19 24 27 23 25 22 25 27 22 24 15 13 23 22 24 24 28 24 26 24 15 18 22 20 21 23 22 27 20 28 23 20 20 19 20 18 23 22 30 14 21 26 20 18 26 20 19 26 23 20 24 24 27 18 25 25 19 16 30 23 22 22 22 25 14 18 22 22 20 26 19 20 19 18 21 14 27 23 23 22 22 13 26 17 21 19 25 22 29 28 29 21 25 30 12 28 26 26 18 26 23 19 31 25 20 19 18 18 22 21 25 19 29 20 19 26 16 25 20 28 23 15 29 17 28 27 34 23 22 28 11 11 23 20 19 19 13 23 23 18 19 26 25 15 21 18 21 23 23 19 19 23 18 28 17 20 18 16 19 27 25 14 18 19 25 18 7 15 30 20 23 17 19 15 20 23 21 23 21 19 29 19 28 22 19 21 17 15 14 18 15 31 25 22 18 18 18 15 25 18 18 23 24 19 27 16 27 20 23 25 23 29 22 20 28 24 20 21 23 17 23 30 19 27 24 17 21 30 19 20 19 22 23 23 26 23 32 19 19 16 14 26 20 26 21 18 19 14 18 30 21 21 22 32 18 27 37 22 23 20 22 20 17 22 17 22 22 15 19 30 20 24 20 29 14 24 30 22 29 27 17 33 24 27 21 28 22 24 19 27 29 25 17 28 20 17 16 19 22 33 20 30 21 20 20 23 25 24 21 18 24 21 19 15 13 23 19 28 18 16 20 16 25 24 16 24 19 21 17 23 21 26 27 25 18 19 23 32 27 23 26 16 22 21 26 26 24 22 16 22 23 21 17 14 23 15 28 23 19 24 20 26 14 19 23 22 32 14 22 21 22 14 22 12 26 23 25 18 16 18 24 23 23 22 23 22 16 18 22 21 27 20 16 30 24 13 20 26 26 28 22 16 20 23 24 25 23 15 14 22 21 16 19 25 20 27 26 27 18 21 19 23 26 23 22 22 28 26 18 20 16 20 25 17 19 31 16 24 25 28 16 20 17 20 17 21 23 23 19 19 21 23 16 32 26 25 20 19 25 20 21 23 21 15 25 18 21 18 28 17 33 18 23 24 15 23 15 26 22 26 27 17 15 18 21 21 24 28 33 28 26 29 22 17 19 22 22 22 27 15 23 23 24 27 22 21 25 25 19 22 23 24 14 21 16 17 28 25 16 28 21 25 24 19 25 22 13 21 20 24 20 21 20 21 13 21 21 19 29 25 18 14 26 32 20 20</t>
+  </si>
+  <si>
+    <t>NIG(97.61597434038636, 67.42105340511273, -1.046016790831766, 33.275594920307256)</t>
+  </si>
+  <si>
+    <t>42 34 27 33 42 30 36 33 24 19 30 26 33 38 20 29 27 30 33 25 23 23 39 24 34 25 22 32 31 28 32 26 30 30 27 24 25 34 28 20 23 31 35 26 24 36 36 38 29 24 28 31 27 25 28 30 28 38 30 23 33 22 21 33 27 30 29 32 28 40 26 31 26 27 32 26 27 30 28 36 16 25 43 27 29 36 35 26 25 34 31 32 35 27 19 28 36 27 30 28 32 29 31 31 27 39 36 33 32 40 19 34 32 26 44 33 28 34 33 31 32 32 23 31 27 19 20 24 32 27 31 30 22 23 32 26 30 24 29 35 41 31 31 34 27 24 28 31 20 33 23 29 37 28 26 33 32 27 31 32 31 24 23 25 34 31 36 21 29 32 32 36 40 49 32 34 46 26 26 28 35 33 26 33 27 25 35 33 27 31 33 26 29 29 44 29 35 23 36 25 33 31 30 34 35 38 26 28 29 32 31 29 26 31 24 25 35 32 31 34 31 34 25 38 34 28 32 33 25 27 26 37 37 31 29 28 28 27 34 28 32 31 28 22 37 28 32 25 34 26 46 43 28 32 34 33 35 46 26 32 38 22 31 31 38 21 31 38 26 35 38 20 39 36 32 25 33 33 23 29 32 29 18 28 40 18 36 25 34 27 34 33 36 30 37 26 31 38 29 28 24 30 23 25 29 38 30 25 24 31 31 29 30 23 27 32 29 31 25 32 33 38 18 35 25 28 36 29 35 35 31 31 34 27 39 26 32 31 26 36 33 33 26 38 33 29 39 31 32 35 45 35 33 31 34 35 33 26 31 34 34 18 29 36 32 31 39 36 26 23 20 29 23 19 42 33 29 37 45 35 31 32 33 26 26 30 32 33 33 34 44 36 19 34 23 26 33 30 27 31 34 28 31 34 30 31 34 27 21 41 28 34 36 30 25 20 32 36 29 24 21 35 38 32 30 29 33 41 34 36 33 39 35 34 31 26 32 30 31 25 25 38 32 23 29 29 30 25 25 32 28 33 34 26 25 30 25 30 30 30 31 23 32 32 30 29 26 26 31 49 25 31 35 32 24 36 35 25 33 29 35 38 30 40 29 26 25 35 23 23 31 37 25 37 35 34 29 35 34 25 29 27 37 33 37 30 26 37 30 26 45 39 37 24 33 27 34 50 26 31 32 34 44 33 23 26 25 28 28 32 29 40 35 20 33 38 28 39 32 32 20 27 33 24 28 37 32 25 26 34 27 26 35 30 23 42 34 23 26 30 37 29 31 38 34 21 22 34 26 22 29 28 29 26 31 35 29 34 28 40 37 29 30 34 30 34 25 34 31 38 29 32 41 31 22 28 30 31 40 23 30 27 28 36 27 30 34 33 36 32 35 29 27 27 42 37 27 23 35 30 36 26 32 25 23 37 29 34 20 26 28 32 27 28 33 31 29 23 31 25 22 35 32 31 27 45 40 38 30 26 26 30 34 35 24 23 25 22 34 26 32 38 29 39 26 21 24 37 36 34 30 37 27 33 34 34 36 23 33 30 27 28 28 29 26 25 23 27 19 26 36 25 36 34 25 26 30 24 28 36 30 31 26 27 31 41 26 32 28 29 30 32 34 34 17 25 28 21 30 37 30 35 28 36 31 24 33 35 19 34 29 24 27 29 31 24 34 29 21 36 20 28 30 31 32 37 26 30 38 27 32 28 38 37 25 38 25 35 33 35 38 32 34 33 24 31 36 30 32 31 23 25 25 30 47 35 31 27 31 34 29 31 24 36 37 35 33 29 35 37 34 34 23 30 33 35 37 35 29 27 34 24 29 33 34 40 32 28 33 38 30 31 39 23 26 30 32 37 27 16 23 22 22 29 27 31 31 25 34 31 27 30 32 30 32 29 36 27 24 33 36 32 25 43 25 30 37 22 31 30 39 31 28 32 40 35 25 31 35 24 28 28 32 29 28 32 24 35 32 25 37 33 33 28 33 20 31 38 32 31 30 31 28 26 33 31 37 30 38 27 26 37 42 35 27 24 36 24 37 27 28 24 26 21 31 33 29 31 30 30 22 29 30 41 31 28 32 36 27 29 31 27 25 24 36 28 19 25 25 37 35 33 32 36 34 37 29 38 29 27 37 33 27 28 30 38 39 20 25 31 31 23 31 41 30 30 27 29 32 25 31 26 37 23 27 40 32 22 29 28 30 26 27 33 32 34 27 36 34 26 30 33 33 27 42 29 31 29 39 24 31 36 23 27 26 26 38 35 42 28 34 33 34 27 33 32 26 33 30 33 29 22 35 30 32 24 37 28 22 32 29 27 28 33 30 30 23 33 35 32 30 36 38 30 35 27 35 38 36 32 35 40 38 31 37 25 38 32 26 30 36 27 40 35 31 22 28 25 35 21 43 32 27 35 20 27 22 31 32 39 33 34 25 30 27 36 26 36 38 38 28 35 25 37 29 31 30 30 26 33 32 30 26 34 32 28 23 28 27 25 23 35 27 22 36 27 40 28 27 35 30 39 24 38 32 39 26 28 39 37 27 36 30 31 30 28 28 24 31 30 35 32 31 36 30 30 27 30 37 26 27 28 24 35 34 30 31 29 31 34 31 32 39 24 35 25 32 36 30 39 31 30 22 34 28 28 34 32 30 26 28 28 31 30 29 34 40 25 29 24 35 21 36 30 39 24 27 25 26 25 34 23 42 35 27 32 24 29 40 25 28 30 27 30 36 28 34 24 37 36 34 26 31 30 17 31 34 39 27 48 25 28 34 28 45 41 26 25 34 23 24 31 34 26 26 35 31 35 29 29 33 26 27 37 27 24 27 26 35 38 30 20 33 25 30 50 26 28 33 33 34 34 34 29 21 36 31 28 28 30 31 28 26 36 30 25 37 37 26 35 32 30 32 33 30 23 25 39 35 40 33 27 33 29 25 25 25 22 37 27 24 29 35 31 33 29 38 25 35 23 28 18 26 36 34 22 24 35 22 34 31 28 41 28 39 28 30 46 28 35 30 32 36 20 32 27 37 34 38 37 24 22 27 24 30 37 31 38 32 26 35 43 36 28 29 25 32 31 33 26 35 22 22 24 30 22 37 19 33 35 41 23 37 29 29 31 31 35 33 38 37 27 28 36 27 31 34 25 35 25 32 35 32 28 31 33 26 34 37 35 27 27 21 31 22 29 28 24 31 33 33 32 27 25 32 26 30 35 31 36 33 26 30 27 33 41 38 32 32 29 31 40 23 26 29 30 35 25 43 28 18 31 25 37 27 28 33 26 18 26 34 39 27 24 43 27 35 29 28 35 33 35 31 28 20 27 29 23 27 19 26 40 31 22 39 34 28 27 37 36 31 31 21 31 26 28 29 39 26 24 30 37 30 37 38 29 34 21 27 26 37 23 33 29 41 29 29 25 35 26 32 39 27 38 42 33 24 42 42 31 33 31 35 32 28 29 33 24 37 22 23 34 42 39 31 25 30 31 21 27 29 37 26 27 34 27 33 28 26 40 19 23 32 25 28 27 39 35 24 35 26 23 31 26 29 31 32 35 22 13 23 22 31 31 36 28 30 26 31 27 34 36 30 31 34 24 19 26 34 25 41 43 30 34 32 32 26 37 16 27 27 33 25 32 27 28 36 38 25 22 26 28 37 26 29 37 32 25 29 30 24 33 26 34 26 32 23 34 34 35 36 33 27 28 31 33 20 30 41 39 21 36 27 30 38 29 34 27 38 34 33 27 33 30 21 27 30 22 36 32 40 30 25 31 31 29 30 30 25 35 35 28 28 36 33 31 30 30 26 40 31 31 29 40 31 39 30 45 33 29 31 36 30 28 29 39 30 36 25 32 32 36 24 45 27 28 17 28 30 24 29 39 33 29 32 24 29 32 32 28 36 37 32 25 25 24 30 27 31 26 30 35 30 31 34 27 33 35 33 30 25 28 20 28 38 28 33 26 30 38 36 32 34 26 23 25 33 24 23 35 26 30 33 26 25 34 26 17 34 26 27 45 29 34 25 37 30 21 36 26 35 34 46 23 36 31 22 29 36 34 30 29 28 24 26 28 28 38 32 29 41 33 32 26 36 19 38 23 28 31 29 32 35 30 27 35 41 22 25 34 25 32 34 39 35 33 27 26 30 32 42 35 39 30 31 30 36 27 26 28 22 36 37 36 34 34 36 30 25 38 40 36 28 34 37 21 34 33 27 32 32 32 40 36 28 29 28 34 36 27 30 25 30 28 36 33 25 31 31 25 29 27 34 40 36 27 28 34 24 35 33 33 27 33 26 26 39 32 29 30 29 31 30 40 31 41 32 21 25 30 21 30 26 25 22 31 40 37 33 31 36 31 37 24 20 25 30 36 22 24 32 21 29 26 25 22 30 31 29 38 23 34 26 27 25 30 37 30 40 34 37 39 23 30 28 28 25 33 47 32 35 37 29 32 27 32 46 29 36 29 25 33 42 32 29 32 32 30 23 38 32 39 32 31 32 33 29 27 17 28 31 36 31 27 27 28 35 34 29 30 33 32 24 28 26 26 36 30 30 22 26 31 25 23 27 17 32 23 40 30 25 34 35 30 37 22 33 32 38 26 31 32 32 23 36 34 24 30 42 32 33 41 39 28 28 29 38 26 33 31 27 21 29 25 27 22 27 39 39 36 26 41 39 31 32 32 34 23 32 34 26 38 24 33 34 24 33 41 40 30 30 33 45 32 27 22 25 26 20 26 44 30 33 26 34 36 40 34 32 30 30 36 41 37 27 38 42 28 39 32 27 31 30 27 27 32 45 29 30 27 28 41 32 33 37 24 23 37 29 32 34 35 32 34 23 32 30 24 34 30 37 35 31 32 37 31 24 40 23 31 35 36 29 43 41 26 38 36 32 30 49 24 37 21 31 39 26 28 26 22 38 31 31 24 33 35 31 23 30 33 29 29 38 35 35 31 27 39 28 28 30 22 47 36 34 30 43 36 37 34 30 26 29 30 27 30 39 32 34 22 30 27 31 33 25 31 40 35 23 30 31 29 27 31 34 30 35 34 37 29 26 24 41 33 19 31 41 25 29 32 25 30 21 33 39 23 32 28 29 31 36 28 33 28 42 30 32 34 32 36 34 22 20 38 37 36 32 35 27 21 21 28 37 30 29 24 25 31 26 27 32 34 35 38 30 32 27 29 23 35 33 21 39 32 28 24 34 26 26 24 22 33 40 40 33 25 33 21 24 37 32 28 33 34 37 25 25 32 37 39 31 27 44 26 28 23 27 22 39 33 32 15 30 37 31 43 48 40 30 34 36 31 37 30 36 39 30 36 35 31 22 28 30 30 26 24 34 19 25 21 39 27 20 31 27 34 26 34 40 35 31 20 30 34 38 32 32 33 25 30 32 31 27 15 29 33 39 34 27 37 31 27 41 25 26 36 27 41 36 34 31 33 35 31 30 35 22 32 28 24 30 34 20 23 28 33 25 36 26 35 28 34 38 29 37 31 30 25 25 31 27 29 33 33 38 26 31 28 27 32 40 29 36 34 32 27 21 33 29 31 22 30 30 36 28 29 28 32 35 28 32 27 27 30 25 30 26 33 27 36 20 35 32 34 31 38 32 34 32 32 31 26 34 32 23 26 34 37 36 28 31 32 36 23 37 31 37 33 42 33 25 26 37 33 35 28 38 20 33 34 35 26 33 30 30 27 38 33 42 26 28 24 28 33 30 35 36 33 20 28 31 31 30 36 33 33 29 21 35 31 39 30 24 30 42 30 24 26 23 34 25 34 28 33 33 30 22 35 44 28 31 31 17 35 45 36 28 40 29 38 23 30 34 30 29 29 35 33 41 39 31 31 30 29 29 36 25 29 30 24 30 28 41 35 23 28 27 24 30 36 23 32 32 35 28 30 38 34 35 33 24 29 32 42 33 26 32 27 23 23 31 27 25 36 23 44 32 35 37 33 29 31 38 34 24 33 28 30 32 33 30 30 29 27 41 44 32 32 21 35 29 32 33 27 30 40 38 39 35 42 24 34 27 37 32 36 40 43 37 30 39 29 24 32 32 28 34 35 30 43 19 27 25 27 34 45 37 22 34 37 32 23 30 32 40 24 35 32 38 26 31 35 38 35 35 23 28 38 32 32 35 29 34 43 28 22 34 28 21 32 34 39 27 35 36 29 34 35 30 25 30 37 36 27 25 41 38 29 28 31 32 29 26 26 29 25 29 39 33 35 35 31 23 35 34 38 23 26 43 33 32 25 24 24 26 29 28 26 29 35 27 37 19 22 30 22 23 31 40 29 27 31 30 41 39 38 32 28 28 35 29 30 40 22 28 32 24 44 44 35 35 25 30 24 28 22 29 19 28 32 32 33 29 33 29 38 23 27 34 35 42 32 29 34 38 37 23 24 27 28 33 37 37 21 28 34 26 28 26 40 30 24 26 39 48 38 39 26 39 27 21 32 38 24 26 32 22 42 35 42 36 39 36 33 25 35 35 28 29 35 23 41 43 27 29 24 49 31 37 29 23 27 25 34 23 33 27 27 31 36 29 27 27 24 22 31 31 28 28 25 31 32 28 40 30 36 30 33 31 39 32 33 32 33 31 28 39 23 21 32 31 28 32 28 31 37 42 35 26 34 31 31 28 36 26 29 27 35 22 34 33 27 28 40 35 24 30 25 29 19 31 36 42 33 26 27 36 41 28 38 34 31 35 27 27 33 29 31 33 30 26 31 39 36 28 36 37 28 28 27 25 32 33 30 37 34 26 22 31 24 27 31 22 24 35 34 23 27 21 26 28 27 36 30 34 36 23 25 27 29 27 38 39 25 32 25 37 35 25 30 23 31 28 33 37 32 22 29 26 36 46 25 41 22 49 30 40 24 33 21 33 34 40 31 42 33 31 25 32 28 34 28 36 27 24 22 32 25 36 26 16 20 24 37 22 42 26 36 27 38 25 33 19 22 30 26 25 37 40 32 28 34 21 25 29 28 38 20 33 34 44 34 27 31 38 44 35 34 30 34 26 30 32 26 24 26 33 37 27 26 28 35 23 23 38 31 26 30 30 31 30 25 27 32 50 33 27 38 29 37 32 29 35 31 24 31 23 28 30 22 37 31 42 25 29 28 31 27 31 30 30 28 37 20 34 28 39 32 39 34 33 31 25 36 36 41 28 36 30 34 31 26 34 42 28 30 31 26 36 40 33 24 23 29 32 35 26 30 30 30 33 41 36 37 39 33 42 31 27 26 30 30 33 34 37 33 32 31 26 28 29 27 30 25 29 32 34 41 22 25 43 33 42 29 29 39 39 25 24 35 41 36 29 38 26 29 30 32 29 34 31 33 35 33 27 39 33 31 32 32 26 18 31 33 29 28 30 20 18 25 20 24 26 28 27 26 32 29 19 25 27 30 29 34 26 35 32 25 31 43 32 27 29 21 29 33 35 25 32 36 31 27 29 27 30 29 26 32 37 32 28 25 42 23 28 31 40 27 25 33 32 30 24 24 31 31 30 33 40 38 26 31 23 23 39 36 39 24 32 30 32 38 38 28 29 33 37 41 27 25 40 33 27 28 41 27 21 40 29 31 36 27 25 24 26 34 31 22 26 27 35 30 35 32 27 23 42 26 35 26 30 25 23 32 24 39 22 25 35 33 33 29 24 39 19 34 37 35 23 42 24 32 34 23 24 29 31 34 32 41 38 29 39 32 30 40 25 28 33 28 26 31 34 29 33 29 25 34 27 35 33 28 22 30 46 28 26 40 30 35 32 24 35 27 37 34 31 27 27 35 33 28 25 24 30 29 31 25 33 26 33 27 36 21 44 31 32 40 44 20 33 23 26 34 37 31 36 32 24 28 35 37 25 27 28 29 35 30 28 27 35 30 31 40 34 30 40 26 27 30 34 31 27 33 35 32 32 23 30 27 22 26 32 28 32 27 33 36 35 25 26 21 37 27 32 32 29 24 31 21 39 29 25 27 27 25 38 28 22 28 36 43 22 30 35 41 31 26 30 27 25 25 22 21 23 35 37 35 34 31 29 23 27 33 37 25 32 34 34 23 30 31 32 28 21 41 25 29 21 26 30 26 34 31 21 34 23 27 31 32 33 29 28 45 40 34 33 36 35 37 30 37 26 30 29 24 26 27 34 30 34 28 29 27 23 28 25 32 27 19 34 22 36 33 31 39 17 26 32 33 25 34 34 32 35 30 43 36 25 29 28 39 31 19 26 30 27 26 30 29 35 31 32 33 28 21 36 25 33 28 28 35 31 27 27 33 28 27 36 19 30 26 29 36 30 31 31 28 29 35 32 27 33 24 31 35 43 33 33 28 30 30 30 31 35 31 35 29 28 36 28 22 28 29 39 27 29 23 24 33 33 30 30 35 30 32 28 33 38 38 25 36 27 29 32 30 28 28 48 29 38 27 32 27 27 33 30 25 42 41 33 25 21 30 36 39 30 31 46 37 25 21 35 34 19 42 29 25 33 39 29 30 38 24 31 29 40 36 38 24 30 23 17 22 37 34 36 30 27 35 19 42 33 35 28 21 24 30 31 26 37 30 23 30 35 33 34 35 37 31 38 36 28 25 37 25 29 24 33 29 38 28 26 29 27 38 23 45 37 40 33 27 28 19 34 37 42 34 27 26 45 31 23 39 30 30 27 38 35 39 31 27 31 18 32 26 26 21 41 25 27 40 26 25 30 31 41 38 35 30 22 39 23 21 35 35 32 44 33 28 27 24 24 27 21 39 27 27 21 27 24 27 41 27 26 27 21 26 28 34 28 28 24 28 32 36 43 23 24 26 27 38 29 31 32 30 31 34 45 28 40 30 27 41 34 27 26 32 26 33 27 32 28 34 24 30 37 31 29 32 32 32 29 26 27 30 26 40 27 29 27 32 37 30 27 31 27 30 30 29 34 23 24 34 31 26 33 39 36 30 32 32 33 32 26 34 35 39 21 35 37 33 41 26 33 33 37 27 22 27 27 30 24 17 30 30 30 33 33 27 24 36 33 29 39 39 34 34 23 30 26 29 29 35 27 30 39 35 38 32 27 32 30 32 35 36 22 41 33 39 32 33 26 34 30 37 35 31 32 33 22 35 34 37 29 30 30 30 21 31 30 34 23 33 31 32 28 30 29 31 27 29 31 22 29 24 34 41 22 32 32 29 37 33 28 23 26 32 38 24 29 34 38 20 28 22 28 33 39 37 39 21 29 27 19 26 25 36 29 37 32 33 30 32 27 30 26 36 29 29 35 26 36 27 38 33 32 32 30 26 31 23 27 27 29 29 30 30 28 35 26 39 45 28 28 34 28 20 29 30 23 22 32 35 28 35 28 32 29 34 30 22 29 33 24 21 15 41 25 24 23 44 25 30 22 28 41 29 34 35 26 27 32 41 34 24 27 28 35 21 29 17 33 41 29 24 34 28 35 43 40 28 30 28 31 33 33 22 18 35 30 28 38 29 28 32 33 32 28 20 28 29 27 29 30 38 23 27 22 24 28 37 33 34 22 34 23 29 27 35 28 28 16 29 27 30 28 26 34 29 35 31 26 25 26 26 23 40 31 46 38 25 26 34 25 23 30 27 31 18 26 37 33 32 49 31 34 24 38 38 27 40 27 27 30 28 40 32 50 36 22 30 24 31 33 28 45 38 39 34 33 31 38 24 31 35 28 27 28 36 23 44 32 21 27 39 28 18 33 36 35 26 30 30 32 30 29 29 30 22 43 34 27 42 36 32 36 30 33 38 28 29 29 39 32 36 35 37 27 39 31 23 33 29 22 41 35 33 37 25 23 28 24 25 29 30 31 37 39 41 38 34 32 33 23 27 33 27 34 34 44 27 20 41 31 31 37 29 34 31 29 39 38 27 29 26 39 41 28 30 25 30 29 29 26 37 33 34 33 31 34 30 33 32 29 21 39 33 30 29 35 32 35 27 33 24 30 24 31 25 36 23 43 22 36 21 23 39 21 26 32 36 32 27 26 36 26 34 31 36 27 29 30 12 32 31 30 28 22 23 37 43 35 34 36 38 27 36 27 33 34 18 35 29 27 29 37 46 36 29 21 39 24 23 37 35 37 27 37 27 21 15 32 26 26 31 28 34 21 34 31 29 24 38 30 29 31 32 30 27 25 30 27 17 30 33 33 30 32 32 37 36 46 32 26 24 27 35 22 28 25 33 36 36 33 36 33 33 28 33 31 26 22 34 26 31 30 23 26 32 28 24 30 26 34 31 30 31 26 29 34 24 31 20 34 35 28 30 31 26 23 28 40 31 30 20 24 38 28 27 32 30 37 29 31 23 21 32 30 24 24 30 31 41 34 24 29 30 33 28 38 23 34 19 34 33 32 33 34 50 31 34 25 26 23 24 30 22 40 32 24 27 38 37 30 24 30 33 35 29 31 29 24 35 35 22 21 24 39 21 28 31 40 29 30 29 32 30 36 32 34 29 29 33 31 28 30 23 37 29 32 34 26 44 51 25 27 43 30 31 32 40 28 28 21 39 36 38 33 31 46 33 24 31 25 39 38 26 43 38 25 24 35 28 30 35 29 27 35 33 37 34 32 27 30 34 26 37 32 30 33 39 22 27 29 39 36 29 21 26 34 35 34 45 30 32 42 24 32 29 28 25 26 35 36 30 28 43 30 31 29 25 32 34 25 28 35 22 30 29 31 32 29 36 23 39 33 33 21 28 24 39 27 35 30 23 30 38 34 29 25 34 26 34 36 40 34 49 39 24 30 41 26 26 31 41 40 29 27 33 31 32 30 28 32 26 28 31 33 36 32 37 28 30 30 27 30 33 37 25 35 32 37 30 26 25 28 28 24 34 37 44 32 35 21 33 36 29 38 44 29 33 20 45 33 35 30 34 24 28 27 24 32 27 32 39 33 34 36 33 34 32 46 28 18 27 28 31 32 36 29 33 33 27 36 27 31 36 34 25 34 28 38 40 32 34 26 26 24 33 32 30 24 34 32 29 20 33 28 25 34 33 41 25 29 37 28 23 34 38 36 39 25 23 20 37 24 37 29 30 29 28 31 36 36 17 35 28 21 34 32 30 26 25 32 41 22 32 30 39 32 27 32 33 34 32 19 23 31 34 22 27 34 26 34 20 23 27 32 30 24 32 26 31 31 37 32 32 30 27 21 31 29 37 26 29 36 35 25 27 25 25 30 32 28 35 21 43 34 28 35 43 30 32 36 35 23 30 31 27 24 25 29 34 33 36 31 33 27 31 25 33 35 35 29 22 33 25 29 27 34 33 27 25 31 16 28 17 37 35 27 43 36 30 19 27 30 31 35 27 44 36 34 30 16 35 28 31 34 34 27 40 33 21 30 33 35 34 29 32 32 34 26 30 36 37 25 33 40 28 30 37 40 37 28 29 31 43 25 21 20 28 28 44 32 29 29 27 30 32 31 29 28 32 38 30 29 40 38 32 27 26 28 30 25 26 28 27 39 37 27 28 32 35 42 33 25 27 33 19 38 28 31 28 31 29 34 26 29 28 33 36 38 31 30 36 36 27 30 33 26 30 25 26 37 30 28 29 30 38 28 26 27 27 38 34 43 36 34 38 39 29 34 33 28 35 26 33 35 45 32 25 30 37 28 36 37 33 20 35 37 32 42 33 35 26 21 29 30 30 23 40 30 31 31 42 28 28 34 21 37 36 24 36 25 33 38 28 35 21 36 31 34 30 31 41 36 26 24 30 22 31 20 27 37 36 25 39 30 30 30 32 21 32 35 34 32 39 20 23 30 26 25 40 31 40 20 38 30 44 38 30 30 22 26 32 22 33 31 30 40 29 31 32 30 33 34 26 28 28 31 25 40 28 28 33 33 36 35 28 32 32 34 31 33 29 36 17 31 33 29 33 35 34 35 28 38 27 36 31 26 25 32 30 41 29 33 35 22 43 22 36 30 31 27 38 31 32 32 29 34 30 23 31 39 36 29 31 34 30 28 20 32 28 39 25 41 27 37 39 26 40 29 19 27 32 24 36 40 35 38 27 31 35 30 28 25 40 27 38 39 37 28 37 26 36 23 33 28 36 40 35 22 29 32 32 26 32 33 30 21 33 46 32 20 34 20 39 26 24 24 33 31 28 40 32 40 31 29 28 27 32 34 22 25 33 39 27 33 42 32 31 26 37 25 36 27 35 29 29 32 40 34 44 35 29 31 31 33 32 31 26 13 26 24 33 25 33 35 20 32 29 22 28 27 25 32 23 36 31 23 41 26 35 26 32 28 24 36 33 27 25 34 33 32 26 29 38 34 32 27 41 29 37 26 32 28 23 33 41 31 30 34 31 33 33 40 39 31 26 34 38 35 27 32 29 28 23 37 29 38 35 30 31 35 29 28 27 28 33 30 36 30 32 35 28 21 35 30 27 28 28 38 26 27 36 29 36 23 28 33 34 29 34 26 19 24 27 26 36 29 22 28 30 31 35 23 36 23 27 18 27 29 23 31 38 41 32 29 26 31 33 25 34 31 39 25 31 32 32 40 35 29 34 29 27 30 22 26 26 46 31 31 32 33 36 26 25 35 31 34 20 22 27 37 33 31 37 28 30 36 31 28 26 33 23 36 38 27 22 35 27 37 31 33 33 24 29 28 24 17 33 30 25 33 29 23 28 50 30 31 29 36 28 30 26 31 24 26 17 37 26 29 37 22 25 22 29 31 29 30 25 30 40 30 29 32 30 31 33 23 20 27 18 24 26 27 24 22 20 26 35 30 26 32 34 20 23 31 34 27 23 30 22 45 26 29 31 26 31 35 28 26 29 32 28 24 34 28 28 35 25 24 30 19 37 34 37 36 29 31 38 18 30 29 32 33 41 26 20 35 40 28 36 34 37 30 33 25 31 28 28 34 32 30 38 37 31 33 35 23 34 32 29 19 34 31 37 41 24 29 26 33 29 27 29 32 26 31 33 28 24 43 32 19 31 45 26 27 27 31 35 30 25 30 39 26 40 36 31 26 33 26 30 25 28 35 28 27 27 41 34 32 34 20 36 27 28 33 33 32 33 29 38 38 37 34 24 25 32 27 33 34 34 32 26 32 34 32 47 26 40 28 30 28 53 38 30 26 21 35 38 35 28 29 27 39 32 43 25 35 25 23 25 27 17 33 19 32 35 26 33 36 29 29 27 28 25 35 38 42 27 45 23 36 42 39 26 31 26 30 33 27 37 39 32 31 31 27 30 36 32 27 30 39 26 30 30 24 31 33 36 30 41 41 27 33 29 28 30 36 32 28 41 28 25 28 29 37 25 31 35 34 27 36 26 30 27 23 28 33 34 28 24 22 26 24 31 33 27 43 28 30 34 38 35 32 38 26 28 37 32 43 27 37 26 41 25 29 26 31 38 24 31 33 22 17 34 33 38 29 23 29 50 31 29 25 30 30 27 32 40 36 38 29 28 23 34 35 21 45 26 29 35 36 27 28 31 32 36 42 23 28 23 37 37 32 34 30 36 20 27 23 30 33 25 30 29 33 30 43 19 29 28 34 40 31 23 34 28 29 29 30 30 33 35 27 29 32 26 31 33 27 34 40 28 29 32 33 37 33 35 35 30 25 30 35 30 33 34 38 34 42 27 32 34 22 22 32 34 24 30 37 37 24 37 31 28 27 29 32 35 18 31 23 27 32 39 35 39 24 31 37 26 29 31 34 26 31 35 25 37 13 26 28 33 40 28 25 37 40 29 29 38 29 30 27 17 36 31 34 29 38 24 25 35 24 27 27 33 23 23 47 29 37 36 31 26 38 23 29 31 35 31 24 21 32 25 27 37 31 31 31 31 31 33 23 41 20 23 34 26 25 33 25 34 29 24 22 24 32 28 37 42 31 33 35 29 32 43 30 32 25 48 22 30 22 33 35 33 32 28 41 40 25 34 27 34 42 29 26 31 29 29 32 40 29 34 30 31 29 26 29 27 30 27 27 25 32 40 27 47 25 25 32 24 35 31 24 32 20 23 35 28 29 32 28 34 32 41 25 39 42 33 34 33 37 31 37 42 30 34 39 27 28 38 27 24 32 37 30 27 23 28 44 25 43 34 25 28 27 31 20 33 24 25 27 32 34 29 35 29 27 21 27 27 34 34 30 32 32 38 22 35 38 34 34 27 31 32 23 36 31 28 24 30 35 31 37 27 24 49 29 38 29 26 32 31 31 32 37 32 27 28 26 23 38 30 31 33 22 27 31 30 30 35 31 37 29 30 24 31 26 23 31 34 30 36 34 29 34 27 31 41 27 29 22 32 33 30 31 28 38 31 34 30 27 24 39 33 35 31 37 40 27 33 40 36 29 32 23 33 23 30 29 36 25 28 28 31 27 23 28 36 28 47 40 40 31 25 33 34 26 26 28 31 24 29 23 25 29 33 26 36 25 35 27 32 25 26 30 25 25 22 35 36 28 24 22 36 25 26 26 30 35 21 27 30 36 32 26 29 33 29 37 29 27 35 37 31 26 26 28 25 27 35 33 34 34 32 25 28 32 35 28 26 36 32 28 30 29 32 28 34 32 28 35 22 28 28 29 28 32 32 23 33 28 34 27 25 24 32 22 30 39 35 32 30 23 22 28 30 33 25 28 33 32 29 26 36 24 40 34 29 37 35 29 29 34 30 25 33 32 30 28 30 32 31 26 36 28 33 36 25 28 36 40 29 23 36 41 33 26 35 31 34 37 36 32 23 35 34 25 36 38 27 23 35 32 32 30 30 26 25 37 28 34 33 25 30 23 18 40 25 25 32 34 31 23 23 26 38 25 39 23 37 22 36 29 32 28 32 33 24 32 38 40 30 32 37 31 35 35 26 37 33 28 33 31 26 39 40 31 18 33 25 41 22 25 28 27 31 37 30 39 25 34 31 28 31 29 31 30 35 35 31 28 27 28 28 28 27 24 26 25 39 32 23 29 26 36 29 32 26 26 38 28 38 34 24 32 29 31 27 25 28 25 38 39 28 22 31 30 31 32 28 42 36 34 26 32 29 28 24 29 24 28 26 30 35 29 33 25 26 34 32 26 42 32 47 31 34 29 27 30 21 40 27 29 27 38 36 22 39 27 32 28 16 25 30 26 35 38 31 29 31 33 41 28 33 30 29 26 32 31 28 32 27 17 30 28 30 23 27 29 34 32 30 25 29 32 31 37 24 31 36 26 24 26 29 35 25 29 31 29 34 32 34 29 20 23 24 18 25 23 30 40 28 22 24 31 44 33 31 23 36 37 39 30 36 30 38 27 24 31 19 39 30 32 23 32 23 26 26 31 35 25 40 42 28 35 33 32 28 19 29 31 28 25 24 27 25 33 27 28 28 28 17 29 30 20 30 34 30 27 27 31 32 30 27 30 30 37 38 31 31 24 28 22 27 27 32 26 36 31 36 40 26 31 38 30 33 25 29 34 24 32 40 31 30 22 30 31 30 29 26 36 29 47 37 32 34 36 25 30 38 26 40 32 24 36 21 28 33 40 29 17 17 33 33 34 31 25 35 25 31 31 28 33 25 32 27 27 34 28 33 31 32 29 25 33 46 26 42 27 31 36 28 31 28 31 28 27 33 31 21 33 40 20 30 28 32 40 26 35 25 29 23 19 36 35 45 30 25 34 31 28 34 31 26 32 32 34 32 29 30 29 35 25 35 23 33 36 32 27 25 21 28 21 21 38 27 24 31 28 23 37 24 39 23 31 30 26 33 33 35 28 19 31 25 22 32 34 36 25 24 28 26 25 31 23 36 22 24 24 27 27 39 34 36 28 38 32 26 31 34 27 26 39 23 27 31 37 32 31 33 39 28 28 26 25 35 31 39 27 36 35 33 39 27 30 30 24 30 33 38 20 22 29 27 32 27 32 31 29 34 31 35 43 26 36 36 27 28 33 29 30 33 29 45 27 27 30 27 37 26 23 39 28 46 31 31 27 30 32 42 24 42 21 27 30 31 34 31 26 42 26 26 34 39 25 28 32 25 31 31 33 31 25 37 27 28 32 37 27 28 29 26 29 29 30 27 19 34 31 33 30 35 34 29 33 36 34 29 31 33 31 32 27 29 39 19 37 26 31 26 36 36 32 23 34 28 28 37 29 45 27 32 29 33 30 46 29 32 31 30 26 39 32 29 21 35 28 34 29 24 23 33 36 31 28 27 32 22 38 21 43 28 29 36 33 23 33 30 33 27 34 31 30 31 31 35 41 37 21 37 31 32 33 31 33 29 22 24 27 30 30 32 31 30 33 30 25 27 29 38 30 25 33 30 27 27 20 40 27 38 34 23 29 40 28 28 31 35 34 29 28 34 37 33 28 25 36 27 33 36 31 34 38 34 26 30 29 39 26 28 29 20 28 30 32 32 37 30 31 26 28 19 44 33 30 42 37 38 26 21 34 33 38 33 42 27 30 31 31 26 36 32 29 36 22 31 27 30 38 22 24 30 35 33 40 20 19 28 33 24 20 27 28 34 27 20 27 30 38 33 35 29 28 26 43 29 28 32 23 28 33 23 32 15 33 34 40 26 32 26 35 26 30 36 30 25 22 30 34 26 44 37 31 30 31 28 31 35 34 25 32 27 33 34 22 34 37 34 25 34 29 34 19 25 30 27 31 28 24 37 23 28 43 23 37 35 28 29 36 30 40 27 31 23 42 34 24 34 20 31 33 32 27 40 35 27 31 23 24 34 28 28 39 30 30 23 20 37 30 34 29 26 34 41 30 34 21 31 34 32 33 38 30 27 32 26 37 47 32 25 28 29 34 37 32 31 29 30 24 46 26 32 31 28 33 26 29 30 34 27 31 36 32 40 25 36 36 34 31 28 22 40 35 28 31 32 31 26 37 28 36 34 29 22 30 35 43 34 24 26 33 28 42 34 16 34 27 35 24 26 39 44 29 32 33 23 24 33 23 31 34 32 30 33 33 25 38 32 20 28 33 25 23 36 41 18 28 28 36 37 25 33 31 29 27 20 26 31 39 33 31 33 26 24 29 33 25 30 34 35 30 38 30 39 36 29 41 33 34 29 33 30 35 20 41 29 31 46 23 37 34 32 30 35 38 27 38 31 30 27 30 34 24 30 40 27 32 29 41 29 29 29 36 28 33 27 25 28 27 29 35 24 23 26 29 37 32 24 34 40 29 34 23 32 29 36 33 32 26 36 23 30 30 36 25 26 26 24 35 39 27 29 36 29 36 32 35 27 27 42 30 28 34 33 34 25 31 28 29 27 31 33 39 35 20 32 32 33 38 40 35 32 36 31 26 35 28 36 27 30 25 34 33 17 30 26 31 35 27 23 34 23 26 29 25 30 29 35 31 34 33 28 28 35 39 37 31 28 31 29 35 25 35 30 35 37 37 30 28 39 35 27 24 32 23 21 34 40 27 41 30 31 28 32 32 27 30 29 34 22 31 20 27 31 26 30 30 24 30 32 29 23 31 33 27 30 27 30 42 34 32 25 32 35 45 24 36 26 23 31 25 40 30 32 30 29 21 31 36 34 38 25 26 43 37 22 25 34 28 38 28 35 20 30 32 33 32 27 33 30 27 34 29 33 31 37 27 30 26 22 29 32 30 36 29 35 26 26 25 33 39 32 30 47 30 30 32 35 27 34 36 29 27 37 30 49 40 34 32 30 20 36 38 27 38 27 36 31 31 36 39 27 31 37 29 30 34 33 28 28 30 32 35 24 31 35 27 28 33 43 26 29 35 30 28 28 36 38 36 25 33 33 28 28 29 33 27 32 22 36 27 27 28 34 28 42 21 25 37 20 23 30 21 33 30 31 28 34 26 34 28 37 28 26 32 35 39 29 23 34 40 24 25 27 29 33 18 31 26 31 38 35 29 38 27 43 37 35 34 30 31 41 27 28 48 35 27 33 32 32 29 32 39 19 37 29 30 27 32 27 37 26 33 35 38 33 28 41 26 46 27 29 33 34 30 37 34 35 27 29 32 31 41 24 31 36 33 42 36 35 37 35 39 30 22 33 26 28 32 32 32 22 35 27 32 30 40 45 36 28 38 30 28 27 27 30 39 44 28 35 36 31 28 29 33 36 25 27 23 29 34 24 25 24 26 29 44 31 36 26 23 32 29 21 31 22 31 28 31 26 25 34 34 29 37 25 40 30 31 31 28 19 34 36 32 32 28 44 33 25 26 31 24 34 35 27 25 23 35 27 30 34 35 33 21 32 22 41 29 28 22 20 34 27 30 22 29 38 29 27 29 36 27 31 24 29 27 26 19 34 30 45 27 26 34 21 36 34 30 25 35 27 23 31 31 33 20 23 30 26 40 31 42 34 27 30 27 26 34 32 34 36 32 31 34 39 35 38 24 32 28 27 33 32 38 31 29 26 39 27 36 30 32 37 27 35 48 24 37 24 28 35 20 31 26 33 32 35 31 34 28 30 32 34 35 25 31 25 25 24 33 28 38 26 28 26 36 35 33 27 31 26 32 25 39 28 27 38 25 32 37 31 27 42 31 30 29 43 26 30 37 26 21 23 36 24 30 37 30 31 27 28 33 33 19 30 30 28 25 27 30 28 31 44 28 20 38 38 32 35 31 31 32 37 28 24 30 31 32 28 38 37 33 27 35 32 32 32 26 25 24 38 29 28 25 25 27 35 29 29 27 36 37 35 33 36 27 24 28 35 32 31 33 20 35 36 27 38 38 31 33 38 23 29 22 31 33 31 23 28 24 26 44 31 40 34 37 26 31 30 23 34 20 24 33 26 33 34 29 19 34 33 25 23 31 29 35 32 27 27 37 25 29 37 29 37 36 32 24 26 29 29 32 24 32 23 42 32 30 33 31 32 40 29 24 27 29 39 34 25 28 28 29 30 32 25 29 25 32 35 31 27 28 28 33 27 21 33 35 28 26 41 30 27 31 29 34 18 28 27 39 40 32 30 25 24 23 23 29 23 36 44 30 32 27 24 21 27 35 31 29 21 22 20 30 28 36 31 34 32 33 34 35 25 25 33 30 29 29 39 35 41 33 32 25 30 31 35 31 24 29 23 33 30 29 29 29 34 29 33 31 25 30 22 41 25 28 39 24 37 32 36 32 33 37 46 40 37 39 30 36 34 37 28 34 32 29 31 23 38 41 34 31 29 24 33 39 31 27 29 30 27 31 34 27 30 19 38 32 24 34 36 27 30 29 32 37 30 30 31 32 37 35 31 37 31 42 33 23 30 30 28 30 26 33 40 23 22 33 33 34 29 36 35 45 29 35 31 23 30 32 27 34 35 24 36 30 32 26 27 34 29 30 40 41 24 31 31 27 22 27 29 27 30 31 35 30 29 27 27 47 27 29 33 38 24 24 37 27 35 29 29 29 26 31 31 34 27 46 21 27 23 31 33 26 27 30 29 28 24 35 34 43 28 37 28 29 31 36 27 30 26 37 32 26 36 29 29 28 25 31 26 29 31 25 21 25 34 23 29 25 35 33 35 37 34 34 37 36 32 34 47 36 32 39 34 27 25 27 28 27 27 31 34 30 20 31 20 38 29 27 31 27 30 35 30 31 21 32 29 28 37 25 35 34 34 30 35 34 36 29 27 27 28 34 31 31 37 23 29 30 35 33 24 33 35 34 28 37 30 40 37 33 35 33 25 26 26 28 39 35 42 26 39 32 30 28 33 26 39 36 38 38 35 27 29 40 29 35 20 31 31 35 26 29 34 37 33 43 31 31 32 28 36 31 26 19 25 32 23 28 28 28 25 25 43 35 23 25 37 40 31 27 36 30 27 33 28 34 29 27 28 35 30 28 37 38 25 31 30 24 33 30 39 35 28 28 33 29 34 25 31 37 37 35 32 25 19 29 34 50 33 24 50 30 39 29 31 29 27 31 34 24 28 30 40 29 35 37 35 28 26 35 27 34 31 24 42 37 26 43 30 29 29 27 35 35 31 40 34 35 29 24 28 26 28 31 29 43 30 30 27 33 40 36 42 30 25 29 38 29 32 24 26 35 34 30 27 39 31 41 27 39 32 38 35 31 29 32 36 35 29 27 25 28 38 31 27 33 30 39 33 32 27 28 38 26 30 41 34 24 30 33 32 33 31 20 33 26 30 28 26 30 29 27 23 30 27 34 30 24 29 38 37 36 33 26 34 40 37 23 27 30 27 33 26 33 30 39 29 36 29 32 28 35 32 23 35 22 32 36 23 27 35 30 28 34 28 34 33 28 32 25 44 27 34 31 35 40 38 37 28 43 38 33 29 45 25 33 28 31 29 40 21 33 34 37 32 28 29 28 31 26 37 30 31 26 39 37 26 29 24 31 35 32 25 36 34 18 34 37 38 30 35 24 29 35 32 28 30 31 37 33 34 25 36 29 31 33 29 42 28 44 30 38 42 25 31 39 38 34 27 45 25 33 25 23 32 35 31 32 24 23 26 28 28 25 28 25 30 39 26 27 25 29 32 27 26 32 40 42 36 26 32 26 38 28 26 24 32 34 31 27 28 38 29 24 44 25 30 34 33 29 25 22 31 35 35 30 35 27 37 27 33 32 26 27 32 36 38 20 29 32 34 33 58 32 28 34 25 28 25 34 23 31 31 31 30 36 34 33 27 21 32 49 17 27 34 32 34 32 35 21 35 23 30 38 28 28 36 38 34 25 36 45 28 28 33 29 31 32 29 25 30 36 29 15 28 25 22 33 32 39 32 30 29 41 37 22 36 32 33 34 35 34 28 33 43 35 31 33 28 28 29 34 35 28 24 40 23 26 35 28 25 33 24 31 33 35 22 28 23 28 31 30 34 28 37 27 33 28 37 31 30 27 43 32 29 31 31 30 39 31 23 33 32 39 26 37 22 24 32 31 29 20 25 33 28 28 27 38 33 30 29 25 32 34 28 34 33 38 31 31 30 34 39 25 32 34 30 35 27 34 38 32 27 29 40 39 32 38 39 35 32 27 35 38 37 32 29 28 28 29 27 32 28 29 40 22 34 28 37 20 34 36 28 31 33 37 31 34 28 39 28 25 20 21 21 33 29 24 36 34 25 35 38 27 27 32 32 25 32 32 26 26 34 22 30 33 24 33 33 28 30 26 32 26 36 26 29 37 20 35 31 39 43 26 37 44 39 18 31 28 21 35 34 32 22 26 29 30 37 30 37 47 30 35 25 28 42 28 36 28 23 36 26 37 28 26 28 20 40 29 26 42 34 30 28 34 41 31 33 44 32 34 25 26 23 28 26 29 28 31 33 33 35 33 29 23 30 31 24 28 24 22 37 35 34 29 24 31 29 23 24 27 37 29 52 34 18 28 43 30 37 31 35 31 40 27 27 24 30 27 24 25 28 25 27 26 27 29 27 31 33 28 24 27 25 32 28 28 34 27 26 23 30 24 32 27 38 32 36 28 30 32 29 36 23 35 34 36 30 30 31 44 37 30 40 24 27 33 27 32 31 41 33 32 31 25 25 28 27 32 33 28 37 28 38 32 29 24 31 30 28 28 27 41 22 32 37 27 32 41 24 26 33 37 29 31 39 38 31 36 34 30 25 38 33 28 32 32 34 20 29 35 33 27 33 31 33 30 26 32 24 36 37 30 32 37 17 26 24 31 26 33 33 40 35 38 27 30 38 20 40 32 30 26 39 29 32 40 40 24 24 27 29 33 31 29 27 38 26 29 35 24 36 31 38 33 22 42 22 35 40 43 28 30 42 21 18 28 28 29 28 16 32 35 30 29 35 35 23 27 24 28 32 34 28 25 28 35 44 29 34 27 19 23 33 33 23 31 26 35 29 15 26 34 27 29 25 30 27 27 31 31 30 26 29 37 37 43 29 31 29 24 31 20 32 22 42 32 32 21 33 33 21 31 30 23 33 29 30 33 24 33 26 36 34 28 34 32 30 46 33 31 33 34 26 37 49 24 34 37 28 30 34 28 29 27 30 30 29 33 37 46 23 26 23 23 31 27 34 34 24 24 25 30 34 35 28 35 46 23 37 52 27 34 27 32 28 26 27 26 33 28 22 27 36 26 28 30 33 27 35 41 28 38 41 24 46 37 34 32 35 32 35 37 32 37 34 24 37 27 28 22 29 32 41 29 41 33 32 30 34 35 38 28 27 29 35 29 25 28 36 27 39 28 28 30 27 34 33 27 38 26 31 21 32 35 34 40 29 27 32 31 39 42 33 37 26 32 37 35 37 34 32 21 30 33 32 26 27 30 21 40 32 28 38 31 32 25 29 36 36 44 25 34 34 30 26 29 22 42 31 31 24 29 27 33 31 28 34 32 28 28 26 30 33 41 28 22 44 39 19 27 38 33 35 33 27 31 31 34 37 31 25 19 28 25 27 32 31 27 39 36 44 21 35 24 30 35 27 35 36 42 32 26 28 23 32 33 24 28 34 27 34 34 36 30 31 25 31 25 27 27 34 31 27 26 38 24 40 32 31 29 32 33 31 34 38 30 23 34 27 27 27 35 26 48 29 32 29 22 29 38 36 27 42 34 30 36 24 29 31 33 43 35 39 37 39 34 30 26 34 30 30 36 21 32 32 31 37 31 24 46 35 29 30 32 35 28 31 23 23 38 36 32 38 29 40 33 28 37 32 18 28 31 30 28 32 31 33 21 28 38 22 38 34 25 19 33 42 35 29</t>
+  </si>
+  <si>
+    <t>JSB(12.677748500826098, 9.623142013157633, -377.8931073673648, 2898.451152545291)</t>
+  </si>
+  <si>
+    <t>303 249 248 283 296 253 280 254 201 148 174 202 263 317 175 207 262 265 265 157 120 241 227 168 230 147 221 253 211 206 255 254 216 188 307 201 195 237 204 140 146 213 339 160 200 265 294 356 287 203 192 204 213 197 172 239 227 238 210 175 310 169 225 268 177 241 292 239 232 321 192 275 200 175 264 201 154 224 175 316 107 168 319 142 216 226 277 215 189 227 235 249 257 208 181 239 295 207 264 175 269 278 265 235 212 309 240 253 230 354 180 251 294 209 319 231 188 295 237 220 246 216 120 244 274 125 128 172 270 189 276 194 218 202 226 220 234 176 250 290 253 313 254 182 245 195 225 247 108 226 181 241 239 234 276 265 156 240 237 219 268 201 148 184 256 273 270 149 246 228 309 278 335 345 186 192 337 244 254 254 206 278 191 192 134 276 268 239 147 216 289 198 270 302 322 277 315 138 269 154 272 250 277 286 315 245 225 253 226 261 239 173 171 259 237 195 215 264 256 250 268 236 205 286 259 222 199 252 109 232 168 291 295 262 193 263 209 214 258 203 258 264 281 147 268 223 321 208 317 200 318 321 116 281 257 245 245 439 193 254 250 219 228 236 260 178 236 266 177 309 268 96 303 282 185 244 259 232 198 302 261 240 142 241 247 196 316 198 193 232 248 260 270 179 189 185 276 260 255 231 206 246 133 227 221 269 249 203 206 243 231 251 251 179 194 262 218 225 192 220 207 289 102 252 126 214 288 220 274 335 298 285 300 222 322 150 216 232 230 235 239 293 194 313 245 203 269 252 271 269 315 235 251 218 225 252 293 178 238 216 277 115 204 256 212 248 265 253 201 182 166 272 180 167 377 218 247 231 376 295 250 248 252 219 212 183 236 217 299 301 309 265 160 283 155 159 269 247 233 268 303 177 266 296 219 303 211 168 203 265 175 222 260 221 128 188 236 256 246 190 174 194 331 228 257 271 274 261 303 216 252 300 284 267 229 194 288 178 180 216 168 281 227 167 196 195 175 196 220 212 181 299 284 227 180 173 215 218 254 258 294 153 241 239 291 244 187 247 264 334 235 152 241 222 145 221 300 212 278 217 247 305 192 324 316 160 185 299 194 192 230 279 231 276 225 327 215 259 299 160 218 193 268 258 303 215 171 219 305 177 252 216 281 198 262 162 242 292 152 175 289 300 275 222 211 175 172 198 213 213 206 285 311 134 263 280 206 324 286 168 80 246 202 142 246 251 288 210 175 300 210 179 284 254 200 269 245 217 220 202 303 215 222 190 226 151 161 323 172 222 282 164 282 179 251 207 261 293 180 308 312 247 277 289 214 337 224 248 226 289 224 232 255 225 93 181 226 259 242 182 254 172 228 272 212 198 271 208 269 288 253 213 218 188 304 246 246 166 291 231 257 229 263 184 178 298 242 269 142 243 202 276 218 166 263 253 176 155 259 234 221 213 255 254 295 318 226 262 215 264 243 274 233 248 129 242 144 148 222 202 224 328 258 320 168 195 194 292 269 284 254 251 214 225 321 180 304 197 313 242 203 169 186 182 184 264 149 272 139 258 255 177 238 314 179 237 221 173 197 194 206 261 123 234 262 245 194 160 208 247 291 276 235 234 111 152 201 139 183 205 232 318 272 320 267 272 239 286 107 283 178 149 216 266 203 167 296 187 178 283 171 214 277 234 215 330 206 237 289 199 280 215 318 309 182 302 195 231 199 292 309 221 263 189 231 222 280 237 225 257 158 188 189 212 345 232 192 185 304 253 281 266 190 315 218 319 230 289 265 261 262 268 172 223 250 253 289 308 228 228 162 252 210 255 312 253 188 207 279 278 236 204 301 199 198 229 251 233 117 96 202 164 233 225 230 258 272 187 248 230 194 248 189 219 205 261 230 255 174 315 248 212 184 277 282 236 296 171 306 234 282 255 269 272 292 260 199 349 276 156 271 244 197 248 181 317 197 297 233 220 346 266 222 189 283 176 251 282 249 263 243 251 272 170 245 250 280 258 272 217 192 225 279 230 221 191 278 197 258 178 228 210 178 82 231 227 199 269 191 233 153 186 184 245 224 164 274 274 241 222 253 210 156 260 321 227 140 149 120 340 252 310 273 308 206 224 225 251 202 205 311 180 258 238 282 341 240 186 169 297 245 147 204 366 285 176 239 248 292 198 260 261 355 202 274 286 221 150 186 275 220 171 183 287 217 275 243 272 263 175 242 254 206 210 289 200 229 253 250 230 184 304 149 174 223 253 299 298 296 262 237 223 267 226 220 223 220 275 247 293 231 147 290 245 180 217 273 250 152 233 137 215 295 299 226 247 173 242 322 210 203 327 264 238 194 256 271 286 257 232 219 261 272 218 277 214 251 241 226 189 265 195 262 291 283 185 233 207 236 202 378 175 200 359 227 233 122 252 204 217 254 283 234 183 245 269 158 256 249 234 229 211 148 307 187 307 235 265 275 262 263 198 225 295 257 234 174 225 261 206 228 166 201 214 223 234 277 146 211 226 183 305 192 274 272 371 215 213 301 226 254 318 264 270 208 221 229 190 210 299 255 203 296 208 245 176 235 233 269 211 304 200 205 220 224 216 222 211 251 267 222 243 380 233 235 173 243 329 164 248 271 198 171 271 207 240 214 253 239 261 187 216 207 202 236 231 285 261 245 214 269 167 230 310 308 227 211 175 205 171 236 194 274 225 194 270 176 234 330 240 204 225 241 210 376 196 181 212 279 206 259 155 152 232 88 239 278 317 225 376 213 235 288 262 264 283 154 210 321 195 166 253 233 217 215 234 201 265 262 261 245 237 220 302 235 216 173 168 233 279 249 159 282 123 187 336 155 178 282 335 213 237 222 193 128 242 200 219 162 272 234 250 206 295 251 200 285 261 189 238 239 239 290 256 223 211 222 268 274 208 307 204 199 237 222 175 225 139 228 240 232 165 307 268 259 255 234 179 225 216 219 145 274 288 266 161 174 249 134 335 250 219 250 220 333 168 152 316 229 237 209 249 310 169 245 232 312 231 286 279 213 142 206 232 155 182 214 262 262 204 241 304 214 250 262 249 260 286 242 252 243 206 214 184 275 153 285 113 242 236 256 218 298 223 190 219 262 295 276 277 316 229 220 279 188 227 327 279 250 170 252 287 197 200 163 252 273 247 309 316 259 202 153 326 219 223 186 218 157 305 226 277 225 151 226 244 230 260 265 282 241 237 236 207 260 274 249 284 239 203 204 246 147 180 171 221 216 299 270 220 157 292 230 260 174 221 261 203 167 189 253 214 155 182 320 234 243 190 190 248 241 305 199 183 150 153 156 212 225 124 191 359 258 201 301 225 153 187 232 279 232 196 129 264 191 190 265 310 208 175 252 296 240 231 241 221 247 150 237 228 286 254 313 234 286 251 153 216 258 214 205 264 258 320 336 202 163 359 351 339 287 299 246 295 194 238 255 186 274 191 210 245 364 281 261 183 324 259 158 231 271 251 195 178 279 269 245 263 168 299 158 263 271 197 246 246 256 228 201 208 247 160 246 174 227 249 242 250 174 128 214 206 251 150 275 206 225 235 245 233 279 297 181 272 224 142 187 258 243 191 276 301 197 245 242 211 224 307 166 223 209 214 156 265 254 234 369 290 230 222 227 267 256 193 253 275 239 213 219 267 166 276 257 295 162 211 171 300 204 266 216 202 206 177 225 219 166 235 338 226 172 217 214 226 270 229 234 157 233 245 222 191 214 282 130 165 216 185 257 273 235 226 168 236 249 199 310 351 196 253 275 196 200 281 290 228 276 245 197 340 293 184 234 318 216 218 179 375 252 248 242 281 238 190 256 248 294 272 173 183 258 297 178 305 201 205 117 271 186 199 215 292 271 237 232 251 224 269 269 218 237 280 206 227 223 147 180 226 258 230 226 266 238 251 236 236 247 352 333 247 192 165 139 272 283 186 230 244 218 249 228 287 272 240 176 136 323 160 279 222 255 170 204 253 191 265 201 200 312 193 193 324 211 328 182 269 228 192 320 205 153 259 278 227 288 149 177 184 219 264 195 283 206 193 168 218 271 325 257 245 262 297 207 234 314 87 234 166 222 263 226 317 303 209 221 242 265 174 200 267 219 144 331 384 256 252 171 201 194 138 297 279 238 236 209 265 187 223 177 203 162 267 307 253 332 239 221 230 177 278 268 269 255 193 210 143 282 228 223 261 286 282 250 244 227 241 188 252 283 233 203 207 230 254 332 256 218 220 221 165 235 205 219 315 273 248 228 245 183 268 261 268 228 313 153 207 328 234 217 270 209 230 286 324 196 235 210 184 265 266 191 208 214 216 153 246 281 240 253 281 280 267 307 195 169 179 227 258 156 202 205 143 239 232 252 188 298 199 220 225 180 279 170 234 246 249 372 243 263 235 279 310 223 291 272 178 224 222 246 237 252 255 245 218 165 272 400 239 224 259 264 188 398 214 165 252 187 208 225 311 287 308 165 205 192 229 248 185 134 254 238 247 241 183 216 261 291 186 219 203 260 290 137 228 189 203 272 266 256 126 249 237 178 183 281 133 235 214 303 241 238 258 258 228 291 134 246 336 306 243 198 243 293 150 272 249 229 209 361 256 246 253 285 180 250 249 283 156 302 273 243 160 214 127 182 165 200 278 288 299 242 224 312 271 265 186 182 177 252 251 177 249 191 234 237 174 273 326 236 183 229 228 285 216 208 223 158 199 139 194 341 181 243 216 277 235 346 215 258 212 250 288 285 236 230 269 392 274 325 207 204 258 184 249 220 403 318 261 203 184 202 320 199 234 279 180 203 276 251 318 320 237 290 246 208 220 272 194 258 234 317 217 205 217 305 326 189 308 174 280 276 290 263 406 288 226 276 296 316 215 385 188 236 169 248 287 149 237 262 173 295 206 260 191 269 262 194 195 212 256 255 274 227 267 222 219 248 342 179 233 206 185 319 291 224 234 327 308 300 264 229 203 218 265 258 257 262 266 239 210 281 146 178 235 219 242 271 215 170 227 260 240 237 217 277 299 296 190 283 207 189 200 298 309 146 335 337 264 285 224 142 168 145 217 298 186 198 196 248 220 266 200 236 195 329 208 242 287 218 267 241 130 179 277 291 318 266 183 206 150 151 194 298 249 178 194 205 220 255 243 251 282 309 324 211 216 260 200 192 267 207 141 225 199 223 188 293 134 227 167 196 251 259 307 264 243 197 171 142 246 254 197 233 240 279 193 199 264 249 332 243 233 304 214 238 175 270 179 321 242 247 108 208 297 197 350 382 285 233 306 312 186 295 176 241 346 234 257 263 251 119 173 193 153 245 189 273 160 180 192 354 219 143 270 238 314 230 232 315 256 267 119 225 306 300 254 243 203 184 197 248 177 217 178 298 277 285 230 157 290 252 196 340 218 192 300 247 303 226 259 271 269 230 238 226 218 156 224 206 212 195 232 137 205 241 216 164 329 287 294 238 263 312 295 299 197 225 145 246 213 243 217 223 210 253 164 227 178 224 244 285 262 320 294 216 209 161 302 227 238 197 218 213 257 228 225 246 243 287 265 204 168 186 280 189 249 211 235 153 266 160 282 243 234 305 262 308 199 283 260 280 130 274 233 255 237 266 334 218 199 247 246 245 190 234 190 343 209 370 259 154 227 257 275 267 194 364 156 253 265 204 208 238 257 224 206 290 205 276 187 234 255 287 259 276 240 289 313 187 248 207 311 215 291 279 253 193 151 263 228 256 275 243 207 289 245 143 185 185 231 226 256 212 213 240 266 176 265 383 235 264 243 149 261 300 299 254 351 265 304 229 209 243 253 263 227 247 293 259 251 203 208 241 244 196 217 198 149 180 164 345 244 237 230 171 231 226 200 258 248 193 243 284 326 141 215 246 226 248 229 179 187 275 288 245 228 244 258 229 177 272 211 219 277 221 328 197 216 279 242 268 280 242 225 159 285 253 199 238 217 193 267 223 201 297 358 316 291 191 295 225 216 295 218 182 329 320 250 258 326 238 268 202 315 283 291 282 288 355 245 308 175 196 252 263 254 234 241 284 268 225 244 240 235 255 369 252 109 289 311 245 169 211 191 287 198 240 230 233 181 230 296 274 203 242 207 210 226 200 272 300 217 262 330 275 157 249 261 174 177 209 353 247 303 270 164 234 267 225 252 163 217 279 232 185 336 311 238 197 166 311 201 239 207 201 140 244 301 133 243 251 214 201 304 245 319 201 213 306 232 275 146 222 179 227 312 207 166 189 314 191 259 171 157 184 168 232 239 311 211 180 178 146 285 289 274 240 270 199 230 222 275 270 226 131 233 173 286 235 283 313 213 220 160 246 165 218 163 222 223 281 270 201 195 292 305 155 196 244 250 256 198 203 326 259 329 201 176 145 259 272 228 276 159 209 245 233 223 204 290 208 265 269 306 356 255 261 234 304 221 164 230 272 212 211 281 146 300 295 377 282 272 258 225 171 247 294 180 216 211 208 248 309 174 265 229 326 290 300 285 201 202 176 261 153 286 192 182 202 231 199 227 230 158 183 196 193 241 181 226 253 283 252 329 270 297 221 207 190 287 219 288 197 206 240 235 307 165 127 197 190 190 296 221 233 282 315 181 205 308 124 246 240 265 205 243 203 263 190 281 199 274 228 280 303 158 278 211 193 101 232 244 258 250 178 196 245 336 216 298 228 217 296 243 182 281 197 265 270 220 211 267 238 267 194 263 301 256 225 246 152 244 326 186 196 263 200 189 251 187 229 197 213 199 260 264 212 217 136 219 166 198 275 261 294 257 203 223 239 210 220 240 328 162 269 237 321 328 175 222 185 219 237 223 302 240 164 246 188 279 304 249 373 184 321 253 343 177 240 205 192 295 285 217 293 252 185 186 254 145 245 249 240 214 210 167 219 200 274 161 192 144 199 232 215 372 250 292 166 283 140 198 126 166 266 227 200 367 286 281 210 233 153 228 234 224 271 155 236 245 348 278 148 224 307 302 246 237 182 268 243 279 202 211 161 235 294 315 294 235 213 249 174 183 283 236 190 161 228 248 208 225 254 237 427 228 227 295 252 243 268 283 248 270 190 268 229 216 242 195 269 227 264 189 223 220 297 228 230 240 264 254 272 117 298 240 254 218 269 216 228 259 172 254 214 338 210 311 194 246 285 207 308 355 227 252 207 203 236 265 218 194 200 203 216 304 170 183 243 239 298 356 259 296 270 316 293 224 230 201 222 214 246 291 320 233 201 206 178 214 285 223 236 202 231 168 280 272 237 234 255 293 299 267 264 240 294 191 168 255 324 294 230 282 170 203 232 237 270 297 231 230 275 251 234 307 296 271 241 251 145 117 219 259 247 221 218 174 191 259 135 149 220 209 203 218 220 174 80 277 188 200 229 258 187 323 281 241 252 251 244 201 212 181 217 199 286 217 201 304 241 199 223 207 257 178 189 306 325 268 234 179 325 169 235 169 245 240 229 231 243 196 236 226 285 207 217 176 287 299 166 204 167 165 293 253 229 214 255 229 329 334 222 215 212 246 296 255 166 198 296 233 243 254 312 231 130 242 253 219 289 211 157 159 206 278 248 213 166 188 208 222 211 271 238 144 327 198 261 211 239 210 191 256 197 256 143 192 250 229 295 182 200 281 208 273 284 221 139 261 154 221 290 176 220 191 235 244 182 333 285 292 268 239 244 285 202 201 318 270 215 271 242 181 289 190 190 255 232 290 305 196 146 249 297 220 225 293 172 272 212 207 296 170 380 227 218 212 272 228 255 179 234 250 258 230 228 253 204 207 279 167 318 161 311 176 212 288 308 109 232 181 190 209 338 264 259 200 205 208 220 275 201 181 172 263 225 199 200 161 303 215 281 320 246 280 341 200 268 247 328 318 243 190 329 193 313 163 251 162 134 197 190 258 251 236 300 282 239 160 177 218 253 180 192 259 216 228 211 195 316 197 191 181 210 167 271 276 228 216 269 376 142 238 256 345 256 250 250 144 189 256 182 156 258 240 257 247 232 218 226 145 208 295 251 183 220 227 224 193 167 254 268 286 192 312 202 246 143 188 199 201 284 191 168 275 261 223 181 247 281 170 181 334 299 211 242 304 253 222 226 278 210 208 264 103 218 255 187 193 240 261 225 228 147 187 244 230 229 158 168 198 296 267 212 280 154 260 241 276 185 264 287 251 288 237 328 243 210 288 238 247 202 183 190 228 198 211 248 222 244 239 249 146 201 187 263 232 327 232 198 298 193 277 178 229 221 182 241 84 188 271 263 264 166 307 199 224 194 267 273 252 224 202 284 344 317 227 251 244 209 253 272 236 317 221 247 225 195 302 133 234 202 211 313 170 322 197 166 247 256 331 239 297 243 294 221 224 278 318 204 243 230 253 253 236 231 210 428 246 325 198 214 288 181 262 220 219 255 403 228 194 180 264 252 277 264 264 365 246 255 152 316 299 197 291 266 165 213 256 271 237 308 188 196 247 270 260 239 204 225 170 144 133 233 282 235 230 163 266 163 323 267 297 254 196 188 188 176 219 248 171 185 238 274 194 358 231 258 264 294 251 223 259 238 185 274 263 220 226 237 164 209 191 231 307 212 285 253 304 243 216 225 154 259 319 239 256 242 174 330 237 182 267 270 265 270 176 304 339 276 205 261 186 172 193 208 186 325 200 232 320 252 207 186 212 288 323 267 180 162 310 190 198 177 254 254 262 186 213 224 192 186 195 186 303 150 190 166 178 145 179 307 163 199 222 151 194 217 291 217 159 238 215 216 284 302 129 191 190 241 300 250 232 242 255 216 194 396 222 255 259 164 335 275 230 210 205 228 305 193 227 204 230 186 240 236 242 154 257 240 257 195 219 211 251 250 272 219 201 166 305 326 220 192 232 259 203 226 183 209 184 198 278 241 177 229 220 256 216 195 168 304 243 163 286 270 311 214 219 326 195 254 166 299 256 303 178 190 171 154 227 177 143 221 254 184 287 253 207 223 297 264 178 309 310 261 245 158 211 184 235 257 272 169 255 300 275 355 267 209 176 209 271 329 322 144 291 225 317 198 208 224 231 163 318 205 305 276 243 136 262 297 375 273 270 218 232 135 289 165 280 173 294 194 300 272 214 213 268 224 249 273 195 228 233 246 293 160 245 219 225 320 299 190 230 215 216 327 199 218 270 314 137 258 228 179 229 330 232 230 193 204 212 105 209 166 267 206 326 262 225 267 243 201 233 207 315 278 227 301 194 232 203 280 280 265 267 187 147 275 149 217 135 246 260 186 151 214 230 224 358 343 191 183 268 203 136 181 229 179 168 270 280 211 253 220 242 294 248 208 202 253 290 161 186 82 316 221 180 213 337 197 196 182 257 363 220 193 234 190 225 248 302 214 190 234 198 291 196 220 154 285 281 215 185 284 221 263 339 308 201 273 245 254 286 219 213 180 280 256 184 279 195 197 231 252 278 240 189 153 175 206 243 181 295 158 240 112 231 239 312 252 267 152 254 217 158 252 275 231 197 91 250 231 221 142 262 263 224 377 208 187 276 153 195 194 339 231 335 326 183 251 249 188 212 230 232 183 148 156 296 248 251 316 251 236 202 198 191 183 307 293 263 205 211 244 233 302 229 190 285 201 218 216 196 331 288 317 221 229 183 304 239 241 299 226 203 261 204 246 354 248 235 201 291 193 141 231 293 201 245 252 270 250 254 244 274 179 159 326 245 198 259 310 218 222 271 258 282 182 231 232 302 243 279 250 244 199 292 243 216 252 284 168 321 315 308 219 190 168 186 164 169 192 277 214 309 305 381 306 188 228 307 176 206 296 179 204 297 309 217 159 299 252 224 269 200 224 259 206 227 320 205 165 187 192 331 237 239 239 213 222 189 219 310 338 224 253 248 227 233 194 295 242 171 353 192 296 109 287 227 287 241 239 178 273 243 261 226 259 156 332 166 323 180 177 253 198 253 251 296 256 211 207 262 110 264 231 225 240 187 181 156 244 250 227 221 184 197 315 362 221 319 287 273 174 219 147 288 318 170 229 263 221 198 295 243 283 240 178 272 135 198 334 272 323 212 303 162 161 125 260 165 270 282 225 266 212 170 276 183 176 322 219 189 203 213 240 257 201 254 247 92 241 171 215 287 316 215 257 251 376 233 156 200 208 249 231 176 190 310 309 275 207 260 290 272 234 253 218 147 229 282 195 234 248 166 196 204 173 205 170 215 257 266 211 257 193 253 232 229 212 154 307 231 281 175 261 219 156 231 325 208 243 135 246 290 260 270 181 220 290 243 247 216 194 262 286 184 169 199 251 344 246 220 217 292 253 163 223 161 274 134 262 264 237 255 208 404 267 293 284 205 155 163 256 148 291 202 146 207 274 197 192 150 226 304 224 283 201 224 143 251 254 164 183 136 288 137 144 169 363 247 269 242 134 282 257 264 229 163 244 245 223 205 244 217 252 170 254 260 232 284 245 182 173 250 229 282 273 297 179 211 134 298 205 262 258 179 354 262 164 238 220 288 311 179 312 325 187 151 357 203 180 227 233 245 220 279 284 225 178 236 257 227 238 304 237 204 253 303 138 255 233 260 273 209 215 177 247 249 281 306 192 250 298 216 222 269 212 197 149 250 261 232 218 288 219 223 273 186 268 257 160 180 254 150 269 255 230 274 210 207 208 303 281 278 96 261 192 294 250 246 188 195 252 341 173 184 161 266 155 280 256 305 283 310 292 159 218 258 180 180 245 327 367 165 221 281 222 308 319 177 353 150 231 296 246 301 215 294 228 233 226 210 190 303 280 249 281 268 330 163 247 200 222 219 220 200 276 372 190 249 151 245 298 201 322 276 233 187 182 336 256 231 326 273 195 202 140 194 278 142 305 285 272 272 245 280 312 263 367 187 132 232 213 266 262 290 292 201 189 188 250 212 222 306 273 152 265 187 292 225 245 272 228 239 205 271 237 200 205 222 200 211 184 280 258 180 318 232 334 193 169 343 242 177 222 232 368 208 150 147 159 294 210 367 230 236 256 261 305 327 283 179 327 219 143 227 247 217 155 157 219 299 200 240 192 289 227 267 185 230 255 187 202 181 249 204 206 214 247 217 192 147 173 216 211 252 185 283 199 280 290 284 339 242 219 209 138 198 235 200 165 213 276 265 176 230 305 222 180 289 210 226 147 276 340 228 251 332 199 214 263 329 156 204 243 213 190 219 241 228 206 339 210 223 214 242 201 301 276 315 184 175 244 207 275 250 221 218 179 224 251 95 216 136 278 284 261 271 293 274 115 165 249 271 248 196 339 304 233 213 162 252 219 234 253 293 169 304 241 149 230 307 285 215 148 226 258 289 226 169 285 261 196 232 251 170 226 324 306 278 194 214 225 373 169 105 177 221 184 319 251 173 232 231 208 220 200 236 209 269 220 257 217 302 290 271 160 221 203 183 204 295 193 159 274 261 194 198 268 290 354 300 194 197 217 150 275 227 237 227 241 208 252 104 185 264 264 239 286 230 177 260 251 166 188 189 237 267 183 229 268 241 283 220 217 327 215 161 245 234 226 215 290 347 276 233 333 180 288 244 210 297 176 332 282 338 212 169 276 270 140 272 268 293 87 266 272 212 356 223 274 233 158 231 202 172 148 292 259 233 212 389 182 215 273 231 250 300 196 252 200 294 302 222 258 144 298 279 253 237 199 229 266 192 188 249 179 179 111 189 322 339 192 272 274 180 242 270 125 316 303 330 282 267 138 175 254 168 179 389 234 283 127 249 228 335 266 239 253 189 199 202 160 275 213 277 230 326 233 291 243 248 381 216 246 233 288 184 374 180 247 290 259 229 281 229 235 212 279 233 269 240 274 122 230 162 215 236 262 257 248 198 305 237 231 231 190 197 242 225 270 192 284 286 138 282 184 271 229 235 243 255 289 143 194 222 287 159 199 310 248 232 170 276 264 145 167 196 230 268 244 180 222 234 263 271 244 295 248 156 164 205 245 321 290 236 228 220 228 268 204 216 134 336 234 225 278 257 220 284 174 270 153 268 285 331 314 280 130 295 225 243 207 257 256 212 116 299 294 263 164 292 162 275 195 216 170 215 247 272 343 224 320 269 220 148 159 296 250 166 204 225 302 222 298 247 247 195 223 265 170 284 239 324 192 217 271 366 296 245 211 243 228 240 231 248 290 234 119 195 196 199 211 237 314 167 212 170 205 248 229 238 296 194 261 266 178 304 205 210 243 220 216 179 318 232 195 235 198 308 238 228 269 311 274 218 200 340 202 250 246 289 187 204 251 340 203 251 205 240 372 246 304 265 276 219 198 304 303 199 245 260 265 169 313 188 256 316 208 194 273 229 246 230 276 301 232 231 245 238 222 222 219 226 236 160 139 249 281 149 235 252 239 329 233 247 223 210 137 296 163 190 251 234 244 209 163 197 176 268 183 273 187 258 162 178 123 221 210 159 240 268 346 255 168 172 223 269 200 277 232 279 190 202 253 236 301 253 214 307 249 202 218 150 188 149 440 224 206 248 251 287 186 223 318 239 246 167 153 212 276 228 257 277 214 242 229 266 208 248 276 237 259 292 223 207 324 237 317 186 269 313 233 213 215 184 152 172 203 234 243 258 180 206 423 254 244 152 276 239 218 190 282 212 208 172 269 217 149 307 177 206 153 292 207 221 229 203 170 297 226 203 282 214 252 211 171 195 253 126 209 206 200 200 150 165 212 266 212 219 220 247 170 135 213 227 176 212 206 179 296 234 250 274 270 233 278 192 199 282 197 210 202 298 238 235 269 190 197 226 171 279 289 304 232 290 260 357 123 285 278 243 243 278 242 137 244 258 198 248 221 244 222 293 278 280 162 292 145 250 250 302 237 266 274 255 208 257 314 179 151 272 215 305 259 200 201 204 192 287 213 212 238 131 182 235 258 212 233 245 116 278 296 220 246 246 242 279 282 179 219 296 269 274 323 287 191 254 260 165 188 279 319 247 177 183 328 230 271 262 94 344 211 170 265 260 233 249 256 270 229 296 274 182 212 231 191 250 274 283 242 249 262 211 216 314 212 275 182 197 211 372 271 254 215 187 356 260 211 265 200 257 298 270 289 173 197 209 140 216 226 147 273 120 296 223 215 236 302 228 222 170 233 161 254 217 318 256 365 165 335 297 348 230 207 189 208 232 173 295 225 244 200 180 234 203 249 288 230 225 345 205 207 244 147 217 218 303 194 240 348 240 220 201 227 245 252 274 233 314 206 193 240 218 194 163 263 270 259 178 229 192 232 174 226 184 278 194 245 185 179 274 208 224 299 196 386 214 240 326 276 313 159 297 143 189 227 225 314 283 263 217 267 190 200 195 262 250 168 231 284 149 121 183 249 353 245 222 229 371 196 223 241 225 226 240 256 258 228 216 123 278 181 219 303 126 365 198 275 293 283 222 203 279 248 267 272 165 230 201 229 255 272 279 186 337 112 187 238 247 204 170 214 215 283 252 356 141 208 156 240 311 273 169 219 273 180 245 234 208 227 312 243 233 273 245 233 252 215 306 289 214 211 282 174 173 257 290 194 301 167 285 284 278 294 289 324 222 287 141 264 269 191 222 222 268 202 236 260 397 184 295 239 207 214 258 215 199 127 256 204 269 234 263 303 283 199 225 327 178 205 203 309 226 246 286 183 247 110 181 255 193 364 194 184 319 291 289 224 258 253 219 193 145 331 214 278 235 260 177 215 284 205 196 164 193 153 199 338 252 280 329 205 194 291 144 193 228 175 174 149 165 260 200 260 227 228 167 193 202 211 277 190 313 125 162 236 212 263 289 216 265 234 181 203 157 230 209 333 375 180 236 232 255 213 320 235 270 178 335 199 175 151 229 307 210 252 230 257 249 169 191 217 207 394 214 107 276 201 240 259 274 220 199 229 220 182 136 271 233 169 242 198 192 291 326 189 251 236 177 214 229 283 220 170 326 193 198 245 190 229 233 232 282 262 318 203 341 356 267 247 295 243 295 287 304 260 333 300 191 239 242 219 221 261 266 231 200 154 259 319 227 276 289 199 227 191 215 189 271 217 205 185 289 308 190 220 234 205 161 177 218 260 256 221 284 224 275 186 300 294 315 286 288 246 288 209 213 260 210 182 216 319 233 329 252 199 360 225 268 242 197 300 327 207 251 296 293 231 271 198 214 342 220 196 299 110 211 211 210 267 268 215 258 318 203 237 177 206 169 234 246 226 306 258 231 289 239 284 332 212 194 164 248 287 218 265 201 252 293 267 204 204 221 296 276 278 222 313 306 230 292 270 244 233 207 161 280 197 237 251 297 219 191 224 243 257 254 237 230 263 329 342 296 293 231 227 256 186 177 195 245 214 196 210 225 265 294 171 253 190 301 181 274 225 205 219 147 203 188 286 271 240 210 198 239 273 157 227 226 228 174 184 232 214 207 198 289 232 188 247 283 156 198 256 247 213 255 208 209 164 294 278 239 225 272 199 229 269 365 310 219 282 227 179 269 192 251 213 236 217 203 261 188 218 207 215 166 265 226 163 225 226 156 182 165 154 269 134 205 310 262 270 215 181 157 296 201 271 189 212 233 203 237 208 195 176 317 242 250 315 340 191 281 283 286 230 189 273 227 238 266 187 235 197 320 226 242 324 215 188 301 352 262 171 252 425 197 212 277 260 297 288 278 200 207 241 197 236 218 362 193 216 257 223 262 221 238 159 157 338 220 271 184 194 309 196 171 293 150 174 250 332 226 192 127 217 201 199 248 186 310 204 214 195 252 172 282 256 209 292 282 315 207 240 339 249 232 298 193 280 272 227 270 198 174 268 226 143 151 252 230 279 146 168 234 231 297 247 259 296 208 231 228 216 276 284 194 284 247 244 276 215 189 230 177 165 239 219 208 130 203 316 163 216 250 210 209 265 202 225 316 213 313 283 180 206 264 191 256 188 212 153 338 318 177 174 290 149 254 294 255 317 272 211 151 239 269 184 195 248 209 166 218 258 303 211 225 223 168 239 208 290 255 258 296 219 297 211 233 265 198 265 227 240 261 347 261 160 349 228 255 198 130 179 259 292 211 297 260 209 259 229 291 194 295 220 225 200 264 241 174 206 225 114 199 209 209 123 201 182 225 255 242 230 213 211 185 291 227 232 237 226 200 192 226 278 179 179 251 240 271 253 264 207 213 187 212 156 252 182 256 237 224 190 241 221 335 229 268 142 288 264 290 233 262 217 258 212 217 260 170 250 226 249 227 215 160 183 229 239 327 231 362 336 181 292 216 297 214 158 229 209 250 178 147 290 231 245 205 207 195 194 113 259 231 175 251 268 221 134 291 239 203 260 212 210 240 301 280 257 250 233 215 158 247 193 238 230 260 239 232 289 153 252 302 267 279 246 222 297 204 278 332 228 266 187 250 293 272 214 200 275 189 347 271 236 289 196 205 270 279 236 381 251 174 339 131 230 297 341 235 127 159 161 220 283 241 155 261 221 309 220 268 264 167 207 207 192 253 192 225 238 163 258 185 252 251 233 325 200 228 314 154 233 205 279 260 194 264 236 198 264 328 204 237 254 199 287 192 200 186 240 177 178 265 201 306 239 179 247 307 214 236 160 254 205 286 207 258 222 201 211 303 184 303 256 244 229 276 211 169 193 243 149 124 286 227 228 212 226 200 289 159 285 120 228 205 224 252 227 299 222 174 267 213 186 226 190 276 191 142 189 275 186 249 191 265 189 240 172 188 233 393 254 345 251 253 267 158 251 258 194 175 318 163 255 260 301 270 209 340 271 242 224 228 228 236 210 314 221 262 218 268 295 253 204 258 214 181 216 330 162 173 193 160 217 211 248 264 216 292 231 240 313 219 289 213 208 198 343 240 239 149 220 351 212 146 246 238 280 221 179 286 215 307 283 244 243 227 304 297 191 290 140 209 172 214 244 200 257 270 238 241 319 298 169 225 238 188 179 235 337 176 182 267 210 206 195 373 177 174 224 206 231 205 231 283 189 332 224 313 210 298 304 178 221 293 214 172 176 247 278 273 181 221 277 161 322 180 250 209 326 235 205 116 233 201 255 262 320 257 158 259 225 257 274 335 195 214 206 251 167 277 268 186 248 275 204 252 242 226 151 291 341 212 215 178 254 174 266 213 317 216 213 229 263 163 253 256 248 170 277 241 208 317 245 222 351 247 197 279 246 271 293 233 265 195 184 269 278 250 215 197 201 270 250 217 224 175 208 315 230 232 316 221 186 184 155 356 216 270 259 220 192 272 206 161 321 297 290 247 176 282 329 215 183 244 285 233 247 234 247 220 297 237 232 184 238 226 162 166 180 176 204 213 233 250 309 205 270 181 201 140 339 234 271 327 301 396 180 164 249 246 287 169 341 242 245 269 268 229 223 265 160 233 177 186 179 230 291 153 134 207 310 233 241 131 171 268 254 187 148 194 217 261 234 146 139 259 283 203 263 176 217 220 332 305 204 273 174 131 197 143 200 123 241 227 301 199 293 158 285 191 235 255 249 212 158 192 217 185 307 253 219 176 219 213 350 268 254 210 210 232 252 228 168 257 254 241 167 259 216 256 154 198 223 226 210 186 130 281 219 256 352 166 270 225 188 210 209 246 307 242 244 244 290 241 261 253 148 187 215 253 237 335 271 230 289 226 202 334 223 204 278 205 240 285 173 263 260 344 267 134 227 240 192 194 190 268 239 171 234 269 182 215 248 161 255 355 245 209 195 192 261 236 267 252 236 223 190 329 146 236 186 222 171 207 212 196 301 184 230 343 208 288 250 258 266 261 228 288 143 233 282 271 223 292 183 238 237 189 283 248 270 232 206 280 353 311 156 196 324 241 368 225 204 237 241 240 164 213 275 281 156 217 279 204 133 264 236 183 357 252 250 271 187 210 271 173 161 211 295 208 140 222 250 153 218 208 261 328 206 302 185 262 200 161 195 232 225 198 303 209 185 169 227 208 190 293 258 251 230 270 252 369 226 167 295 254 286 202 217 188 279 195 268 249 180 348 187 295 233 302 252 266 256 211 263 238 225 238 258 236 245 267 227 185 250 200 279 257 168 236 285 275 269 167 185 212 254 220 264 149 145 213 201 332 250 190 226 275 191 245 211 315 158 192 258 310 213 207 192 225 278 284 138 252 242 206 250 286 268 270 250 193 235 232 283 241 227 343 236 252 304 213 316 182 256 228 249 227 195 154 298 267 194 266 238 237 330 321 233 288 270 254 200 264 199 220 210 213 227 279 270 172 274 246 159 320 180 198 254 187 185 215 195 254 233 259 186 299 286 250 247 249 275 265 220 252 234 181 290 196 322 245 266 249 284 228 221 265 318 224 196 176 186 140 307 258 199 326 234 309 225 231 274 188 251 257 203 214 197 159 177 160 239 249 153 175 258 302 267 143 211 208 209 197 222 264 344 242 261 172 267 241 313 161 290 198 253 224 206 329 263 220 267 215 177 208 298 288 336 153 200 284 222 230 183 278 271 281 229 248 164 239 274 204 209 203 271 222 153 232 222 270 260 351 224 200 205 185 225 251 236 372 274 212 190 178 229 266 316 335 218 334 218 223 267 236 189 245 209 187 253 256 242 358 273 262 272 240 165 289 291 176 302 214 276 243 221 268 293 238 274 308 172 228 307 256 202 206 216 204 254 219 186 285 194 192 244 333 227 183 227 188 230 302 292 299 334 178 294 250 237 226 217 312 214 210 161 307 117 216 247 242 218 289 162 184 343 157 191 280 152 284 242 284 256 320 214 231 241 235 254 169 274 324 331 254 225 289 289 171 196 287 273 291 142 257 170 282 254 280 263 240 244 305 307 218 305 245 290 297 135 231 303 227 290 273 251 255 252 202 265 144 306 199 263 253 221 198 255 146 242 313 313 266 249 318 188 320 164 252 214 251 239 255 341 314 214 197 223 266 330 176 268 268 280 319 273 303 247 199 363 235 134 288 188 174 218 178 221 166 243 216 210 239 314 302 225 192 265 263 234 211 228 250 313 293 273 228 324 218 217 168 274 264 239 254 155 177 244 205 190 210 172 188 300 254 254 195 178 253 275 136 277 194 235 207 178 177 255 218 243 232 315 234 271 200 226 258 214 204 267 292 188 222 188 285 174 213 174 244 177 277 300 207 227 170 249 209 269 274 275 261 141 271 248 299 283 140 131 158 280 245 187 201 219 271 233 228 261 294 223 257 230 230 168 155 149 285 173 407 190 210 279 150 328 295 216 159 272 229 124 262 224 224 120 175 249 234 295 247 282 235 223 265 167 261 257 248 292 283 182 240 287 329 247 244 163 279 231 208 274 271 261 251 243 249 340 225 253 213 229 246 288 249 312 153 305 187 195 293 146 192 207 220 250 288 262 276 207 297 205 246 235 218 309 208 170 187 247 208 302 222 206 236 239 189 226 206 251 200 253 226 271 247 182 319 202 261 294 269 189 325 216 231 205 345 252 260 311 216 162 151 316 226 250 215 240 242 197 265 239 264 147 238 244 219 155 291</t>
+  </si>
+  <si>
+    <t>GAM(0.28281726276253627, -3.057543693496803e-16, 1.2399499725418817)</t>
+  </si>
+  <si>
+    <t>2 2 1 2 1 2 3 2 0 1 1 3 0 2 1 1 1 3 1 2 1 1 1 2 1 2 1 1 0 1 3 2 1 1 3 0 2 1 0 0 0 1 4 0 0 2 4 1 3 1 2 2 2 0 1 0 1 0 2 1 2 0 0 2 1 0 2 1 2 3 1 1 0 1 2 1 1 0 2 2 0 2 3 0 1 0 2 3 0 0 1 3 1 0 0 1 2 2 0 1 0 2 2 2 2 3 2 2 3 2 0 1 2 1 1 2 1 0 1 0 1 1 1 1 1 0 1 0 2 1 1 2 1 2 1 1 2 2 1 3 2 1 1 1 2 2 2 1 1 1 2 1 1 1 3 3 2 0 0 1 2 1 1 1 1 1 0 0 2 2 2 3 3 3 1 0 2 1 2 1 1 0 1 1 1 2 1 0 0 0 2 0 2 0 3 0 3 1 0 1 0 2 1 1 3 0 0 1 3 1 2 1 0 1 1 1 0 1 0 2 1 1 1 0 1 2 1 2 0 0 1 0 2 2 0 1 0 1 2 1 1 1 1 1 2 0 3 0 2 2 2 3 0 1 1 1 0 4 0 2 1 2 2 2 1 2 0 2 0 3 2 0 3 3 0 1 2 1 1 2 2 1 0 0 1 2 1 0 1 1 2 3 4 0 2 1 1 2 3 2 2 1 0 1 1 2 0 0 0 0 2 1 2 1 1 2 1 0 2 2 1 3 1 1 0 1 0 1 1 1 0 3 1 1 3 0 1 1 1 1 1 1 1 1 0 0 2 3 1 1 4 2 0 1 1 0 3 1 0 1 2 0 1 0 2 2 1 1 1 1 2 1 1 0 3 2 1 1 2 1 2 2 3 2 2 1 0 2 1 2 2 3 0 4 0 0 2 1 0 0 1 0 2 0 2 3 2 1 0 2 3 1 2 3 2 1 2 3 1 2 1 1 0 2 1 2 1 0 3 2 1 3 4 3 2 0 1 1 0 1 0 1 1 1 1 1 2 0 2 1 3 1 1 2 2 2 0 1 1 2 1 0 2 0 2 0 0 1 1 1 1 1 2 3 0 1 3 2 2 1 0 3 0 1 3 0 1 2 2 1 1 1 1 1 1 1 1 0 3 1 1 0 0 1 2 0 1 0 0 1 2 1 0 0 1 1 0 1 0 2 0 2 2 2 0 2 3 1 0 1 2 2 3 1 0 2 2 5 3 1 1 2 0 2 2 0 2 0 2 2 2 0 1 1 2 1 1 0 2 0 1 1 1 1 1 2 1 2 1 1 1 1 1 0 2 0 3 1 2 3 0 3 1 1 0 1 0 1 2 1 1 1 1 1 0 1 1 1 0 1 2 2 2 1 2 1 1 1 2 1 0 1 1 1 0 1 3 0 0 1 1 0 2 1 1 2 3 2 0 3 1 1 2 0 1 0 0 0 3 3 0 1 2 2 1 2 2 3 1 0 0 2 0 2 1 2 0 0 0 1 1 3 1 2 1 1 1 2 1 1 1 0 0 1 3 1 3 2 3 3 1 1 1 1 1 0 0 2 1 1 3 2 2 2 0 2 2 1 2 1 1 2 1 1 0 2 1 0 1 1 2 0 1 0 1 2 1 1 1 1 1 2 2 2 1 2 2 2 0 1 1 1 1 3 1 0 3 1 0 0 1 3 1 1 3 2 1 0 2 2 1 0 1 4 1 1 0 1 1 0 2 1 0 2 1 1 1 1 1 3 1 1 0 0 2 0 0 1 3 2 2 1 1 2 1 1 1 2 0 3 1 2 1 2 2 2 2 2 2 0 0 0 1 2 3 2 1 0 2 3 2 0 3 0 0 1 1 1 0 0 1 1 1 1 2 0 1 0 1 0 1 0 1 2 0 1 2 1 0 2 1 2 0 1 1 1 2 2 0 1 2 1 0 2 1 4 1 3 3 0 1 1 0 2 2 2 0 3 1 3 2 2 1 1 3 1 3 1 0 2 0 2 1 1 0 1 3 2 2 1 1 0 1 1 0 2 1 0 2 1 2 1 2 0 2 0 1 3 2 0 1 3 1 0 2 2 2 1 4 1 3 1 0 0 2 3 0 0 0 1 1 2 1 1 1 1 0 2 2 2 1 1 2 0 2 2 1 1 0 3 2 2 1 4 3 1 0 1 2 1 2 1 2 1 2 1 0 0 1 3 0 1 1 2 1 1 1 1 0 0 2 2 2 0 1 0 2 2 2 1 3 3 1 2 1 1 0 1 1 1 2 1 2 1 1 2 1 0 2 2 2 0 3 0 2 2 2 1 1 2 1 2 2 0 1 2 2 1 4 1 1 1 1 1 2 2 1 1 0 1 2 1 1 1 2 1 2 1 2 0 1 1 1 2 3 0 1 1 1 2 2 0 1 3 1 2 0 1 2 0 2 1 1 1 0 1 0 1 0 2 2 2 0 0 0 1 3 1 3 3 2 2 0 1 1 1 0 0 0 0 1 0 3 1 2 1 2 0 1 1 2 3 2 3 2 3 1 1 2 0 2 4 1 2 2 2 2 1 2 1 2 2 2 2 4 1 2 2 1 0 1 2 3 0 1 2 1 0 1 1 0 3 3 2 0 1 0 2 1 1 0 0 1 4 1 1 1 2 2 3 1 0 0 2 0 1 0 1 0 0 3 2 1 3 2 1 0 0 2 1 0 2 2 0 0 1 2 1 3 1 2 1 0 2 3 0 1 2 1 0 1 0 0 2 0 2 1 3 0 3 2 1 3 0 1 0 1 1 2 1 0 0 2 1 0 0 1 0 1 3 1 2 0 3 2 0 1 1 0 2 3 1 2 1 0 2 1 1 4 3 1 1 1 1 0 2 1 1 0 2 1 3 3 3 2 2 2 0 1 1 1 0 2 1 0 1 2 1 2 1 2 2 1 1 3 1 0 1 1 0 0 0 3 3 0 4 1 0 2 1 2 1 3 3 1 1 2 2 0 4 2 1 1 1 1 0 1 1 1 1 2 1 2 1 2 2 2 2 3 1 2 0 1 2 2 0 1 2 1 2 2 2 3 0 1 3 1 1 1 4 2 2 1 1 1 1 2 0 2 0 3 2 2 2 2 0 3 3 2 1 1 1 1 1 2 1 0 1 1 1 1 3 1 0 3 2 1 1 3 3 1 1 1 0 2 1 0 3 0 3 2 1 0 1 3 0 2 1 2 2 2 3 2 1 1 0 0 2 1 1 1 1 1 2 2 1 1 1 0 2 0 0 1 3 0 1 1 2 2 0 2 0 1 2 2 1 1 1 2 3 1 2 1 1 1 0 3 2 1 0 1 2 2 2 2 3 0 0 0 2 0 3 2 2 3 2 3 3 2 1 2 1 1 1 0 1 0 1 1 2 2 1 2 0 1 1 0 1 3 2 1 3 2 1 2 1 1 2 3 4 0 1 1 2 1 0 3 2 0 0 2 1 3 1 1 0 2 1 1 1 1 2 1 0 2 2 1 2 1 2 1 1 2 0 1 1 1 0 2 2 0 1 2 2 2 1 1 2 0 0 1 1 3 0 1 0 0 2 2 1 1 2 1 2 1 1 1 1 2 2 2 2 1 3 1 1 2 2 1 0 0 1 0 1 3 1 3 1 2 0 0 1 1 0 1 1 3 1 1 1 1 2 2 1 0 2 0 2 2 2 2 1 2 0 1 1 0 0 3 1 1 0 0 2 2 3 1 0 1 2 2 0 0 0 0 2 1 0 3 2 0 2 0 1 2 0 2 2 2 2 1 2 2 1 1 2 3 1 1 2 2 1 3 2 1 1 0 4 1 0 2 3 3 2 2 0 2 1 0 0 2 1 1 3 2 2 0 1 1 1 1 1 1 1 2 1 1 2 1 1 1 2 3 1 0 0 0 1 2 1 0 1 0 4 2 3 1 4 3 1 2 0 0 1 2 1 0 3 1 0 2 2 3 0 0 0 2 1 2 2 2 1 0 1 1 2 2 2 0 3 1 1 1 2 0 1 1 0 2 0 0 2 1 0 1 1 3 2 2 1 1 1 3 1 1 0 2 2 2 4 0 3 0 3 2 0 1 0 1 2 1 2 3 2 3 1 0 1 1 3 1 1 1 3 1 0 0 2 3 1 0 1 0 2 2 0 2 2 1 1 1 1 1 3 2 0 0 1 0 2 3 1 1 2 0 0 1 1 1 2 2 1 2 1 2 0 1 4 2 0 0 2 2 2 2 2 1 2 1 0 1 2 3 1 1 2 1 1 2 2 3 5 0 1 2 0 3 2 1 0 2 1 2 2 1 1 1 2 1 2 2 1 2 1 1 1 3 1 2 2 2 2 1 1 1 1 2 2 2 0 1 1 1 0 2 2 2 1 3 0 2 2 1 0 2 1 5 1 1 2 2 0 1 0 0 1 1 0 0 0 4 0 2 0 2 2 5 0 0 2 1 2 4 0 1 1 1 1 2 3 3 4 1 0 0 2 1 0 0 3 2 1 1 0 1 1 1 1 1 1 2 0 0 2 1 2 2 1 1 1 2 3 1 2 3 0 2 1 3 1 3 3 1 1 2 0 1 2 4 1 0 2 2 1 0 1 1 0 4 2 1 2 2 2 0 2 3 1 2 0 1 1 0 2 0 1 1 1 2 2 1 1 1 2 3 0 1 2 1 3 3 1 0 2 2 1 2 3 1 1 1 0 1 0 1 0 0 1 0 1 0 0 1 1 2 1 2 1 1 2 1 1 1 1 0 1 4 1 2 0 1 2 0 2 2 2 1 1 0 3 2 2 1 2 2 0 0 2 1 3 2 1 2 0 1 2 2 1 2 1 1 0 1 2 2 1 0 1 2 1 0 2 3 3 1 2 2 1 1 0 1 0 2 2 0 2 1 3 2 1 2 1 2 1 2 0 1 1 1 1 1 4 1 0 2 1 2 1 1 1 1 3 1 1 1 2 4 2 2 2 1 0 1 1 0 2 0 1 2 1 0 0 3 1 2 1 2 2 1 2 2 2 2 1 0 1 2 0 1 2 2 0 1 3 0 1 1 2 1 0 0 1 0 3 2 1 1 1 0 1 1 1 2 1 2 0 1 3 2 2 0 0 2 1 2 2 0 1 1 0 2 1 0 3 0 1 1 2 2 3 0 1 4 1 1 2 2 0 1 1 0 1 0 0 0 0 3 2 0 1 1 1 0 4 4 2 1 1 1 0 0 0 2 2 0 0 1 1 2 2 1 1 1 2 2 0 0 1 2 1 1 2 1 1 2 2 1 1 1 3 0 2 1 1 1 0 1 1 2 3 1 1 2 1 1 1 4 0 0 0 4 0 1 2 0 3 2 0 2 1 2 0 3 2 2 0 0 1 1 1 2 2 1 0 4 2 2 3 2 2 1 1 2 1 1 3 1 1 2 1 2 3 1 2 1 1 1 2 1 1 0 2 1 2 1 1 2 2 3 2 1 1 1 1 2 0 2 1 0 1 0 2 0 2 0 1 0 1 1 0 2 0 1 2 2 2 1 2 1 1 0 2 0 0 2 1 1 0 4 2 0 0 1 1 1 2 4 0 0 1 1 3 0 1 2 1 2 0 1 1 3 1 2 1 1 1 0 3 2 0 1 2 1 0 3 2 0 2 2 1 1 1 1 1 2 0 4 2 2 4 1 1 2 1 1 1 2 0 1 2 0 2 1 1 1 0 0 2 0 2 2 3 2 1 2 1 1 0 0 2 1 0 1 1 1 4 1 2 0 1 1 0 1 2 2 1 1 2 2 3 1 3 0 2 2 3 2 4 2 3 2 0 1 1 2 1 4 1 1 2 1 0 0 2 1 0 2 1 0 2 2 1 0 0 1 0 2 1 1 1 2 2 1 3 2 1 0 1 2 0 1 1 2 1 2 1 1 0 3 0 0 1 1 3 2 2 1 3 0 1 3 2 3 0 1 3 2 1 1 1 2 1 0 3 1 0 3 3 0 3 1 0 2 2 2 2 1 2 2 1 3 2 0 3 1 0 2 1 4 2 1 2 0 1 0 2 0 1 3 2 2 3 1 1 2 2 2 0 2 0 1 0 1 1 1 1 1 0 1 1 3 4 0 1 2 1 0 3 0 2 2 1 4 1 3 0 1 2 3 2 1 2 2 1 2 1 1 2 1 2 1 1 3 2 0 1 1 1 0 1 1 0 0 0 1 1 1 2 1 1 2 1 1 3 2 3 1 0 0 3 3 1 0 1 2 3 0 1 1 2 2 1 2 0 0 1 1 2 3 0 0 2 1 1 2 2 2 2 3 1 0 1 2 2 0 1 0 2 1 1 3 2 2 1 1 1 1 0 1 1 2 1 2 1 0 2 2 0 1 0 3 0 0 2 2 4 1 0 0 4 2 1 0 1 2 5 2 0 1 3 2 2 1 0 2 1 2 1 0 2 2 1 0 1 1 1 2 0 4 3 1 1 1 1 1 0 1 3 1 1 0 2 2 1 1 1 2 1 2 2 1 1 1 1 0 1 3 0 1 1 0 2 1 0 2 1 1 2 0 2 1 0 1 2 2 2 0 1 0 1 0 4 1 2 0 2 4 2 0 1 0 1 1 1 1 3 2 1 2 2 3 1 1 1 1 1 2 2 1 2 1 1 4 2 3 1 2 1 0 1 1 2 1 2 1 1 0 2 1 1 2 2 2 3 0 1 0 1 1 1 4 1 1 2 0 2 2 2 0 0 2 3 0 2 1 4 1 0 2 1 0 2 2 1 2 2 2 2 1 2 1 2 2 2 3 1 1 2 4 1 0 1 2 0 0 1 3 1 2 1 2 1 2 0 2 0 0 1 1 2 3 1 3 1 2 2 3 2 1 1 2 3 3 1 3 1 0 3 1 0 3 3 1 2 0 0 2 0 1 1 0 1 2 2 1 2 2 3 1 1 1 2 1 1 1 0 1 3 1 2 1 1 2 0 0 1 2 1 2 0 4 3 1 1 1 1 0 1 1 3 3 1 1 2 1 1 0 1 2 0 0 1 1 2 1 2 1 1 2 1 1 0 2 1 3 1 2 2 1 1 1 3 1 0 1 3 2 1 1 2 2 1 2 0 2 1 1 1 1 1 2 0 2 0 1 2 3 2 2 1 3 2 0 0 1 1 0 2 0 0 3 0 4 5 1 0 1 1 2 0 1 1 1 2 1 3 1 2 1 1 2 1 1 4 3 3 2 1 1 2 2 2 1 1 2 2 0 2 2 2 2 1 3 0 1 1 1 1 1 2 0 1 0 1 3 2 4 1 1 0 4 0 2 1 1 1 1 0 0 1 3 2 1 3 1 2 1 0 3 1 2 0 1 2 0 0 2 0 1 1 1 0 2 0 2 1 1 1 0 3 1 0 0 0 0 3 1 1 1 1 1 1 0 1 1 2 3 2 0 2 1 1 0 1 0 1 1 2 3 2 1 1 2 0 1 2 0 2 1 2 1 0 1 1 2 1 2 0 1 1 1 1 0 2 5 1 2 2 1 1 2 2 1 1 1 0 1 2 0 1 2 1 3 3 4 1 1 0 2 2 3 1 2 2 2 2 1 1 0 0 0 1 1 1 1 1 0 1 1 2 1 1 0 1 0 1 1 2 1 0 2 3 1 3 0 1 2 0 1 1 0 2 0 1 0 0 1 2 1 1 0 0 1 2 0 0 0 2 2 3 2 1 2 1 2 1 2 2 1 1 3 2 1 1 2 1 2 0 1 1 1 1 2 1 1 1 1 1 1 1 1 0 3 3 2 0 1 1 1 3 1 1 4 2 1 1 2 1 2 1 1 2 0 0 4 1 3 1 2 0 2 2 0 1 2 4 2 0 3 0 1 0 3 1 0 3 4 0 0 0 2 1 2 1 1 1 3 2 0 0 1 3 1 3 3 0 2 3 2 0 0 1 0 0 1 2 2 2 1 2 2 0 1 3 1 1 2 4 1 1 2 1 1 1 3 4 3 2 1 1 2 2 1 0 3 2 0 1 0 1 2 1 1 1 1 1 0 1 1 3 0 2 3 2 1 3 1 1 2 2 1 1 1 0 0 1 2 0 1 0 2 1 1 2 0 1 1 3 3 1 0 1 3 1 2 0 1 2 1 1 2 2 3 1 1 1 0 1 1 2 3 2 2 4 2 2 0 0 1 1 1 2 1 1 1 1 1 1 2 2 2 1 0 1 2 3 1 1 1 1 1 0 2 2 1 2 2 1 2 2 3 3 1 0 0 0 2 1 1 0 0 1 0 1 0 2 1 0 1 2 2 2 1 1 1 5 1 0 2 0 4 2 1 3 3 2 2 1 1 2 0 2 3 0 1 1 2 0 1 2 0 0 2 3 2 2 0 1 0 2 2 2 1 0 1 2 0 2 3 1 2 1 0 2 1 2 3 2 0 2 2 3 1 1 2 0 2 1 1 1 3 0 1 2 1 3 2 0 0 1 3 2 1 2 2 2 1 1 1 0 0 1 0 1 0 1 1 0 0 1 2 0 1 0 1 0 0 1 3 1 1 0 1 3 2 1 3 0 0 1 1 2 1 1 1 1 1 2 2 1 1 0 3 2 1 2 1 0 1 1 3 1 2 0 1 2 2 2 2 2 1 2 0 2 1 1 2 0 1 4 1 1 3 0 2 2 3 0 3 0 1 3 3 1 0 2 2 2 0 0 1 1 0 1 2 2 1 1 1 1 2 1 1 1 1 3 0 2 1 2 2 1 3 1 0 0 2 1 1 2 1 0 1 0 1 2 2 0 1 2 2 1 2 2 1 1 1 2 3 1 1 1 1 1 0 1 1 1 1 2 1 2 2 1 1 1 0 2 3 1 3 0 0 3 2 1 2 1 0 0 0 2 2 2 3 1 1 0 1 1 1 1 0 2 2 0 2 2 1 0 1 1 1 1 1 2 0 2 2 1 1 0 2 1 2 0 3 1 2 1 1 2 1 1 1 1 0 1 1 3 1 1 1 0 2 2 2 0 1 1 0 2 1 3 0 2 2 1 5 1 2 1 1 2 1 3 0 0 1 3 0 1 1 3 0 1 1 4 1 1 1 2 2 1 4 2 3 2 0 4 0 2 1 1 1 1 1 2 0 1 0 2 0 1 3 1 0 1 0 1 2 2 2 1 0 3 2 1 4 2 1 1 1 0 1 1 1 2 1 3 2 0 1 2 1 0 2 1 3 1 2 1 2 3 0 3 0 2 1 0 2 1 1 1 1 0 1 0 1 0 1 1 1 0 2 1 0 1 0 1 0 1 2 0 1 1 1 1 1 1 2 2 1 2 0 1 1 0 1 0 1 0 0 3 2 1 1 1 2 0 0 2 3 0 0 3 2 2 0 0 0 2 1 1 3 1 2 1 3 1 1 1 1 2 1 1 2 2 1 2 2 1 2 1 1 1 1 1 0 3 2 1 1 2 0 1 1 2 0 2 1 1 1 1 0 2 2 1 0 2 1 2 1 1 1 1 1 2 2 1 2 0 0 1 1 1 1 2 1 1 3 0 1 1 0 1 0 4 1 0 1 1 3 1 1 1 1 3 0 0 1 1 0 2 3 2 2 0 1 1 1 4 1 1 0 0 2 1 2 0 0 2 3 1 1 1 1 1 0 1 2 2 0 4 1 2 1 1 1 2 2 3 3 2 2 1 0 0 1 4 0 2 2 2 0 1 0 1 1 0 2 0 1 1 2 1 1 2 4 2 2 1 2 0 3 4 1 0 1 1 2 2 1 2 1 3 2 1 2 1 0 2 0 2 2 1 0 1 2 2 1 1 1 0 1 2 2 0 1 3 2 0 0 1 3 1 1 2 1 2 0 0 0 0 1 1 1 1 0 2 2 1 2 1 1 1 1 1 2 1 0 1 1 2 4 2 1 2 2 0 1 2 1 2 2 2 2 2 2 1 1 2 3 0 1 1 3 0 2 1 1 0 1 2 3 1 0 1 1 2 2 1 2 1 2 2 0 1 2 2 3 2 1 2 2 0 1 2 2 1 3 0 1 3 0 1 2 1 1 1 0 1 0 0 1 2 3 1 4 1 0 0 1 1 2 1 1 3 3 1 0 1 2 2 2 1 3 0 2 1 2 0 0 0 1 0 1 2 3 0 2 2 2 2 1 2 1 3 1 3 1 2 1 2 1 1 3 3 4 1 0 0 1 3 1 2 0 0 2 1 1 0 0 0 2 2 2 0 1 2 1 0 0 0 1 3 1 2 1 0 2 2 2 0 2 0 4 2 4 1 1 1 2 2 2 1 2 2 2 2 0 2 2 2 2 1 1 2 3 2 0 0 2 0 1 4 2 3 1 4 2 2 2 1 1 0 2 1 2 2 0 0 2 1 1 0 1 2 2 0 1 0 1 0 1 1 2 1 1 1 1 1 1 2 1 1 0 2 2 0 2 0 1 0 3 0 2 1 1 1 2 1 2 2 2 2 2 1 2 3 1 3 1 1 1 3 0 2 2 0 1 2 1 0 1 2 2 1 2 2 0 1 4 1 2 1 1 0 2 2 1 1 2 0 0 0 1 1 0 3 1 2 1 2 2 2 2 1 2 1 2 1 2 2 1 2 0 3 1 2 0 0 0 1 1 1 1 2 1 1 1 1 1 1 1 0 1 0 2 0 0 1 2 0 1 1 0 1 0 1 2 2 1 2 0 2 0 1 1 1 1 2 0 1 2 2 3 3 2 2 2 1 1 1 2 1 1 1 0 1 0 3 2 0 2 0 0 1 0 0 2 3 2 1 0 1 1 1 1 2 2 1 0 0 1 0 1 1 2 1 2 3 1 1 0 1 4 1 3 0 1 1 2 2 2 0 3 3 1 1 1 2 2 1 2 2 1 1 2 3 4 1 2 1 1 0 1 2 3 1 3 0 1 0 1 1 1 2 3 1 0 0 3 0 3 1 2 2 0 2 1 1 1 1 0 1 2 0 2 1 4 2 2 0 2 1 2 1 1 0 2 0 0 2 2 0 0 2 3 3 2 3 1 2 1 1 4 1 1 1 1 0 0 1 2 1 1 0 1 1 2 3 0 1 1 0 0 1 0 1 0 1 1 4 1 1 1 0 0 2 1 2 3 4 2 4 2 1 1 2 1 1 2 0 1 1 2 4 0 2 1 2 0 2 2 2 0 0 1 2 3 3 1 2 2 3 1 0 1 0 2 2 2 0 2 1 0 1 0 1 3 0 1 2 3 0 1 2 3 1 1 1 1 3 1 0 2 1 1 0 0 0 4 3 1 2 0 2 1 1 3 0 1 0 0 2 1 1 0 1 0 1 0 1 2 3 2 1 1 1 1 2 1 2 2 3 1 3 1 1 0 3 1 1 2 1 2 2 1 0 1 1 0 2 2 0 1 2 1 2 1 1 0 2 0 1 0 3 0 1 1 1 1 1 1 1 2 1 2 2 1 2 2 3 4 5 1 0 0 2 3 2 2 1 2 1 3 0 0 1 0 1 2 0 0 1 2 1 1 0 2 0 0 2 3 3 1 2 1 1 2 0 3 2 1 0 1 2 2 0 2 3 1 1 0 3 1 1 4 0 2 2 1 0 2 0 0 1 0 1 1 2 2 1 2 2 0 3 1 1 0 0 1 1 1 1 0 1 2 2 2 2 0 1 2 3 2 2 4 1 1 1 1 2 1 0 2 0 1 2 3 0 0 0 3 2 0 0 2 1 1 0 1 1 4 3 3 1 3 2 2 0 0 3 1 2 0 2 0 2 2 1 0 2 1 1 1 2 1 3 1 4 0 2 1 0 2 0 2 1 2 2 4 3 2 1 1 1 1 2 1 1 2 1 1 2 2 1 4 1 0 3 1 2 3 0 3 1 2 0 2 1 0 2 1 0 1 2 0 2 1 2 1 1 1 3 2 1 0 1 2 0 2 0 1 0 0 3 2 0 0 2 2 1 3 2 1 1 0 2 3 1 1 2 1 0 3 4 3 1 1 0 2 3 0 0 1 0 2 0 2 2 0 2 2 1 0 2 0 2 1 4 0 0 2 0 1 2 2 0 1 2 2 4 2 0 3 2 0 3 0 1 3 0 4 1 2 1 2 0 1 2 1 1 1 1 0 0 1 1 3 3 2 2 2 1 2 3 1 0 2 4 3 1 1 3 1 2 3 2 2 1 1 2 1 1 2 1 1 1 1 1 0 2 2 0 1 1 1 2 0 2 1 2 1 2 2 2 0 1 2 1 1 2 1 1 1 3 0 0 2 3 2 1 0 2 1 0 1 3 1 1 2 0 3 0 0 1 3 2 1 2 1 1 1 1 2 2 0 1 1 2 0 0 2 2 2 1 0 4 0 0 3 2 0 2 2 2 2 1 0 3 2 1 0 0 3 0 3 2 0 1 0 3 1 1 3 2 1 0 1 1 1 1 0 2 3 0 0 3 1 3 0 1 2 4 2 1 0 0 1 0 5 1 0 5 1 1 0 1 2 1 1 2 2 0 2 1 0 1 2 1 1 1 2 3 2 1 3 1 1 0 1 1 1 0 0 2 1 1 0 1 0 2 2 0 1 3 2 2 3 2 2 0 3 2 1 1 2 2 1 0 0 1 1 0 1 1 3 1 2 0 2 1 1 1 2 1 1 1 1 1 1 1 1 3 1 0 2 0 2 1 2 1 2 0 1 1 2 0 3 0 0 0 2 2 2 1 1 3 1 3 0 1 2 1 2 0 1 2 2 1 2 2 1 1 2 1 2 3 2 1 2 1 2 2 2 2 0 0 2 2 2 3 0 2 1 3 0 2 1 3 1 3 3 1 2 1 2 2 2 1 1 2 1 1 3 2 2 2 0 3 0 3 0 1 2 2 0 0 0 4 4 1 1 3 0 3 0 0 2 1 0 2 1 2 2 0 1 2 0 1 1 2 0 1 2 1 1 1 0 2 1 1 2 2 2 2 1 1 1 2 1 1 0 3 1 1 1 1 2 1 2 2 0 2 2 2 2 1 1 1 1 2 2 3 0 1 3 0 0 3 1 0 1 1 1 1 1 2 0 5 1 0 0 3 1 0 1 0 3 1 2 2 1 1 2 1 1 1 0 0 0 1 1 1 2 0 3 2 2 1 0 1 2 2 1 1 0 1 0 1 2 1 2 2 1 3 0 2 1 0 2 2 2 1 0 0 2 1 2 4 2 2 4 1 1 3 0 1 2 3 0 2 1 3 3 0 2 1 3 3 3 2 1 1 0 2 0 1 3 1 2 0 1 2 2 0 1 1 2 0 3 3 1 1 0 1 1 1 5 1 3 3 1 2 0 2 0 1 0 1 3 2 1 1 2 1 2 1 2 2 0 1 3 0 2 1 1 2 2 1 1 3 1 1 0 1 2 0 2 2 1 0 0 1 1 1 2 1 2 1 3 0 3 1 2 4 4 1 0 1 1 1 1 3 1 1 2 1 1 2 1 3 2 1 0 1 1 0 2 2 2 1 0 2 2 2 1 1 0 0 2 1 1 3 3 1 1 0 1 1 1 3 2 1 1 1 1 3 1 2 1 2 1 1 2 0 1 0 2 0 1 1 3 2 0 1 2 2 0 2 2 3 1 1 1 2 1 0 1 0 0 2 1 2 3 4 2 0 2 1 3 3 1 2 3 0 2 0 0 1 1 1 3 1 1 1 2 2 0 2 0 2 0 2 2 0 4 0 2 1 3 0 1 5 1 1 1 3 1 2 3 1 1 1 0 1 1 0 1 0 1 0 0 1 3 1 1 1 2 0 0 1 1 2 1 2 0 2 1 0 3 2 0 1 2 1 2 1 0 1 2 3 3 1 0 1 1 1 1 1 0 3 1 1 2 1 3 2 1 2 0 2 1 1 2 1 2 2 0 0 2 0 1 2 3 0 1 1 0 0 2 1 1 1 0 1 2 2 1 3 1 1 0 3 0 1 0 0 1 1 0 3 1 2 1 3 2 1 1 2 3 4 0 2 1 4 1 3 1 1 2 1 2 0 1 1 2 1 1 0 2 1 2 2 1 2 1 2 1 2 2 2 0 1 1 2 1 1 1 0 1 1 1 1 0 2 1 1 2 5 2 2 1 4 2 3 1 2 1 0 3 0 1 1 1 0 3 3 1 3 0 2 2 0 2 3 0 1 2 0 2 1 1 1 2 1 1 2 0 1 1 1 2 3 2 1 2 2 2 0 2 0 1 2 1 2 2 1 4 1 2 2 1 2 0 0 2 1 1 1 2 2 1 1 1 1 2 3 1 0 1 0 1 3 2 2 0 0 1 2 3 1 0 4 1 2 2 1 1 0 1 1 2 2 2 1 1 3 3 0 2 2 2 2 2 2 2 3 2 3 3 2 1 2 1 3 2 1 1 0 2 1 3 1 2 1 0 1 2 1 1 1 1 1 0 2 0 1 1 2 1 2 1 0 0 1 1 1 1 1 0 1 1 2 5 2 1 0 1 2 2 2 1 4 1 1 1 1 0 1 0 0 2 1 1 1 1 1 2 1 2 2 0 1 3 0 1 1 0 1 0 2 0 0 0 0 1 0 1 1 2 1 0 0 1 1 0 1 1 2 0 0 1 1 1 2 0 1 1 0 0 2 1 0 0 1 1 5 2 1 4 2 0 3 1 2 1 0 3 1 1 2 2 2 1 3 2 1 2 0 0 1 2 1 1 0 1 1 1 2 0 0 4 3 0 0 1 1 3 2 2 0 0 1 2 1 2 0 1 1 1 1 1 1 1 2 2 1 2 2 0 3 2 2 1 1 2 3 0 0 1 0 2 3 1 1 0 0 1 1 1 0 3 1 2 0 1 0 1 1 2 1 4 1 2 1 1 3 2 1 2 1 3 1 2 1 2 0 2 1 0 1 0 1 3 1 2 1 0 1 2 0 0 0 0 2 2 1 0 1 1 2 0 1 1 2 2 1 2 1 1 0 2 3 2 2 1 0 1 1 1 0 0 0 0 0 2 3 2 2 0 1 0 0 3 0 2 0 1 1 1 0 3 1 3 1 2 2 3 0 2 2 2 4 1 1 1 0 2 2 2 2 1 1 0 1 1 1 1 0 1 1 2 0 3 1 0 2 1 0 1 2 1 2 2 2 3 2 1 1 1 1 1 0 0 0 1 1 1 1 0 1 1 0 2 2 1 1 0 1 1 1 1 3 1 2 1 5 2 2 2 4 1 3 2 2 1 2 1 0 2 4 2 0 1 0 2 1 3 1 3 4 3 2 2 4 4 1 0 0 1 1 2 1 1 2 1 2 2 0 0 2 1 2 2 1 2 3 0 2 4 1 2 2 4 1 2 1 1 2 0 3 0 1 1 1 0 1 0 1 2 1 0 0 2 1 2 1 3 2 1 2 3 0 3 1 3 1 1 1 2 3 0 1 3 2 1 2 1 0 0 0 1 1 3 2 1 0 0 0 2 1 3 2 0 0 0 2 3 3 0 0 1 2 1 1 1 1 2 2 1 2 1 0 2 1 2 0 1 1 3 1 0 1 4 0 3 1 1 1 0 2 1 4 2 2 1 2 2 1 0 0 1 2 1 1 1 2 0 0 1 2 1 1 0 1 1 1 0 2 2 3 1 3 1 3 1 2 0 1 1 1 1 1 1 0 1 0 3 3 0 1 1 2 2 0 1 1 0 2 1 1 2 2 0 1 3 1 1 2 1 2 0 0 1 2 1 0 1 1 2 0 0 1 2 3 1 2 1 2 2 2 0 2 1 1 2 1 2 2 0 1 1 3 3 1 2 2 0 1 2 1 1 1 1 1 1 1 2 2 2 1 2 3 1 0 1 0 0 2 0 1 1 5 1 2 2 0 1 2 2 1 2 2 2 0 0 1 2 1 1 3 0 2 1 1 4 1 2 1 1 2 3 0 2 1 0 0 1 2 2 0 1 1 1 1 3 2 1 2 2 0 0 1 3 0 1 2 1 1 0 4 0 0 0 0 2 2 2 0 2 4 0 3 1 3 3 0 0 1 0 0 0 1 1 0 1 0 1 2 2 1 1 2 0 1 2 0 2 2 3 3 1 1 1 3 0 1 2 1 0 1 1 0 1 2 2 1 1 1 2 1 1 1 2 4 3 1 0 1 2 2 0 1 1 2 0 1 2 0 2 1 1 1 2 1 1 1 1 1 2 0 2 0 3 2 3 2 1 2 1 3 4 1 2 1 1 3 1 2 3 1 0 2 3 3 3 1 0 0 1 2 2 1 2 0 1 3 2 3 2 1 2 0 1 0 0 2 1 1 0 1 3 1 1 0 2 1 3 1 1 2 0 1 3 3 1 0 0 0 1 0 1 1 1 2 3 3 2 2 1 3 2 1 0 2 1 1 5 2 2 1 4 1 1 2 2 0 1 4 2 0 2 0 0 1 1 1 0 1 0 2 0 1 0 1 1 0 1 1 0 1 1 1 3 1 1 1 1 1 1 3 1 0 0 1 0 0 0 3 3 0 1 0 2 2 1 1 2 0 1 0 1 2 1 3 2 1 1 1 2 1 2 0 2 1 1 2 0 3 1 1 0 3 1 0 1 1 2 1 1 0 1 1 1 2 2 1 1 0 0 1 1 3 4 0 2 2 3 3 2 2 2 1 0 2 0 2 1 2 2 2 3 3 3 1 2 1 0 3 1 3 0 1 0 1 1 0 2 0 2 3 0 1 0 1 1 1 2 2 2 1 1 0 0 2 3 0 2 2 1 1 2 2 2 2 1 3 2 2 0 0 2 1 1 1 1 2 1 2 2 1 0 2 0 2 2 2 1 1 0 0 2 0 2 1 1 0 1 2 1 3 1 1 4 3 2 3 2 1 1 1 1 1 2 2 0 2 2 1 0 0 2 0 0 2 0 1 3 0 1 3 2 0 3 1 0 1 0 2 2 1 2 2 0 2 2 1 1 2 1 1 0 2 1 0 1 1 0 2 2 2 1 2 1 2 1 2 4 1 3 1 3 1 1 0 0 1 1 0 3 2 0 3 1 2 1 0 0 2 3 3 1 1 1 2 2 2 1 0 1 1 0 2 0 2 2 1 0 0 2 0 2 4 0 0 1 0 2 3 2 2 1 2 1 0 0 0 0 1 1 2 1 1 3 2 2 2 2 2 0 2 1 2 1 2 1 3 1 1 2 1 1 1 2 2 1 2 2 0 0 1 2 0 0 0 3 0 1 1 0 1 2 2 1 1 1 2 2 3 2 1 1 0 2 2 2 0 4 3 1 2 0 0 1 2 4 2 0 1 0 2 3 2 2 2 4 0 1 0 2 1 1 2 0 1 2 2 1 1 1 0 2 1 3 1 1 0 2 2 4 3 2 2 1 1 2 1 3 1 2 3 2 1 1 0 2 0 1 0 1 1 1 3 1 1 2 0 2 1 1 3 1 2 1 0 2 0 1 1 2 0 1 1 1 2 4 0 2 2 2 0 3 2 3 1 1 1 1 2 2 0 3 2 2 1 0 0 2 1 1 2 0 1 0 0 2 1 2 2 1 2 3 0 0 2 0 1 1 1 0 2 1 0 3 2 1 0 3 2 1 1 1 1 2 1 2 1 0 5 1 1 3 0 1 1 3 1 4 0 2 1 2 0 2 1 4 0 0 1 2 1 2 2 1 0 1 3 0 2 0 1 3 0 1 0 0 0 1 2 3 2 3 0 3 2 4 2 3 3 1 0 2 2 0 1 2 2 4 1 2 1 2 1 2 3 2 1 0 2 0 3 2 3 2 2 3 1 1 3 4 3 1 2 1 0 3 3 1 2 0 1 0 1 0 2 1 2 2 0 2 1 1 1 1 1 1 1 1 1 2 0 0 1 0 3 0 0 1 2 1 1 1 1 1 0 1 1 1 1 1 2 2 0 0 3 0 3 2 0 2 1 1 1 0 2 2 0 2 0 1 1 2 2 0 0 3 0 1 2 2 0 1 1 0 1 1 2 2 1 1 2 1 1 3 4 2 1 2 1 1 1 2 2 2 2 1 2 2 2 0 1 2 0 1 1 2 2 1 1 1 1 3 2 2 2 3 0 1 0 1 2 2 2 0 0 2 2 2 2 1 1 2 0 2 2 3 3 1 1 0 1 2 2 1 0 2 1 2 1 2 1 1 1 3 2 1 0 0 0 1 0 3 0 1 2 2 3 2 2 1 2 0 2 2 2 1 2 2 1 0 1 1 3 0 2 1 1 3 1 3 1 1 0 2 1 0 2 1 2 0 1 3 1 2 2 2 2 1 4 2 1 1 1 1 0 2 0 0 2 1 2 0 0 4 1 1 1 1 1 1 0 1 3 2 1 1 2 1 3 2 1 4 2 0 1 1 1 1 2 2 2 0 2 1 3 1 0 1 1 1 0 1 1 1 1 2 0 2 2 2 1 0 1 3 1 0 2 1 2 1 2 0 2 1 0 1 2 1 0 1 3 2 0 3 2 1 0 2 1 1 0 0 0 3 3 1 3 2 1 1 3 2 2 2 0 1 1 4 1 1 3 1 1 2 2 2 4 0 1 1 3 2 2 2 2 1 1 1 1 1 0 1 0 2 2 1 1 1 0 2 3 2 1 0 3 3 2 1 0 0 2 1 2 4 2 3 1 0 3 2 0 2 1 2 2 1 0 2 2 0 1 1 1 2 2 1 2 0 0 2 2 2 0 0 1 2 2 1 1 1 3 3 0 0 3 2 1 1 2 2 3 1 1 0 1 2 2 1 2 0 5 1 2 1 1 2 0 2 0 3 2 1 2 2 3 2 1 1 1 2 4 0 0 0 1 2 2 2 2 0 3 1 1 3 1 2 1 1 0 1 0 4 1 2 1 3 2 0 1 1 1 0 0 2 0 3 1 1 1 1 3 0 1 1 0 2 1 2 2 1 1 1 1 1 0 1 1 2 1 1 2 3 0 3 2 2 2 2 1 2 2 1 1 4 0 0 0 1 1 1 2 1 1 3 0 1 3 2 0 3 1 1 0 0 1 1 1 1 1 1 2 1 1 1 2 2 0 0 1 1 4 1 1 0 0 1 1 2 0 2 2 1 2 4 0 1 1 1 1 1 1 0 1 2 1 1 2 1 0 0 1 3 0 1 2 2 1 3 0 2 1 1 0 2 0 1 2 0 2 3 0 1 2 1 3 1 0 2 1 2 0 2 2 2 0 1 3 2 1 0 1 1 3 1 1 2 1 1 0 0 1 0 1 1 3 3 2 3 2 2 1 1 1 0 1 1 1 0 1 1 3 1 2 3 1 2 3 2 1 0 2 3 1 2 0 1 1 0 1 3 1 2 1 1 2 1 1 0 1 0 2 2 1 2 1 2 1 1 2 2 1 2 2 0 1 2 2 1 2 1 3 1 3 1 2 1 1 0 1 0 1 2 0 1 2 1 1 1 3 1 1 1 2 1 2 0 3 3 1 1 0 0 0 0 2 1 3 2 0 1 0 2 1 1 0 1 2 1 1 1 0 3 2 1 1 0 1 3 1 1 1 2 0 0 0 0 0 1 1 2 3 0 2 1 2 1 2 2 1 2 3 2 2 0 1 0 1 4 1 1 1 1 2 0 2 1 3 2 2 0 1 1 3 1 2 1 2 1 2 1 2 4 2 4 1 2 3 1 1 3 0 2 1 2 1 1 1 1 2 0 2 3 3 1 0 2 1 2 3 2 0 0 2 0 1 0 2 1 0 1 3 3 2 3 0 0 0 1 2 2 1 1 2 1 2 4 1 3 1 2 2 2 1 0 2 3 0 2 1 2 1 3 2 3 2 0 2 2 2 2 2 1 2 1 2 0 3 1 2 2 2 1 3 1 0 3 1 2 2 0 3 0 1 2 0 3 3 1 0 1 1 1 1 1 0 4 2 0 1 1 2 1 2 1 1 1 2 2 2 3 1 1 2 1 2 2 1 0 1 2 2 1 0 3 0 3 4 1 1 0 2 2 0 2 2 0 1 2 0 2 1 4 1 0 2 2 0 1 1 2 1 0 3 0 0 2 0 1 2 1 1 1 0 2 0 1 2 1 1 3 1 2 3 1 1 2 1 2 0 3 3 2 3 1 1 1 0 1 2 2 1 2 0 3 2 1 1 1 1 1 2 1 2 2 1 3 3 0 0 3 2 1 1 4 0 1 0 1 3 1 0 2 3 1 1 2 1 2 0 0 3 2 0 0 2 2 1 2 1 2 0 0 2 1 0 0 2 0 1 1 1 2 2 2 0 2 2 1 0 2 1 0 1 1 1 1 1 1 1 1 1 0 1 0 2 4 0 1 2 1 1 2 0 4 2 0 1 1 3 2 1 1 4 1 1 4 0 3 2 0 1 1 0 2 0 0 0 0 3 2 0 2 2 5 1 2 0 1 3 1 1 0 0 1 3 1 0 1 1 0 1 1 3 3 0 0 1 3 1 2 3 1 2 1 1 1 0 0 0 1 3 0 1 0 2 1 2 0 2 2 0 1 2 2 2 1 3 2 0 3 2 0 2 2 1 0 2 0 3 1 3 3 1 1 0 2 0 3 1 3 2 1 4 3 0 1 1 0 0 1 0 0 0 0 2 1 0 2 1 2 1 2 2 4 1 4 2 2 1 1 1 2 1 1 1 2 3 2 1 2 0 2 3 1 1 1 1 1 1 2 2 1 1 1 3 3 0 3 1 1 2 3 1 1 2 0 2 3 2 2 1 3 1 1 0 1 2 0 3 2 2 0 2 0 1 0 1 1 3 3 0 3 1 0 2 0 2 0 1 2 1 0 0 1 0 1 1 0 0 1 2 3 3 0 2 1 3 2 1 1 2 1 1 1 2 1 2 0 2 1 0 1 3 1 0 1 0 3 0 1 0 1 1 3 2 1 1 2 1 2 2 2 1 3 1 0 1 2 1 1 0 2 1 2 2 2 3 1 0 2 2 2 0 1 4 0 1 1 1 1 1 4 3 2 0 2 2 4 2 3 1 1 0 0 1 2 2 2 1 1 4 1 3 2 0 1 1 1 1 0 4 2 0 1 2 1 0 1 0 1 2 2 2 1 1 3 3 0 1 2 0 2 1 0 0 1 2 2 3 2 2 2 0 2 2 2 3 2 1 0 2 0 1 2 1 1 2 1 2 0 0 3 3 2 1 4 1 3 1 3 1 1 0 0 0 2 3 0 1 1 2 0 2 2 1 1 1 0 0 1 1 1 3 2 1 1 1 0 2 0 2 1 2 0 1 0 3 1 0 0 0 0 2 2 1 0 1 0 3 1 2 1 1 2 1 3 2 0 0 1 1 2 0 2 3 2 3 2 2 1 1 3 3 2 1 1 1 2 0 2 2 1 1 1 2 2 1 0 1 1 2 1 0 0 0 1 1 1 1 1 1 1 0 0 2 0 2 2 4 1 1 2 3 2 1 1 0 3 2 3 1 2 2 2 1 0 0 1 2 0 2 1 1 4 1 1 3 0 1 2 1 1 1 1 2 1 1 1 1 2 1 1 0 0 1 1 0 3 2 1 1 1 0 2 2 3 1 1 2 1 2 1 1 2 2 0 2 4 1 1 2 1 0 2 0 1 1 0 1 1 0 0 2 2 2 1 1 1 1 0 1 1 0 3 2 2 1 3 2 1 1 1 1 1 3 2 0 1 1 1 1 1 0 2 1 1 1 2 2 1 1 3 0 1 1 0 1 2 1 1 2 2 0 0 2 2 0 0 1 2 2 0 2 2 0 0 1 2 1 0 1 2 3 3 3 2 3 0 0 1 2 1 2 0 1 3 0 1 0 1 0 2 0 1 1 2 1 2 2 1 3 0 3 2 0 1 2 0 0 0 0 2 1 1 1 1 1 2 3 2 1 0 2 4 1 1 2 1 0 2 1 1 1 1 2 0 3 1 1 0 1 2 1 0 4 1 1 2 2 1 1 1 2 1 2 0 0 3 1 2 2 1 1 0 1 0 2 2 2 2 1 0 2 2 1 1 4 1 1 0 4 1 2 0 1 2 0 0 1 1 2 1 1 1 2 3 1 2 1 0 1 1 1 1 0 1 2 1 1 0 2 0 1 2 1 1 0 0 2 2 2 1 3 1 2 1 0 2 1 1 2 1 1 1 1 2 4 2 1 1 2 2 1 1 1 1 1 2 0 1 2 1 2 0 0 2 2 2 0 0 1 1 1 3 0 1 3 2 2 1 1 2 1 2 1 3 0 0 1 0 0 0 1 0 1 0 0 2 2 0 4 1 1 0 2 0 0 1 1 0 2 2 2 1 0 3 2 2 0 0 0 0 3 0 1 2 2 3 2 0 1 0 0 1 1 1 3 0 1 1 1 0 1 1 2 2 2 1 2 0 2 2 0 1 2 5 2 1 1 2 0 1 2 1 0 2 0 2 2 1 0 0 2 1 2 2 1 1 1 3 2 1 0 0 1 1 3 1 1 4 1 1 2 2 1 1 2 2 1 1 0 1 0 3 2 3 2 0 2 1 1 3 1 2 1 1 0 1 2 1 4 2 0 2 1 2 3 2 0 3 2 2 1 1 1 1 2 1 1 1 3 1 1 2 1 1 1</t>
+  </si>
+  <si>
+    <t>GAM(0.25416387608365576, -1.595654143724258e-28, 0.5904057285869517)</t>
+  </si>
+  <si>
+    <t>1 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 2 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 2 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 2 2 1 0 1 0 0 0 0 0 0 0 0 2 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 1 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 1 2 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 2 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 2 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 2 0 1 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 2 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 3 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 2 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 2 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 4 1 1 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 0 0 1 0 0 0 0 0 2 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 3 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 2 2 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 2 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 2 1 1 0 2 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 1 0 0 1 0 0 2 2 1 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 1 0 3 1 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 2 1 0 2 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 2 0 0 0 2 0 1 1 2 0 0 1 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 1 2 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 1 0 0 1 2 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 1 2 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 0 3 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 2 1 0 1 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 2 1 0 0 0 0 3 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 2 0 1 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 2 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 1 3 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 2 1 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 1 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 2 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 1 3 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 0 1 0 1 1 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 2 0 0 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 2 1 0 0 0 1 0 1 0 1 0 0 2 1 0 2 0 0 1 1 1 0 0 0 1 1 0 0 1 1 0 1 0 0 0 1 0 2 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 1 1 0 1 0 1 1 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 3 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 1 1 3 0 0 1 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 3 0 1 1 0 0 0 1 1 0 0 0 1 0 3 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 2 1 1 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 1 0 0 0 1 0 1 0 1 0 0 1 0 1 1 1 0 1 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 1 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 1 1 0 1 1 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 0 0 1 3 0 0 0 1 2 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 3 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 1 0 1 3 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 2 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 2 0 0 4 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 1 1 1 0 1 1 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 2 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 2 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 2 1 2 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 1 1 0 1 0 0 1 1 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 2 0 1 0 0 1 1 2 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 1 1 1 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 0 1 0 1 1 1 1 0 0 2 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 1 0 2 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 1 1 0 0 0 1 0 3 0 1 0 0 0 1 0 0 1 0 0 0 2 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 2 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 2 0 0</t>
+  </si>
+  <si>
+    <t>JSB(2.9242382637765627, 3.35799303882444, -81.88940339730594, 630.0593286577798)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118 75 195 146 120 122 119 147 100 75 134 101 72 71 120 113 117 90 97 117 79 92 202 71 124 88 185 115 145 116 107 146 85 -3 131 126 131 76 77 90 92 126 108 197 209 102 122 100 172 113 142 125 87 120 123 122 77 63 107 49 113 106 53 127 79 145 95 86 145 36 121 112 135 126 69 67 34 92 106 93 129 208 27 68 93 72 50 180 126 64 110 139 164 132 105 148 101 96 38 83 116 157 116 93 78 91 89 163 142 153 130 117 153 7 60 191 106 84 130 115 75 116 40 66 48 198 99 79 104 145 106 81 93 101 58 110 131 119 131 68 34 89 97 43 76 57 143 59 84 44 68 64 43 80 101 105 129 121 65 57 68 80 97 132 135 133 128 163 67 61 67 66 55 123 62 42 94 74 68 127 39 105 171 75 79 92 54 33 116 79 74 84 77 129 90 101 113 104 81 68 91 135 108 87 67 70 51 127 125 118 64 90 99 148 99 85 53 84 119 135 119 134 173 105 89 109 72 103 127 127 143 112 105 97 48 65 96 48 135 114 100 175 111 90 155 169 102 119 98 147 30 161 107 125 95 120 73 128 96 112 109 106 134 73 45 123 161 65 84 134 89 111 49 57 56 64 172 192 107 107 116 86 148 137 81 129 162 58 122 112 96 173 125 144 67 85 89 62 169 70 84 67 64 95 138 93 90 64 125 63 228 106 102 135 162 83 113 58 113 66 125 137 125 50 41 84 48 128 75 151 164 103 115 77 87 96 66 115 171 64 91 144 88 89 107 134 94 96 74 91 105 68 94 90 115 178 156 155 43 33 47 93 165 70 106 152 105 46 129 170 149 100 96 78 109 89 71 78 107 33 71 164 115 59 174 113 68 132 60 112 73 75 76 75 151 82 116 87 97 69 79 81 149 67 180 88 113 131 117 142 136 115 162 88 115 196 65 135 87 151 113 110 156 159 73 98 53 20 84 158 27 105 102 165 101 155 114 88 129 69 157 111 87 149 88 216 122 75 55 70 182 62 114 188 83 65 130 112 57 98 136 143 125 119 109 85 122 135 34 63 96 166 79 132 82 48 116 126 93 95 64 92 63 107 129 93 49 124 140 148 146 57 157 91 -1 107 139 160 38 114 157 173 120 55 118 47 132 113 158 103 32 45 137 72 71 66 114 52 143 197 26 81 67 84 145 133 108 135 116 93 99 105 150 81 144 127 154 174 97 88 69 136 99 108 156 142 128 84 140 99 168 30 133 77 75 146 93 157 114 85 113 86 103 49 88 154 95 91 121 172 133 83 118 129 129 135 129 89 96 40 128 52 69 88 91 120 112 146 198 113 177 88 108 87 117 159 110 134 52 114 140 84 156 105 159 129 81 53 88 98 132 73 115 123 97 57 141 169 94 80 84 86 155 33 114 151 94 72 94 122 69 43 93 78 103 140 108 40 114 213 164 149 99 77 99 108 75 153 136 134 116 73 81 89 114 105 105 69 96 84 97 137 168 9 101 191 96 79 79 88 86 42 148 131 128 67 89 194 113 144 50 127 135 60 135 131 102 108 66 182 71 123 67 113 198 160 190 106 142 118 98 183 151 109 94 82 78 98 63 56 170 51 52 82 187 81 135 110 134 52 99 52 183 92 180 214 47 79 35 65 27 129 168 164 137 59 89 130 178 101 138 148 78 141 107 106 90 57 113 101 78 84 110 97 161 36 102 58 112 60 56 68 96 83 101 77 101 62 68 124 147 94 135 66 26 93 143 56 80 126 95 197 128 144 122 60 106 112 72 155 117 77 182 114 146 176 71 110 167 124 149 123 67 91 154 82 91 111 154 240 75 128 84 154 87 144 91 104 94 119 67 82 112 166 33 78 129 75 81 57 173 109 123 166 71 186 60 143 105 98 85 168 122 36 80 73 111 86 30 77 133 85 154 138 133 104 155 95 106 58 136 173 67 109 97 227 96 154 148 195 77 63 84 131 132 164 63 137 91 132 76 127 147 97 87 83 99 91 80 60 115 94 133 57 174 123 26 119 97 67 119 115 72 121 115 106 139 139 149 38 86 154 88 103 164 115 98 84 130 91 86 103 69 88 120 76 178 140 72 185 62 113 84 78 166 119 152 104 106 143 105 107 130 63 139 160 96 108 92 161 156 126 123 147 132 87 106 207 79 109 71 107 95 87 161 92 58 116 87 124 82 89 68 178 112 43 118 78 64 69 197 108 62 160 29 113 159 91 108 199 150 76 129 89 84 137 142 118 75 57 146 34 69 73 67 132 106 74 108 52 109 97 96 93 142 188 48 32 80 158 123 144 229 147 63 132 134 59 139 116 57 86 104 86 68 85 169 85 130 90 104 56 89 109 122 75 103 119 115 139 182 158 65 103 107 90 106 120 147 149 139 165 89 99 129 174 157 76 137 78 129 128 109 91 171 157 101 58 150 142 88 143 125 85 106 72 120 88 71 135 49 95 64 116 86 48 137 78 101 101 116 83 105 146 119 84 68 142 48 173 60 138 192 101 116 175 230 174 95 105 147 76 43 132 156 86 80 182 121 62 48 114 163 119 104 103 114 101 22 146 163 89 63 26 79 82 147 98 96 48 68 91 48 120 209 88 70 93 80 166 71 125 66 94 187 116 83 119 180 53 114 126 113 141 113 102 108 138 130 86 126 162 168 121 80 92 69 160 130 163 78 103 59 108 100 110 125 102 114 135 77 49 32 90 92 99 148 125 92 62 179 51 75 100 136 134 231 126 119 40 44 76 119 63 48 72 77 108 108 128 148 119 103 102 98 79 43 120 94 83 126 84 88 79 46 101 162 100 64 53 115 59 119 123 163 111 157 130 62 89 74 71 54 81 114 87 120 87 95 66 101 103 110 106 71 84 73 142 167 143 83 82 108 73 70 47 159 107 145 105 102 135 77 172 152 153 170 76 80 118 42 123 93 142 110 126 107 80 100 139 55 125 124 56 112 125 72 98 55 124 125 105 51 101 78 111 69 42 60 144 110 93 43 109 90 130 92 137 66 54 61 93 86 41 116 54 61 173 39 149 136 140 106 128 52 137 75 100 74 121 117 119 215 140 101 129 150 208 149 62 54 162 36 128 124 19 121 86 132 86 81 108 127 47 125 145 90 107 102 55 102 118 138 86 142 73 116 7 100 93 86 104 147 42 124 106 34 139 126 208 178 113 100 141 179 36 112 94 129 87 127 101 144 66 112 78 100 72 60 167 97 20 60 71 140 71 112 121 73 70 122 95 78 114 48 99 96 79 131 75 33 70 146 160 42 171 72 78 133 143 38 100 78 132 92 110 59 134 129 88 81 81 64 52 77 63 74 89 94 132 79 99 145 83 139 98 101 141 87 89 65 87 69 121 123 143 149 104 110 82 191 72 96 150 81 154 57 118 132 118 105 126 64 160 61 174 90 103 79 97 118 89 92 93 116 102 76 85 37 142 132 31 132 71 61 65 76 144 112 75 92 149 81 110 96 137 110 164 132 58 184 101 119 48 140 147 250 111 113 67 90 79 128 127 199 79 148 47 97 95 45 66 114 177 129 95 117 118 72 77 99 126 107 114 150 92 99 142 146 96 114 90 48 102 89 161 134 96 74 110 193 118 90 57 142 87 111 107 115 124 156 202 90 92 52 83 101 136 81 73 87 94 104 88 59 99 71 59 65 92 144 50 63 70 143 48 98 90 102 72 123 108 113 175 121 96 75 153 88 117 214 80 57 143 130 153 154 28 58 92 50 53 131 51 236 100 57 87 78 130 132 182 69 93 140 128 112 60 167 79 89 151 134 46 127 113 44 57 87 99 103 87 147 124 75 62 120 95 75 106 108 79 171 105 55 109 137 159 109 118 166 82 169 48 72 120 114 93 120 103 92 123 197 126 163 100 171 124 80 85 142 99 92 72 97 115 80 130 96 132 64 57 162 128 135 76 140 78 100 65 127 99 94 98 127 108 84 114 133 42 109 98 62 207 168 151 118 92 123 162 126 119 111 102 106 90 155 145 78 132 27 98 39 94 60 105 135 157 71 186 123 146 177 95 48 142 151 64 120 85 153 94 112 158 147 59 123 143 59 74 48 141 120 119 88 132 79 64 150 153 73 106 133 90 121 82 128 147 177 74 38 95 40 90 139 62 132 91 140 152 93 55 83 134 160 78 44 93 154 96 103 75 194 47 63 43 130 81 133 148 70 50 102 115 91 83 107 106 154 96 87 159 174 89 95 110 107 125 91 125 91 161 120 48 102 120 118 78 68 204 100 93 114 82 123 146 86 93 132 87 142 166 56 105 98 46 161 85 62 75 147 138 215 77 89 87 64 38 75 108 101 121 77 85 120 177 139 104 142 176 127 134 83 42 85 187 118 160 132 73 154 58 110 78 119 151 83 89 88 47 121 72 113 98 159 117 104 81 79 99 127 42 130 92 90 126 108 76 94 164 106 96 72 32 131 100 75 103 228 158 117 44 80 114 131 85 81 63 216 96 92 108 58 50 144 143 20 58 55 56 105 137 67 178 64 109 51 97 129 155 194 190 103 74 78 181 66 134 92 74 105 218 129 129 93 84 117 144 149 48 58 146 155 143 98 115 60 92 85 136 68 111 55 120 98 113 71 92 67 153 164 91 119 123 76 128 152 146 101 77 104 73 79 160 171 126 80 85 88 77 108 61 136 131 183 92 130 91 36 34 89 63 94 130 91 151 124 147 76 169 44 156 152 49 99 123 64 22 68 96 136 139 74 50 155 73 111 55 121 50 134 74 62 201 47 87 78 125 81 91 144 144 69 121 142 159 82 12 117 135 91 63 160 92 121 90 104 198 23 166 93 51 137 74 173 103 131 83 88 96 50 80 63 64 53 103 64 90 79 98 40 56 40 164 59 66 136 115 143 179 135 121 69 111 98 23 89 134 23 48 182 132 151 122 162 50 140 51 140 100 46 196 81 105 83 99 141 60 43 119 137 150 125 80 116 101 50 117 74 157 136 55 202 99 168 88 35 100 148 90 150 55 178 76 116 105 85 66 81 123 153 111 89 134 162 103 148 144 82 97 35 70 150 191 146 140 150 58 87 133 106 81 165 96 82 135 126 129 232 93 138 115 182 77 85 50 98 112 111 71 180 74 146 118 54 188 150 170 88 162 128 183 77 77 122 104 52 122 159 58 78 52 111 36 76 74 46 212 55 124 117 87 50 99 142 162 149 82 108 159 70 98 79 141 152 136 87 65 70 50 97 127 102 132 124 126 120 123 122 94 150 120 83 60 126 88 96 142 106 67 189 138 126 77 74 68 147 139 121 142 121 136 180 155 88 111 123 127 86 148 250 125 66 74 52 109 154 119 103 68 66 66 119 49 51 94 82 87 80 114 196 106 40 145 69 74 165 168 163 103 143 96 76 17 171 76 103 54 61 53 166 211 173 156 96 156 89 77 111 114 107 133 71 63 106 88 127 96 134 99 128 92 116 32 102 81 113 159 109 78 120 130 58 136 69 91 135 151 101 135 96 119 86 109 116 107 107 150 125 61 105 137 61 70 49 98 98 124 79 127 71 92 91 97 103 119 113 123 62 72 114 222 68 62 63 144 162 51 45 73 132 22 141 222 202 80 132 148 48 70 68 47 40 94 106 180 124 91 33 32 173 133 22 85 95 91 103 143 149 147 21 112 134 57 84 112 25 112 113 113 107 115 89 102 153 86 46 103 91 157 181 119 125 113 92 129 150 93 31 64 126 75 81 32 22 86 148 98 157 119 92 89 98 144 73 129 125 79 116 118 74 129 56 114 62 117 130 97 103 83 47 136 78 69 126 97 138 137 110 140 183 79 128 185 53 113 140 147 145 79 214 105 73 138 159 169 48 97 101 15 167 43 138 80 20 123 49 131 93 111 125 113 155 130 121 81 50 99 108 85 39 125 86 89 116 65 135 57 27 95 104 94 208 110 89 74 143 135 117 103 89 138 48 116 40 70 70 148 188 202 87 110 122 124 102 26 97 87 84 44 170 165 199 108 105 118 123 116 176 78 56 113 97 148 91 111 131 71 118 54 116 106 139 58 115 167 76 107 68 63 112 149 103 57 94 52 87 66 89 124 137 121 135 178 70 127 92 144 74 186 122 121 128 58 118 46 90 134 186 84 122 90 45 132 98 119 74 168 165 76 11 67 80 65 123 80 120 110 36 94 154 104 126 88 82 124 47 87 60 113 64 54 146 157 88 142 219 107 84 152 56 122 133 109 95 92 115 99 81 95 17 75 115 97 150 123 90 88 104 142 85 218 99 138 108 137 81 148 74 122 44 67 106 94 70 33 87 26 86 82 150 120 72 120 89 123 100 111 215 114 30 81 117 111 85 138 143 162 93 88 86 87 76 69 93 117 113 92 78 100 97 72 84 130 60 171 162 61 109 147 152 121 111 78 58 153 114 115 33 118 189 98 113 107 144 167 162 151 109 64 119 53 113 130 129 53 90 142 144 131 70 174 31 88 103 49 64 146 93 59 93 104 96 139 92 177 118 115 92 129 123 133 124 66 90 93 97 79 140 65 135 116 61 103 95 34 147 98 49 68 51 68 105 175 50 96 100 108 164 105 97 83 121 8 110 183 139 156 110 139 144 94 100 98 114 76 157 103 122 135 123 117 145 112 78 95 90 115 172 133 107 66 38 166 116 115 74 84 175 95 80 81 46 101 50 98 123 63 94 126 155 46 30 153 128 59 91 168 93 170 135 99 64 116 52 111 63 90 101 163 123 164 175 108 155 79 188 92 147 84 100 121 60 214 131 122 58 139 100 107 167 58 47 162 118 99 130 120 127 138 188 169 98 51 55 51 36 166 105 98 170 132 65 42 23 83 128 80 111 117 98 110 138 90 80 157 99 133 51 75 118 157 68 91 102 109 104 98 77 89 112 108 160 57 63 149 100 144 112 45 100 96 157 96 133 160 112 117 20 141 133 40 131 81 129 54 198 152 70 96 149 83 143 113 96 30 67 50 113 101 183 94 121 60 42 54 99 113 90 131 114 106 73 176 132 106 60 92 124 64 69 80 152 77 19 47 62 122 32 72 86 36 101 154 120 166 133 117 192 214 82 47 166 71 109 124 200 131 101 120 93 84 190 38 106 84 154 128 81 34 108 62 77 107 110 110 71 41 120 102 118 91 146 194 152 141 157 66 147 78 103 74 121 114 24 128 63 170 87 188 81 138 78 110 171 182 65 112 174 117 124 110 46 53 107 78 58 98 85 175 190 123 78 189 77 111 77 49 132 96 79 141 32 131 154 131 136 58 89 101 117 119 131 133 66 159 127 101 117 77 118 173 65 70 83 195 54 106 167 111 203 78 76 88 101 127 114 62 154 142 83 181 115 64 86 73 84 67 131 86 105 100 103 104 87 227 183 115 103 39 91 94 66 59 151 60 131 105 63 113 81 162 169 146 121 162 68 59 153 156 108 70 36 174 154 123 126 143 113 132 105 66 64 106 130 79 302 153 157 108 116 124 140 127 141 125 122 179 128 88 163 161 55 147 120 64 128 84 88 75 33 163 108 135 180 57 212 81 139 44 132 126 90 29 72 169 127 76 79 114 141 114 133 118 72 135 68 75 103 109 76 115 127 75 114 137 167 72 93 52 85 208 140 114 129 94 97 96 84 62 72 128 53 124 83 99 35 121 131 82 58 129 158 33 135 73 78 140 129 120 119 85 144 83 83 90 133 104 78 70 127 171 141 70 106 55 107 78 101 141 75 146 144 66 67 79 38 137 129 51 70 107 203 109 70 149 71 129 162 111 110 145 51 167 57 65 121 69 85 117 81 164 97 77 132 163 75 108 109 113 167 180 67 47 217 166 107 129 82 34 64 68 90 49 119 86 96 150 98 109 99 151 171 89 147 86 193 113 84 133 135 136 102 145 120 113 91 73 72 122 116 57 108 114 115 92 131 118 40 113 72 76 144 136 110 110 118 164 104 100 113 89 114 128 171 143 126 58 68 70 85 152 113 48 91 135 111 113 144 177 95 112 110 98 49 55 105 104 108 103 45 149 116 138 131 111 91 165 162 51 103 171 119 117 85 124 118 73 36 157 111 91 97 76 142 150 36 67 120 47 91 139 231 88 127 113 138 105 96 40 54 119 147 70 221 161 129 73 140 215 124 149 80 124 186 108 112 134 89 119 124 118 77 120 61 91 40 89 93 89 106 81 192 104 100 153 132 67 80 114 113 169 106 225 100 195 152 110 115 163 116 126 127 132 97 70 104 173 113 154 136 169 150 91 109 144 47 84 92 98 105 134 93 107 80 142 93 116 88 127 169 122 101 202 166 98 59 79 71 52 145 78 102 55 134 68 109 60 92 122 81 134 139 119 179 150 102 70 120 118 114 147 142 70 78 149 69 153 96 137 78 171 113 85 135 120 167 94 126 87 42 108 90 70 101 158 116 128 43 124 108 53 114 80 127 132 77 161 86 108 134 137 58 129 122 192 67 71 58 66 56 114 102 111 47 91 153 156 68 111 159 44 131 130 92 147 154 77 123 60 58 80 125 168 100 27 79 123 154 132 106 101 81 87 112 116 76 182 126 118 137 120 112 118 98 71 70 61 91 113 98 94 133 193 109 90 101 109 140 132 170 85 68 95 48 86 107 77 93 105 90 82 155 102 102 201 117 139 46 94 107 133 126 103 76 91 123 158 90 73 80 126 100 154 97 72 23 80 132 117 162 77 99 112 99 126 65 81 163 153 102 120 139 85 90 148 98 104 68 52 142 66 128 145 64 61 151 117 63 104 112 112 115 174 99 125 69 148 159 76 36 184 67 70 30 100 76 101 71 91 94 82 74 111 84 74 76 130 89 95 166 77 107 98 76 116 136 120 44 110 65 88 146 138 144 77 145 95 67 78 94 103 91 22 55 44 62 126 106 121 179 44 112 112 46 134 86 114 177 158 130 74 68 131 151 123 133 70 85 109 116 111 137 158 44 62 70 10 113 132 77 129 106 173 160 89 153 37 140 60 82 117 130 90 36 124 53 79 210 92 109 100 175 117 112 68 108 72 95 138 51 52 72 120 72 88 49 74 133 81 69 54 102 4 112 78 88 164 156 141 140 90 137 95 106 139 93 136 164 95 144 95 28 78 149 58 130 165 78 141 128 96 98 181 79 145 144 39 159 120 67 58 101 139 89 144 48 106 121 117 46 129 54 137 80 87 145 21 93 158 85 87 135 138 58 152 124 146 72 128 135 61 59 78 86 96 82 147 132 218 62 55 107 174 114 159 154 97 100 93 94 197 104 100 71 163 109 108 117 86 109 155 57 176 68 179 90 88 145 94 88 91 166 115 131 237 94 107 85 117 123 88 122 62 128 117 62 146 136 77 118 153 132 85 62 75 101 139 61 103 75 36 66 93 159 136 124 88 83 89 98 146 127 119 208 132 36 114 111 72 98 147 10 76 84 94 119 72 76 126 90 69 140 190 84 79 145 92 60 65 97 52 101 146 72 123 126 87 111 144 132 44 150 120 73 140 130 127 66 88 131 132 117 166 147 156 82 108 125 67 118 89 108 50 100 143 85 148 57 190 177 91 55 135 74 162 100 65 28 166 92 101 55 136 72 109 57 45 80 110 44 35 129 137 109 74 95 77 47 50 85 121 68 136 166 119 113 161 110 158 81 102 102 152 78 118 96 84 98 81 90 115 108 55 118 179 94 72 156 150 100 133 89 53 134 85 40 156 85 159 179 220 107 65 122 152 33 151 121 137 109 74 110 90 61 69 74 115 156 198 192 137 64 109 148 115 54 74 90 87 147 142 115 81 112 134 127 171 84 102 78 94 161 57 137 78 24 94 164 102 113 46 148 147 119 112 65 69 143 158 141 173 60 67 143 63 150 90 123 181 108 56 139 90 54 206 65 53 137 106 114 141 118 121 112 142 109 106 193 116 85 65 100 113 128 129 150 52 157 95 49 88 152 73 206 47 91 111 95 95 58 54 108 125 120 143 137 157 120 165 111 61 209 146 131 49 118 98 123 127 132 58 74 78 70 92 39 34 107 51 138 80 130 184 111 77 96 50 76 197 150 72 139 57 129 123 107 162 200 77 34 142 180 36 136 148 114 90 185 60 149 111 61 45 12 101 100 110 91 116 74 126 54 135 107 128 75 131 92 140 72 109 79 44 108 76 77 142 178 184 160 90 105 70 76 107 79 156 115 44 68 92 45 61 186 72 97 142 78 93 123 75 28 164 79 39 179 84 72 97 147 85 30 106 17 64 151 28 210 35 54 111 18 124 137 153 147 142 158 68 113 133 59 112 146 87 151 87 109 135 42 128 86 210 130 151 64 120 126 153 113 109 84 107 186 79 91 159 98 133 111 163 127 85 147 87 164 104 73 120 97 154 123 71 109 162 114 114 70 86 60 81 96 112 114 109 85 75 126 105 111 25 114 58 100 88 57 129 41 95 133 102 154 48 49 115 78 35 88 147 86 118 89 127 130 118 73 119 102 70 88 162 115 78 121 158 75 76 64 103 97 47 59 127 108 65 143 67 113 127 76 136 158 76 86 95 125 68 72 121 121 114 72 80 111 68 110 147 246 77 94 146 121 139 114 123 102 91 77 138 130 113 104 128 144 76 114 149 116 79 131 188 113 98 95 110 112 107 141 155 91 87 128 91 100 43 109 63 22 131 69 101 127 150 103 200 94 79 102 122 104 142 73 103 98 99 68 34 69 145 63 72 51 131 114 100 78 111 187 134 116 68 140 121 114 94 195 50 34 134 161 170 74 89 52 176 35 55 64 135 81 163 98 59 117 40 120 88 150 111 81 125 94 121 74 156 161 120 112 105 160 78 143 56 117 67 131 107 126 112 158 166 154 111 64 85 85 67 100 135 139 63 47 132 58 154 48 73 115 22 138 59 184 71 114 106 124 39 106 93 51 106 181 41 87 97 68 133 120 164 102 123 155 76 58 157 107 67 140 111 71 145 45 136 142 80 151 83 129 22 95 84 65 112 132 84 90 65 177 97 50 111 138 97 82 96 154 123 155 110 83 66 119 81 93 102 162 138 70 51 141 157 74 49 170 118 114 97 82 167 137 95 58 135 67 132 99 127 89 85 127 148 131 78 162 77 137 85 136 105 123 134 96 56 52 93 98 169 80 97 91 144 169 104 132 117 152 62 116 61 86 99 97 93 90 101 131 70 101 54 106 57 163 58 95 25 83 110 117 57 104 95 66 139 167 67 46 262 126 133 194 116 101 138 102 120 177 202 51 66 121 57 173 112 136 78 122 100 54 120 81 58 119 81 143 108 106 16 127 127 86 68 37 111 162 192 111 21 79 147 163 109 90 128 152 81 119 150 62 63 107 144 94 182 86 170 91 44 127 118 150 107 120 103 16 71 151 162 114 126 70 157 47 107 106 81 146 66 138 62 83 142 106 53 136 86 117 132 88 67 133 142 135 127 116 107 178 83 92 174 173 88 120 72 82 118 69 182 125 136 133 55 52 58 109 82 85 102 159 115 133 82 142 76 45 107 57 116 94 45 121 183 46 87 89 109 73 92 172 32 93 202 67 129 116 111 67 138 85 77 72 142 61 37 105 88 93 30 163 87 138 45 85 127 121 107 141 128 127 52 51 54 139 114 146 82 104 110 106 137 51 103 207 109 192 152 117 179 119 99 51 77 67 119 88 75 30 143 176 94 105 76 70 124 105 105 85 71 90 144 163 237 113 137 122 117 139 118 79 77 68 95 196 104 114 78 64 120 76 95 61 69 116 67 77 64 186 148 171 119 80 81 170 72 81 46 71 71 141 94 111 79 137 200 111 83 124 56 34 131 88 179 101 150 43 69 50 150 87 102 124 76 91 142 66 138 166 60 81 102 125 108 58 138 108 92 58 146 92 71 109 143 65 56 99 66 56 152 93 157 149 96 156 71 73 51 79 103 32 56 99 167 119 64 118 166 83 62 132 97 145 35 137 141 81 117 101 97 110 79 68 117 120 42 75 91 83 93 143 97 113 97 63 53 127 112 73 137 158 170 118 114 154 68 143 122 224 162 70 51 202 163 35 140 145 139 217 58 100 51 85 147 138 108 201 101 64 92 162 39 78 181 98 84 122 57 83 113 72 53 106 89 94 82 103 57 119 98 71 101 113 155 119 63 104 90 125 87 69 101 135 133 114 198 130 31 98 143 78 113 161 150 101 197 106 178 155 98 151 110 111 44 137 49 98 41 115 110 74 79 112 103 147 123 90 83 110 56 74 83 158 122 54 112 126 75 120 35 97 41 169 141 92 89 125 123 106 132 175 102 61 73 65 164 70 97 88 132 11 126 98 78 99 116 110 101 129 73 144 71 194 87 145 122 50 96 100 90 49 129 61 148 61 131 129 49 115 67 189 102 127 50 139 156 124 91 124 136 101 73 51 90 69 101 130 71 160 74 146 126 119 144 115 123 60 123 122 74 47 121 63 108 153 95 96 151 101 86 129 26 81 154 137 125 117 87 89 104 141 93 66 56 177 140 201 92 147 85 85 105 66 93 123 133 118 152 80 93 138 191 57 108 138 55 90 117 115 121 79 182 85 116 108 78 171 82 167 85 202 117 114 24 107 182 146 86 87 105 54 95 114 101 104 128 90 72 118 125 214 110 118 117 38 73 128 125 167 118 109 74 132 124 107 136 64 110 113 68 91 102 94 82 167 51 112 115 121 104 86 171 71 69 122 97 78 60 191 117 99 80 103 94 193 141 77 107 62 90 122 98 93 98 161 147 48 85 105 147 114 87 126 109 146 105 99 126 131 74 134 102 100 143 100 134 120 99 66 77 84 160 118 89 73 66 22 58 126 110 95 43 141 104 44 99 147 74 152 52 75 64 75 131 209 68 132 126 131 88 70 77 161 163 97 203 187 51 70 117 88 117 111 165 79 96 51 99 116 141 97 98 119 99 135 135 102 37 52 88 126 168 157 96 115 146 134 83 107 221 89 55 165 104 60 169 81 81 122 244 144 115 63 88 95 145 141 74 81 129 178 166 150 96 112 89 135 107 84 98 90 47 91 108 93 136 159 34 76 69 113 149 103 118 59 202 25 167 114 103 5 111 81 121 84 100 157 117 166 134 117 113 182 59 74 60 71 105 83 73 27 88 56 143 96 176 157 89 41 161 74 119 139 85 134 75 135 153 95 146 159 114 147 129 135 95 107 121 81 97 107 123 80 85 105 69 88 94 123 90 94 97 110 91 194 142 90 139 80 118 110 74 157 124 60 104 80 144 129 105 77 27 152 79 82 199 46 174 149 103 60 83 106 78 100 126 104 107 75 134 99 93 119 83 66 112 100 126 44 101 152 104 61 162 118 61 147 118 167 115 84 113 152 88 64 91 86 99 151 69 115 166 89 74 41 57 113 115 44 60 168 97 49 93 121 129 80 130 74 130 148 111 36 136 153 115 85 191 54 63 129 100 95 115 164 131 95 109 103 137 129 71 56 121 138 182 114 111 113 71 94 103 123 61 140 99 63 115 97 90 131 101 152 96 58 61 92 80 129 80 146 148 78 104 115 131 155 94 106 87 115 89 126 69 91 138 62 87 108 67 78 95 75 53 113 51 64 34 80 100 100 68 76 100 62 68 94 83 128 150 119 84 124 69 71 134 60 101 82 123 76 104 115 146 131 159 92 69 98 98 144 87 110 91 118 109 96 152 84 221 168 163 143 137 110 106 110 174 171 115 97 90 150 180 111 41 57 107 85 41 173 103 65 145 72 66 88 112 152 108 136 105 197 66 91 65 109 85 135 50 141 148 85 138 135 106 96 57 139 166 107 103 47 78 112 113 157 134 55 98 142 117 62 20 220 72 49 100 111 89 50 95 55 116 77 103 94 35 162 80 162 143 121 124 96 100 131 89 152 71 19 98 82 104 140 66 79 123 119 66 86 38 52 124 164 213 77 153 149 92 98 142 112 155 84 137 163 158 118 65 119 100 156 66 58 116 47 55 15 59 154 56 70 114 61 103 190 89 89 52 159 72 179 92 94 85 52 89 55 103 120 116 121 162 100 167 152 140 91 98 24 114 87 163 114 225 123 175 165 87 112 167 146 122 113 125 91 152 109 72 115 104 46 113 110 195 94 173 75 132 90 82 79 24 95 197 115 152 83 67 115 97 58 110 119 139 173 108 156 124 65 78 114 92 115 125 111 69 171 60 123 171 71 74 127 60 121 29 95 143 66 102 217 73 124 87 101 185 81 92 90 126 139 72 73 127 106 119 148 78 202 115 168 103 66 58 125 138 180 107 57 151 86 71 107 140 105 116 82 104 177 119 139 62 152 15 102 61 111 119 138 164 45 110 107 134 139 64 94 119 101 107 177 123 197 87 92 84 118 118 155 47 120 60 86 114 109 70 111 152 73 60 103 103 68 76 87 116 152 118 82 73 81 48 145 106 48 91 118 71 161 58 143 96 136 81 151 160 124 101 123 118 180 72 62 89 110 154 63 111 59 88 82 139 125 34 152 65 111 113 88 37 154 172 152 162 177 134 66 144 74 75 123 68 116 186 72 137 91 100 104 185 118 106 149 61 123 89 84 31 113 117 99 104 142 73 81 56 158 146 92 147 109 31 66 89 120 156 137 51 134 78 116 93 62 108 112 114 86 56 43 84 65 128 86 77 49 76 41 105 211 181 146 75 104 78 31 54 68 117 178 31 74 126 149 70 93 114 74 43 110 82 128 138 137 77 84 92 78 94 138 172 89 121 84 109 76 136 133 20 147 60 164 106 113 165 79 185 24 42 105 86 65 55 99 84 75 108 225 134 125 117 14 89 71 132 110 151 119 125 88 123 115 53 191 68 115 138 76 151 183 108 139 150 97 109 88 125 128 118 102 159 137 108 46 61 98 74 145 170 135 107 59 130 119 41 102 44 45 121 87 117 154 75 37 127 70 131 129 67 140 88 121 86 79 122 86 116 150 145 123 110 137 186 102 131 107 153 185 79 86 86 118 148 85 166 83 86 97 42 154 44 96 137 121 95 130 87 87 100 58 149 147 28 165 85 58 80 129 93 86 110 142 54 69 143 59 137 64 128 67 107 75 86 116 123 136 88 127 132 126 133 120 71 59 157 131 94 103 92 137 92 124 156 97 107 93 67 89 167 100 80 165 62 95 104 82 14 94 114 127 62 118 169 172 95 73 153 45 99 89 136 83 67 70 129 104 129 129 55 79 89 148 94 135 155 98 171 38 120 106 167 123 91 162 111 114 107 106 188 139 173 48 60 60 150 155 47 31 68 101 127 109 115 149 158 100 95 117 137 157 135 115 128 227 138 88 85 175 44 95 74 159 86 69 92 135 84 82 103 117 121 162 111 99 128 111 92 120 124 98 56 92 115 206 85 118 65 88 113 135 157 121 55 65 69 134 122 121 188 38 148 172 76 70 145 119 33 86 90 92 142 71 109 126 89 114 115 192 87 33 93 105 160 129 67 91 95 157 69 90 97 147 126 125 56 209 107 154 34 129 116 175 145 144 132 98 88 74 101 114 137 83 114 70 144 156 158 58 120 75 123 149 93 44 91 66 140 117 49 86 62 81 108 56 112 78 122 65 129 113 111 105 126 100 151 133 108 85 49 182 38 88 148 58 76 134 155 141 58 43 102 83 122 99 184 148 124 81 89 94 178 129 108 89 35 129 58 89 139 123 138 128 115 61 154 102 152 120 85 175 93 147 112 75 95 111 97 107 105 107 48 92 85 86 102 100 165 71 154 102 59 80 55 128 115 116 138 67 174 78 138 49 126 99 97 76 146 85 121 83 97 139 97 81 132 76 84 138 70 63 120 70 115 127 59 90 126 138 134 47 85 150 142 81 66 143 103 151 93 96 58 85 108 45 140 115 94 157 96 132 26 74 68 87 173 131 149 93 174 118 78 81 183 51 56 96 84 97 108 93 84 130 177 127 119 84 186 116 142 93 91 93 154 48 119 48 111 152 72 121 97 67 84 116 103 172 90 116 136 80 121 71 100 64 62 162 149 133 55 125 116 177 204 58 100 30 117 65 125 67 133 197 70 138 116 50 20 80 162 118 110 78 56 46 139 101 141 187 86 160 132 95 110 90 145 106 165 60 73 123 145 93 144 171 185 80 194 35 153 142 59 179 80 148 104 108 73 94 111 114 76 60 94 85 116 110 87 91 129 204 81 123 112 146 176 148 127 38 55 76 101 144 185 185 64 184 121 191 147 132 165 88 113 109 102 131 61 135 57 67 131 103 118 80 187 108 142 100 82 137 126 136 59 95 112 225 131 145 143 84 120 102 145 130 1 145 141 119 135 137 108 94 95 70 130 178 116 76 129 127 90 108 141 174 84 88 57 43 54 117 73 152 102 142 31 141 89 148 91 158 76 140 162 92 149 64 142 53 37 117 106 86 132 58 121 79 152 104 79 108 47 109 101 39 75 116 85 106 89 84 138 85 54 185 103 121 139 64 134 103 119 91 65 115 153 75 101 143 116 75 28 131 78 161 80 97 152 67 48 135 99 139 70 106 99 86 112 182 134 34 120 73 144 93 109 140 119 109 127 116 16 121 160 75 47 173 34 122 146 130 145 245 59 104 102 52 101 77 72 96 77 38 81 165 134 131 51 121 62 150 100 148 98 80 140 158 140 116 152 26 118 106 95 200 142 133 131 21 171 109 126 97 94 191 146 61 89 50 54 53 48 145 120 74 44 73 112 73 203 80 96 104 98 44 55 77 63 111 154 203 157 122 171 158 71 100 70 47 95 119 138 92 47 143 114 76 143 133 167 120 111 65 127 54 109 104 46 65 45 114 124 102 141 65 81 88 48 163 162 47 251 152 129 170 51 100 63 62 123 113 93 113 154 65 161 182 53 92 56 83 79 116 114 90 96 134 110 82 142 85 73 68 113 104 146 104 102 114 99 150 120 133 92 51 121 112 73 59 65 92 103 178 74 110 94 51 132 104 149 49 170 130 33 59 96 111 119 85 160 90 181 87 115 99 50 178 102 145 88 48 59 84 154 63 152 57 99 105 86 116 81 52 131 59 115 39 93 180 159 97 157 52 105 166 127 84 200 112 115 97 116 218 134 160 131 95 73 59 207 151 84 123 123 80 125 102 106 107 80 100 60 103 108 96 109 86 47 99 72 84 111 56 54 121 104 111 41 121 85 61 57 173 218 28 113 126 108 77 106 177 112 95 47 54 69 126 115 67 51 91 45 118 103 72 70 65 94 81 57 208 151 182 69 96 94 76 81 77 121 199 84 104 122 117 143 145 106 113 131 134 142 217 26 72 100 56 77 154 30 127 57 62 75 45 98 150 111 67 124 122 66 118 134 62 157 102 51 150 93 142 109 155 96 69 76 141 104 134 48 84 42 75 98 52 90 103 141 165 130 151 42 84 84 108 153 73 142 100 79 76 101 37 126 101 69 108 76 91 139 63 106 132 100 96 62 125 156 109 153 113 104 76 111 157 189 96 70 160 99 138 106 116 142 178 150 101 122 137 136 91 77 89 114 138 165 93 95 106 66 98 107 86 125 147 159 150 126 78 91 129 70 102 124 112 141 121 95 102 111 118 117 146 172 117 53 133 98 116 119 122 49 94 112 187 131 154 116 94 95 153 107 95 101 128 50 135 83 129 137 48 115 35 154 124 108 164 90 158 95 33 70 65 123 135 83 89 117 116 26 179 78 128 164 55 42 154 118 101 157 112 140 91 79 111 96 91 164 141 81 184 140 141 68 139 120 108 173 124 117 124 95 85 136 101 99 81 63 94 212 152 175 95 68 31 100 74 108 193 56 125 188 153 52 102 83 115 113 103 131 111 125 50 137 149 117 164 57 106 187 65 106 114 116 158 105 24 133 67 26 77 206 86 41 110 83 60 54 75 143 118 98 178 57 101 81 48 59 82 70 94 50 133 82 122 87 109 73 83 84 66 98 86 19 91 85 162 64 80 80 54 124 88 49 51 47 89 97 154 103 106 92 69 121 60 69 135 113 104 211 78 108 208 93 134 109 166 67 94 95 110 161 117 131 51 72 114 103 118 84 101 79 107 66 62 97 62 132 124 142 56 176 113 125 89 41 100 96 124 127 177 106 120 56 44 28 86 133 106 104 160 55 72 69 135 111 61 109 153 145 189 124 97 73 149 25 120 101 59 100 89 116 117 80 123 125 81 108 91 51 72 95 148 106 67 86 134 171 125 95 121 166 66 103 78 75 82 51 63 45 107 127 105 101 75 90 144 170 53 87 35 86 150 84 123 100 85 89 101 27 107 65 118 116 46 33 91 66 187 97 112 184 131 103 154 44 104 101 105 116 158 105 98 75 141 136 181 112 108 164 140 92 164 108 97 92 85 111 152 84 68 89 147 53 103 152 86 161 134 98 141 57 147 122 90 117 88 135 129 82 144 128 47 44 91 64 96 88 93 99 69 77 57 120 136 91 101 143 118 87 63 143 68 103 117 68 79 120 97 80 64 99 175 60 93 143 96 31 95 29 43 98 170 133 90 187 101 174 104 108 116 82 78 108 128 113 142 143 88 126 132 58 41 87 126 98 95 70 128 80 221 74 109 107 86 109 156 118 107 107 137 176 106 65 74 145 123 96 152 125 112 108 66 148 131 71 199 128 110 130 138 107 110 164 65 171 181 83 141 100 31 130 142 130 56 133 110 121 178 61 170 133 122 155 14 28 104 118 143 64 146 181 83 165 120 136 117 58 138 111 115 105 90 82 124 167 115 118 102 92 82 81 125 88 84 129 120 148 120 61 122 106 99 39 80 87 55 58 65 70 108 67 161 99 79 92 190 65 70 135 48 173 131 72 148 117 140 122 93 56 135 94 87 149 115 173 91 116 148 88 106 76 167 112 116 169 124 163 119 81 95 88 106 72 110 113 67 178 122 79 152 135 102 138 199 138 54 98 67 105 153 94 55 59 51 130 96 128 132 98 155 134 152 142 95 140 104 228 95 147 122 121 256 77 112 90 115 128 44 124 43 105 72 75 105 111 79 94 86 73 108 83 67 63 51 110 43 116 182 97 125 81 99 84 164 102 81 71 114 127 96 81 164 125 114 48 153 101 96 88 77 116 113 126 128 95 163 146 128 89 137 110 206 30 178 90 136 72 162 68 92 94 132 104 79 98 117 104 81 135 80 48 143 88 126 92 155 46 81 56 123 148 9 129 122 132 60 90 127 64 170 53 99 123 94 103 48 121 88 103 124 76 65 106 141 94 135 89 89 72 186 55 132 110 100 101 118 124 74 100 140 71 124 127 87 105 131 88 83 78 131 105 140 142 84 69 76 139 97 89 63 43 107 111 149 73 107 196 80 84 102 122 104 121 90 73 57 99 62 81 92 99 48 122 144 49 72 151 91 94 85 210 88 68 121 103 108 77 136 128 105 92 36 170 74 116 92 177 83 78 85 153 113 112 82 69 124 67 92 153 152 108 191 149 117 119 133 120 118 76 72 107 79 84 96 71 125 47 153 113 109 38 82 90 111 100 95 84 52 66 182 52 148 105 199 107 118 176 67 96 79 123 62 163 101 135 114 68 125 38 31 47 119 80 137 97 103 144 137 37 106 85 88 96 129 141 95 96 105 102 144 124 149 155 49 75 106 83 243 72 166 114 107 114 102 151 65 98 142 113 110 102 72 79 104 80 111 67 40 98 100 114 133 79 98 101 64 117 56 132 76 152 97 68 115 129 101 173 199 112 71 58 88 66 119 173 72 64 137 93 113 78 169 64 149 62 112 97 53 57 118 88 97 166 83 225 159 76 117 153 89 107 126 85 99 61 121 101 33 86 64 79 74 122 89 111 43 127 79 69 28 142 119 129 164 86 25 76 57 115 51 88 105 97 43 73 118 100 186 123 143 108 96 74 112 107 57 96 111 158 45 44 140 113 143 121 124 109 95 148 64 120 130 121 147 95 75 67 57 87 96 233 54 52 96 3 223 104 101 91 124 129 120 126 142 98 184 82 113 120 151 176 48 113 126 138 66 62 107 22 187 73 182 97 186 75 95 69 77 55 89 143 130 218 111 158 89 113 34 146 77 104 113 62 143 130 157 129 145 120 117 136 102 97 105 124 73 55 141 56 124 154 113 96 99 133 171 154 129 102 135 97 105 65 33 202 133 106 87 62 123 59 143 98 184 114 102 140 82 81 95 113 112 119 158 177 105 89 90 83 41 114 154 145 114 74 85 61 61 73 52 83 61 104 159 107 208 224 101 49 118 72 83 143 192 88 114 101 46 70 90 185 111 170 75 102 95 117 115 178 102 82 145 123 103 114 74 120 138 100 88 91 109 52 159 105 41 90 67 145 122 157 113 146 88 181 63 68 124 139 70 132 108 87 90 190 180 172 169 137 98 76 115 126 66 102 199 117 54 100 146 58 79 97 138 115 71 177 80 79 33 77 95 78 119 110 171 57 103 100 115 117 93 74 82 75 97 109 78 209 172 190 106 196 98 96 77 103 153 124 108 112 93 35 109 114 115 135 104 153 83 130 58 143 137 130 128 107 130 104 127 139 102 99 117 76 77 65 90 66 146 115 77 115 103 81 111 134 63 62 147 151 63 111 91 150 116 95 65 50 143 31 56 166 84 80 68 158 92 113 59 99 126 165 44 130 68 127 97 48 104 126 82 125 199 84 173 109 58 110 187 117 79 110 134 149 130 125 104 90 70 89 136 110 126 117 136 172 150 91 116 94 138 120 191 112 160 70 161 110 148 97 118 52 91 64 137 90 52 98 88 156 90 84 118 97 105 92 121 6 50 169 112 93 101 85 211 73 88 86 73 161 103 259 105 107 21 104 73 98 102 93 95 132 97 120 </t>
+  </si>
+  <si>
+    <t>GAM(0.1879685552661131, -1.3719926976430534e-28, 0.5984076274175844)</t>
+  </si>
+  <si>
+    <t>0 0 2 1 0 1 1 0 3 1 1 0 0 0 1 0 1 1 1 0 0 1 1 0 2 0 1 2 2 1 0 1 0 0 2 1 1 0 1 1 1 0 0 2 3 0 0 2 1 1 1 0 0 1 1 1 1 0 0 0 1 0 2 0 0 2 2 2 1 0 2 1 1 0 0 0 0 2 0 1 1 1 0 0 0 1 1 0 1 0 1 1 2 3 0 1 0 1 0 0 2 1 0 0 0 1 1 0 1 2 2 1 3 1 1 2 1 1 0 1 0 1 0 1 1 1 0 0 2 1 0 0 0 1 0 1 1 0 1 0 0 3 0 0 0 0 2 0 0 1 0 0 0 0 1 0 1 3 1 1 1 0 1 1 0 2 0 2 0 1 2 0 0 1 1 0 0 3 0 0 0 1 2 0 0 0 0 0 1 1 1 1 1 2 1 1 1 1 1 0 2 0 1 2 1 1 0 1 0 1 0 0 0 4 1 0 0 1 1 0 2 1 2 2 1 0 0 2 0 1 0 0 0 0 0 1 0 2 2 0 1 0 2 0 0 0 0 2 1 0 0 2 1 1 1 1 0 1 1 1 1 1 0 0 1 1 0 1 0 2 1 2 0 0 0 0 1 1 0 0 0 1 2 1 1 0 1 0 0 2 1 0 1 4 0 1 2 0 0 1 0 1 0 0 0 0 1 2 2 1 3 2 0 2 0 0 0 1 0 1 0 1 0 0 1 0 2 0 1 3 2 0 2 0 0 1 1 2 1 0 0 2 0 1 1 2 0 1 1 2 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 1 1 0 0 1 2 1 0 1 1 1 1 0 1 0 1 0 0 0 2 0 0 0 1 2 0 1 1 0 2 0 1 0 1 1 1 0 2 1 2 1 1 1 2 1 0 1 0 0 0 1 0 0 1 0 0 1 4 2 0 0 1 0 0 1 0 1 0 1 0 2 2 1 0 0 1 1 0 1 1 2 0 1 0 0 0 0 1 2 0 1 2 1 0 1 3 2 0 2 1 3 2 2 0 2 2 1 0 0 0 0 2 1 1 2 1 0 1 2 3 1 0 1 1 0 1 0 3 1 0 1 2 1 0 0 0 2 0 0 1 1 0 0 4 1 0 0 4 0 0 0 2 0 0 1 0 2 0 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 0 0 1 0 1 0 3 2 1 1 1 2 1 1 2 3 0 0 0 2 0 1 1 0 1 0 0 1 0 0 1 2 1 0 1 2 1 1 0 1 1 0 2 0 1 1 0 3 2 1 1 2 0 1 0 0 0 0 1 2 0 1 2 0 1 1 2 0 1 1 1 0 2 1 0 1 0 0 0 3 3 0 1 1 2 1 1 3 1 1 1 1 0 0 1 1 2 1 1 0 0 2 1 1 2 2 3 0 0 0 0 2 3 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 1 1 0 2 1 0 2 0 0 1 0 1 1 0 0 0 1 0 2 0 1 1 1 3 0 0 0 2 1 1 1 0 0 0 1 2 0 2 0 0 2 1 0 1 1 1 0 1 0 0 1 1 0 0 0 0 1 0 3 3 0 0 0 1 0 1 0 1 0 0 1 1 1 1 1 0 3 0 0 1 0 0 1 0 1 0 2 0 3 0 1 0 2 0 2 0 1 0 2 0 2 0 1 0 0 1 1 0 0 1 2 0 0 0 0 4 1 2 1 0 0 1 2 1 1 0 3 0 0 1 0 1 2 1 0 2 1 0 1 1 0 2 1 1 0 1 0 3 0 0 1 0 1 1 2 0 2 2 0 1 2 1 0 1 0 1 0 1 0 1 0 3 1 1 0 0 0 0 2 0 2 0 0 1 0 2 2 1 1 0 2 1 0 0 2 1 0 0 0 2 1 2 1 1 0 1 1 0 1 0 0 3 2 0 1 0 1 0 2 0 0 0 0 0 0 1 0 0 2 1 1 1 1 1 2 2 0 0 1 1 1 1 1 0 0 0 0 0 2 0 0 1 0 0 0 1 0 2 3 0 2 1 0 3 0 0 2 1 1 2 1 0 0 1 1 1 1 2 2 3 0 1 0 1 1 0 0 1 0 1 3 1 1 0 0 1 1 1 1 1 0 1 0 1 0 1 0 0 0 0 2 0 1 0 2 1 0 1 0 0 1 1 1 2 0 0 0 1 0 2 2 1 1 2 2 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 2 0 1 3 5 0 2 0 1 1 0 0 2 1 2 0 1 4 0 2 0 0 0 0 0 0 1 0 3 0 2 2 2 1 1 0 1 0 1 1 0 1 2 0 1 1 2 2 0 1 1 2 1 0 0 3 2 1 0 2 0 2 1 1 1 1 2 1 1 0 0 0 0 1 1 0 0 2 0 2 1 2 1 1 1 0 1 0 0 0 2 1 1 2 0 0 2 3 0 0 0 2 0 0 0 1 1 0 2 1 1 0 0 1 0 0 1 1 0 0 1 2 1 0 1 2 0 1 1 0 0 0 1 0 1 2 0 1 2 0 2 1 1 0 0 2 1 0 0 0 0 1 1 2 1 2 1 0 2 2 0 1 0 3 1 0 1 0 1 0 0 0 0 0 1 2 1 1 1 0 1 0 1 0 0 2 1 1 0 0 0 3 0 0 2 0 0 3 0 2 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 1 1 0 1 1 1 1 1 3 0 1 1 1 1 1 0 0 0 0 0 2 2 1 0 0 0 0 1 1 1 1 0 1 2 1 0 0 0 0 0 0 0 0 0 1 2 0 1 1 2 0 0 0 1 0 1 1 1 0 1 0 0 1 0 0 0 0 1 1 2 1 0 1 1 0 2 0 2 2 0 2 0 0 1 1 1 2 1 0 0 2 0 0 0 0 1 1 0 0 1 1 1 1 0 2 0 0 2 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 1 1 0 1 1 1 0 1 2 2 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 3 0 0 0 2 1 0 0 0 1 0 2 2 0 1 0 2 2 0 0 1 1 3 1 2 2 1 0 1 1 1 0 1 0 1 1 1 1 0 1 0 0 3 1 0 1 0 1 1 0 0 0 0 0 2 0 1 1 0 0 1 1 1 0 0 1 1 0 2 1 0 0 1 0 0 1 0 2 1 0 1 1 1 0 1 0 0 0 0 1 2 0 1 2 1 0 1 1 0 2 1 0 0 0 0 0 0 1 0 2 1 2 1 0 1 0 2 3 1 0 1 0 0 0 0 0 1 1 1 0 0 1 0 3 2 2 1 0 3 1 0 0 1 1 0 2 1 1 1 1 2 0 0 1 1 2 1 0 1 0 2 0 1 2 0 0 0 2 2 3 1 1 0 1 1 1 0 1 1 3 0 2 1 1 1 1 1 2 1 2 1 0 0 1 0 0 1 1 0 1 5 1 1 2 0 0 0 2 1 2 0 1 3 1 1 2 0 0 0 3 2 0 2 1 3 1 0 0 1 1 3 1 0 1 0 0 0 1 1 1 1 0 2 2 1 0 0 0 0 0 2 0 0 3 0 1 2 1 0 0 1 0 0 1 0 0 2 1 0 1 0 0 0 0 0 0 1 2 1 1 1 0 0 1 0 0 1 1 1 1 0 1 0 0 1 1 0 2 0 0 0 2 1 0 1 0 1 1 0 0 0 0 1 0 1 2 0 0 0 2 2 2 2 1 0 2 0 0 1 3 1 2 1 1 1 1 0 3 1 0 1 1 1 4 1 1 0 1 1 0 2 0 1 0 0 1 2 2 0 0 1 1 1 0 1 0 2 2 1 1 0 2 0 1 0 1 2 2 2 0 0 2 1 3 4 0 3 1 1 1 3 0 1 0 0 0 2 0 0 0 0 0 1 2 1 0 0 0 0 1 0 0 0 1 1 1 1 1 0 0 1 1 0 1 1 0 0 1 1 0 0 1 0 1 1 2 0 1 2 1 1 1 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 2 1 0 2 0 0 0 1 2 0 0 0 1 1 2 2 0 0 2 1 0 1 1 0 0 0 0 0 1 1 1 1 1 0 0 1 1 1 1 0 1 0 1 0 0 2 0 0 1 0 1 1 0 0 1 2 0 1 0 1 0 0 2 0 1 1 1 0 0 1 1 0 0 0 0 1 1 1 2 0 2 2 1 1 0 2 4 1 0 1 1 1 0 0 1 0 0 1 0 1 0 2 0 1 0 0 0 2 1 1 3 1 0 0 0 2 0 0 0 0 0 1 0 2 1 3 0 0 0 0 1 0 0 0 2 1 2 0 0 1 2 0 1 1 3 0 1 1 0 0 1 2 0 0 1 0 1 2 1 1 0 1 0 1 4 2 2 1 2 0 0 2 1 2 0 0 0 0 1 2 1 0 2 2 1 1 1 0 1 1 2 1 1 2 0 1 1 0 0 0 1 1 0 0 0 2 1 1 3 0 0 1 1 1 0 1 2 0 0 1 2 1 0 1 0 0 0 0 2 0 0 0 1 2 0 0 0 0 1 3 1 2 0 0 1 1 1 1 1 1 2 0 0 0 1 0 4 1 0 1 2 2 0 0 0 0 2 0 1 0 0 2 0 1 1 1 0 1 0 2 0 2 1 0 2 2 0 0 1 2 1 1 1 1 0 3 2 0 1 0 0 1 2 0 0 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 1 0 2 0 1 0 0 0 2 0 0 1 0 1 3 1 2 0 2 0 1 0 2 2 0 0 0 0 0 0 1 0 0 1 1 2 1 0 2 1 0 0 0 1 0 1 0 1 2 2 0 0 1 0 1 0 1 0 3 1 0 0 3 0 0 1 0 1 2 0 1 1 0 1 0 0 2 0 2 1 1 0 1 2 0 2 1 1 1 2 1 1 1 0 0 0 1 0 0 0 2 0 0 1 1 0 2 0 0 2 0 1 0 0 1 2 0 0 1 0 0 0 0 0 1 0 1 0 3 2 0 1 2 1 2 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 2 1 0 0 1 0 0 0 1 1 0 0 0 1 3 2 1 0 0 2 1 1 1 1 1 0 1 0 1 1 0 1 1 2 0 2 1 1 2 1 1 3 0 0 0 0 1 0 0 4 1 0 0 1 1 0 0 2 0 2 1 1 1 2 1 0 0 0 0 0 1 0 0 0 2 1 0 1 1 2 0 0 1 1 0 0 0 0 0 1 0 0 1 1 2 0 0 0 0 1 0 1 1 0 2 1 1 0 0 1 0 1 0 3 0 2 1 3 1 0 1 0 2 0 2 0 2 1 0 0 1 2 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 4 2 0 1 1 1 1 0 0 0 1 0 1 4 1 1 0 1 1 0 1 0 1 0 0 1 1 0 1 1 0 1 0 0 0 1 1 2 1 0 1 3 0 0 0 1 0 1 2 0 1 0 2 2 1 0 0 0 2 0 0 0 0 2 0 2 2 0 1 1 0 0 0 1 1 1 0 0 0 0 0 1 0 2 1 1 1 0 1 0 0 2 0 0 1 1 0 0 0 2 0 0 2 0 1 0 1 3 2 2 1 1 1 0 0 1 0 0 0 4 1 0 0 0 1 1 1 0 1 2 3 2 0 1 1 1 1 1 1 0 0 1 0 1 0 1 1 0 2 0 1 0 2 1 1 1 0 0 1 0 0 0 0 0 0 2 1 2 1 0 1 0 0 1 1 0 0 3 2 3 1 1 2 1 1 2 0 0 0 1 2 3 1 2 0 0 0 2 0 2 1 1 2 1 0 1 2 0 2 2 0 0 1 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 2 1 0 1 0 0 0 0 0 2 1 2 0 0 0 1 2 0 0 0 0 1 1 1 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 0 1 0 0 2 1 1 3 0 0 0 1 2 1 2 1 1 0 0 0 1 0 3 2 0 1 1 1 2 0 1 0 1 0 0 2 2 0 1 1 1 1 0 0 1 1 0 0 0 1 0 0 0 2 0 0 3 2 2 0 1 0 0 1 1 0 1 2 2 0 1 0 3 0 1 1 0 0 0 1 0 1 2 0 0 1 1 0 1 0 1 2 1 0 1 2 3 0 0 2 1 0 1 2 0 2 2 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 1 1 1 0 3 0 0 1 1 1 1 1 3 0 0 0 2 1 2 1 1 1 1 1 0 2 0 1 2 0 1 1 0 3 0 0 1 1 0 1 1 1 1 1 1 1 0 1 0 2 0 0 2 0 0 0 1 0 0 1 0 1 1 0 0 1 2 0 2 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 0 0 2 1 2 0 0 2 0 0 0 0 0 0 1 1 0 1 0 2 0 1 0 1 0 2 0 1 2 1 0 0 1 0 0 2 0 0 1 1 1 0 1 1 0 1 1 1 1 0 0 1 1 2 1 1 1 1 0 1 0 0 0 1 2 0 0 0 0 0 0 2 0 0 0 1 1 2 1 2 0 0 1 0 1 1 0 1 0 0 4 2 1 1 1 0 0 1 0 2 2 2 2 0 2 1 0 0 1 0 0 1 0 0 2 1 0 0 1 2 0 1 0 0 0 2 3 2 0 0 1 2 2 1 0 0 0 1 0 1 1 1 0 0 1 0 1 1 0 0 1 0 2 1 1 1 0 0 2 1 1 0 1 3 2 1 0 2 0 1 1 3 1 2 1 0 0 1 0 1 3 0 0 0 0 0 1 1 0 0 1 0 1 1 1 2 1 2 1 2 0 1 1 0 3 1 0 1 0 0 1 0 0 1 1 0 1 1 2 0 1 0 0 2 0 0 0 0 0 1 0 0 0 2 1 2 0 0 4 0 2 2 1 1 0 1 1 0 4 0 0 0 0 1 1 0 1 2 1 0 3 1 1 2 2 0 0 0 0 0 2 0 3 2 2 0 1 0 2 2 2 0 1 1 3 0 1 0 2 0 1 1 1 2 1 1 0 1 1 2 3 1 1 1 0 0 2 1 0 1 0 1 1 1 2 0 1 3 0 1 0 0 0 0 2 1 0 0 0 1 0 1 2 0 2 2 0 0 1 0 0 3 1 0 1 3 0 1 1 1 1 0 2 0 0 3 3 0 1 1 2 3 0 1 0 0 0 0 0 2 0 1 1 0 0 0 1 0 0 0 2 1 0 1 2 0 0 1 2 2 1 3 0 1 1 1 1 0 1 4 1 1 0 0 1 0 0 2 0 3 0 1 2 0 0 0 0 2 1 2 1 1 2 0 1 0 1 1 0 1 1 0 1 1 0 0 0 1 1 0 0 1 0 1 1 1 1 1 0 0 0 1 0 0 0 1 2 1 0 1 0 0 1 2 0 0 0 1 0 0 4 1 0 1 0 0 2 0 0 0 0 1 0 1 1 1 1 1 0 0 3 0 0 1 2 1 2 2 0 0 0 0 0 0 0 0 1 0 0 2 1 1 1 2 1 0 2 3 2 4 1 2 1 1 1 0 2 1 1 0 3 1 0 0 0 2 1 0 1 2 0 2 1 1 0 1 0 1 0 2 1 1 1 1 1 0 2 1 1 2 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 0 0 1 1 2 0 0 0 0 1 1 0 1 2 1 0 1 0 2 0 2 1 1 1 0 3 1 1 1 0 3 0 0 0 0 0 1 1 3 1 1 0 1 1 1 2 0 1 0 0 1 2 3 0 2 4 1 1 1 0 0 0 2 3 2 0 2 0 2 1 1 0 0 0 0 1 0 0 0 1 1 1 0 0 2 1 1 3 0 0 0 1 1 1 2 2 0 0 0 3 1 2 0 1 0 2 1 2 2 1 1 2 1 1 0 1 2 1 1 0 2 0 0 1 0 2 0 0 1 1 3 0 0 1 0 0 0 0 1 0 2 0 1 0 1 1 1 2 0 0 1 1 2 0 1 1 0 0 2 1 2 2 0 2 0 1 1 1 2 1 0 0 0 1 1 0 0 0 1 0 1 2 2 1 0 1 0 1 3 1 0 1 1 1 1 0 1 1 2 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 1 3 0 2 2 0 0 1 0 1 0 1 2 0 1 0 0 1 0 0 0 1 0 0 0 0 0 3 0 2 0 0 2 2 0 0 0 1 0 1 1 2 2 1 1 0 2 0 2 0 1 1 0 1 0 1 0 1 2 0 0 2 0 0 0 2 0 0 3 1 1 0 0 0 0 2 1 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 1 2 1 0 3 0 1 1 1 1 0 2 2 0 0 2 1 1 1 0 0 1 2 0 1 2 1 1 0 1 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 2 1 1 1 0 2 0 0 1 0 2 1 0 1 0 1 2 0 1 1 0 2 0 0 1 0 0 2 2 1 0 1 0 0 0 1 1 1 1 1 2 0 1 0 1 1 0 0 0 1 1 0 1 1 0 1 0 0 0 2 1 0 0 0 2 1 0 0 0 1 0 1 0 0 0 0 3 0 2 1 0 2 0 1 0 1 0 1 1 0 0 1 0 0 2 0 0 1 0 1 0 2 0 0 1 0 1 3 2 2 1 1 1 1 1 0 1 2 1 2 1 0 1 0 1 4 2 0 1 0 0 0 3 0 0 1 0 0 1 0 1 2 1 3 1 0 0 1 0 0 2 0 1 0 2 0 1 0 2 1 0 0 1 1 0 3 3 2 1 2 2 0 0 1 2 0 3 1 3 2 0 1 2 0 2 2 1 0 0 0 4 0 0 0 1 0 0 0 1 1 0 0 1 1 0 1 1 2 1 0 1 1 0 0 2 0 1 1 1 2 1 0 1 2 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 2 1 0 1 1 1 3 1 1 0 2 0 0 1 1 1 0 1 1 1 0 1 3 0 1 1 0 0 0 1 1 2 0 1 1 1 0 2 2 1 0 1 1 2 0 0 1 0 1 1 1 0 2 0 2 0 1 1 0 2 1 0 0 0 2 1 0 0 3 1 2 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 1 0 1 2 0 0 1 2 1 1 2 1 0 0 0 2 0 1 1 0 1 1 0 0 2 0 2 0 0 2 0 1 0 1 0 0 0 1 2 0 1 0 3 0 2 0 0 1 1 0 0 0 1 1 2 0 0 0 0 0 1 1 1 0 1 1 0 0 0 1 2 2 3 3 1 2 0 2 0 1 1 0 1 2 1 1 1 1 1 1 3 0 0 0 0 2 0 0 1 1 0 1 1 2 2 2 3 0 0 0 2 2 1 0 1 0 0 0 0 2 0 1 1 0 1 1 1 0 2 2 0 2 0 3 0 1 2 0 1 1 0 3 2 1 0 0 1 1 0 0 0 3 1 0 2 2 0 1 0 0 0 0 0 0 0 0 1 0 1 2 1 0 0 1 1 1 1 1 0 0 0 0 3 1 2 0 0 2 0 0 0 3 0 2 1 0 1 3 0 0 0 0 3 2 0 2 1 2 1 1 0 1 0 0 1 2 0 1 1 1 0 1 2 0 2 0 1 0 1 0 1 0 2 1 0 0 1 1 2 0 0 0 0 1 2 1 0 0 1 1 0 0 3 3 0 0 1 0 0 1 2 0 0 1 1 0 0 0 2 1 2 0 0 0 1 1 2 0 0 3 0 2 2 1 0 1 2 0 0 1 0 0 1 0 2 1 1 0 1 0 0 1 0 2 0 1 0 2 1 3 1 0 0 0 1 2 1 0 0 0 0 0 1 2 0 1 1 1 0 0 1 1 2 1 3 0 0 1 1 2 1 0 2 1 2 1 1 0 2 0 0 1 0 0 0 2 0 3 2 0 0 1 2 0 0 1 0 0 1 0 0 0 2 1 1 2 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 1 1 2 1 0 0 1 0 1 1 0 1 1 0 0 1 1 1 0 0 0 1 1 0 0 2 1 1 2 1 1 0 1 1 1 1 0 1 0 1 3 0 0 3 1 1 0 0 2 0 1 2 0 1 2 2 3 0 0 1 1 0 3 2 0 1 0 0 1 2 3 3 1 3 0 1 1 0 3 1 0 3 0 1 1 1 1 2 1 1 0 1 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 2 1 0 2 2 1 0 2 0 0 0 2 0 1 4 0 1 0 0 2 1 0 1 0 0 0 1 3 0 1 2 1 0 1 0 0 1 0 2 1 1 1 2 0 0 2 0 1 1 1 0 1 1 3 4 0 1 2 1 1 0 0 1 0 0 0 2 0 1 1 3 0 0 1 0 2 0 0 0 0 1 1 0 1 0 1 3 1 0 0 1 0 0 1 0 1 3 0 0 1 1 0 0 2 1 0 0 0 1 0 2 2 0 0 0 0 0 0 1 1 2 1 1 0 1 0 0 1 1 0 0 1 0 0 0 2 1 0 0 0 0 2 1 0 0 0 0 0 0 3 2 2 0 2 0 2 0 2 1 0 0 0 1 1 0 1 0 0 1 1 0 3 1 2 2 1 0 1 0 0 1 1 1 1 1 1 0 1 4 0 0 2 0 1 0 0 1 1 0 0 0 0 1 1 0 1 0 3 1 0 1 2 1 2 2 0 2 0 1 1 2 0 3 2 2 1 1 0 1 1 0 0 0 0 1 2 0 0 0 0 0 1 1 0 1 0 1 0 1 1 0 0 1 1 1 0 0 0 1 0 2 1 0 0 2 1 0 0 1 2 0 1 0 0 1 1 1 0 0 0 2 1 0 1 0 2 0 1 0 0 1 2 1 2 0 0 2 0 0 0 1 2 0 2 1 0 1 0 0 0 1 0 0 0 0 1 1 1 0 1 1 2 0 0 1 2 0 0 1 0 0 1 1 2 2 3 1 0 0 1 1 0 0 1 0 1 1 2 0 0 0 1 0 0 0 2 0 0 1 1 0 0 1 2 0 0 1 0 1 1 1 0 1 1 1 0 0 0 0 0 0 2 1 1 2 1 0 1 2 0 1 1 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 3 2 3 0 0 1 1 0 1 0 1 1 1 0 0 1 1 0 0 1 1 0 0 2 2 0 0 0 2 2 0 2 1 1 1 2 0 1 0 0 3 2 0 2 0 0 1 0 1 0 2 0 1 0 2 1 2 0 0 0 4 0 1 1 1 1 1 1 0 1 2 1 1 3 0 1 0 0 2 1 1 3 0 0 0 0 0 0 1 0 1 1 0 2 1 2 0 3 1 2 1 2 0 1 1 1 0 0 1 1 0 0 0 0 0 1 0 2 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 3 1 1 0 1 1 1 1 0 0 0 0 1 1 0 1 1 1 0 3 1 0 0 1 2 0 0 0 0 0 3 2 1 1 1 0 1 1 2 1 0 0 1 1 1 1 1 3 2 0 1 0 1 1 0 1 1 0 0 0 2 0 1 2 1 1 1 0 1 2 0 0 0 0 0 0 0 0 0 2 0 1 0 2 2 0 1 0 0 1 0 0 2 1 1 1 0 0 1 1 2 1 0 1 2 1 0 2 2 0 1 0 2 0 1 0 0 0 0 0 1 0 0 0 1 2 0 0 1 0 1 2 0 1 1 2 3 0 1 1 1 2 0 1 0 2 2 2 0 0 2 0 1 0 0 1 0 2 0 0 0 0 1 0 2 1 1 0 2 1 1 0 3 1 1 1 0 0 0 0 0 2 0 0 0 0 1 1 0 2 0 1 0 0 1 0 0 0 1 1 1 1 0 1 0 2 0 0 0 2 1 0 0 0 2 2 0 1 0 0 0 1 0 3 0 1 2 0 0 0 2 1 0 2 1 0 3 0 0 1 2 1 0 0 1 1 1 0 0 1 0 2 0 0 1 2 3 2 2 0 3 1 0 1 2 0 0 1 1 0 0 1 0 2 0 1 1 1 3 0 1 1 1 0 1 1 1 0 0 0 1 2 2 1 0 1 0 0 2 2 3 0 1 1 0 0 1 1 2 2 0 0 0 0 0 2 2 2 2 0 1 1 0 1 2 1 1 0 1 0 1 1 0 0 1 0 1 1 0 1 0 1 0 2 3 0 0 2 1 3 2 0 1 2 0 1 0 0 0 1 2 2 0 0 1 0 1 2 1 0 2 0 1 2 0 1 2 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 1 0 1 3 1 0 0 1 0 2 0 1 1 0 2 2 2 0 1 1 0 0 2 2 0 0 0 1 0 1 2 0 0 1 0 0 3 0 1 1 0 1 1 1 0 1 0 1 2 1 0 0 0 0 0 3 3 0 0 2 1 0 0 0 2 1 1 1 0 0 1 1 1 1 1 2 1 0 1 2 0 0 0 1 2 1 2 1 0 1 0 0 2 1 0 0 1 1 2 0 1 1 3 0 1 1 1 0 0 0 1 1 2 2 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 3 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 0 0 2 1 0 2 0 2 0 0 0 0 2 0 1 2 2 2 2 2 2 1 0 1 0 0 1 0 0 1 2 1 0 1 0 0 1 0 4 1 0 1 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 1 1 0 2 0 0 1 1 0 1 0 0 0 0 1 1 0 1 1 1 1 0 3 1 1 4 1 0 0 0 1 0 0 0 1 0 0 0 2 2 0 0 0 1 0 1 0 3 0 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 1 2 2 1 1 1 0 0 1 0 3 1 1 0 1 1 1 0 0 1 1 0 1 1 0 1 0 1 1 2 1 1 2 1 1 0 0 0 2 1 1 0 2 0 0 1 1 0 0 1 1 1 0 2 1 0 0 1 0 0 0 1 0 0 1 0 0 1 0 3 2 1 1 1 1 1 1 0 0 1 1 1 1 1 1 0 3 2 0 2 1 4 1 1 0 1 0 0 1 0 0 0 1 1 0 0 0 4 1 0 3 2 1 2 0 2 0 1 0 1 1 0 2 0 1 0 1 0 0 0 2 1 0 2 2 1 2 2 0 0 1 0 0 2 2 1 1 0 0 1 0 1 0 2 2 1 1 0 1 2 1 0 1 1 0 0 0 0 0 1 2 0 0 2 0 3 0 0 1 0 0 1 1 1 1 1 0 0 1 0 1 1 0 0 3 2 0 1 2 1 1 0 2 1 1 0 1 1 2 0 1 3 2 0 0 0 1 1 0 0 2 0 1 4 0 1 2 1 0 1 1 0 2 0 0 1 0 1 0 1 1 2 1 2 0 1 3 3 0 1 1 1 0 1 0 2 0 2 2 0 0 1 1 0 1 3 0 2 1 0 3 2 0 1 1 2 0 2 1 1 0 0 1 0 1 1 2 1 1 2 2 2 0 1 2 1 2 0 1 0 0 0 1 1 1 1 1 0 2 1 3 1 0 1 1 0 1 0 1 1 1 2 2 1 1 1 1 1 1 0 0 1 1 0 1 0 0 0 2 1 4 1 1 1 0 0 1 0 1 2 3 2 0 1 0 1 1 1 1 0 1 1 2 1 1 0 2 0 2 1 3 1 0 3 0 0 0 0 1 0 1 0 0 2 0 0 0 0 1 0 2 0 1 1 1 1 0 3 0 1 2 1 0 0 1 1 1 2 1 1 0 0 0 0 1 0 0 1 0 0 1 0 2 1 1 0 0 3 0 1 1 1 4 0 0 0 4 1 0 1 0 2 1 2 3 1 1 0 2 0 1 0 1 2 1 0 2 0 0 1 0 1 0 0 0 2 0 1 1 0 1 1 3 0 1 0 1 0 0 0 1 1 1 0 2 1 1 0 1 2 3 3 1 0 0 0 1 2 1 0 1 0 1 1 0 0 1 1 2 0 0 2 0 0 0 0 0 1 1 1 1 1 2 0 3 0 0 0 2 1 1 0 1 1 0 1 1 0 1 0 0 0 1 1 1 0 1 2 1 1 1 2 1 0 0 0 1 2 2 0 2 0 2 0 1 1 2 0 0 0 0 1 0 0 3 0 1 0 3 0 2 1 0 1 0 0 1 2 1 2 0 1 0 1 2 0 0 2 0 0 2 0 2 2 1 1 0 0 1 1 1 2 0 1 1 1 0 0 1 1 1 1 1 0 1 1 0 2 1 1 2 0 1 0 0 1 2 0 1 0 3 0 0 2 0 2 1 0 3 1 0 1 1 1 0 1 1 2 1 0 0 1 0 0 1 1 0 1 1 0 1 0 0 3 2 1 2 1 0 2 0 1 2 0 0 2 0 0 1 0 1 1 3 0 0 2 0 1 0 0 0 1 1 0 1 1 0 1 1 2 1 1 1 2 0 1 0 0 0 0 0 0 2 1 2 0 0 1 2 1 1 0 2 0 1 1 0 0 1 0 3 1 2 1 2 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 2 1 1 0 1 1 0 1 1 1 0 0 1 0 0 3 0 3 1 1 1 0 0 1 2 0 0 0 0 0 1 1 2 0 2 0 1 0 1 0 0 0 2 0 1 1 1 0 0 0 1 0 1 1 1 1 1 1 2 1 1 0 1 1 2 1 0 1 0 1 1 1 3 0 1 0 0 1 1 3 1 0 1 0 1 1 0 1 0 0 2 1 0 0 2 0 0 0 0 2 1 1 0 2 2 2 2 0 0 0 0 1 2 2 0 1 1 2 0 2 0 1 2 0 2 0 0 0 1 1 2 0 0 2 1 1 1 0 0 0 1 0 0 0 1 1 0 1 2 0 1 0 1 2 0 1 1 0 1 0 1 1 1 0 0 3 1 0 0 3 0 0 1 0 0 0 0 0 2 1 2 2 0 1 0 0 2 1 0 0 0 1 3 0 1 1 0 1 0 1 0 0 0 1 1 0 1 2 1 2 1 2 0 1 1 0 1 2 1 0 1 1 0 1 0 0 2 1 1 1 2 0 0 0 1 2 1 3 3 0 0 0 1 2 2 1 1 2 0 1 1 0 0 0 0 3 2 2 0 0 1 0 1 0 1 0 1 0 0 1 0 0 2 0 0 0 2 0 0 2 1 0 0 1 2 0 0 0 1 0 2 0 0 0 1 0 2 1 0 0 1 0 1 1 2 2 0 1 2 1 1 0 0 0 1 0 1 1 1 0 0 1 0 1 0 2 1 2 0 1 1 2 0 2 1 0 2 0 2 1 0 0 1 0 2 1 2 0 0 0 0 1 2 1 1 4 1 0 1 2 2 2 0 1 0 2 0 1 0 1 1 0 0 0 2 0 0 1 3 1 0 0 0 1 0 1 0 1 2 2 2 0 0 0 1 2 0 0 0 1 1 1 0 2 0 1 0 0 0 1 4 1 0 1 1 0 0 2 1 2 0 2 3 1 0 1 1 1 1 0 1 0 1 1 0 2 0 1 0 1 1 1 2 0 1 1 1 1 2 3 2 1 1 2 0 1 2 0 0 0 0 0 1 2 0 2 1 1 3 0 0 1 0 0 2 1 0 1 0 0 0 2 1 0 1 0 0 0 1 1 1 1 0 2 4 0 0 1 1 0 1 0 1 1 1 0 0 0 2 0 1 0 0 0 0 1 1 0 1 0 0 0 0 3 0 2 0 0 1 2 0 2 1 1 1 0 1 1 0 1 1 0 0 3 0 0 0 1 2 2 1 1 1 2 1 0 1 0 0 1 1 0 1 1 0 1 3 1 0 0 1 0 3 1 0 0 0 0 0 0 2 0 2 1 0 3 2 2 0 1 2 0 1 1 1 1 1 0 1 0 0 1 0 0 1 0 1 0 1 2 4 1 2 1 0 1 0 1 0 0 1 0 1 1 0 1 0 0 1 1 1 1 0 0 1 1 0 1 0 1 1 0 3 1 1 3 1 1 1 1 1 2 2 0 0 0 0 0 0 1 1 0 0 1 1 1 1 1 0 0 1 0 0 0 0 0 1 2 1 1 0 1 2 0 1 0 0 2 0 0 2 0 1 2 1 2 1 0 2 1 0 1 0 1 1 0 1 0 2 2 0 1 0 1 1 0 2 1 0 2 0 0 1 2 0 1 0 2 2 1 1 0 0 3 2 0 2 0 1 0 0 1 1 0 1 1 0 1 1 1 0 0 0 0 1 1 2 1 1 1 2 0 0 2 0 0 1 1 1 0 1 0 0 2 1 2 0 1 0 0 0 1 0 0 0 1 0 2 1 1 0 1 0 0 3 0 2 0 0 1 0 1 0 0 1 2 2 1 1 1 0 1 1 0 1 1 1 2 0 2 0 0 0 1 2 1 1 0 1 2 4 1 2 1 1 0 0 5 3 3 1 0 0 1 2 0 0 1 2 0 0 2 3 1 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0 0 0 4 0 0 1 1 1 0 2 1 1 0 1 0 3 1 0 0 1 1 1 1 0 0 0 1 0 0 2 2 0 0 0 1 2 0 0 0 0 0 2 3 3 0 0 2 2 2 0 2 4 1 0 0 0 0 2 0 1 0 0 1 0 2 2 1 1 2 1 1 1 1 0 1 0 0 1 1 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 1 0 1 0 1 0 0 1 0 0 0 2 1 2 2 0 1 2 0 0 0 0 1 2 1 3 1 1 0 0 0 0 1 2 1 0 1 0 2 1 2 0 2 1 1 1 2 2 1 0 0 0 1 0 0 0 1 1 0 1 2 0 2 1 1 1 0 1 1 0 0 0 0 1 0 1 1 1 1 0 4 2 1 0 0 2 1 1 0 0 1 1 1 0 0 0 0 0 1 3 1 1 1 0 1 1 1 2 0 1 0 1 1 0 2 2 2 2 0 0 1 3 2 0 0 1 0 0 0 0 1 1 1 1 1 1 0 0 1 0 0 1 0 0 0 2 3 0 0 0 2 1 3 2 1 1 0 0 1 1 0 0 0 2 1 2 0 2 0 0 2 0 0 1 0 0 3 1 2 2 1 0 0 1 2 1 1 3 1 1 1 1 2 2 2 1 3 0 0 0 2 1 2 3 0 1 0 0 1 3 0 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 1 1 0 1 0 0 1 1 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 1 0 0 1 1 1 1 1 0 2 0 1 2 1 1 0 1 0 1 0 2 0 1 0 1 2 0 0 0 2 1 0 0 0 0 3 1 0 2 2 0 0 0 0 0 1 1 1 1 2 0 0 0 0 0 0 3 1 1 1 0 1 0 0 2 1 0 2 0 1 0 1 0 0 1 0 0 0 1 0 0 2 0 0 1 0 1 1 1 1 0 1 1 0 1 1 3 0 0 1 0 2 1 1 0 1 0 0 2 1 1 0 0 1 1 0 0 0 0 1 0 0 2 1 0 2 0 0 0 1 0 0 0 2 2 0 1 0 2 1 1 1 1 1 1 1 1 1 0 1 0 1 3 1 1 2 2 0 1 0 1 2 0 1 1 1 0 1 0 2 0 1 2 0 2 1 0 1 1 1 0 0 0 1 1 0 1 0 1 0 0 0 2 1 1 1 2 0 0 1 2 1 2 1 1 1 2 1 1 1 2 2 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 1 1 1 2 1 0 0 0 1 1 1 1 1 1 0 2 1 0 0 1 1 1 1 1 1 0 4 1 0 2 1 0 1 1 0 0 1 2 2 0 0 0 2 0 0 1 1 1 0 1 1 0 1 0 2 1 1 2 0 0 1 1 1 1 2 1 0 1 3 1 0 0 0 2 4 1 1 2 2 1 0 0 1 2 1 0 0 0 0 1 0 0 1 0 5 1 2 0 0 1 1 0 0 1 1 2 0 0 0 0 0 1 1 1 1 1 0 2 1 0 0 0 1 2 0 1 0 0 0 1 1 0 1 0 0 2 0 0 1 1 1 0 1 0 1 2 1 1 2 1 1 2 0 1 2 0 1 1 2 0 0 2 2 1 2 0 2 0 1 0 1 0 1 1 0 2 2 0 2 1 2 0 0 2 0 0 1 1 0 0 0 2 0 1 0 2 3 1 2 0 0 0 1 3 0 2 1 0 2 0 0 0 1 0 0 1 0 2 1 1 0 1 1 0 0 1 0 2 0 0 0 3 0 1 0 1 2 1 0 2 1 2 0 1 0 1 1 1 1 2 0 0 2 1 0 1 0 1 1 1 0 0 0 3 0 0 0 0 1 0 2 3 2 0 1 2 2 1 0 0 0 0 0 0 1 1 2 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 2 0 0 3 0 0 1 1 0 0 0 1 2 0 1 0 1 1 2 1 1 1 2 0 3 0 1 0 0 0 2 1 0 1 1 1 0 0 2 3 0 1 0 1 1 0 0 0 1 0 2 1 2 3 0 1 1 1 1 0 0 0 1 0 2 0 0 0 0 0 3 0 0 0 0 0 1 2 0 1 1 0 1 0 0 1 2 0 0 2 0 2 2 1 0 1 2 2 3 0 0 2 2 1 1 2 0 0 1 3 0 1 1 0 2 0 0 1 0 0 1 1 1 0 3 2 1 0 0 1 0 1 0 1 1 1 1 2 1 4 2 1 0 0 1 1 0 2 1 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 1 2 0 2 2 1 0 1 1 0 1 1 1 0 0 0 1 0 0 1 0 1 1 0 0 0 1 1 0 0 1 0 0 0 1 2 0 1 1 1 1 1 1 1 0 0 0 2 1 0 2 1 1 1 1 0 0 1 2 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 1 1 1 0 0 0 2 0 2 0 1 2 0 0 0 1 3 0 1 0 2 0 2 0 1 2 1 0 0 0 0 0 0 2 0 1 1 0 0 2 1 0 2 0 1 0 4 1 1 2 0 1 1 0 0 0 0 2 2 0 1 0 0 2 0 1 2 2 0 1 2 3 0 0 1 1 0 0 1 1 1 0 0 1 0 1 0 1 0 2 1 2 1 1 1 1 1 1 0 1 1 1 2 1 1 0 0 0 1 2 0 0 2 2 0 1 0 1 3 0 0 0 0 0 0 1 0 2 2 1 0 0 0 1 0 1 0 0 1 2 1 0 1 1 1 0 1 0 1 1 1 0 1 1 0 0 0 1 1 1 0 1 1 2 1 1 0 0 0 1 2 0 0 0 0 0 1 2 1 0 1 1 1 3 1 1 2 1 1 0 3 1 1 3 0 0 1 1 2 1 1 0 1 1 3 1 0 0 2 2 2 2 1 0 1 2 0 1 1 2 0 2 1 0 1 1 1 2 2 1 0 1 2 0 1 0 1 2 1 0 0 1 3 2 0 1 2 0 0 1 0 0 0 1 2 0 1 1 0 0 0 1 0 0 1 0 0 0 1 2 0 1 0 2 1 1 1 1 2 0 1 0 0 2 1 2 1 2 2 2 2 1 1 1 1 1 1 0 0 0 0 1 0 1 2 1 1 1 0 1 1 1 0 0 1 3 0 2 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 3 0 0 1 0 0 0 0 2 1 0 0 1 0 1 1 1 0 0 1 1 1 0 0 0 1 0 1 2 0 0 0 0 0 1 0 0 3 0 3 1 0 1 2 1 1 0 0 1 1 1 2 2 1 0 0 0 1 0 2 1 1 2 0 0 1 1 2 1 3 0 4 1 2 0 1 0 1 0 0 0 0 0 2 1 1 2 0 1 1 0 0 0 0 1 1 2 0 1 0 0 1 1 0 0 0 3 1 0 0 0 1 0 0 1 1 1 0 2 0 1 0 0 2 1 0 2 0 0 0 3 0 2 2 1 0 2 1 1 2 0 1 0 1 0 0 3 2 1 1 1 1 0 1 0 1 0 1 2 2 3 2 0 3 0 0 0 0 1 1 0 1 0 0 1 1 1 0 2 1 0 0 0 1 0 1 1 0 0 1 0 1 1 0 1 0 1 2 1 1 5 1 3 0 0 1 3 1 0 0 1 0 2 1 0 1 0 0 2 1 1 1 0 2 0 0 0 0 0 0 0 2 0 1 0 0 1 0 0 1 1 0 0 0 1 0 1 1 0 1 2 2 0 0 0 2 0 0 2 0 2 1 1 0 0 2 0 1 2 1 0 0 2 2 2 1 2 1 0 1 0 0 0 1 1 1 2 1 0 1 0 1 0 3 1 2 2 0 0 2 1 0 1 2 1 0 1 1 0 1 2 0 0 0 0 0 2 0 1 2 1 2 0 0 1 0 0 0 0 0 0 0 1 1 3 0 0 1 2 0 0 2 0 0 0 0 1 1 0 0 0 1 5 0 1 1 2 2 1 0 1 0 0 2 0 0 2 0 2 0 0 0 0 1 1 1 2 0 0 0 0 0 0 1 3 2 0 1 0 1 1 0 0 1 0 0 1 2 1 1 0 0 0 1 1 0 1 0 0 1 0 1 0 2 2 1 1 1 3 0 0 1 0 0 0 2 0 2 1 1 1 1 1 1 1 0 1 0 1 2 1 1 0 2 2 1 1 1 1 1 0 0 2 0 2 1 1 0 1 0 1 1 0 1 2 1 2 1 1 0 0 1 0 0 0 1 1 1 0 0 2 0 0 1 1 1 3 2 1 1 0 0 0 1 2 1 1 2 1 2 0 1 0 2 1 1 0 1 0 1 1 3 0 1 1 0 1 1 2 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 1 0 1 1 0 1 2 1 1 1 4 0 0 0 0 1 0 0 2 0 0 1 2 2 1 0 0 0 2 1 0 0 0 3 0 0 0 0 2 1 0 0 2 1 1 1 1 1 2 0 2 0 0 2 0 1 0 0 1 0 1 2 1 1 2 1 0 0 1 0 0 1 0 1 1 1 2 1 5 0 3 0 1 0 1 0 1 1 0 0 1 1 0 1 1 1 1 1 1 0 2 0 0 0 1 1 1 0 0 1 0 1 0 0 0 2 0 2 0 1 0 1 1 2 0 0 0 0 0 2 0 1 0 0 1 0 1 1 2 0 0 0 2 1 0 0 0 0 1 2 1 1 0 2 0 1 1 2 0 2 0 1 1 0 0 1 0 2 1 1 0 3 0 0 0 2 0 2 1 1 3 2 0 1 1 0 0 0 0 0 2 0 0 1 2 0 1 1 1 0 0 1 0 1 0 0 0 0 1 1 0 1 0 2 1 0 2 0 1 1 1 2 0 3 3 2 2 2 1 0 0 1 0 1 2 0 1 0 2 0 0 0 1 0 2 0 0 0 1 1 1 2 0 0 0 1 0 1 1 0 2 1 0 0 0 1 0 1 1 1 0 1 0 2 1 0 0 0 1 1 2 1 0 0 0 2 0 0 0 0 1 0 0 1 3 2 1 1 0 3 1 1 1 3 0 1 2 0 3 0 1 1 1 1 1 0 0 0 1 3 0 3 2 0 0 1 1 1 1 0 0 1 1 1 0 1 1 0 0 0 0 0 2 0 2 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>R.Wilson</t>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.2</v>
+        <v>44.5</v>
       </c>
       <c r="C2">
-        <v>53.1</v>
+        <v>54.7</v>
       </c>
       <c r="D2">
         <v>0.8</v>
       </c>
       <c r="E2">
-        <v>-1.1</v>
+        <v>-1.4</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -800,10 +800,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>6.1</v>
+        <v>6.01</v>
       </c>
       <c r="L2">
-        <v>5.96</v>
+        <v>6.01</v>
       </c>
     </row>
   </sheetData>
@@ -850,28 +850,28 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D2">
         <v>32.2</v>
       </c>
       <c r="E2">
-        <v>229.46</v>
+        <v>228.39</v>
       </c>
       <c r="F2">
         <v>1.18</v>
       </c>
       <c r="G2">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="H2">
-        <v>103.83</v>
+        <v>102.99</v>
       </c>
       <c r="I2">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -991,28 +991,28 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D2">
         <v>32.2</v>
       </c>
       <c r="E2">
-        <v>229.44</v>
+        <v>228.36</v>
       </c>
       <c r="F2">
         <v>1.18</v>
       </c>
       <c r="G2">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="H2">
         <v>0.05</v>
       </c>
       <c r="I2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="K2">
         <v>0.01</v>
@@ -1021,7 +1021,7 @@
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>13.18</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1053,16 +1053,16 @@
         <v>1.4</v>
       </c>
       <c r="J3">
-        <v>5.72</v>
+        <v>5.79</v>
       </c>
       <c r="K3">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1162,34 +1162,34 @@
         <v>55</v>
       </c>
       <c r="C2">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="D2">
-        <v>29.29</v>
+        <v>28.9</v>
       </c>
       <c r="E2">
         <v>0.14</v>
       </c>
       <c r="F2">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="G2">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="H2">
-        <v>76.40000000000001</v>
+        <v>75.41</v>
       </c>
       <c r="I2">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="J2">
         <v>0.02</v>
       </c>
       <c r="K2">
-        <v>17.16</v>
+        <v>16.86</v>
       </c>
       <c r="L2">
-        <v>14.28</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1200,10 +1200,10 @@
         <v>56</v>
       </c>
       <c r="C3">
-        <v>5.04</v>
+        <v>5.02</v>
       </c>
       <c r="D3">
-        <v>55.51</v>
+        <v>55.53</v>
       </c>
       <c r="E3">
         <v>0.29</v>
@@ -1215,7 +1215,7 @@
         <v>0.3</v>
       </c>
       <c r="H3">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="I3">
         <v>0.01</v>
@@ -1224,10 +1224,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>12.42</v>
+        <v>12.36</v>
       </c>
       <c r="L3">
-        <v>7.37</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1241,7 +1241,7 @@
         <v>4.34</v>
       </c>
       <c r="D4">
-        <v>45.73</v>
+        <v>45.74</v>
       </c>
       <c r="E4">
         <v>0.23</v>
@@ -1253,7 +1253,7 @@
         <v>0.1</v>
       </c>
       <c r="H4">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>10.21</v>
+        <v>10.22</v>
       </c>
       <c r="L4">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1276,22 +1276,22 @@
         <v>58</v>
       </c>
       <c r="C5">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="D5">
-        <v>30.97</v>
+        <v>30.55</v>
       </c>
       <c r="E5">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F5">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G5">
         <v>0.1</v>
       </c>
       <c r="H5">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>6.83</v>
+        <v>6.71</v>
       </c>
       <c r="L5">
-        <v>4.08</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1314,10 +1314,10 @@
         <v>59</v>
       </c>
       <c r="C6">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="D6">
-        <v>17.21</v>
+        <v>16.94</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -1329,19 +1329,19 @@
         <v>0.2</v>
       </c>
       <c r="H6">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="I6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.86</v>
+        <v>3.8</v>
       </c>
       <c r="L6">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1352,10 +1352,10 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="D7">
-        <v>15.3</v>
+        <v>15.35</v>
       </c>
       <c r="E7">
         <v>0.08</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="L7">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1393,10 +1393,10 @@
         <v>0.64</v>
       </c>
       <c r="D8">
-        <v>6.55</v>
+        <v>6.66</v>
       </c>
       <c r="E8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F8">
         <v>0.04</v>
@@ -1405,7 +1405,7 @@
         <v>1.7</v>
       </c>
       <c r="H8">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
       <c r="I8">
         <v>0.05</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="L8">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1428,34 +1428,34 @@
         <v>62</v>
       </c>
       <c r="C9">
-        <v>1.01</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>10.51</v>
+        <v>5.22</v>
       </c>
       <c r="E9">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F9">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="L9">
-        <v>1.34</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1466,34 +1466,34 @@
         <v>63</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>1.01</v>
       </c>
       <c r="D10">
-        <v>5.28</v>
+        <v>10.62</v>
       </c>
       <c r="E10">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F10">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G10">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>8.619999999999999</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="L10">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1504,10 +1504,10 @@
         <v>64</v>
       </c>
       <c r="C11">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="D11">
-        <v>8.09</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E11">
         <v>0.04</v>
@@ -1519,7 +1519,7 @@
         <v>0.4</v>
       </c>
       <c r="H11">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="I11">
         <v>0.01</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="L11">
         <v>1.3</v>
@@ -1542,16 +1542,16 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="D12">
-        <v>4.3</v>
+        <v>4.22</v>
       </c>
       <c r="E12">
         <v>0.02</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="L12">
         <v>0.55</v>
@@ -1580,34 +1580,34 @@
         <v>66</v>
       </c>
       <c r="C13">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <v>0.58</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.13</v>
+      </c>
+      <c r="L13">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.7</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0.16</v>
-      </c>
-      <c r="L13">
-        <v>0.09</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1633,7 +1633,7 @@
         <v>0.1</v>
       </c>
       <c r="H14">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1847,25 +1847,25 @@
         <v>78</v>
       </c>
       <c r="C2">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="D2">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="E2">
         <v>1.11</v>
       </c>
       <c r="F2">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G2">
         <v>0.31</v>
       </c>
       <c r="H2">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>6.68</v>
+        <v>6.64</v>
       </c>
     </row>
   </sheetData>
@@ -1912,28 +1912,28 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C2">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="D2">
         <v>30.7</v>
       </c>
       <c r="E2">
-        <v>234</v>
+        <v>235.91</v>
       </c>
       <c r="F2">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G2">
         <v>0.27</v>
       </c>
       <c r="H2">
-        <v>106.87</v>
+        <v>106.34</v>
       </c>
       <c r="I2">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2053,28 +2053,28 @@
         <v>95</v>
       </c>
       <c r="C2">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="D2">
         <v>30.7</v>
       </c>
       <c r="E2">
-        <v>233.98</v>
+        <v>235.9</v>
       </c>
       <c r="F2">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G2">
         <v>0.27</v>
       </c>
       <c r="H2">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I2">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J2">
-        <v>13.59</v>
+        <v>13.83</v>
       </c>
       <c r="K2">
         <v>0.11</v>
@@ -2083,7 +2083,7 @@
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>15.97</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2224,13 +2224,13 @@
         <v>98</v>
       </c>
       <c r="C2">
-        <v>5.56</v>
+        <v>5.63</v>
       </c>
       <c r="D2">
-        <v>61.56</v>
+        <v>62.73</v>
       </c>
       <c r="E2">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="F2">
         <v>0.09</v>
@@ -2248,10 +2248,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>13.66</v>
+        <v>13.89</v>
       </c>
       <c r="L2">
-        <v>8.1</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2262,13 +2262,13 @@
         <v>99</v>
       </c>
       <c r="C3">
-        <v>4.81</v>
+        <v>4.84</v>
       </c>
       <c r="D3">
-        <v>56.19</v>
+        <v>56.76</v>
       </c>
       <c r="E3">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F3">
         <v>0.08</v>
@@ -2277,7 +2277,7 @@
         <v>0.1</v>
       </c>
       <c r="H3">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>12.3</v>
+        <v>12.43</v>
       </c>
       <c r="L3">
-        <v>7.49</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2303,7 +2303,7 @@
         <v>1.14</v>
       </c>
       <c r="D4">
-        <v>11.78</v>
+        <v>11.66</v>
       </c>
       <c r="E4">
         <v>0.06</v>
@@ -2312,10 +2312,10 @@
         <v>0.23</v>
       </c>
       <c r="G4">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="H4">
-        <v>52.3</v>
+        <v>51.86</v>
       </c>
       <c r="I4">
         <v>0.38</v>
@@ -2324,10 +2324,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>9.74</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L4">
-        <v>8.6</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2338,22 +2338,22 @@
         <v>101</v>
       </c>
       <c r="C5">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="D5">
-        <v>34.79</v>
+        <v>34.98</v>
       </c>
       <c r="E5">
         <v>0.19</v>
       </c>
       <c r="F5">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5">
         <v>0.4</v>
       </c>
       <c r="H5">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="I5">
         <v>0.01</v>
@@ -2362,10 +2362,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>8.15</v>
+        <v>8.19</v>
       </c>
       <c r="L5">
-        <v>4.75</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2376,22 +2376,22 @@
         <v>102</v>
       </c>
       <c r="C6">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="D6">
-        <v>22.17</v>
+        <v>22.03</v>
       </c>
       <c r="E6">
         <v>0.12</v>
       </c>
       <c r="F6">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G6">
         <v>0.6</v>
       </c>
       <c r="H6">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="I6">
         <v>0.02</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.32</v>
+        <v>5.3</v>
       </c>
       <c r="L6">
         <v>3.25</v>
@@ -2417,19 +2417,19 @@
         <v>0.72</v>
       </c>
       <c r="D7">
-        <v>7.55</v>
+        <v>7.43</v>
       </c>
       <c r="E7">
         <v>0.04</v>
       </c>
       <c r="F7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G7">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H7">
-        <v>25.21</v>
+        <v>24.8</v>
       </c>
       <c r="I7">
         <v>0.18</v>
@@ -2438,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="L7">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2452,10 +2452,10 @@
         <v>104</v>
       </c>
       <c r="C8">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="D8">
-        <v>15.75</v>
+        <v>15.91</v>
       </c>
       <c r="E8">
         <v>0.09</v>
@@ -2467,7 +2467,7 @@
         <v>0.1</v>
       </c>
       <c r="H8">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.62</v>
+        <v>3.63</v>
       </c>
       <c r="L8">
         <v>2.15</v>
@@ -2490,13 +2490,13 @@
         <v>105</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D9">
-        <v>8.08</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E9">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F9">
         <v>0.02</v>
@@ -2505,7 +2505,7 @@
         <v>0.4</v>
       </c>
       <c r="H9">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="I9">
         <v>0.01</v>
@@ -2514,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="L9">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2534,7 +2534,7 @@
         <v>6.4</v>
       </c>
       <c r="E10">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F10">
         <v>0.02</v>
@@ -2543,7 +2543,7 @@
         <v>0.7</v>
       </c>
       <c r="H10">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="I10">
         <v>0.02</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="L10">
         <v>1.21</v>
@@ -2566,10 +2566,10 @@
         <v>107</v>
       </c>
       <c r="C11">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="D11">
-        <v>6.94</v>
+        <v>7.12</v>
       </c>
       <c r="E11">
         <v>0.04</v>
@@ -2590,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="L11">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2619,7 +2619,7 @@
         <v>1.2</v>
       </c>
       <c r="H12">
-        <v>5.17</v>
+        <v>5.16</v>
       </c>
       <c r="I12">
         <v>0.04</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="L12">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2645,7 +2645,7 @@
         <v>0.21</v>
       </c>
       <c r="D13">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="E13">
         <v>0.01</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="L13">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2683,7 +2683,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="D14">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2704,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="L14">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2909,25 +2909,25 @@
         <v>115</v>
       </c>
       <c r="C2">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="D2">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="E2">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="F2">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G2">
         <v>0.42</v>
       </c>
       <c r="H2">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="I2">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
     </row>
   </sheetData>
